--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -8,8 +8,6 @@
     <sheet state="visible" name="Information_Stage" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Information_Mercenary" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Information_Item" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Information_Level" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Information_LevelCost" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>Number</t>
   </si>
@@ -55,9 +53,6 @@
     <t>Train_Attack_Delay</t>
   </si>
   <si>
-    <t>Train_Food</t>
-  </si>
-  <si>
     <t>Train_Heal</t>
   </si>
   <si>
@@ -73,12 +68,6 @@
     <t>Engine</t>
   </si>
   <si>
-    <t>Food Train</t>
-  </si>
-  <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
     <t>Fuel Train</t>
   </si>
   <si>
@@ -193,9 +182,15 @@
     <t>Engineer</t>
   </si>
   <si>
+    <t>Sniper</t>
+  </si>
+  <si>
     <t>Long_Ranged</t>
   </si>
   <si>
+    <t>Gangster</t>
+  </si>
+  <si>
     <t>Short_Ranged</t>
   </si>
   <si>
@@ -227,84 +222,6 @@
   </si>
   <si>
     <t>재료템</t>
-  </si>
-  <si>
-    <t>Level_Name</t>
-  </si>
-  <si>
-    <t>Max_Level</t>
-  </si>
-  <si>
-    <t>Level_Player_Atk</t>
-  </si>
-  <si>
-    <t>Level_Player_AtkDelay</t>
-  </si>
-  <si>
-    <t>Level_Player_HP</t>
-  </si>
-  <si>
-    <t>Level_Player_Armor</t>
-  </si>
-  <si>
-    <t>Level_Player_Speed</t>
-  </si>
-  <si>
-    <t>Level_Train_EngineTier</t>
-  </si>
-  <si>
-    <t>Level_Train_MaxSpeed</t>
-  </si>
-  <si>
-    <t>Level_Train_Armor</t>
-  </si>
-  <si>
-    <t>Level_Train_Efficient</t>
-  </si>
-  <si>
-    <t>Level_Mercenary_Engine_Driver</t>
-  </si>
-  <si>
-    <t>Level_Mercenary_Engineer</t>
-  </si>
-  <si>
-    <t>Level_Mercenary_Long_Ranged</t>
-  </si>
-  <si>
-    <t>Level_Mercenary_Short_Ranged</t>
-  </si>
-  <si>
-    <t>Level_Mercenary_Medic</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Cost_Level_Player_Atk</t>
-  </si>
-  <si>
-    <t>Cost_Level_Player_AtkDelay</t>
-  </si>
-  <si>
-    <t>Cost_Level_Player_HP</t>
-  </si>
-  <si>
-    <t>Cost_Level_Player_Armor</t>
-  </si>
-  <si>
-    <t>Cost_Level_Player_Speed</t>
-  </si>
-  <si>
-    <t>Cost_Level_Train_EngineTier</t>
-  </si>
-  <si>
-    <t>Cost_Level_Train_MaxSpeed</t>
-  </si>
-  <si>
-    <t>Cost_Level_Train_Armor</t>
-  </si>
-  <si>
-    <t>Cost_Level_Train_Efficient</t>
   </si>
 </sst>
 </file>
@@ -333,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,18 +293,6 @@
         <bgColor rgb="FFD5A6BD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -409,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -476,15 +381,6 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -510,14 +406,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -751,9 +639,8 @@
     <col customWidth="1" min="10" max="10" width="10.43"/>
     <col customWidth="1" min="11" max="11" width="12.43"/>
     <col customWidth="1" min="12" max="12" width="18.57"/>
-    <col customWidth="1" min="13" max="13" width="16.29"/>
-    <col customWidth="1" min="14" max="14" width="13.86"/>
-    <col customWidth="1" min="16" max="16" width="39.86"/>
+    <col customWidth="1" min="13" max="13" width="13.86"/>
+    <col customWidth="1" min="15" max="15" width="39.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -796,14 +683,11 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -811,7 +695,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6">
         <v>5000.0</v>
@@ -823,7 +707,7 @@
         <v>10.0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6">
         <v>300.0</v>
@@ -850,7 +734,6 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="1">
@@ -866,30 +749,18 @@
       <c r="A5" s="9">
         <v>3.0</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10">
-        <v>5000.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>300000.0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="10">
-        <v>500000.0</v>
-      </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -902,7 +773,6 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
       <c r="A6" s="1">
@@ -939,7 +809,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="13">
         <v>5000.0</v>
@@ -951,7 +821,7 @@
         <v>10.0</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -974,7 +844,6 @@
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="3">
@@ -1034,7 +903,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="17">
         <v>5000.0</v>
@@ -1046,7 +915,7 @@
         <v>10.0</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -1071,7 +940,6 @@
       <c r="W22" s="18"/>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
       <c r="A23" s="3">
@@ -1173,7 +1041,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C42" s="20">
         <v>5000.0</v>
@@ -1185,7 +1053,7 @@
         <v>10.0</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -1193,10 +1061,10 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="20">
+      <c r="M42" s="20">
         <v>100000.0</v>
       </c>
+      <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
@@ -1208,7 +1076,6 @@
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
     </row>
     <row r="43" ht="17.25" customHeight="1">
       <c r="A43" s="3">
@@ -2272,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -2292,7 +2159,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4">
         <v>5000000.0</v>
@@ -2303,7 +2170,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>7000000.0</v>
@@ -2314,7 +2181,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4">
         <v>1.0E7</v>
@@ -2325,7 +2192,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
         <v>1.2E7</v>
@@ -2336,7 +2203,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5">
         <v>1.3E7</v>
@@ -2347,7 +2214,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5">
         <v>1.5E7</v>
@@ -2358,7 +2225,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5">
         <v>1.6E7</v>
@@ -2369,7 +2236,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
@@ -2377,7 +2244,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
@@ -2385,7 +2252,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
@@ -2393,7 +2260,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
@@ -2401,7 +2268,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
@@ -2409,7 +2276,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -2417,7 +2284,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -2425,7 +2292,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
@@ -2433,7 +2300,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -2441,7 +2308,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
@@ -2449,7 +2316,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
@@ -2457,7 +2324,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
@@ -2465,7 +2332,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1"/>
@@ -3475,27 +3342,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
         <v>0.0</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5">
         <v>2000.0</v>
@@ -3505,8 +3375,11 @@
       <c r="A3" s="5">
         <v>1.0</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" s="5">
         <v>3000.0</v>
@@ -3516,8 +3389,11 @@
       <c r="A4" s="5">
         <v>2.0</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="5">
         <v>4000.0</v>
@@ -3527,8 +3403,11 @@
       <c r="A5" s="5">
         <v>3.0</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="5">
         <v>5000.0</v>
@@ -3538,8 +3417,11 @@
       <c r="A6" s="5">
         <v>4.0</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5">
         <v>6000.0</v>
@@ -3844,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -3858,10 +3740,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -3869,10 +3751,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -3880,10 +3762,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -3926,10 +3808,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -3937,10 +3819,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -3948,10 +3830,10 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -3959,10 +3841,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -3970,10 +3852,10 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -3981,10 +3863,10 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -3992,10 +3874,10 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -4003,10 +3885,10 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -4014,10 +3896,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -4025,10 +3907,10 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -4036,1113 +3918,10 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="28.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="22">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="23">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="23">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="23">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="23">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="24">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="24">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="24">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="24">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="24">
-        <v>3.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="20.43"/>
-    <col customWidth="1" min="3" max="3" width="25.14"/>
-    <col customWidth="1" min="4" max="4" width="20.0"/>
-    <col customWidth="1" min="5" max="5" width="23.0"/>
-    <col customWidth="1" min="6" max="6" width="22.86"/>
-    <col customWidth="1" min="7" max="7" width="25.57"/>
-    <col customWidth="1" min="8" max="8" width="25.43"/>
-    <col customWidth="1" min="9" max="9" width="22.0"/>
-    <col customWidth="1" min="10" max="10" width="23.29"/>
-    <col customWidth="1" min="11" max="11" width="28.86"/>
-    <col customWidth="1" min="12" max="12" width="24.29"/>
-    <col customWidth="1" min="13" max="13" width="28.29"/>
-    <col customWidth="1" min="14" max="14" width="28.86"/>
-    <col customWidth="1" min="15" max="15" width="22.14"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3000.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>4000.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5000.0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>6000.0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>7000.0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>8000.0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>20000.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>30000.0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>40000.0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>50000.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1001.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2001.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3001.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4001.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5001.0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>6001.0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7001.0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>8001.0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>9001.0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>10001.0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>20001.0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>30001.0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>40001.0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>50001.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1002.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2002.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3002.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4002.0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>5002.0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6002.0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>7002.0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>8002.0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>9002.0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>10002.0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>20002.0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>30002.0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>40002.0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>50002.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1003.0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2003.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3003.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4003.0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5003.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>6003.0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>7003.0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>8003.0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>9003.0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>10003.0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>20003.0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>30003.0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>40003.0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>50003.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1004.0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2004.0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4004.0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5004.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>6004.0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>7004.0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>8004.0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9004.0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>10004.0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>20004.0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>30004.0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>40004.0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>50004.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1005.0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2005.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3005.0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4005.0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5005.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>6005.0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>7005.0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>8005.0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>9005.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1006.0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2006.0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3006.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4006.0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5006.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>6006.0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>7006.0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>8006.0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>9006.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1007.0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2007.0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3007.0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4007.0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5007.0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6007.0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>7007.0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>8007.0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>9007.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1008.0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2008.0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3008.0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4008.0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5008.0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>6008.0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>7008.0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>8008.0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>9008.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1009.0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2009.0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3009.0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4009.0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5009.0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>6009.0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>7009.0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>8009.0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>9009.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1010.0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3010.0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4010.0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5010.0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>6010.0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>7010.0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>8010.0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>9010.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1011.0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3011.0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4011.0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>5011.0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>6011.0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>7011.0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>8011.0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>9011.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1012.0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>3012.0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4012.0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5012.0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>6012.0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>7012.0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>8012.0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>9012.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1013.0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3013.0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4013.0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>5013.0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>6013.0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>7013.0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>8013.0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>9013.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1014.0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3014.0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4014.0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>5014.0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>6014.0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>7014.0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>8014.0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>9014.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1015.0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3015.0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>4015.0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5015.0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>6015.0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>7015.0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>8015.0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>9015.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1016.0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3016.0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4016.0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>5016.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1017.0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3017.0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4017.0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5017.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1018.0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3018.0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4018.0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>5018.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1019.0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2019.0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>3019.0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4019.0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>5019.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1020.0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2020.0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3020.0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4020.0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>5020.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1021.0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3021.0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>4021.0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>5021.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1022.0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2022.0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3022.0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>4022.0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>5022.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1023.0</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2023.0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>3023.0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>4023.0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>5023.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1024.0</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2024.0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3024.0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>4024.0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>5024.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1025.0</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2025.0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>3025.0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4025.0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5025.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1026.0</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2026.0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>3026.0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>4026.0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>5026.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1027.0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2027.0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3027.0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>4027.0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5027.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1028.0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2028.0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>3028.0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>4028.0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>5028.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5">
-        <v>29.0</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1029.0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2029.0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>3029.0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>4029.0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>5029.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1030.0</v>
-      </c>
-      <c r="C32" s="5">
-        <v>2030.0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>3030.0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>4030.0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>5030.0</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Number</t>
   </si>
@@ -62,6 +62,12 @@
     <t>Train_Information</t>
   </si>
   <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
     <t>Enigne Train</t>
   </si>
   <si>
@@ -174,6 +180,9 @@
   </si>
   <si>
     <t>Mercenary_Pride</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
   <si>
     <t>Engine_Driver</t>
@@ -314,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -342,6 +351,9 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +372,9 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -371,6 +386,9 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -689,13 +707,19 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="6">
         <v>0.0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6">
         <v>5000.0</v>
@@ -707,7 +731,7 @@
         <v>10.0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="6">
         <v>300.0</v>
@@ -724,8 +748,12 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="P2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -739,432 +767,772 @@
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
+      <c r="P3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
+      <c r="P4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3.0</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
+      <c r="P6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
+      <c r="P7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
+      <c r="P8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
       <c r="A9" s="1">
         <v>7.0</v>
       </c>
+      <c r="P9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="1">
         <v>8.0</v>
       </c>
+      <c r="P10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="1">
         <v>9.0</v>
       </c>
+      <c r="P11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>10.0</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14">
         <v>5000.0</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>500000.0</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <v>10.0</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13">
+      <c r="F12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14">
         <v>600000.0</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="3">
         <v>11.0</v>
       </c>
       <c r="B13" s="3"/>
+      <c r="P13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
       <c r="A14" s="3">
         <v>12.0</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
+      <c r="P14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="3">
         <v>13.0</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="P15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="3">
         <v>14.0</v>
       </c>
+      <c r="P16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="3">
         <v>15.0</v>
       </c>
+      <c r="P17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="3">
         <v>16.0</v>
       </c>
+      <c r="P18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" s="3">
         <v>17.0</v>
       </c>
+      <c r="P19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
       <c r="A20" s="3">
         <v>18.0</v>
       </c>
+      <c r="P20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
       <c r="A21" s="3">
         <v>19.0</v>
       </c>
+      <c r="P21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="18">
         <v>20.0</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19">
         <v>5000.0</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="19">
         <v>200000.0</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="19">
         <v>10.0</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17">
+      <c r="F22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19">
         <v>2.0</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="19">
         <v>0.5</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
       <c r="A23" s="3">
         <v>21.0</v>
       </c>
+      <c r="P23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
       <c r="A24" s="3">
         <v>22.0</v>
       </c>
+      <c r="P24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
       <c r="A25" s="3">
         <v>23.0</v>
       </c>
+      <c r="P25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" ht="17.25" customHeight="1">
       <c r="A26" s="3">
         <v>24.0</v>
       </c>
+      <c r="P26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" ht="17.25" customHeight="1">
       <c r="A27" s="3">
         <v>25.0</v>
       </c>
+      <c r="P27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" ht="17.25" customHeight="1">
       <c r="A28" s="3">
         <v>26.0</v>
       </c>
+      <c r="P28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" ht="17.25" customHeight="1">
       <c r="A29" s="3">
         <v>27.0</v>
       </c>
+      <c r="P29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" ht="17.25" customHeight="1">
       <c r="A30" s="3">
         <v>28.0</v>
       </c>
+      <c r="P30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" ht="17.25" customHeight="1">
       <c r="A31" s="3">
         <v>29.0</v>
       </c>
+      <c r="P31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="17.25" customHeight="1">
       <c r="A32" s="3">
         <v>30.0</v>
       </c>
+      <c r="P32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" ht="17.25" customHeight="1">
       <c r="A33" s="3">
         <v>31.0</v>
       </c>
+      <c r="P33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" ht="17.25" customHeight="1">
       <c r="A34" s="3">
         <v>32.0</v>
       </c>
+      <c r="P34" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" ht="17.25" customHeight="1">
       <c r="A35" s="3">
         <v>33.0</v>
       </c>
+      <c r="P35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" ht="17.25" customHeight="1">
       <c r="A36" s="3">
         <v>34.0</v>
       </c>
+      <c r="P36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" ht="17.25" customHeight="1">
       <c r="A37" s="3">
         <v>35.0</v>
       </c>
+      <c r="P37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" ht="17.25" customHeight="1">
       <c r="A38" s="3">
         <v>36.0</v>
       </c>
+      <c r="P38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" ht="17.25" customHeight="1">
       <c r="A39" s="3">
         <v>37.0</v>
       </c>
+      <c r="P39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" ht="17.25" customHeight="1">
       <c r="A40" s="3">
         <v>38.0</v>
       </c>
+      <c r="P40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" ht="17.25" customHeight="1">
       <c r="A41" s="3">
         <v>39.0</v>
       </c>
+      <c r="P41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" ht="17.25" customHeight="1">
-      <c r="A42" s="19">
+      <c r="A42" s="22">
         <v>40.0</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="20">
+      <c r="B42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="23">
         <v>5000.0</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="23">
         <v>200000.0</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="23">
         <v>10.0</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="20">
+      <c r="F42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="23">
         <v>100000.0</v>
       </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
     </row>
     <row r="43" ht="17.25" customHeight="1">
       <c r="A43" s="3">
         <v>41.0</v>
       </c>
+      <c r="P43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" ht="17.25" customHeight="1">
       <c r="A44" s="3">
         <v>42.0</v>
       </c>
+      <c r="P44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" ht="17.25" customHeight="1">
       <c r="A45" s="3">
         <v>43.0</v>
       </c>
+      <c r="P45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" ht="17.25" customHeight="1">
       <c r="A46" s="3">
         <v>44.0</v>
       </c>
+      <c r="P46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" ht="17.25" customHeight="1">
       <c r="A47" s="3">
         <v>45.0</v>
       </c>
+      <c r="P47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" ht="17.25" customHeight="1">
       <c r="A48" s="3">
         <v>46.0</v>
       </c>
+      <c r="P48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" ht="17.25" customHeight="1">
       <c r="A49" s="3">
         <v>47.0</v>
       </c>
+      <c r="P49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" ht="17.25" customHeight="1">
       <c r="A50" s="3">
         <v>48.0</v>
       </c>
+      <c r="P50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" ht="17.25" customHeight="1">
       <c r="A51" s="3">
         <v>49.0</v>
       </c>
+      <c r="P51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" ht="17.25" customHeight="1">
       <c r="A52" s="3">
         <v>50.0</v>
       </c>
+      <c r="P52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" ht="17.25" customHeight="1">
       <c r="A53" s="3">
         <v>51.0</v>
       </c>
+      <c r="P53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" ht="17.25" customHeight="1">
       <c r="A54" s="3">
         <v>52.0</v>
       </c>
+      <c r="P54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" ht="17.25" customHeight="1">
       <c r="A55" s="3">
         <v>53.0</v>
       </c>
+      <c r="P55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" ht="17.25" customHeight="1">
       <c r="A56" s="3">
         <v>54.0</v>
       </c>
+      <c r="P56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" ht="17.25" customHeight="1">
       <c r="A57" s="3">
         <v>55.0</v>
       </c>
+      <c r="P57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" ht="17.25" customHeight="1">
       <c r="A58" s="3">
         <v>56.0</v>
       </c>
+      <c r="P58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" ht="17.25" customHeight="1">
       <c r="A59" s="3">
         <v>57.0</v>
       </c>
+      <c r="P59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" ht="17.25" customHeight="1">
       <c r="A60" s="3">
         <v>58.0</v>
+      </c>
+      <c r="P60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="17.25" customHeight="1"/>
@@ -2139,200 +2507,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>0.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4">
         <v>5000000.0</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="17">
         <v>1.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4">
         <v>7000000.0</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="17">
         <v>2.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4">
         <v>1.0E7</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <v>3.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5">
         <v>1.2E7</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="17">
         <v>4.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>1.3E7</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="17">
         <v>5.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>1.5E7</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="15">
+      <c r="A8" s="17">
         <v>6.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>1.6E7</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="15">
+      <c r="A9" s="17">
         <v>7.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="15">
+      <c r="A10" s="17">
         <v>8.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="15">
+      <c r="A11" s="17">
         <v>9.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="15">
+      <c r="A12" s="17">
         <v>10.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="15">
+      <c r="A13" s="17">
         <v>11.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="15">
+      <c r="A14" s="17">
         <v>12.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="17">
         <v>13.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="15">
+      <c r="A16" s="17">
         <v>14.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="15">
+      <c r="A17" s="17">
         <v>15.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="15">
+      <c r="A18" s="17">
         <v>16.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="15">
+      <c r="A19" s="17">
         <v>17.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="17">
         <v>18.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="17">
         <v>19.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1"/>
@@ -3335,6 +3703,7 @@
     <col customWidth="1" min="3" max="3" width="15.43"/>
     <col customWidth="1" min="5" max="5" width="57.71"/>
     <col customWidth="1" min="6" max="6" width="17.71"/>
+    <col customWidth="1" min="7" max="7" width="15.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3342,19 +3711,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -3362,13 +3737,19 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5">
         <v>2000.0</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3376,13 +3757,19 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5">
         <v>3000.0</v>
+      </c>
+      <c r="G3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3390,13 +3777,19 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4" s="5">
         <v>4000.0</v>
+      </c>
+      <c r="G4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3404,13 +3797,19 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F5" s="5">
         <v>5000.0</v>
+      </c>
+      <c r="G5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3418,288 +3817,85 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5">
         <v>6000.0</v>
+      </c>
+      <c r="G6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
         <v>5.0</v>
       </c>
+      <c r="G7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
         <v>6.0</v>
       </c>
+      <c r="G8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
         <v>7.0</v>
       </c>
+      <c r="G9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
         <v>8.0</v>
       </c>
+      <c r="G10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
         <v>9.0</v>
       </c>
+      <c r="G11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
         <v>10.0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="5">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5">
-        <v>59.0</v>
+      <c r="G12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3726,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -3740,10 +3936,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -3751,10 +3947,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -3762,10 +3958,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -3808,10 +4004,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -3819,10 +4015,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -3830,10 +4026,10 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -3841,10 +4037,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -3852,10 +4048,10 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -3863,10 +4059,10 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -3874,10 +4070,10 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -3885,10 +4081,10 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -3896,10 +4092,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -3907,10 +4103,10 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -3918,10 +4114,10 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Number</t>
   </si>
@@ -188,19 +188,34 @@
     <t>Engine_Driver</t>
   </si>
   <si>
+    <t>Passive mercenaries with a choice of speed, fuel efficiency and defense</t>
+  </si>
+  <si>
     <t>Engineer</t>
   </si>
   <si>
+    <t>a mercenary who repairs broken trains</t>
+  </si>
+  <si>
     <t>Sniper</t>
   </si>
   <si>
     <t>Long_Ranged</t>
   </si>
   <si>
+    <t>a mercenary who shoots monsters in the air or in the distance with a sniper rifle</t>
+  </si>
+  <si>
     <t>Gangster</t>
   </si>
   <si>
     <t>Short_Ranged</t>
+  </si>
+  <si>
+    <t>a mercenary who kills monsters on the ground with a sword</t>
+  </si>
+  <si>
+    <t>A nurse treating a mercenary who lacks stamina, maybe a resurrection..?</t>
   </si>
   <si>
     <t>Item_Name</t>
@@ -3701,7 +3716,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="15.43"/>
-    <col customWidth="1" min="5" max="5" width="57.71"/>
+    <col customWidth="1" min="5" max="5" width="64.0"/>
     <col customWidth="1" min="6" max="6" width="17.71"/>
     <col customWidth="1" min="7" max="7" width="15.86"/>
   </cols>
@@ -3742,6 +3757,9 @@
       <c r="C2" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F2" s="5">
         <v>2000.0</v>
       </c>
@@ -3757,10 +3775,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F3" s="5">
         <v>3000.0</v>
@@ -3777,10 +3798,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F4" s="5">
         <v>4000.0</v>
@@ -3797,10 +3821,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F5" s="5">
         <v>5000.0</v>
@@ -3821,6 +3848,9 @@
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F6" s="5">
         <v>6000.0</v>
@@ -3922,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -3936,10 +3966,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -3947,10 +3977,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -3958,10 +3988,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -4004,10 +4034,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -4015,10 +4045,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -4026,10 +4056,10 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -4037,10 +4067,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -4048,10 +4078,10 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -4059,10 +4089,10 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -4070,10 +4100,10 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -4081,10 +4111,10 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -4092,10 +4122,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -4103,10 +4133,10 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -4114,10 +4144,10 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Number</t>
   </si>
@@ -74,6 +74,21 @@
     <t>Engine</t>
   </si>
   <si>
+    <t>Engine Trian</t>
+  </si>
+  <si>
+    <t>Empty Trian</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Empty Train</t>
+  </si>
+  <si>
+    <t>Quest Train</t>
+  </si>
+  <si>
     <t>Fuel Train</t>
   </si>
   <si>
@@ -90,6 +105,9 @@
   </si>
   <si>
     <t>Medic</t>
+  </si>
+  <si>
+    <t>Medic Trian</t>
   </si>
   <si>
     <t>StageName</t>
@@ -338,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -364,10 +382,10 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
@@ -413,6 +431,9 @@
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,35 +778,89 @@
       <c r="I2" s="6">
         <v>50.0</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="J2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" s="9" t="b">
+      <c r="Q3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -793,10 +868,52 @@
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="b">
+      <c r="Q4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -821,7 +938,7 @@
       <c r="P5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="9" t="b">
+      <c r="Q5" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R5" s="12"/>
@@ -840,7 +957,7 @@
       <c r="P6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="9" t="b">
+      <c r="Q6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -851,7 +968,7 @@
       <c r="P7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="9" t="b">
+      <c r="Q7" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,7 +979,7 @@
       <c r="P8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="9" t="b">
+      <c r="Q8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -873,7 +990,7 @@
       <c r="P9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="9" t="b">
+      <c r="Q9" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -884,7 +1001,7 @@
       <c r="P10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="9" t="b">
+      <c r="Q10" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +1012,7 @@
       <c r="P11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="9" t="b">
+      <c r="Q11" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -904,7 +1021,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="14">
         <v>5000.0</v>
@@ -916,7 +1033,7 @@
         <v>10.0</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -927,8 +1044,12 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="N12" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="P12" s="5" t="b">
         <v>0</v>
       </c>
@@ -952,7 +1073,7 @@
       <c r="P13" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" s="9" t="b">
+      <c r="Q13" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -969,7 +1090,7 @@
       <c r="P14" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" s="9" t="b">
+      <c r="Q14" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -981,7 +1102,7 @@
       <c r="P15" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" s="9" t="b">
+      <c r="Q15" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -992,7 +1113,7 @@
       <c r="P16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" s="9" t="b">
+      <c r="Q16" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1003,7 +1124,7 @@
       <c r="P17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" s="9" t="b">
+      <c r="Q17" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1014,7 +1135,7 @@
       <c r="P18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" s="9" t="b">
+      <c r="Q18" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1025,7 +1146,7 @@
       <c r="P19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" s="9" t="b">
+      <c r="Q19" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1036,7 +1157,7 @@
       <c r="P20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" s="9" t="b">
+      <c r="Q20" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1047,7 +1168,7 @@
       <c r="P21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q21" s="9" t="b">
+      <c r="Q21" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1056,7 +1177,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="19">
         <v>5000.0</v>
@@ -1068,7 +1189,7 @@
         <v>10.0</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -1081,8 +1202,12 @@
         <v>0.5</v>
       </c>
       <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="N22" s="21">
+        <v>30000.0</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="P22" s="21" t="b">
         <v>1</v>
       </c>
@@ -1105,7 +1230,7 @@
       <c r="P23" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q23" s="9" t="b">
+      <c r="Q23" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1241,7 @@
       <c r="P24" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q24" s="9" t="b">
+      <c r="Q24" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1252,7 @@
       <c r="P25" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q25" s="9" t="b">
+      <c r="Q25" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1138,7 +1263,7 @@
       <c r="P26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q26" s="9" t="b">
+      <c r="Q26" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1149,7 +1274,7 @@
       <c r="P27" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q27" s="9" t="b">
+      <c r="Q27" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1160,7 +1285,7 @@
       <c r="P28" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q28" s="9" t="b">
+      <c r="Q28" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1171,7 +1296,7 @@
       <c r="P29" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q29" s="9" t="b">
+      <c r="Q29" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1182,7 +1307,7 @@
       <c r="P30" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q30" s="9" t="b">
+      <c r="Q30" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1193,7 +1318,7 @@
       <c r="P31" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q31" s="9" t="b">
+      <c r="Q31" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1204,7 +1329,7 @@
       <c r="P32" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q32" s="9" t="b">
+      <c r="Q32" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1215,7 +1340,7 @@
       <c r="P33" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q33" s="9" t="b">
+      <c r="Q33" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1226,7 +1351,7 @@
       <c r="P34" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q34" s="9" t="b">
+      <c r="Q34" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1237,7 +1362,7 @@
       <c r="P35" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q35" s="9" t="b">
+      <c r="Q35" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1248,7 +1373,7 @@
       <c r="P36" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q36" s="9" t="b">
+      <c r="Q36" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1259,7 +1384,7 @@
       <c r="P37" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q37" s="9" t="b">
+      <c r="Q37" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1270,7 +1395,7 @@
       <c r="P38" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q38" s="9" t="b">
+      <c r="Q38" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1281,7 +1406,7 @@
       <c r="P39" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q39" s="9" t="b">
+      <c r="Q39" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1417,7 @@
       <c r="P40" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q40" s="9" t="b">
+      <c r="Q40" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1303,7 +1428,7 @@
       <c r="P41" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q41" s="9" t="b">
+      <c r="Q41" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1312,7 +1437,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C42" s="23">
         <v>5000.0</v>
@@ -1324,7 +1449,7 @@
         <v>10.0</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -1335,8 +1460,12 @@
       <c r="M42" s="23">
         <v>100000.0</v>
       </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
+      <c r="N42" s="25">
+        <v>40000.0</v>
+      </c>
+      <c r="O42" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="P42" s="21" t="b">
         <v>1</v>
       </c>
@@ -1359,7 +1488,7 @@
       <c r="P43" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q43" s="9" t="b">
+      <c r="Q43" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1499,7 @@
       <c r="P44" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q44" s="9" t="b">
+      <c r="Q44" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1381,7 +1510,7 @@
       <c r="P45" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q45" s="9" t="b">
+      <c r="Q45" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1392,7 +1521,7 @@
       <c r="P46" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q46" s="9" t="b">
+      <c r="Q46" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1532,7 @@
       <c r="P47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q47" s="9" t="b">
+      <c r="Q47" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1414,7 +1543,7 @@
       <c r="P48" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q48" s="9" t="b">
+      <c r="Q48" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1425,7 +1554,7 @@
       <c r="P49" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q49" s="9" t="b">
+      <c r="Q49" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1436,7 +1565,7 @@
       <c r="P50" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q50" s="9" t="b">
+      <c r="Q50" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1447,7 +1576,7 @@
       <c r="P51" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q51" s="9" t="b">
+      <c r="Q51" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1587,7 @@
       <c r="P52" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q52" s="9" t="b">
+      <c r="Q52" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1598,7 @@
       <c r="P53" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q53" s="9" t="b">
+      <c r="Q53" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1480,7 +1609,7 @@
       <c r="P54" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q54" s="9" t="b">
+      <c r="Q54" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1491,7 +1620,7 @@
       <c r="P55" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q55" s="9" t="b">
+      <c r="Q55" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1502,7 +1631,7 @@
       <c r="P56" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q56" s="9" t="b">
+      <c r="Q56" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1513,7 +1642,7 @@
       <c r="P57" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q57" s="9" t="b">
+      <c r="Q57" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1524,7 +1653,7 @@
       <c r="P58" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q58" s="9" t="b">
+      <c r="Q58" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1535,7 +1664,7 @@
       <c r="P59" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q59" s="9" t="b">
+      <c r="Q59" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1546,7 +1675,7 @@
       <c r="P60" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q60" s="9" t="b">
+      <c r="Q60" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2522,19 +2651,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -2542,7 +2671,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4">
         <v>5000000.0</v>
@@ -2553,7 +2682,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <v>7000000.0</v>
@@ -2564,7 +2693,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4">
         <v>1.0E7</v>
@@ -2575,7 +2704,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5">
         <v>1.2E7</v>
@@ -2586,7 +2715,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>1.3E7</v>
@@ -2597,7 +2726,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5">
         <v>1.5E7</v>
@@ -2608,7 +2737,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5">
         <v>1.6E7</v>
@@ -2619,7 +2748,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
@@ -2627,7 +2756,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
@@ -2635,7 +2764,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
@@ -2643,7 +2772,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
@@ -2651,7 +2780,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
@@ -2659,7 +2788,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -2667,7 +2796,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -2675,7 +2804,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
@@ -2683,7 +2812,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -2691,7 +2820,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
@@ -2699,7 +2828,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
@@ -2707,7 +2836,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
@@ -2715,7 +2844,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1"/>
@@ -3726,25 +3855,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -3752,13 +3881,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2" s="5">
         <v>2000.0</v>
@@ -3775,13 +3904,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5">
         <v>3000.0</v>
@@ -3798,13 +3927,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F4" s="5">
         <v>4000.0</v>
@@ -3821,13 +3950,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5">
         <v>5000.0</v>
@@ -3844,13 +3973,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="5">
         <v>6000.0</v>
@@ -3952,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -3966,10 +4095,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -3977,10 +4106,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -3988,10 +4117,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -4034,10 +4163,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -4045,10 +4174,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -4056,10 +4185,10 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -4067,10 +4196,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -4078,10 +4207,10 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -4089,10 +4218,10 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -4100,10 +4229,10 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -4111,10 +4240,10 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4122,10 +4251,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -4133,10 +4262,10 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4144,10 +4273,10 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -31362,8 +31362,8 @@
       <c r="B2" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="38">
-        <v>5000000.0</v>
+      <c r="C2" s="39">
+        <v>50000.0</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>146</v>
@@ -31394,8 +31394,8 @@
       <c r="B3" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="38">
-        <v>7000000.0</v>
+      <c r="C3" s="39">
+        <v>60000.0</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>148</v>
@@ -31426,8 +31426,8 @@
       <c r="B4" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="38">
-        <v>1.0E7</v>
+      <c r="C4" s="39">
+        <v>70000.0</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>150</v>
@@ -31459,7 +31459,7 @@
         <v>151</v>
       </c>
       <c r="C5" s="37">
-        <v>1.2E7</v>
+        <v>80000.0</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>152</v>
@@ -31491,7 +31491,7 @@
         <v>153</v>
       </c>
       <c r="C6" s="37">
-        <v>1.3E7</v>
+        <v>90000.0</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>154</v>
@@ -31523,7 +31523,7 @@
         <v>155</v>
       </c>
       <c r="C7" s="37">
-        <v>1.5E7</v>
+        <v>100000.0</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>154</v>
@@ -31555,7 +31555,7 @@
         <v>156</v>
       </c>
       <c r="C8" s="37">
-        <v>1.6E7</v>
+        <v>110000.0</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>154</v>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -31644,7 +31644,7 @@
         <v>169</v>
       </c>
       <c r="C2" s="39">
-        <v>50000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>170</v>
@@ -31676,7 +31676,7 @@
         <v>171</v>
       </c>
       <c r="C3" s="39">
-        <v>60000.0</v>
+        <v>600000.0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>172</v>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -6114,7 +6114,9 @@
         <v>0.0</v>
       </c>
       <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
+      <c r="P102" s="7">
+        <v>2000.0</v>
+      </c>
       <c r="Q102" s="7" t="s">
         <v>110</v>
       </c>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="261">
   <si>
     <t>Number</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Gun/Gun_Player0</t>
   </si>
   <si>
-    <t>Bullet/Bullet_Player0</t>
+    <t>Bullet/Player/Bullet_Player0</t>
   </si>
   <si>
     <t>test1</t>
@@ -63,7 +63,7 @@
     <t>Gun/Gun_Player1</t>
   </si>
   <si>
-    <t>Bullet/Bullet_Player1</t>
+    <t>Bullet/Player/Bullet_Player1</t>
   </si>
   <si>
     <t>test2</t>
@@ -72,7 +72,7 @@
     <t>Gun/Gun_Player2</t>
   </si>
   <si>
-    <t>Bullet/Bullet_Player2</t>
+    <t>Bullet/Player/Bullet_Player2</t>
   </si>
   <si>
     <t>test3</t>
@@ -81,7 +81,7 @@
     <t>Gun/Gun_Player3</t>
   </si>
   <si>
-    <t>Bullet/Bullet_Player3</t>
+    <t>Bullet/Player/Bullet_Player3</t>
   </si>
   <si>
     <t>test4</t>
@@ -90,7 +90,7 @@
     <t>Gun/Gun_Player4</t>
   </si>
   <si>
-    <t>Bullet/Bullet_Player4</t>
+    <t>Bullet/Player/Bullet_Player4</t>
   </si>
   <si>
     <t>Train_Name</t>
@@ -387,7 +387,7 @@
     <t>monster_0</t>
   </si>
   <si>
-    <t>MonsterBullet/0</t>
+    <t>Bullet/Monster/0</t>
   </si>
   <si>
     <t>Sky</t>
@@ -402,7 +402,7 @@
     <t>monster_1</t>
   </si>
   <si>
-    <t>MonsterBullet/1</t>
+    <t>Bullet/Monster/1</t>
   </si>
   <si>
     <t>Player</t>
@@ -414,7 +414,7 @@
     <t>monster_2</t>
   </si>
   <si>
-    <t>MonsterBullet/2</t>
+    <t>Bullet/Monster/2</t>
   </si>
   <si>
     <t>MonsterSprite/2</t>
@@ -423,7 +423,7 @@
     <t>monster_3</t>
   </si>
   <si>
-    <t>MonsterBullet/3</t>
+    <t>Bullet/Monster/3</t>
   </si>
   <si>
     <t>Mercenary</t>
@@ -435,7 +435,7 @@
     <t>monster_4</t>
   </si>
   <si>
-    <t>MonsterBullet/4</t>
+    <t>Bullet/Monster/4</t>
   </si>
   <si>
     <t>Train</t>
@@ -447,7 +447,7 @@
     <t>monster_5</t>
   </si>
   <si>
-    <t>MonsterBullet/5</t>
+    <t>Bullet/Monster/5</t>
   </si>
   <si>
     <t>MonsterSprite/5</t>
@@ -456,7 +456,7 @@
     <t>monster_6</t>
   </si>
   <si>
-    <t>MonsterBullet/6</t>
+    <t>Bullet/Monster/6</t>
   </si>
   <si>
     <t>Ground</t>
@@ -468,7 +468,7 @@
     <t>monster_7</t>
   </si>
   <si>
-    <t>MonsterBullet/7</t>
+    <t>Bullet/Monster/7</t>
   </si>
   <si>
     <t>MonsterSprite/7</t>
@@ -477,7 +477,7 @@
     <t>monster_8</t>
   </si>
   <si>
-    <t>MonsterBullet/8</t>
+    <t>Bullet/Monster/8</t>
   </si>
   <si>
     <t>MonsterSprite/8</t>
@@ -486,13 +486,16 @@
     <t>monster_9</t>
   </si>
   <si>
-    <t>MonsterBullet/9</t>
+    <t>Bullet/Monster/9</t>
   </si>
   <si>
     <t>MonsterSprite/9</t>
   </si>
   <si>
     <t>monster_10</t>
+  </si>
+  <si>
+    <t>Bullet/Monster/10</t>
   </si>
   <si>
     <t>MonsterBullet/10</t>
@@ -1292,7 +1295,7 @@
     <col customWidth="1" min="6" max="6" width="9.86"/>
     <col customWidth="1" min="7" max="7" width="17.57"/>
     <col customWidth="1" min="8" max="8" width="16.29"/>
-    <col customWidth="1" min="9" max="9" width="19.14"/>
+    <col customWidth="1" min="9" max="9" width="25.14"/>
     <col customWidth="1" min="10" max="11" width="17.43"/>
   </cols>
   <sheetData>
@@ -32652,7 +32655,7 @@
         <v>140</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K12" s="1">
         <v>500.0</v>
@@ -32694,34 +32697,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -32729,13 +32732,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="39">
         <v>500000.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1">
         <v>3.0</v>
@@ -32761,13 +32764,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" s="39">
         <v>600000.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E3" s="1">
         <v>3.0</v>
@@ -32793,13 +32796,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" s="39">
         <v>70000.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1">
         <v>3.0</v>
@@ -32825,13 +32828,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1">
         <v>80000.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1">
         <v>3.0</v>
@@ -32857,13 +32860,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1">
         <v>90000.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1">
         <v>3.0</v>
@@ -32889,13 +32892,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1">
         <v>100000.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1">
         <v>3.0</v>
@@ -32921,13 +32924,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1">
         <v>110000.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1">
         <v>3.0</v>
@@ -32953,7 +32956,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
@@ -32961,7 +32964,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
@@ -32969,7 +32972,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
@@ -32977,7 +32980,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
@@ -32985,7 +32988,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
@@ -32993,7 +32996,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -33001,7 +33004,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -33009,7 +33012,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
@@ -33017,7 +33020,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -33025,7 +33028,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
@@ -33033,7 +33036,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
@@ -33041,7 +33044,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
@@ -33049,7 +33052,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1"/>
@@ -34060,25 +34063,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
@@ -34086,13 +34089,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1">
         <v>2000.0</v>
@@ -34109,13 +34112,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F3" s="1">
         <v>3000.0</v>
@@ -34132,13 +34135,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F4" s="1">
         <v>4000.0</v>
@@ -34155,13 +34158,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F5" s="1">
         <v>5000.0</v>
@@ -34184,7 +34187,7 @@
         <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F6" s="1">
         <v>6000.0</v>
@@ -34286,16 +34289,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2">
@@ -34303,13 +34306,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -34317,13 +34320,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
@@ -34331,13 +34334,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5">
@@ -34345,13 +34348,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
@@ -34359,13 +34362,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
@@ -34373,7 +34376,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
@@ -34381,7 +34384,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -34389,7 +34392,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10">
@@ -34397,7 +34400,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
@@ -34405,7 +34408,7 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12">
@@ -34413,14 +34416,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13">
@@ -34428,14 +34431,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>231</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14">
@@ -34443,14 +34446,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
@@ -34458,14 +34461,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
@@ -34473,14 +34476,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
@@ -34488,14 +34491,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
@@ -34503,14 +34506,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
@@ -34518,14 +34521,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20">
@@ -34533,14 +34536,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
@@ -34548,14 +34551,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -34563,14 +34566,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
@@ -34578,14 +34581,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
@@ -34593,14 +34596,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
@@ -34608,14 +34611,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -34623,14 +34626,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -34638,14 +34641,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
@@ -34653,14 +34656,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
@@ -34668,14 +34671,14 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
@@ -34683,14 +34686,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
@@ -34703,13 +34706,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
@@ -34717,13 +34720,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -34731,13 +34734,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35">
@@ -34745,13 +34748,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36">
@@ -34759,13 +34762,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -34773,13 +34776,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38">
@@ -34787,13 +34790,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39">
@@ -34801,13 +34804,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40">
@@ -34815,13 +34818,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="260">
   <si>
     <t>Number</t>
   </si>
@@ -510,6 +510,9 @@
     <t>Emerging_Monster</t>
   </si>
   <si>
+    <t>Monster_Count</t>
+  </si>
+  <si>
     <t>Reward_Point</t>
   </si>
   <si>
@@ -534,37 +537,31 @@
     <t>Stage_1</t>
   </si>
   <si>
+    <t>Stage_2</t>
+  </si>
+  <si>
+    <t>Stage_3</t>
+  </si>
+  <si>
+    <t>Stage_4</t>
+  </si>
+  <si>
+    <t>Stage_5</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
-    <t>Stage_2</t>
+    <t>Stage_6</t>
   </si>
   <si>
     <t>0,1,2</t>
   </si>
   <si>
-    <t>Stage_3</t>
+    <t>Stage_7</t>
   </si>
   <si>
     <t>0,1,2,3</t>
-  </si>
-  <si>
-    <t>Stage_4</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4</t>
-  </si>
-  <si>
-    <t>Stage_5</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>Stage_6</t>
-  </si>
-  <si>
-    <t>Stage_7</t>
   </si>
   <si>
     <t>Stage_8</t>
@@ -915,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1035,6 +1032,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -32685,7 +32688,7 @@
     <col customWidth="1" min="4" max="4" width="20.71"/>
     <col customWidth="1" min="5" max="5" width="28.57"/>
     <col customWidth="1" min="6" max="6" width="18.71"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
+    <col customWidth="1" min="7" max="7" width="12.57"/>
     <col customWidth="1" min="8" max="8" width="8.57"/>
     <col customWidth="1" min="9" max="10" width="8.43"/>
     <col customWidth="1" min="11" max="11" width="8.57"/>
@@ -32702,7 +32705,7 @@
       <c r="C1" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="40" t="s">
         <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -32725,6 +32728,9 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -32732,30 +32738,33 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" s="39">
-        <v>500000.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>250000.0</v>
+      </c>
+      <c r="D2" s="40">
+        <v>0.0</v>
       </c>
       <c r="E2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>3.0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>100.0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>200.0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>300.0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>400.0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>500.0</v>
       </c>
     </row>
@@ -32767,27 +32776,30 @@
         <v>173</v>
       </c>
       <c r="C3" s="39">
-        <v>600000.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>300000.0</v>
+      </c>
+      <c r="D3" s="40">
+        <v>1.0</v>
       </c>
       <c r="E3" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F3" s="1">
         <v>3.0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>100.0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>200.0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>300.0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>400.0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>500.0</v>
       </c>
     </row>
@@ -32796,30 +32808,33 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="39">
-        <v>70000.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>350000.0</v>
+      </c>
+      <c r="D4" s="40">
+        <v>2.0</v>
       </c>
       <c r="E4" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F4" s="1">
         <v>3.0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>100.0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>200.0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>300.0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>400.0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>500.0</v>
       </c>
     </row>
@@ -32828,30 +32843,33 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1">
-        <v>80000.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>400000.0</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.0</v>
       </c>
       <c r="E5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F5" s="1">
         <v>3.0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>100.0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>200.0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>300.0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>400.0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>500.0</v>
       </c>
     </row>
@@ -32860,30 +32878,33 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1">
-        <v>90000.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>450000.0</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="E6" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F6" s="1">
         <v>3.0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>100.0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>200.0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>300.0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>400.0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>500.0</v>
       </c>
     </row>
@@ -32892,30 +32913,33 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1">
         <v>100000.0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>180</v>
+      <c r="D7" s="40" t="s">
+        <v>179</v>
       </c>
       <c r="E7" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="1">
         <v>3.0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>100.0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>200.0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>300.0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>400.0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>500.0</v>
       </c>
     </row>
@@ -32924,30 +32948,33 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1">
         <v>110000.0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>180</v>
+      <c r="D8" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E8" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F8" s="1">
         <v>3.0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>100.0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>200.0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>300.0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>400.0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>500.0</v>
       </c>
     </row>
@@ -32956,1084 +32983,3055 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>183</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="39">
         <v>8.0</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>184</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="39">
         <v>9.0</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>185</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="39">
         <v>10.0</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>186</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="39">
         <v>11.0</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>187</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
       <c r="A14" s="39">
         <v>12.0</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>188</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="39">
         <v>13.0</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>189</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="39">
         <v>14.0</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>190</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D16" s="41"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="39">
         <v>15.0</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="39">
         <v>16.0</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" s="39">
         <v>17.0</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>193</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
       <c r="A20" s="39">
         <v>18.0</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D20" s="41"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
       <c r="A21" s="39">
         <v>19.0</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" ht="17.25" customHeight="1"/>
-    <row r="23" ht="17.25" customHeight="1"/>
-    <row r="24" ht="17.25" customHeight="1"/>
-    <row r="25" ht="17.25" customHeight="1"/>
-    <row r="26" ht="17.25" customHeight="1"/>
-    <row r="27" ht="17.25" customHeight="1"/>
-    <row r="28" ht="17.25" customHeight="1"/>
-    <row r="29" ht="17.25" customHeight="1"/>
-    <row r="30" ht="17.25" customHeight="1"/>
-    <row r="31" ht="17.25" customHeight="1"/>
-    <row r="32" ht="17.25" customHeight="1"/>
-    <row r="33" ht="17.25" customHeight="1"/>
-    <row r="34" ht="17.25" customHeight="1"/>
-    <row r="35" ht="17.25" customHeight="1"/>
-    <row r="36" ht="17.25" customHeight="1"/>
-    <row r="37" ht="17.25" customHeight="1"/>
-    <row r="38" ht="17.25" customHeight="1"/>
-    <row r="39" ht="17.25" customHeight="1"/>
-    <row r="40" ht="17.25" customHeight="1"/>
-    <row r="41" ht="17.25" customHeight="1"/>
-    <row r="42" ht="17.25" customHeight="1"/>
-    <row r="43" ht="17.25" customHeight="1"/>
-    <row r="44" ht="17.25" customHeight="1"/>
-    <row r="45" ht="17.25" customHeight="1"/>
-    <row r="46" ht="17.25" customHeight="1"/>
-    <row r="47" ht="17.25" customHeight="1"/>
-    <row r="48" ht="17.25" customHeight="1"/>
-    <row r="49" ht="17.25" customHeight="1"/>
-    <row r="50" ht="17.25" customHeight="1"/>
-    <row r="51" ht="17.25" customHeight="1"/>
-    <row r="52" ht="17.25" customHeight="1"/>
-    <row r="53" ht="17.25" customHeight="1"/>
-    <row r="54" ht="17.25" customHeight="1"/>
-    <row r="55" ht="17.25" customHeight="1"/>
-    <row r="56" ht="17.25" customHeight="1"/>
-    <row r="57" ht="17.25" customHeight="1"/>
-    <row r="58" ht="17.25" customHeight="1"/>
-    <row r="59" ht="17.25" customHeight="1"/>
-    <row r="60" ht="17.25" customHeight="1"/>
-    <row r="61" ht="17.25" customHeight="1"/>
-    <row r="62" ht="17.25" customHeight="1"/>
-    <row r="63" ht="17.25" customHeight="1"/>
-    <row r="64" ht="17.25" customHeight="1"/>
-    <row r="65" ht="17.25" customHeight="1"/>
-    <row r="66" ht="17.25" customHeight="1"/>
-    <row r="67" ht="17.25" customHeight="1"/>
-    <row r="68" ht="17.25" customHeight="1"/>
-    <row r="69" ht="17.25" customHeight="1"/>
-    <row r="70" ht="17.25" customHeight="1"/>
-    <row r="71" ht="17.25" customHeight="1"/>
-    <row r="72" ht="17.25" customHeight="1"/>
-    <row r="73" ht="17.25" customHeight="1"/>
-    <row r="74" ht="17.25" customHeight="1"/>
-    <row r="75" ht="17.25" customHeight="1"/>
-    <row r="76" ht="17.25" customHeight="1"/>
-    <row r="77" ht="17.25" customHeight="1"/>
-    <row r="78" ht="17.25" customHeight="1"/>
-    <row r="79" ht="17.25" customHeight="1"/>
-    <row r="80" ht="17.25" customHeight="1"/>
-    <row r="81" ht="17.25" customHeight="1"/>
-    <row r="82" ht="17.25" customHeight="1"/>
-    <row r="83" ht="17.25" customHeight="1"/>
-    <row r="84" ht="17.25" customHeight="1"/>
-    <row r="85" ht="17.25" customHeight="1"/>
-    <row r="86" ht="17.25" customHeight="1"/>
-    <row r="87" ht="17.25" customHeight="1"/>
-    <row r="88" ht="17.25" customHeight="1"/>
-    <row r="89" ht="17.25" customHeight="1"/>
-    <row r="90" ht="17.25" customHeight="1"/>
-    <row r="91" ht="17.25" customHeight="1"/>
-    <row r="92" ht="17.25" customHeight="1"/>
-    <row r="93" ht="17.25" customHeight="1"/>
-    <row r="94" ht="17.25" customHeight="1"/>
-    <row r="95" ht="17.25" customHeight="1"/>
-    <row r="96" ht="17.25" customHeight="1"/>
-    <row r="97" ht="17.25" customHeight="1"/>
-    <row r="98" ht="17.25" customHeight="1"/>
-    <row r="99" ht="17.25" customHeight="1"/>
-    <row r="100" ht="17.25" customHeight="1"/>
-    <row r="101" ht="17.25" customHeight="1"/>
-    <row r="102" ht="17.25" customHeight="1"/>
-    <row r="103" ht="17.25" customHeight="1"/>
-    <row r="104" ht="17.25" customHeight="1"/>
-    <row r="105" ht="17.25" customHeight="1"/>
-    <row r="106" ht="17.25" customHeight="1"/>
-    <row r="107" ht="17.25" customHeight="1"/>
-    <row r="108" ht="17.25" customHeight="1"/>
-    <row r="109" ht="17.25" customHeight="1"/>
-    <row r="110" ht="17.25" customHeight="1"/>
-    <row r="111" ht="17.25" customHeight="1"/>
-    <row r="112" ht="17.25" customHeight="1"/>
-    <row r="113" ht="17.25" customHeight="1"/>
-    <row r="114" ht="17.25" customHeight="1"/>
-    <row r="115" ht="17.25" customHeight="1"/>
-    <row r="116" ht="17.25" customHeight="1"/>
-    <row r="117" ht="17.25" customHeight="1"/>
-    <row r="118" ht="17.25" customHeight="1"/>
-    <row r="119" ht="17.25" customHeight="1"/>
-    <row r="120" ht="17.25" customHeight="1"/>
-    <row r="121" ht="17.25" customHeight="1"/>
-    <row r="122" ht="17.25" customHeight="1"/>
-    <row r="123" ht="17.25" customHeight="1"/>
-    <row r="124" ht="17.25" customHeight="1"/>
-    <row r="125" ht="17.25" customHeight="1"/>
-    <row r="126" ht="17.25" customHeight="1"/>
-    <row r="127" ht="17.25" customHeight="1"/>
-    <row r="128" ht="17.25" customHeight="1"/>
-    <row r="129" ht="17.25" customHeight="1"/>
-    <row r="130" ht="17.25" customHeight="1"/>
-    <row r="131" ht="17.25" customHeight="1"/>
-    <row r="132" ht="17.25" customHeight="1"/>
-    <row r="133" ht="17.25" customHeight="1"/>
-    <row r="134" ht="17.25" customHeight="1"/>
-    <row r="135" ht="17.25" customHeight="1"/>
-    <row r="136" ht="17.25" customHeight="1"/>
-    <row r="137" ht="17.25" customHeight="1"/>
-    <row r="138" ht="17.25" customHeight="1"/>
-    <row r="139" ht="17.25" customHeight="1"/>
-    <row r="140" ht="17.25" customHeight="1"/>
-    <row r="141" ht="17.25" customHeight="1"/>
-    <row r="142" ht="17.25" customHeight="1"/>
-    <row r="143" ht="17.25" customHeight="1"/>
-    <row r="144" ht="17.25" customHeight="1"/>
-    <row r="145" ht="17.25" customHeight="1"/>
-    <row r="146" ht="17.25" customHeight="1"/>
-    <row r="147" ht="17.25" customHeight="1"/>
-    <row r="148" ht="17.25" customHeight="1"/>
-    <row r="149" ht="17.25" customHeight="1"/>
-    <row r="150" ht="17.25" customHeight="1"/>
-    <row r="151" ht="17.25" customHeight="1"/>
-    <row r="152" ht="17.25" customHeight="1"/>
-    <row r="153" ht="17.25" customHeight="1"/>
-    <row r="154" ht="17.25" customHeight="1"/>
-    <row r="155" ht="17.25" customHeight="1"/>
-    <row r="156" ht="17.25" customHeight="1"/>
-    <row r="157" ht="17.25" customHeight="1"/>
-    <row r="158" ht="17.25" customHeight="1"/>
-    <row r="159" ht="17.25" customHeight="1"/>
-    <row r="160" ht="17.25" customHeight="1"/>
-    <row r="161" ht="17.25" customHeight="1"/>
-    <row r="162" ht="17.25" customHeight="1"/>
-    <row r="163" ht="17.25" customHeight="1"/>
-    <row r="164" ht="17.25" customHeight="1"/>
-    <row r="165" ht="17.25" customHeight="1"/>
-    <row r="166" ht="17.25" customHeight="1"/>
-    <row r="167" ht="17.25" customHeight="1"/>
-    <row r="168" ht="17.25" customHeight="1"/>
-    <row r="169" ht="17.25" customHeight="1"/>
-    <row r="170" ht="17.25" customHeight="1"/>
-    <row r="171" ht="17.25" customHeight="1"/>
-    <row r="172" ht="17.25" customHeight="1"/>
-    <row r="173" ht="17.25" customHeight="1"/>
-    <row r="174" ht="17.25" customHeight="1"/>
-    <row r="175" ht="17.25" customHeight="1"/>
-    <row r="176" ht="17.25" customHeight="1"/>
-    <row r="177" ht="17.25" customHeight="1"/>
-    <row r="178" ht="17.25" customHeight="1"/>
-    <row r="179" ht="17.25" customHeight="1"/>
-    <row r="180" ht="17.25" customHeight="1"/>
-    <row r="181" ht="17.25" customHeight="1"/>
-    <row r="182" ht="17.25" customHeight="1"/>
-    <row r="183" ht="17.25" customHeight="1"/>
-    <row r="184" ht="17.25" customHeight="1"/>
-    <row r="185" ht="17.25" customHeight="1"/>
-    <row r="186" ht="17.25" customHeight="1"/>
-    <row r="187" ht="17.25" customHeight="1"/>
-    <row r="188" ht="17.25" customHeight="1"/>
-    <row r="189" ht="17.25" customHeight="1"/>
-    <row r="190" ht="17.25" customHeight="1"/>
-    <row r="191" ht="17.25" customHeight="1"/>
-    <row r="192" ht="17.25" customHeight="1"/>
-    <row r="193" ht="17.25" customHeight="1"/>
-    <row r="194" ht="17.25" customHeight="1"/>
-    <row r="195" ht="17.25" customHeight="1"/>
-    <row r="196" ht="17.25" customHeight="1"/>
-    <row r="197" ht="17.25" customHeight="1"/>
-    <row r="198" ht="17.25" customHeight="1"/>
-    <row r="199" ht="17.25" customHeight="1"/>
-    <row r="200" ht="17.25" customHeight="1"/>
-    <row r="201" ht="17.25" customHeight="1"/>
-    <row r="202" ht="17.25" customHeight="1"/>
-    <row r="203" ht="17.25" customHeight="1"/>
-    <row r="204" ht="17.25" customHeight="1"/>
-    <row r="205" ht="17.25" customHeight="1"/>
-    <row r="206" ht="17.25" customHeight="1"/>
-    <row r="207" ht="17.25" customHeight="1"/>
-    <row r="208" ht="17.25" customHeight="1"/>
-    <row r="209" ht="17.25" customHeight="1"/>
-    <row r="210" ht="17.25" customHeight="1"/>
-    <row r="211" ht="17.25" customHeight="1"/>
-    <row r="212" ht="17.25" customHeight="1"/>
-    <row r="213" ht="17.25" customHeight="1"/>
-    <row r="214" ht="17.25" customHeight="1"/>
-    <row r="215" ht="17.25" customHeight="1"/>
-    <row r="216" ht="17.25" customHeight="1"/>
-    <row r="217" ht="17.25" customHeight="1"/>
-    <row r="218" ht="17.25" customHeight="1"/>
-    <row r="219" ht="17.25" customHeight="1"/>
-    <row r="220" ht="17.25" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>194</v>
+      </c>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" ht="17.25" customHeight="1">
+      <c r="D22" s="41"/>
+    </row>
+    <row r="23" ht="17.25" customHeight="1">
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1">
+      <c r="D24" s="41"/>
+    </row>
+    <row r="25" ht="17.25" customHeight="1">
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" ht="17.25" customHeight="1">
+      <c r="D26" s="41"/>
+    </row>
+    <row r="27" ht="17.25" customHeight="1">
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" ht="17.25" customHeight="1">
+      <c r="D28" s="41"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1">
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" ht="17.25" customHeight="1">
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" ht="17.25" customHeight="1">
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" ht="17.25" customHeight="1">
+      <c r="D32" s="41"/>
+    </row>
+    <row r="33" ht="17.25" customHeight="1">
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" ht="17.25" customHeight="1">
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" ht="17.25" customHeight="1">
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" ht="17.25" customHeight="1">
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" ht="17.25" customHeight="1">
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1">
+      <c r="D38" s="41"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" ht="17.25" customHeight="1">
+      <c r="D40" s="41"/>
+    </row>
+    <row r="41" ht="17.25" customHeight="1">
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" ht="17.25" customHeight="1">
+      <c r="D42" s="41"/>
+    </row>
+    <row r="43" ht="17.25" customHeight="1">
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1">
+      <c r="D44" s="41"/>
+    </row>
+    <row r="45" ht="17.25" customHeight="1">
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" ht="17.25" customHeight="1">
+      <c r="D46" s="41"/>
+    </row>
+    <row r="47" ht="17.25" customHeight="1">
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" ht="17.25" customHeight="1">
+      <c r="D48" s="41"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1">
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" ht="17.25" customHeight="1">
+      <c r="D50" s="41"/>
+    </row>
+    <row r="51" ht="17.25" customHeight="1">
+      <c r="D51" s="41"/>
+    </row>
+    <row r="52" ht="17.25" customHeight="1">
+      <c r="D52" s="41"/>
+    </row>
+    <row r="53" ht="17.25" customHeight="1">
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" ht="17.25" customHeight="1">
+      <c r="D54" s="41"/>
+    </row>
+    <row r="55" ht="17.25" customHeight="1">
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" ht="17.25" customHeight="1">
+      <c r="D56" s="41"/>
+    </row>
+    <row r="57" ht="17.25" customHeight="1">
+      <c r="D57" s="41"/>
+    </row>
+    <row r="58" ht="17.25" customHeight="1">
+      <c r="D58" s="41"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1">
+      <c r="D59" s="41"/>
+    </row>
+    <row r="60" ht="17.25" customHeight="1">
+      <c r="D60" s="41"/>
+    </row>
+    <row r="61" ht="17.25" customHeight="1">
+      <c r="D61" s="41"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="1">
+      <c r="D62" s="41"/>
+    </row>
+    <row r="63" ht="17.25" customHeight="1">
+      <c r="D63" s="41"/>
+    </row>
+    <row r="64" ht="17.25" customHeight="1">
+      <c r="D64" s="41"/>
+    </row>
+    <row r="65" ht="17.25" customHeight="1">
+      <c r="D65" s="41"/>
+    </row>
+    <row r="66" ht="17.25" customHeight="1">
+      <c r="D66" s="41"/>
+    </row>
+    <row r="67" ht="17.25" customHeight="1">
+      <c r="D67" s="41"/>
+    </row>
+    <row r="68" ht="17.25" customHeight="1">
+      <c r="D68" s="41"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
+      <c r="D69" s="41"/>
+    </row>
+    <row r="70" ht="17.25" customHeight="1">
+      <c r="D70" s="41"/>
+    </row>
+    <row r="71" ht="17.25" customHeight="1">
+      <c r="D71" s="41"/>
+    </row>
+    <row r="72" ht="17.25" customHeight="1">
+      <c r="D72" s="41"/>
+    </row>
+    <row r="73" ht="17.25" customHeight="1">
+      <c r="D73" s="41"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="1">
+      <c r="D74" s="41"/>
+    </row>
+    <row r="75" ht="17.25" customHeight="1">
+      <c r="D75" s="41"/>
+    </row>
+    <row r="76" ht="17.25" customHeight="1">
+      <c r="D76" s="41"/>
+    </row>
+    <row r="77" ht="17.25" customHeight="1">
+      <c r="D77" s="41"/>
+    </row>
+    <row r="78" ht="17.25" customHeight="1">
+      <c r="D78" s="41"/>
+    </row>
+    <row r="79" ht="17.25" customHeight="1">
+      <c r="D79" s="41"/>
+    </row>
+    <row r="80" ht="17.25" customHeight="1">
+      <c r="D80" s="41"/>
+    </row>
+    <row r="81" ht="17.25" customHeight="1">
+      <c r="D81" s="41"/>
+    </row>
+    <row r="82" ht="17.25" customHeight="1">
+      <c r="D82" s="41"/>
+    </row>
+    <row r="83" ht="17.25" customHeight="1">
+      <c r="D83" s="41"/>
+    </row>
+    <row r="84" ht="17.25" customHeight="1">
+      <c r="D84" s="41"/>
+    </row>
+    <row r="85" ht="17.25" customHeight="1">
+      <c r="D85" s="41"/>
+    </row>
+    <row r="86" ht="17.25" customHeight="1">
+      <c r="D86" s="41"/>
+    </row>
+    <row r="87" ht="17.25" customHeight="1">
+      <c r="D87" s="41"/>
+    </row>
+    <row r="88" ht="17.25" customHeight="1">
+      <c r="D88" s="41"/>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
+      <c r="D89" s="41"/>
+    </row>
+    <row r="90" ht="17.25" customHeight="1">
+      <c r="D90" s="41"/>
+    </row>
+    <row r="91" ht="17.25" customHeight="1">
+      <c r="D91" s="41"/>
+    </row>
+    <row r="92" ht="17.25" customHeight="1">
+      <c r="D92" s="41"/>
+    </row>
+    <row r="93" ht="17.25" customHeight="1">
+      <c r="D93" s="41"/>
+    </row>
+    <row r="94" ht="17.25" customHeight="1">
+      <c r="D94" s="41"/>
+    </row>
+    <row r="95" ht="17.25" customHeight="1">
+      <c r="D95" s="41"/>
+    </row>
+    <row r="96" ht="17.25" customHeight="1">
+      <c r="D96" s="41"/>
+    </row>
+    <row r="97" ht="17.25" customHeight="1">
+      <c r="D97" s="41"/>
+    </row>
+    <row r="98" ht="17.25" customHeight="1">
+      <c r="D98" s="41"/>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" ht="17.25" customHeight="1">
+      <c r="D100" s="41"/>
+    </row>
+    <row r="101" ht="17.25" customHeight="1">
+      <c r="D101" s="41"/>
+    </row>
+    <row r="102" ht="17.25" customHeight="1">
+      <c r="D102" s="41"/>
+    </row>
+    <row r="103" ht="17.25" customHeight="1">
+      <c r="D103" s="41"/>
+    </row>
+    <row r="104" ht="17.25" customHeight="1">
+      <c r="D104" s="41"/>
+    </row>
+    <row r="105" ht="17.25" customHeight="1">
+      <c r="D105" s="41"/>
+    </row>
+    <row r="106" ht="17.25" customHeight="1">
+      <c r="D106" s="41"/>
+    </row>
+    <row r="107" ht="17.25" customHeight="1">
+      <c r="D107" s="41"/>
+    </row>
+    <row r="108" ht="17.25" customHeight="1">
+      <c r="D108" s="41"/>
+    </row>
+    <row r="109" ht="17.25" customHeight="1">
+      <c r="D109" s="41"/>
+    </row>
+    <row r="110" ht="17.25" customHeight="1">
+      <c r="D110" s="41"/>
+    </row>
+    <row r="111" ht="17.25" customHeight="1">
+      <c r="D111" s="41"/>
+    </row>
+    <row r="112" ht="17.25" customHeight="1">
+      <c r="D112" s="41"/>
+    </row>
+    <row r="113" ht="17.25" customHeight="1">
+      <c r="D113" s="41"/>
+    </row>
+    <row r="114" ht="17.25" customHeight="1">
+      <c r="D114" s="41"/>
+    </row>
+    <row r="115" ht="17.25" customHeight="1">
+      <c r="D115" s="41"/>
+    </row>
+    <row r="116" ht="17.25" customHeight="1">
+      <c r="D116" s="41"/>
+    </row>
+    <row r="117" ht="17.25" customHeight="1">
+      <c r="D117" s="41"/>
+    </row>
+    <row r="118" ht="17.25" customHeight="1">
+      <c r="D118" s="41"/>
+    </row>
+    <row r="119" ht="17.25" customHeight="1">
+      <c r="D119" s="41"/>
+    </row>
+    <row r="120" ht="17.25" customHeight="1">
+      <c r="D120" s="41"/>
+    </row>
+    <row r="121" ht="17.25" customHeight="1">
+      <c r="D121" s="41"/>
+    </row>
+    <row r="122" ht="17.25" customHeight="1">
+      <c r="D122" s="41"/>
+    </row>
+    <row r="123" ht="17.25" customHeight="1">
+      <c r="D123" s="41"/>
+    </row>
+    <row r="124" ht="17.25" customHeight="1">
+      <c r="D124" s="41"/>
+    </row>
+    <row r="125" ht="17.25" customHeight="1">
+      <c r="D125" s="41"/>
+    </row>
+    <row r="126" ht="17.25" customHeight="1">
+      <c r="D126" s="41"/>
+    </row>
+    <row r="127" ht="17.25" customHeight="1">
+      <c r="D127" s="41"/>
+    </row>
+    <row r="128" ht="17.25" customHeight="1">
+      <c r="D128" s="41"/>
+    </row>
+    <row r="129" ht="17.25" customHeight="1">
+      <c r="D129" s="41"/>
+    </row>
+    <row r="130" ht="17.25" customHeight="1">
+      <c r="D130" s="41"/>
+    </row>
+    <row r="131" ht="17.25" customHeight="1">
+      <c r="D131" s="41"/>
+    </row>
+    <row r="132" ht="17.25" customHeight="1">
+      <c r="D132" s="41"/>
+    </row>
+    <row r="133" ht="17.25" customHeight="1">
+      <c r="D133" s="41"/>
+    </row>
+    <row r="134" ht="17.25" customHeight="1">
+      <c r="D134" s="41"/>
+    </row>
+    <row r="135" ht="17.25" customHeight="1">
+      <c r="D135" s="41"/>
+    </row>
+    <row r="136" ht="17.25" customHeight="1">
+      <c r="D136" s="41"/>
+    </row>
+    <row r="137" ht="17.25" customHeight="1">
+      <c r="D137" s="41"/>
+    </row>
+    <row r="138" ht="17.25" customHeight="1">
+      <c r="D138" s="41"/>
+    </row>
+    <row r="139" ht="17.25" customHeight="1">
+      <c r="D139" s="41"/>
+    </row>
+    <row r="140" ht="17.25" customHeight="1">
+      <c r="D140" s="41"/>
+    </row>
+    <row r="141" ht="17.25" customHeight="1">
+      <c r="D141" s="41"/>
+    </row>
+    <row r="142" ht="17.25" customHeight="1">
+      <c r="D142" s="41"/>
+    </row>
+    <row r="143" ht="17.25" customHeight="1">
+      <c r="D143" s="41"/>
+    </row>
+    <row r="144" ht="17.25" customHeight="1">
+      <c r="D144" s="41"/>
+    </row>
+    <row r="145" ht="17.25" customHeight="1">
+      <c r="D145" s="41"/>
+    </row>
+    <row r="146" ht="17.25" customHeight="1">
+      <c r="D146" s="41"/>
+    </row>
+    <row r="147" ht="17.25" customHeight="1">
+      <c r="D147" s="41"/>
+    </row>
+    <row r="148" ht="17.25" customHeight="1">
+      <c r="D148" s="41"/>
+    </row>
+    <row r="149" ht="17.25" customHeight="1">
+      <c r="D149" s="41"/>
+    </row>
+    <row r="150" ht="17.25" customHeight="1">
+      <c r="D150" s="41"/>
+    </row>
+    <row r="151" ht="17.25" customHeight="1">
+      <c r="D151" s="41"/>
+    </row>
+    <row r="152" ht="17.25" customHeight="1">
+      <c r="D152" s="41"/>
+    </row>
+    <row r="153" ht="17.25" customHeight="1">
+      <c r="D153" s="41"/>
+    </row>
+    <row r="154" ht="17.25" customHeight="1">
+      <c r="D154" s="41"/>
+    </row>
+    <row r="155" ht="17.25" customHeight="1">
+      <c r="D155" s="41"/>
+    </row>
+    <row r="156" ht="17.25" customHeight="1">
+      <c r="D156" s="41"/>
+    </row>
+    <row r="157" ht="17.25" customHeight="1">
+      <c r="D157" s="41"/>
+    </row>
+    <row r="158" ht="17.25" customHeight="1">
+      <c r="D158" s="41"/>
+    </row>
+    <row r="159" ht="17.25" customHeight="1">
+      <c r="D159" s="41"/>
+    </row>
+    <row r="160" ht="17.25" customHeight="1">
+      <c r="D160" s="41"/>
+    </row>
+    <row r="161" ht="17.25" customHeight="1">
+      <c r="D161" s="41"/>
+    </row>
+    <row r="162" ht="17.25" customHeight="1">
+      <c r="D162" s="41"/>
+    </row>
+    <row r="163" ht="17.25" customHeight="1">
+      <c r="D163" s="41"/>
+    </row>
+    <row r="164" ht="17.25" customHeight="1">
+      <c r="D164" s="41"/>
+    </row>
+    <row r="165" ht="17.25" customHeight="1">
+      <c r="D165" s="41"/>
+    </row>
+    <row r="166" ht="17.25" customHeight="1">
+      <c r="D166" s="41"/>
+    </row>
+    <row r="167" ht="17.25" customHeight="1">
+      <c r="D167" s="41"/>
+    </row>
+    <row r="168" ht="17.25" customHeight="1">
+      <c r="D168" s="41"/>
+    </row>
+    <row r="169" ht="17.25" customHeight="1">
+      <c r="D169" s="41"/>
+    </row>
+    <row r="170" ht="17.25" customHeight="1">
+      <c r="D170" s="41"/>
+    </row>
+    <row r="171" ht="17.25" customHeight="1">
+      <c r="D171" s="41"/>
+    </row>
+    <row r="172" ht="17.25" customHeight="1">
+      <c r="D172" s="41"/>
+    </row>
+    <row r="173" ht="17.25" customHeight="1">
+      <c r="D173" s="41"/>
+    </row>
+    <row r="174" ht="17.25" customHeight="1">
+      <c r="D174" s="41"/>
+    </row>
+    <row r="175" ht="17.25" customHeight="1">
+      <c r="D175" s="41"/>
+    </row>
+    <row r="176" ht="17.25" customHeight="1">
+      <c r="D176" s="41"/>
+    </row>
+    <row r="177" ht="17.25" customHeight="1">
+      <c r="D177" s="41"/>
+    </row>
+    <row r="178" ht="17.25" customHeight="1">
+      <c r="D178" s="41"/>
+    </row>
+    <row r="179" ht="17.25" customHeight="1">
+      <c r="D179" s="41"/>
+    </row>
+    <row r="180" ht="17.25" customHeight="1">
+      <c r="D180" s="41"/>
+    </row>
+    <row r="181" ht="17.25" customHeight="1">
+      <c r="D181" s="41"/>
+    </row>
+    <row r="182" ht="17.25" customHeight="1">
+      <c r="D182" s="41"/>
+    </row>
+    <row r="183" ht="17.25" customHeight="1">
+      <c r="D183" s="41"/>
+    </row>
+    <row r="184" ht="17.25" customHeight="1">
+      <c r="D184" s="41"/>
+    </row>
+    <row r="185" ht="17.25" customHeight="1">
+      <c r="D185" s="41"/>
+    </row>
+    <row r="186" ht="17.25" customHeight="1">
+      <c r="D186" s="41"/>
+    </row>
+    <row r="187" ht="17.25" customHeight="1">
+      <c r="D187" s="41"/>
+    </row>
+    <row r="188" ht="17.25" customHeight="1">
+      <c r="D188" s="41"/>
+    </row>
+    <row r="189" ht="17.25" customHeight="1">
+      <c r="D189" s="41"/>
+    </row>
+    <row r="190" ht="17.25" customHeight="1">
+      <c r="D190" s="41"/>
+    </row>
+    <row r="191" ht="17.25" customHeight="1">
+      <c r="D191" s="41"/>
+    </row>
+    <row r="192" ht="17.25" customHeight="1">
+      <c r="D192" s="41"/>
+    </row>
+    <row r="193" ht="17.25" customHeight="1">
+      <c r="D193" s="41"/>
+    </row>
+    <row r="194" ht="17.25" customHeight="1">
+      <c r="D194" s="41"/>
+    </row>
+    <row r="195" ht="17.25" customHeight="1">
+      <c r="D195" s="41"/>
+    </row>
+    <row r="196" ht="17.25" customHeight="1">
+      <c r="D196" s="41"/>
+    </row>
+    <row r="197" ht="17.25" customHeight="1">
+      <c r="D197" s="41"/>
+    </row>
+    <row r="198" ht="17.25" customHeight="1">
+      <c r="D198" s="41"/>
+    </row>
+    <row r="199" ht="17.25" customHeight="1">
+      <c r="D199" s="41"/>
+    </row>
+    <row r="200" ht="17.25" customHeight="1">
+      <c r="D200" s="41"/>
+    </row>
+    <row r="201" ht="17.25" customHeight="1">
+      <c r="D201" s="41"/>
+    </row>
+    <row r="202" ht="17.25" customHeight="1">
+      <c r="D202" s="41"/>
+    </row>
+    <row r="203" ht="17.25" customHeight="1">
+      <c r="D203" s="41"/>
+    </row>
+    <row r="204" ht="17.25" customHeight="1">
+      <c r="D204" s="41"/>
+    </row>
+    <row r="205" ht="17.25" customHeight="1">
+      <c r="D205" s="41"/>
+    </row>
+    <row r="206" ht="17.25" customHeight="1">
+      <c r="D206" s="41"/>
+    </row>
+    <row r="207" ht="17.25" customHeight="1">
+      <c r="D207" s="41"/>
+    </row>
+    <row r="208" ht="17.25" customHeight="1">
+      <c r="D208" s="41"/>
+    </row>
+    <row r="209" ht="17.25" customHeight="1">
+      <c r="D209" s="41"/>
+    </row>
+    <row r="210" ht="17.25" customHeight="1">
+      <c r="D210" s="41"/>
+    </row>
+    <row r="211" ht="17.25" customHeight="1">
+      <c r="D211" s="41"/>
+    </row>
+    <row r="212" ht="17.25" customHeight="1">
+      <c r="D212" s="41"/>
+    </row>
+    <row r="213" ht="17.25" customHeight="1">
+      <c r="D213" s="41"/>
+    </row>
+    <row r="214" ht="17.25" customHeight="1">
+      <c r="D214" s="41"/>
+    </row>
+    <row r="215" ht="17.25" customHeight="1">
+      <c r="D215" s="41"/>
+    </row>
+    <row r="216" ht="17.25" customHeight="1">
+      <c r="D216" s="41"/>
+    </row>
+    <row r="217" ht="17.25" customHeight="1">
+      <c r="D217" s="41"/>
+    </row>
+    <row r="218" ht="17.25" customHeight="1">
+      <c r="D218" s="41"/>
+    </row>
+    <row r="219" ht="17.25" customHeight="1">
+      <c r="D219" s="41"/>
+    </row>
+    <row r="220" ht="17.25" customHeight="1">
+      <c r="D220" s="41"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="D221" s="41"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="D222" s="41"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="D223" s="41"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="D224" s="41"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="D225" s="41"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="D226" s="41"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="D227" s="41"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="D228" s="41"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="D229" s="41"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="D230" s="41"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="D231" s="41"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="D232" s="41"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="D233" s="41"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="D234" s="41"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="D235" s="41"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="D236" s="41"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="D237" s="41"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="D238" s="41"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="D239" s="41"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="D240" s="41"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="D241" s="41"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="D242" s="41"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="D243" s="41"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="D244" s="41"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="D245" s="41"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="D246" s="41"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="D247" s="41"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="D248" s="41"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="D249" s="41"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="D250" s="41"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="D251" s="41"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="D252" s="41"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="D253" s="41"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="D254" s="41"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="D255" s="41"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="D256" s="41"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="D257" s="41"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="D258" s="41"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="D259" s="41"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="D260" s="41"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="D261" s="41"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="D262" s="41"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="D263" s="41"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="D264" s="41"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="D265" s="41"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="D266" s="41"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="D267" s="41"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="D268" s="41"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="D269" s="41"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="D270" s="41"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="D271" s="41"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="D272" s="41"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="D273" s="41"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="D274" s="41"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="D275" s="41"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="D276" s="41"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="D277" s="41"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="D278" s="41"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="D279" s="41"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="D280" s="41"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="D281" s="41"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="D282" s="41"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="D283" s="41"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="D284" s="41"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="D285" s="41"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="D286" s="41"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="D287" s="41"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="D288" s="41"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="D289" s="41"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="D290" s="41"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="D291" s="41"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="D292" s="41"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="D293" s="41"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="D294" s="41"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="D295" s="41"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="D296" s="41"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="D297" s="41"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="D298" s="41"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="D299" s="41"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="D300" s="41"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="D301" s="41"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="D302" s="41"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="D303" s="41"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="D304" s="41"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="D305" s="41"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="D306" s="41"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="D307" s="41"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="D308" s="41"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="D309" s="41"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="D310" s="41"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="D311" s="41"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="D312" s="41"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="D313" s="41"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="D314" s="41"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="D315" s="41"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="D316" s="41"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="D317" s="41"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="D318" s="41"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="D319" s="41"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="D320" s="41"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="D321" s="41"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="D322" s="41"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="D323" s="41"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="D324" s="41"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="D325" s="41"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="D326" s="41"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="D327" s="41"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="D328" s="41"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="D329" s="41"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="D330" s="41"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="D331" s="41"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="D332" s="41"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="D333" s="41"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="D334" s="41"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="D335" s="41"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="D336" s="41"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="D337" s="41"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="D338" s="41"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="D339" s="41"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="D340" s="41"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="D341" s="41"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="D342" s="41"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="D343" s="41"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="D344" s="41"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="D345" s="41"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="D346" s="41"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="D347" s="41"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="D348" s="41"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="D349" s="41"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="D350" s="41"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="D351" s="41"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="D352" s="41"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="D353" s="41"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="D354" s="41"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="D355" s="41"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="D356" s="41"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="D357" s="41"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="D358" s="41"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="D359" s="41"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="D360" s="41"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="D361" s="41"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="D362" s="41"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="D363" s="41"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="D364" s="41"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="D365" s="41"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="D366" s="41"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="D367" s="41"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="D368" s="41"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="D369" s="41"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="D370" s="41"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="D371" s="41"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="D372" s="41"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="D373" s="41"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="D374" s="41"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="D375" s="41"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="D376" s="41"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="D377" s="41"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="D378" s="41"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="D379" s="41"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="D380" s="41"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="D381" s="41"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="D382" s="41"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="D383" s="41"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="D384" s="41"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="D385" s="41"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="D386" s="41"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="D387" s="41"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="D388" s="41"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="D389" s="41"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="D390" s="41"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="D391" s="41"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="D392" s="41"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="D393" s="41"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="D394" s="41"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="D395" s="41"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="D396" s="41"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="D397" s="41"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="D398" s="41"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="D399" s="41"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="D400" s="41"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="D401" s="41"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="D402" s="41"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="D403" s="41"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="D404" s="41"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="D405" s="41"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="D406" s="41"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="D407" s="41"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="D408" s="41"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="D409" s="41"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="D410" s="41"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="D411" s="41"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="D412" s="41"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="D413" s="41"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="D414" s="41"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="D415" s="41"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="D416" s="41"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="D417" s="41"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="D418" s="41"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="D419" s="41"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="D420" s="41"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="D421" s="41"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="D422" s="41"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="D423" s="41"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="D424" s="41"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="D425" s="41"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="D426" s="41"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="D427" s="41"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="D428" s="41"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="D429" s="41"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="D430" s="41"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="D431" s="41"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="D432" s="41"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="D433" s="41"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="D434" s="41"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="D435" s="41"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="D436" s="41"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="D437" s="41"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="D438" s="41"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="D439" s="41"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="D440" s="41"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="D441" s="41"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="D442" s="41"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="D443" s="41"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="D444" s="41"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="D445" s="41"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="D446" s="41"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="D447" s="41"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="D448" s="41"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="D449" s="41"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="D450" s="41"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="D451" s="41"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="D452" s="41"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="D453" s="41"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="D454" s="41"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="D455" s="41"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="D456" s="41"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="D457" s="41"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="D458" s="41"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="D459" s="41"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="D460" s="41"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="D461" s="41"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="D462" s="41"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="D463" s="41"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="D464" s="41"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="D465" s="41"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="D466" s="41"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="D467" s="41"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="D468" s="41"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="D469" s="41"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="D470" s="41"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="D471" s="41"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="D472" s="41"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="D473" s="41"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="D474" s="41"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="D475" s="41"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="D476" s="41"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="D477" s="41"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="D478" s="41"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="D479" s="41"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="D480" s="41"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="D481" s="41"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="D482" s="41"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="D483" s="41"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="D484" s="41"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="D485" s="41"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="D486" s="41"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="D487" s="41"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="D488" s="41"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="D489" s="41"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="D490" s="41"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="D491" s="41"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="D492" s="41"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="D493" s="41"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="D494" s="41"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="D495" s="41"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="D496" s="41"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="D497" s="41"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="D498" s="41"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="D499" s="41"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="D500" s="41"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="D501" s="41"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="D502" s="41"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="D503" s="41"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="D504" s="41"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="D505" s="41"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="D506" s="41"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="D507" s="41"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="D508" s="41"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="D509" s="41"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="D510" s="41"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="D511" s="41"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="D512" s="41"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="D513" s="41"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="D514" s="41"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="D515" s="41"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="D516" s="41"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="D517" s="41"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="D518" s="41"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="D519" s="41"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="D520" s="41"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="D521" s="41"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="D522" s="41"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="D523" s="41"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="D524" s="41"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="D525" s="41"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="D526" s="41"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="D527" s="41"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="D528" s="41"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="D529" s="41"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="D530" s="41"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="D531" s="41"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="D532" s="41"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="D533" s="41"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="D534" s="41"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="D535" s="41"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="D536" s="41"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="D537" s="41"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="D538" s="41"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="D539" s="41"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="D540" s="41"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="D541" s="41"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="D542" s="41"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="D543" s="41"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="D544" s="41"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="D545" s="41"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="D546" s="41"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="D547" s="41"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="D548" s="41"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="D549" s="41"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="D550" s="41"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="D551" s="41"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="D552" s="41"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="D553" s="41"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="D554" s="41"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="D555" s="41"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="D556" s="41"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="D557" s="41"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="D558" s="41"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="D559" s="41"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="D560" s="41"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="D561" s="41"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="D562" s="41"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="D563" s="41"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="D564" s="41"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="D565" s="41"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="D566" s="41"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="D567" s="41"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="D568" s="41"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="D569" s="41"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="D570" s="41"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="D571" s="41"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="D572" s="41"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="D573" s="41"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="D574" s="41"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="D575" s="41"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="D576" s="41"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="D577" s="41"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="D578" s="41"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="D579" s="41"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="D580" s="41"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="D581" s="41"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="D582" s="41"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="D583" s="41"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="D584" s="41"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="D585" s="41"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="D586" s="41"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="D587" s="41"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="D588" s="41"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="D589" s="41"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="D590" s="41"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="D591" s="41"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="D592" s="41"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="D593" s="41"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="D594" s="41"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="D595" s="41"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="D596" s="41"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="D597" s="41"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="D598" s="41"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="D599" s="41"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="D600" s="41"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="D601" s="41"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="D602" s="41"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="D603" s="41"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="D604" s="41"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="D605" s="41"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="D606" s="41"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="D607" s="41"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="D608" s="41"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="D609" s="41"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="D610" s="41"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="D611" s="41"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="D612" s="41"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="D613" s="41"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="D614" s="41"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="D615" s="41"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="D616" s="41"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="D617" s="41"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="D618" s="41"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="D619" s="41"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="D620" s="41"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="D621" s="41"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="D622" s="41"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="D623" s="41"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="D624" s="41"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="D625" s="41"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="D626" s="41"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="D627" s="41"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="D628" s="41"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="D629" s="41"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="D630" s="41"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="D631" s="41"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="D632" s="41"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="D633" s="41"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="D634" s="41"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="D635" s="41"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="D636" s="41"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="D637" s="41"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="D638" s="41"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="D639" s="41"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="D640" s="41"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="D641" s="41"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="D642" s="41"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="D643" s="41"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="D644" s="41"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="D645" s="41"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="D646" s="41"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="D647" s="41"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="D648" s="41"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="D649" s="41"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="D650" s="41"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="D651" s="41"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="D652" s="41"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="D653" s="41"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="D654" s="41"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="D655" s="41"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="D656" s="41"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="D657" s="41"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="D658" s="41"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="D659" s="41"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="D660" s="41"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="D661" s="41"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="D662" s="41"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="D663" s="41"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="D664" s="41"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="D665" s="41"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="D666" s="41"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="D667" s="41"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="D668" s="41"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="D669" s="41"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="D670" s="41"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="D671" s="41"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="D672" s="41"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="D673" s="41"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="D674" s="41"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="D675" s="41"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="D676" s="41"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="D677" s="41"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="D678" s="41"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="D679" s="41"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="D680" s="41"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="D681" s="41"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="D682" s="41"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="D683" s="41"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="D684" s="41"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="D685" s="41"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="D686" s="41"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="D687" s="41"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="D688" s="41"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="D689" s="41"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="D690" s="41"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="D691" s="41"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="D692" s="41"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="D693" s="41"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="D694" s="41"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="D695" s="41"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="D696" s="41"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="D697" s="41"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="D698" s="41"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="D699" s="41"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="D700" s="41"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="D701" s="41"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="D702" s="41"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="D703" s="41"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="D704" s="41"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="D705" s="41"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="D706" s="41"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="D707" s="41"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="D708" s="41"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="D709" s="41"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="D710" s="41"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="D711" s="41"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="D712" s="41"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="D713" s="41"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="D714" s="41"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="D715" s="41"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="D716" s="41"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="D717" s="41"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="D718" s="41"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="D719" s="41"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="D720" s="41"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="D721" s="41"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="D722" s="41"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="D723" s="41"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="D724" s="41"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="D725" s="41"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="D726" s="41"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="D727" s="41"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="D728" s="41"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="D729" s="41"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="D730" s="41"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="D731" s="41"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="D732" s="41"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="D733" s="41"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="D734" s="41"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="D735" s="41"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="D736" s="41"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="D737" s="41"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="D738" s="41"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="D739" s="41"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="D740" s="41"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="D741" s="41"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="D742" s="41"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="D743" s="41"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="D744" s="41"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="D745" s="41"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="D746" s="41"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="D747" s="41"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="D748" s="41"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="D749" s="41"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="D750" s="41"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="D751" s="41"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="D752" s="41"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="D753" s="41"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="D754" s="41"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="D755" s="41"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="D756" s="41"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="D757" s="41"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="D758" s="41"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="D759" s="41"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="D760" s="41"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="D761" s="41"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="D762" s="41"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="D763" s="41"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="D764" s="41"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="D765" s="41"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="D766" s="41"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="D767" s="41"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="D768" s="41"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="D769" s="41"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="D770" s="41"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="D771" s="41"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="D772" s="41"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="D773" s="41"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="D774" s="41"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="D775" s="41"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="D776" s="41"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="D777" s="41"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="D778" s="41"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="D779" s="41"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="D780" s="41"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="D781" s="41"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="D782" s="41"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="D783" s="41"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="D784" s="41"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="D785" s="41"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="D786" s="41"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="D787" s="41"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="D788" s="41"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="D789" s="41"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="D790" s="41"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="D791" s="41"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="D792" s="41"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="D793" s="41"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="D794" s="41"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="D795" s="41"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="D796" s="41"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="D797" s="41"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="D798" s="41"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="D799" s="41"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="D800" s="41"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="D801" s="41"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="D802" s="41"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="D803" s="41"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="D804" s="41"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="D805" s="41"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="D806" s="41"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="D807" s="41"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="D808" s="41"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="D809" s="41"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="D810" s="41"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="D811" s="41"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="D812" s="41"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="D813" s="41"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="D814" s="41"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="D815" s="41"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="D816" s="41"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="D817" s="41"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="D818" s="41"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="D819" s="41"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="D820" s="41"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="D821" s="41"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="D822" s="41"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="D823" s="41"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="D824" s="41"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="D825" s="41"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="D826" s="41"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="D827" s="41"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="D828" s="41"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="D829" s="41"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="D830" s="41"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="D831" s="41"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="D832" s="41"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="D833" s="41"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="D834" s="41"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="D835" s="41"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="D836" s="41"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="D837" s="41"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="D838" s="41"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="D839" s="41"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="D840" s="41"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="D841" s="41"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="D842" s="41"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="D843" s="41"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="D844" s="41"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="D845" s="41"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="D846" s="41"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="D847" s="41"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="D848" s="41"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="D849" s="41"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="D850" s="41"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="D851" s="41"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="D852" s="41"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="D853" s="41"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="D854" s="41"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="D855" s="41"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="D856" s="41"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="D857" s="41"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="D858" s="41"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="D859" s="41"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="D860" s="41"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="D861" s="41"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="D862" s="41"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="D863" s="41"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="D864" s="41"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="D865" s="41"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="D866" s="41"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="D867" s="41"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="D868" s="41"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="D869" s="41"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="D870" s="41"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="D871" s="41"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="D872" s="41"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="D873" s="41"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="D874" s="41"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="D875" s="41"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="D876" s="41"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="D877" s="41"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="D878" s="41"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="D879" s="41"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="D880" s="41"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="D881" s="41"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="D882" s="41"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="D883" s="41"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="D884" s="41"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="D885" s="41"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="D886" s="41"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="D887" s="41"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="D888" s="41"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="D889" s="41"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="D890" s="41"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="D891" s="41"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="D892" s="41"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="D893" s="41"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="D894" s="41"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="D895" s="41"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="D896" s="41"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="D897" s="41"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="D898" s="41"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="D899" s="41"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="D900" s="41"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="D901" s="41"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="D902" s="41"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="D903" s="41"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="D904" s="41"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="D905" s="41"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="D906" s="41"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="D907" s="41"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="D908" s="41"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="D909" s="41"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="D910" s="41"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="D911" s="41"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="D912" s="41"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="D913" s="41"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="D914" s="41"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="D915" s="41"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="D916" s="41"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="D917" s="41"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="D918" s="41"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="D919" s="41"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="D920" s="41"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="D921" s="41"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="D922" s="41"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="D923" s="41"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="D924" s="41"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="D925" s="41"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="D926" s="41"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="D927" s="41"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="D928" s="41"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="D929" s="41"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="D930" s="41"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="D931" s="41"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="D932" s="41"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="D933" s="41"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="D934" s="41"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="D935" s="41"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="D936" s="41"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="D937" s="41"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="D938" s="41"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="D939" s="41"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="D940" s="41"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="D941" s="41"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="D942" s="41"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="D943" s="41"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="D944" s="41"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="D945" s="41"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="D946" s="41"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="D947" s="41"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="D948" s="41"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="D949" s="41"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="D950" s="41"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="D951" s="41"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="D952" s="41"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="D953" s="41"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="D954" s="41"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="D955" s="41"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="D956" s="41"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="D957" s="41"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="D958" s="41"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="D959" s="41"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="D960" s="41"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="D961" s="41"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="D962" s="41"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="D963" s="41"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="D964" s="41"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="D965" s="41"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="D966" s="41"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="D967" s="41"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="D968" s="41"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="D969" s="41"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="D970" s="41"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="D971" s="41"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="D972" s="41"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="D973" s="41"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="D974" s="41"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="D975" s="41"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="D976" s="41"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="D977" s="41"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="D978" s="41"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="D979" s="41"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="D980" s="41"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="D981" s="41"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="D982" s="41"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="D983" s="41"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="D984" s="41"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="D985" s="41"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="D986" s="41"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="D987" s="41"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="D988" s="41"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="D989" s="41"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="D990" s="41"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="D991" s="41"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="D992" s="41"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="D993" s="41"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="D994" s="41"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="D995" s="41"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="D996" s="41"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="D997" s="41"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="D998" s="41"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="D999" s="41"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="D1000" s="41"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -34063,25 +36061,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
@@ -34089,13 +36087,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F2" s="1">
         <v>2000.0</v>
@@ -34112,13 +36110,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F3" s="1">
         <v>3000.0</v>
@@ -34135,13 +36133,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F4" s="1">
         <v>4000.0</v>
@@ -34158,13 +36156,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F5" s="1">
         <v>5000.0</v>
@@ -34187,7 +36185,7 @@
         <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="1">
         <v>6000.0</v>
@@ -34289,16 +36287,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2">
@@ -34306,13 +36304,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -34320,13 +36318,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4">
@@ -34334,13 +36332,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
@@ -34348,13 +36346,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
@@ -34362,13 +36360,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
@@ -34376,7 +36374,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
@@ -34384,7 +36382,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
@@ -34392,7 +36390,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
@@ -34400,7 +36398,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
@@ -34408,292 +36406,292 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="40">
+      <c r="A12" s="42">
         <v>10.0</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="40" t="s">
+      <c r="E12" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="42" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="42">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="40">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40" t="s">
+      <c r="E13" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="42">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="40">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40" t="s">
+      <c r="E14" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="42">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="40">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="42">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="40">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40" t="s">
+      <c r="E16" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="42">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="40">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40" t="s">
+      <c r="E17" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="42">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="40">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40" t="s">
+      <c r="E18" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="42">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="40">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40" t="s">
+      <c r="E19" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="40">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40" t="s">
+      <c r="E20" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="42">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="40">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="45">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43" t="s">
+      <c r="E22" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="45">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="43">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43" t="s">
+      <c r="E23" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="45">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="43">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43" t="s">
+      <c r="E24" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="45">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="43">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43" t="s">
+      <c r="E25" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="45">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="43">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43" t="s">
+      <c r="E26" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="45">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="43">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43" t="s">
+      <c r="E27" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="45">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="43">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43" t="s">
+      <c r="E28" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="45">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="43">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43" t="s">
+      <c r="E29" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="45">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="43">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>231</v>
+      <c r="E30" s="44" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="31">
@@ -34706,13 +36704,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="33">
@@ -34720,13 +36718,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -34734,13 +36732,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
@@ -34748,13 +36746,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -34762,13 +36760,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
@@ -34776,13 +36774,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38">
@@ -34790,13 +36788,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
@@ -34804,13 +36802,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40">
@@ -34818,13 +36816,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="263">
   <si>
     <t>Number</t>
   </si>
@@ -621,10 +621,16 @@
     <t>Position</t>
   </si>
   <si>
+    <t>기관사</t>
+  </si>
+  <si>
     <t>Engine_Driver</t>
   </si>
   <si>
     <t>Passive mercenaries with a choice of speed, fuel efficiency and defense</t>
+  </si>
+  <si>
+    <t>엔지니어</t>
   </si>
   <si>
     <t>Engineer</t>
@@ -633,7 +639,7 @@
     <t>a mercenary who repairs broken trains</t>
   </si>
   <si>
-    <t>Sniper</t>
+    <t>스나이퍼</t>
   </si>
   <si>
     <t>Long_Ranged</t>
@@ -642,13 +648,16 @@
     <t>a mercenary who shoots monsters in the air or in the distance with a sniper rifle</t>
   </si>
   <si>
-    <t>Gangster</t>
+    <t>전사</t>
   </si>
   <si>
     <t>Short_Ranged</t>
   </si>
   <si>
     <t>a mercenary who kills monsters on the ground with a sword</t>
+  </si>
+  <si>
+    <t>의사</t>
   </si>
   <si>
     <t>A nurse treating a mercenary who lacks stamina, maybe a resurrection..?</t>
@@ -36090,10 +36099,10 @@
         <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1">
         <v>2000.0</v>
@@ -36110,13 +36119,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F3" s="1">
         <v>3000.0</v>
@@ -36133,13 +36142,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F4" s="1">
         <v>4000.0</v>
@@ -36156,13 +36165,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F5" s="1">
         <v>5000.0</v>
@@ -36179,13 +36188,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F6" s="1">
         <v>6000.0</v>
@@ -36287,16 +36296,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -36304,13 +36313,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
@@ -36318,13 +36327,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
@@ -36332,13 +36341,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
@@ -36346,13 +36355,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="6">
@@ -36360,13 +36369,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7">
@@ -36374,7 +36383,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8">
@@ -36382,7 +36391,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -36390,7 +36399,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -36398,7 +36407,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11">
@@ -36406,7 +36415,7 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12">
@@ -36414,14 +36423,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="42" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -36429,14 +36438,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="42" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14">
@@ -36444,14 +36453,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="42" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
@@ -36459,14 +36468,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="44" t="s">
         <v>233</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16">
@@ -36474,14 +36483,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="42" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
@@ -36489,14 +36498,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="42" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -36504,14 +36513,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
@@ -36519,14 +36528,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20">
@@ -36534,14 +36543,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="42" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
@@ -36549,14 +36558,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
@@ -36564,14 +36573,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="45" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
@@ -36579,14 +36588,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="45" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
@@ -36594,14 +36603,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="45" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
@@ -36609,14 +36618,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="45" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -36624,14 +36633,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="45" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
@@ -36639,14 +36648,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="45" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
@@ -36654,14 +36663,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="45" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
@@ -36669,14 +36678,14 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="45" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
@@ -36684,14 +36693,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="45" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -36704,13 +36713,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -36718,13 +36727,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -36732,13 +36741,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
@@ -36746,13 +36755,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -36760,13 +36769,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37">
@@ -36774,13 +36783,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38">
@@ -36788,13 +36797,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39">
@@ -36802,13 +36811,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40">
@@ -36816,13 +36825,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="190">
   <si>
     <t>Number</t>
   </si>
@@ -153,100 +153,16 @@
     <t>Engine</t>
   </si>
   <si>
-    <t xml:space="preserve">3레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </t>
-  </si>
-  <si>
     <t>연료 기차</t>
   </si>
   <si>
     <t>Fuel</t>
   </si>
   <si>
-    <t>1레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>2레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>3레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>4레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>5레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>6레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>7레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>8레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>9레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
-    <t>10레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!!</t>
-  </si>
-  <si>
     <t>포탑 기차</t>
   </si>
   <si>
     <t>Turret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. </t>
   </si>
   <si>
     <t>Lv1</t>
@@ -283,36 +199,6 @@
   </si>
   <si>
     <t>Medic</t>
-  </si>
-  <si>
-    <t>1레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>2레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>3레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>4레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>5레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>6레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>7레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>8레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>9레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
-  </si>
-  <si>
-    <t>10레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</t>
   </si>
   <si>
     <t>Quest Train</t>
@@ -381,100 +267,25 @@
     <t>Bullet/Monster/1</t>
   </si>
   <si>
+    <t>Ground</t>
+  </si>
+  <si>
     <t>Player</t>
   </si>
   <si>
     <t>MonsterSprite/1</t>
   </si>
   <si>
-    <t>monster_2</t>
+    <t>Boss</t>
   </si>
   <si>
-    <t>Bullet/Monster/2</t>
-  </si>
-  <si>
-    <t>MonsterSprite/2</t>
-  </si>
-  <si>
-    <t>monster_3</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/3</t>
-  </si>
-  <si>
-    <t>Mercenary</t>
-  </si>
-  <si>
-    <t>MonsterSprite/3</t>
-  </si>
-  <si>
-    <t>monster_4</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/4</t>
+    <t>Bullet/Monster/Boos0</t>
   </si>
   <si>
     <t>Train</t>
   </si>
   <si>
-    <t>MonsterSprite/4</t>
-  </si>
-  <si>
-    <t>monster_5</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/5</t>
-  </si>
-  <si>
-    <t>MonsterSprite/5</t>
-  </si>
-  <si>
-    <t>monster_6</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/6</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>MonsterSprite/6</t>
-  </si>
-  <si>
-    <t>monster_7</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/7</t>
-  </si>
-  <si>
-    <t>MonsterSprite/7</t>
-  </si>
-  <si>
-    <t>monster_8</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/8</t>
-  </si>
-  <si>
-    <t>MonsterSprite/8</t>
-  </si>
-  <si>
-    <t>monster_9</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/9</t>
-  </si>
-  <si>
-    <t>MonsterSprite/9</t>
-  </si>
-  <si>
-    <t>monster_10</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/10</t>
-  </si>
-  <si>
-    <t>MonsterBullet/10</t>
+    <t>MonsterSprite/Boss</t>
   </si>
   <si>
     <t>Stage_Name</t>
@@ -517,6 +328,9 @@
   </si>
   <si>
     <t>Stage_3</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
   <si>
     <t>Stage_4</t>
@@ -796,9 +610,9 @@
       <name val="Malgun Gothic"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Google Sans Mono&quot;"/>
+      <name val="Malgun Gothic"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1614,8 +1428,15 @@
         <v>1000.0</v>
       </c>
       <c r="Q2" s="14" t="str">
-        <f>"1레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. \n\n내구도 : " &amp; INDIRECT("C2") &amp; "\t무게 : "&amp; INDIRECT("D2") &amp; "\n방어력 : "&amp; INDIRECT("E2") &amp; "\t최대 스피드 : "&amp; INDIRECT("G2")&amp; "\n연료 소모량 : "&amp; INDIRECT("H2") &amp;"\t엔진 파워 : "&amp; INDIRECT("I2")</f>
-        <v>1레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. \n\n내구도 : 5000\t무게 : 700000\n방어력 : 10\t최대 스피드 : 300\n연료 소모량 : 20\t엔진 파워 : 50</v>
+        <f>"1레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>1레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 5000\t무게 : 700000\n방어력 : 10\t최대 스피드 : 300\n연료 소모량 : 20\t엔진 파워 : 50</v>
       </c>
       <c r="R2" s="8" t="b">
         <v>0</v>
@@ -1632,7 +1453,7 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
+    <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
@@ -1674,8 +1495,15 @@
         <v>1001.0</v>
       </c>
       <c r="Q3" s="14" t="str">
-        <f>"2레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. \n\n내구도 : " &amp; INDIRECT("C3") &amp; "\t무게 : "&amp; INDIRECT("D3") &amp; "\n방어력 : "&amp; INDIRECT("E3") &amp; "\t최대 스피드 : "&amp; INDIRECT("G3")&amp; "\n연료 소모량 : "&amp; INDIRECT("H2") &amp;"\t엔진 파워 : "&amp; INDIRECT("I3")</f>
-        <v>2레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다.\n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. \n\n내구도 : 6000\t무게 : 710000\n방어력 : 20\t최대 스피드 : 301\n연료 소모량 : 20\t엔진 파워 : 51</v>
+        <f> "2레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>2레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 6000\t무게 : 710000\n방어력 : 20\t최대 스피드 : 301\n연료 소모량 : 21\t엔진 파워 : 51</v>
       </c>
       <c r="R3" s="8" t="b">
         <v>0</v>
@@ -1733,8 +1561,16 @@
       <c r="P4" s="13">
         <v>1002.0</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>45</v>
+      <c r="Q4" s="11" t="str">
+        <f> "3레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>3레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 7000\t무게 : 720000\n방어력 : 30\t최대 스피드 : 302\n연료 소모량 : 22\t엔진 파워 : 52</v>
       </c>
       <c r="R4" s="8" t="b">
         <v>0</v>
@@ -1792,8 +1628,16 @@
       <c r="P5" s="13">
         <v>1003.0</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>46</v>
+      <c r="Q5" s="11" t="str">
+        <f> "4레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>4레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 8000\t무게 : 730000\n방어력 : 40\t최대 스피드 : 303\n연료 소모량 : 23\t엔진 파워 : 53</v>
       </c>
       <c r="R5" s="8" t="b">
         <v>0</v>
@@ -1851,8 +1695,16 @@
       <c r="P6" s="13">
         <v>1004.0</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>47</v>
+      <c r="Q6" s="11" t="str">
+        <f> "5레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>5레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 9000\t무게 : 740000\n방어력 : 50\t최대 스피드 : 304\n연료 소모량 : 24\t엔진 파워 : 54</v>
       </c>
       <c r="R6" s="8" t="b">
         <v>0</v>
@@ -1910,8 +1762,16 @@
       <c r="P7" s="13">
         <v>1005.0</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>48</v>
+      <c r="Q7" s="11" t="str">
+        <f> "6레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>6레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 10000\t무게 : 750000\n방어력 : 60\t최대 스피드 : 305\n연료 소모량 : 25\t엔진 파워 : 55</v>
       </c>
       <c r="R7" s="8" t="b">
         <v>0</v>
@@ -1969,8 +1829,16 @@
       <c r="P8" s="13">
         <v>1006.0</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>49</v>
+      <c r="Q8" s="11" t="str">
+        <f> "7레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>7레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 11000\t무게 : 760000\n방어력 : 70\t최대 스피드 : 306\n연료 소모량 : 26\t엔진 파워 : 56</v>
       </c>
       <c r="R8" s="8" t="b">
         <v>0</v>
@@ -2028,8 +1896,16 @@
       <c r="P9" s="13">
         <v>1007.0</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>50</v>
+      <c r="Q9" s="11" t="str">
+        <f> "8레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>8레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 12000\t무게 : 770000\n방어력 : 80\t최대 스피드 : 307\n연료 소모량 : 27\t엔진 파워 : 57</v>
       </c>
       <c r="R9" s="8" t="b">
         <v>0</v>
@@ -2087,8 +1963,16 @@
       <c r="P10" s="13">
         <v>1008.0</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>51</v>
+      <c r="Q10" s="11" t="str">
+        <f> "9레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>9레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 13000\t무게 : 780000\n방어력 : 90\t최대 스피드 : 308\n연료 소모량 : 28\t엔진 파워 : 58</v>
       </c>
       <c r="R10" s="8" t="b">
         <v>0</v>
@@ -2146,8 +2030,16 @@
       <c r="P11" s="13">
         <v>1009.0</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>52</v>
+      <c r="Q11" s="11" t="str">
+        <f> "10레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
+"\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
+"\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW()) </f>
+        <v>10레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. 
+\n\n내구도 : 14000\t무게 : 790000\n방어력 : 100\t최대 스피드 : 309\n연료 소모량 : 29\t엔진 파워 : 59</v>
       </c>
       <c r="R11" s="8" t="b">
         <v>0</v>
@@ -2169,7 +2061,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" s="19">
         <v>5001.0</v>
@@ -2181,7 +2073,7 @@
         <v>11.0</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2201,8 +2093,14 @@
       <c r="P12" s="23">
         <v>2000.0</v>
       </c>
-      <c r="Q12" s="19" t="s">
-        <v>55</v>
+      <c r="Q12" s="19" t="str">
+        <f> "1레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>1레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 5001\t무게 : 500000\n방어력 : 11\t연료량 : 600000</v>
       </c>
       <c r="R12" s="8" t="b">
         <v>0</v>
@@ -2224,7 +2122,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7">
         <v>6001.0</v>
@@ -2236,7 +2134,7 @@
         <v>21.0</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2256,8 +2154,14 @@
       <c r="P13" s="23">
         <v>2001.0</v>
       </c>
-      <c r="Q13" s="19" t="s">
-        <v>56</v>
+      <c r="Q13" s="19" t="str">
+        <f> "2레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>2레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 6001\t무게 : 510000\n방어력 : 21\t연료량 : 600001</v>
       </c>
       <c r="R13" s="8" t="b">
         <v>0</v>
@@ -2279,7 +2183,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>7001.0</v>
@@ -2291,7 +2195,7 @@
         <v>31.0</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
@@ -2311,8 +2215,14 @@
       <c r="P14" s="23">
         <v>2002.0</v>
       </c>
-      <c r="Q14" s="19" t="s">
-        <v>57</v>
+      <c r="Q14" s="19" t="str">
+        <f> "3레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>3레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 7001\t무게 : 520000\n방어력 : 31\t연료량 : 600002</v>
       </c>
       <c r="R14" s="8" t="b">
         <v>0</v>
@@ -2334,7 +2244,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C15" s="17">
         <v>8001.0</v>
@@ -2346,7 +2256,7 @@
         <v>41.0</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2366,8 +2276,14 @@
       <c r="P15" s="23">
         <v>2003.0</v>
       </c>
-      <c r="Q15" s="19" t="s">
-        <v>58</v>
+      <c r="Q15" s="19" t="str">
+        <f> "4레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>4레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 8001\t무게 : 530000\n방어력 : 41\t연료량 : 600003</v>
       </c>
       <c r="R15" s="8" t="b">
         <v>0</v>
@@ -2389,7 +2305,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
         <v>9001.0</v>
@@ -2401,7 +2317,7 @@
         <v>51.0</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -2421,8 +2337,14 @@
       <c r="P16" s="23">
         <v>2004.0</v>
       </c>
-      <c r="Q16" s="19" t="s">
-        <v>59</v>
+      <c r="Q16" s="19" t="str">
+        <f> "5레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>5레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 9001\t무게 : 540000\n방어력 : 51\t연료량 : 600004</v>
       </c>
       <c r="R16" s="8" t="b">
         <v>0</v>
@@ -2444,7 +2366,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>10001.0</v>
@@ -2456,7 +2378,7 @@
         <v>61.0</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2476,8 +2398,14 @@
       <c r="P17" s="23">
         <v>2005.0</v>
       </c>
-      <c r="Q17" s="19" t="s">
-        <v>60</v>
+      <c r="Q17" s="19" t="str">
+        <f> "6레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>6레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 10001\t무게 : 550000\n방어력 : 61\t연료량 : 600005</v>
       </c>
       <c r="R17" s="8" t="b">
         <v>0</v>
@@ -2499,7 +2427,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C18" s="7">
         <v>11001.0</v>
@@ -2511,7 +2439,7 @@
         <v>71.0</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2531,8 +2459,14 @@
       <c r="P18" s="23">
         <v>2006.0</v>
       </c>
-      <c r="Q18" s="19" t="s">
-        <v>61</v>
+      <c r="Q18" s="19" t="str">
+        <f> "7레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>7레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 11001\t무게 : 560000\n방어력 : 71\t연료량 : 600006</v>
       </c>
       <c r="R18" s="8" t="b">
         <v>0</v>
@@ -2554,7 +2488,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7">
         <v>12001.0</v>
@@ -2566,7 +2500,7 @@
         <v>81.0</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2586,8 +2520,14 @@
       <c r="P19" s="23">
         <v>2007.0</v>
       </c>
-      <c r="Q19" s="19" t="s">
-        <v>62</v>
+      <c r="Q19" s="19" t="str">
+        <f> "8레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>8레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 12001\t무게 : 570000\n방어력 : 81\t연료량 : 600007</v>
       </c>
       <c r="R19" s="8" t="b">
         <v>0</v>
@@ -2609,7 +2549,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>13001.0</v>
@@ -2621,7 +2561,7 @@
         <v>91.0</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -2641,8 +2581,14 @@
       <c r="P20" s="23">
         <v>2008.0</v>
       </c>
-      <c r="Q20" s="19" t="s">
-        <v>63</v>
+      <c r="Q20" s="19" t="str">
+        <f> "9레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>9레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 13001\t무게 : 580000\n방어력 : 91\t연료량 : 600008</v>
       </c>
       <c r="R20" s="8" t="b">
         <v>0</v>
@@ -2664,7 +2610,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C21" s="7">
         <v>14001.0</v>
@@ -2676,7 +2622,7 @@
         <v>101.0</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -2696,8 +2642,14 @@
       <c r="P21" s="23">
         <v>2009.0</v>
       </c>
-      <c r="Q21" s="19" t="s">
-        <v>64</v>
+      <c r="Q21" s="19" t="str">
+        <f> "10레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
+        <v>10레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! 
+\n\n내구도 : 14001\t무게 : 590000\n방어력 : 101\t연료량 : 600009</v>
       </c>
       <c r="R21" s="8" t="b">
         <v>0</v>
@@ -2719,7 +2671,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C22" s="26">
         <v>5002.0</v>
@@ -2731,7 +2683,7 @@
         <v>12.0</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -2753,8 +2705,15 @@
       <c r="P22" s="30">
         <v>3000.0</v>
       </c>
-      <c r="Q22" s="26" t="s">
-        <v>67</v>
+      <c r="Q22" s="26" t="str">
+        <f> "1레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>1레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 5002\t무게 : 200000\n방어력 : 12\n공격력 : 2\n공격 속도 : 0.5</v>
       </c>
       <c r="R22" s="24" t="b">
         <v>1</v>
@@ -2776,7 +2735,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7">
         <v>6002.0</v>
@@ -2788,7 +2747,7 @@
         <v>22.0</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -2810,8 +2769,15 @@
       <c r="P23" s="30">
         <v>3001.0</v>
       </c>
-      <c r="Q23" s="26" t="s">
-        <v>68</v>
+      <c r="Q23" s="26" t="str">
+        <f> "2레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>2레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 6002\t무게 : 300000\n방어력 : 22\n공격력 : 3\n공격 속도 : 0.6</v>
       </c>
       <c r="R23" s="8" t="b">
         <v>0</v>
@@ -2833,7 +2799,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7">
         <v>7002.0</v>
@@ -2845,7 +2811,7 @@
         <v>32.0</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2867,8 +2833,15 @@
       <c r="P24" s="30">
         <v>3002.0</v>
       </c>
-      <c r="Q24" s="26" t="s">
-        <v>69</v>
+      <c r="Q24" s="26" t="str">
+        <f> "3레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>3레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 7002\t무게 : 400000\n방어력 : 32\n공격력 : 4\n공격 속도 : 0.7</v>
       </c>
       <c r="R24" s="8" t="b">
         <v>0</v>
@@ -2890,7 +2863,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C25" s="7">
         <v>8002.0</v>
@@ -2902,7 +2875,7 @@
         <v>42.0</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2924,8 +2897,15 @@
       <c r="P25" s="30">
         <v>3003.0</v>
       </c>
-      <c r="Q25" s="26" t="s">
-        <v>70</v>
+      <c r="Q25" s="26" t="str">
+        <f> "4레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>4레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 8002\t무게 : 500000\n방어력 : 42\n공격력 : 5\n공격 속도 : 0.8</v>
       </c>
       <c r="R25" s="8" t="b">
         <v>0</v>
@@ -2947,7 +2927,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>9002.0</v>
@@ -2959,7 +2939,7 @@
         <v>52.0</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -2981,8 +2961,15 @@
       <c r="P26" s="30">
         <v>3004.0</v>
       </c>
-      <c r="Q26" s="26" t="s">
-        <v>71</v>
+      <c r="Q26" s="26" t="str">
+        <f> "5레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>5레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 9002\t무게 : 600000\n방어력 : 52\n공격력 : 6\n공격 속도 : 0.9</v>
       </c>
       <c r="R26" s="8" t="b">
         <v>0</v>
@@ -3004,7 +2991,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7">
         <v>10002.0</v>
@@ -3016,7 +3003,7 @@
         <v>62.0</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -3038,8 +3025,15 @@
       <c r="P27" s="30">
         <v>3005.0</v>
       </c>
-      <c r="Q27" s="26" t="s">
-        <v>72</v>
+      <c r="Q27" s="26" t="str">
+        <f> "6레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>6레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 10002\t무게 : 700000\n방어력 : 62\n공격력 : 7\n공격 속도 : 1</v>
       </c>
       <c r="R27" s="8" t="b">
         <v>0</v>
@@ -3061,7 +3055,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7">
         <v>11002.0</v>
@@ -3073,7 +3067,7 @@
         <v>72.0</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -3095,8 +3089,15 @@
       <c r="P28" s="30">
         <v>3006.0</v>
       </c>
-      <c r="Q28" s="26" t="s">
-        <v>73</v>
+      <c r="Q28" s="26" t="str">
+        <f> "7레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>7레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 11002\t무게 : 800000\n방어력 : 72\n공격력 : 8\n공격 속도 : 1.1</v>
       </c>
       <c r="R28" s="8" t="b">
         <v>0</v>
@@ -3118,7 +3119,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7">
         <v>12002.0</v>
@@ -3130,7 +3131,7 @@
         <v>82.0</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -3152,8 +3153,15 @@
       <c r="P29" s="30">
         <v>3007.0</v>
       </c>
-      <c r="Q29" s="26" t="s">
-        <v>74</v>
+      <c r="Q29" s="26" t="str">
+        <f> "8레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>8레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 12002\t무게 : 900000\n방어력 : 82\n공격력 : 9\n공격 속도 : 1.2</v>
       </c>
       <c r="R29" s="8" t="b">
         <v>0</v>
@@ -3175,7 +3183,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7">
         <v>13002.0</v>
@@ -3187,7 +3195,7 @@
         <v>92.0</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -3209,8 +3217,15 @@
       <c r="P30" s="30">
         <v>3008.0</v>
       </c>
-      <c r="Q30" s="26" t="s">
-        <v>75</v>
+      <c r="Q30" s="26" t="str">
+        <f> "9레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>9레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 13002\t무게 : 1000000\n방어력 : 92\n공격력 : 10\n공격 속도 : 1.3</v>
       </c>
       <c r="R30" s="8" t="b">
         <v>0</v>
@@ -3232,7 +3247,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7">
         <v>14002.0</v>
@@ -3244,7 +3259,7 @@
         <v>102.0</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -3266,8 +3281,15 @@
       <c r="P31" s="30">
         <v>3009.0</v>
       </c>
-      <c r="Q31" s="26" t="s">
-        <v>76</v>
+      <c r="Q31" s="26" t="str">
+        <f> "10레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
+"\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
+        <v>10레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
+\n\n내구도 : 14002\t무게 : 1100000\n방어력 : 102\n공격력 : 11\n공격 속도 : 1.4</v>
       </c>
       <c r="R31" s="8" t="b">
         <v>0</v>
@@ -3289,7 +3311,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3326,7 +3348,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3363,7 +3385,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -3400,7 +3422,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -3437,7 +3459,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -3474,7 +3496,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -3511,7 +3533,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -3548,7 +3570,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -3585,7 +3607,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -3622,7 +3644,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -3659,7 +3681,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C42" s="34">
         <v>5003.0</v>
@@ -3671,7 +3693,7 @@
         <v>13.0</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
@@ -3691,8 +3713,15 @@
       <c r="P42" s="34">
         <v>5000.0</v>
       </c>
-      <c r="Q42" s="33" t="s">
-        <v>89</v>
+      <c r="Q42" s="33" t="str">
+        <f> "1레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>1레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 5003\t무게 : 200001\n방어력 : 13\n보유 회복량 : 100000</v>
       </c>
       <c r="R42" s="24" t="b">
         <v>1</v>
@@ -3714,7 +3743,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C43" s="7">
         <v>6003.0</v>
@@ -3726,7 +3755,7 @@
         <v>23.0</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3746,8 +3775,15 @@
       <c r="P43" s="34">
         <v>5001.0</v>
       </c>
-      <c r="Q43" s="33" t="s">
-        <v>90</v>
+      <c r="Q43" s="33" t="str">
+        <f> "2레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>2레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 6003\t무게 : 300001\n방어력 : 23\n보유 회복량 : 100001</v>
       </c>
       <c r="R43" s="8" t="b">
         <v>0</v>
@@ -3769,7 +3805,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C44" s="7">
         <v>7003.0</v>
@@ -3781,7 +3817,7 @@
         <v>33.0</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -3801,8 +3837,15 @@
       <c r="P44" s="34">
         <v>5002.0</v>
       </c>
-      <c r="Q44" s="33" t="s">
-        <v>91</v>
+      <c r="Q44" s="33" t="str">
+        <f> "3레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>3레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 7003\t무게 : 400001\n방어력 : 33\n보유 회복량 : 100002</v>
       </c>
       <c r="R44" s="8" t="b">
         <v>0</v>
@@ -3824,7 +3867,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C45" s="7">
         <v>8003.0</v>
@@ -3836,7 +3879,7 @@
         <v>43.0</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -3856,8 +3899,15 @@
       <c r="P45" s="34">
         <v>5003.0</v>
       </c>
-      <c r="Q45" s="33" t="s">
-        <v>92</v>
+      <c r="Q45" s="33" t="str">
+        <f> "4레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>4레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 8003\t무게 : 500001\n방어력 : 43\n보유 회복량 : 100003</v>
       </c>
       <c r="R45" s="8" t="b">
         <v>0</v>
@@ -3879,7 +3929,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C46" s="7">
         <v>9003.0</v>
@@ -3891,7 +3941,7 @@
         <v>53.0</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -3911,8 +3961,15 @@
       <c r="P46" s="34">
         <v>5004.0</v>
       </c>
-      <c r="Q46" s="33" t="s">
-        <v>93</v>
+      <c r="Q46" s="33" t="str">
+        <f> "5레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>5레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 9003\t무게 : 600001\n방어력 : 53\n보유 회복량 : 100004</v>
       </c>
       <c r="R46" s="8" t="b">
         <v>0</v>
@@ -3934,7 +3991,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C47" s="7">
         <v>10003.0</v>
@@ -3946,7 +4003,7 @@
         <v>63.0</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3966,8 +4023,15 @@
       <c r="P47" s="34">
         <v>5005.0</v>
       </c>
-      <c r="Q47" s="33" t="s">
-        <v>94</v>
+      <c r="Q47" s="33" t="str">
+        <f> "6레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>6레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 10003\t무게 : 700001\n방어력 : 63\n보유 회복량 : 100005</v>
       </c>
       <c r="R47" s="8" t="b">
         <v>0</v>
@@ -3989,7 +4053,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C48" s="7">
         <v>11003.0</v>
@@ -4001,7 +4065,7 @@
         <v>73.0</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -4021,8 +4085,15 @@
       <c r="P48" s="34">
         <v>5006.0</v>
       </c>
-      <c r="Q48" s="33" t="s">
-        <v>95</v>
+      <c r="Q48" s="33" t="str">
+        <f> "7레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>7레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 11003\t무게 : 800001\n방어력 : 73\n보유 회복량 : 100006</v>
       </c>
       <c r="R48" s="8" t="b">
         <v>0</v>
@@ -4044,7 +4115,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7">
         <v>12003.0</v>
@@ -4056,7 +4127,7 @@
         <v>83.0</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -4076,8 +4147,15 @@
       <c r="P49" s="34">
         <v>5007.0</v>
       </c>
-      <c r="Q49" s="33" t="s">
-        <v>96</v>
+      <c r="Q49" s="33" t="str">
+        <f> "8레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>8레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 12003\t무게 : 900001\n방어력 : 83\n보유 회복량 : 100007</v>
       </c>
       <c r="R49" s="8" t="b">
         <v>0</v>
@@ -4099,7 +4177,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C50" s="7">
         <v>13003.0</v>
@@ -4111,7 +4189,7 @@
         <v>93.0</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -4131,8 +4209,15 @@
       <c r="P50" s="34">
         <v>5008.0</v>
       </c>
-      <c r="Q50" s="33" t="s">
-        <v>97</v>
+      <c r="Q50" s="33" t="str">
+        <f> "9레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>9레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 13003\t무게 : 1000001\n방어력 : 93\n보유 회복량 : 100008</v>
       </c>
       <c r="R50" s="8" t="b">
         <v>0</v>
@@ -4154,7 +4239,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7">
         <v>14003.0</v>
@@ -4166,7 +4251,7 @@
         <v>103.0</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -4186,8 +4271,15 @@
       <c r="P51" s="34">
         <v>5009.0</v>
       </c>
-      <c r="Q51" s="33" t="s">
-        <v>98</v>
+      <c r="Q51" s="33" t="str">
+        <f> "10레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
+"\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
+</f>
+        <v>10레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
+\n\n내구도 : 14003\t무게 : 1100001\n방어력 : 103\n보유 회복량 : 100009</v>
       </c>
       <c r="R51" s="8" t="b">
         <v>0</v>
@@ -4209,7 +4301,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -4246,7 +4338,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -4283,7 +4375,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -4320,7 +4412,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -4357,7 +4449,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -4394,7 +4486,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -4431,7 +4523,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -4468,7 +4560,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -4505,7 +4597,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -4542,7 +4634,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -4579,7 +4671,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -4616,7 +4708,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -4653,7 +4745,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -4690,7 +4782,7 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -4727,7 +4819,7 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -4764,7 +4856,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -4801,7 +4893,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -4838,7 +4930,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
@@ -4875,7 +4967,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -4912,7 +5004,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -4949,7 +5041,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -4986,7 +5078,7 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -5023,7 +5115,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -5060,7 +5152,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -5097,7 +5189,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -5134,7 +5226,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -5171,7 +5263,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
@@ -5208,7 +5300,7 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -5245,7 +5337,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -5282,7 +5374,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -5319,7 +5411,7 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -5356,7 +5448,7 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
@@ -5393,7 +5485,7 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -5430,7 +5522,7 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -5467,7 +5559,7 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -5504,7 +5596,7 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -5541,7 +5633,7 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
@@ -5578,7 +5670,7 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
@@ -5615,7 +5707,7 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -5652,7 +5744,7 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -6004,7 +6096,7 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C101" s="7">
         <v>0.0</v>
@@ -6016,7 +6108,7 @@
         <v>0.0</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G101" s="7">
         <v>0.0</v>
@@ -6045,7 +6137,7 @@
       <c r="O101" s="7"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="R101" s="8" t="b">
         <v>0</v>
@@ -6067,7 +6159,7 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C102" s="7">
         <v>0.0</v>
@@ -6079,7 +6171,7 @@
         <v>0.0</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G102" s="7">
         <v>0.0</v>
@@ -6110,7 +6202,7 @@
         <v>2000.0</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="R102" s="8" t="b">
         <v>0</v>
@@ -32189,7 +32281,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.14"/>
     <col customWidth="1" min="3" max="3" width="11.86"/>
-    <col customWidth="1" min="5" max="5" width="16.29"/>
+    <col customWidth="1" min="5" max="5" width="20.0"/>
     <col customWidth="1" min="6" max="6" width="20.14"/>
     <col customWidth="1" min="7" max="7" width="19.43"/>
     <col customWidth="1" min="8" max="8" width="14.71"/>
@@ -32202,37 +32294,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -32240,7 +32332,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1">
         <v>100.0</v>
@@ -32249,22 +32341,22 @@
         <v>10.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1">
         <v>100.0</v>
@@ -32278,31 +32370,31 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1">
-        <v>101.0</v>
+        <v>300.0</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0</v>
+        <v>30.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="K3" s="1">
         <v>200.0</v>
@@ -32316,341 +32408,77 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1">
-        <v>102.0</v>
+        <v>999999.0</v>
       </c>
       <c r="D4" s="1">
-        <v>12.0</v>
+        <v>999999.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1">
-        <v>3.0</v>
+        <v>400.0</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="K4" s="1">
-        <v>300.0</v>
+        <v>9999999.0</v>
       </c>
       <c r="L4" s="1">
-        <v>300.0</v>
+        <v>9999999.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="1">
-        <v>103.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>400.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="1">
-        <v>104.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>500.0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="1">
-        <v>105.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>600.0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="1">
-        <v>106.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>100.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>7.0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="1">
-        <v>107.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>200.0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>8.0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="1">
-        <v>108.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>300.0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>9.0</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="1">
-        <v>109.0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>400.0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>10.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1">
-        <v>110.0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K12" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>500.0</v>
       </c>
     </row>
   </sheetData>
@@ -32686,37 +32514,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -32724,10 +32552,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="C2" s="40">
-        <v>250000.0</v>
+        <v>220000.0</v>
       </c>
       <c r="D2" s="41">
         <v>1.0</v>
@@ -32759,16 +32587,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C3" s="40">
-        <v>300000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="D3" s="41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="1">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="F3" s="1">
         <v>3.0</v>
@@ -32794,16 +32622,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="C4" s="40">
-        <v>350000.0</v>
-      </c>
-      <c r="D4" s="41">
-        <v>1.0</v>
+        <v>300000.0</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="E4" s="1">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="F4" s="1">
         <v>3.0</v>
@@ -32829,7 +32657,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1">
         <v>400000.0</v>
@@ -32864,7 +32692,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1">
         <v>450000.0</v>
@@ -32899,7 +32727,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1">
         <v>100000.0</v>
@@ -32934,7 +32762,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1">
         <v>110000.0</v>
@@ -32969,7 +32797,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="D9" s="42"/>
     </row>
@@ -32978,7 +32806,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="D10" s="42"/>
     </row>
@@ -32987,7 +32815,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="D11" s="42"/>
     </row>
@@ -32996,7 +32824,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="D12" s="42"/>
     </row>
@@ -33005,7 +32833,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="D13" s="42"/>
     </row>
@@ -33014,7 +32842,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="D14" s="42"/>
     </row>
@@ -33023,7 +32851,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="D15" s="42"/>
     </row>
@@ -33032,7 +32860,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="D16" s="42"/>
     </row>
@@ -33041,7 +32869,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="D17" s="42"/>
     </row>
@@ -33050,7 +32878,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="D18" s="42"/>
     </row>
@@ -33059,7 +32887,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="D19" s="42"/>
     </row>
@@ -33068,7 +32896,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="D20" s="42"/>
     </row>
@@ -33077,7 +32905,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="D21" s="42"/>
     </row>
@@ -36047,25 +35875,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -36073,13 +35901,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1">
         <v>2000.0</v>
@@ -36096,13 +35924,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="F3" s="1">
         <v>3000.0</v>
@@ -36119,13 +35947,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="F4" s="1">
         <v>4000.0</v>
@@ -36142,13 +35970,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1">
         <v>5000.0</v>
@@ -36165,13 +35993,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1">
         <v>6000.0</v>
@@ -36273,16 +36101,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -36290,13 +36118,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
@@ -36304,13 +36132,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -36318,13 +36146,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -36332,13 +36160,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -36346,13 +36174,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -36360,7 +36188,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -36368,7 +36196,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -36376,7 +36204,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -36384,7 +36212,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -36392,7 +36220,7 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -36400,14 +36228,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -36415,14 +36243,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="43" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -36430,14 +36258,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="43" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -36445,14 +36273,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="43" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -36460,14 +36288,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="43" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -36475,14 +36303,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="43" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -36490,14 +36318,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="43" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -36505,14 +36333,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="43" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -36520,14 +36348,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="43" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -36535,14 +36363,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="43" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
@@ -36550,14 +36378,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="46" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -36565,14 +36393,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="46" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -36580,14 +36408,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="46" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
@@ -36595,14 +36423,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="46" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26">
@@ -36610,14 +36438,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="46" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
@@ -36625,14 +36453,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="46" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
@@ -36640,14 +36468,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="46" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -36655,14 +36483,14 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="46" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -36670,14 +36498,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="46" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
@@ -36690,13 +36518,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
@@ -36704,13 +36532,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
@@ -36718,13 +36546,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35">
@@ -36732,13 +36560,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36">
@@ -36746,13 +36574,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37">
@@ -36760,13 +36588,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38">
@@ -36774,13 +36602,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39">
@@ -36788,13 +36616,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40">
@@ -36802,13 +36630,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="193">
   <si>
     <t>Number</t>
   </si>
@@ -270,10 +270,19 @@
     <t>Ground</t>
   </si>
   <si>
-    <t>Player</t>
+    <t>Straight</t>
   </si>
   <si>
     <t>MonsterSprite/1</t>
+  </si>
+  <si>
+    <t>monster_2</t>
+  </si>
+  <si>
+    <t>Bullet/Monster/2</t>
+  </si>
+  <si>
+    <t>MonsterSprite/2</t>
   </si>
   <si>
     <t>Boss</t>
@@ -330,7 +339,7 @@
     <t>Stage_3</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>1,3</t>
   </si>
   <si>
     <t>Stage_4</t>
@@ -32373,7 +32382,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="1">
-        <v>300.0</v>
+        <v>500.0</v>
       </c>
       <c r="D3" s="1">
         <v>30.0</v>
@@ -32411,39 +32420,72 @@
         <v>86</v>
       </c>
       <c r="C4" s="1">
-        <v>999999.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="1">
-        <v>999999.0</v>
+        <v>50.0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="1">
-        <v>400.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="1">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="K4" s="1">
-        <v>9999999.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" s="1">
-        <v>9999999.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1">
+        <v>999999.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>999999.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9999999.0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9999999.0</v>
       </c>
     </row>
     <row r="6">
@@ -32514,37 +32556,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -32552,7 +32594,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="40">
         <v>220000.0</v>
@@ -32587,7 +32629,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="40">
         <v>250000.0</v>
@@ -32622,13 +32664,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="40">
         <v>300000.0</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1">
         <v>15.0</v>
@@ -32657,7 +32699,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1">
         <v>400000.0</v>
@@ -32692,7 +32734,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1">
         <v>450000.0</v>
@@ -32727,7 +32769,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
         <v>100000.0</v>
@@ -32762,7 +32804,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1">
         <v>110000.0</v>
@@ -32797,7 +32839,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D9" s="42"/>
     </row>
@@ -32806,7 +32848,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D10" s="42"/>
     </row>
@@ -32815,7 +32857,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D11" s="42"/>
     </row>
@@ -32824,7 +32866,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D12" s="42"/>
     </row>
@@ -32833,7 +32875,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D13" s="42"/>
     </row>
@@ -32842,7 +32884,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D14" s="42"/>
     </row>
@@ -32851,7 +32893,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D15" s="42"/>
     </row>
@@ -32860,7 +32902,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D16" s="42"/>
     </row>
@@ -32869,7 +32911,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D17" s="42"/>
     </row>
@@ -32878,7 +32920,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D18" s="42"/>
     </row>
@@ -32887,7 +32929,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D19" s="42"/>
     </row>
@@ -32896,7 +32938,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D20" s="42"/>
     </row>
@@ -32905,7 +32947,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D21" s="42"/>
     </row>
@@ -35875,25 +35917,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -35901,13 +35943,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F2" s="1">
         <v>2000.0</v>
@@ -35924,13 +35966,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1">
         <v>3000.0</v>
@@ -35947,13 +35989,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F4" s="1">
         <v>4000.0</v>
@@ -35970,13 +36012,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F5" s="1">
         <v>5000.0</v>
@@ -35993,13 +36035,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F6" s="1">
         <v>6000.0</v>
@@ -36101,16 +36143,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
@@ -36118,13 +36160,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -36132,13 +36174,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
@@ -36146,13 +36188,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
@@ -36160,13 +36202,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -36174,13 +36216,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
@@ -36188,7 +36230,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
@@ -36196,7 +36238,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
@@ -36204,7 +36246,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -36212,7 +36254,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
@@ -36220,7 +36262,7 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
@@ -36228,14 +36270,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -36243,14 +36285,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
@@ -36258,14 +36300,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -36273,14 +36315,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>163</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -36288,14 +36330,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -36303,14 +36345,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -36318,14 +36360,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -36333,14 +36375,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -36348,14 +36390,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="43" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -36363,14 +36405,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -36378,14 +36420,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="46" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -36393,14 +36435,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="46" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24">
@@ -36408,14 +36450,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="46" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
@@ -36423,14 +36465,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26">
@@ -36438,14 +36480,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="46" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
@@ -36453,14 +36495,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="46" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -36468,14 +36510,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="46" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29">
@@ -36483,14 +36525,14 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30">
@@ -36498,14 +36540,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31">
@@ -36518,13 +36560,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33">
@@ -36532,13 +36574,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34">
@@ -36546,13 +36588,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35">
@@ -36560,13 +36602,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="36">
@@ -36574,13 +36616,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37">
@@ -36588,13 +36630,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
@@ -36602,13 +36644,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39">
@@ -36616,13 +36658,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40">
@@ -36630,13 +36672,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -339,7 +339,7 @@
     <t>Stage_3</t>
   </si>
   <si>
-    <t>1,3</t>
+    <t>0,2</t>
   </si>
   <si>
     <t>Stage_4</t>
@@ -32600,7 +32600,7 @@
         <v>220000.0</v>
       </c>
       <c r="D2" s="41">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="1">
         <v>10.0</v>
@@ -32635,7 +32635,7 @@
         <v>250000.0</v>
       </c>
       <c r="D3" s="41">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" s="1">
         <v>11.0</v>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="198">
   <si>
     <t>Number</t>
   </si>
@@ -291,6 +291,9 @@
     <t>monster_3</t>
   </si>
   <si>
+    <t>Bullet/Monster/3</t>
+  </si>
+  <si>
     <t>Player</t>
   </si>
   <si>
@@ -339,28 +342,28 @@
     <t>S_Grade</t>
   </si>
   <si>
-    <t>Stage_1</t>
+    <t>의뢰 수주</t>
   </si>
   <si>
-    <t>Stage_2</t>
+    <t>습격</t>
   </si>
   <si>
-    <t>Stage_3</t>
+    <t>페요테</t>
   </si>
   <si>
     <t>0,1</t>
   </si>
   <si>
-    <t>Stage_4</t>
+    <t>재정비</t>
   </si>
   <si>
     <t>0,1,2</t>
   </si>
   <si>
-    <t>Stage_5</t>
+    <t>의문이 들다.</t>
   </si>
   <si>
-    <t>Stage_6</t>
+    <t>주행</t>
   </si>
   <si>
     <t>Stage_7</t>
@@ -32428,7 +32431,7 @@
         <v>20.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1">
         <v>4.0</v>
@@ -32440,7 +32443,7 @@
         <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>81</v>
@@ -32457,7 +32460,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1">
         <v>999999.0</v>
@@ -32466,7 +32469,7 @@
         <v>999999.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1">
         <v>400.0</v>
@@ -32478,10 +32481,10 @@
         <v>79</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K6" s="1">
         <v>9999999.0</v>
@@ -32553,51 +32556,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="41">
         <v>0.0</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>107</v>
+      <c r="B2" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="C2" s="41">
         <v>120000.0</v>
       </c>
       <c r="D2" s="42">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" s="1">
         <v>3.0</v>
@@ -32625,8 +32628,8 @@
       <c r="A3" s="41">
         <v>1.0</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>108</v>
+      <c r="B3" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="C3" s="41">
         <v>180000.0</v>
@@ -32660,14 +32663,14 @@
       <c r="A4" s="41">
         <v>2.0</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>109</v>
+      <c r="B4" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="C4" s="41">
         <v>200000.0</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1">
         <v>4.0</v>
@@ -32695,14 +32698,14 @@
       <c r="A5" s="41">
         <v>3.0</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>111</v>
+      <c r="B5" s="41" t="s">
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>250000.0</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1">
         <v>6.0</v>
@@ -32730,14 +32733,14 @@
       <c r="A6" s="41">
         <v>4.0</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>113</v>
+      <c r="B6" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="C6" s="1">
         <v>300000.0</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1">
         <v>6.0</v>
@@ -32765,8 +32768,8 @@
       <c r="A7" s="41">
         <v>5.0</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>114</v>
+      <c r="B7" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="C7" s="1">
         <v>100000.0</v>
@@ -32801,42 +32804,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="1">
-        <v>110000.0</v>
-      </c>
-      <c r="D8" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>500.0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" ht="17.25" customHeight="1">
       <c r="A9" s="41">
         <v>7.0</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D9" s="42"/>
     </row>
@@ -32845,7 +32822,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D10" s="43"/>
     </row>
@@ -32854,7 +32831,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" s="43"/>
     </row>
@@ -32863,7 +32840,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="43"/>
     </row>
@@ -32872,7 +32849,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" s="43"/>
     </row>
@@ -32881,7 +32858,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" s="43"/>
     </row>
@@ -32890,7 +32867,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D15" s="43"/>
     </row>
@@ -32899,7 +32876,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D16" s="43"/>
     </row>
@@ -32908,7 +32885,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" s="43"/>
     </row>
@@ -32917,7 +32894,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D18" s="43"/>
     </row>
@@ -32926,7 +32903,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" s="43"/>
     </row>
@@ -32935,7 +32912,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" s="43"/>
     </row>
@@ -32944,7 +32921,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D21" s="43"/>
     </row>
@@ -35914,25 +35891,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -35940,13 +35917,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1">
         <v>300.0</v>
@@ -35963,13 +35940,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1">
         <v>100.0</v>
@@ -35986,13 +35963,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F4" s="1">
         <v>500.0</v>
@@ -36009,13 +35986,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F5" s="1">
         <v>800.0</v>
@@ -36032,13 +36009,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1">
         <v>400.0</v>
@@ -36140,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
@@ -36157,13 +36134,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
@@ -36171,13 +36148,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -36185,13 +36162,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5">
@@ -36199,13 +36176,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -36213,13 +36190,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
@@ -36227,7 +36204,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -36235,7 +36212,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
@@ -36243,7 +36220,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
@@ -36251,7 +36228,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11">
@@ -36259,7 +36236,7 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -36267,14 +36244,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
@@ -36282,14 +36259,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>168</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14">
@@ -36297,14 +36274,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
@@ -36312,14 +36289,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -36327,14 +36304,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -36342,14 +36319,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -36357,14 +36334,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -36372,14 +36349,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
@@ -36387,14 +36364,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
@@ -36402,14 +36379,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
@@ -36417,14 +36394,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
@@ -36432,14 +36409,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -36447,14 +36424,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
@@ -36462,14 +36439,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26">
@@ -36477,14 +36454,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27">
@@ -36492,14 +36469,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
@@ -36507,14 +36484,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29">
@@ -36522,14 +36499,14 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30">
@@ -36537,14 +36514,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31">
@@ -36557,13 +36534,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
@@ -36571,13 +36548,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="34">
@@ -36585,13 +36562,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35">
@@ -36599,13 +36576,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36">
@@ -36613,13 +36590,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37">
@@ -36627,13 +36604,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38">
@@ -36641,13 +36618,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
@@ -36655,13 +36632,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40">
@@ -36669,13 +36646,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
   <si>
     <t>Number</t>
   </si>
@@ -210,10 +210,10 @@
     <t>Special</t>
   </si>
   <si>
-    <t>평판차</t>
+    <t>평판 기차</t>
   </si>
   <si>
-    <t>비어 있는 기차이다.</t>
+    <t>비어 있는 기차이다. 특수 능력이 없기 때문에, 수치에 영향을 주지 않는다.</t>
   </si>
   <si>
     <t>Monster_Name</t>
@@ -300,7 +300,7 @@
     <t>Boss</t>
   </si>
   <si>
-    <t>Bullet/Monster/Boos0</t>
+    <t>Bullet/Monster/Boss0</t>
   </si>
   <si>
     <t>Train</t>
@@ -348,64 +348,28 @@
     <t>습격</t>
   </si>
   <si>
+    <t>0,1</t>
+  </si>
+  <si>
     <t>페요테</t>
   </si>
   <si>
-    <t>0,1</t>
+    <t>0,1,2</t>
   </si>
   <si>
     <t>재정비</t>
   </si>
   <si>
-    <t>0,1,2</t>
+    <t>0,2,3</t>
   </si>
   <si>
     <t>의문이 들다.</t>
   </si>
   <si>
-    <t>주행</t>
+    <t>0,1,2,3</t>
   </si>
   <si>
-    <t>Stage_7</t>
-  </si>
-  <si>
-    <t>Stage_8</t>
-  </si>
-  <si>
-    <t>Stage_9</t>
-  </si>
-  <si>
-    <t>Stage_10</t>
-  </si>
-  <si>
-    <t>Stage_11</t>
-  </si>
-  <si>
-    <t>Stage_12</t>
-  </si>
-  <si>
-    <t>Stage_13</t>
-  </si>
-  <si>
-    <t>Stage_14</t>
-  </si>
-  <si>
-    <t>Stage_15</t>
-  </si>
-  <si>
-    <t>Stage_16</t>
-  </si>
-  <si>
-    <t>Stage_17</t>
-  </si>
-  <si>
-    <t>Stage_18</t>
-  </si>
-  <si>
-    <t>Stage_19</t>
-  </si>
-  <si>
-    <t>Stage_20</t>
+    <t>주행</t>
   </si>
   <si>
     <t>Name</t>
@@ -776,6 +740,9 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -788,13 +755,13 @@
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -802,9 +769,6 @@
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" s="1">
         <v>10.0</v>
@@ -1181,7 +1145,7 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="1">
-        <v>1000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G2" s="1">
         <v>6.0</v>
@@ -1210,7 +1174,7 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="1">
-        <v>1001.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G3" s="1">
         <v>5.0</v>
@@ -1239,7 +1203,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="1">
-        <v>1002.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G4" s="1">
         <v>5.0</v>
@@ -1268,7 +1232,7 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="1">
-        <v>1003.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G5" s="1">
         <v>5.0</v>
@@ -1297,7 +1261,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="1">
-        <v>1004.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G6" s="1">
         <v>5.0</v>
@@ -1420,8 +1384,8 @@
       <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="12">
-        <v>4000.0</v>
+      <c r="C2" s="13">
+        <v>40000.0</v>
       </c>
       <c r="D2" s="11">
         <v>700000.0</v>
@@ -1450,10 +1414,10 @@
       <c r="L2" s="12">
         <v>0.0</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="14">
         <v>0.0</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="14">
         <v>0.0</v>
       </c>
       <c r="O2" s="12">
@@ -1462,23 +1426,23 @@
       <c r="P2" s="12">
         <v>3000.0</v>
       </c>
-      <c r="Q2" s="14" t="str">
+      <c r="Q2" s="15" t="str">
         <f>"1레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>1레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R2" s="13" t="str">
+      <c r="R2" s="14" t="str">
         <f t="shared" ref="R2:R11" si="1">"\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
 "\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
 "\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
 "\t최대 스피드 : " &amp; INDIRECT("G" &amp; ROW()) &amp; 
 "\n연료 소모량 : " &amp; INDIRECT("H" &amp; ROW()) &amp; 
 "\t엔진 파워 : " &amp; INDIRECT("I" &amp; ROW())</f>
-        <v>\n\n내구도 : 4000\t무게 : 700000\n방어력 : 10\t최대 스피드 : 295\n연료 소모량 : 10\t엔진 파워 : 40</v>
-      </c>
-      <c r="S2" s="15" t="b">
+        <v>\n\n내구도 : 40000\t무게 : 700000\n방어력 : 10\t최대 스피드 : 295\n연료 소모량 : 10\t엔진 파워 : 40</v>
+      </c>
+      <c r="S2" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T2" s="16" t="b">
+      <c r="T2" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U2" s="10"/>
@@ -1496,13 +1460,13 @@
       <c r="B3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="13">
-        <v>5000.0</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="18">
+        <v>50000.0</v>
+      </c>
+      <c r="D3" s="14">
         <v>710000.0</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>20.0</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -1517,31 +1481,31 @@
       <c r="I3" s="12">
         <v>41.0</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="13">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="14">
         <v>0.0</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="14">
         <v>0.0</v>
       </c>
       <c r="P3" s="12">
         <v>5000.0</v>
       </c>
-      <c r="Q3" s="14" t="str">
+      <c r="Q3" s="15" t="str">
         <f>"2레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>2레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R3" s="13" t="str">
+      <c r="R3" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>\n\n내구도 : 5000\t무게 : 710000\n방어력 : 20\t최대 스피드 : 296\n연료 소모량 : 11\t엔진 파워 : 41</v>
-      </c>
-      <c r="S3" s="15" t="b">
+        <v>\n\n내구도 : 50000\t무게 : 710000\n방어력 : 20\t최대 스피드 : 296\n연료 소모량 : 11\t엔진 파워 : 41</v>
+      </c>
+      <c r="S3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T3" s="16" t="b">
+      <c r="T3" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U3" s="10"/>
@@ -1559,13 +1523,13 @@
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="13">
-        <v>6000.0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="18">
+        <v>60000.0</v>
+      </c>
+      <c r="D4" s="14">
         <v>720000.0</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>23.0</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1580,31 +1544,31 @@
       <c r="I4" s="12">
         <v>42.0</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="13">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="14">
         <v>0.0</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="14">
         <v>0.0</v>
       </c>
       <c r="P4" s="12">
-        <v>1000000.0</v>
-      </c>
-      <c r="Q4" s="14" t="str">
+        <v>9999999.0</v>
+      </c>
+      <c r="Q4" s="15" t="str">
         <f>"3레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>3레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R4" s="13" t="str">
+      <c r="R4" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>\n\n내구도 : 6000\t무게 : 720000\n방어력 : 23\t최대 스피드 : 297\n연료 소모량 : 12\t엔진 파워 : 42</v>
-      </c>
-      <c r="S4" s="15" t="b">
+        <v>\n\n내구도 : 60000\t무게 : 720000\n방어력 : 23\t최대 스피드 : 297\n연료 소모량 : 12\t엔진 파워 : 42</v>
+      </c>
+      <c r="S4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="16" t="b">
+      <c r="T4" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U4" s="10"/>
@@ -1628,7 +1592,7 @@
       <c r="D5" s="12">
         <v>730000.0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>25.0</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -1643,31 +1607,31 @@
       <c r="I5" s="12">
         <v>43.0</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="13">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="14">
         <v>0.0</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="14">
         <v>0.0</v>
       </c>
       <c r="P5" s="12">
-        <v>5000.0</v>
-      </c>
-      <c r="Q5" s="14" t="str">
+        <v>9999999.0</v>
+      </c>
+      <c r="Q5" s="15" t="str">
         <f>"4레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>4레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R5" s="13" t="str">
+      <c r="R5" s="14" t="str">
         <f t="shared" si="1"/>
         <v>\n\n내구도 : 7000\t무게 : 730000\n방어력 : 25\t최대 스피드 : 298\n연료 소모량 : 13\t엔진 파워 : 43</v>
       </c>
-      <c r="S5" s="15" t="b">
+      <c r="S5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="16" t="b">
+      <c r="T5" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U5" s="10"/>
@@ -1685,10 +1649,10 @@
       <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>8000.0</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>740000.0</v>
       </c>
       <c r="E6" s="12">
@@ -1706,31 +1670,31 @@
       <c r="I6" s="12">
         <v>44.0</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="13">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="14">
         <v>0.0</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="14">
         <v>0.0</v>
       </c>
       <c r="P6" s="12">
         <v>6000.0</v>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="15" t="str">
         <f>"5레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>5레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>\n\n내구도 : 8000\t무게 : 740000\n방어력 : 28\t최대 스피드 : 299\n연료 소모량 : 14\t엔진 파워 : 44</v>
       </c>
-      <c r="S6" s="15" t="b">
+      <c r="S6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T6" s="16" t="b">
+      <c r="T6" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U6" s="10"/>
@@ -1748,13 +1712,13 @@
       <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>9000.0</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>750000.0</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>30.0</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -1769,31 +1733,31 @@
       <c r="I7" s="12">
         <v>45.0</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="13">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="14">
         <v>0.0</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="14">
         <v>0.0</v>
       </c>
       <c r="P7" s="12">
         <v>7000.0</v>
       </c>
-      <c r="Q7" s="14" t="str">
+      <c r="Q7" s="15" t="str">
         <f>"6레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>6레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R7" s="13" t="str">
+      <c r="R7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>\n\n내구도 : 9000\t무게 : 750000\n방어력 : 30\t최대 스피드 : 300\n연료 소모량 : 15\t엔진 파워 : 45</v>
       </c>
-      <c r="S7" s="15" t="b">
+      <c r="S7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="16" t="b">
+      <c r="T7" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U7" s="10"/>
@@ -1811,13 +1775,13 @@
       <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>11000.0</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>760000.0</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>32.0</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -1832,31 +1796,31 @@
       <c r="I8" s="12">
         <v>46.0</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="13">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="14">
         <v>0.0</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="14">
         <v>0.0</v>
       </c>
       <c r="P8" s="12">
         <v>8000.0</v>
       </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q8" s="15" t="str">
         <f>"7레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>7레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R8" s="13" t="str">
+      <c r="R8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>\n\n내구도 : 11000\t무게 : 760000\n방어력 : 32\t최대 스피드 : 301\n연료 소모량 : 16\t엔진 파워 : 46</v>
       </c>
-      <c r="S8" s="15" t="b">
+      <c r="S8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T8" s="16" t="b">
+      <c r="T8" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U8" s="10"/>
@@ -1874,13 +1838,13 @@
       <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>12000.0</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>770000.0</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>35.0</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -1895,31 +1859,31 @@
       <c r="I9" s="12">
         <v>47.0</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="13">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="14">
         <v>0.0</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="14">
         <v>0.0</v>
       </c>
       <c r="P9" s="12">
         <v>9000.0</v>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q9" s="15" t="str">
         <f>"8레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>8레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R9" s="13" t="str">
+      <c r="R9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>\n\n내구도 : 12000\t무게 : 770000\n방어력 : 35\t최대 스피드 : 302\n연료 소모량 : 17\t엔진 파워 : 47</v>
       </c>
-      <c r="S9" s="15" t="b">
+      <c r="S9" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T9" s="16" t="b">
+      <c r="T9" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U9" s="10"/>
@@ -1937,13 +1901,13 @@
       <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>13000.0</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>780000.0</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <v>38.0</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1958,31 +1922,31 @@
       <c r="I10" s="12">
         <v>48.0</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="13">
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="14">
         <v>0.0</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="14">
         <v>0.0</v>
       </c>
       <c r="P10" s="12">
         <v>10000.0</v>
       </c>
-      <c r="Q10" s="14" t="str">
+      <c r="Q10" s="15" t="str">
         <f>"9레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>9레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>\n\n내구도 : 13000\t무게 : 780000\n방어력 : 38\t최대 스피드 : 303\n연료 소모량 : 18\t엔진 파워 : 48</v>
       </c>
-      <c r="S10" s="15" t="b">
+      <c r="S10" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T10" s="16" t="b">
+      <c r="T10" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U10" s="10"/>
@@ -2000,13 +1964,13 @@
       <c r="B11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>14000.0</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>790000.0</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <v>40.0</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -2021,31 +1985,31 @@
       <c r="I11" s="12">
         <v>49.0</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="13">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="14">
         <v>0.0</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="14">
         <v>0.0</v>
       </c>
       <c r="P11" s="12">
         <v>11000.0</v>
       </c>
-      <c r="Q11" s="14" t="str">
+      <c r="Q11" s="15" t="str">
         <f>"10레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. "</f>
         <v>10레벨 엔진 기차는 속도를 내기 위한 핵심 기차입니다. \n기차가 멈추는 순간 물건을 뺏기니 계속해서 달려야합니다. </v>
       </c>
-      <c r="R11" s="13" t="str">
+      <c r="R11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>\n\n내구도 : 14000\t무게 : 790000\n방어력 : 40\t최대 스피드 : 304\n연료 소모량 : 19\t엔진 파워 : 49</v>
       </c>
-      <c r="S11" s="15" t="b">
+      <c r="S11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T11" s="16" t="b">
+      <c r="T11" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U11" s="10"/>
@@ -2057,54 +2021,54 @@
       <c r="AA11" s="10"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="19">
+      <c r="A12" s="13">
         <v>10.0</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="19">
-        <v>4000.0</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="13">
+        <v>40000.0</v>
+      </c>
+      <c r="D12" s="13">
         <v>600000.0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <v>10.0</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19">
-        <v>60000.0</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="13">
+        <v>18000.0</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="18">
         <v>0.0</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="13">
+        <v>500.0</v>
+      </c>
+      <c r="P12" s="13">
         <v>1000.0</v>
       </c>
-      <c r="P12" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="Q12" s="19" t="str">
+      <c r="Q12" s="13" t="str">
         <f> "1레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>1레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R12" s="22" t="str">
+      <c r="R12" s="18" t="str">
         <f t="shared" ref="R12:R21" si="2"> "\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
 "\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
 "\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
 "\t연료량 : " &amp; INDIRECT("J" &amp; ROW())</f>
-        <v>\n\n내구도 : 4000\t무게 : 600000\n방어력 : 10\t연료량 : 60000</v>
-      </c>
-      <c r="S12" s="15" t="b">
+        <v>\n\n내구도 : 40000\t무게 : 600000\n방어력 : 10\t연료량 : 18000</v>
+      </c>
+      <c r="S12" s="16" t="b">
         <v>0</v>
       </c>
       <c r="T12" s="23" t="b">
@@ -2119,54 +2083,54 @@
       <c r="AA12" s="10"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="13">
         <v>11.0</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="22">
-        <v>5000.0</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="18">
+        <v>50000.0</v>
+      </c>
+      <c r="D13" s="18">
         <v>650000.0</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>15.0</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="19">
-        <v>70000.0</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="13">
+        <v>23000.0</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="18">
         <v>0.0</v>
       </c>
-      <c r="O13" s="19">
-        <v>1200.0</v>
-      </c>
-      <c r="P13" s="19">
+      <c r="O13" s="13">
+        <v>1000.0</v>
+      </c>
+      <c r="P13" s="13">
         <v>1500.0</v>
       </c>
-      <c r="Q13" s="19" t="str">
+      <c r="Q13" s="13" t="str">
         <f> "2레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>2레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R13" s="22" t="str">
+      <c r="R13" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>\n\n내구도 : 5000\t무게 : 650000\n방어력 : 15\t연료량 : 70000</v>
-      </c>
-      <c r="S13" s="15" t="b">
+        <v>\n\n내구도 : 50000\t무게 : 650000\n방어력 : 15\t연료량 : 23000</v>
+      </c>
+      <c r="S13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T13" s="16" t="b">
+      <c r="T13" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U13" s="10"/>
@@ -2178,54 +2142,54 @@
       <c r="AA13" s="10"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="13">
         <v>12.0</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="22">
-        <v>6000.0</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="18">
+        <v>60000.0</v>
+      </c>
+      <c r="D14" s="18">
         <v>700000.0</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>20.0</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="19">
-        <v>75000.0</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22">
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="13">
+        <v>40000.0</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="18">
         <v>0.0</v>
       </c>
-      <c r="O14" s="19">
-        <v>1300.0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>1000000.0</v>
-      </c>
-      <c r="Q14" s="19" t="str">
+      <c r="O14" s="13">
+        <v>1500.0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>9999999.0</v>
+      </c>
+      <c r="Q14" s="13" t="str">
         <f> "3레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>3레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R14" s="22" t="str">
+      <c r="R14" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>\n\n내구도 : 6000\t무게 : 700000\n방어력 : 20\t연료량 : 75000</v>
-      </c>
-      <c r="S14" s="15" t="b">
+        <v>\n\n내구도 : 60000\t무게 : 700000\n방어력 : 20\t연료량 : 40000</v>
+      </c>
+      <c r="S14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T14" s="16" t="b">
+      <c r="T14" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U14" s="10"/>
@@ -2237,54 +2201,54 @@
       <c r="AA14" s="10"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="19">
+      <c r="A15" s="13">
         <v>13.0</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="13">
         <v>7000.0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="13">
         <v>730000.0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="13">
         <v>41.0</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="19">
-        <v>61500.0</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="13">
+        <v>60000.0</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="18">
         <v>0.0</v>
       </c>
-      <c r="O15" s="19">
-        <v>1003.0</v>
-      </c>
-      <c r="P15" s="19">
-        <v>2003.0</v>
-      </c>
-      <c r="Q15" s="19" t="str">
+      <c r="O15" s="13">
+        <v>1400.0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>1000000.0</v>
+      </c>
+      <c r="Q15" s="13" t="str">
         <f> "4레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>4레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R15" s="22" t="str">
+      <c r="R15" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>\n\n내구도 : 7000\t무게 : 730000\n방어력 : 41\t연료량 : 61500</v>
-      </c>
-      <c r="S15" s="15" t="b">
+        <v>\n\n내구도 : 7000\t무게 : 730000\n방어력 : 41\t연료량 : 60000</v>
+      </c>
+      <c r="S15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T15" s="16" t="b">
+      <c r="T15" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U15" s="10"/>
@@ -2296,54 +2260,54 @@
       <c r="AA15" s="10"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="19">
+      <c r="A16" s="13">
         <v>14.0</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="18">
         <v>8000.0</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="18">
         <v>740000.0</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <v>51.0</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="19">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="13">
         <v>60000.0</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22">
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="18">
         <v>0.0</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="13">
         <v>1004.0</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="13">
         <v>2004.0</v>
       </c>
-      <c r="Q16" s="19" t="str">
+      <c r="Q16" s="13" t="str">
         <f> "5레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>5레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R16" s="22" t="str">
+      <c r="R16" s="18" t="str">
         <f t="shared" si="2"/>
         <v>\n\n내구도 : 8000\t무게 : 740000\n방어력 : 51\t연료량 : 60000</v>
       </c>
-      <c r="S16" s="15" t="b">
+      <c r="S16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T16" s="16" t="b">
+      <c r="T16" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U16" s="10"/>
@@ -2355,54 +2319,54 @@
       <c r="AA16" s="10"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="19">
+      <c r="A17" s="13">
         <v>15.0</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="18">
         <v>9000.0</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="18">
         <v>750000.0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="13">
         <v>61.0</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="19">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="13">
         <v>60000.0</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="18">
         <v>0.0</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="13">
         <v>1005.0</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="13">
         <v>2005.0</v>
       </c>
-      <c r="Q17" s="19" t="str">
+      <c r="Q17" s="13" t="str">
         <f> "6레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>6레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R17" s="22" t="str">
+      <c r="R17" s="18" t="str">
         <f t="shared" si="2"/>
         <v>\n\n내구도 : 9000\t무게 : 750000\n방어력 : 61\t연료량 : 60000</v>
       </c>
-      <c r="S17" s="15" t="b">
+      <c r="S17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T17" s="16" t="b">
+      <c r="T17" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U17" s="10"/>
@@ -2414,54 +2378,54 @@
       <c r="AA17" s="10"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="19">
+      <c r="A18" s="13">
         <v>16.0</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <v>11000.0</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="18">
         <v>760000.0</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="13">
         <v>71.0</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="19">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="13">
         <v>60000.0</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22">
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="18">
         <v>0.0</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="13">
         <v>1006.0</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="13">
         <v>2006.0</v>
       </c>
-      <c r="Q18" s="19" t="str">
+      <c r="Q18" s="13" t="str">
         <f> "7레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>7레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R18" s="22" t="str">
+      <c r="R18" s="18" t="str">
         <f t="shared" si="2"/>
         <v>\n\n내구도 : 11000\t무게 : 760000\n방어력 : 71\t연료량 : 60000</v>
       </c>
-      <c r="S18" s="15" t="b">
+      <c r="S18" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T18" s="16" t="b">
+      <c r="T18" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U18" s="10"/>
@@ -2473,54 +2437,54 @@
       <c r="AA18" s="10"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="19">
+      <c r="A19" s="13">
         <v>17.0</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="18">
         <v>12000.0</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="18">
         <v>770000.0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="13">
         <v>81.0</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="19">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="13">
         <v>60000.0</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22">
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="18">
         <v>0.0</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="13">
         <v>1007.0</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="13">
         <v>2007.0</v>
       </c>
-      <c r="Q19" s="19" t="str">
+      <c r="Q19" s="13" t="str">
         <f> "8레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>8레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R19" s="22" t="str">
+      <c r="R19" s="18" t="str">
         <f t="shared" si="2"/>
         <v>\n\n내구도 : 12000\t무게 : 770000\n방어력 : 81\t연료량 : 60000</v>
       </c>
-      <c r="S19" s="15" t="b">
+      <c r="S19" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T19" s="16" t="b">
+      <c r="T19" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U19" s="10"/>
@@ -2532,54 +2496,54 @@
       <c r="AA19" s="10"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="19">
+      <c r="A20" s="13">
         <v>18.0</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <v>13000.0</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="18">
         <v>780000.0</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="13">
         <v>91.0</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="19">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="13">
         <v>60000.0</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22">
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="18">
         <v>0.0</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="13">
         <v>1008.0</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="13">
         <v>2008.0</v>
       </c>
-      <c r="Q20" s="19" t="str">
+      <c r="Q20" s="13" t="str">
         <f> "9레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>9레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R20" s="22" t="str">
+      <c r="R20" s="18" t="str">
         <f t="shared" si="2"/>
         <v>\n\n내구도 : 13000\t무게 : 780000\n방어력 : 91\t연료량 : 60000</v>
       </c>
-      <c r="S20" s="15" t="b">
+      <c r="S20" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T20" s="16" t="b">
+      <c r="T20" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U20" s="10"/>
@@ -2591,54 +2555,54 @@
       <c r="AA20" s="10"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="19">
+      <c r="A21" s="13">
         <v>19.0</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <v>14000.0</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="18">
         <v>790000.0</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="13">
         <v>101.0</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="19">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="13">
         <v>60000.0</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22">
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="18">
         <v>0.0</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="13">
         <v>1009.0</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="13">
         <v>2009.0</v>
       </c>
-      <c r="Q21" s="19" t="str">
+      <c r="Q21" s="13" t="str">
         <f> "10레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! "</f>
         <v>10레벨 연료 기차는 엔진 기차가 속도를 내기 위한 필요한 연료가 담겨있습니다.\n출발 할 때, 연료 기차가 필요합니다!! </v>
       </c>
-      <c r="R21" s="22" t="str">
+      <c r="R21" s="18" t="str">
         <f t="shared" si="2"/>
         <v>\n\n내구도 : 14000\t무게 : 790000\n방어력 : 101\t연료량 : 60000</v>
       </c>
-      <c r="S21" s="15" t="b">
+      <c r="S21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T21" s="16" t="b">
+      <c r="T21" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U21" s="10"/>
@@ -2657,7 +2621,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="24">
-        <v>4000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="D22" s="24">
         <v>800000.0</v>
@@ -2680,7 +2644,7 @@
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="27">
-        <v>500.0</v>
+        <v>1500.0</v>
       </c>
       <c r="O22" s="24">
         <v>2000.0</v>
@@ -2698,7 +2662,7 @@
 "\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
 "\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
 "\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
-        <v>\n\n내구도 : 4000\t무게 : 800000\n방어력 : 10\n공격력 : 10\n공격 속도 : 0.3</v>
+        <v>\n\n내구도 : 50000\t무게 : 800000\n방어력 : 10\n공격력 : 10\n공격 속도 : 0.3</v>
       </c>
       <c r="S22" s="28" t="b">
         <v>1</v>
@@ -2722,7 +2686,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="27">
-        <v>5000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="D23" s="27">
         <v>900000.0</v>
@@ -2748,7 +2712,7 @@
         <v>0.0</v>
       </c>
       <c r="O23" s="24">
-        <v>2300.0</v>
+        <v>3000.0</v>
       </c>
       <c r="P23" s="24">
         <v>3000.0</v>
@@ -2761,12 +2725,12 @@
       </c>
       <c r="R23" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>\n\n내구도 : 5000\t무게 : 900000\n방어력 : 12\n공격력 : 20\n공격 속도 : 0.28</v>
-      </c>
-      <c r="S23" s="15" t="b">
+        <v>\n\n내구도 : 60000\t무게 : 900000\n방어력 : 12\n공격력 : 20\n공격 속도 : 0.28</v>
+      </c>
+      <c r="S23" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T23" s="16" t="b">
+      <c r="T23" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U23" s="10"/>
@@ -2785,7 +2749,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="27">
-        <v>6000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="D24" s="27">
         <v>1000000.0</v>
@@ -2811,10 +2775,10 @@
         <v>0.0</v>
       </c>
       <c r="O24" s="24">
-        <v>2500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="P24" s="24">
-        <v>1000000.0</v>
+        <v>9999999.0</v>
       </c>
       <c r="Q24" s="24" t="str">
         <f> "3레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
@@ -2824,16 +2788,16 @@
 "\n공격력 : " &amp; INDIRECT("K" &amp; ROW()) &amp;
 "\n공격 속도 : " &amp; INDIRECT("L"&amp; ROW())</f>
         <v>3레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
-\n\n내구도 : 6000\t무게 : 1000000\n방어력 : 15\n공격력 : 30\n공격 속도 : 0.26</v>
+\n\n내구도 : 70000\t무게 : 1000000\n방어력 : 15\n공격력 : 30\n공격 속도 : 0.26</v>
       </c>
       <c r="R24" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>\n\n내구도 : 6000\t무게 : 1000000\n방어력 : 15\n공격력 : 30\n공격 속도 : 0.26</v>
-      </c>
-      <c r="S24" s="15" t="b">
+        <v>\n\n내구도 : 70000\t무게 : 1000000\n방어력 : 15\n공격력 : 30\n공격 속도 : 0.26</v>
+      </c>
+      <c r="S24" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T24" s="16" t="b">
+      <c r="T24" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U24" s="10"/>
@@ -2867,21 +2831,21 @@
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="25">
-        <v>5.0</v>
+      <c r="K25" s="24">
+        <v>40.0</v>
       </c>
       <c r="L25" s="27">
-        <v>0.8</v>
+        <v>0.22</v>
       </c>
       <c r="M25" s="26"/>
       <c r="N25" s="27">
         <v>0.0</v>
       </c>
       <c r="O25" s="24">
-        <v>2003.0</v>
+        <v>2800.0</v>
       </c>
       <c r="P25" s="24">
-        <v>3003.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="Q25" s="24" t="str">
         <f> "4레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다. 
@@ -2891,12 +2855,12 @@
       </c>
       <c r="R25" s="27" t="str">
         <f t="shared" si="3"/>
-        <v>\n\n내구도 : 7000\t무게 : 500000\n방어력 : 42\n공격력 : 5\n공격 속도 : 0.8</v>
-      </c>
-      <c r="S25" s="15" t="b">
+        <v>\n\n내구도 : 7000\t무게 : 500000\n방어력 : 42\n공격력 : 40\n공격 속도 : 0.22</v>
+      </c>
+      <c r="S25" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T25" s="16" t="b">
+      <c r="T25" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U25" s="10"/>
@@ -2960,10 +2924,10 @@
         <f t="shared" si="3"/>
         <v>\n\n내구도 : 8000\t무게 : 600000\n방어력 : 52\n공격력 : 6\n공격 속도 : 0.9</v>
       </c>
-      <c r="S26" s="15" t="b">
+      <c r="S26" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T26" s="16" t="b">
+      <c r="T26" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U26" s="10"/>
@@ -3023,10 +2987,10 @@
         <f t="shared" si="3"/>
         <v>\n\n내구도 : 9000\t무게 : 700000\n방어력 : 62\n공격력 : 7\n공격 속도 : 1</v>
       </c>
-      <c r="S27" s="15" t="b">
+      <c r="S27" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T27" s="16" t="b">
+      <c r="T27" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U27" s="10"/>
@@ -3086,10 +3050,10 @@
         <f t="shared" si="3"/>
         <v>\n\n내구도 : 11000\t무게 : 800000\n방어력 : 72\n공격력 : 8\n공격 속도 : 1.1</v>
       </c>
-      <c r="S28" s="15" t="b">
+      <c r="S28" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T28" s="16" t="b">
+      <c r="T28" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U28" s="10"/>
@@ -3149,10 +3113,10 @@
         <f t="shared" si="3"/>
         <v>\n\n내구도 : 12000\t무게 : 900000\n방어력 : 82\n공격력 : 9\n공격 속도 : 1.2</v>
       </c>
-      <c r="S29" s="15" t="b">
+      <c r="S29" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T29" s="16" t="b">
+      <c r="T29" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U29" s="10"/>
@@ -3212,10 +3176,10 @@
         <f t="shared" si="3"/>
         <v>\n\n내구도 : 13000\t무게 : 1000000\n방어력 : 92\n공격력 : 10\n공격 속도 : 1.3</v>
       </c>
-      <c r="S30" s="15" t="b">
+      <c r="S30" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T30" s="16" t="b">
+      <c r="T30" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U30" s="10"/>
@@ -3275,10 +3239,10 @@
         <f t="shared" si="3"/>
         <v>\n\n내구도 : 14000\t무게 : 1100000\n방어력 : 102\n공격력 : 11\n공격 속도 : 1.4</v>
       </c>
-      <c r="S31" s="15" t="b">
+      <c r="S31" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T31" s="16" t="b">
+      <c r="T31" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U31" s="10"/>
@@ -3312,10 +3276,10 @@
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="15" t="b">
+      <c r="S32" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T32" s="16" t="b">
+      <c r="T32" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U32" s="10"/>
@@ -3349,10 +3313,10 @@
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="15" t="b">
+      <c r="S33" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T33" s="16" t="b">
+      <c r="T33" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U33" s="10"/>
@@ -3386,10 +3350,10 @@
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="15" t="b">
+      <c r="S34" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T34" s="16" t="b">
+      <c r="T34" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U34" s="10"/>
@@ -3423,10 +3387,10 @@
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="15" t="b">
+      <c r="S35" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T35" s="16" t="b">
+      <c r="T35" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U35" s="10"/>
@@ -3449,8 +3413,8 @@
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="21"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="26"/>
       <c r="K36" s="31"/>
       <c r="L36" s="9"/>
@@ -3460,10 +3424,10 @@
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="15" t="b">
+      <c r="S36" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T36" s="16" t="b">
+      <c r="T36" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U36" s="10"/>
@@ -3497,10 +3461,10 @@
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="15" t="b">
+      <c r="S37" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T37" s="16" t="b">
+      <c r="T37" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U37" s="10"/>
@@ -3534,10 +3498,10 @@
       <c r="P38" s="30"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="15" t="b">
+      <c r="S38" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T38" s="16" t="b">
+      <c r="T38" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U38" s="10"/>
@@ -3571,10 +3535,10 @@
       <c r="P39" s="30"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="15" t="b">
+      <c r="S39" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T39" s="16" t="b">
+      <c r="T39" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U39" s="10"/>
@@ -3608,10 +3572,10 @@
       <c r="P40" s="30"/>
       <c r="Q40" s="30"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="15" t="b">
+      <c r="S40" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T40" s="16" t="b">
+      <c r="T40" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U40" s="10"/>
@@ -3645,10 +3609,10 @@
       <c r="P41" s="30"/>
       <c r="Q41" s="30"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="15" t="b">
+      <c r="S41" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T41" s="16" t="b">
+      <c r="T41" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U41" s="10"/>
@@ -3667,7 +3631,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="32">
-        <v>4000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="D42" s="32">
         <v>500000.0</v>
@@ -3688,10 +3652,10 @@
         <v>10000.0</v>
       </c>
       <c r="N42" s="34">
+        <v>2000.0</v>
+      </c>
+      <c r="O42" s="32">
         <v>1000.0</v>
-      </c>
-      <c r="O42" s="32">
-        <v>1500.0</v>
       </c>
       <c r="P42" s="32">
         <v>1500.0</v>
@@ -3706,7 +3670,7 @@
 "\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
 "\n보유 회복량 : " &amp; INDIRECT("M" &amp; ROW()) 
 </f>
-        <v>\n\n내구도 : 4000\t무게 : 500000\n방어력 : 10\n보유 회복량 : 10000</v>
+        <v>\n\n내구도 : 50000\t무게 : 500000\n방어력 : 10\n보유 회복량 : 10000</v>
       </c>
       <c r="S42" s="28" t="b">
         <v>1</v>
@@ -3730,7 +3694,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="34">
-        <v>5000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="D43" s="32">
         <v>550000.0</v>
@@ -3754,7 +3718,7 @@
         <v>0.0</v>
       </c>
       <c r="O43" s="32">
-        <v>1800.0</v>
+        <v>1500.0</v>
       </c>
       <c r="P43" s="32">
         <v>2000.0</v>
@@ -3767,12 +3731,12 @@
       </c>
       <c r="R43" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>\n\n내구도 : 5000\t무게 : 550000\n방어력 : 15\n보유 회복량 : 12000</v>
-      </c>
-      <c r="S43" s="15" t="b">
+        <v>\n\n내구도 : 60000\t무게 : 550000\n방어력 : 15\n보유 회복량 : 12000</v>
+      </c>
+      <c r="S43" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T43" s="16" t="b">
+      <c r="T43" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U43" s="10"/>
@@ -3791,7 +3755,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="34">
-        <v>6000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="D44" s="34">
         <v>600000.0</v>
@@ -3818,7 +3782,7 @@
         <v>2000.0</v>
       </c>
       <c r="P44" s="32">
-        <v>1000000.0</v>
+        <v>9999999.0</v>
       </c>
       <c r="Q44" s="32" t="str">
         <f> "3레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
@@ -3828,12 +3792,12 @@
       </c>
       <c r="R44" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>\n\n내구도 : 6000\t무게 : 600000\n방어력 : 20\n보유 회복량 : 14000</v>
-      </c>
-      <c r="S44" s="15" t="b">
+        <v>\n\n내구도 : 70000\t무게 : 600000\n방어력 : 20\n보유 회복량 : 14000</v>
+      </c>
+      <c r="S44" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T44" s="16" t="b">
+      <c r="T44" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U44" s="10"/>
@@ -3876,10 +3840,10 @@
         <v>0.0</v>
       </c>
       <c r="O45" s="32">
-        <v>4003.0</v>
+        <v>4000.0</v>
       </c>
       <c r="P45" s="32">
-        <v>5003.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="Q45" s="32" t="str">
         <f> "4레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
@@ -3892,10 +3856,10 @@
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 7000\t무게 : 600000\n방어력 : 43\n보유 회복량 : 10000</v>
       </c>
-      <c r="S45" s="15" t="b">
+      <c r="S45" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T45" s="16" t="b">
+      <c r="T45" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U45" s="10"/>
@@ -3953,10 +3917,10 @@
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 8000\t무게 : 600000\n방어력 : 53\n보유 회복량 : 10000</v>
       </c>
-      <c r="S46" s="15" t="b">
+      <c r="S46" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T46" s="16" t="b">
+      <c r="T46" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U46" s="10"/>
@@ -4014,10 +3978,10 @@
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 9000\t무게 : 600000\n방어력 : 63\n보유 회복량 : 10000</v>
       </c>
-      <c r="S47" s="15" t="b">
+      <c r="S47" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T47" s="16" t="b">
+      <c r="T47" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U47" s="10"/>
@@ -4075,10 +4039,10 @@
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 11000\t무게 : 600000\n방어력 : 73\n보유 회복량 : 10000</v>
       </c>
-      <c r="S48" s="15" t="b">
+      <c r="S48" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T48" s="16" t="b">
+      <c r="T48" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U48" s="10"/>
@@ -4136,10 +4100,10 @@
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 12000\t무게 : 600000\n방어력 : 83\n보유 회복량 : 10000</v>
       </c>
-      <c r="S49" s="15" t="b">
+      <c r="S49" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T49" s="16" t="b">
+      <c r="T49" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U49" s="10"/>
@@ -4197,10 +4161,10 @@
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 13000\t무게 : 600000\n방어력 : 93\n보유 회복량 : 10000</v>
       </c>
-      <c r="S50" s="15" t="b">
+      <c r="S50" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T50" s="16" t="b">
+      <c r="T50" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U50" s="10"/>
@@ -4258,10 +4222,10 @@
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 14000\t무게 : 600000\n방어력 : 103\n보유 회복량 : 10000</v>
       </c>
-      <c r="S51" s="15" t="b">
+      <c r="S51" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T51" s="16" t="b">
+      <c r="T51" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U51" s="10"/>
@@ -4295,10 +4259,10 @@
       <c r="P52" s="30"/>
       <c r="Q52" s="30"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="15" t="b">
+      <c r="S52" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T52" s="16" t="b">
+      <c r="T52" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U52" s="10"/>
@@ -4332,10 +4296,10 @@
       <c r="P53" s="30"/>
       <c r="Q53" s="30"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="15" t="b">
+      <c r="S53" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T53" s="16" t="b">
+      <c r="T53" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U53" s="10"/>
@@ -4369,10 +4333,10 @@
       <c r="P54" s="30"/>
       <c r="Q54" s="30"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="15" t="b">
+      <c r="S54" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T54" s="16" t="b">
+      <c r="T54" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U54" s="10"/>
@@ -4406,10 +4370,10 @@
       <c r="P55" s="30"/>
       <c r="Q55" s="30"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="15" t="b">
+      <c r="S55" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T55" s="16" t="b">
+      <c r="T55" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U55" s="10"/>
@@ -4443,10 +4407,10 @@
       <c r="P56" s="30"/>
       <c r="Q56" s="30"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="15" t="b">
+      <c r="S56" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T56" s="16" t="b">
+      <c r="T56" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U56" s="10"/>
@@ -4480,10 +4444,10 @@
       <c r="P57" s="30"/>
       <c r="Q57" s="30"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="15" t="b">
+      <c r="S57" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T57" s="16" t="b">
+      <c r="T57" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U57" s="10"/>
@@ -4517,10 +4481,10 @@
       <c r="P58" s="30"/>
       <c r="Q58" s="30"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="15" t="b">
+      <c r="S58" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T58" s="16" t="b">
+      <c r="T58" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U58" s="10"/>
@@ -4554,10 +4518,10 @@
       <c r="P59" s="30"/>
       <c r="Q59" s="30"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="15" t="b">
+      <c r="S59" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T59" s="16" t="b">
+      <c r="T59" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U59" s="10"/>
@@ -4591,10 +4555,10 @@
       <c r="P60" s="30"/>
       <c r="Q60" s="30"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="15" t="b">
+      <c r="S60" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T60" s="16" t="b">
+      <c r="T60" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U60" s="10"/>
@@ -4628,10 +4592,10 @@
       <c r="P61" s="30"/>
       <c r="Q61" s="30"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="15" t="b">
+      <c r="S61" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T61" s="16" t="b">
+      <c r="T61" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U61" s="10"/>
@@ -4665,10 +4629,10 @@
       <c r="P62" s="30"/>
       <c r="Q62" s="30"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="15" t="b">
+      <c r="S62" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T62" s="16" t="b">
+      <c r="T62" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U62" s="10"/>
@@ -4702,10 +4666,10 @@
       <c r="P63" s="30"/>
       <c r="Q63" s="30"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="15" t="b">
+      <c r="S63" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T63" s="16" t="b">
+      <c r="T63" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U63" s="10"/>
@@ -4739,10 +4703,10 @@
       <c r="P64" s="30"/>
       <c r="Q64" s="30"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="15" t="b">
+      <c r="S64" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T64" s="16" t="b">
+      <c r="T64" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U64" s="10"/>
@@ -4776,10 +4740,10 @@
       <c r="P65" s="30"/>
       <c r="Q65" s="30"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="15" t="b">
+      <c r="S65" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T65" s="16" t="b">
+      <c r="T65" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U65" s="10"/>
@@ -4813,10 +4777,10 @@
       <c r="P66" s="30"/>
       <c r="Q66" s="30"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="15" t="b">
+      <c r="S66" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T66" s="16" t="b">
+      <c r="T66" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U66" s="10"/>
@@ -4850,10 +4814,10 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="30"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="15" t="b">
+      <c r="S67" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T67" s="16" t="b">
+      <c r="T67" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U67" s="10"/>
@@ -4887,10 +4851,10 @@
       <c r="P68" s="30"/>
       <c r="Q68" s="30"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="15" t="b">
+      <c r="S68" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T68" s="16" t="b">
+      <c r="T68" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U68" s="10"/>
@@ -4924,10 +4888,10 @@
       <c r="P69" s="30"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="15" t="b">
+      <c r="S69" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T69" s="16" t="b">
+      <c r="T69" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U69" s="10"/>
@@ -4961,10 +4925,10 @@
       <c r="P70" s="30"/>
       <c r="Q70" s="30"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="15" t="b">
+      <c r="S70" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T70" s="16" t="b">
+      <c r="T70" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U70" s="10"/>
@@ -4998,10 +4962,10 @@
       <c r="P71" s="30"/>
       <c r="Q71" s="30"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="15" t="b">
+      <c r="S71" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T71" s="16" t="b">
+      <c r="T71" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U71" s="10"/>
@@ -5035,10 +4999,10 @@
       <c r="P72" s="30"/>
       <c r="Q72" s="30"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="15" t="b">
+      <c r="S72" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T72" s="16" t="b">
+      <c r="T72" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U72" s="10"/>
@@ -5072,10 +5036,10 @@
       <c r="P73" s="30"/>
       <c r="Q73" s="30"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="15" t="b">
+      <c r="S73" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T73" s="16" t="b">
+      <c r="T73" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U73" s="10"/>
@@ -5109,10 +5073,10 @@
       <c r="P74" s="30"/>
       <c r="Q74" s="30"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="15" t="b">
+      <c r="S74" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T74" s="16" t="b">
+      <c r="T74" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U74" s="10"/>
@@ -5146,10 +5110,10 @@
       <c r="P75" s="30"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="15" t="b">
+      <c r="S75" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T75" s="16" t="b">
+      <c r="T75" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U75" s="10"/>
@@ -5183,10 +5147,10 @@
       <c r="P76" s="30"/>
       <c r="Q76" s="30"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="15" t="b">
+      <c r="S76" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T76" s="16" t="b">
+      <c r="T76" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U76" s="10"/>
@@ -5220,10 +5184,10 @@
       <c r="P77" s="30"/>
       <c r="Q77" s="30"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="15" t="b">
+      <c r="S77" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T77" s="16" t="b">
+      <c r="T77" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U77" s="10"/>
@@ -5257,10 +5221,10 @@
       <c r="P78" s="30"/>
       <c r="Q78" s="30"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="15" t="b">
+      <c r="S78" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T78" s="16" t="b">
+      <c r="T78" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U78" s="10"/>
@@ -5294,10 +5258,10 @@
       <c r="P79" s="30"/>
       <c r="Q79" s="30"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="15" t="b">
+      <c r="S79" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T79" s="16" t="b">
+      <c r="T79" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U79" s="10"/>
@@ -5331,10 +5295,10 @@
       <c r="P80" s="30"/>
       <c r="Q80" s="30"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="15" t="b">
+      <c r="S80" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T80" s="16" t="b">
+      <c r="T80" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U80" s="10"/>
@@ -5368,10 +5332,10 @@
       <c r="P81" s="30"/>
       <c r="Q81" s="30"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="15" t="b">
+      <c r="S81" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T81" s="16" t="b">
+      <c r="T81" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U81" s="10"/>
@@ -5405,10 +5369,10 @@
       <c r="P82" s="30"/>
       <c r="Q82" s="30"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="15" t="b">
+      <c r="S82" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T82" s="16" t="b">
+      <c r="T82" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U82" s="10"/>
@@ -5442,10 +5406,10 @@
       <c r="P83" s="30"/>
       <c r="Q83" s="30"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="15" t="b">
+      <c r="S83" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T83" s="16" t="b">
+      <c r="T83" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U83" s="10"/>
@@ -5479,10 +5443,10 @@
       <c r="P84" s="30"/>
       <c r="Q84" s="30"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="15" t="b">
+      <c r="S84" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T84" s="16" t="b">
+      <c r="T84" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U84" s="10"/>
@@ -5516,10 +5480,10 @@
       <c r="P85" s="30"/>
       <c r="Q85" s="30"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="15" t="b">
+      <c r="S85" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T85" s="16" t="b">
+      <c r="T85" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U85" s="10"/>
@@ -5553,10 +5517,10 @@
       <c r="P86" s="30"/>
       <c r="Q86" s="30"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="15" t="b">
+      <c r="S86" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T86" s="16" t="b">
+      <c r="T86" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U86" s="10"/>
@@ -5590,10 +5554,10 @@
       <c r="P87" s="30"/>
       <c r="Q87" s="30"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="15" t="b">
+      <c r="S87" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T87" s="16" t="b">
+      <c r="T87" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U87" s="10"/>
@@ -5627,10 +5591,10 @@
       <c r="P88" s="30"/>
       <c r="Q88" s="30"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="15" t="b">
+      <c r="S88" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T88" s="16" t="b">
+      <c r="T88" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U88" s="10"/>
@@ -5664,10 +5628,10 @@
       <c r="P89" s="30"/>
       <c r="Q89" s="30"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="15" t="b">
+      <c r="S89" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T89" s="16" t="b">
+      <c r="T89" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U89" s="10"/>
@@ -5701,10 +5665,10 @@
       <c r="P90" s="30"/>
       <c r="Q90" s="30"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="15" t="b">
+      <c r="S90" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T90" s="16" t="b">
+      <c r="T90" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U90" s="10"/>
@@ -5738,10 +5702,10 @@
       <c r="P91" s="30"/>
       <c r="Q91" s="30"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="15" t="b">
+      <c r="S91" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T91" s="16" t="b">
+      <c r="T91" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U91" s="10"/>
@@ -5773,10 +5737,10 @@
       <c r="P92" s="30"/>
       <c r="Q92" s="30"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="15" t="b">
+      <c r="S92" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T92" s="16" t="b">
+      <c r="T92" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U92" s="10"/>
@@ -5808,10 +5772,10 @@
       <c r="P93" s="30"/>
       <c r="Q93" s="30"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="15" t="b">
+      <c r="S93" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T93" s="16" t="b">
+      <c r="T93" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U93" s="10"/>
@@ -5843,10 +5807,10 @@
       <c r="P94" s="30"/>
       <c r="Q94" s="30"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="15" t="b">
+      <c r="S94" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T94" s="16" t="b">
+      <c r="T94" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U94" s="10"/>
@@ -5878,10 +5842,10 @@
       <c r="P95" s="30"/>
       <c r="Q95" s="30"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="15" t="b">
+      <c r="S95" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T95" s="16" t="b">
+      <c r="T95" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U95" s="10"/>
@@ -5913,10 +5877,10 @@
       <c r="P96" s="30"/>
       <c r="Q96" s="30"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="15" t="b">
+      <c r="S96" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T96" s="16" t="b">
+      <c r="T96" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U96" s="10"/>
@@ -5948,10 +5912,10 @@
       <c r="P97" s="30"/>
       <c r="Q97" s="30"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="15" t="b">
+      <c r="S97" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T97" s="16" t="b">
+      <c r="T97" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U97" s="10"/>
@@ -5983,10 +5947,10 @@
       <c r="P98" s="30"/>
       <c r="Q98" s="30"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="15" t="b">
+      <c r="S98" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T98" s="16" t="b">
+      <c r="T98" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U98" s="10"/>
@@ -6018,10 +5982,10 @@
       <c r="P99" s="30"/>
       <c r="Q99" s="30"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="15" t="b">
+      <c r="S99" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T99" s="16" t="b">
+      <c r="T99" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U99" s="10"/>
@@ -6053,10 +6017,10 @@
       <c r="P100" s="30"/>
       <c r="Q100" s="30"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="15" t="b">
+      <c r="S100" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T100" s="16" t="b">
+      <c r="T100" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U100" s="10"/>
@@ -6116,10 +6080,10 @@
         <v>62</v>
       </c>
       <c r="R101" s="7"/>
-      <c r="S101" s="15" t="b">
+      <c r="S101" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T101" s="16" t="b">
+      <c r="T101" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U101" s="10"/>
@@ -6173,18 +6137,22 @@
       <c r="N102" s="6">
         <v>0.0</v>
       </c>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6">
-        <v>1000.0</v>
+      <c r="O102" s="6">
+        <v>3000.0</v>
       </c>
       <c r="Q102" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R102" s="7"/>
-      <c r="S102" s="15" t="b">
+      <c r="R102" s="7" t="str">
+        <f> "\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
+"\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
+"\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) </f>
+        <v>\n\n내구도 : 0\t무게 : 0\n방어력 : 0</v>
+      </c>
+      <c r="S102" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="T102" s="16" t="b">
+      <c r="T102" s="17" t="b">
         <v>0</v>
       </c>
       <c r="U102" s="10"/>
@@ -32311,10 +32279,10 @@
         <v>77</v>
       </c>
       <c r="C2" s="1">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>78</v>
@@ -32338,7 +32306,7 @@
         <v>100.0</v>
       </c>
       <c r="L2" s="1">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
@@ -32349,10 +32317,10 @@
         <v>82</v>
       </c>
       <c r="C3" s="1">
-        <v>150.0</v>
+        <v>120.0</v>
       </c>
       <c r="D3" s="1">
-        <v>30.0</v>
+        <v>500.0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>83</v>
@@ -32387,10 +32355,10 @@
         <v>87</v>
       </c>
       <c r="C4" s="1">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="D4" s="1">
-        <v>40.0</v>
+        <v>500.0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>88</v>
@@ -32399,7 +32367,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" s="1">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -32411,10 +32379,10 @@
         <v>89</v>
       </c>
       <c r="K4" s="1">
-        <v>50.0</v>
+        <v>400.0</v>
       </c>
       <c r="L4" s="1">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5">
@@ -32425,19 +32393,19 @@
         <v>90</v>
       </c>
       <c r="C5" s="1">
-        <v>90.0</v>
+        <v>250.0</v>
       </c>
       <c r="D5" s="1">
-        <v>20.0</v>
+        <v>300.0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" s="1">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>79</v>
@@ -32449,10 +32417,10 @@
         <v>81</v>
       </c>
       <c r="K5" s="1">
-        <v>150.0</v>
+        <v>600.0</v>
       </c>
       <c r="L5" s="1">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="6">
@@ -32472,10 +32440,10 @@
         <v>94</v>
       </c>
       <c r="F6" s="1">
-        <v>400.0</v>
+        <v>15.0</v>
       </c>
       <c r="G6" s="1">
-        <v>20.0</v>
+        <v>999.0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>79</v>
@@ -32519,9 +32487,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -32542,7 +32508,7 @@
     <col customWidth="1" min="2" max="2" width="20.14"/>
     <col customWidth="1" min="3" max="3" width="18.86"/>
     <col customWidth="1" min="4" max="4" width="20.71"/>
-    <col customWidth="1" min="5" max="5" width="28.57"/>
+    <col customWidth="1" min="5" max="5" width="14.57"/>
     <col customWidth="1" min="6" max="6" width="18.71"/>
     <col customWidth="1" min="7" max="7" width="12.57"/>
     <col customWidth="1" min="8" max="8" width="8.57"/>
@@ -32600,10 +32566,10 @@
         <v>120000.0</v>
       </c>
       <c r="D2" s="42">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -32615,13 +32581,13 @@
         <v>200.0</v>
       </c>
       <c r="J2" s="1">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="K2" s="1">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="L2" s="1">
-        <v>500.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -32632,13 +32598,13 @@
         <v>109</v>
       </c>
       <c r="C3" s="41">
-        <v>180000.0</v>
-      </c>
-      <c r="D3" s="42">
-        <v>1.0</v>
+        <v>150000.0</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="E3" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" s="1">
         <v>3.0</v>
@@ -32647,16 +32613,16 @@
         <v>100.0</v>
       </c>
       <c r="I3" s="1">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="J3" s="1">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="K3" s="1">
-        <v>400.0</v>
+        <v>900.0</v>
       </c>
       <c r="L3" s="1">
-        <v>500.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
@@ -32664,16 +32630,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="41">
-        <v>200000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" s="1">
         <v>4.0</v>
@@ -32682,16 +32648,16 @@
         <v>100.0</v>
       </c>
       <c r="I4" s="1">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="J4" s="1">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="K4" s="1">
-        <v>400.0</v>
+        <v>900.0</v>
       </c>
       <c r="L4" s="1">
-        <v>500.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
@@ -32699,16 +32665,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1">
-        <v>250000.0</v>
+        <v>210000.0</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" s="1">
         <v>4.0</v>
@@ -32717,16 +32683,16 @@
         <v>100.0</v>
       </c>
       <c r="I5" s="1">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="J5" s="1">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="K5" s="1">
-        <v>400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="L5" s="1">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
@@ -32734,16 +32700,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1">
-        <v>300000.0</v>
+        <v>230000.0</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="F6" s="1">
         <v>4.0</v>
@@ -32752,16 +32718,16 @@
         <v>100.0</v>
       </c>
       <c r="I6" s="1">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="J6" s="1">
-        <v>300.0</v>
+        <v>1000.0</v>
       </c>
       <c r="K6" s="1">
-        <v>400.0</v>
+        <v>1500.0</v>
       </c>
       <c r="L6" s="1">
-        <v>500.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
@@ -32769,16 +32735,16 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1">
-        <v>100000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="D7" s="42">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E7" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" s="1">
         <v>4.0</v>
@@ -32800,129 +32766,73 @@
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="41">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>116</v>
-      </c>
+      <c r="A8" s="41"/>
+      <c r="B8" s="40"/>
       <c r="D8" s="42"/>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="41">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>117</v>
-      </c>
+      <c r="A9" s="41"/>
+      <c r="B9" s="40"/>
       <c r="D9" s="42"/>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="41">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>118</v>
-      </c>
+      <c r="A10" s="41"/>
+      <c r="B10" s="40"/>
       <c r="D10" s="43"/>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="41">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>119</v>
-      </c>
+      <c r="A11" s="41"/>
+      <c r="B11" s="40"/>
       <c r="D11" s="43"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="41">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="A12" s="41"/>
+      <c r="B12" s="40"/>
       <c r="D12" s="43"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="41">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>121</v>
-      </c>
+      <c r="A13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="D13" s="43"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="41">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>122</v>
-      </c>
+      <c r="A14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="D14" s="43"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="41">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>123</v>
-      </c>
+      <c r="A15" s="41"/>
+      <c r="B15" s="40"/>
       <c r="D15" s="43"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="41">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>124</v>
-      </c>
+      <c r="A16" s="41"/>
+      <c r="B16" s="40"/>
       <c r="D16" s="43"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="41">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>125</v>
-      </c>
+      <c r="A17" s="41"/>
+      <c r="B17" s="40"/>
       <c r="D17" s="43"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="41">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>126</v>
-      </c>
+      <c r="A18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="D18" s="43"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="41">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>127</v>
-      </c>
+      <c r="A19" s="41"/>
+      <c r="B19" s="40"/>
       <c r="D19" s="43"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="41">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>128</v>
-      </c>
+      <c r="A20" s="41"/>
+      <c r="B20" s="40"/>
       <c r="D20" s="43"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="41">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>129</v>
-      </c>
+      <c r="A21" s="41"/>
+      <c r="B21" s="40"/>
       <c r="D21" s="43"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
@@ -35891,25 +35801,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -35917,16 +35827,16 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1">
-        <v>300.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G2" s="1" t="b">
         <v>1</v>
@@ -35940,16 +35850,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F3" s="1">
-        <v>100.0</v>
+        <v>700.0</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>1</v>
@@ -35963,16 +35873,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F4" s="1">
-        <v>500.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -35986,16 +35896,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1">
-        <v>800.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
@@ -36009,16 +35919,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1">
-        <v>400.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
@@ -36117,16 +36027,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -36134,13 +36044,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
@@ -36148,13 +36058,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
@@ -36162,13 +36072,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
@@ -36176,13 +36086,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -36190,13 +36100,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
@@ -36204,7 +36114,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
@@ -36212,7 +36122,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -36220,7 +36130,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
@@ -36228,7 +36138,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
@@ -36236,7 +36146,7 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
@@ -36244,14 +36154,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="44" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -36259,14 +36169,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="44" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -36274,14 +36184,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -36289,14 +36199,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="44" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -36304,14 +36214,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="44" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -36319,14 +36229,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -36334,14 +36244,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="44" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -36349,14 +36259,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="44" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -36364,14 +36274,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="44" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
@@ -36379,14 +36289,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -36394,14 +36304,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="47" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -36409,14 +36319,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="47" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
@@ -36424,14 +36334,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="47" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25">
@@ -36439,14 +36349,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="47" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -36454,14 +36364,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="47" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
@@ -36469,14 +36379,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="47" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28">
@@ -36484,14 +36394,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="47" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29">
@@ -36499,14 +36409,14 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="47" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -36514,14 +36424,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="47" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31">
@@ -36534,13 +36444,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
@@ -36548,13 +36458,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34">
@@ -36562,13 +36472,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
@@ -36576,13 +36486,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36">
@@ -36590,13 +36500,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37">
@@ -36604,13 +36514,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38">
@@ -36618,13 +36528,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39">
@@ -36632,13 +36542,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40">
@@ -36646,13 +36556,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="189">
   <si>
     <t>Number</t>
   </si>
@@ -162,40 +162,13 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>포탑 기차</t>
+    <t>자동 포탑 기차</t>
   </si>
   <si>
     <t>Turret</t>
   </si>
   <si>
-    <t>Lv1</t>
-  </si>
-  <si>
-    <t>Lv2</t>
-  </si>
-  <si>
-    <t>Lv3</t>
-  </si>
-  <si>
-    <t>Lv4</t>
-  </si>
-  <si>
-    <t>Lv5</t>
-  </si>
-  <si>
-    <t>Lv6</t>
-  </si>
-  <si>
-    <t>Lv7</t>
-  </si>
-  <si>
-    <t>Lv8</t>
-  </si>
-  <si>
-    <t>Lv9</t>
-  </si>
-  <si>
-    <t>Lv10</t>
+    <t>미사일 포탑 기차</t>
   </si>
   <si>
     <t>병원 기차</t>
@@ -204,10 +177,25 @@
     <t>Medic</t>
   </si>
   <si>
-    <t>Quest Train</t>
+    <t>부스터 기차</t>
+  </si>
+  <si>
+    <t>요격 미사일 포탑 기차</t>
+  </si>
+  <si>
+    <t>폭탄 풍선 기차</t>
+  </si>
+  <si>
+    <t>화염 방사 기차</t>
+  </si>
+  <si>
+    <t>퀘스트 기차</t>
   </si>
   <si>
     <t>Special</t>
+  </si>
+  <si>
+    <t>Quest Train</t>
   </si>
   <si>
     <t>평판 기차</t>
@@ -430,6 +418,27 @@
   </si>
   <si>
     <t>액티브 용병이며 공격 할 수 없지만 용병의 체력이 해당퍼센트 이하로 떨어지면 치료를 해준다.\n플레이어의 체력이 해당퍼센트 이하라면, 치료를 할 수 있으나 "E"를 눌러 호출을 해야 치료를 받을 수 있다.</t>
+  </si>
+  <si>
+    <t>음유시인</t>
+  </si>
+  <si>
+    <t>Bard</t>
+  </si>
+  <si>
+    <t>패시브 용병이며 플레이어와 용병 효과를 증폭이 가능합니다.\n 체력 증가, 공격력 증가, 공격 속도 증가, 방어력 증가</t>
+  </si>
+  <si>
+    <t>미사일 런처</t>
+  </si>
+  <si>
+    <t>갈고리</t>
+  </si>
+  <si>
+    <t>조련사</t>
+  </si>
+  <si>
+    <t>사령관</t>
   </si>
   <si>
     <t>Item_Name</t>
@@ -794,20 +803,20 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1289,7 +1298,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.57"/>
-    <col customWidth="1" min="2" max="2" width="13.57"/>
+    <col customWidth="1" min="2" max="2" width="24.14"/>
     <col customWidth="1" min="3" max="3" width="10.0"/>
     <col customWidth="1" min="4" max="4" width="15.14"/>
     <col customWidth="1" min="5" max="5" width="13.43"/>
@@ -3294,8 +3303,8 @@
       <c r="A33" s="5">
         <v>31.0</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>51</v>
+      <c r="B33" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -3331,8 +3340,8 @@
       <c r="A34" s="5">
         <v>32.0</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>52</v>
+      <c r="B34" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -3369,7 +3378,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="6"/>
@@ -3406,18 +3415,18 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="6"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="26"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="9"/>
+      <c r="L36" s="31"/>
       <c r="M36" s="30"/>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
@@ -3443,7 +3452,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -3480,7 +3489,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -3517,7 +3526,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -3554,7 +3563,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
@@ -3591,7 +3600,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -3628,7 +3637,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C42" s="32">
         <v>50000.0</v>
@@ -3640,18 +3649,18 @@
         <v>10.0</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
       <c r="M42" s="32">
         <v>10000.0</v>
       </c>
-      <c r="N42" s="34">
+      <c r="N42" s="35">
         <v>2000.0</v>
       </c>
       <c r="O42" s="32">
@@ -3664,7 +3673,7 @@
         <f> "1레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)"</f>
         <v>1레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)</v>
       </c>
-      <c r="R42" s="34" t="str">
+      <c r="R42" s="35" t="str">
         <f t="shared" ref="R42:R51" si="4"> "\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
 "\t무게 : " &amp; INDIRECT("D" &amp; ROW()) &amp; 
 "\n방어력 : " &amp; INDIRECT("E" &amp; ROW()) &amp; 
@@ -3691,30 +3700,30 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="34">
+        <v>51</v>
+      </c>
+      <c r="C43" s="35">
         <v>60000.0</v>
       </c>
       <c r="D43" s="32">
         <v>550000.0</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="35">
         <v>15.0</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
       <c r="M43" s="32">
         <v>12000.0</v>
       </c>
-      <c r="N43" s="34">
+      <c r="N43" s="35">
         <v>0.0</v>
       </c>
       <c r="O43" s="32">
@@ -3729,7 +3738,7 @@
         <v>2레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R43" s="34" t="str">
+      <c r="R43" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 60000\t무게 : 550000\n방어력 : 15\n보유 회복량 : 12000</v>
       </c>
@@ -3752,30 +3761,30 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="34">
+        <v>51</v>
+      </c>
+      <c r="C44" s="35">
         <v>70000.0</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="35">
         <v>600000.0</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="35">
         <v>20.0</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
       <c r="M44" s="32">
         <v>14000.0</v>
       </c>
-      <c r="N44" s="34">
+      <c r="N44" s="35">
         <v>0.0</v>
       </c>
       <c r="O44" s="32">
@@ -3790,7 +3799,7 @@
         <v>3레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R44" s="34" t="str">
+      <c r="R44" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 70000\t무게 : 600000\n방어력 : 20\n보유 회복량 : 14000</v>
       </c>
@@ -3813,30 +3822,30 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C45" s="32">
         <v>7000.0</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="35">
         <v>600000.0</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="35">
         <v>43.0</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
       <c r="M45" s="32">
         <v>10000.0</v>
       </c>
-      <c r="N45" s="34">
+      <c r="N45" s="35">
         <v>0.0</v>
       </c>
       <c r="O45" s="32">
@@ -3852,7 +3861,7 @@
         <v>4레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R45" s="34" t="str">
+      <c r="R45" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 7000\t무게 : 600000\n방어력 : 43\n보유 회복량 : 10000</v>
       </c>
@@ -3875,30 +3884,30 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="34">
+        <v>51</v>
+      </c>
+      <c r="C46" s="35">
         <v>8000.0</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="35">
         <v>600000.0</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="35">
         <v>53.0</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
       <c r="M46" s="32">
         <v>10000.0</v>
       </c>
-      <c r="N46" s="34">
+      <c r="N46" s="35">
         <v>0.0</v>
       </c>
       <c r="O46" s="32">
@@ -3913,7 +3922,7 @@
         <v>5레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R46" s="34" t="str">
+      <c r="R46" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 8000\t무게 : 600000\n방어력 : 53\n보유 회복량 : 10000</v>
       </c>
@@ -3936,30 +3945,30 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="34">
+        <v>51</v>
+      </c>
+      <c r="C47" s="35">
         <v>9000.0</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="35">
         <v>600000.0</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="35">
         <v>63.0</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
       <c r="M47" s="32">
         <v>10000.0</v>
       </c>
-      <c r="N47" s="34">
+      <c r="N47" s="35">
         <v>0.0</v>
       </c>
       <c r="O47" s="32">
@@ -3974,7 +3983,7 @@
         <v>6레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R47" s="34" t="str">
+      <c r="R47" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 9000\t무게 : 600000\n방어력 : 63\n보유 회복량 : 10000</v>
       </c>
@@ -3997,30 +4006,30 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="34">
+        <v>51</v>
+      </c>
+      <c r="C48" s="35">
         <v>11000.0</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="35">
         <v>600000.0</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="35">
         <v>73.0</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
       <c r="M48" s="32">
         <v>10000.0</v>
       </c>
-      <c r="N48" s="34">
+      <c r="N48" s="35">
         <v>0.0</v>
       </c>
       <c r="O48" s="32">
@@ -4035,7 +4044,7 @@
         <v>7레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R48" s="34" t="str">
+      <c r="R48" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 11000\t무게 : 600000\n방어력 : 73\n보유 회복량 : 10000</v>
       </c>
@@ -4058,30 +4067,30 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="34">
+        <v>51</v>
+      </c>
+      <c r="C49" s="35">
         <v>12000.0</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="35">
         <v>600000.0</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="35">
         <v>83.0</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
       <c r="M49" s="32">
         <v>10000.0</v>
       </c>
-      <c r="N49" s="34">
+      <c r="N49" s="35">
         <v>0.0</v>
       </c>
       <c r="O49" s="32">
@@ -4096,7 +4105,7 @@
         <v>8레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R49" s="34" t="str">
+      <c r="R49" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 12000\t무게 : 600000\n방어력 : 83\n보유 회복량 : 10000</v>
       </c>
@@ -4119,30 +4128,30 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="34">
+        <v>51</v>
+      </c>
+      <c r="C50" s="35">
         <v>13000.0</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="35">
         <v>600000.0</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="35">
         <v>93.0</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
       <c r="M50" s="32">
         <v>10000.0</v>
       </c>
-      <c r="N50" s="34">
+      <c r="N50" s="35">
         <v>0.0</v>
       </c>
       <c r="O50" s="32">
@@ -4157,7 +4166,7 @@
         <v>9레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R50" s="34" t="str">
+      <c r="R50" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 13000\t무게 : 600000\n방어력 : 93\n보유 회복량 : 10000</v>
       </c>
@@ -4180,30 +4189,30 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="34">
+        <v>51</v>
+      </c>
+      <c r="C51" s="35">
         <v>14000.0</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="35">
         <v>600000.0</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="35">
         <v>103.0</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
       <c r="M51" s="32">
         <v>10000.0</v>
       </c>
-      <c r="N51" s="34">
+      <c r="N51" s="35">
         <v>0.0</v>
       </c>
       <c r="O51" s="32">
@@ -4218,7 +4227,7 @@
         <v>10레벨 병원 기차는 누구나 들어가서 치료를 받을 수 있습니다.\n(플레이어는 R키를 눌러 들어갈 수 있다.)
 </v>
       </c>
-      <c r="R51" s="34" t="str">
+      <c r="R51" s="35" t="str">
         <f t="shared" si="4"/>
         <v>\n\n내구도 : 14000\t무게 : 600000\n방어력 : 103\n보유 회복량 : 10000</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
@@ -4277,8 +4286,8 @@
       <c r="A53" s="5">
         <v>51.0</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>51</v>
+      <c r="B53" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -4314,8 +4323,8 @@
       <c r="A54" s="5">
         <v>52.0</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>52</v>
+      <c r="B54" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -4389,7 +4398,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
@@ -4426,7 +4435,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
@@ -4463,7 +4472,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -4500,7 +4509,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -4537,7 +4546,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
@@ -4574,7 +4583,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
@@ -4611,7 +4620,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
@@ -4647,8 +4656,8 @@
       <c r="A63" s="6">
         <v>61.0</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>51</v>
+      <c r="B63" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
@@ -4684,8 +4693,8 @@
       <c r="A64" s="6">
         <v>62.0</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>52</v>
+      <c r="B64" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
@@ -4722,7 +4731,7 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -4796,7 +4805,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -4833,7 +4842,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -4870,7 +4879,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -4907,7 +4916,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -4944,7 +4953,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -4981,7 +4990,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
@@ -5017,8 +5026,8 @@
       <c r="A73" s="6">
         <v>71.0</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>51</v>
+      <c r="B73" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="30"/>
@@ -5054,8 +5063,8 @@
       <c r="A74" s="6">
         <v>72.0</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>52</v>
+      <c r="B74" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
@@ -5092,7 +5101,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
@@ -5129,7 +5138,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="30"/>
@@ -5203,7 +5212,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" s="30"/>
       <c r="D78" s="30"/>
@@ -5240,7 +5249,7 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
@@ -5277,7 +5286,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
@@ -5314,7 +5323,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
@@ -5351,7 +5360,7 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
@@ -5387,8 +5396,8 @@
       <c r="A83" s="6">
         <v>81.0</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>51</v>
+      <c r="B83" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="30"/>
@@ -5424,8 +5433,8 @@
       <c r="A84" s="6">
         <v>82.0</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>52</v>
+      <c r="B84" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
@@ -5462,7 +5471,7 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30"/>
@@ -5499,7 +5508,7 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30"/>
@@ -5536,7 +5545,7 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
@@ -5610,7 +5619,7 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="30"/>
@@ -5647,7 +5656,7 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="30"/>
@@ -5684,7 +5693,7 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
@@ -5720,7 +5729,7 @@
       <c r="A92" s="6">
         <v>90.0</v>
       </c>
-      <c r="B92" s="35"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="30"/>
       <c r="D92" s="30"/>
       <c r="E92" s="30"/>
@@ -5755,7 +5764,7 @@
       <c r="A93" s="6">
         <v>91.0</v>
       </c>
-      <c r="B93" s="35"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="30"/>
@@ -5790,7 +5799,7 @@
       <c r="A94" s="6">
         <v>92.0</v>
       </c>
-      <c r="B94" s="35"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="30"/>
       <c r="D94" s="30"/>
       <c r="E94" s="30"/>
@@ -5825,7 +5834,7 @@
       <c r="A95" s="6">
         <v>93.0</v>
       </c>
-      <c r="B95" s="35"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
       <c r="E95" s="30"/>
@@ -5860,7 +5869,7 @@
       <c r="A96" s="6">
         <v>94.0</v>
       </c>
-      <c r="B96" s="35"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
       <c r="E96" s="30"/>
@@ -5895,7 +5904,7 @@
       <c r="A97" s="6">
         <v>95.0</v>
       </c>
-      <c r="B97" s="35"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="30"/>
       <c r="D97" s="30"/>
       <c r="E97" s="30"/>
@@ -5930,7 +5939,7 @@
       <c r="A98" s="6">
         <v>96.0</v>
       </c>
-      <c r="B98" s="35"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
       <c r="E98" s="30"/>
@@ -5965,7 +5974,7 @@
       <c r="A99" s="6">
         <v>97.0</v>
       </c>
-      <c r="B99" s="35"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="30"/>
       <c r="D99" s="30"/>
       <c r="E99" s="30"/>
@@ -6000,7 +6009,7 @@
       <c r="A100" s="6">
         <v>98.0</v>
       </c>
-      <c r="B100" s="35"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="30"/>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
@@ -6036,7 +6045,7 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C101" s="6">
         <v>0.0</v>
@@ -6048,7 +6057,7 @@
         <v>0.0</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G101" s="6">
         <v>0.0</v>
@@ -6077,7 +6086,7 @@
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R101" s="7"/>
       <c r="S101" s="16" t="b">
@@ -6099,7 +6108,7 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C102" s="6">
         <v>0.0</v>
@@ -6111,7 +6120,7 @@
         <v>0.0</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G102" s="6">
         <v>0.0</v>
@@ -6141,7 +6150,7 @@
         <v>3000.0</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R102" s="7" t="str">
         <f> "\n\n내구도 : " &amp; INDIRECT("C" &amp; ROW())  &amp;
@@ -32238,37 +32247,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -32276,7 +32285,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -32285,7 +32294,7 @@
         <v>100.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -32294,13 +32303,13 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K2" s="1">
         <v>100.0</v>
@@ -32314,7 +32323,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1">
         <v>120.0</v>
@@ -32323,7 +32332,7 @@
         <v>500.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1">
         <v>7.0</v>
@@ -32332,13 +32341,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K3" s="1">
         <v>200.0</v>
@@ -32352,7 +32361,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>60.0</v>
@@ -32361,22 +32370,22 @@
         <v>500.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
       </c>
       <c r="G4" s="1">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="K4" s="1">
         <v>400.0</v>
@@ -32390,7 +32399,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1">
         <v>250.0</v>
@@ -32399,22 +32408,22 @@
         <v>300.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K5" s="1">
         <v>600.0</v>
@@ -32428,7 +32437,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1">
         <v>999999.0</v>
@@ -32437,7 +32446,7 @@
         <v>999999.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1">
         <v>15.0</v>
@@ -32446,13 +32455,13 @@
         <v>999.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K6" s="1">
         <v>9999999.0</v>
@@ -32522,37 +32531,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -32560,7 +32569,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="41">
         <v>120000.0</v>
@@ -32569,7 +32578,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -32595,16 +32604,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" s="41">
         <v>150000.0</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" s="1">
         <v>3.0</v>
@@ -32630,16 +32639,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="41">
         <v>180000.0</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="F4" s="1">
         <v>4.0</v>
@@ -32665,16 +32674,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="F5" s="1">
         <v>4.0</v>
@@ -32700,16 +32709,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="F6" s="1">
         <v>4.0</v>
@@ -32735,7 +32744,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1">
         <v>250000.0</v>
@@ -35801,25 +35810,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -35827,13 +35836,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -35850,13 +35859,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -35873,13 +35882,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -35896,13 +35905,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -35919,13 +35928,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -35941,6 +35950,18 @@
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1">
+        <v>400.0</v>
+      </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
@@ -35952,6 +35973,9 @@
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G8" s="1" t="b">
         <v>0</v>
       </c>
@@ -35963,6 +35987,9 @@
       <c r="A9" s="1">
         <v>7.0</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G9" s="1" t="b">
         <v>0</v>
       </c>
@@ -35974,6 +36001,9 @@
       <c r="A10" s="1">
         <v>8.0</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G10" s="1" t="b">
         <v>0</v>
       </c>
@@ -35985,6 +36015,9 @@
       <c r="A11" s="1">
         <v>9.0</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G11" s="1" t="b">
         <v>0</v>
       </c>
@@ -35993,9 +36026,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
       <c r="G12" s="1" t="b">
         <v>0</v>
       </c>
@@ -36027,16 +36057,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -36044,13 +36074,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
@@ -36058,13 +36088,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -36072,13 +36102,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -36086,13 +36116,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -36100,13 +36130,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -36114,7 +36144,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -36122,7 +36152,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -36130,7 +36160,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -36138,7 +36168,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -36146,7 +36176,7 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -36154,14 +36184,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="44" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -36169,14 +36199,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="44" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
@@ -36184,14 +36214,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -36199,14 +36229,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>159</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -36214,14 +36244,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -36229,14 +36259,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
@@ -36244,14 +36274,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
@@ -36259,14 +36289,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -36274,14 +36304,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -36289,14 +36319,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22">
@@ -36304,14 +36334,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -36319,14 +36349,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24">
@@ -36334,14 +36364,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="47" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25">
@@ -36349,14 +36379,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
@@ -36364,14 +36394,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27">
@@ -36379,14 +36409,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28">
@@ -36394,14 +36424,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
@@ -36409,14 +36439,14 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30">
@@ -36424,14 +36454,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
@@ -36444,13 +36474,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33">
@@ -36458,13 +36488,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -36472,13 +36502,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35">
@@ -36486,13 +36516,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="36">
@@ -36500,13 +36530,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
@@ -36514,13 +36544,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
@@ -36528,13 +36558,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -36542,13 +36572,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40">
@@ -36556,13 +36586,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="204">
   <si>
     <t>Number</t>
   </si>
@@ -209,40 +209,19 @@
     <t>자동 포탑 파츠</t>
   </si>
   <si>
-    <t>1레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>2레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>3레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>4레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>5레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>6레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>7레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>8레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>9레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
-  </si>
-  <si>
-    <t>10레벨 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
+    <t>자동 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
   </si>
   <si>
     <t>미사일 포탑 파츠</t>
   </si>
   <si>
+    <t>미사일 포탑 기차는 타겟이 죽을 때까지, 미사일을 발사합니다.\n공격력이 높지만, 발사 속도는 느립니다.</t>
+  </si>
+  <si>
     <t>레이저 포탑 파츠</t>
+  </si>
+  <si>
+    <t>레이저 포탑 기차는 레이저를 지속적으로 발사합니다. 회전 속도와 발사 속도는 느리지만, 관통할 수 있습니다.</t>
   </si>
   <si>
     <t>폭탄 풍선 파츠</t>
@@ -795,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -930,6 +909,9 @@
     </xf>
     <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -30700,7 +30682,7 @@
         <v>3000.0</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>46</v>
@@ -30753,7 +30735,7 @@
         <v>9999999.0</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K4" s="41" t="s">
         <v>46</v>
@@ -30806,7 +30788,7 @@
         <v>1000000.0</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>46</v>
@@ -30859,7 +30841,7 @@
         <v>3004.0</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>46</v>
@@ -30912,7 +30894,7 @@
         <v>3005.0</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>46</v>
@@ -30965,7 +30947,7 @@
         <v>3006.0</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>46</v>
@@ -31018,7 +31000,7 @@
         <v>3007.0</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>46</v>
@@ -31071,7 +31053,7 @@
         <v>3008.0</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>46</v>
@@ -31124,7 +31106,7 @@
         <v>3009.0</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K11" s="41" t="s">
         <v>46</v>
@@ -31152,18 +31134,36 @@
       <c r="A12" s="41">
         <v>10.0</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="B12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="45">
+        <v>40000.0</v>
+      </c>
+      <c r="D12" s="45">
+        <v>900000.0</v>
+      </c>
+      <c r="E12" s="45">
+        <v>12.0</v>
+      </c>
+      <c r="F12" s="45">
+        <v>20.0</v>
+      </c>
+      <c r="G12" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="H12" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="I12" s="45">
+        <v>5000.0</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L12" s="30" t="b">
         <v>1</v>
       </c>
@@ -31187,18 +31187,36 @@
       <c r="A13" s="41">
         <v>11.0</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="B13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="15">
+        <v>45000.0</v>
+      </c>
+      <c r="D13" s="45">
+        <v>950000.0</v>
+      </c>
+      <c r="E13" s="45">
+        <v>14.0</v>
+      </c>
+      <c r="F13" s="45">
+        <v>30.0</v>
+      </c>
+      <c r="G13" s="45">
+        <v>6.5</v>
+      </c>
+      <c r="H13" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="45">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L13" s="18" t="b">
         <v>0</v>
       </c>
@@ -31222,18 +31240,36 @@
       <c r="A14" s="41">
         <v>12.0</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="B14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="45">
+        <v>50000.0</v>
+      </c>
+      <c r="D14" s="45">
+        <v>1000000.0</v>
+      </c>
+      <c r="E14" s="45">
+        <v>18.0</v>
+      </c>
+      <c r="F14" s="45">
+        <v>40.0</v>
+      </c>
+      <c r="G14" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="45">
+        <v>9000.0</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L14" s="18" t="b">
         <v>0</v>
       </c>
@@ -31257,18 +31293,36 @@
       <c r="A15" s="41">
         <v>13.0</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="B15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="45">
+        <v>55000.0</v>
+      </c>
+      <c r="D15" s="45">
+        <v>1200000.0</v>
+      </c>
+      <c r="E15" s="45">
+        <v>24.0</v>
+      </c>
+      <c r="F15" s="45">
+        <v>50.0</v>
+      </c>
+      <c r="G15" s="45">
+        <v>5.5</v>
+      </c>
+      <c r="H15" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="45">
+        <v>12000.0</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L15" s="18" t="b">
         <v>0</v>
       </c>
@@ -31292,18 +31346,36 @@
       <c r="A16" s="41">
         <v>14.0</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="B16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="45">
+        <v>60000.0</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1240000.0</v>
+      </c>
+      <c r="E16" s="45">
+        <v>30.0</v>
+      </c>
+      <c r="F16" s="45">
+        <v>60.0</v>
+      </c>
+      <c r="G16" s="45">
+        <v>5.0</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="45">
+        <v>15000.0</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L16" s="18" t="b">
         <v>0</v>
       </c>
@@ -31327,18 +31399,36 @@
       <c r="A17" s="41">
         <v>15.0</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="B17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="45">
+        <v>70000.0</v>
+      </c>
+      <c r="D17" s="45">
+        <v>1280000.0</v>
+      </c>
+      <c r="E17" s="45">
+        <v>36.0</v>
+      </c>
+      <c r="F17" s="45">
+        <v>70.0</v>
+      </c>
+      <c r="G17" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="H17" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>18000.0</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L17" s="18" t="b">
         <v>0</v>
       </c>
@@ -31362,18 +31452,36 @@
       <c r="A18" s="41">
         <v>16.0</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="B18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="45">
+        <v>80000.0</v>
+      </c>
+      <c r="D18" s="45">
+        <v>1300000.0</v>
+      </c>
+      <c r="E18" s="45">
+        <v>38.0</v>
+      </c>
+      <c r="F18" s="45">
+        <v>80.0</v>
+      </c>
+      <c r="G18" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="45">
+        <v>21000.0</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L18" s="18" t="b">
         <v>0</v>
       </c>
@@ -31397,18 +31505,36 @@
       <c r="A19" s="41">
         <v>17.0</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="45">
+        <v>90000.0</v>
+      </c>
+      <c r="D19" s="45">
+        <v>1320000.0</v>
+      </c>
+      <c r="E19" s="45">
+        <v>40.0</v>
+      </c>
+      <c r="F19" s="45">
+        <v>90.0</v>
+      </c>
+      <c r="G19" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="H19" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="45">
+        <v>24000.0</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L19" s="18" t="b">
         <v>0</v>
       </c>
@@ -31432,18 +31558,36 @@
       <c r="A20" s="41">
         <v>18.0</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="B20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="45">
+        <v>100000.0</v>
+      </c>
+      <c r="D20" s="45">
+        <v>1340000.0</v>
+      </c>
+      <c r="E20" s="45">
+        <v>44.0</v>
+      </c>
+      <c r="F20" s="45">
+        <v>100.0</v>
+      </c>
+      <c r="G20" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="H20" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="45">
+        <v>27000.0</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L20" s="18" t="b">
         <v>0</v>
       </c>
@@ -31467,18 +31611,36 @@
       <c r="A21" s="41">
         <v>19.0</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="B21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="45">
+        <v>110000.0</v>
+      </c>
+      <c r="D21" s="45">
+        <v>1360000.0</v>
+      </c>
+      <c r="E21" s="45">
+        <v>45.0</v>
+      </c>
+      <c r="F21" s="45">
+        <v>110.0</v>
+      </c>
+      <c r="G21" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="45">
+        <v>30000.0</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L21" s="18" t="b">
         <v>0</v>
       </c>
@@ -31503,19 +31665,41 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="C22" s="41">
+        <v>50000.0</v>
+      </c>
+      <c r="D22" s="41">
+        <v>800000.0</v>
+      </c>
+      <c r="E22" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="F22" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="H22" s="41">
+        <v>3500.0</v>
+      </c>
+      <c r="I22" s="41">
+        <v>4000.0</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="41" t="b">
+        <v>1</v>
+      </c>
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
@@ -31534,19 +31718,41 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="41">
+        <v>60000.0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>820000.0</v>
+      </c>
+      <c r="E23" s="41">
+        <v>15.0</v>
+      </c>
+      <c r="F23" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="H23" s="41">
+        <v>40000.0</v>
+      </c>
+      <c r="I23" s="41">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="41" t="b">
+        <v>0</v>
+      </c>
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
@@ -31565,7 +31771,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
@@ -31596,7 +31802,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -31627,7 +31833,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
@@ -31658,7 +31864,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -31689,7 +31895,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -31720,7 +31926,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -31751,7 +31957,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -31782,7 +31988,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -31813,7 +32019,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -31844,7 +32050,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
@@ -31875,7 +32081,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
@@ -31906,7 +32112,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
@@ -31937,7 +32143,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
@@ -31968,7 +32174,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
@@ -31999,7 +32205,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
@@ -32030,7 +32236,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
@@ -32061,7 +32267,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
@@ -32092,7 +32298,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
@@ -32123,7 +32329,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
@@ -32154,7 +32360,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -32185,7 +32391,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
@@ -32216,7 +32422,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
@@ -32247,7 +32453,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
@@ -32278,7 +32484,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
@@ -32309,7 +32515,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
@@ -32340,7 +32546,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="42"/>
@@ -32371,7 +32577,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
@@ -32402,7 +32608,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="42"/>
@@ -32433,7 +32639,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="42"/>
@@ -32464,7 +32670,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C53" s="42"/>
       <c r="D53" s="42"/>
@@ -32495,7 +32701,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
@@ -32526,7 +32732,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C55" s="42"/>
       <c r="D55" s="42"/>
@@ -32557,7 +32763,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
@@ -32588,7 +32794,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
@@ -32619,7 +32825,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
@@ -32650,7 +32856,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
@@ -32681,7 +32887,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
@@ -32712,7 +32918,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C61" s="42"/>
       <c r="D61" s="42"/>
@@ -32743,7 +32949,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
@@ -32774,7 +32980,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C63" s="42"/>
       <c r="D63" s="42"/>
@@ -32805,7 +33011,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
@@ -32836,7 +33042,7 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="42"/>
@@ -32867,7 +33073,7 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
@@ -32898,7 +33104,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="42"/>
@@ -32929,7 +33135,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="42"/>
@@ -32960,7 +33166,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="42"/>
@@ -32991,7 +33197,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
@@ -33022,7 +33228,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
@@ -33053,7 +33259,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C72" s="42"/>
       <c r="D72" s="42"/>
@@ -33084,7 +33290,7 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
@@ -33115,7 +33321,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
@@ -33146,7 +33352,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
@@ -33177,7 +33383,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C76" s="42"/>
       <c r="D76" s="42"/>
@@ -33208,7 +33414,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
@@ -33239,7 +33445,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
@@ -33270,7 +33476,7 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C79" s="42"/>
       <c r="D79" s="42"/>
@@ -33301,7 +33507,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C80" s="42"/>
       <c r="D80" s="42"/>
@@ -33332,7 +33538,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C81" s="42"/>
       <c r="D81" s="42"/>
@@ -58194,36 +58400,36 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="49" t="s">
         <v>41</v>
       </c>
     </row>
@@ -58232,7 +58438,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
@@ -58246,7 +58452,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -58254,7 +58460,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -58262,7 +58468,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -58270,7 +58476,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -58278,7 +58484,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -58286,7 +58492,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -58294,7 +58500,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -58302,7 +58508,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -58310,7 +58516,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -58318,7 +58524,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -58326,7 +58532,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -58334,7 +58540,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -58342,7 +58548,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -58350,7 +58556,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -58358,7 +58564,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -58366,7 +58572,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -58374,7 +58580,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -58382,7 +58588,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -58390,7 +58596,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -58398,7 +58604,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -58406,7 +58612,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -58414,7 +58620,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -58422,7 +58628,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -58430,7 +58636,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -58438,7 +58644,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -58446,7 +58652,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -58454,7 +58660,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -58462,7 +58668,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -58470,7 +58676,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -58478,7 +58684,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -58486,7 +58692,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -58494,7 +58700,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -58502,7 +58708,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -58510,7 +58716,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -58518,7 +58724,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -58526,7 +58732,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -58534,7 +58740,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -58542,7 +58748,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -58550,7 +58756,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -58558,7 +58764,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -58566,7 +58772,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -58574,7 +58780,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -58582,7 +58788,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -58590,7 +58796,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -58598,7 +58804,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -58606,7 +58812,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -58614,7 +58820,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -58622,7 +58828,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -58630,7 +58836,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -58663,37 +58869,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
@@ -58701,7 +58907,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -58710,7 +58916,7 @@
         <v>100.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -58719,13 +58925,13 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K2" s="1">
         <v>100.0</v>
@@ -58739,7 +58945,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1">
         <v>120.0</v>
@@ -58748,7 +58954,7 @@
         <v>500.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1">
         <v>7.0</v>
@@ -58757,13 +58963,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K3" s="1">
         <v>200.0</v>
@@ -58777,7 +58983,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>60.0</v>
@@ -58786,7 +58992,7 @@
         <v>500.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -58795,13 +59001,13 @@
         <v>12.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K4" s="1">
         <v>400.0</v>
@@ -58815,7 +59021,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1">
         <v>250.0</v>
@@ -58824,7 +59030,7 @@
         <v>300.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1">
         <v>2.0</v>
@@ -58833,13 +59039,13 @@
         <v>15.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K5" s="1">
         <v>600.0</v>
@@ -58853,7 +59059,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1">
         <v>999999.0</v>
@@ -58862,7 +59068,7 @@
         <v>999999.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F6" s="1">
         <v>15.0</v>
@@ -58871,13 +59077,13 @@
         <v>999.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K6" s="1">
         <v>9999999.0</v>
@@ -58943,58 +59149,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="J1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="K1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="50">
+      <c r="C2" s="51">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="D2" s="52">
         <v>0.0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="50">
-        <v>9.99999999E8</v>
-      </c>
-      <c r="D2" s="51">
-        <v>0.0</v>
-      </c>
       <c r="E2" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -59016,17 +59222,17 @@
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="50">
+      <c r="A3" s="51">
         <v>1.0</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="50">
+      <c r="B3" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="51">
         <v>150000.0</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>130</v>
+      <c r="D3" s="52" t="s">
+        <v>123</v>
       </c>
       <c r="E3" s="1">
         <v>6.0</v>
@@ -59051,17 +59257,17 @@
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="50">
+      <c r="A4" s="51">
         <v>2.0</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="50">
+      <c r="B4" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="51">
         <v>180000.0</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>132</v>
+      <c r="D4" s="52" t="s">
+        <v>125</v>
       </c>
       <c r="E4" s="1">
         <v>7.0</v>
@@ -59086,17 +59292,17 @@
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="50">
+      <c r="A5" s="51">
         <v>3.0</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>133</v>
+      <c r="B5" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>134</v>
+      <c r="D5" s="52" t="s">
+        <v>127</v>
       </c>
       <c r="E5" s="1">
         <v>8.0</v>
@@ -59121,17 +59327,17 @@
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="50">
+      <c r="A6" s="51">
         <v>4.0</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>135</v>
+      <c r="B6" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>136</v>
+      <c r="D6" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="E6" s="1">
         <v>9.0</v>
@@ -59156,16 +59362,16 @@
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="50">
+      <c r="A7" s="51">
         <v>5.0</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>137</v>
+      <c r="B7" s="51" t="s">
+        <v>130</v>
       </c>
       <c r="C7" s="1">
         <v>250000.0</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="52">
         <v>4.0</v>
       </c>
       <c r="E7" s="1">
@@ -59191,3011 +59397,3011 @@
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="49"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="49"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="49"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="49"/>
-      <c r="D11" s="52"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="50"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="49"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="50"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="49"/>
-      <c r="D13" s="52"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="50"/>
+      <c r="D13" s="53"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="49"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="49"/>
-      <c r="D15" s="52"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="50"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="49"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="50"/>
+      <c r="D16" s="53"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="49"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="50"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="49"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="50"/>
+      <c r="D18" s="53"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="49"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="50"/>
+      <c r="D19" s="53"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="49"/>
-      <c r="D20" s="52"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="50"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="49"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="50"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="D22" s="52"/>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="D23" s="52"/>
+      <c r="D23" s="53"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="D24" s="52"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="D25" s="52"/>
+      <c r="D25" s="53"/>
     </row>
     <row r="26" ht="17.25" customHeight="1">
-      <c r="D26" s="52"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="D27" s="52"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="D28" s="52"/>
+      <c r="D28" s="53"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="D29" s="52"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
-      <c r="D30" s="52"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
-      <c r="D31" s="52"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" ht="17.25" customHeight="1">
-      <c r="D32" s="52"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" ht="17.25" customHeight="1">
-      <c r="D33" s="52"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" ht="17.25" customHeight="1">
-      <c r="D34" s="52"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" ht="17.25" customHeight="1">
-      <c r="D35" s="52"/>
+      <c r="D35" s="53"/>
     </row>
     <row r="36" ht="17.25" customHeight="1">
-      <c r="D36" s="52"/>
+      <c r="D36" s="53"/>
     </row>
     <row r="37" ht="17.25" customHeight="1">
-      <c r="D37" s="52"/>
+      <c r="D37" s="53"/>
     </row>
     <row r="38" ht="17.25" customHeight="1">
-      <c r="D38" s="52"/>
+      <c r="D38" s="53"/>
     </row>
     <row r="39" ht="17.25" customHeight="1">
-      <c r="D39" s="52"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" ht="17.25" customHeight="1">
-      <c r="D40" s="52"/>
+      <c r="D40" s="53"/>
     </row>
     <row r="41" ht="17.25" customHeight="1">
-      <c r="D41" s="52"/>
+      <c r="D41" s="53"/>
     </row>
     <row r="42" ht="17.25" customHeight="1">
-      <c r="D42" s="52"/>
+      <c r="D42" s="53"/>
     </row>
     <row r="43" ht="17.25" customHeight="1">
-      <c r="D43" s="52"/>
+      <c r="D43" s="53"/>
     </row>
     <row r="44" ht="17.25" customHeight="1">
-      <c r="D44" s="52"/>
+      <c r="D44" s="53"/>
     </row>
     <row r="45" ht="17.25" customHeight="1">
-      <c r="D45" s="52"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" ht="17.25" customHeight="1">
-      <c r="D46" s="52"/>
+      <c r="D46" s="53"/>
     </row>
     <row r="47" ht="17.25" customHeight="1">
-      <c r="D47" s="52"/>
+      <c r="D47" s="53"/>
     </row>
     <row r="48" ht="17.25" customHeight="1">
-      <c r="D48" s="52"/>
+      <c r="D48" s="53"/>
     </row>
     <row r="49" ht="17.25" customHeight="1">
-      <c r="D49" s="52"/>
+      <c r="D49" s="53"/>
     </row>
     <row r="50" ht="17.25" customHeight="1">
-      <c r="D50" s="52"/>
+      <c r="D50" s="53"/>
     </row>
     <row r="51" ht="17.25" customHeight="1">
-      <c r="D51" s="52"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" ht="17.25" customHeight="1">
-      <c r="D52" s="52"/>
+      <c r="D52" s="53"/>
     </row>
     <row r="53" ht="17.25" customHeight="1">
-      <c r="D53" s="52"/>
+      <c r="D53" s="53"/>
     </row>
     <row r="54" ht="17.25" customHeight="1">
-      <c r="D54" s="52"/>
+      <c r="D54" s="53"/>
     </row>
     <row r="55" ht="17.25" customHeight="1">
-      <c r="D55" s="52"/>
+      <c r="D55" s="53"/>
     </row>
     <row r="56" ht="17.25" customHeight="1">
-      <c r="D56" s="52"/>
+      <c r="D56" s="53"/>
     </row>
     <row r="57" ht="17.25" customHeight="1">
-      <c r="D57" s="52"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" ht="17.25" customHeight="1">
-      <c r="D58" s="52"/>
+      <c r="D58" s="53"/>
     </row>
     <row r="59" ht="17.25" customHeight="1">
-      <c r="D59" s="52"/>
+      <c r="D59" s="53"/>
     </row>
     <row r="60" ht="17.25" customHeight="1">
-      <c r="D60" s="52"/>
+      <c r="D60" s="53"/>
     </row>
     <row r="61" ht="17.25" customHeight="1">
-      <c r="D61" s="52"/>
+      <c r="D61" s="53"/>
     </row>
     <row r="62" ht="17.25" customHeight="1">
-      <c r="D62" s="52"/>
+      <c r="D62" s="53"/>
     </row>
     <row r="63" ht="17.25" customHeight="1">
-      <c r="D63" s="52"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" ht="17.25" customHeight="1">
-      <c r="D64" s="52"/>
+      <c r="D64" s="53"/>
     </row>
     <row r="65" ht="17.25" customHeight="1">
-      <c r="D65" s="52"/>
+      <c r="D65" s="53"/>
     </row>
     <row r="66" ht="17.25" customHeight="1">
-      <c r="D66" s="52"/>
+      <c r="D66" s="53"/>
     </row>
     <row r="67" ht="17.25" customHeight="1">
-      <c r="D67" s="52"/>
+      <c r="D67" s="53"/>
     </row>
     <row r="68" ht="17.25" customHeight="1">
-      <c r="D68" s="52"/>
+      <c r="D68" s="53"/>
     </row>
     <row r="69" ht="17.25" customHeight="1">
-      <c r="D69" s="52"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" ht="17.25" customHeight="1">
-      <c r="D70" s="52"/>
+      <c r="D70" s="53"/>
     </row>
     <row r="71" ht="17.25" customHeight="1">
-      <c r="D71" s="52"/>
+      <c r="D71" s="53"/>
     </row>
     <row r="72" ht="17.25" customHeight="1">
-      <c r="D72" s="52"/>
+      <c r="D72" s="53"/>
     </row>
     <row r="73" ht="17.25" customHeight="1">
-      <c r="D73" s="52"/>
+      <c r="D73" s="53"/>
     </row>
     <row r="74" ht="17.25" customHeight="1">
-      <c r="D74" s="52"/>
+      <c r="D74" s="53"/>
     </row>
     <row r="75" ht="17.25" customHeight="1">
-      <c r="D75" s="52"/>
+      <c r="D75" s="53"/>
     </row>
     <row r="76" ht="17.25" customHeight="1">
-      <c r="D76" s="52"/>
+      <c r="D76" s="53"/>
     </row>
     <row r="77" ht="17.25" customHeight="1">
-      <c r="D77" s="52"/>
+      <c r="D77" s="53"/>
     </row>
     <row r="78" ht="17.25" customHeight="1">
-      <c r="D78" s="52"/>
+      <c r="D78" s="53"/>
     </row>
     <row r="79" ht="17.25" customHeight="1">
-      <c r="D79" s="52"/>
+      <c r="D79" s="53"/>
     </row>
     <row r="80" ht="17.25" customHeight="1">
-      <c r="D80" s="52"/>
+      <c r="D80" s="53"/>
     </row>
     <row r="81" ht="17.25" customHeight="1">
-      <c r="D81" s="52"/>
+      <c r="D81" s="53"/>
     </row>
     <row r="82" ht="17.25" customHeight="1">
-      <c r="D82" s="52"/>
+      <c r="D82" s="53"/>
     </row>
     <row r="83" ht="17.25" customHeight="1">
-      <c r="D83" s="52"/>
+      <c r="D83" s="53"/>
     </row>
     <row r="84" ht="17.25" customHeight="1">
-      <c r="D84" s="52"/>
+      <c r="D84" s="53"/>
     </row>
     <row r="85" ht="17.25" customHeight="1">
-      <c r="D85" s="52"/>
+      <c r="D85" s="53"/>
     </row>
     <row r="86" ht="17.25" customHeight="1">
-      <c r="D86" s="52"/>
+      <c r="D86" s="53"/>
     </row>
     <row r="87" ht="17.25" customHeight="1">
-      <c r="D87" s="52"/>
+      <c r="D87" s="53"/>
     </row>
     <row r="88" ht="17.25" customHeight="1">
-      <c r="D88" s="52"/>
+      <c r="D88" s="53"/>
     </row>
     <row r="89" ht="17.25" customHeight="1">
-      <c r="D89" s="52"/>
+      <c r="D89" s="53"/>
     </row>
     <row r="90" ht="17.25" customHeight="1">
-      <c r="D90" s="52"/>
+      <c r="D90" s="53"/>
     </row>
     <row r="91" ht="17.25" customHeight="1">
-      <c r="D91" s="52"/>
+      <c r="D91" s="53"/>
     </row>
     <row r="92" ht="17.25" customHeight="1">
-      <c r="D92" s="52"/>
+      <c r="D92" s="53"/>
     </row>
     <row r="93" ht="17.25" customHeight="1">
-      <c r="D93" s="52"/>
+      <c r="D93" s="53"/>
     </row>
     <row r="94" ht="17.25" customHeight="1">
-      <c r="D94" s="52"/>
+      <c r="D94" s="53"/>
     </row>
     <row r="95" ht="17.25" customHeight="1">
-      <c r="D95" s="52"/>
+      <c r="D95" s="53"/>
     </row>
     <row r="96" ht="17.25" customHeight="1">
-      <c r="D96" s="52"/>
+      <c r="D96" s="53"/>
     </row>
     <row r="97" ht="17.25" customHeight="1">
-      <c r="D97" s="52"/>
+      <c r="D97" s="53"/>
     </row>
     <row r="98" ht="17.25" customHeight="1">
-      <c r="D98" s="52"/>
+      <c r="D98" s="53"/>
     </row>
     <row r="99" ht="17.25" customHeight="1">
-      <c r="D99" s="52"/>
+      <c r="D99" s="53"/>
     </row>
     <row r="100" ht="17.25" customHeight="1">
-      <c r="D100" s="52"/>
+      <c r="D100" s="53"/>
     </row>
     <row r="101" ht="17.25" customHeight="1">
-      <c r="D101" s="52"/>
+      <c r="D101" s="53"/>
     </row>
     <row r="102" ht="17.25" customHeight="1">
-      <c r="D102" s="52"/>
+      <c r="D102" s="53"/>
     </row>
     <row r="103" ht="17.25" customHeight="1">
-      <c r="D103" s="52"/>
+      <c r="D103" s="53"/>
     </row>
     <row r="104" ht="17.25" customHeight="1">
-      <c r="D104" s="52"/>
+      <c r="D104" s="53"/>
     </row>
     <row r="105" ht="17.25" customHeight="1">
-      <c r="D105" s="52"/>
+      <c r="D105" s="53"/>
     </row>
     <row r="106" ht="17.25" customHeight="1">
-      <c r="D106" s="52"/>
+      <c r="D106" s="53"/>
     </row>
     <row r="107" ht="17.25" customHeight="1">
-      <c r="D107" s="52"/>
+      <c r="D107" s="53"/>
     </row>
     <row r="108" ht="17.25" customHeight="1">
-      <c r="D108" s="52"/>
+      <c r="D108" s="53"/>
     </row>
     <row r="109" ht="17.25" customHeight="1">
-      <c r="D109" s="52"/>
+      <c r="D109" s="53"/>
     </row>
     <row r="110" ht="17.25" customHeight="1">
-      <c r="D110" s="52"/>
+      <c r="D110" s="53"/>
     </row>
     <row r="111" ht="17.25" customHeight="1">
-      <c r="D111" s="52"/>
+      <c r="D111" s="53"/>
     </row>
     <row r="112" ht="17.25" customHeight="1">
-      <c r="D112" s="52"/>
+      <c r="D112" s="53"/>
     </row>
     <row r="113" ht="17.25" customHeight="1">
-      <c r="D113" s="52"/>
+      <c r="D113" s="53"/>
     </row>
     <row r="114" ht="17.25" customHeight="1">
-      <c r="D114" s="52"/>
+      <c r="D114" s="53"/>
     </row>
     <row r="115" ht="17.25" customHeight="1">
-      <c r="D115" s="52"/>
+      <c r="D115" s="53"/>
     </row>
     <row r="116" ht="17.25" customHeight="1">
-      <c r="D116" s="52"/>
+      <c r="D116" s="53"/>
     </row>
     <row r="117" ht="17.25" customHeight="1">
-      <c r="D117" s="52"/>
+      <c r="D117" s="53"/>
     </row>
     <row r="118" ht="17.25" customHeight="1">
-      <c r="D118" s="52"/>
+      <c r="D118" s="53"/>
     </row>
     <row r="119" ht="17.25" customHeight="1">
-      <c r="D119" s="52"/>
+      <c r="D119" s="53"/>
     </row>
     <row r="120" ht="17.25" customHeight="1">
-      <c r="D120" s="52"/>
+      <c r="D120" s="53"/>
     </row>
     <row r="121" ht="17.25" customHeight="1">
-      <c r="D121" s="52"/>
+      <c r="D121" s="53"/>
     </row>
     <row r="122" ht="17.25" customHeight="1">
-      <c r="D122" s="52"/>
+      <c r="D122" s="53"/>
     </row>
     <row r="123" ht="17.25" customHeight="1">
-      <c r="D123" s="52"/>
+      <c r="D123" s="53"/>
     </row>
     <row r="124" ht="17.25" customHeight="1">
-      <c r="D124" s="52"/>
+      <c r="D124" s="53"/>
     </row>
     <row r="125" ht="17.25" customHeight="1">
-      <c r="D125" s="52"/>
+      <c r="D125" s="53"/>
     </row>
     <row r="126" ht="17.25" customHeight="1">
-      <c r="D126" s="52"/>
+      <c r="D126" s="53"/>
     </row>
     <row r="127" ht="17.25" customHeight="1">
-      <c r="D127" s="52"/>
+      <c r="D127" s="53"/>
     </row>
     <row r="128" ht="17.25" customHeight="1">
-      <c r="D128" s="52"/>
+      <c r="D128" s="53"/>
     </row>
     <row r="129" ht="17.25" customHeight="1">
-      <c r="D129" s="52"/>
+      <c r="D129" s="53"/>
     </row>
     <row r="130" ht="17.25" customHeight="1">
-      <c r="D130" s="52"/>
+      <c r="D130" s="53"/>
     </row>
     <row r="131" ht="17.25" customHeight="1">
-      <c r="D131" s="52"/>
+      <c r="D131" s="53"/>
     </row>
     <row r="132" ht="17.25" customHeight="1">
-      <c r="D132" s="52"/>
+      <c r="D132" s="53"/>
     </row>
     <row r="133" ht="17.25" customHeight="1">
-      <c r="D133" s="52"/>
+      <c r="D133" s="53"/>
     </row>
     <row r="134" ht="17.25" customHeight="1">
-      <c r="D134" s="52"/>
+      <c r="D134" s="53"/>
     </row>
     <row r="135" ht="17.25" customHeight="1">
-      <c r="D135" s="52"/>
+      <c r="D135" s="53"/>
     </row>
     <row r="136" ht="17.25" customHeight="1">
-      <c r="D136" s="52"/>
+      <c r="D136" s="53"/>
     </row>
     <row r="137" ht="17.25" customHeight="1">
-      <c r="D137" s="52"/>
+      <c r="D137" s="53"/>
     </row>
     <row r="138" ht="17.25" customHeight="1">
-      <c r="D138" s="52"/>
+      <c r="D138" s="53"/>
     </row>
     <row r="139" ht="17.25" customHeight="1">
-      <c r="D139" s="52"/>
+      <c r="D139" s="53"/>
     </row>
     <row r="140" ht="17.25" customHeight="1">
-      <c r="D140" s="52"/>
+      <c r="D140" s="53"/>
     </row>
     <row r="141" ht="17.25" customHeight="1">
-      <c r="D141" s="52"/>
+      <c r="D141" s="53"/>
     </row>
     <row r="142" ht="17.25" customHeight="1">
-      <c r="D142" s="52"/>
+      <c r="D142" s="53"/>
     </row>
     <row r="143" ht="17.25" customHeight="1">
-      <c r="D143" s="52"/>
+      <c r="D143" s="53"/>
     </row>
     <row r="144" ht="17.25" customHeight="1">
-      <c r="D144" s="52"/>
+      <c r="D144" s="53"/>
     </row>
     <row r="145" ht="17.25" customHeight="1">
-      <c r="D145" s="52"/>
+      <c r="D145" s="53"/>
     </row>
     <row r="146" ht="17.25" customHeight="1">
-      <c r="D146" s="52"/>
+      <c r="D146" s="53"/>
     </row>
     <row r="147" ht="17.25" customHeight="1">
-      <c r="D147" s="52"/>
+      <c r="D147" s="53"/>
     </row>
     <row r="148" ht="17.25" customHeight="1">
-      <c r="D148" s="52"/>
+      <c r="D148" s="53"/>
     </row>
     <row r="149" ht="17.25" customHeight="1">
-      <c r="D149" s="52"/>
+      <c r="D149" s="53"/>
     </row>
     <row r="150" ht="17.25" customHeight="1">
-      <c r="D150" s="52"/>
+      <c r="D150" s="53"/>
     </row>
     <row r="151" ht="17.25" customHeight="1">
-      <c r="D151" s="52"/>
+      <c r="D151" s="53"/>
     </row>
     <row r="152" ht="17.25" customHeight="1">
-      <c r="D152" s="52"/>
+      <c r="D152" s="53"/>
     </row>
     <row r="153" ht="17.25" customHeight="1">
-      <c r="D153" s="52"/>
+      <c r="D153" s="53"/>
     </row>
     <row r="154" ht="17.25" customHeight="1">
-      <c r="D154" s="52"/>
+      <c r="D154" s="53"/>
     </row>
     <row r="155" ht="17.25" customHeight="1">
-      <c r="D155" s="52"/>
+      <c r="D155" s="53"/>
     </row>
     <row r="156" ht="17.25" customHeight="1">
-      <c r="D156" s="52"/>
+      <c r="D156" s="53"/>
     </row>
     <row r="157" ht="17.25" customHeight="1">
-      <c r="D157" s="52"/>
+      <c r="D157" s="53"/>
     </row>
     <row r="158" ht="17.25" customHeight="1">
-      <c r="D158" s="52"/>
+      <c r="D158" s="53"/>
     </row>
     <row r="159" ht="17.25" customHeight="1">
-      <c r="D159" s="52"/>
+      <c r="D159" s="53"/>
     </row>
     <row r="160" ht="17.25" customHeight="1">
-      <c r="D160" s="52"/>
+      <c r="D160" s="53"/>
     </row>
     <row r="161" ht="17.25" customHeight="1">
-      <c r="D161" s="52"/>
+      <c r="D161" s="53"/>
     </row>
     <row r="162" ht="17.25" customHeight="1">
-      <c r="D162" s="52"/>
+      <c r="D162" s="53"/>
     </row>
     <row r="163" ht="17.25" customHeight="1">
-      <c r="D163" s="52"/>
+      <c r="D163" s="53"/>
     </row>
     <row r="164" ht="17.25" customHeight="1">
-      <c r="D164" s="52"/>
+      <c r="D164" s="53"/>
     </row>
     <row r="165" ht="17.25" customHeight="1">
-      <c r="D165" s="52"/>
+      <c r="D165" s="53"/>
     </row>
     <row r="166" ht="17.25" customHeight="1">
-      <c r="D166" s="52"/>
+      <c r="D166" s="53"/>
     </row>
     <row r="167" ht="17.25" customHeight="1">
-      <c r="D167" s="52"/>
+      <c r="D167" s="53"/>
     </row>
     <row r="168" ht="17.25" customHeight="1">
-      <c r="D168" s="52"/>
+      <c r="D168" s="53"/>
     </row>
     <row r="169" ht="17.25" customHeight="1">
-      <c r="D169" s="52"/>
+      <c r="D169" s="53"/>
     </row>
     <row r="170" ht="17.25" customHeight="1">
-      <c r="D170" s="52"/>
+      <c r="D170" s="53"/>
     </row>
     <row r="171" ht="17.25" customHeight="1">
-      <c r="D171" s="52"/>
+      <c r="D171" s="53"/>
     </row>
     <row r="172" ht="17.25" customHeight="1">
-      <c r="D172" s="52"/>
+      <c r="D172" s="53"/>
     </row>
     <row r="173" ht="17.25" customHeight="1">
-      <c r="D173" s="52"/>
+      <c r="D173" s="53"/>
     </row>
     <row r="174" ht="17.25" customHeight="1">
-      <c r="D174" s="52"/>
+      <c r="D174" s="53"/>
     </row>
     <row r="175" ht="17.25" customHeight="1">
-      <c r="D175" s="52"/>
+      <c r="D175" s="53"/>
     </row>
     <row r="176" ht="17.25" customHeight="1">
-      <c r="D176" s="52"/>
+      <c r="D176" s="53"/>
     </row>
     <row r="177" ht="17.25" customHeight="1">
-      <c r="D177" s="52"/>
+      <c r="D177" s="53"/>
     </row>
     <row r="178" ht="17.25" customHeight="1">
-      <c r="D178" s="52"/>
+      <c r="D178" s="53"/>
     </row>
     <row r="179" ht="17.25" customHeight="1">
-      <c r="D179" s="52"/>
+      <c r="D179" s="53"/>
     </row>
     <row r="180" ht="17.25" customHeight="1">
-      <c r="D180" s="52"/>
+      <c r="D180" s="53"/>
     </row>
     <row r="181" ht="17.25" customHeight="1">
-      <c r="D181" s="52"/>
+      <c r="D181" s="53"/>
     </row>
     <row r="182" ht="17.25" customHeight="1">
-      <c r="D182" s="52"/>
+      <c r="D182" s="53"/>
     </row>
     <row r="183" ht="17.25" customHeight="1">
-      <c r="D183" s="52"/>
+      <c r="D183" s="53"/>
     </row>
     <row r="184" ht="17.25" customHeight="1">
-      <c r="D184" s="52"/>
+      <c r="D184" s="53"/>
     </row>
     <row r="185" ht="17.25" customHeight="1">
-      <c r="D185" s="52"/>
+      <c r="D185" s="53"/>
     </row>
     <row r="186" ht="17.25" customHeight="1">
-      <c r="D186" s="52"/>
+      <c r="D186" s="53"/>
     </row>
     <row r="187" ht="17.25" customHeight="1">
-      <c r="D187" s="52"/>
+      <c r="D187" s="53"/>
     </row>
     <row r="188" ht="17.25" customHeight="1">
-      <c r="D188" s="52"/>
+      <c r="D188" s="53"/>
     </row>
     <row r="189" ht="17.25" customHeight="1">
-      <c r="D189" s="52"/>
+      <c r="D189" s="53"/>
     </row>
     <row r="190" ht="17.25" customHeight="1">
-      <c r="D190" s="52"/>
+      <c r="D190" s="53"/>
     </row>
     <row r="191" ht="17.25" customHeight="1">
-      <c r="D191" s="52"/>
+      <c r="D191" s="53"/>
     </row>
     <row r="192" ht="17.25" customHeight="1">
-      <c r="D192" s="52"/>
+      <c r="D192" s="53"/>
     </row>
     <row r="193" ht="17.25" customHeight="1">
-      <c r="D193" s="52"/>
+      <c r="D193" s="53"/>
     </row>
     <row r="194" ht="17.25" customHeight="1">
-      <c r="D194" s="52"/>
+      <c r="D194" s="53"/>
     </row>
     <row r="195" ht="17.25" customHeight="1">
-      <c r="D195" s="52"/>
+      <c r="D195" s="53"/>
     </row>
     <row r="196" ht="17.25" customHeight="1">
-      <c r="D196" s="52"/>
+      <c r="D196" s="53"/>
     </row>
     <row r="197" ht="17.25" customHeight="1">
-      <c r="D197" s="52"/>
+      <c r="D197" s="53"/>
     </row>
     <row r="198" ht="17.25" customHeight="1">
-      <c r="D198" s="52"/>
+      <c r="D198" s="53"/>
     </row>
     <row r="199" ht="17.25" customHeight="1">
-      <c r="D199" s="52"/>
+      <c r="D199" s="53"/>
     </row>
     <row r="200" ht="17.25" customHeight="1">
-      <c r="D200" s="52"/>
+      <c r="D200" s="53"/>
     </row>
     <row r="201" ht="17.25" customHeight="1">
-      <c r="D201" s="52"/>
+      <c r="D201" s="53"/>
     </row>
     <row r="202" ht="17.25" customHeight="1">
-      <c r="D202" s="52"/>
+      <c r="D202" s="53"/>
     </row>
     <row r="203" ht="17.25" customHeight="1">
-      <c r="D203" s="52"/>
+      <c r="D203" s="53"/>
     </row>
     <row r="204" ht="17.25" customHeight="1">
-      <c r="D204" s="52"/>
+      <c r="D204" s="53"/>
     </row>
     <row r="205" ht="17.25" customHeight="1">
-      <c r="D205" s="52"/>
+      <c r="D205" s="53"/>
     </row>
     <row r="206" ht="17.25" customHeight="1">
-      <c r="D206" s="52"/>
+      <c r="D206" s="53"/>
     </row>
     <row r="207" ht="17.25" customHeight="1">
-      <c r="D207" s="52"/>
+      <c r="D207" s="53"/>
     </row>
     <row r="208" ht="17.25" customHeight="1">
-      <c r="D208" s="52"/>
+      <c r="D208" s="53"/>
     </row>
     <row r="209" ht="17.25" customHeight="1">
-      <c r="D209" s="52"/>
+      <c r="D209" s="53"/>
     </row>
     <row r="210" ht="17.25" customHeight="1">
-      <c r="D210" s="52"/>
+      <c r="D210" s="53"/>
     </row>
     <row r="211" ht="17.25" customHeight="1">
-      <c r="D211" s="52"/>
+      <c r="D211" s="53"/>
     </row>
     <row r="212" ht="17.25" customHeight="1">
-      <c r="D212" s="52"/>
+      <c r="D212" s="53"/>
     </row>
     <row r="213" ht="17.25" customHeight="1">
-      <c r="D213" s="52"/>
+      <c r="D213" s="53"/>
     </row>
     <row r="214" ht="17.25" customHeight="1">
-      <c r="D214" s="52"/>
+      <c r="D214" s="53"/>
     </row>
     <row r="215" ht="17.25" customHeight="1">
-      <c r="D215" s="52"/>
+      <c r="D215" s="53"/>
     </row>
     <row r="216" ht="17.25" customHeight="1">
-      <c r="D216" s="52"/>
+      <c r="D216" s="53"/>
     </row>
     <row r="217" ht="17.25" customHeight="1">
-      <c r="D217" s="52"/>
+      <c r="D217" s="53"/>
     </row>
     <row r="218" ht="17.25" customHeight="1">
-      <c r="D218" s="52"/>
+      <c r="D218" s="53"/>
     </row>
     <row r="219" ht="17.25" customHeight="1">
-      <c r="D219" s="52"/>
+      <c r="D219" s="53"/>
     </row>
     <row r="220" ht="17.25" customHeight="1">
-      <c r="D220" s="52"/>
+      <c r="D220" s="53"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="D221" s="52"/>
+      <c r="D221" s="53"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="D222" s="52"/>
+      <c r="D222" s="53"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="D223" s="52"/>
+      <c r="D223" s="53"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="D224" s="52"/>
+      <c r="D224" s="53"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="D225" s="52"/>
+      <c r="D225" s="53"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="D226" s="52"/>
+      <c r="D226" s="53"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="D227" s="52"/>
+      <c r="D227" s="53"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="D228" s="52"/>
+      <c r="D228" s="53"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="D229" s="52"/>
+      <c r="D229" s="53"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="D230" s="52"/>
+      <c r="D230" s="53"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="D231" s="52"/>
+      <c r="D231" s="53"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="D232" s="52"/>
+      <c r="D232" s="53"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="D233" s="52"/>
+      <c r="D233" s="53"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="D234" s="52"/>
+      <c r="D234" s="53"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="D235" s="52"/>
+      <c r="D235" s="53"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="D236" s="52"/>
+      <c r="D236" s="53"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="D237" s="52"/>
+      <c r="D237" s="53"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="D238" s="52"/>
+      <c r="D238" s="53"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="D239" s="52"/>
+      <c r="D239" s="53"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="D240" s="52"/>
+      <c r="D240" s="53"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="D241" s="52"/>
+      <c r="D241" s="53"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="D242" s="52"/>
+      <c r="D242" s="53"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="D243" s="52"/>
+      <c r="D243" s="53"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="D244" s="52"/>
+      <c r="D244" s="53"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="D245" s="52"/>
+      <c r="D245" s="53"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="D246" s="52"/>
+      <c r="D246" s="53"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="D247" s="52"/>
+      <c r="D247" s="53"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="D248" s="52"/>
+      <c r="D248" s="53"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="D249" s="52"/>
+      <c r="D249" s="53"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="D250" s="52"/>
+      <c r="D250" s="53"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="D251" s="52"/>
+      <c r="D251" s="53"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="D252" s="52"/>
+      <c r="D252" s="53"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="D253" s="52"/>
+      <c r="D253" s="53"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="D254" s="52"/>
+      <c r="D254" s="53"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="52"/>
+      <c r="D255" s="53"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="52"/>
+      <c r="D256" s="53"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="52"/>
+      <c r="D257" s="53"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="52"/>
+      <c r="D258" s="53"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="52"/>
+      <c r="D259" s="53"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="52"/>
+      <c r="D260" s="53"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="52"/>
+      <c r="D261" s="53"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="52"/>
+      <c r="D262" s="53"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="52"/>
+      <c r="D263" s="53"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="52"/>
+      <c r="D264" s="53"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="52"/>
+      <c r="D265" s="53"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="52"/>
+      <c r="D266" s="53"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="52"/>
+      <c r="D267" s="53"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="52"/>
+      <c r="D268" s="53"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="52"/>
+      <c r="D269" s="53"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="52"/>
+      <c r="D270" s="53"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="52"/>
+      <c r="D271" s="53"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="52"/>
+      <c r="D272" s="53"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="52"/>
+      <c r="D273" s="53"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="52"/>
+      <c r="D274" s="53"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="52"/>
+      <c r="D275" s="53"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="52"/>
+      <c r="D276" s="53"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="52"/>
+      <c r="D277" s="53"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="52"/>
+      <c r="D278" s="53"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="52"/>
+      <c r="D279" s="53"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="52"/>
+      <c r="D280" s="53"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="52"/>
+      <c r="D281" s="53"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="52"/>
+      <c r="D282" s="53"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="52"/>
+      <c r="D283" s="53"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="52"/>
+      <c r="D284" s="53"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="52"/>
+      <c r="D285" s="53"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="52"/>
+      <c r="D286" s="53"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="52"/>
+      <c r="D287" s="53"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="52"/>
+      <c r="D288" s="53"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="52"/>
+      <c r="D289" s="53"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="52"/>
+      <c r="D290" s="53"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="52"/>
+      <c r="D291" s="53"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="52"/>
+      <c r="D292" s="53"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="52"/>
+      <c r="D293" s="53"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="52"/>
+      <c r="D294" s="53"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="52"/>
+      <c r="D295" s="53"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="52"/>
+      <c r="D296" s="53"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="52"/>
+      <c r="D297" s="53"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="52"/>
+      <c r="D298" s="53"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="52"/>
+      <c r="D299" s="53"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="52"/>
+      <c r="D300" s="53"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="52"/>
+      <c r="D301" s="53"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="52"/>
+      <c r="D302" s="53"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="52"/>
+      <c r="D303" s="53"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="52"/>
+      <c r="D304" s="53"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="52"/>
+      <c r="D305" s="53"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="52"/>
+      <c r="D306" s="53"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="52"/>
+      <c r="D307" s="53"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="52"/>
+      <c r="D308" s="53"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="52"/>
+      <c r="D309" s="53"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="52"/>
+      <c r="D310" s="53"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="52"/>
+      <c r="D311" s="53"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="52"/>
+      <c r="D312" s="53"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="52"/>
+      <c r="D313" s="53"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="52"/>
+      <c r="D314" s="53"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="52"/>
+      <c r="D315" s="53"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="52"/>
+      <c r="D316" s="53"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="52"/>
+      <c r="D317" s="53"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="52"/>
+      <c r="D318" s="53"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="52"/>
+      <c r="D319" s="53"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="52"/>
+      <c r="D320" s="53"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="52"/>
+      <c r="D321" s="53"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="52"/>
+      <c r="D322" s="53"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="52"/>
+      <c r="D323" s="53"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="52"/>
+      <c r="D324" s="53"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="52"/>
+      <c r="D325" s="53"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="52"/>
+      <c r="D326" s="53"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="52"/>
+      <c r="D327" s="53"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="52"/>
+      <c r="D328" s="53"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="52"/>
+      <c r="D329" s="53"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="52"/>
+      <c r="D330" s="53"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="52"/>
+      <c r="D331" s="53"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="52"/>
+      <c r="D332" s="53"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="52"/>
+      <c r="D333" s="53"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="52"/>
+      <c r="D334" s="53"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="52"/>
+      <c r="D335" s="53"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="52"/>
+      <c r="D336" s="53"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="52"/>
+      <c r="D337" s="53"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="52"/>
+      <c r="D338" s="53"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="52"/>
+      <c r="D339" s="53"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="52"/>
+      <c r="D340" s="53"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="52"/>
+      <c r="D341" s="53"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="52"/>
+      <c r="D342" s="53"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="52"/>
+      <c r="D343" s="53"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="52"/>
+      <c r="D344" s="53"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="52"/>
+      <c r="D345" s="53"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="52"/>
+      <c r="D346" s="53"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="52"/>
+      <c r="D347" s="53"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="52"/>
+      <c r="D348" s="53"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="52"/>
+      <c r="D349" s="53"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="52"/>
+      <c r="D350" s="53"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="52"/>
+      <c r="D351" s="53"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="D352" s="52"/>
+      <c r="D352" s="53"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="D353" s="52"/>
+      <c r="D353" s="53"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="D354" s="52"/>
+      <c r="D354" s="53"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="D355" s="52"/>
+      <c r="D355" s="53"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="D356" s="52"/>
+      <c r="D356" s="53"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="D357" s="52"/>
+      <c r="D357" s="53"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="D358" s="52"/>
+      <c r="D358" s="53"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="D359" s="52"/>
+      <c r="D359" s="53"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="D360" s="52"/>
+      <c r="D360" s="53"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="D361" s="52"/>
+      <c r="D361" s="53"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="D362" s="52"/>
+      <c r="D362" s="53"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="D363" s="52"/>
+      <c r="D363" s="53"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="D364" s="52"/>
+      <c r="D364" s="53"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="D365" s="52"/>
+      <c r="D365" s="53"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="D366" s="52"/>
+      <c r="D366" s="53"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="D367" s="52"/>
+      <c r="D367" s="53"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="D368" s="52"/>
+      <c r="D368" s="53"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="D369" s="52"/>
+      <c r="D369" s="53"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="D370" s="52"/>
+      <c r="D370" s="53"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="D371" s="52"/>
+      <c r="D371" s="53"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="D372" s="52"/>
+      <c r="D372" s="53"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="D373" s="52"/>
+      <c r="D373" s="53"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="D374" s="52"/>
+      <c r="D374" s="53"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="D375" s="52"/>
+      <c r="D375" s="53"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="D376" s="52"/>
+      <c r="D376" s="53"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="D377" s="52"/>
+      <c r="D377" s="53"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="D378" s="52"/>
+      <c r="D378" s="53"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="D379" s="52"/>
+      <c r="D379" s="53"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="D380" s="52"/>
+      <c r="D380" s="53"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="D381" s="52"/>
+      <c r="D381" s="53"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="D382" s="52"/>
+      <c r="D382" s="53"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="D383" s="52"/>
+      <c r="D383" s="53"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="D384" s="52"/>
+      <c r="D384" s="53"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="D385" s="52"/>
+      <c r="D385" s="53"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="D386" s="52"/>
+      <c r="D386" s="53"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="D387" s="52"/>
+      <c r="D387" s="53"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="D388" s="52"/>
+      <c r="D388" s="53"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="D389" s="52"/>
+      <c r="D389" s="53"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="D390" s="52"/>
+      <c r="D390" s="53"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="D391" s="52"/>
+      <c r="D391" s="53"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="D392" s="52"/>
+      <c r="D392" s="53"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="D393" s="52"/>
+      <c r="D393" s="53"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="D394" s="52"/>
+      <c r="D394" s="53"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="D395" s="52"/>
+      <c r="D395" s="53"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="D396" s="52"/>
+      <c r="D396" s="53"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="D397" s="52"/>
+      <c r="D397" s="53"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="D398" s="52"/>
+      <c r="D398" s="53"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="D399" s="52"/>
+      <c r="D399" s="53"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="D400" s="52"/>
+      <c r="D400" s="53"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="D401" s="52"/>
+      <c r="D401" s="53"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="D402" s="52"/>
+      <c r="D402" s="53"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="D403" s="52"/>
+      <c r="D403" s="53"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="D404" s="52"/>
+      <c r="D404" s="53"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="D405" s="52"/>
+      <c r="D405" s="53"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="D406" s="52"/>
+      <c r="D406" s="53"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="D407" s="52"/>
+      <c r="D407" s="53"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="D408" s="52"/>
+      <c r="D408" s="53"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="D409" s="52"/>
+      <c r="D409" s="53"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="D410" s="52"/>
+      <c r="D410" s="53"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="D411" s="52"/>
+      <c r="D411" s="53"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="D412" s="52"/>
+      <c r="D412" s="53"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="D413" s="52"/>
+      <c r="D413" s="53"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="D414" s="52"/>
+      <c r="D414" s="53"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="D415" s="52"/>
+      <c r="D415" s="53"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="D416" s="52"/>
+      <c r="D416" s="53"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="D417" s="52"/>
+      <c r="D417" s="53"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="D418" s="52"/>
+      <c r="D418" s="53"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="D419" s="52"/>
+      <c r="D419" s="53"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="D420" s="52"/>
+      <c r="D420" s="53"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="D421" s="52"/>
+      <c r="D421" s="53"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="D422" s="52"/>
+      <c r="D422" s="53"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="D423" s="52"/>
+      <c r="D423" s="53"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="D424" s="52"/>
+      <c r="D424" s="53"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="D425" s="52"/>
+      <c r="D425" s="53"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="D426" s="52"/>
+      <c r="D426" s="53"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="D427" s="52"/>
+      <c r="D427" s="53"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="D428" s="52"/>
+      <c r="D428" s="53"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="D429" s="52"/>
+      <c r="D429" s="53"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="D430" s="52"/>
+      <c r="D430" s="53"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="D431" s="52"/>
+      <c r="D431" s="53"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="D432" s="52"/>
+      <c r="D432" s="53"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="D433" s="52"/>
+      <c r="D433" s="53"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="D434" s="52"/>
+      <c r="D434" s="53"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="D435" s="52"/>
+      <c r="D435" s="53"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="D436" s="52"/>
+      <c r="D436" s="53"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="D437" s="52"/>
+      <c r="D437" s="53"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="D438" s="52"/>
+      <c r="D438" s="53"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="D439" s="52"/>
+      <c r="D439" s="53"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="D440" s="52"/>
+      <c r="D440" s="53"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="D441" s="52"/>
+      <c r="D441" s="53"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="D442" s="52"/>
+      <c r="D442" s="53"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="D443" s="52"/>
+      <c r="D443" s="53"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="D444" s="52"/>
+      <c r="D444" s="53"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="D445" s="52"/>
+      <c r="D445" s="53"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="D446" s="52"/>
+      <c r="D446" s="53"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="D447" s="52"/>
+      <c r="D447" s="53"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="D448" s="52"/>
+      <c r="D448" s="53"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="D449" s="52"/>
+      <c r="D449" s="53"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="D450" s="52"/>
+      <c r="D450" s="53"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="D451" s="52"/>
+      <c r="D451" s="53"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="D452" s="52"/>
+      <c r="D452" s="53"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="D453" s="52"/>
+      <c r="D453" s="53"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="D454" s="52"/>
+      <c r="D454" s="53"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="D455" s="52"/>
+      <c r="D455" s="53"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="D456" s="52"/>
+      <c r="D456" s="53"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="D457" s="52"/>
+      <c r="D457" s="53"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="D458" s="52"/>
+      <c r="D458" s="53"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="D459" s="52"/>
+      <c r="D459" s="53"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="D460" s="52"/>
+      <c r="D460" s="53"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="D461" s="52"/>
+      <c r="D461" s="53"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="D462" s="52"/>
+      <c r="D462" s="53"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="D463" s="52"/>
+      <c r="D463" s="53"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="D464" s="52"/>
+      <c r="D464" s="53"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="D465" s="52"/>
+      <c r="D465" s="53"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="D466" s="52"/>
+      <c r="D466" s="53"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="D467" s="52"/>
+      <c r="D467" s="53"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="D468" s="52"/>
+      <c r="D468" s="53"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="D469" s="52"/>
+      <c r="D469" s="53"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="D470" s="52"/>
+      <c r="D470" s="53"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="D471" s="52"/>
+      <c r="D471" s="53"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="D472" s="52"/>
+      <c r="D472" s="53"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="D473" s="52"/>
+      <c r="D473" s="53"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="D474" s="52"/>
+      <c r="D474" s="53"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="D475" s="52"/>
+      <c r="D475" s="53"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="D476" s="52"/>
+      <c r="D476" s="53"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="D477" s="52"/>
+      <c r="D477" s="53"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="D478" s="52"/>
+      <c r="D478" s="53"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="D479" s="52"/>
+      <c r="D479" s="53"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="D480" s="52"/>
+      <c r="D480" s="53"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="D481" s="52"/>
+      <c r="D481" s="53"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="D482" s="52"/>
+      <c r="D482" s="53"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="D483" s="52"/>
+      <c r="D483" s="53"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="D484" s="52"/>
+      <c r="D484" s="53"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="D485" s="52"/>
+      <c r="D485" s="53"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="D486" s="52"/>
+      <c r="D486" s="53"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="D487" s="52"/>
+      <c r="D487" s="53"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="D488" s="52"/>
+      <c r="D488" s="53"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="D489" s="52"/>
+      <c r="D489" s="53"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="D490" s="52"/>
+      <c r="D490" s="53"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="D491" s="52"/>
+      <c r="D491" s="53"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="D492" s="52"/>
+      <c r="D492" s="53"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="D493" s="52"/>
+      <c r="D493" s="53"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="D494" s="52"/>
+      <c r="D494" s="53"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="D495" s="52"/>
+      <c r="D495" s="53"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="D496" s="52"/>
+      <c r="D496" s="53"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="D497" s="52"/>
+      <c r="D497" s="53"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="D498" s="52"/>
+      <c r="D498" s="53"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="D499" s="52"/>
+      <c r="D499" s="53"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="D500" s="52"/>
+      <c r="D500" s="53"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="D501" s="52"/>
+      <c r="D501" s="53"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="D502" s="52"/>
+      <c r="D502" s="53"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="D503" s="52"/>
+      <c r="D503" s="53"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="D504" s="52"/>
+      <c r="D504" s="53"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="D505" s="52"/>
+      <c r="D505" s="53"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="D506" s="52"/>
+      <c r="D506" s="53"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="D507" s="52"/>
+      <c r="D507" s="53"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="D508" s="52"/>
+      <c r="D508" s="53"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="D509" s="52"/>
+      <c r="D509" s="53"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="D510" s="52"/>
+      <c r="D510" s="53"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="D511" s="52"/>
+      <c r="D511" s="53"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="D512" s="52"/>
+      <c r="D512" s="53"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="D513" s="52"/>
+      <c r="D513" s="53"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="D514" s="52"/>
+      <c r="D514" s="53"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="D515" s="52"/>
+      <c r="D515" s="53"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="D516" s="52"/>
+      <c r="D516" s="53"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="D517" s="52"/>
+      <c r="D517" s="53"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="D518" s="52"/>
+      <c r="D518" s="53"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="D519" s="52"/>
+      <c r="D519" s="53"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="D520" s="52"/>
+      <c r="D520" s="53"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="D521" s="52"/>
+      <c r="D521" s="53"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="D522" s="52"/>
+      <c r="D522" s="53"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="D523" s="52"/>
+      <c r="D523" s="53"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="D524" s="52"/>
+      <c r="D524" s="53"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="D525" s="52"/>
+      <c r="D525" s="53"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="D526" s="52"/>
+      <c r="D526" s="53"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="D527" s="52"/>
+      <c r="D527" s="53"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="D528" s="52"/>
+      <c r="D528" s="53"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="D529" s="52"/>
+      <c r="D529" s="53"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="D530" s="52"/>
+      <c r="D530" s="53"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="D531" s="52"/>
+      <c r="D531" s="53"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="D532" s="52"/>
+      <c r="D532" s="53"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="D533" s="52"/>
+      <c r="D533" s="53"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="D534" s="52"/>
+      <c r="D534" s="53"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="D535" s="52"/>
+      <c r="D535" s="53"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="D536" s="52"/>
+      <c r="D536" s="53"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="D537" s="52"/>
+      <c r="D537" s="53"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="D538" s="52"/>
+      <c r="D538" s="53"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="D539" s="52"/>
+      <c r="D539" s="53"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="D540" s="52"/>
+      <c r="D540" s="53"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="D541" s="52"/>
+      <c r="D541" s="53"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="D542" s="52"/>
+      <c r="D542" s="53"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="D543" s="52"/>
+      <c r="D543" s="53"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="D544" s="52"/>
+      <c r="D544" s="53"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="D545" s="52"/>
+      <c r="D545" s="53"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="D546" s="52"/>
+      <c r="D546" s="53"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="D547" s="52"/>
+      <c r="D547" s="53"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="D548" s="52"/>
+      <c r="D548" s="53"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="D549" s="52"/>
+      <c r="D549" s="53"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="D550" s="52"/>
+      <c r="D550" s="53"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="D551" s="52"/>
+      <c r="D551" s="53"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="D552" s="52"/>
+      <c r="D552" s="53"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="D553" s="52"/>
+      <c r="D553" s="53"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="D554" s="52"/>
+      <c r="D554" s="53"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="D555" s="52"/>
+      <c r="D555" s="53"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="D556" s="52"/>
+      <c r="D556" s="53"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="D557" s="52"/>
+      <c r="D557" s="53"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="D558" s="52"/>
+      <c r="D558" s="53"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="D559" s="52"/>
+      <c r="D559" s="53"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="D560" s="52"/>
+      <c r="D560" s="53"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="D561" s="52"/>
+      <c r="D561" s="53"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="D562" s="52"/>
+      <c r="D562" s="53"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="D563" s="52"/>
+      <c r="D563" s="53"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="D564" s="52"/>
+      <c r="D564" s="53"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="D565" s="52"/>
+      <c r="D565" s="53"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="D566" s="52"/>
+      <c r="D566" s="53"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="D567" s="52"/>
+      <c r="D567" s="53"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="D568" s="52"/>
+      <c r="D568" s="53"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="D569" s="52"/>
+      <c r="D569" s="53"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="D570" s="52"/>
+      <c r="D570" s="53"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="D571" s="52"/>
+      <c r="D571" s="53"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="D572" s="52"/>
+      <c r="D572" s="53"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="D573" s="52"/>
+      <c r="D573" s="53"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="D574" s="52"/>
+      <c r="D574" s="53"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="D575" s="52"/>
+      <c r="D575" s="53"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="D576" s="52"/>
+      <c r="D576" s="53"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="D577" s="52"/>
+      <c r="D577" s="53"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="D578" s="52"/>
+      <c r="D578" s="53"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="D579" s="52"/>
+      <c r="D579" s="53"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="D580" s="52"/>
+      <c r="D580" s="53"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="D581" s="52"/>
+      <c r="D581" s="53"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="D582" s="52"/>
+      <c r="D582" s="53"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="D583" s="52"/>
+      <c r="D583" s="53"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="D584" s="52"/>
+      <c r="D584" s="53"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="D585" s="52"/>
+      <c r="D585" s="53"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="D586" s="52"/>
+      <c r="D586" s="53"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="D587" s="52"/>
+      <c r="D587" s="53"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="D588" s="52"/>
+      <c r="D588" s="53"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="D589" s="52"/>
+      <c r="D589" s="53"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="D590" s="52"/>
+      <c r="D590" s="53"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="D591" s="52"/>
+      <c r="D591" s="53"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="D592" s="52"/>
+      <c r="D592" s="53"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="D593" s="52"/>
+      <c r="D593" s="53"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="D594" s="52"/>
+      <c r="D594" s="53"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="D595" s="52"/>
+      <c r="D595" s="53"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="D596" s="52"/>
+      <c r="D596" s="53"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="D597" s="52"/>
+      <c r="D597" s="53"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="D598" s="52"/>
+      <c r="D598" s="53"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="D599" s="52"/>
+      <c r="D599" s="53"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="D600" s="52"/>
+      <c r="D600" s="53"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="D601" s="52"/>
+      <c r="D601" s="53"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="D602" s="52"/>
+      <c r="D602" s="53"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="D603" s="52"/>
+      <c r="D603" s="53"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="D604" s="52"/>
+      <c r="D604" s="53"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="D605" s="52"/>
+      <c r="D605" s="53"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="D606" s="52"/>
+      <c r="D606" s="53"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="D607" s="52"/>
+      <c r="D607" s="53"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="D608" s="52"/>
+      <c r="D608" s="53"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="D609" s="52"/>
+      <c r="D609" s="53"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="D610" s="52"/>
+      <c r="D610" s="53"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="D611" s="52"/>
+      <c r="D611" s="53"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="D612" s="52"/>
+      <c r="D612" s="53"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="D613" s="52"/>
+      <c r="D613" s="53"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="D614" s="52"/>
+      <c r="D614" s="53"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="D615" s="52"/>
+      <c r="D615" s="53"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="D616" s="52"/>
+      <c r="D616" s="53"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="D617" s="52"/>
+      <c r="D617" s="53"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="D618" s="52"/>
+      <c r="D618" s="53"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="D619" s="52"/>
+      <c r="D619" s="53"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="D620" s="52"/>
+      <c r="D620" s="53"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="D621" s="52"/>
+      <c r="D621" s="53"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="D622" s="52"/>
+      <c r="D622" s="53"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="D623" s="52"/>
+      <c r="D623" s="53"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="D624" s="52"/>
+      <c r="D624" s="53"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="D625" s="52"/>
+      <c r="D625" s="53"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="D626" s="52"/>
+      <c r="D626" s="53"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="D627" s="52"/>
+      <c r="D627" s="53"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="D628" s="52"/>
+      <c r="D628" s="53"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="D629" s="52"/>
+      <c r="D629" s="53"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="D630" s="52"/>
+      <c r="D630" s="53"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="D631" s="52"/>
+      <c r="D631" s="53"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="D632" s="52"/>
+      <c r="D632" s="53"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="D633" s="52"/>
+      <c r="D633" s="53"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="D634" s="52"/>
+      <c r="D634" s="53"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="D635" s="52"/>
+      <c r="D635" s="53"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="D636" s="52"/>
+      <c r="D636" s="53"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="D637" s="52"/>
+      <c r="D637" s="53"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="D638" s="52"/>
+      <c r="D638" s="53"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="D639" s="52"/>
+      <c r="D639" s="53"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="D640" s="52"/>
+      <c r="D640" s="53"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="D641" s="52"/>
+      <c r="D641" s="53"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="D642" s="52"/>
+      <c r="D642" s="53"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="D643" s="52"/>
+      <c r="D643" s="53"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="D644" s="52"/>
+      <c r="D644" s="53"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="D645" s="52"/>
+      <c r="D645" s="53"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="D646" s="52"/>
+      <c r="D646" s="53"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="D647" s="52"/>
+      <c r="D647" s="53"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="D648" s="52"/>
+      <c r="D648" s="53"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="D649" s="52"/>
+      <c r="D649" s="53"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="D650" s="52"/>
+      <c r="D650" s="53"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="D651" s="52"/>
+      <c r="D651" s="53"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="D652" s="52"/>
+      <c r="D652" s="53"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="D653" s="52"/>
+      <c r="D653" s="53"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="D654" s="52"/>
+      <c r="D654" s="53"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="D655" s="52"/>
+      <c r="D655" s="53"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="D656" s="52"/>
+      <c r="D656" s="53"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="D657" s="52"/>
+      <c r="D657" s="53"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="D658" s="52"/>
+      <c r="D658" s="53"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="D659" s="52"/>
+      <c r="D659" s="53"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="D660" s="52"/>
+      <c r="D660" s="53"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="D661" s="52"/>
+      <c r="D661" s="53"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="D662" s="52"/>
+      <c r="D662" s="53"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="D663" s="52"/>
+      <c r="D663" s="53"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="D664" s="52"/>
+      <c r="D664" s="53"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="D665" s="52"/>
+      <c r="D665" s="53"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="D666" s="52"/>
+      <c r="D666" s="53"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="D667" s="52"/>
+      <c r="D667" s="53"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="D668" s="52"/>
+      <c r="D668" s="53"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="D669" s="52"/>
+      <c r="D669" s="53"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="D670" s="52"/>
+      <c r="D670" s="53"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="D671" s="52"/>
+      <c r="D671" s="53"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="D672" s="52"/>
+      <c r="D672" s="53"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="D673" s="52"/>
+      <c r="D673" s="53"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="D674" s="52"/>
+      <c r="D674" s="53"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="D675" s="52"/>
+      <c r="D675" s="53"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="D676" s="52"/>
+      <c r="D676" s="53"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="D677" s="52"/>
+      <c r="D677" s="53"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="D678" s="52"/>
+      <c r="D678" s="53"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="D679" s="52"/>
+      <c r="D679" s="53"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="D680" s="52"/>
+      <c r="D680" s="53"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="D681" s="52"/>
+      <c r="D681" s="53"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="D682" s="52"/>
+      <c r="D682" s="53"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="D683" s="52"/>
+      <c r="D683" s="53"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="D684" s="52"/>
+      <c r="D684" s="53"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="D685" s="52"/>
+      <c r="D685" s="53"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="D686" s="52"/>
+      <c r="D686" s="53"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="D687" s="52"/>
+      <c r="D687" s="53"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="D688" s="52"/>
+      <c r="D688" s="53"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="D689" s="52"/>
+      <c r="D689" s="53"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="D690" s="52"/>
+      <c r="D690" s="53"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="D691" s="52"/>
+      <c r="D691" s="53"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="D692" s="52"/>
+      <c r="D692" s="53"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="D693" s="52"/>
+      <c r="D693" s="53"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="D694" s="52"/>
+      <c r="D694" s="53"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="D695" s="52"/>
+      <c r="D695" s="53"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="D696" s="52"/>
+      <c r="D696" s="53"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="D697" s="52"/>
+      <c r="D697" s="53"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="D698" s="52"/>
+      <c r="D698" s="53"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="D699" s="52"/>
+      <c r="D699" s="53"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="D700" s="52"/>
+      <c r="D700" s="53"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="D701" s="52"/>
+      <c r="D701" s="53"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="D702" s="52"/>
+      <c r="D702" s="53"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="D703" s="52"/>
+      <c r="D703" s="53"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="D704" s="52"/>
+      <c r="D704" s="53"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="D705" s="52"/>
+      <c r="D705" s="53"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="D706" s="52"/>
+      <c r="D706" s="53"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="D707" s="52"/>
+      <c r="D707" s="53"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="D708" s="52"/>
+      <c r="D708" s="53"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="D709" s="52"/>
+      <c r="D709" s="53"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="D710" s="52"/>
+      <c r="D710" s="53"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="D711" s="52"/>
+      <c r="D711" s="53"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="D712" s="52"/>
+      <c r="D712" s="53"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="D713" s="52"/>
+      <c r="D713" s="53"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="D714" s="52"/>
+      <c r="D714" s="53"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="D715" s="52"/>
+      <c r="D715" s="53"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="D716" s="52"/>
+      <c r="D716" s="53"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="D717" s="52"/>
+      <c r="D717" s="53"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="D718" s="52"/>
+      <c r="D718" s="53"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="D719" s="52"/>
+      <c r="D719" s="53"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="D720" s="52"/>
+      <c r="D720" s="53"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="D721" s="52"/>
+      <c r="D721" s="53"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="D722" s="52"/>
+      <c r="D722" s="53"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="D723" s="52"/>
+      <c r="D723" s="53"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="D724" s="52"/>
+      <c r="D724" s="53"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="D725" s="52"/>
+      <c r="D725" s="53"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="D726" s="52"/>
+      <c r="D726" s="53"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="D727" s="52"/>
+      <c r="D727" s="53"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="D728" s="52"/>
+      <c r="D728" s="53"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="D729" s="52"/>
+      <c r="D729" s="53"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="D730" s="52"/>
+      <c r="D730" s="53"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="D731" s="52"/>
+      <c r="D731" s="53"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="D732" s="52"/>
+      <c r="D732" s="53"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="D733" s="52"/>
+      <c r="D733" s="53"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="D734" s="52"/>
+      <c r="D734" s="53"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="D735" s="52"/>
+      <c r="D735" s="53"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="D736" s="52"/>
+      <c r="D736" s="53"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="D737" s="52"/>
+      <c r="D737" s="53"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="D738" s="52"/>
+      <c r="D738" s="53"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="D739" s="52"/>
+      <c r="D739" s="53"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="D740" s="52"/>
+      <c r="D740" s="53"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="D741" s="52"/>
+      <c r="D741" s="53"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="D742" s="52"/>
+      <c r="D742" s="53"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="D743" s="52"/>
+      <c r="D743" s="53"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="D744" s="52"/>
+      <c r="D744" s="53"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="D745" s="52"/>
+      <c r="D745" s="53"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="D746" s="52"/>
+      <c r="D746" s="53"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="D747" s="52"/>
+      <c r="D747" s="53"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="D748" s="52"/>
+      <c r="D748" s="53"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="D749" s="52"/>
+      <c r="D749" s="53"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="D750" s="52"/>
+      <c r="D750" s="53"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="D751" s="52"/>
+      <c r="D751" s="53"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="D752" s="52"/>
+      <c r="D752" s="53"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="D753" s="52"/>
+      <c r="D753" s="53"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="D754" s="52"/>
+      <c r="D754" s="53"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="D755" s="52"/>
+      <c r="D755" s="53"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="D756" s="52"/>
+      <c r="D756" s="53"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="D757" s="52"/>
+      <c r="D757" s="53"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="D758" s="52"/>
+      <c r="D758" s="53"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="D759" s="52"/>
+      <c r="D759" s="53"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="D760" s="52"/>
+      <c r="D760" s="53"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="D761" s="52"/>
+      <c r="D761" s="53"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="D762" s="52"/>
+      <c r="D762" s="53"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="D763" s="52"/>
+      <c r="D763" s="53"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="D764" s="52"/>
+      <c r="D764" s="53"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="D765" s="52"/>
+      <c r="D765" s="53"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="D766" s="52"/>
+      <c r="D766" s="53"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="D767" s="52"/>
+      <c r="D767" s="53"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="D768" s="52"/>
+      <c r="D768" s="53"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="D769" s="52"/>
+      <c r="D769" s="53"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="D770" s="52"/>
+      <c r="D770" s="53"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="D771" s="52"/>
+      <c r="D771" s="53"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="D772" s="52"/>
+      <c r="D772" s="53"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="D773" s="52"/>
+      <c r="D773" s="53"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="D774" s="52"/>
+      <c r="D774" s="53"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="D775" s="52"/>
+      <c r="D775" s="53"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="D776" s="52"/>
+      <c r="D776" s="53"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="D777" s="52"/>
+      <c r="D777" s="53"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="D778" s="52"/>
+      <c r="D778" s="53"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="D779" s="52"/>
+      <c r="D779" s="53"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="D780" s="52"/>
+      <c r="D780" s="53"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="D781" s="52"/>
+      <c r="D781" s="53"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="D782" s="52"/>
+      <c r="D782" s="53"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="D783" s="52"/>
+      <c r="D783" s="53"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="D784" s="52"/>
+      <c r="D784" s="53"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="D785" s="52"/>
+      <c r="D785" s="53"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="D786" s="52"/>
+      <c r="D786" s="53"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="D787" s="52"/>
+      <c r="D787" s="53"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="D788" s="52"/>
+      <c r="D788" s="53"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="D789" s="52"/>
+      <c r="D789" s="53"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="D790" s="52"/>
+      <c r="D790" s="53"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="D791" s="52"/>
+      <c r="D791" s="53"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="D792" s="52"/>
+      <c r="D792" s="53"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="D793" s="52"/>
+      <c r="D793" s="53"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="D794" s="52"/>
+      <c r="D794" s="53"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="D795" s="52"/>
+      <c r="D795" s="53"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="D796" s="52"/>
+      <c r="D796" s="53"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="D797" s="52"/>
+      <c r="D797" s="53"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="D798" s="52"/>
+      <c r="D798" s="53"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="D799" s="52"/>
+      <c r="D799" s="53"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="D800" s="52"/>
+      <c r="D800" s="53"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="D801" s="52"/>
+      <c r="D801" s="53"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="D802" s="52"/>
+      <c r="D802" s="53"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="D803" s="52"/>
+      <c r="D803" s="53"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="D804" s="52"/>
+      <c r="D804" s="53"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="D805" s="52"/>
+      <c r="D805" s="53"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="D806" s="52"/>
+      <c r="D806" s="53"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="D807" s="52"/>
+      <c r="D807" s="53"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="D808" s="52"/>
+      <c r="D808" s="53"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="D809" s="52"/>
+      <c r="D809" s="53"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="D810" s="52"/>
+      <c r="D810" s="53"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="D811" s="52"/>
+      <c r="D811" s="53"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="D812" s="52"/>
+      <c r="D812" s="53"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="D813" s="52"/>
+      <c r="D813" s="53"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="D814" s="52"/>
+      <c r="D814" s="53"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="D815" s="52"/>
+      <c r="D815" s="53"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="D816" s="52"/>
+      <c r="D816" s="53"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="D817" s="52"/>
+      <c r="D817" s="53"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="D818" s="52"/>
+      <c r="D818" s="53"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="D819" s="52"/>
+      <c r="D819" s="53"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="D820" s="52"/>
+      <c r="D820" s="53"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="D821" s="52"/>
+      <c r="D821" s="53"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="D822" s="52"/>
+      <c r="D822" s="53"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="D823" s="52"/>
+      <c r="D823" s="53"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="D824" s="52"/>
+      <c r="D824" s="53"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="D825" s="52"/>
+      <c r="D825" s="53"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="D826" s="52"/>
+      <c r="D826" s="53"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="D827" s="52"/>
+      <c r="D827" s="53"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="D828" s="52"/>
+      <c r="D828" s="53"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="D829" s="52"/>
+      <c r="D829" s="53"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="D830" s="52"/>
+      <c r="D830" s="53"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="D831" s="52"/>
+      <c r="D831" s="53"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="D832" s="52"/>
+      <c r="D832" s="53"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="D833" s="52"/>
+      <c r="D833" s="53"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="D834" s="52"/>
+      <c r="D834" s="53"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="D835" s="52"/>
+      <c r="D835" s="53"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="D836" s="52"/>
+      <c r="D836" s="53"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="D837" s="52"/>
+      <c r="D837" s="53"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="D838" s="52"/>
+      <c r="D838" s="53"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="D839" s="52"/>
+      <c r="D839" s="53"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="D840" s="52"/>
+      <c r="D840" s="53"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="D841" s="52"/>
+      <c r="D841" s="53"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="D842" s="52"/>
+      <c r="D842" s="53"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="D843" s="52"/>
+      <c r="D843" s="53"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="D844" s="52"/>
+      <c r="D844" s="53"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="D845" s="52"/>
+      <c r="D845" s="53"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="D846" s="52"/>
+      <c r="D846" s="53"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="D847" s="52"/>
+      <c r="D847" s="53"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="D848" s="52"/>
+      <c r="D848" s="53"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="D849" s="52"/>
+      <c r="D849" s="53"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="D850" s="52"/>
+      <c r="D850" s="53"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="D851" s="52"/>
+      <c r="D851" s="53"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="D852" s="52"/>
+      <c r="D852" s="53"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="D853" s="52"/>
+      <c r="D853" s="53"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="D854" s="52"/>
+      <c r="D854" s="53"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="D855" s="52"/>
+      <c r="D855" s="53"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="D856" s="52"/>
+      <c r="D856" s="53"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="D857" s="52"/>
+      <c r="D857" s="53"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="D858" s="52"/>
+      <c r="D858" s="53"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="D859" s="52"/>
+      <c r="D859" s="53"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="D860" s="52"/>
+      <c r="D860" s="53"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="D861" s="52"/>
+      <c r="D861" s="53"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="D862" s="52"/>
+      <c r="D862" s="53"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="D863" s="52"/>
+      <c r="D863" s="53"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="D864" s="52"/>
+      <c r="D864" s="53"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="D865" s="52"/>
+      <c r="D865" s="53"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="D866" s="52"/>
+      <c r="D866" s="53"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="D867" s="52"/>
+      <c r="D867" s="53"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="D868" s="52"/>
+      <c r="D868" s="53"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="D869" s="52"/>
+      <c r="D869" s="53"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="D870" s="52"/>
+      <c r="D870" s="53"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="D871" s="52"/>
+      <c r="D871" s="53"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="D872" s="52"/>
+      <c r="D872" s="53"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="D873" s="52"/>
+      <c r="D873" s="53"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="D874" s="52"/>
+      <c r="D874" s="53"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="D875" s="52"/>
+      <c r="D875" s="53"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="D876" s="52"/>
+      <c r="D876" s="53"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="D877" s="52"/>
+      <c r="D877" s="53"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="D878" s="52"/>
+      <c r="D878" s="53"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="D879" s="52"/>
+      <c r="D879" s="53"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="D880" s="52"/>
+      <c r="D880" s="53"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="D881" s="52"/>
+      <c r="D881" s="53"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="D882" s="52"/>
+      <c r="D882" s="53"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="D883" s="52"/>
+      <c r="D883" s="53"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="D884" s="52"/>
+      <c r="D884" s="53"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="D885" s="52"/>
+      <c r="D885" s="53"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="D886" s="52"/>
+      <c r="D886" s="53"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="D887" s="52"/>
+      <c r="D887" s="53"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="D888" s="52"/>
+      <c r="D888" s="53"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="D889" s="52"/>
+      <c r="D889" s="53"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="D890" s="52"/>
+      <c r="D890" s="53"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="D891" s="52"/>
+      <c r="D891" s="53"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="D892" s="52"/>
+      <c r="D892" s="53"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="D893" s="52"/>
+      <c r="D893" s="53"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="D894" s="52"/>
+      <c r="D894" s="53"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="D895" s="52"/>
+      <c r="D895" s="53"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="D896" s="52"/>
+      <c r="D896" s="53"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="D897" s="52"/>
+      <c r="D897" s="53"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="D898" s="52"/>
+      <c r="D898" s="53"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="D899" s="52"/>
+      <c r="D899" s="53"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="D900" s="52"/>
+      <c r="D900" s="53"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="D901" s="52"/>
+      <c r="D901" s="53"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="D902" s="52"/>
+      <c r="D902" s="53"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="D903" s="52"/>
+      <c r="D903" s="53"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="D904" s="52"/>
+      <c r="D904" s="53"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="D905" s="52"/>
+      <c r="D905" s="53"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="D906" s="52"/>
+      <c r="D906" s="53"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="D907" s="52"/>
+      <c r="D907" s="53"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="D908" s="52"/>
+      <c r="D908" s="53"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="D909" s="52"/>
+      <c r="D909" s="53"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="D910" s="52"/>
+      <c r="D910" s="53"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="D911" s="52"/>
+      <c r="D911" s="53"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="D912" s="52"/>
+      <c r="D912" s="53"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="D913" s="52"/>
+      <c r="D913" s="53"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="D914" s="52"/>
+      <c r="D914" s="53"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="D915" s="52"/>
+      <c r="D915" s="53"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="D916" s="52"/>
+      <c r="D916" s="53"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="D917" s="52"/>
+      <c r="D917" s="53"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="D918" s="52"/>
+      <c r="D918" s="53"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="D919" s="52"/>
+      <c r="D919" s="53"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="D920" s="52"/>
+      <c r="D920" s="53"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="D921" s="52"/>
+      <c r="D921" s="53"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="D922" s="52"/>
+      <c r="D922" s="53"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="D923" s="52"/>
+      <c r="D923" s="53"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="D924" s="52"/>
+      <c r="D924" s="53"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="D925" s="52"/>
+      <c r="D925" s="53"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="D926" s="52"/>
+      <c r="D926" s="53"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="D927" s="52"/>
+      <c r="D927" s="53"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="D928" s="52"/>
+      <c r="D928" s="53"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="D929" s="52"/>
+      <c r="D929" s="53"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="D930" s="52"/>
+      <c r="D930" s="53"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="D931" s="52"/>
+      <c r="D931" s="53"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="D932" s="52"/>
+      <c r="D932" s="53"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="D933" s="52"/>
+      <c r="D933" s="53"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="D934" s="52"/>
+      <c r="D934" s="53"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="D935" s="52"/>
+      <c r="D935" s="53"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="D936" s="52"/>
+      <c r="D936" s="53"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="D937" s="52"/>
+      <c r="D937" s="53"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="D938" s="52"/>
+      <c r="D938" s="53"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="D939" s="52"/>
+      <c r="D939" s="53"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="D940" s="52"/>
+      <c r="D940" s="53"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="D941" s="52"/>
+      <c r="D941" s="53"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="D942" s="52"/>
+      <c r="D942" s="53"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="D943" s="52"/>
+      <c r="D943" s="53"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="D944" s="52"/>
+      <c r="D944" s="53"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="D945" s="52"/>
+      <c r="D945" s="53"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="D946" s="52"/>
+      <c r="D946" s="53"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="D947" s="52"/>
+      <c r="D947" s="53"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="D948" s="52"/>
+      <c r="D948" s="53"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="D949" s="52"/>
+      <c r="D949" s="53"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="D950" s="52"/>
+      <c r="D950" s="53"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="D951" s="52"/>
+      <c r="D951" s="53"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="D952" s="52"/>
+      <c r="D952" s="53"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="D953" s="52"/>
+      <c r="D953" s="53"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="D954" s="52"/>
+      <c r="D954" s="53"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="D955" s="52"/>
+      <c r="D955" s="53"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="D956" s="52"/>
+      <c r="D956" s="53"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="D957" s="52"/>
+      <c r="D957" s="53"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="D958" s="52"/>
+      <c r="D958" s="53"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="D959" s="52"/>
+      <c r="D959" s="53"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="D960" s="52"/>
+      <c r="D960" s="53"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="D961" s="52"/>
+      <c r="D961" s="53"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="D962" s="52"/>
+      <c r="D962" s="53"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="D963" s="52"/>
+      <c r="D963" s="53"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="D964" s="52"/>
+      <c r="D964" s="53"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="D965" s="52"/>
+      <c r="D965" s="53"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="D966" s="52"/>
+      <c r="D966" s="53"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="D967" s="52"/>
+      <c r="D967" s="53"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="D968" s="52"/>
+      <c r="D968" s="53"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="D969" s="52"/>
+      <c r="D969" s="53"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="D970" s="52"/>
+      <c r="D970" s="53"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="D971" s="52"/>
+      <c r="D971" s="53"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="D972" s="52"/>
+      <c r="D972" s="53"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="D973" s="52"/>
+      <c r="D973" s="53"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="D974" s="52"/>
+      <c r="D974" s="53"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="D975" s="52"/>
+      <c r="D975" s="53"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="D976" s="52"/>
+      <c r="D976" s="53"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="D977" s="52"/>
+      <c r="D977" s="53"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="D978" s="52"/>
+      <c r="D978" s="53"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="D979" s="52"/>
+      <c r="D979" s="53"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="D980" s="52"/>
+      <c r="D980" s="53"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="D981" s="52"/>
+      <c r="D981" s="53"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="D982" s="52"/>
+      <c r="D982" s="53"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="D983" s="52"/>
+      <c r="D983" s="53"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="D984" s="52"/>
+      <c r="D984" s="53"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="D985" s="52"/>
+      <c r="D985" s="53"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="D986" s="52"/>
+      <c r="D986" s="53"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="D987" s="52"/>
+      <c r="D987" s="53"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="D988" s="52"/>
+      <c r="D988" s="53"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="D989" s="52"/>
+      <c r="D989" s="53"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="D990" s="52"/>
+      <c r="D990" s="53"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="D991" s="52"/>
+      <c r="D991" s="53"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="52"/>
+      <c r="D992" s="53"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="D993" s="52"/>
+      <c r="D993" s="53"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="D994" s="52"/>
+      <c r="D994" s="53"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="D995" s="52"/>
+      <c r="D995" s="53"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="D996" s="52"/>
+      <c r="D996" s="53"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="D997" s="52"/>
+      <c r="D997" s="53"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="D998" s="52"/>
+      <c r="D998" s="53"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="D999" s="52"/>
+      <c r="D999" s="53"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="D1000" s="52"/>
+      <c r="D1000" s="53"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -62226,28 +62432,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
@@ -62255,13 +62461,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -62281,13 +62487,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -62307,13 +62513,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -62333,13 +62539,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -62359,13 +62565,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -62385,13 +62591,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1">
         <v>400.0</v>
@@ -62411,13 +62617,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F8" s="1">
         <v>300.0</v>
@@ -62471,16 +62677,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
@@ -62488,13 +62694,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
@@ -62502,13 +62708,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -62516,13 +62722,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -62533,10 +62739,10 @@
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -62544,13 +62750,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -62558,7 +62764,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -62566,7 +62772,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -62574,7 +62780,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
@@ -62582,7 +62788,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
@@ -62590,292 +62796,292 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="54" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="53">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="53" t="s">
+      <c r="E12" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="54">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="54">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="54">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="54">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53" t="s">
+      <c r="E17" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="54">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E18" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="54">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="54" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="53">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="53" t="s">
+      <c r="E19" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="54">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="53">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="53" t="s">
+      <c r="E20" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="54">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="53">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="53" t="s">
+      <c r="E21" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="57">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="53">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="53" t="s">
+      <c r="E22" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="57">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="53">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53" t="s">
+      <c r="E23" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="57">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="53">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
+      <c r="E24" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="57">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="53">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
+      <c r="E25" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="57">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="53">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53" t="s">
+      <c r="E26" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="57">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="53">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
+      <c r="E27" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="57">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="56">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="56" t="s">
+      <c r="E28" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="57">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="56">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="56" t="s">
+      <c r="E29" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="57">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="56">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="56">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="56">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="56">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="56">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="56">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="56">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>181</v>
+      <c r="E30" s="56" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31">
@@ -62888,13 +63094,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33">
@@ -62902,13 +63108,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
@@ -62916,13 +63122,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
@@ -62930,13 +63136,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
@@ -62944,13 +63150,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37">
@@ -62958,13 +63164,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
@@ -62972,13 +63178,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39">
@@ -62986,13 +63192,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40">
@@ -63000,13 +63206,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="206">
   <si>
     <t>Number</t>
   </si>
@@ -227,7 +227,13 @@
     <t>폭탄 풍선 파츠</t>
   </si>
   <si>
+    <t>폭탄 풍선 기차는 폭탄을 실은 풍선을 날립니다. 터지는 범위는 넓지만, 날아가는 속도는 느립니다.</t>
+  </si>
+  <si>
     <t>화염 방사 파츠</t>
+  </si>
+  <si>
+    <t>석궁 파츠</t>
   </si>
   <si>
     <t>요격 자동 포탑 파츠</t>
@@ -774,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -912,6 +918,12 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -30832,7 +30844,7 @@
         <v>6.0</v>
       </c>
       <c r="G6" s="43">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="43">
         <v>0.0</v>
@@ -30885,7 +30897,7 @@
         <v>7.0</v>
       </c>
       <c r="G7" s="43">
-        <v>1.0</v>
+        <v>0.19</v>
       </c>
       <c r="H7" s="43">
         <v>0.0</v>
@@ -30938,7 +30950,7 @@
         <v>8.0</v>
       </c>
       <c r="G8" s="43">
-        <v>1.1</v>
+        <v>0.18</v>
       </c>
       <c r="H8" s="43">
         <v>0.0</v>
@@ -30991,7 +31003,7 @@
         <v>9.0</v>
       </c>
       <c r="G9" s="43">
-        <v>1.2</v>
+        <v>0.17</v>
       </c>
       <c r="H9" s="43">
         <v>0.0</v>
@@ -31044,7 +31056,7 @@
         <v>10.0</v>
       </c>
       <c r="G10" s="43">
-        <v>1.3</v>
+        <v>0.16</v>
       </c>
       <c r="H10" s="43">
         <v>0.0</v>
@@ -31097,7 +31109,7 @@
         <v>11.0</v>
       </c>
       <c r="G11" s="43">
-        <v>1.4</v>
+        <v>0.15</v>
       </c>
       <c r="H11" s="43">
         <v>0.0</v>
@@ -31667,37 +31679,37 @@
       <c r="B22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="41">
-        <v>50000.0</v>
-      </c>
-      <c r="D22" s="41">
+      <c r="C22" s="46">
+        <v>45000.0</v>
+      </c>
+      <c r="D22" s="46">
         <v>800000.0</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="46">
+        <v>8.0</v>
+      </c>
+      <c r="F22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="46">
         <v>10.0</v>
       </c>
-      <c r="F22" s="41">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="41">
-        <v>10.0</v>
-      </c>
-      <c r="H22" s="41">
+      <c r="H22" s="46">
         <v>3500.0</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="46">
         <v>4000.0</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="46" t="s">
         <v>67</v>
       </c>
       <c r="K22" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="41" t="b">
+      <c r="L22" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="M22" s="41" t="b">
+      <c r="M22" s="24" t="b">
         <v>1</v>
       </c>
       <c r="N22" s="42"/>
@@ -31720,37 +31732,37 @@
       <c r="B23" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="41">
-        <v>60000.0</v>
-      </c>
-      <c r="D23" s="41">
+      <c r="C23" s="46">
+        <v>48000.0</v>
+      </c>
+      <c r="D23" s="46">
         <v>820000.0</v>
       </c>
-      <c r="E23" s="41">
-        <v>15.0</v>
-      </c>
-      <c r="F23" s="41">
+      <c r="E23" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="F23" s="46">
         <v>1.0</v>
       </c>
-      <c r="G23" s="41">
-        <v>9.0</v>
-      </c>
-      <c r="H23" s="41">
-        <v>40000.0</v>
-      </c>
-      <c r="I23" s="41">
+      <c r="G23" s="46">
+        <v>9.6</v>
+      </c>
+      <c r="H23" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="46">
         <v>9.99999999E8</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="46" t="s">
         <v>67</v>
       </c>
       <c r="K23" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="41" t="b">
+      <c r="L23" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M23" s="41" t="b">
+      <c r="M23" s="19" t="b">
         <v>0</v>
       </c>
       <c r="N23" s="42"/>
@@ -31773,17 +31785,37 @@
       <c r="B24" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="C24" s="46">
+        <v>52000.0</v>
+      </c>
+      <c r="D24" s="46">
+        <v>840000.0</v>
+      </c>
+      <c r="E24" s="46">
+        <v>12.0</v>
+      </c>
+      <c r="F24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="46">
+        <v>9.4</v>
+      </c>
+      <c r="H24" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
@@ -31804,17 +31836,37 @@
       <c r="B25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="C25" s="46">
+        <v>55000.0</v>
+      </c>
+      <c r="D25" s="46">
+        <v>860000.0</v>
+      </c>
+      <c r="E25" s="46">
+        <v>14.0</v>
+      </c>
+      <c r="F25" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="46">
+        <v>9.0</v>
+      </c>
+      <c r="H25" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
@@ -31835,17 +31887,37 @@
       <c r="B26" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="C26" s="46">
+        <v>60000.0</v>
+      </c>
+      <c r="D26" s="46">
+        <v>880000.0</v>
+      </c>
+      <c r="E26" s="46">
+        <v>18.0</v>
+      </c>
+      <c r="F26" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="46">
+        <v>8.6</v>
+      </c>
+      <c r="H26" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="47"/>
+      <c r="J26" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
@@ -31866,17 +31938,37 @@
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="C27" s="46">
+        <v>65000.0</v>
+      </c>
+      <c r="D27" s="46">
+        <v>900000.0</v>
+      </c>
+      <c r="E27" s="46">
+        <v>22.0</v>
+      </c>
+      <c r="F27" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="G27" s="46">
+        <v>8.2</v>
+      </c>
+      <c r="H27" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="47"/>
+      <c r="J27" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -31897,17 +31989,37 @@
       <c r="B28" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="C28" s="46">
+        <v>70000.0</v>
+      </c>
+      <c r="D28" s="46">
+        <v>930000.0</v>
+      </c>
+      <c r="E28" s="46">
+        <v>26.0</v>
+      </c>
+      <c r="F28" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="G28" s="46">
+        <v>7.8</v>
+      </c>
+      <c r="H28" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
@@ -31928,17 +32040,37 @@
       <c r="B29" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="C29" s="46">
+        <v>77000.0</v>
+      </c>
+      <c r="D29" s="46">
+        <v>960000.0</v>
+      </c>
+      <c r="E29" s="46">
+        <v>30.0</v>
+      </c>
+      <c r="F29" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="G29" s="46">
+        <v>7.4</v>
+      </c>
+      <c r="H29" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="47"/>
+      <c r="J29" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -31959,17 +32091,37 @@
       <c r="B30" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="C30" s="46">
+        <v>80000.0</v>
+      </c>
+      <c r="D30" s="46">
+        <v>990000.0</v>
+      </c>
+      <c r="E30" s="46">
+        <v>35.0</v>
+      </c>
+      <c r="F30" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="46">
+        <v>7.0</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
@@ -31990,17 +32142,37 @@
       <c r="B31" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="C31" s="46">
+        <v>100000.0</v>
+      </c>
+      <c r="D31" s="46">
+        <v>1200000.0</v>
+      </c>
+      <c r="E31" s="46">
+        <v>40.0</v>
+      </c>
+      <c r="F31" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="46">
+        <v>6.5</v>
+      </c>
+      <c r="H31" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
@@ -32021,17 +32193,39 @@
       <c r="B32" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
+      <c r="C32" s="41">
+        <v>30000.0</v>
+      </c>
+      <c r="D32" s="41">
+        <v>800000.0</v>
+      </c>
+      <c r="E32" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="F32" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="G32" s="41">
+        <v>5.0</v>
+      </c>
+      <c r="H32" s="41">
+        <v>3000.0</v>
+      </c>
+      <c r="I32" s="41">
+        <v>4000.0</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="N32" s="42"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
@@ -32052,17 +32246,39 @@
       <c r="B33" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
+      <c r="C33" s="41">
+        <v>40000.0</v>
+      </c>
+      <c r="D33" s="41">
+        <v>850000.0</v>
+      </c>
+      <c r="E33" s="41">
+        <v>11.0</v>
+      </c>
+      <c r="F33" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="G33" s="41">
+        <v>4.8</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="46">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N33" s="42"/>
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
@@ -32090,10 +32306,18 @@
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
+      <c r="J34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
@@ -32121,10 +32345,18 @@
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
       <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
+      <c r="J35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N35" s="42"/>
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
@@ -32152,10 +32384,18 @@
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
+      <c r="J36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
       <c r="P36" s="42"/>
@@ -32183,10 +32423,18 @@
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
+      <c r="J37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
@@ -32214,10 +32462,18 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
+      <c r="J38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
@@ -32245,10 +32501,18 @@
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
       <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
+      <c r="J39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -32276,10 +32540,18 @@
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
+      <c r="J40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
@@ -32307,10 +32579,18 @@
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
+      <c r="J41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
@@ -32329,7 +32609,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
@@ -32340,8 +32620,12 @@
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
+      <c r="L42" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="N42" s="42"/>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
@@ -32360,7 +32644,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -32371,8 +32655,12 @@
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
       <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
+      <c r="L43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N43" s="42"/>
       <c r="O43" s="42"/>
       <c r="P43" s="42"/>
@@ -32391,7 +32679,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
@@ -32402,8 +32690,12 @@
       <c r="I44" s="42"/>
       <c r="J44" s="42"/>
       <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
+      <c r="L44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N44" s="42"/>
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
@@ -32422,7 +32714,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
@@ -32433,8 +32725,12 @@
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>
       <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
+      <c r="L45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
@@ -32453,7 +32749,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
@@ -32464,8 +32760,12 @@
       <c r="I46" s="42"/>
       <c r="J46" s="42"/>
       <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
+      <c r="L46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N46" s="42"/>
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
@@ -32484,7 +32784,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
@@ -32495,8 +32795,12 @@
       <c r="I47" s="42"/>
       <c r="J47" s="42"/>
       <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
+      <c r="L47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N47" s="42"/>
       <c r="O47" s="42"/>
       <c r="P47" s="42"/>
@@ -32515,7 +32819,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
@@ -32526,8 +32830,12 @@
       <c r="I48" s="42"/>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="L48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N48" s="42"/>
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
@@ -32546,7 +32854,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="42"/>
@@ -32557,8 +32865,12 @@
       <c r="I49" s="42"/>
       <c r="J49" s="42"/>
       <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
+      <c r="L49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N49" s="42"/>
       <c r="O49" s="42"/>
       <c r="P49" s="42"/>
@@ -32577,7 +32889,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
@@ -32588,8 +32900,12 @@
       <c r="I50" s="42"/>
       <c r="J50" s="42"/>
       <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
+      <c r="L50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N50" s="42"/>
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
@@ -32608,7 +32924,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="42"/>
@@ -32619,8 +32935,12 @@
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
       <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
+      <c r="L51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
       <c r="P51" s="42"/>
@@ -32638,8 +32958,8 @@
       <c r="A52" s="41">
         <v>50.0</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>70</v>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="42"/>
@@ -32650,8 +32970,12 @@
       <c r="I52" s="42"/>
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
+      <c r="L52" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="N52" s="42"/>
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
@@ -32669,8 +32993,8 @@
       <c r="A53" s="41">
         <v>51.0</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>70</v>
+      <c r="B53" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C53" s="42"/>
       <c r="D53" s="42"/>
@@ -32681,8 +33005,12 @@
       <c r="I53" s="42"/>
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
+      <c r="L53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N53" s="42"/>
       <c r="O53" s="42"/>
       <c r="P53" s="42"/>
@@ -32700,8 +33028,8 @@
       <c r="A54" s="41">
         <v>52.0</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>70</v>
+      <c r="B54" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
@@ -32712,8 +33040,12 @@
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
+      <c r="L54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N54" s="42"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
@@ -32731,8 +33063,8 @@
       <c r="A55" s="41">
         <v>53.0</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>70</v>
+      <c r="B55" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C55" s="42"/>
       <c r="D55" s="42"/>
@@ -32743,8 +33075,12 @@
       <c r="I55" s="42"/>
       <c r="J55" s="42"/>
       <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
+      <c r="L55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N55" s="42"/>
       <c r="O55" s="42"/>
       <c r="P55" s="42"/>
@@ -32762,8 +33098,8 @@
       <c r="A56" s="41">
         <v>54.0</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>70</v>
+      <c r="B56" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
@@ -32774,8 +33110,12 @@
       <c r="I56" s="42"/>
       <c r="J56" s="42"/>
       <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
+      <c r="L56" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N56" s="42"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
@@ -32793,8 +33133,8 @@
       <c r="A57" s="41">
         <v>55.0</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>70</v>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
@@ -32805,8 +33145,12 @@
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
       <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
+      <c r="L57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N57" s="42"/>
       <c r="O57" s="42"/>
       <c r="P57" s="42"/>
@@ -32824,8 +33168,8 @@
       <c r="A58" s="41">
         <v>56.0</v>
       </c>
-      <c r="B58" s="31" t="s">
-        <v>70</v>
+      <c r="B58" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
@@ -32836,8 +33180,12 @@
       <c r="I58" s="42"/>
       <c r="J58" s="42"/>
       <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
+      <c r="L58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N58" s="42"/>
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
@@ -32855,8 +33203,8 @@
       <c r="A59" s="41">
         <v>57.0</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>70</v>
+      <c r="B59" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
@@ -32867,8 +33215,12 @@
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
       <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
+      <c r="L59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N59" s="42"/>
       <c r="O59" s="42"/>
       <c r="P59" s="42"/>
@@ -32886,8 +33238,8 @@
       <c r="A60" s="41">
         <v>58.0</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>70</v>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
@@ -32898,8 +33250,12 @@
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
       <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
+      <c r="L60" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N60" s="42"/>
       <c r="O60" s="42"/>
       <c r="P60" s="42"/>
@@ -32917,8 +33273,8 @@
       <c r="A61" s="41">
         <v>59.0</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>70</v>
+      <c r="B61" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C61" s="42"/>
       <c r="D61" s="42"/>
@@ -32929,8 +33285,12 @@
       <c r="I61" s="42"/>
       <c r="J61" s="42"/>
       <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
+      <c r="L61" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N61" s="42"/>
       <c r="O61" s="42"/>
       <c r="P61" s="42"/>
@@ -32949,7 +33309,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
@@ -32960,8 +33320,12 @@
       <c r="I62" s="42"/>
       <c r="J62" s="42"/>
       <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
+      <c r="L62" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="N62" s="42"/>
       <c r="O62" s="42"/>
       <c r="P62" s="42"/>
@@ -32980,7 +33344,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="42"/>
       <c r="D63" s="42"/>
@@ -32991,8 +33355,12 @@
       <c r="I63" s="42"/>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
+      <c r="L63" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N63" s="42"/>
       <c r="O63" s="42"/>
       <c r="P63" s="42"/>
@@ -33011,7 +33379,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
@@ -33022,8 +33390,12 @@
       <c r="I64" s="42"/>
       <c r="J64" s="42"/>
       <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
+      <c r="L64" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N64" s="42"/>
       <c r="O64" s="42"/>
       <c r="P64" s="42"/>
@@ -33042,7 +33414,7 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="42"/>
@@ -33053,8 +33425,12 @@
       <c r="I65" s="42"/>
       <c r="J65" s="42"/>
       <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
+      <c r="L65" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N65" s="42"/>
       <c r="O65" s="42"/>
       <c r="P65" s="42"/>
@@ -33073,7 +33449,7 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
@@ -33084,8 +33460,12 @@
       <c r="I66" s="42"/>
       <c r="J66" s="42"/>
       <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
+      <c r="L66" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N66" s="42"/>
       <c r="O66" s="42"/>
       <c r="P66" s="42"/>
@@ -33104,7 +33484,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="42"/>
@@ -33115,8 +33495,12 @@
       <c r="I67" s="42"/>
       <c r="J67" s="42"/>
       <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
+      <c r="L67" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N67" s="42"/>
       <c r="O67" s="42"/>
       <c r="P67" s="42"/>
@@ -33135,7 +33519,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="42"/>
@@ -33146,8 +33530,12 @@
       <c r="I68" s="42"/>
       <c r="J68" s="42"/>
       <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
+      <c r="L68" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N68" s="42"/>
       <c r="O68" s="42"/>
       <c r="P68" s="42"/>
@@ -33166,7 +33554,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="42"/>
@@ -33177,8 +33565,12 @@
       <c r="I69" s="42"/>
       <c r="J69" s="42"/>
       <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
+      <c r="L69" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N69" s="42"/>
       <c r="O69" s="42"/>
       <c r="P69" s="42"/>
@@ -33197,7 +33589,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
@@ -33208,8 +33600,12 @@
       <c r="I70" s="42"/>
       <c r="J70" s="42"/>
       <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
+      <c r="L70" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N70" s="42"/>
       <c r="O70" s="42"/>
       <c r="P70" s="42"/>
@@ -33228,7 +33624,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
@@ -33239,8 +33635,12 @@
       <c r="I71" s="42"/>
       <c r="J71" s="42"/>
       <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
+      <c r="L71" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N71" s="42"/>
       <c r="O71" s="42"/>
       <c r="P71" s="42"/>
@@ -33258,8 +33658,8 @@
       <c r="A72" s="41">
         <v>70.0</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>72</v>
+      <c r="B72" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C72" s="42"/>
       <c r="D72" s="42"/>
@@ -33270,8 +33670,12 @@
       <c r="I72" s="42"/>
       <c r="J72" s="42"/>
       <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
+      <c r="L72" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="N72" s="42"/>
       <c r="O72" s="42"/>
       <c r="P72" s="42"/>
@@ -33289,8 +33693,8 @@
       <c r="A73" s="41">
         <v>71.0</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>72</v>
+      <c r="B73" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
@@ -33301,8 +33705,12 @@
       <c r="I73" s="42"/>
       <c r="J73" s="42"/>
       <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
+      <c r="L73" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N73" s="42"/>
       <c r="O73" s="42"/>
       <c r="P73" s="42"/>
@@ -33320,8 +33728,8 @@
       <c r="A74" s="41">
         <v>72.0</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>72</v>
+      <c r="B74" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
@@ -33332,8 +33740,12 @@
       <c r="I74" s="42"/>
       <c r="J74" s="42"/>
       <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
+      <c r="L74" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N74" s="42"/>
       <c r="O74" s="42"/>
       <c r="P74" s="42"/>
@@ -33351,8 +33763,8 @@
       <c r="A75" s="41">
         <v>73.0</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>72</v>
+      <c r="B75" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
@@ -33363,8 +33775,12 @@
       <c r="I75" s="42"/>
       <c r="J75" s="42"/>
       <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
+      <c r="L75" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N75" s="42"/>
       <c r="O75" s="42"/>
       <c r="P75" s="42"/>
@@ -33382,8 +33798,8 @@
       <c r="A76" s="41">
         <v>74.0</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>72</v>
+      <c r="B76" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C76" s="42"/>
       <c r="D76" s="42"/>
@@ -33394,8 +33810,12 @@
       <c r="I76" s="42"/>
       <c r="J76" s="42"/>
       <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
+      <c r="L76" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N76" s="42"/>
       <c r="O76" s="42"/>
       <c r="P76" s="42"/>
@@ -33413,8 +33833,8 @@
       <c r="A77" s="41">
         <v>75.0</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>72</v>
+      <c r="B77" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
@@ -33425,8 +33845,12 @@
       <c r="I77" s="42"/>
       <c r="J77" s="42"/>
       <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
+      <c r="L77" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N77" s="42"/>
       <c r="O77" s="42"/>
       <c r="P77" s="42"/>
@@ -33444,8 +33868,8 @@
       <c r="A78" s="41">
         <v>76.0</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>72</v>
+      <c r="B78" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
@@ -33456,8 +33880,12 @@
       <c r="I78" s="42"/>
       <c r="J78" s="42"/>
       <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
+      <c r="L78" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N78" s="42"/>
       <c r="O78" s="42"/>
       <c r="P78" s="42"/>
@@ -33475,8 +33903,8 @@
       <c r="A79" s="41">
         <v>77.0</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>72</v>
+      <c r="B79" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C79" s="42"/>
       <c r="D79" s="42"/>
@@ -33487,8 +33915,12 @@
       <c r="I79" s="42"/>
       <c r="J79" s="42"/>
       <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
+      <c r="L79" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N79" s="42"/>
       <c r="O79" s="42"/>
       <c r="P79" s="42"/>
@@ -33506,8 +33938,8 @@
       <c r="A80" s="41">
         <v>78.0</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>72</v>
+      <c r="B80" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C80" s="42"/>
       <c r="D80" s="42"/>
@@ -33518,8 +33950,12 @@
       <c r="I80" s="42"/>
       <c r="J80" s="42"/>
       <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
+      <c r="L80" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N80" s="42"/>
       <c r="O80" s="42"/>
       <c r="P80" s="42"/>
@@ -33537,8 +33973,8 @@
       <c r="A81" s="41">
         <v>79.0</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>72</v>
+      <c r="B81" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C81" s="42"/>
       <c r="D81" s="42"/>
@@ -33549,8 +33985,12 @@
       <c r="I81" s="42"/>
       <c r="J81" s="42"/>
       <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
+      <c r="L81" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N81" s="42"/>
       <c r="O81" s="42"/>
       <c r="P81" s="42"/>
@@ -33565,8 +34005,12 @@
       <c r="Y81" s="42"/>
     </row>
     <row r="82">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="41">
+        <v>80.0</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C82" s="42"/>
       <c r="D82" s="42"/>
       <c r="E82" s="42"/>
@@ -33576,8 +34020,12 @@
       <c r="I82" s="42"/>
       <c r="J82" s="42"/>
       <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
+      <c r="L82" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="N82" s="42"/>
       <c r="O82" s="42"/>
       <c r="P82" s="42"/>
@@ -33592,8 +34040,12 @@
       <c r="Y82" s="42"/>
     </row>
     <row r="83">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="41">
+        <v>81.0</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C83" s="42"/>
       <c r="D83" s="42"/>
       <c r="E83" s="42"/>
@@ -33603,8 +34055,12 @@
       <c r="I83" s="42"/>
       <c r="J83" s="42"/>
       <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="42"/>
+      <c r="L83" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N83" s="42"/>
       <c r="O83" s="42"/>
       <c r="P83" s="42"/>
@@ -33619,8 +34075,12 @@
       <c r="Y83" s="42"/>
     </row>
     <row r="84">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="41">
+        <v>82.0</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
       <c r="E84" s="42"/>
@@ -33630,8 +34090,12 @@
       <c r="I84" s="42"/>
       <c r="J84" s="42"/>
       <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
+      <c r="L84" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N84" s="42"/>
       <c r="O84" s="42"/>
       <c r="P84" s="42"/>
@@ -33646,8 +34110,12 @@
       <c r="Y84" s="42"/>
     </row>
     <row r="85">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="41">
+        <v>83.0</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C85" s="42"/>
       <c r="D85" s="42"/>
       <c r="E85" s="42"/>
@@ -33657,8 +34125,12 @@
       <c r="I85" s="42"/>
       <c r="J85" s="42"/>
       <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
+      <c r="L85" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N85" s="42"/>
       <c r="O85" s="42"/>
       <c r="P85" s="42"/>
@@ -33673,8 +34145,12 @@
       <c r="Y85" s="42"/>
     </row>
     <row r="86">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="41">
+        <v>84.0</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C86" s="42"/>
       <c r="D86" s="42"/>
       <c r="E86" s="42"/>
@@ -33684,8 +34160,12 @@
       <c r="I86" s="42"/>
       <c r="J86" s="42"/>
       <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
+      <c r="L86" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N86" s="42"/>
       <c r="O86" s="42"/>
       <c r="P86" s="42"/>
@@ -33700,8 +34180,12 @@
       <c r="Y86" s="42"/>
     </row>
     <row r="87">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="41">
+        <v>85.0</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C87" s="42"/>
       <c r="D87" s="42"/>
       <c r="E87" s="42"/>
@@ -33711,8 +34195,12 @@
       <c r="I87" s="42"/>
       <c r="J87" s="42"/>
       <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="42"/>
+      <c r="L87" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N87" s="42"/>
       <c r="O87" s="42"/>
       <c r="P87" s="42"/>
@@ -33727,8 +34215,12 @@
       <c r="Y87" s="42"/>
     </row>
     <row r="88">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="41">
+        <v>86.0</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C88" s="42"/>
       <c r="D88" s="42"/>
       <c r="E88" s="42"/>
@@ -33738,8 +34230,12 @@
       <c r="I88" s="42"/>
       <c r="J88" s="42"/>
       <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
+      <c r="L88" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N88" s="42"/>
       <c r="O88" s="42"/>
       <c r="P88" s="42"/>
@@ -33754,8 +34250,12 @@
       <c r="Y88" s="42"/>
     </row>
     <row r="89">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="41">
+        <v>87.0</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C89" s="42"/>
       <c r="D89" s="42"/>
       <c r="E89" s="42"/>
@@ -33765,8 +34265,12 @@
       <c r="I89" s="42"/>
       <c r="J89" s="42"/>
       <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
+      <c r="L89" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N89" s="42"/>
       <c r="O89" s="42"/>
       <c r="P89" s="42"/>
@@ -33781,8 +34285,12 @@
       <c r="Y89" s="42"/>
     </row>
     <row r="90">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="41">
+        <v>88.0</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C90" s="42"/>
       <c r="D90" s="42"/>
       <c r="E90" s="42"/>
@@ -33792,8 +34300,12 @@
       <c r="I90" s="42"/>
       <c r="J90" s="42"/>
       <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="42"/>
+      <c r="L90" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N90" s="42"/>
       <c r="O90" s="42"/>
       <c r="P90" s="42"/>
@@ -33808,8 +34320,12 @@
       <c r="Y90" s="42"/>
     </row>
     <row r="91">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="41">
+        <v>89.0</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C91" s="42"/>
       <c r="D91" s="42"/>
       <c r="E91" s="42"/>
@@ -33819,8 +34335,12 @@
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
       <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
+      <c r="L91" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="N91" s="42"/>
       <c r="O91" s="42"/>
       <c r="P91" s="42"/>
@@ -58400,36 +58920,36 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="51" t="s">
         <v>41</v>
       </c>
     </row>
@@ -58438,7 +58958,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
@@ -58452,7 +58972,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -58460,7 +58980,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -58468,7 +58988,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -58476,7 +58996,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -58484,7 +59004,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -58492,7 +59012,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -58500,7 +59020,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -58508,7 +59028,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -58516,7 +59036,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -58524,7 +59044,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -58532,7 +59052,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -58540,7 +59060,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -58548,7 +59068,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -58556,7 +59076,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -58564,7 +59084,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -58572,7 +59092,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -58580,7 +59100,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -58588,7 +59108,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -58596,7 +59116,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -58604,7 +59124,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -58612,7 +59132,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -58620,7 +59140,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -58628,7 +59148,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -58636,7 +59156,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -58644,7 +59164,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -58652,7 +59172,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -58660,7 +59180,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -58668,7 +59188,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -58676,7 +59196,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -58684,7 +59204,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -58692,7 +59212,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -58700,7 +59220,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -58708,7 +59228,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -58716,7 +59236,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -58724,7 +59244,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -58732,7 +59252,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -58740,7 +59260,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -58748,7 +59268,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -58756,7 +59276,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -58764,7 +59284,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -58772,7 +59292,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -58780,7 +59300,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -58788,7 +59308,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -58796,7 +59316,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -58804,7 +59324,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -58812,7 +59332,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -58820,7 +59340,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -58828,7 +59348,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -58836,7 +59356,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -58869,37 +59389,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
@@ -58907,7 +59427,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -58916,7 +59436,7 @@
         <v>100.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -58925,13 +59445,13 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1">
         <v>100.0</v>
@@ -58945,7 +59465,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1">
         <v>120.0</v>
@@ -58954,7 +59474,7 @@
         <v>500.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1">
         <v>7.0</v>
@@ -58963,13 +59483,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K3" s="1">
         <v>200.0</v>
@@ -58983,7 +59503,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1">
         <v>60.0</v>
@@ -58992,7 +59512,7 @@
         <v>500.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -59001,13 +59521,13 @@
         <v>12.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K4" s="1">
         <v>400.0</v>
@@ -59021,7 +59541,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1">
         <v>250.0</v>
@@ -59030,7 +59550,7 @@
         <v>300.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F5" s="1">
         <v>2.0</v>
@@ -59039,13 +59559,13 @@
         <v>15.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K5" s="1">
         <v>600.0</v>
@@ -59059,7 +59579,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1">
         <v>999999.0</v>
@@ -59068,7 +59588,7 @@
         <v>999999.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1">
         <v>15.0</v>
@@ -59077,13 +59597,13 @@
         <v>999.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1">
         <v>9999999.0</v>
@@ -59149,54 +59669,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>112</v>
       </c>
+      <c r="C1" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>114</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="51">
+      <c r="A2" s="53">
         <v>0.0</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="51">
+      <c r="B2" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="53">
         <v>9.99999999E8</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="54">
         <v>0.0</v>
       </c>
       <c r="E2" s="1">
@@ -59222,17 +59742,17 @@
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="51">
+      <c r="A3" s="53">
         <v>1.0</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="51">
+      <c r="B3" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="53">
         <v>150000.0</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>123</v>
+      <c r="D3" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="E3" s="1">
         <v>6.0</v>
@@ -59257,17 +59777,17 @@
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="51">
+      <c r="A4" s="53">
         <v>2.0</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="51">
+      <c r="B4" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="53">
         <v>180000.0</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>125</v>
+      <c r="D4" s="54" t="s">
+        <v>127</v>
       </c>
       <c r="E4" s="1">
         <v>7.0</v>
@@ -59292,17 +59812,17 @@
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="51">
+      <c r="A5" s="53">
         <v>3.0</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>126</v>
+      <c r="B5" s="53" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>127</v>
+      <c r="D5" s="54" t="s">
+        <v>129</v>
       </c>
       <c r="E5" s="1">
         <v>8.0</v>
@@ -59327,17 +59847,17 @@
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="51">
+      <c r="A6" s="53">
         <v>4.0</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>128</v>
+      <c r="B6" s="53" t="s">
+        <v>130</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>129</v>
+      <c r="D6" s="54" t="s">
+        <v>131</v>
       </c>
       <c r="E6" s="1">
         <v>9.0</v>
@@ -59362,16 +59882,16 @@
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="51">
+      <c r="A7" s="53">
         <v>5.0</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>130</v>
+      <c r="B7" s="53" t="s">
+        <v>132</v>
       </c>
       <c r="C7" s="1">
         <v>250000.0</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="54">
         <v>4.0</v>
       </c>
       <c r="E7" s="1">
@@ -59397,3011 +59917,3011 @@
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="50"/>
-      <c r="D8" s="52"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="52"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="50"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="50"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="52"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="50"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="52"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="50"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="52"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="50"/>
-      <c r="D13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="52"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="50"/>
-      <c r="D14" s="53"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="52"/>
+      <c r="D14" s="55"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="50"/>
-      <c r="D15" s="53"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="52"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="50"/>
-      <c r="D16" s="53"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="52"/>
+      <c r="D16" s="55"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="50"/>
-      <c r="D17" s="53"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="52"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="50"/>
-      <c r="D18" s="53"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="52"/>
+      <c r="D18" s="55"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="50"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="52"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="50"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="52"/>
+      <c r="D20" s="55"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="50"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="52"/>
+      <c r="D21" s="55"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="D22" s="53"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="D23" s="53"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="D24" s="53"/>
+      <c r="D24" s="55"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="D25" s="53"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" ht="17.25" customHeight="1">
-      <c r="D26" s="53"/>
+      <c r="D26" s="55"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="D27" s="53"/>
+      <c r="D27" s="55"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="D28" s="53"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="D29" s="53"/>
+      <c r="D29" s="55"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
-      <c r="D30" s="53"/>
+      <c r="D30" s="55"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
-      <c r="D31" s="53"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" ht="17.25" customHeight="1">
-      <c r="D32" s="53"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" ht="17.25" customHeight="1">
-      <c r="D33" s="53"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" ht="17.25" customHeight="1">
-      <c r="D34" s="53"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" ht="17.25" customHeight="1">
-      <c r="D35" s="53"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" ht="17.25" customHeight="1">
-      <c r="D36" s="53"/>
+      <c r="D36" s="55"/>
     </row>
     <row r="37" ht="17.25" customHeight="1">
-      <c r="D37" s="53"/>
+      <c r="D37" s="55"/>
     </row>
     <row r="38" ht="17.25" customHeight="1">
-      <c r="D38" s="53"/>
+      <c r="D38" s="55"/>
     </row>
     <row r="39" ht="17.25" customHeight="1">
-      <c r="D39" s="53"/>
+      <c r="D39" s="55"/>
     </row>
     <row r="40" ht="17.25" customHeight="1">
-      <c r="D40" s="53"/>
+      <c r="D40" s="55"/>
     </row>
     <row r="41" ht="17.25" customHeight="1">
-      <c r="D41" s="53"/>
+      <c r="D41" s="55"/>
     </row>
     <row r="42" ht="17.25" customHeight="1">
-      <c r="D42" s="53"/>
+      <c r="D42" s="55"/>
     </row>
     <row r="43" ht="17.25" customHeight="1">
-      <c r="D43" s="53"/>
+      <c r="D43" s="55"/>
     </row>
     <row r="44" ht="17.25" customHeight="1">
-      <c r="D44" s="53"/>
+      <c r="D44" s="55"/>
     </row>
     <row r="45" ht="17.25" customHeight="1">
-      <c r="D45" s="53"/>
+      <c r="D45" s="55"/>
     </row>
     <row r="46" ht="17.25" customHeight="1">
-      <c r="D46" s="53"/>
+      <c r="D46" s="55"/>
     </row>
     <row r="47" ht="17.25" customHeight="1">
-      <c r="D47" s="53"/>
+      <c r="D47" s="55"/>
     </row>
     <row r="48" ht="17.25" customHeight="1">
-      <c r="D48" s="53"/>
+      <c r="D48" s="55"/>
     </row>
     <row r="49" ht="17.25" customHeight="1">
-      <c r="D49" s="53"/>
+      <c r="D49" s="55"/>
     </row>
     <row r="50" ht="17.25" customHeight="1">
-      <c r="D50" s="53"/>
+      <c r="D50" s="55"/>
     </row>
     <row r="51" ht="17.25" customHeight="1">
-      <c r="D51" s="53"/>
+      <c r="D51" s="55"/>
     </row>
     <row r="52" ht="17.25" customHeight="1">
-      <c r="D52" s="53"/>
+      <c r="D52" s="55"/>
     </row>
     <row r="53" ht="17.25" customHeight="1">
-      <c r="D53" s="53"/>
+      <c r="D53" s="55"/>
     </row>
     <row r="54" ht="17.25" customHeight="1">
-      <c r="D54" s="53"/>
+      <c r="D54" s="55"/>
     </row>
     <row r="55" ht="17.25" customHeight="1">
-      <c r="D55" s="53"/>
+      <c r="D55" s="55"/>
     </row>
     <row r="56" ht="17.25" customHeight="1">
-      <c r="D56" s="53"/>
+      <c r="D56" s="55"/>
     </row>
     <row r="57" ht="17.25" customHeight="1">
-      <c r="D57" s="53"/>
+      <c r="D57" s="55"/>
     </row>
     <row r="58" ht="17.25" customHeight="1">
-      <c r="D58" s="53"/>
+      <c r="D58" s="55"/>
     </row>
     <row r="59" ht="17.25" customHeight="1">
-      <c r="D59" s="53"/>
+      <c r="D59" s="55"/>
     </row>
     <row r="60" ht="17.25" customHeight="1">
-      <c r="D60" s="53"/>
+      <c r="D60" s="55"/>
     </row>
     <row r="61" ht="17.25" customHeight="1">
-      <c r="D61" s="53"/>
+      <c r="D61" s="55"/>
     </row>
     <row r="62" ht="17.25" customHeight="1">
-      <c r="D62" s="53"/>
+      <c r="D62" s="55"/>
     </row>
     <row r="63" ht="17.25" customHeight="1">
-      <c r="D63" s="53"/>
+      <c r="D63" s="55"/>
     </row>
     <row r="64" ht="17.25" customHeight="1">
-      <c r="D64" s="53"/>
+      <c r="D64" s="55"/>
     </row>
     <row r="65" ht="17.25" customHeight="1">
-      <c r="D65" s="53"/>
+      <c r="D65" s="55"/>
     </row>
     <row r="66" ht="17.25" customHeight="1">
-      <c r="D66" s="53"/>
+      <c r="D66" s="55"/>
     </row>
     <row r="67" ht="17.25" customHeight="1">
-      <c r="D67" s="53"/>
+      <c r="D67" s="55"/>
     </row>
     <row r="68" ht="17.25" customHeight="1">
-      <c r="D68" s="53"/>
+      <c r="D68" s="55"/>
     </row>
     <row r="69" ht="17.25" customHeight="1">
-      <c r="D69" s="53"/>
+      <c r="D69" s="55"/>
     </row>
     <row r="70" ht="17.25" customHeight="1">
-      <c r="D70" s="53"/>
+      <c r="D70" s="55"/>
     </row>
     <row r="71" ht="17.25" customHeight="1">
-      <c r="D71" s="53"/>
+      <c r="D71" s="55"/>
     </row>
     <row r="72" ht="17.25" customHeight="1">
-      <c r="D72" s="53"/>
+      <c r="D72" s="55"/>
     </row>
     <row r="73" ht="17.25" customHeight="1">
-      <c r="D73" s="53"/>
+      <c r="D73" s="55"/>
     </row>
     <row r="74" ht="17.25" customHeight="1">
-      <c r="D74" s="53"/>
+      <c r="D74" s="55"/>
     </row>
     <row r="75" ht="17.25" customHeight="1">
-      <c r="D75" s="53"/>
+      <c r="D75" s="55"/>
     </row>
     <row r="76" ht="17.25" customHeight="1">
-      <c r="D76" s="53"/>
+      <c r="D76" s="55"/>
     </row>
     <row r="77" ht="17.25" customHeight="1">
-      <c r="D77" s="53"/>
+      <c r="D77" s="55"/>
     </row>
     <row r="78" ht="17.25" customHeight="1">
-      <c r="D78" s="53"/>
+      <c r="D78" s="55"/>
     </row>
     <row r="79" ht="17.25" customHeight="1">
-      <c r="D79" s="53"/>
+      <c r="D79" s="55"/>
     </row>
     <row r="80" ht="17.25" customHeight="1">
-      <c r="D80" s="53"/>
+      <c r="D80" s="55"/>
     </row>
     <row r="81" ht="17.25" customHeight="1">
-      <c r="D81" s="53"/>
+      <c r="D81" s="55"/>
     </row>
     <row r="82" ht="17.25" customHeight="1">
-      <c r="D82" s="53"/>
+      <c r="D82" s="55"/>
     </row>
     <row r="83" ht="17.25" customHeight="1">
-      <c r="D83" s="53"/>
+      <c r="D83" s="55"/>
     </row>
     <row r="84" ht="17.25" customHeight="1">
-      <c r="D84" s="53"/>
+      <c r="D84" s="55"/>
     </row>
     <row r="85" ht="17.25" customHeight="1">
-      <c r="D85" s="53"/>
+      <c r="D85" s="55"/>
     </row>
     <row r="86" ht="17.25" customHeight="1">
-      <c r="D86" s="53"/>
+      <c r="D86" s="55"/>
     </row>
     <row r="87" ht="17.25" customHeight="1">
-      <c r="D87" s="53"/>
+      <c r="D87" s="55"/>
     </row>
     <row r="88" ht="17.25" customHeight="1">
-      <c r="D88" s="53"/>
+      <c r="D88" s="55"/>
     </row>
     <row r="89" ht="17.25" customHeight="1">
-      <c r="D89" s="53"/>
+      <c r="D89" s="55"/>
     </row>
     <row r="90" ht="17.25" customHeight="1">
-      <c r="D90" s="53"/>
+      <c r="D90" s="55"/>
     </row>
     <row r="91" ht="17.25" customHeight="1">
-      <c r="D91" s="53"/>
+      <c r="D91" s="55"/>
     </row>
     <row r="92" ht="17.25" customHeight="1">
-      <c r="D92" s="53"/>
+      <c r="D92" s="55"/>
     </row>
     <row r="93" ht="17.25" customHeight="1">
-      <c r="D93" s="53"/>
+      <c r="D93" s="55"/>
     </row>
     <row r="94" ht="17.25" customHeight="1">
-      <c r="D94" s="53"/>
+      <c r="D94" s="55"/>
     </row>
     <row r="95" ht="17.25" customHeight="1">
-      <c r="D95" s="53"/>
+      <c r="D95" s="55"/>
     </row>
     <row r="96" ht="17.25" customHeight="1">
-      <c r="D96" s="53"/>
+      <c r="D96" s="55"/>
     </row>
     <row r="97" ht="17.25" customHeight="1">
-      <c r="D97" s="53"/>
+      <c r="D97" s="55"/>
     </row>
     <row r="98" ht="17.25" customHeight="1">
-      <c r="D98" s="53"/>
+      <c r="D98" s="55"/>
     </row>
     <row r="99" ht="17.25" customHeight="1">
-      <c r="D99" s="53"/>
+      <c r="D99" s="55"/>
     </row>
     <row r="100" ht="17.25" customHeight="1">
-      <c r="D100" s="53"/>
+      <c r="D100" s="55"/>
     </row>
     <row r="101" ht="17.25" customHeight="1">
-      <c r="D101" s="53"/>
+      <c r="D101" s="55"/>
     </row>
     <row r="102" ht="17.25" customHeight="1">
-      <c r="D102" s="53"/>
+      <c r="D102" s="55"/>
     </row>
     <row r="103" ht="17.25" customHeight="1">
-      <c r="D103" s="53"/>
+      <c r="D103" s="55"/>
     </row>
     <row r="104" ht="17.25" customHeight="1">
-      <c r="D104" s="53"/>
+      <c r="D104" s="55"/>
     </row>
     <row r="105" ht="17.25" customHeight="1">
-      <c r="D105" s="53"/>
+      <c r="D105" s="55"/>
     </row>
     <row r="106" ht="17.25" customHeight="1">
-      <c r="D106" s="53"/>
+      <c r="D106" s="55"/>
     </row>
     <row r="107" ht="17.25" customHeight="1">
-      <c r="D107" s="53"/>
+      <c r="D107" s="55"/>
     </row>
     <row r="108" ht="17.25" customHeight="1">
-      <c r="D108" s="53"/>
+      <c r="D108" s="55"/>
     </row>
     <row r="109" ht="17.25" customHeight="1">
-      <c r="D109" s="53"/>
+      <c r="D109" s="55"/>
     </row>
     <row r="110" ht="17.25" customHeight="1">
-      <c r="D110" s="53"/>
+      <c r="D110" s="55"/>
     </row>
     <row r="111" ht="17.25" customHeight="1">
-      <c r="D111" s="53"/>
+      <c r="D111" s="55"/>
     </row>
     <row r="112" ht="17.25" customHeight="1">
-      <c r="D112" s="53"/>
+      <c r="D112" s="55"/>
     </row>
     <row r="113" ht="17.25" customHeight="1">
-      <c r="D113" s="53"/>
+      <c r="D113" s="55"/>
     </row>
     <row r="114" ht="17.25" customHeight="1">
-      <c r="D114" s="53"/>
+      <c r="D114" s="55"/>
     </row>
     <row r="115" ht="17.25" customHeight="1">
-      <c r="D115" s="53"/>
+      <c r="D115" s="55"/>
     </row>
     <row r="116" ht="17.25" customHeight="1">
-      <c r="D116" s="53"/>
+      <c r="D116" s="55"/>
     </row>
     <row r="117" ht="17.25" customHeight="1">
-      <c r="D117" s="53"/>
+      <c r="D117" s="55"/>
     </row>
     <row r="118" ht="17.25" customHeight="1">
-      <c r="D118" s="53"/>
+      <c r="D118" s="55"/>
     </row>
     <row r="119" ht="17.25" customHeight="1">
-      <c r="D119" s="53"/>
+      <c r="D119" s="55"/>
     </row>
     <row r="120" ht="17.25" customHeight="1">
-      <c r="D120" s="53"/>
+      <c r="D120" s="55"/>
     </row>
     <row r="121" ht="17.25" customHeight="1">
-      <c r="D121" s="53"/>
+      <c r="D121" s="55"/>
     </row>
     <row r="122" ht="17.25" customHeight="1">
-      <c r="D122" s="53"/>
+      <c r="D122" s="55"/>
     </row>
     <row r="123" ht="17.25" customHeight="1">
-      <c r="D123" s="53"/>
+      <c r="D123" s="55"/>
     </row>
     <row r="124" ht="17.25" customHeight="1">
-      <c r="D124" s="53"/>
+      <c r="D124" s="55"/>
     </row>
     <row r="125" ht="17.25" customHeight="1">
-      <c r="D125" s="53"/>
+      <c r="D125" s="55"/>
     </row>
     <row r="126" ht="17.25" customHeight="1">
-      <c r="D126" s="53"/>
+      <c r="D126" s="55"/>
     </row>
     <row r="127" ht="17.25" customHeight="1">
-      <c r="D127" s="53"/>
+      <c r="D127" s="55"/>
     </row>
     <row r="128" ht="17.25" customHeight="1">
-      <c r="D128" s="53"/>
+      <c r="D128" s="55"/>
     </row>
     <row r="129" ht="17.25" customHeight="1">
-      <c r="D129" s="53"/>
+      <c r="D129" s="55"/>
     </row>
     <row r="130" ht="17.25" customHeight="1">
-      <c r="D130" s="53"/>
+      <c r="D130" s="55"/>
     </row>
     <row r="131" ht="17.25" customHeight="1">
-      <c r="D131" s="53"/>
+      <c r="D131" s="55"/>
     </row>
     <row r="132" ht="17.25" customHeight="1">
-      <c r="D132" s="53"/>
+      <c r="D132" s="55"/>
     </row>
     <row r="133" ht="17.25" customHeight="1">
-      <c r="D133" s="53"/>
+      <c r="D133" s="55"/>
     </row>
     <row r="134" ht="17.25" customHeight="1">
-      <c r="D134" s="53"/>
+      <c r="D134" s="55"/>
     </row>
     <row r="135" ht="17.25" customHeight="1">
-      <c r="D135" s="53"/>
+      <c r="D135" s="55"/>
     </row>
     <row r="136" ht="17.25" customHeight="1">
-      <c r="D136" s="53"/>
+      <c r="D136" s="55"/>
     </row>
     <row r="137" ht="17.25" customHeight="1">
-      <c r="D137" s="53"/>
+      <c r="D137" s="55"/>
     </row>
     <row r="138" ht="17.25" customHeight="1">
-      <c r="D138" s="53"/>
+      <c r="D138" s="55"/>
     </row>
     <row r="139" ht="17.25" customHeight="1">
-      <c r="D139" s="53"/>
+      <c r="D139" s="55"/>
     </row>
     <row r="140" ht="17.25" customHeight="1">
-      <c r="D140" s="53"/>
+      <c r="D140" s="55"/>
     </row>
     <row r="141" ht="17.25" customHeight="1">
-      <c r="D141" s="53"/>
+      <c r="D141" s="55"/>
     </row>
     <row r="142" ht="17.25" customHeight="1">
-      <c r="D142" s="53"/>
+      <c r="D142" s="55"/>
     </row>
     <row r="143" ht="17.25" customHeight="1">
-      <c r="D143" s="53"/>
+      <c r="D143" s="55"/>
     </row>
     <row r="144" ht="17.25" customHeight="1">
-      <c r="D144" s="53"/>
+      <c r="D144" s="55"/>
     </row>
     <row r="145" ht="17.25" customHeight="1">
-      <c r="D145" s="53"/>
+      <c r="D145" s="55"/>
     </row>
     <row r="146" ht="17.25" customHeight="1">
-      <c r="D146" s="53"/>
+      <c r="D146" s="55"/>
     </row>
     <row r="147" ht="17.25" customHeight="1">
-      <c r="D147" s="53"/>
+      <c r="D147" s="55"/>
     </row>
     <row r="148" ht="17.25" customHeight="1">
-      <c r="D148" s="53"/>
+      <c r="D148" s="55"/>
     </row>
     <row r="149" ht="17.25" customHeight="1">
-      <c r="D149" s="53"/>
+      <c r="D149" s="55"/>
     </row>
     <row r="150" ht="17.25" customHeight="1">
-      <c r="D150" s="53"/>
+      <c r="D150" s="55"/>
     </row>
     <row r="151" ht="17.25" customHeight="1">
-      <c r="D151" s="53"/>
+      <c r="D151" s="55"/>
     </row>
     <row r="152" ht="17.25" customHeight="1">
-      <c r="D152" s="53"/>
+      <c r="D152" s="55"/>
     </row>
     <row r="153" ht="17.25" customHeight="1">
-      <c r="D153" s="53"/>
+      <c r="D153" s="55"/>
     </row>
     <row r="154" ht="17.25" customHeight="1">
-      <c r="D154" s="53"/>
+      <c r="D154" s="55"/>
     </row>
     <row r="155" ht="17.25" customHeight="1">
-      <c r="D155" s="53"/>
+      <c r="D155" s="55"/>
     </row>
     <row r="156" ht="17.25" customHeight="1">
-      <c r="D156" s="53"/>
+      <c r="D156" s="55"/>
     </row>
     <row r="157" ht="17.25" customHeight="1">
-      <c r="D157" s="53"/>
+      <c r="D157" s="55"/>
     </row>
     <row r="158" ht="17.25" customHeight="1">
-      <c r="D158" s="53"/>
+      <c r="D158" s="55"/>
     </row>
     <row r="159" ht="17.25" customHeight="1">
-      <c r="D159" s="53"/>
+      <c r="D159" s="55"/>
     </row>
     <row r="160" ht="17.25" customHeight="1">
-      <c r="D160" s="53"/>
+      <c r="D160" s="55"/>
     </row>
     <row r="161" ht="17.25" customHeight="1">
-      <c r="D161" s="53"/>
+      <c r="D161" s="55"/>
     </row>
     <row r="162" ht="17.25" customHeight="1">
-      <c r="D162" s="53"/>
+      <c r="D162" s="55"/>
     </row>
     <row r="163" ht="17.25" customHeight="1">
-      <c r="D163" s="53"/>
+      <c r="D163" s="55"/>
     </row>
     <row r="164" ht="17.25" customHeight="1">
-      <c r="D164" s="53"/>
+      <c r="D164" s="55"/>
     </row>
     <row r="165" ht="17.25" customHeight="1">
-      <c r="D165" s="53"/>
+      <c r="D165" s="55"/>
     </row>
     <row r="166" ht="17.25" customHeight="1">
-      <c r="D166" s="53"/>
+      <c r="D166" s="55"/>
     </row>
     <row r="167" ht="17.25" customHeight="1">
-      <c r="D167" s="53"/>
+      <c r="D167" s="55"/>
     </row>
     <row r="168" ht="17.25" customHeight="1">
-      <c r="D168" s="53"/>
+      <c r="D168" s="55"/>
     </row>
     <row r="169" ht="17.25" customHeight="1">
-      <c r="D169" s="53"/>
+      <c r="D169" s="55"/>
     </row>
     <row r="170" ht="17.25" customHeight="1">
-      <c r="D170" s="53"/>
+      <c r="D170" s="55"/>
     </row>
     <row r="171" ht="17.25" customHeight="1">
-      <c r="D171" s="53"/>
+      <c r="D171" s="55"/>
     </row>
     <row r="172" ht="17.25" customHeight="1">
-      <c r="D172" s="53"/>
+      <c r="D172" s="55"/>
     </row>
     <row r="173" ht="17.25" customHeight="1">
-      <c r="D173" s="53"/>
+      <c r="D173" s="55"/>
     </row>
     <row r="174" ht="17.25" customHeight="1">
-      <c r="D174" s="53"/>
+      <c r="D174" s="55"/>
     </row>
     <row r="175" ht="17.25" customHeight="1">
-      <c r="D175" s="53"/>
+      <c r="D175" s="55"/>
     </row>
     <row r="176" ht="17.25" customHeight="1">
-      <c r="D176" s="53"/>
+      <c r="D176" s="55"/>
     </row>
     <row r="177" ht="17.25" customHeight="1">
-      <c r="D177" s="53"/>
+      <c r="D177" s="55"/>
     </row>
     <row r="178" ht="17.25" customHeight="1">
-      <c r="D178" s="53"/>
+      <c r="D178" s="55"/>
     </row>
     <row r="179" ht="17.25" customHeight="1">
-      <c r="D179" s="53"/>
+      <c r="D179" s="55"/>
     </row>
     <row r="180" ht="17.25" customHeight="1">
-      <c r="D180" s="53"/>
+      <c r="D180" s="55"/>
     </row>
     <row r="181" ht="17.25" customHeight="1">
-      <c r="D181" s="53"/>
+      <c r="D181" s="55"/>
     </row>
     <row r="182" ht="17.25" customHeight="1">
-      <c r="D182" s="53"/>
+      <c r="D182" s="55"/>
     </row>
     <row r="183" ht="17.25" customHeight="1">
-      <c r="D183" s="53"/>
+      <c r="D183" s="55"/>
     </row>
     <row r="184" ht="17.25" customHeight="1">
-      <c r="D184" s="53"/>
+      <c r="D184" s="55"/>
     </row>
     <row r="185" ht="17.25" customHeight="1">
-      <c r="D185" s="53"/>
+      <c r="D185" s="55"/>
     </row>
     <row r="186" ht="17.25" customHeight="1">
-      <c r="D186" s="53"/>
+      <c r="D186" s="55"/>
     </row>
     <row r="187" ht="17.25" customHeight="1">
-      <c r="D187" s="53"/>
+      <c r="D187" s="55"/>
     </row>
     <row r="188" ht="17.25" customHeight="1">
-      <c r="D188" s="53"/>
+      <c r="D188" s="55"/>
     </row>
     <row r="189" ht="17.25" customHeight="1">
-      <c r="D189" s="53"/>
+      <c r="D189" s="55"/>
     </row>
     <row r="190" ht="17.25" customHeight="1">
-      <c r="D190" s="53"/>
+      <c r="D190" s="55"/>
     </row>
     <row r="191" ht="17.25" customHeight="1">
-      <c r="D191" s="53"/>
+      <c r="D191" s="55"/>
     </row>
     <row r="192" ht="17.25" customHeight="1">
-      <c r="D192" s="53"/>
+      <c r="D192" s="55"/>
     </row>
     <row r="193" ht="17.25" customHeight="1">
-      <c r="D193" s="53"/>
+      <c r="D193" s="55"/>
     </row>
     <row r="194" ht="17.25" customHeight="1">
-      <c r="D194" s="53"/>
+      <c r="D194" s="55"/>
     </row>
     <row r="195" ht="17.25" customHeight="1">
-      <c r="D195" s="53"/>
+      <c r="D195" s="55"/>
     </row>
     <row r="196" ht="17.25" customHeight="1">
-      <c r="D196" s="53"/>
+      <c r="D196" s="55"/>
     </row>
     <row r="197" ht="17.25" customHeight="1">
-      <c r="D197" s="53"/>
+      <c r="D197" s="55"/>
     </row>
     <row r="198" ht="17.25" customHeight="1">
-      <c r="D198" s="53"/>
+      <c r="D198" s="55"/>
     </row>
     <row r="199" ht="17.25" customHeight="1">
-      <c r="D199" s="53"/>
+      <c r="D199" s="55"/>
     </row>
     <row r="200" ht="17.25" customHeight="1">
-      <c r="D200" s="53"/>
+      <c r="D200" s="55"/>
     </row>
     <row r="201" ht="17.25" customHeight="1">
-      <c r="D201" s="53"/>
+      <c r="D201" s="55"/>
     </row>
     <row r="202" ht="17.25" customHeight="1">
-      <c r="D202" s="53"/>
+      <c r="D202" s="55"/>
     </row>
     <row r="203" ht="17.25" customHeight="1">
-      <c r="D203" s="53"/>
+      <c r="D203" s="55"/>
     </row>
     <row r="204" ht="17.25" customHeight="1">
-      <c r="D204" s="53"/>
+      <c r="D204" s="55"/>
     </row>
     <row r="205" ht="17.25" customHeight="1">
-      <c r="D205" s="53"/>
+      <c r="D205" s="55"/>
     </row>
     <row r="206" ht="17.25" customHeight="1">
-      <c r="D206" s="53"/>
+      <c r="D206" s="55"/>
     </row>
     <row r="207" ht="17.25" customHeight="1">
-      <c r="D207" s="53"/>
+      <c r="D207" s="55"/>
     </row>
     <row r="208" ht="17.25" customHeight="1">
-      <c r="D208" s="53"/>
+      <c r="D208" s="55"/>
     </row>
     <row r="209" ht="17.25" customHeight="1">
-      <c r="D209" s="53"/>
+      <c r="D209" s="55"/>
     </row>
     <row r="210" ht="17.25" customHeight="1">
-      <c r="D210" s="53"/>
+      <c r="D210" s="55"/>
     </row>
     <row r="211" ht="17.25" customHeight="1">
-      <c r="D211" s="53"/>
+      <c r="D211" s="55"/>
     </row>
     <row r="212" ht="17.25" customHeight="1">
-      <c r="D212" s="53"/>
+      <c r="D212" s="55"/>
     </row>
     <row r="213" ht="17.25" customHeight="1">
-      <c r="D213" s="53"/>
+      <c r="D213" s="55"/>
     </row>
     <row r="214" ht="17.25" customHeight="1">
-      <c r="D214" s="53"/>
+      <c r="D214" s="55"/>
     </row>
     <row r="215" ht="17.25" customHeight="1">
-      <c r="D215" s="53"/>
+      <c r="D215" s="55"/>
     </row>
     <row r="216" ht="17.25" customHeight="1">
-      <c r="D216" s="53"/>
+      <c r="D216" s="55"/>
     </row>
     <row r="217" ht="17.25" customHeight="1">
-      <c r="D217" s="53"/>
+      <c r="D217" s="55"/>
     </row>
     <row r="218" ht="17.25" customHeight="1">
-      <c r="D218" s="53"/>
+      <c r="D218" s="55"/>
     </row>
     <row r="219" ht="17.25" customHeight="1">
-      <c r="D219" s="53"/>
+      <c r="D219" s="55"/>
     </row>
     <row r="220" ht="17.25" customHeight="1">
-      <c r="D220" s="53"/>
+      <c r="D220" s="55"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="D221" s="53"/>
+      <c r="D221" s="55"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="D222" s="53"/>
+      <c r="D222" s="55"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="D223" s="53"/>
+      <c r="D223" s="55"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="D224" s="53"/>
+      <c r="D224" s="55"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="D225" s="53"/>
+      <c r="D225" s="55"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="D226" s="53"/>
+      <c r="D226" s="55"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="D227" s="53"/>
+      <c r="D227" s="55"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="D228" s="53"/>
+      <c r="D228" s="55"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="D229" s="53"/>
+      <c r="D229" s="55"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="D230" s="53"/>
+      <c r="D230" s="55"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="D231" s="53"/>
+      <c r="D231" s="55"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="D232" s="53"/>
+      <c r="D232" s="55"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="D233" s="53"/>
+      <c r="D233" s="55"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="D234" s="53"/>
+      <c r="D234" s="55"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="D235" s="53"/>
+      <c r="D235" s="55"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="D236" s="53"/>
+      <c r="D236" s="55"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="D237" s="53"/>
+      <c r="D237" s="55"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="D238" s="53"/>
+      <c r="D238" s="55"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="D239" s="53"/>
+      <c r="D239" s="55"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="D240" s="53"/>
+      <c r="D240" s="55"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="D241" s="53"/>
+      <c r="D241" s="55"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="D242" s="53"/>
+      <c r="D242" s="55"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="D243" s="53"/>
+      <c r="D243" s="55"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="D244" s="53"/>
+      <c r="D244" s="55"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="D245" s="53"/>
+      <c r="D245" s="55"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="D246" s="53"/>
+      <c r="D246" s="55"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="D247" s="53"/>
+      <c r="D247" s="55"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="D248" s="53"/>
+      <c r="D248" s="55"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="D249" s="53"/>
+      <c r="D249" s="55"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="D250" s="53"/>
+      <c r="D250" s="55"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="D251" s="53"/>
+      <c r="D251" s="55"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="D252" s="53"/>
+      <c r="D252" s="55"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="D253" s="53"/>
+      <c r="D253" s="55"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="D254" s="53"/>
+      <c r="D254" s="55"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="53"/>
+      <c r="D255" s="55"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="53"/>
+      <c r="D256" s="55"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="53"/>
+      <c r="D257" s="55"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="53"/>
+      <c r="D258" s="55"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="53"/>
+      <c r="D259" s="55"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="53"/>
+      <c r="D260" s="55"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="53"/>
+      <c r="D261" s="55"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="53"/>
+      <c r="D262" s="55"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="53"/>
+      <c r="D263" s="55"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="53"/>
+      <c r="D264" s="55"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="53"/>
+      <c r="D265" s="55"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="53"/>
+      <c r="D266" s="55"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="53"/>
+      <c r="D267" s="55"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="53"/>
+      <c r="D268" s="55"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="53"/>
+      <c r="D269" s="55"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="53"/>
+      <c r="D270" s="55"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="53"/>
+      <c r="D271" s="55"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="53"/>
+      <c r="D272" s="55"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="53"/>
+      <c r="D273" s="55"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="53"/>
+      <c r="D274" s="55"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="53"/>
+      <c r="D275" s="55"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="53"/>
+      <c r="D276" s="55"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="53"/>
+      <c r="D277" s="55"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="53"/>
+      <c r="D278" s="55"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="53"/>
+      <c r="D279" s="55"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="53"/>
+      <c r="D280" s="55"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="53"/>
+      <c r="D281" s="55"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="53"/>
+      <c r="D282" s="55"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="53"/>
+      <c r="D283" s="55"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="53"/>
+      <c r="D284" s="55"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="53"/>
+      <c r="D285" s="55"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="53"/>
+      <c r="D286" s="55"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="53"/>
+      <c r="D287" s="55"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="53"/>
+      <c r="D288" s="55"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="53"/>
+      <c r="D289" s="55"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="53"/>
+      <c r="D290" s="55"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="53"/>
+      <c r="D291" s="55"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="53"/>
+      <c r="D292" s="55"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="53"/>
+      <c r="D293" s="55"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="53"/>
+      <c r="D294" s="55"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="53"/>
+      <c r="D295" s="55"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="53"/>
+      <c r="D296" s="55"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="53"/>
+      <c r="D297" s="55"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="53"/>
+      <c r="D298" s="55"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="53"/>
+      <c r="D299" s="55"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="53"/>
+      <c r="D300" s="55"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="53"/>
+      <c r="D301" s="55"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="53"/>
+      <c r="D302" s="55"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="53"/>
+      <c r="D303" s="55"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="53"/>
+      <c r="D304" s="55"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="53"/>
+      <c r="D305" s="55"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="53"/>
+      <c r="D306" s="55"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="53"/>
+      <c r="D307" s="55"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="53"/>
+      <c r="D308" s="55"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="53"/>
+      <c r="D309" s="55"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="53"/>
+      <c r="D310" s="55"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="53"/>
+      <c r="D311" s="55"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="53"/>
+      <c r="D312" s="55"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="53"/>
+      <c r="D313" s="55"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="53"/>
+      <c r="D314" s="55"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="53"/>
+      <c r="D315" s="55"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="53"/>
+      <c r="D316" s="55"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="53"/>
+      <c r="D317" s="55"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="53"/>
+      <c r="D318" s="55"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="53"/>
+      <c r="D319" s="55"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="53"/>
+      <c r="D320" s="55"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="53"/>
+      <c r="D321" s="55"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="53"/>
+      <c r="D322" s="55"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="53"/>
+      <c r="D323" s="55"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="53"/>
+      <c r="D324" s="55"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="53"/>
+      <c r="D325" s="55"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="53"/>
+      <c r="D326" s="55"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="53"/>
+      <c r="D327" s="55"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="53"/>
+      <c r="D328" s="55"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="53"/>
+      <c r="D329" s="55"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="53"/>
+      <c r="D330" s="55"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="53"/>
+      <c r="D331" s="55"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="53"/>
+      <c r="D332" s="55"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="53"/>
+      <c r="D333" s="55"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="53"/>
+      <c r="D334" s="55"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="53"/>
+      <c r="D335" s="55"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="53"/>
+      <c r="D336" s="55"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="53"/>
+      <c r="D337" s="55"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="53"/>
+      <c r="D338" s="55"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="53"/>
+      <c r="D339" s="55"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="53"/>
+      <c r="D340" s="55"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="53"/>
+      <c r="D341" s="55"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="53"/>
+      <c r="D342" s="55"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="53"/>
+      <c r="D343" s="55"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="53"/>
+      <c r="D344" s="55"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="53"/>
+      <c r="D345" s="55"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="53"/>
+      <c r="D346" s="55"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="53"/>
+      <c r="D347" s="55"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="53"/>
+      <c r="D348" s="55"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="53"/>
+      <c r="D349" s="55"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="53"/>
+      <c r="D350" s="55"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="53"/>
+      <c r="D351" s="55"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="D352" s="53"/>
+      <c r="D352" s="55"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="D353" s="53"/>
+      <c r="D353" s="55"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="D354" s="53"/>
+      <c r="D354" s="55"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="D355" s="53"/>
+      <c r="D355" s="55"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="D356" s="53"/>
+      <c r="D356" s="55"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="D357" s="53"/>
+      <c r="D357" s="55"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="D358" s="53"/>
+      <c r="D358" s="55"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="D359" s="53"/>
+      <c r="D359" s="55"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="D360" s="53"/>
+      <c r="D360" s="55"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="D361" s="53"/>
+      <c r="D361" s="55"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="D362" s="53"/>
+      <c r="D362" s="55"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="D363" s="53"/>
+      <c r="D363" s="55"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="D364" s="53"/>
+      <c r="D364" s="55"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="D365" s="53"/>
+      <c r="D365" s="55"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="D366" s="53"/>
+      <c r="D366" s="55"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="D367" s="53"/>
+      <c r="D367" s="55"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="D368" s="53"/>
+      <c r="D368" s="55"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="D369" s="53"/>
+      <c r="D369" s="55"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="D370" s="53"/>
+      <c r="D370" s="55"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="D371" s="53"/>
+      <c r="D371" s="55"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="D372" s="53"/>
+      <c r="D372" s="55"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="D373" s="53"/>
+      <c r="D373" s="55"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="D374" s="53"/>
+      <c r="D374" s="55"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="D375" s="53"/>
+      <c r="D375" s="55"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="D376" s="53"/>
+      <c r="D376" s="55"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="D377" s="53"/>
+      <c r="D377" s="55"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="D378" s="53"/>
+      <c r="D378" s="55"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="D379" s="53"/>
+      <c r="D379" s="55"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="D380" s="53"/>
+      <c r="D380" s="55"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="D381" s="53"/>
+      <c r="D381" s="55"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="D382" s="53"/>
+      <c r="D382" s="55"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="D383" s="53"/>
+      <c r="D383" s="55"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="D384" s="53"/>
+      <c r="D384" s="55"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="D385" s="53"/>
+      <c r="D385" s="55"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="D386" s="53"/>
+      <c r="D386" s="55"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="D387" s="53"/>
+      <c r="D387" s="55"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="D388" s="53"/>
+      <c r="D388" s="55"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="D389" s="53"/>
+      <c r="D389" s="55"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="D390" s="53"/>
+      <c r="D390" s="55"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="D391" s="53"/>
+      <c r="D391" s="55"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="D392" s="53"/>
+      <c r="D392" s="55"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="D393" s="53"/>
+      <c r="D393" s="55"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="D394" s="53"/>
+      <c r="D394" s="55"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="D395" s="53"/>
+      <c r="D395" s="55"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="D396" s="53"/>
+      <c r="D396" s="55"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="D397" s="53"/>
+      <c r="D397" s="55"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="D398" s="53"/>
+      <c r="D398" s="55"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="D399" s="53"/>
+      <c r="D399" s="55"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="D400" s="53"/>
+      <c r="D400" s="55"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="D401" s="53"/>
+      <c r="D401" s="55"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="D402" s="53"/>
+      <c r="D402" s="55"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="D403" s="53"/>
+      <c r="D403" s="55"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="D404" s="53"/>
+      <c r="D404" s="55"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="D405" s="53"/>
+      <c r="D405" s="55"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="D406" s="53"/>
+      <c r="D406" s="55"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="D407" s="53"/>
+      <c r="D407" s="55"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="D408" s="53"/>
+      <c r="D408" s="55"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="D409" s="53"/>
+      <c r="D409" s="55"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="D410" s="53"/>
+      <c r="D410" s="55"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="D411" s="53"/>
+      <c r="D411" s="55"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="D412" s="53"/>
+      <c r="D412" s="55"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="D413" s="53"/>
+      <c r="D413" s="55"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="D414" s="53"/>
+      <c r="D414" s="55"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="D415" s="53"/>
+      <c r="D415" s="55"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="D416" s="53"/>
+      <c r="D416" s="55"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="D417" s="53"/>
+      <c r="D417" s="55"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="D418" s="53"/>
+      <c r="D418" s="55"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="D419" s="53"/>
+      <c r="D419" s="55"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="D420" s="53"/>
+      <c r="D420" s="55"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="D421" s="53"/>
+      <c r="D421" s="55"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="D422" s="53"/>
+      <c r="D422" s="55"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="D423" s="53"/>
+      <c r="D423" s="55"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="D424" s="53"/>
+      <c r="D424" s="55"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="D425" s="53"/>
+      <c r="D425" s="55"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="D426" s="53"/>
+      <c r="D426" s="55"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="D427" s="53"/>
+      <c r="D427" s="55"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="D428" s="53"/>
+      <c r="D428" s="55"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="D429" s="53"/>
+      <c r="D429" s="55"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="D430" s="53"/>
+      <c r="D430" s="55"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="D431" s="53"/>
+      <c r="D431" s="55"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="D432" s="53"/>
+      <c r="D432" s="55"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="D433" s="53"/>
+      <c r="D433" s="55"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="D434" s="53"/>
+      <c r="D434" s="55"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="D435" s="53"/>
+      <c r="D435" s="55"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="D436" s="53"/>
+      <c r="D436" s="55"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="D437" s="53"/>
+      <c r="D437" s="55"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="D438" s="53"/>
+      <c r="D438" s="55"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="D439" s="53"/>
+      <c r="D439" s="55"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="D440" s="53"/>
+      <c r="D440" s="55"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="D441" s="53"/>
+      <c r="D441" s="55"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="D442" s="53"/>
+      <c r="D442" s="55"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="D443" s="53"/>
+      <c r="D443" s="55"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="D444" s="53"/>
+      <c r="D444" s="55"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="D445" s="53"/>
+      <c r="D445" s="55"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="D446" s="53"/>
+      <c r="D446" s="55"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="D447" s="53"/>
+      <c r="D447" s="55"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="D448" s="53"/>
+      <c r="D448" s="55"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="D449" s="53"/>
+      <c r="D449" s="55"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="D450" s="53"/>
+      <c r="D450" s="55"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="D451" s="53"/>
+      <c r="D451" s="55"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="D452" s="53"/>
+      <c r="D452" s="55"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="D453" s="53"/>
+      <c r="D453" s="55"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="D454" s="53"/>
+      <c r="D454" s="55"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="D455" s="53"/>
+      <c r="D455" s="55"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="D456" s="53"/>
+      <c r="D456" s="55"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="D457" s="53"/>
+      <c r="D457" s="55"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="D458" s="53"/>
+      <c r="D458" s="55"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="D459" s="53"/>
+      <c r="D459" s="55"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="D460" s="53"/>
+      <c r="D460" s="55"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="D461" s="53"/>
+      <c r="D461" s="55"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="D462" s="53"/>
+      <c r="D462" s="55"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="D463" s="53"/>
+      <c r="D463" s="55"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="D464" s="53"/>
+      <c r="D464" s="55"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="D465" s="53"/>
+      <c r="D465" s="55"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="D466" s="53"/>
+      <c r="D466" s="55"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="D467" s="53"/>
+      <c r="D467" s="55"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="D468" s="53"/>
+      <c r="D468" s="55"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="D469" s="53"/>
+      <c r="D469" s="55"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="D470" s="53"/>
+      <c r="D470" s="55"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="D471" s="53"/>
+      <c r="D471" s="55"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="D472" s="53"/>
+      <c r="D472" s="55"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="D473" s="53"/>
+      <c r="D473" s="55"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="D474" s="53"/>
+      <c r="D474" s="55"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="D475" s="53"/>
+      <c r="D475" s="55"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="D476" s="53"/>
+      <c r="D476" s="55"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="D477" s="53"/>
+      <c r="D477" s="55"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="D478" s="53"/>
+      <c r="D478" s="55"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="D479" s="53"/>
+      <c r="D479" s="55"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="D480" s="53"/>
+      <c r="D480" s="55"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="D481" s="53"/>
+      <c r="D481" s="55"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="D482" s="53"/>
+      <c r="D482" s="55"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="D483" s="53"/>
+      <c r="D483" s="55"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="D484" s="53"/>
+      <c r="D484" s="55"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="D485" s="53"/>
+      <c r="D485" s="55"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="D486" s="53"/>
+      <c r="D486" s="55"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="D487" s="53"/>
+      <c r="D487" s="55"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="D488" s="53"/>
+      <c r="D488" s="55"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="D489" s="53"/>
+      <c r="D489" s="55"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="D490" s="53"/>
+      <c r="D490" s="55"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="D491" s="53"/>
+      <c r="D491" s="55"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="D492" s="53"/>
+      <c r="D492" s="55"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="D493" s="53"/>
+      <c r="D493" s="55"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="D494" s="53"/>
+      <c r="D494" s="55"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="D495" s="53"/>
+      <c r="D495" s="55"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="D496" s="53"/>
+      <c r="D496" s="55"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="D497" s="53"/>
+      <c r="D497" s="55"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="D498" s="53"/>
+      <c r="D498" s="55"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="D499" s="53"/>
+      <c r="D499" s="55"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="D500" s="53"/>
+      <c r="D500" s="55"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="D501" s="53"/>
+      <c r="D501" s="55"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="D502" s="53"/>
+      <c r="D502" s="55"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="D503" s="53"/>
+      <c r="D503" s="55"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="D504" s="53"/>
+      <c r="D504" s="55"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="D505" s="53"/>
+      <c r="D505" s="55"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="D506" s="53"/>
+      <c r="D506" s="55"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="D507" s="53"/>
+      <c r="D507" s="55"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="D508" s="53"/>
+      <c r="D508" s="55"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="D509" s="53"/>
+      <c r="D509" s="55"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="D510" s="53"/>
+      <c r="D510" s="55"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="D511" s="53"/>
+      <c r="D511" s="55"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="D512" s="53"/>
+      <c r="D512" s="55"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="D513" s="53"/>
+      <c r="D513" s="55"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="D514" s="53"/>
+      <c r="D514" s="55"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="D515" s="53"/>
+      <c r="D515" s="55"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="D516" s="53"/>
+      <c r="D516" s="55"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="D517" s="53"/>
+      <c r="D517" s="55"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="D518" s="53"/>
+      <c r="D518" s="55"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="D519" s="53"/>
+      <c r="D519" s="55"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="D520" s="53"/>
+      <c r="D520" s="55"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="D521" s="53"/>
+      <c r="D521" s="55"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="D522" s="53"/>
+      <c r="D522" s="55"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="D523" s="53"/>
+      <c r="D523" s="55"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="D524" s="53"/>
+      <c r="D524" s="55"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="D525" s="53"/>
+      <c r="D525" s="55"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="D526" s="53"/>
+      <c r="D526" s="55"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="D527" s="53"/>
+      <c r="D527" s="55"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="D528" s="53"/>
+      <c r="D528" s="55"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="D529" s="53"/>
+      <c r="D529" s="55"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="D530" s="53"/>
+      <c r="D530" s="55"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="D531" s="53"/>
+      <c r="D531" s="55"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="D532" s="53"/>
+      <c r="D532" s="55"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="D533" s="53"/>
+      <c r="D533" s="55"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="D534" s="53"/>
+      <c r="D534" s="55"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="D535" s="53"/>
+      <c r="D535" s="55"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="D536" s="53"/>
+      <c r="D536" s="55"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="D537" s="53"/>
+      <c r="D537" s="55"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="D538" s="53"/>
+      <c r="D538" s="55"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="D539" s="53"/>
+      <c r="D539" s="55"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="D540" s="53"/>
+      <c r="D540" s="55"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="D541" s="53"/>
+      <c r="D541" s="55"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="D542" s="53"/>
+      <c r="D542" s="55"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="D543" s="53"/>
+      <c r="D543" s="55"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="D544" s="53"/>
+      <c r="D544" s="55"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="D545" s="53"/>
+      <c r="D545" s="55"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="D546" s="53"/>
+      <c r="D546" s="55"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="D547" s="53"/>
+      <c r="D547" s="55"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="D548" s="53"/>
+      <c r="D548" s="55"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="D549" s="53"/>
+      <c r="D549" s="55"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="D550" s="53"/>
+      <c r="D550" s="55"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="D551" s="53"/>
+      <c r="D551" s="55"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="D552" s="53"/>
+      <c r="D552" s="55"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="D553" s="53"/>
+      <c r="D553" s="55"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="D554" s="53"/>
+      <c r="D554" s="55"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="D555" s="53"/>
+      <c r="D555" s="55"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="D556" s="53"/>
+      <c r="D556" s="55"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="D557" s="53"/>
+      <c r="D557" s="55"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="D558" s="53"/>
+      <c r="D558" s="55"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="D559" s="53"/>
+      <c r="D559" s="55"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="D560" s="53"/>
+      <c r="D560" s="55"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="D561" s="53"/>
+      <c r="D561" s="55"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="D562" s="53"/>
+      <c r="D562" s="55"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="D563" s="53"/>
+      <c r="D563" s="55"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="D564" s="53"/>
+      <c r="D564" s="55"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="D565" s="53"/>
+      <c r="D565" s="55"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="D566" s="53"/>
+      <c r="D566" s="55"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="D567" s="53"/>
+      <c r="D567" s="55"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="D568" s="53"/>
+      <c r="D568" s="55"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="D569" s="53"/>
+      <c r="D569" s="55"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="D570" s="53"/>
+      <c r="D570" s="55"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="D571" s="53"/>
+      <c r="D571" s="55"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="D572" s="53"/>
+      <c r="D572" s="55"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="D573" s="53"/>
+      <c r="D573" s="55"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="D574" s="53"/>
+      <c r="D574" s="55"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="D575" s="53"/>
+      <c r="D575" s="55"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="D576" s="53"/>
+      <c r="D576" s="55"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="D577" s="53"/>
+      <c r="D577" s="55"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="D578" s="53"/>
+      <c r="D578" s="55"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="D579" s="53"/>
+      <c r="D579" s="55"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="D580" s="53"/>
+      <c r="D580" s="55"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="D581" s="53"/>
+      <c r="D581" s="55"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="D582" s="53"/>
+      <c r="D582" s="55"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="D583" s="53"/>
+      <c r="D583" s="55"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="D584" s="53"/>
+      <c r="D584" s="55"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="D585" s="53"/>
+      <c r="D585" s="55"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="D586" s="53"/>
+      <c r="D586" s="55"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="D587" s="53"/>
+      <c r="D587" s="55"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="D588" s="53"/>
+      <c r="D588" s="55"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="D589" s="53"/>
+      <c r="D589" s="55"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="D590" s="53"/>
+      <c r="D590" s="55"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="D591" s="53"/>
+      <c r="D591" s="55"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="D592" s="53"/>
+      <c r="D592" s="55"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="D593" s="53"/>
+      <c r="D593" s="55"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="D594" s="53"/>
+      <c r="D594" s="55"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="D595" s="53"/>
+      <c r="D595" s="55"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="D596" s="53"/>
+      <c r="D596" s="55"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="D597" s="53"/>
+      <c r="D597" s="55"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="D598" s="53"/>
+      <c r="D598" s="55"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="D599" s="53"/>
+      <c r="D599" s="55"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="D600" s="53"/>
+      <c r="D600" s="55"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="D601" s="53"/>
+      <c r="D601" s="55"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="D602" s="53"/>
+      <c r="D602" s="55"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="D603" s="53"/>
+      <c r="D603" s="55"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="D604" s="53"/>
+      <c r="D604" s="55"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="D605" s="53"/>
+      <c r="D605" s="55"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="D606" s="53"/>
+      <c r="D606" s="55"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="D607" s="53"/>
+      <c r="D607" s="55"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="D608" s="53"/>
+      <c r="D608" s="55"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="D609" s="53"/>
+      <c r="D609" s="55"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="D610" s="53"/>
+      <c r="D610" s="55"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="D611" s="53"/>
+      <c r="D611" s="55"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="D612" s="53"/>
+      <c r="D612" s="55"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="D613" s="53"/>
+      <c r="D613" s="55"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="D614" s="53"/>
+      <c r="D614" s="55"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="D615" s="53"/>
+      <c r="D615" s="55"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="D616" s="53"/>
+      <c r="D616" s="55"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="D617" s="53"/>
+      <c r="D617" s="55"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="D618" s="53"/>
+      <c r="D618" s="55"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="D619" s="53"/>
+      <c r="D619" s="55"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="D620" s="53"/>
+      <c r="D620" s="55"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="D621" s="53"/>
+      <c r="D621" s="55"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="D622" s="53"/>
+      <c r="D622" s="55"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="D623" s="53"/>
+      <c r="D623" s="55"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="D624" s="53"/>
+      <c r="D624" s="55"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="D625" s="53"/>
+      <c r="D625" s="55"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="D626" s="53"/>
+      <c r="D626" s="55"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="D627" s="53"/>
+      <c r="D627" s="55"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="D628" s="53"/>
+      <c r="D628" s="55"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="D629" s="53"/>
+      <c r="D629" s="55"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="D630" s="53"/>
+      <c r="D630" s="55"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="D631" s="53"/>
+      <c r="D631" s="55"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="D632" s="53"/>
+      <c r="D632" s="55"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="D633" s="53"/>
+      <c r="D633" s="55"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="D634" s="53"/>
+      <c r="D634" s="55"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="D635" s="53"/>
+      <c r="D635" s="55"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="D636" s="53"/>
+      <c r="D636" s="55"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="D637" s="53"/>
+      <c r="D637" s="55"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="D638" s="53"/>
+      <c r="D638" s="55"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="D639" s="53"/>
+      <c r="D639" s="55"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="D640" s="53"/>
+      <c r="D640" s="55"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="D641" s="53"/>
+      <c r="D641" s="55"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="D642" s="53"/>
+      <c r="D642" s="55"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="D643" s="53"/>
+      <c r="D643" s="55"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="D644" s="53"/>
+      <c r="D644" s="55"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="D645" s="53"/>
+      <c r="D645" s="55"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="D646" s="53"/>
+      <c r="D646" s="55"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="D647" s="53"/>
+      <c r="D647" s="55"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="D648" s="53"/>
+      <c r="D648" s="55"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="D649" s="53"/>
+      <c r="D649" s="55"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="D650" s="53"/>
+      <c r="D650" s="55"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="D651" s="53"/>
+      <c r="D651" s="55"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="D652" s="53"/>
+      <c r="D652" s="55"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="D653" s="53"/>
+      <c r="D653" s="55"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="D654" s="53"/>
+      <c r="D654" s="55"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="D655" s="53"/>
+      <c r="D655" s="55"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="D656" s="53"/>
+      <c r="D656" s="55"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="D657" s="53"/>
+      <c r="D657" s="55"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="D658" s="53"/>
+      <c r="D658" s="55"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="D659" s="53"/>
+      <c r="D659" s="55"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="D660" s="53"/>
+      <c r="D660" s="55"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="D661" s="53"/>
+      <c r="D661" s="55"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="D662" s="53"/>
+      <c r="D662" s="55"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="D663" s="53"/>
+      <c r="D663" s="55"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="D664" s="53"/>
+      <c r="D664" s="55"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="D665" s="53"/>
+      <c r="D665" s="55"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="D666" s="53"/>
+      <c r="D666" s="55"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="D667" s="53"/>
+      <c r="D667" s="55"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="D668" s="53"/>
+      <c r="D668" s="55"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="D669" s="53"/>
+      <c r="D669" s="55"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="D670" s="53"/>
+      <c r="D670" s="55"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="D671" s="53"/>
+      <c r="D671" s="55"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="D672" s="53"/>
+      <c r="D672" s="55"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="D673" s="53"/>
+      <c r="D673" s="55"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="D674" s="53"/>
+      <c r="D674" s="55"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="D675" s="53"/>
+      <c r="D675" s="55"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="D676" s="53"/>
+      <c r="D676" s="55"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="D677" s="53"/>
+      <c r="D677" s="55"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="D678" s="53"/>
+      <c r="D678" s="55"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="D679" s="53"/>
+      <c r="D679" s="55"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="D680" s="53"/>
+      <c r="D680" s="55"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="D681" s="53"/>
+      <c r="D681" s="55"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="D682" s="53"/>
+      <c r="D682" s="55"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="D683" s="53"/>
+      <c r="D683" s="55"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="D684" s="53"/>
+      <c r="D684" s="55"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="D685" s="53"/>
+      <c r="D685" s="55"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="D686" s="53"/>
+      <c r="D686" s="55"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="D687" s="53"/>
+      <c r="D687" s="55"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="D688" s="53"/>
+      <c r="D688" s="55"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="D689" s="53"/>
+      <c r="D689" s="55"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="D690" s="53"/>
+      <c r="D690" s="55"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="D691" s="53"/>
+      <c r="D691" s="55"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="D692" s="53"/>
+      <c r="D692" s="55"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="D693" s="53"/>
+      <c r="D693" s="55"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="D694" s="53"/>
+      <c r="D694" s="55"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="D695" s="53"/>
+      <c r="D695" s="55"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="D696" s="53"/>
+      <c r="D696" s="55"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="D697" s="53"/>
+      <c r="D697" s="55"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="D698" s="53"/>
+      <c r="D698" s="55"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="D699" s="53"/>
+      <c r="D699" s="55"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="D700" s="53"/>
+      <c r="D700" s="55"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="D701" s="53"/>
+      <c r="D701" s="55"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="D702" s="53"/>
+      <c r="D702" s="55"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="D703" s="53"/>
+      <c r="D703" s="55"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="D704" s="53"/>
+      <c r="D704" s="55"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="D705" s="53"/>
+      <c r="D705" s="55"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="D706" s="53"/>
+      <c r="D706" s="55"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="D707" s="53"/>
+      <c r="D707" s="55"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="D708" s="53"/>
+      <c r="D708" s="55"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="D709" s="53"/>
+      <c r="D709" s="55"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="D710" s="53"/>
+      <c r="D710" s="55"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="D711" s="53"/>
+      <c r="D711" s="55"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="D712" s="53"/>
+      <c r="D712" s="55"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="D713" s="53"/>
+      <c r="D713" s="55"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="D714" s="53"/>
+      <c r="D714" s="55"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="D715" s="53"/>
+      <c r="D715" s="55"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="D716" s="53"/>
+      <c r="D716" s="55"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="D717" s="53"/>
+      <c r="D717" s="55"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="D718" s="53"/>
+      <c r="D718" s="55"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="D719" s="53"/>
+      <c r="D719" s="55"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="D720" s="53"/>
+      <c r="D720" s="55"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="D721" s="53"/>
+      <c r="D721" s="55"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="D722" s="53"/>
+      <c r="D722" s="55"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="D723" s="53"/>
+      <c r="D723" s="55"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="D724" s="53"/>
+      <c r="D724" s="55"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="D725" s="53"/>
+      <c r="D725" s="55"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="D726" s="53"/>
+      <c r="D726" s="55"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="D727" s="53"/>
+      <c r="D727" s="55"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="D728" s="53"/>
+      <c r="D728" s="55"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="D729" s="53"/>
+      <c r="D729" s="55"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="D730" s="53"/>
+      <c r="D730" s="55"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="D731" s="53"/>
+      <c r="D731" s="55"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="D732" s="53"/>
+      <c r="D732" s="55"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="D733" s="53"/>
+      <c r="D733" s="55"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="D734" s="53"/>
+      <c r="D734" s="55"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="D735" s="53"/>
+      <c r="D735" s="55"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="D736" s="53"/>
+      <c r="D736" s="55"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="D737" s="53"/>
+      <c r="D737" s="55"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="D738" s="53"/>
+      <c r="D738" s="55"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="D739" s="53"/>
+      <c r="D739" s="55"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="D740" s="53"/>
+      <c r="D740" s="55"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="D741" s="53"/>
+      <c r="D741" s="55"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="D742" s="53"/>
+      <c r="D742" s="55"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="D743" s="53"/>
+      <c r="D743" s="55"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="D744" s="53"/>
+      <c r="D744" s="55"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="D745" s="53"/>
+      <c r="D745" s="55"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="D746" s="53"/>
+      <c r="D746" s="55"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="D747" s="53"/>
+      <c r="D747" s="55"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="D748" s="53"/>
+      <c r="D748" s="55"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="D749" s="53"/>
+      <c r="D749" s="55"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="D750" s="53"/>
+      <c r="D750" s="55"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="D751" s="53"/>
+      <c r="D751" s="55"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="D752" s="53"/>
+      <c r="D752" s="55"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="D753" s="53"/>
+      <c r="D753" s="55"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="D754" s="53"/>
+      <c r="D754" s="55"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="D755" s="53"/>
+      <c r="D755" s="55"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="D756" s="53"/>
+      <c r="D756" s="55"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="D757" s="53"/>
+      <c r="D757" s="55"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="D758" s="53"/>
+      <c r="D758" s="55"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="D759" s="53"/>
+      <c r="D759" s="55"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="D760" s="53"/>
+      <c r="D760" s="55"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="D761" s="53"/>
+      <c r="D761" s="55"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="D762" s="53"/>
+      <c r="D762" s="55"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="D763" s="53"/>
+      <c r="D763" s="55"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="D764" s="53"/>
+      <c r="D764" s="55"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="D765" s="53"/>
+      <c r="D765" s="55"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="D766" s="53"/>
+      <c r="D766" s="55"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="D767" s="53"/>
+      <c r="D767" s="55"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="D768" s="53"/>
+      <c r="D768" s="55"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="D769" s="53"/>
+      <c r="D769" s="55"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="D770" s="53"/>
+      <c r="D770" s="55"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="D771" s="53"/>
+      <c r="D771" s="55"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="D772" s="53"/>
+      <c r="D772" s="55"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="D773" s="53"/>
+      <c r="D773" s="55"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="D774" s="53"/>
+      <c r="D774" s="55"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="D775" s="53"/>
+      <c r="D775" s="55"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="D776" s="53"/>
+      <c r="D776" s="55"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="D777" s="53"/>
+      <c r="D777" s="55"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="D778" s="53"/>
+      <c r="D778" s="55"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="D779" s="53"/>
+      <c r="D779" s="55"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="D780" s="53"/>
+      <c r="D780" s="55"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="D781" s="53"/>
+      <c r="D781" s="55"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="D782" s="53"/>
+      <c r="D782" s="55"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="D783" s="53"/>
+      <c r="D783" s="55"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="D784" s="53"/>
+      <c r="D784" s="55"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="D785" s="53"/>
+      <c r="D785" s="55"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="D786" s="53"/>
+      <c r="D786" s="55"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="D787" s="53"/>
+      <c r="D787" s="55"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="D788" s="53"/>
+      <c r="D788" s="55"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="D789" s="53"/>
+      <c r="D789" s="55"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="D790" s="53"/>
+      <c r="D790" s="55"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="D791" s="53"/>
+      <c r="D791" s="55"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="D792" s="53"/>
+      <c r="D792" s="55"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="D793" s="53"/>
+      <c r="D793" s="55"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="D794" s="53"/>
+      <c r="D794" s="55"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="D795" s="53"/>
+      <c r="D795" s="55"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="D796" s="53"/>
+      <c r="D796" s="55"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="D797" s="53"/>
+      <c r="D797" s="55"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="D798" s="53"/>
+      <c r="D798" s="55"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="D799" s="53"/>
+      <c r="D799" s="55"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="D800" s="53"/>
+      <c r="D800" s="55"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="D801" s="53"/>
+      <c r="D801" s="55"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="D802" s="53"/>
+      <c r="D802" s="55"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="D803" s="53"/>
+      <c r="D803" s="55"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="D804" s="53"/>
+      <c r="D804" s="55"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="D805" s="53"/>
+      <c r="D805" s="55"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="D806" s="53"/>
+      <c r="D806" s="55"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="D807" s="53"/>
+      <c r="D807" s="55"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="D808" s="53"/>
+      <c r="D808" s="55"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="D809" s="53"/>
+      <c r="D809" s="55"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="D810" s="53"/>
+      <c r="D810" s="55"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="D811" s="53"/>
+      <c r="D811" s="55"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="D812" s="53"/>
+      <c r="D812" s="55"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="D813" s="53"/>
+      <c r="D813" s="55"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="D814" s="53"/>
+      <c r="D814" s="55"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="D815" s="53"/>
+      <c r="D815" s="55"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="D816" s="53"/>
+      <c r="D816" s="55"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="D817" s="53"/>
+      <c r="D817" s="55"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="D818" s="53"/>
+      <c r="D818" s="55"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="D819" s="53"/>
+      <c r="D819" s="55"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="D820" s="53"/>
+      <c r="D820" s="55"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="D821" s="53"/>
+      <c r="D821" s="55"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="D822" s="53"/>
+      <c r="D822" s="55"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="D823" s="53"/>
+      <c r="D823" s="55"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="D824" s="53"/>
+      <c r="D824" s="55"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="D825" s="53"/>
+      <c r="D825" s="55"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="D826" s="53"/>
+      <c r="D826" s="55"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="D827" s="53"/>
+      <c r="D827" s="55"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="D828" s="53"/>
+      <c r="D828" s="55"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="D829" s="53"/>
+      <c r="D829" s="55"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="D830" s="53"/>
+      <c r="D830" s="55"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="D831" s="53"/>
+      <c r="D831" s="55"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="D832" s="53"/>
+      <c r="D832" s="55"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="D833" s="53"/>
+      <c r="D833" s="55"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="D834" s="53"/>
+      <c r="D834" s="55"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="D835" s="53"/>
+      <c r="D835" s="55"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="D836" s="53"/>
+      <c r="D836" s="55"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="D837" s="53"/>
+      <c r="D837" s="55"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="D838" s="53"/>
+      <c r="D838" s="55"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="D839" s="53"/>
+      <c r="D839" s="55"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="D840" s="53"/>
+      <c r="D840" s="55"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="D841" s="53"/>
+      <c r="D841" s="55"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="D842" s="53"/>
+      <c r="D842" s="55"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="D843" s="53"/>
+      <c r="D843" s="55"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="D844" s="53"/>
+      <c r="D844" s="55"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="D845" s="53"/>
+      <c r="D845" s="55"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="D846" s="53"/>
+      <c r="D846" s="55"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="D847" s="53"/>
+      <c r="D847" s="55"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="D848" s="53"/>
+      <c r="D848" s="55"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="D849" s="53"/>
+      <c r="D849" s="55"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="D850" s="53"/>
+      <c r="D850" s="55"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="D851" s="53"/>
+      <c r="D851" s="55"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="D852" s="53"/>
+      <c r="D852" s="55"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="D853" s="53"/>
+      <c r="D853" s="55"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="D854" s="53"/>
+      <c r="D854" s="55"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="D855" s="53"/>
+      <c r="D855" s="55"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="D856" s="53"/>
+      <c r="D856" s="55"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="D857" s="53"/>
+      <c r="D857" s="55"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="D858" s="53"/>
+      <c r="D858" s="55"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="D859" s="53"/>
+      <c r="D859" s="55"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="D860" s="53"/>
+      <c r="D860" s="55"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="D861" s="53"/>
+      <c r="D861" s="55"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="D862" s="53"/>
+      <c r="D862" s="55"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="D863" s="53"/>
+      <c r="D863" s="55"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="D864" s="53"/>
+      <c r="D864" s="55"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="D865" s="53"/>
+      <c r="D865" s="55"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="D866" s="53"/>
+      <c r="D866" s="55"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="D867" s="53"/>
+      <c r="D867" s="55"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="D868" s="53"/>
+      <c r="D868" s="55"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="D869" s="53"/>
+      <c r="D869" s="55"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="D870" s="53"/>
+      <c r="D870" s="55"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="D871" s="53"/>
+      <c r="D871" s="55"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="D872" s="53"/>
+      <c r="D872" s="55"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="D873" s="53"/>
+      <c r="D873" s="55"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="D874" s="53"/>
+      <c r="D874" s="55"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="D875" s="53"/>
+      <c r="D875" s="55"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="D876" s="53"/>
+      <c r="D876" s="55"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="D877" s="53"/>
+      <c r="D877" s="55"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="D878" s="53"/>
+      <c r="D878" s="55"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="D879" s="53"/>
+      <c r="D879" s="55"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="D880" s="53"/>
+      <c r="D880" s="55"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="D881" s="53"/>
+      <c r="D881" s="55"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="D882" s="53"/>
+      <c r="D882" s="55"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="D883" s="53"/>
+      <c r="D883" s="55"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="D884" s="53"/>
+      <c r="D884" s="55"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="D885" s="53"/>
+      <c r="D885" s="55"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="D886" s="53"/>
+      <c r="D886" s="55"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="D887" s="53"/>
+      <c r="D887" s="55"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="D888" s="53"/>
+      <c r="D888" s="55"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="D889" s="53"/>
+      <c r="D889" s="55"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="D890" s="53"/>
+      <c r="D890" s="55"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="D891" s="53"/>
+      <c r="D891" s="55"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="D892" s="53"/>
+      <c r="D892" s="55"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="D893" s="53"/>
+      <c r="D893" s="55"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="D894" s="53"/>
+      <c r="D894" s="55"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="D895" s="53"/>
+      <c r="D895" s="55"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="D896" s="53"/>
+      <c r="D896" s="55"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="D897" s="53"/>
+      <c r="D897" s="55"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="D898" s="53"/>
+      <c r="D898" s="55"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="D899" s="53"/>
+      <c r="D899" s="55"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="D900" s="53"/>
+      <c r="D900" s="55"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="D901" s="53"/>
+      <c r="D901" s="55"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="D902" s="53"/>
+      <c r="D902" s="55"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="D903" s="53"/>
+      <c r="D903" s="55"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="D904" s="53"/>
+      <c r="D904" s="55"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="D905" s="53"/>
+      <c r="D905" s="55"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="D906" s="53"/>
+      <c r="D906" s="55"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="D907" s="53"/>
+      <c r="D907" s="55"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="D908" s="53"/>
+      <c r="D908" s="55"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="D909" s="53"/>
+      <c r="D909" s="55"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="D910" s="53"/>
+      <c r="D910" s="55"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="D911" s="53"/>
+      <c r="D911" s="55"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="D912" s="53"/>
+      <c r="D912" s="55"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="D913" s="53"/>
+      <c r="D913" s="55"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="D914" s="53"/>
+      <c r="D914" s="55"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="D915" s="53"/>
+      <c r="D915" s="55"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="D916" s="53"/>
+      <c r="D916" s="55"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="D917" s="53"/>
+      <c r="D917" s="55"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="D918" s="53"/>
+      <c r="D918" s="55"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="D919" s="53"/>
+      <c r="D919" s="55"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="D920" s="53"/>
+      <c r="D920" s="55"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="D921" s="53"/>
+      <c r="D921" s="55"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="D922" s="53"/>
+      <c r="D922" s="55"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="D923" s="53"/>
+      <c r="D923" s="55"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="D924" s="53"/>
+      <c r="D924" s="55"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="D925" s="53"/>
+      <c r="D925" s="55"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="D926" s="53"/>
+      <c r="D926" s="55"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="D927" s="53"/>
+      <c r="D927" s="55"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="D928" s="53"/>
+      <c r="D928" s="55"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="D929" s="53"/>
+      <c r="D929" s="55"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="D930" s="53"/>
+      <c r="D930" s="55"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="D931" s="53"/>
+      <c r="D931" s="55"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="D932" s="53"/>
+      <c r="D932" s="55"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="D933" s="53"/>
+      <c r="D933" s="55"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="D934" s="53"/>
+      <c r="D934" s="55"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="D935" s="53"/>
+      <c r="D935" s="55"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="D936" s="53"/>
+      <c r="D936" s="55"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="D937" s="53"/>
+      <c r="D937" s="55"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="D938" s="53"/>
+      <c r="D938" s="55"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="D939" s="53"/>
+      <c r="D939" s="55"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="D940" s="53"/>
+      <c r="D940" s="55"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="D941" s="53"/>
+      <c r="D941" s="55"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="D942" s="53"/>
+      <c r="D942" s="55"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="D943" s="53"/>
+      <c r="D943" s="55"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="D944" s="53"/>
+      <c r="D944" s="55"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="D945" s="53"/>
+      <c r="D945" s="55"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="D946" s="53"/>
+      <c r="D946" s="55"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="D947" s="53"/>
+      <c r="D947" s="55"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="D948" s="53"/>
+      <c r="D948" s="55"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="D949" s="53"/>
+      <c r="D949" s="55"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="D950" s="53"/>
+      <c r="D950" s="55"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="D951" s="53"/>
+      <c r="D951" s="55"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="D952" s="53"/>
+      <c r="D952" s="55"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="D953" s="53"/>
+      <c r="D953" s="55"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="D954" s="53"/>
+      <c r="D954" s="55"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="D955" s="53"/>
+      <c r="D955" s="55"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="D956" s="53"/>
+      <c r="D956" s="55"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="D957" s="53"/>
+      <c r="D957" s="55"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="D958" s="53"/>
+      <c r="D958" s="55"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="D959" s="53"/>
+      <c r="D959" s="55"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="D960" s="53"/>
+      <c r="D960" s="55"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="D961" s="53"/>
+      <c r="D961" s="55"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="D962" s="53"/>
+      <c r="D962" s="55"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="D963" s="53"/>
+      <c r="D963" s="55"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="D964" s="53"/>
+      <c r="D964" s="55"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="D965" s="53"/>
+      <c r="D965" s="55"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="D966" s="53"/>
+      <c r="D966" s="55"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="D967" s="53"/>
+      <c r="D967" s="55"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="D968" s="53"/>
+      <c r="D968" s="55"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="D969" s="53"/>
+      <c r="D969" s="55"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="D970" s="53"/>
+      <c r="D970" s="55"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="D971" s="53"/>
+      <c r="D971" s="55"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="D972" s="53"/>
+      <c r="D972" s="55"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="D973" s="53"/>
+      <c r="D973" s="55"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="D974" s="53"/>
+      <c r="D974" s="55"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="D975" s="53"/>
+      <c r="D975" s="55"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="D976" s="53"/>
+      <c r="D976" s="55"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="D977" s="53"/>
+      <c r="D977" s="55"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="D978" s="53"/>
+      <c r="D978" s="55"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="D979" s="53"/>
+      <c r="D979" s="55"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="D980" s="53"/>
+      <c r="D980" s="55"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="D981" s="53"/>
+      <c r="D981" s="55"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="D982" s="53"/>
+      <c r="D982" s="55"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="D983" s="53"/>
+      <c r="D983" s="55"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="D984" s="53"/>
+      <c r="D984" s="55"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="D985" s="53"/>
+      <c r="D985" s="55"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="D986" s="53"/>
+      <c r="D986" s="55"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="D987" s="53"/>
+      <c r="D987" s="55"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="D988" s="53"/>
+      <c r="D988" s="55"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="D989" s="53"/>
+      <c r="D989" s="55"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="D990" s="53"/>
+      <c r="D990" s="55"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="D991" s="53"/>
+      <c r="D991" s="55"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="53"/>
+      <c r="D992" s="55"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="D993" s="53"/>
+      <c r="D993" s="55"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="D994" s="53"/>
+      <c r="D994" s="55"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="D995" s="53"/>
+      <c r="D995" s="55"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="D996" s="53"/>
+      <c r="D996" s="55"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="D997" s="53"/>
+      <c r="D997" s="55"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="D998" s="53"/>
+      <c r="D998" s="55"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="D999" s="53"/>
+      <c r="D999" s="55"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="D1000" s="53"/>
+      <c r="D1000" s="55"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -62432,28 +62952,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
@@ -62461,13 +62981,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -62487,13 +63007,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -62513,13 +63033,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -62539,13 +63059,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -62565,13 +63085,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -62591,13 +63111,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F7" s="1">
         <v>400.0</v>
@@ -62617,13 +63137,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F8" s="1">
         <v>300.0</v>
@@ -62677,16 +63197,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -62694,13 +63214,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -62708,13 +63228,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -62722,13 +63242,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -62739,10 +63259,10 @@
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -62750,13 +63270,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
@@ -62764,7 +63284,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -62772,7 +63292,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -62780,7 +63300,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
@@ -62788,7 +63308,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -62796,292 +63316,292 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54">
+      <c r="A12" s="56">
         <v>10.0</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="56" t="s">
+      <c r="B12" s="56" t="s">
         <v>174</v>
       </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="54">
+      <c r="A13" s="56">
         <v>11.0</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="56" t="s">
+      <c r="B13" s="56" t="s">
         <v>174</v>
       </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="54">
+      <c r="A14" s="56">
         <v>12.0</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="54" t="s">
+      <c r="B14" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="56" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="56">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="54">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="56" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="56">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="54">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="56" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="56">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="54">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="56" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="56">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="56" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="54">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="56" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="56">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="56" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="54">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="56" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="56">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="54">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="56" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="56">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="56" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="54">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="56" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="59">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="57">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="56" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="59">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="57">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="56" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="59">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="57">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="56" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="59">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="57">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="56" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="59">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="57">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" s="56" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="59">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="57">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" s="56" t="s">
+      <c r="C27" s="60"/>
+      <c r="D27" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="59">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="57">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="56" t="s">
+      <c r="C28" s="60"/>
+      <c r="D28" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="59">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="57">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="56" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="59">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="59" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="57">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>174</v>
+      <c r="C30" s="60"/>
+      <c r="D30" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31">
@@ -63094,13 +63614,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33">
@@ -63108,13 +63628,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
@@ -63122,13 +63642,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="35">
@@ -63136,13 +63656,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
@@ -63150,13 +63670,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
@@ -63164,13 +63684,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38">
@@ -63178,13 +63698,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39">
@@ -63192,13 +63712,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40">
@@ -63206,13 +63726,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="207">
   <si>
     <t>Number</t>
   </si>
@@ -233,10 +233,13 @@
     <t>화염 방사 파츠</t>
   </si>
   <si>
+    <t>화염 방사 기차는 지속 피해를 줄 수 있는 포탑입니다.  하지만 타켓팅이 없으며, 장전하는 속도는 느립니다.</t>
+  </si>
+  <si>
     <t>석궁 파츠</t>
   </si>
   <si>
-    <t>요격 자동 포탑 파츠</t>
+    <t>석궁 기차는 무겁지만 강력한 석궁입니다. 가끔은 불화살을 발사하기도 합니다.</t>
   </si>
   <si>
     <t>요격 미사일 포탑 파츠</t>
@@ -32611,15 +32614,33 @@
       <c r="B42" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
+      <c r="C42" s="41">
+        <v>30000.0</v>
+      </c>
+      <c r="D42" s="41">
+        <v>800000.0</v>
+      </c>
+      <c r="E42" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="F42" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="G42" s="41">
+        <v>12.0</v>
+      </c>
+      <c r="H42" s="41">
+        <v>2000.0</v>
+      </c>
+      <c r="I42" s="41">
+        <v>5000.0</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L42" s="30" t="b">
         <v>1</v>
       </c>
@@ -32646,15 +32667,33 @@
       <c r="B43" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
+      <c r="C43" s="41">
+        <v>40000.0</v>
+      </c>
+      <c r="D43" s="41">
+        <v>850000.0</v>
+      </c>
+      <c r="E43" s="41">
+        <v>11.0</v>
+      </c>
+      <c r="F43" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="G43" s="41">
+        <v>12.0</v>
+      </c>
+      <c r="H43" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="41">
+        <v>9.99999999E8</v>
+      </c>
+      <c r="J43" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L43" s="18" t="b">
         <v>0</v>
       </c>
@@ -32688,8 +32727,12 @@
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
       <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
+      <c r="J44" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L44" s="18" t="b">
         <v>0</v>
       </c>
@@ -32723,8 +32766,12 @@
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
+      <c r="J45" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L45" s="18" t="b">
         <v>0</v>
       </c>
@@ -32758,8 +32805,12 @@
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="J46" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L46" s="18" t="b">
         <v>0</v>
       </c>
@@ -32793,8 +32844,12 @@
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
       <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
+      <c r="J47" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L47" s="18" t="b">
         <v>0</v>
       </c>
@@ -32828,8 +32883,12 @@
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
+      <c r="J48" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L48" s="18" t="b">
         <v>0</v>
       </c>
@@ -32863,8 +32922,12 @@
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
       <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
+      <c r="J49" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L49" s="18" t="b">
         <v>0</v>
       </c>
@@ -32898,8 +32961,12 @@
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
       <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
+      <c r="J50" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L50" s="18" t="b">
         <v>0</v>
       </c>
@@ -32933,8 +33000,12 @@
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
       <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="J51" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L51" s="18" t="b">
         <v>0</v>
       </c>
@@ -32959,17 +33030,35 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
+        <v>72</v>
+      </c>
+      <c r="C52" s="41">
+        <v>30000.0</v>
+      </c>
+      <c r="D52" s="41">
+        <v>8000000.0</v>
+      </c>
+      <c r="E52" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="F52" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="G52" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="H52" s="41">
+        <v>4000.0</v>
+      </c>
+      <c r="I52" s="41">
+        <v>6000.0</v>
+      </c>
+      <c r="J52" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L52" s="30" t="b">
         <v>1</v>
       </c>
@@ -32994,17 +33083,35 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
+        <v>72</v>
+      </c>
+      <c r="C53" s="41">
+        <v>40000.0</v>
+      </c>
+      <c r="D53" s="41">
+        <v>8500000.0</v>
+      </c>
+      <c r="E53" s="41">
+        <v>11.0</v>
+      </c>
+      <c r="F53" s="41">
+        <v>12.0</v>
+      </c>
+      <c r="G53" s="41">
+        <v>7.8</v>
+      </c>
+      <c r="H53" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="41">
+        <v>9999999.0</v>
+      </c>
+      <c r="J53" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L53" s="18" t="b">
         <v>0</v>
       </c>
@@ -33029,7 +33136,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
@@ -33039,7 +33146,9 @@
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
+      <c r="K54" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L54" s="18" t="b">
         <v>0</v>
       </c>
@@ -33064,7 +33173,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="42"/>
       <c r="D55" s="42"/>
@@ -33074,7 +33183,9 @@
       <c r="H55" s="42"/>
       <c r="I55" s="42"/>
       <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
+      <c r="K55" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L55" s="18" t="b">
         <v>0</v>
       </c>
@@ -33099,7 +33210,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
@@ -33109,7 +33220,9 @@
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
       <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
+      <c r="K56" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L56" s="18" t="b">
         <v>0</v>
       </c>
@@ -33134,7 +33247,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
@@ -33144,7 +33257,9 @@
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
+      <c r="K57" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L57" s="18" t="b">
         <v>0</v>
       </c>
@@ -33169,7 +33284,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
@@ -33179,7 +33294,9 @@
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
       <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
+      <c r="K58" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L58" s="18" t="b">
         <v>0</v>
       </c>
@@ -33204,7 +33321,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
@@ -33214,7 +33331,9 @@
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="K59" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L59" s="18" t="b">
         <v>0</v>
       </c>
@@ -33239,7 +33358,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
@@ -33249,7 +33368,9 @@
       <c r="H60" s="42"/>
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="K60" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L60" s="18" t="b">
         <v>0</v>
       </c>
@@ -33274,7 +33395,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" s="42"/>
       <c r="D61" s="42"/>
@@ -33284,7 +33405,9 @@
       <c r="H61" s="42"/>
       <c r="I61" s="42"/>
       <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="K61" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L61" s="18" t="b">
         <v>0</v>
       </c>
@@ -33309,17 +33432,34 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
+        <v>74</v>
+      </c>
+      <c r="C62" s="41">
+        <v>30000.0</v>
+      </c>
+      <c r="D62" s="41">
+        <v>8000000.0</v>
+      </c>
+      <c r="E62" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="F62" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="41">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="H62" s="41">
+        <v>4000.0</v>
+      </c>
+      <c r="I62" s="41">
+        <v>6000.0</v>
+      </c>
       <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="K62" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L62" s="30" t="b">
         <v>1</v>
       </c>
@@ -33344,17 +33484,33 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
+        <v>74</v>
+      </c>
+      <c r="C63" s="41">
+        <v>40000.0</v>
+      </c>
+      <c r="D63" s="41">
+        <v>8500000.0</v>
+      </c>
+      <c r="E63" s="41">
+        <v>11.0</v>
+      </c>
+      <c r="F63" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="41">
+        <v>5.8</v>
+      </c>
+      <c r="H63" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="41">
+        <v>9999999.0</v>
+      </c>
       <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="K63" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L63" s="18" t="b">
         <v>0</v>
       </c>
@@ -33379,7 +33535,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
@@ -33389,7 +33545,9 @@
       <c r="H64" s="42"/>
       <c r="I64" s="42"/>
       <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="K64" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L64" s="18" t="b">
         <v>0</v>
       </c>
@@ -33414,7 +33572,7 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="42"/>
@@ -33424,7 +33582,9 @@
       <c r="H65" s="42"/>
       <c r="I65" s="42"/>
       <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="K65" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L65" s="18" t="b">
         <v>0</v>
       </c>
@@ -33449,7 +33609,7 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
@@ -33459,7 +33619,9 @@
       <c r="H66" s="42"/>
       <c r="I66" s="42"/>
       <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="K66" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L66" s="18" t="b">
         <v>0</v>
       </c>
@@ -33484,7 +33646,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="42"/>
@@ -33494,7 +33656,9 @@
       <c r="H67" s="42"/>
       <c r="I67" s="42"/>
       <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="K67" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L67" s="18" t="b">
         <v>0</v>
       </c>
@@ -33519,7 +33683,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="42"/>
@@ -33529,7 +33693,9 @@
       <c r="H68" s="42"/>
       <c r="I68" s="42"/>
       <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
+      <c r="K68" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L68" s="18" t="b">
         <v>0</v>
       </c>
@@ -33554,7 +33720,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="42"/>
@@ -33564,7 +33730,9 @@
       <c r="H69" s="42"/>
       <c r="I69" s="42"/>
       <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
+      <c r="K69" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L69" s="18" t="b">
         <v>0</v>
       </c>
@@ -33589,7 +33757,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
@@ -33599,7 +33767,9 @@
       <c r="H70" s="42"/>
       <c r="I70" s="42"/>
       <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
+      <c r="K70" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L70" s="18" t="b">
         <v>0</v>
       </c>
@@ -33624,7 +33794,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
@@ -33634,7 +33804,9 @@
       <c r="H71" s="42"/>
       <c r="I71" s="42"/>
       <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
+      <c r="K71" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L71" s="18" t="b">
         <v>0</v>
       </c>
@@ -33658,18 +33830,34 @@
       <c r="A72" s="41">
         <v>70.0</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
+      <c r="B72" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="41">
+        <v>30000.0</v>
+      </c>
+      <c r="D72" s="41">
+        <v>8000000.0</v>
+      </c>
+      <c r="E72" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="F72" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="G72" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="H72" s="41">
+        <v>4000.0</v>
+      </c>
+      <c r="I72" s="41">
+        <v>6000.0</v>
+      </c>
       <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
+      <c r="K72" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L72" s="30" t="b">
         <v>1</v>
       </c>
@@ -33693,18 +33881,34 @@
       <c r="A73" s="41">
         <v>71.0</v>
       </c>
-      <c r="B73" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
+      <c r="B73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="41">
+        <v>40000.0</v>
+      </c>
+      <c r="D73" s="41">
+        <v>8500000.0</v>
+      </c>
+      <c r="E73" s="41">
+        <v>11.0</v>
+      </c>
+      <c r="F73" s="41">
+        <v>12.0</v>
+      </c>
+      <c r="G73" s="41">
+        <v>7.8</v>
+      </c>
+      <c r="H73" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="I73" s="41">
+        <v>9999999.0</v>
+      </c>
       <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
+      <c r="K73" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L73" s="18" t="b">
         <v>0</v>
       </c>
@@ -33728,8 +33932,8 @@
       <c r="A74" s="41">
         <v>72.0</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>73</v>
+      <c r="B74" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
@@ -33739,7 +33943,9 @@
       <c r="H74" s="42"/>
       <c r="I74" s="42"/>
       <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
+      <c r="K74" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L74" s="18" t="b">
         <v>0</v>
       </c>
@@ -33763,8 +33969,8 @@
       <c r="A75" s="41">
         <v>73.0</v>
       </c>
-      <c r="B75" s="31" t="s">
-        <v>73</v>
+      <c r="B75" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
@@ -33774,7 +33980,9 @@
       <c r="H75" s="42"/>
       <c r="I75" s="42"/>
       <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
+      <c r="K75" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L75" s="18" t="b">
         <v>0</v>
       </c>
@@ -33798,8 +34006,8 @@
       <c r="A76" s="41">
         <v>74.0</v>
       </c>
-      <c r="B76" s="31" t="s">
-        <v>73</v>
+      <c r="B76" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C76" s="42"/>
       <c r="D76" s="42"/>
@@ -33809,7 +34017,9 @@
       <c r="H76" s="42"/>
       <c r="I76" s="42"/>
       <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
+      <c r="K76" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L76" s="18" t="b">
         <v>0</v>
       </c>
@@ -33833,8 +34043,8 @@
       <c r="A77" s="41">
         <v>75.0</v>
       </c>
-      <c r="B77" s="31" t="s">
-        <v>73</v>
+      <c r="B77" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
@@ -33844,7 +34054,9 @@
       <c r="H77" s="42"/>
       <c r="I77" s="42"/>
       <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
+      <c r="K77" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L77" s="18" t="b">
         <v>0</v>
       </c>
@@ -33868,8 +34080,8 @@
       <c r="A78" s="41">
         <v>76.0</v>
       </c>
-      <c r="B78" s="31" t="s">
-        <v>73</v>
+      <c r="B78" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
@@ -33879,7 +34091,9 @@
       <c r="H78" s="42"/>
       <c r="I78" s="42"/>
       <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
+      <c r="K78" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L78" s="18" t="b">
         <v>0</v>
       </c>
@@ -33903,8 +34117,8 @@
       <c r="A79" s="41">
         <v>77.0</v>
       </c>
-      <c r="B79" s="31" t="s">
-        <v>73</v>
+      <c r="B79" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C79" s="42"/>
       <c r="D79" s="42"/>
@@ -33914,7 +34128,9 @@
       <c r="H79" s="42"/>
       <c r="I79" s="42"/>
       <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
+      <c r="K79" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L79" s="18" t="b">
         <v>0</v>
       </c>
@@ -33938,8 +34154,8 @@
       <c r="A80" s="41">
         <v>78.0</v>
       </c>
-      <c r="B80" s="31" t="s">
-        <v>73</v>
+      <c r="B80" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C80" s="42"/>
       <c r="D80" s="42"/>
@@ -33949,7 +34165,9 @@
       <c r="H80" s="42"/>
       <c r="I80" s="42"/>
       <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
+      <c r="K80" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L80" s="18" t="b">
         <v>0</v>
       </c>
@@ -33973,8 +34191,8 @@
       <c r="A81" s="41">
         <v>79.0</v>
       </c>
-      <c r="B81" s="31" t="s">
-        <v>73</v>
+      <c r="B81" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C81" s="42"/>
       <c r="D81" s="42"/>
@@ -33984,7 +34202,9 @@
       <c r="H81" s="42"/>
       <c r="I81" s="42"/>
       <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
+      <c r="K81" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L81" s="18" t="b">
         <v>0</v>
       </c>
@@ -34005,12 +34225,7 @@
       <c r="Y81" s="42"/>
     </row>
     <row r="82">
-      <c r="A82" s="41">
-        <v>80.0</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A82" s="41"/>
       <c r="C82" s="42"/>
       <c r="D82" s="42"/>
       <c r="E82" s="42"/>
@@ -34019,7 +34234,9 @@
       <c r="H82" s="42"/>
       <c r="I82" s="42"/>
       <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
+      <c r="K82" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L82" s="30" t="b">
         <v>1</v>
       </c>
@@ -34040,12 +34257,7 @@
       <c r="Y82" s="42"/>
     </row>
     <row r="83">
-      <c r="A83" s="41">
-        <v>81.0</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A83" s="41"/>
       <c r="C83" s="42"/>
       <c r="D83" s="42"/>
       <c r="E83" s="42"/>
@@ -34054,7 +34266,9 @@
       <c r="H83" s="42"/>
       <c r="I83" s="42"/>
       <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
+      <c r="K83" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L83" s="18" t="b">
         <v>0</v>
       </c>
@@ -34075,12 +34289,7 @@
       <c r="Y83" s="42"/>
     </row>
     <row r="84">
-      <c r="A84" s="41">
-        <v>82.0</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A84" s="41"/>
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
       <c r="E84" s="42"/>
@@ -34089,7 +34298,9 @@
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
       <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
+      <c r="K84" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L84" s="18" t="b">
         <v>0</v>
       </c>
@@ -34110,12 +34321,7 @@
       <c r="Y84" s="42"/>
     </row>
     <row r="85">
-      <c r="A85" s="41">
-        <v>83.0</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A85" s="41"/>
       <c r="C85" s="42"/>
       <c r="D85" s="42"/>
       <c r="E85" s="42"/>
@@ -34124,7 +34330,9 @@
       <c r="H85" s="42"/>
       <c r="I85" s="42"/>
       <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
+      <c r="K85" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L85" s="18" t="b">
         <v>0</v>
       </c>
@@ -34145,12 +34353,7 @@
       <c r="Y85" s="42"/>
     </row>
     <row r="86">
-      <c r="A86" s="41">
-        <v>84.0</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A86" s="41"/>
       <c r="C86" s="42"/>
       <c r="D86" s="42"/>
       <c r="E86" s="42"/>
@@ -34159,7 +34362,9 @@
       <c r="H86" s="42"/>
       <c r="I86" s="42"/>
       <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
+      <c r="K86" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L86" s="18" t="b">
         <v>0</v>
       </c>
@@ -34180,12 +34385,7 @@
       <c r="Y86" s="42"/>
     </row>
     <row r="87">
-      <c r="A87" s="41">
-        <v>85.0</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A87" s="41"/>
       <c r="C87" s="42"/>
       <c r="D87" s="42"/>
       <c r="E87" s="42"/>
@@ -34194,7 +34394,9 @@
       <c r="H87" s="42"/>
       <c r="I87" s="42"/>
       <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
+      <c r="K87" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L87" s="18" t="b">
         <v>0</v>
       </c>
@@ -34215,12 +34417,7 @@
       <c r="Y87" s="42"/>
     </row>
     <row r="88">
-      <c r="A88" s="41">
-        <v>86.0</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A88" s="41"/>
       <c r="C88" s="42"/>
       <c r="D88" s="42"/>
       <c r="E88" s="42"/>
@@ -34229,7 +34426,9 @@
       <c r="H88" s="42"/>
       <c r="I88" s="42"/>
       <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
+      <c r="K88" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L88" s="18" t="b">
         <v>0</v>
       </c>
@@ -34250,12 +34449,7 @@
       <c r="Y88" s="42"/>
     </row>
     <row r="89">
-      <c r="A89" s="41">
-        <v>87.0</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A89" s="41"/>
       <c r="C89" s="42"/>
       <c r="D89" s="42"/>
       <c r="E89" s="42"/>
@@ -34264,7 +34458,9 @@
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
       <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
+      <c r="K89" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L89" s="18" t="b">
         <v>0</v>
       </c>
@@ -34285,12 +34481,7 @@
       <c r="Y89" s="42"/>
     </row>
     <row r="90">
-      <c r="A90" s="41">
-        <v>88.0</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A90" s="41"/>
       <c r="C90" s="42"/>
       <c r="D90" s="42"/>
       <c r="E90" s="42"/>
@@ -34299,7 +34490,9 @@
       <c r="H90" s="42"/>
       <c r="I90" s="42"/>
       <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
+      <c r="K90" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L90" s="18" t="b">
         <v>0</v>
       </c>
@@ -34320,12 +34513,7 @@
       <c r="Y90" s="42"/>
     </row>
     <row r="91">
-      <c r="A91" s="41">
-        <v>89.0</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A91" s="41"/>
       <c r="C91" s="42"/>
       <c r="D91" s="42"/>
       <c r="E91" s="42"/>
@@ -34334,7 +34522,9 @@
       <c r="H91" s="42"/>
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
+      <c r="K91" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="L91" s="18" t="b">
         <v>0</v>
       </c>
@@ -58920,7 +59110,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>26</v>
@@ -58958,7 +59148,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
@@ -58972,7 +59162,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -58980,7 +59170,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -58988,7 +59178,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -58996,7 +59186,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -59004,7 +59194,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -59012,7 +59202,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -59020,7 +59210,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -59028,7 +59218,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -59036,7 +59226,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -59044,7 +59234,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -59052,7 +59242,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -59060,7 +59250,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -59068,7 +59258,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -59076,7 +59266,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -59084,7 +59274,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -59092,7 +59282,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -59100,7 +59290,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -59108,7 +59298,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -59116,7 +59306,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -59124,7 +59314,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -59132,7 +59322,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -59140,7 +59330,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -59148,7 +59338,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -59156,7 +59346,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -59164,7 +59354,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -59172,7 +59362,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -59180,7 +59370,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -59188,7 +59378,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -59196,7 +59386,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
@@ -59204,7 +59394,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -59212,7 +59402,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -59220,7 +59410,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -59228,7 +59418,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -59236,7 +59426,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -59244,7 +59434,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -59252,7 +59442,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -59260,7 +59450,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -59268,7 +59458,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -59276,7 +59466,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -59284,7 +59474,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -59292,7 +59482,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -59300,7 +59490,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
@@ -59308,7 +59498,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
@@ -59316,7 +59506,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
@@ -59324,7 +59514,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
@@ -59332,7 +59522,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
@@ -59340,7 +59530,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
@@ -59348,7 +59538,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -59356,7 +59546,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -59389,37 +59579,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -59427,7 +59617,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -59436,7 +59626,7 @@
         <v>100.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -59445,13 +59635,13 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K2" s="1">
         <v>100.0</v>
@@ -59465,7 +59655,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1">
         <v>120.0</v>
@@ -59474,7 +59664,7 @@
         <v>500.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1">
         <v>7.0</v>
@@ -59483,13 +59673,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K3" s="1">
         <v>200.0</v>
@@ -59503,7 +59693,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1">
         <v>60.0</v>
@@ -59512,7 +59702,7 @@
         <v>500.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -59521,13 +59711,13 @@
         <v>12.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4" s="1">
         <v>400.0</v>
@@ -59541,7 +59731,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1">
         <v>250.0</v>
@@ -59550,7 +59740,7 @@
         <v>300.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1">
         <v>2.0</v>
@@ -59559,13 +59749,13 @@
         <v>15.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" s="1">
         <v>600.0</v>
@@ -59579,7 +59769,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1">
         <v>999999.0</v>
@@ -59588,7 +59778,7 @@
         <v>999999.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1">
         <v>15.0</v>
@@ -59597,13 +59787,13 @@
         <v>999.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K6" s="1">
         <v>9999999.0</v>
@@ -59673,37 +59863,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -59711,7 +59901,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="53">
         <v>9.99999999E8</v>
@@ -59746,13 +59936,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="53">
         <v>150000.0</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1">
         <v>6.0</v>
@@ -59781,13 +59971,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" s="53">
         <v>180000.0</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" s="1">
         <v>7.0</v>
@@ -59816,13 +60006,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1">
         <v>8.0</v>
@@ -59851,13 +60041,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1">
         <v>9.0</v>
@@ -59886,7 +60076,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1">
         <v>250000.0</v>
@@ -62952,28 +63142,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -62981,13 +63171,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -63007,13 +63197,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -63033,13 +63223,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -63059,13 +63249,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -63085,13 +63275,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -63111,13 +63301,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F7" s="1">
         <v>400.0</v>
@@ -63137,13 +63327,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1">
         <v>300.0</v>
@@ -63197,16 +63387,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -63214,13 +63404,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
@@ -63228,13 +63418,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
@@ -63242,13 +63432,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -63259,10 +63449,10 @@
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
@@ -63270,13 +63460,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -63284,7 +63474,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -63292,7 +63482,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -63300,7 +63490,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -63308,7 +63498,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -63316,7 +63506,7 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
@@ -63324,14 +63514,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -63339,14 +63529,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="58" t="s">
         <v>177</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -63354,14 +63544,14 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
@@ -63369,14 +63559,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
@@ -63384,14 +63574,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
@@ -63399,14 +63589,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -63414,14 +63604,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -63429,14 +63619,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -63444,14 +63634,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
@@ -63459,14 +63649,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -63474,14 +63664,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -63489,14 +63679,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
@@ -63504,14 +63694,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
@@ -63519,14 +63709,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -63534,14 +63724,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
@@ -63549,14 +63739,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
@@ -63564,14 +63754,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C28" s="60"/>
       <c r="D28" s="59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
@@ -63579,14 +63769,14 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C29" s="60"/>
       <c r="D29" s="59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
@@ -63594,14 +63784,14 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" s="60"/>
       <c r="D30" s="59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31">
@@ -63614,13 +63804,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33">
@@ -63628,13 +63818,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="34">
@@ -63642,13 +63832,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35">
@@ -63656,13 +63846,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36">
@@ -63670,13 +63860,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37">
@@ -63684,13 +63874,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38">
@@ -63698,13 +63888,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39">
@@ -63712,13 +63902,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40">
@@ -63726,13 +63916,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="212">
   <si>
     <t>Number</t>
   </si>
@@ -251,7 +251,22 @@
     <t>Booster_Part_Name</t>
   </si>
   <si>
+    <t>Train_WarningSpeed</t>
+  </si>
+  <si>
+    <t>Train_BoosterFuel</t>
+  </si>
+  <si>
+    <t>Train_UseFuel</t>
+  </si>
+  <si>
+    <t>Train_BoosterSpeedUP</t>
+  </si>
+  <si>
     <t>프로펠러 엔진 파츠</t>
+  </si>
+  <si>
+    <t>위급 시, 부스터 사용, 기차 속도 증가</t>
   </si>
   <si>
     <t>1단 미사일 부스터 파츠</t>
@@ -783,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -930,6 +945,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -33036,7 +33054,7 @@
         <v>30000.0</v>
       </c>
       <c r="D52" s="41">
-        <v>8000000.0</v>
+        <v>800000.0</v>
       </c>
       <c r="E52" s="41">
         <v>10.0</v>
@@ -33089,7 +33107,7 @@
         <v>40000.0</v>
       </c>
       <c r="D53" s="41">
-        <v>8500000.0</v>
+        <v>850000.0</v>
       </c>
       <c r="E53" s="41">
         <v>11.0</v>
@@ -33438,7 +33456,7 @@
         <v>30000.0</v>
       </c>
       <c r="D62" s="41">
-        <v>8000000.0</v>
+        <v>800000.0</v>
       </c>
       <c r="E62" s="41">
         <v>10.0</v>
@@ -33490,7 +33508,7 @@
         <v>40000.0</v>
       </c>
       <c r="D63" s="41">
-        <v>8500000.0</v>
+        <v>850000.0</v>
       </c>
       <c r="E63" s="41">
         <v>11.0</v>
@@ -33837,16 +33855,16 @@
         <v>30000.0</v>
       </c>
       <c r="D72" s="41">
-        <v>8000000.0</v>
+        <v>800000.0</v>
       </c>
       <c r="E72" s="41">
         <v>10.0</v>
       </c>
       <c r="F72" s="41">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G72" s="41">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="H72" s="41">
         <v>4000.0</v>
@@ -33888,16 +33906,16 @@
         <v>40000.0</v>
       </c>
       <c r="D73" s="41">
-        <v>8500000.0</v>
+        <v>850000.0</v>
       </c>
       <c r="E73" s="41">
         <v>11.0</v>
       </c>
       <c r="F73" s="41">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="G73" s="41">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="H73" s="41">
         <v>0.0</v>
@@ -59121,25 +59139,37 @@
       <c r="E1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="M1" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="N1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="O1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="P1" s="52" t="s">
         <v>41</v>
       </c>
     </row>
@@ -59148,12 +59178,45 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="1" t="b">
+        <v>81</v>
+      </c>
+      <c r="C2" s="41">
+        <v>30000.0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>800000.0</v>
+      </c>
+      <c r="E2" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2000.0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="b">
+      <c r="O2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -59162,7 +59225,46 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="C3" s="41">
+        <v>40000.0</v>
+      </c>
+      <c r="D3" s="41">
+        <v>850000.0</v>
+      </c>
+      <c r="E3" s="41">
+        <v>11.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9.9999999E7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -59170,7 +59272,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -59178,7 +59280,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -59186,7 +59288,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -59194,7 +59296,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -59202,7 +59304,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -59210,7 +59312,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -59218,7 +59320,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -59226,7 +59328,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -59234,7 +59336,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -59242,7 +59344,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -59250,7 +59352,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -59258,7 +59360,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -59266,7 +59368,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -59274,7 +59376,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -59282,7 +59384,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -59290,7 +59392,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -59298,7 +59400,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -59306,7 +59408,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -59314,7 +59416,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -59322,7 +59424,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -59330,7 +59432,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -59338,7 +59440,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -59346,7 +59448,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -59354,7 +59456,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -59362,7 +59464,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -59370,7 +59472,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -59378,7 +59480,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -59386,7 +59488,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -59394,7 +59496,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -59402,7 +59504,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -59410,7 +59512,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -59418,7 +59520,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -59426,7 +59528,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -59434,7 +59536,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -59442,7 +59544,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -59450,7 +59552,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -59458,7 +59560,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -59466,7 +59568,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -59474,7 +59576,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -59482,7 +59584,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
@@ -59490,7 +59592,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
@@ -59498,7 +59600,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
@@ -59506,7 +59608,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
@@ -59514,7 +59616,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
@@ -59522,7 +59624,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
@@ -59530,7 +59632,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
@@ -59538,7 +59640,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
@@ -59546,7 +59648,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -59579,37 +59681,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
@@ -59617,7 +59719,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -59626,7 +59728,7 @@
         <v>100.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -59635,13 +59737,13 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K2" s="1">
         <v>100.0</v>
@@ -59655,7 +59757,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1">
         <v>120.0</v>
@@ -59664,7 +59766,7 @@
         <v>500.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1">
         <v>7.0</v>
@@ -59673,13 +59775,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K3" s="1">
         <v>200.0</v>
@@ -59693,7 +59795,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1">
         <v>60.0</v>
@@ -59702,7 +59804,7 @@
         <v>500.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -59711,13 +59813,13 @@
         <v>12.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K4" s="1">
         <v>400.0</v>
@@ -59731,7 +59833,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
         <v>250.0</v>
@@ -59740,7 +59842,7 @@
         <v>300.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1">
         <v>2.0</v>
@@ -59749,13 +59851,13 @@
         <v>15.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K5" s="1">
         <v>600.0</v>
@@ -59769,7 +59871,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1">
         <v>999999.0</v>
@@ -59778,7 +59880,7 @@
         <v>999999.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1">
         <v>15.0</v>
@@ -59787,13 +59889,13 @@
         <v>999.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K6" s="1">
         <v>9999999.0</v>
@@ -59859,54 +59961,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>115</v>
+      <c r="B1" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="53">
+      <c r="A2" s="54">
         <v>0.0</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="53">
+      <c r="B2" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="54">
         <v>9.99999999E8</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="55">
         <v>0.0</v>
       </c>
       <c r="E2" s="1">
@@ -59932,17 +60034,17 @@
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="53">
+      <c r="A3" s="54">
         <v>1.0</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="53">
+      <c r="B3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="54">
         <v>150000.0</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>126</v>
+      <c r="D3" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="E3" s="1">
         <v>6.0</v>
@@ -59967,17 +60069,17 @@
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="53">
+      <c r="A4" s="54">
         <v>2.0</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="53">
+      <c r="B4" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="54">
         <v>180000.0</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>128</v>
+      <c r="D4" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="E4" s="1">
         <v>7.0</v>
@@ -60002,17 +60104,17 @@
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="53">
+      <c r="A5" s="54">
         <v>3.0</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>129</v>
+      <c r="B5" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>130</v>
+      <c r="D5" s="55" t="s">
+        <v>135</v>
       </c>
       <c r="E5" s="1">
         <v>8.0</v>
@@ -60037,17 +60139,17 @@
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="53">
+      <c r="A6" s="54">
         <v>4.0</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>131</v>
+      <c r="B6" s="54" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>132</v>
+      <c r="D6" s="55" t="s">
+        <v>137</v>
       </c>
       <c r="E6" s="1">
         <v>9.0</v>
@@ -60072,16 +60174,16 @@
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="53">
+      <c r="A7" s="54">
         <v>5.0</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>133</v>
+      <c r="B7" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="C7" s="1">
         <v>250000.0</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="55">
         <v>4.0</v>
       </c>
       <c r="E7" s="1">
@@ -60107,3011 +60209,3011 @@
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="52"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="52"/>
-      <c r="D9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="53"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="52"/>
-      <c r="D10" s="55"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="53"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="52"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="53"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="52"/>
-      <c r="D12" s="55"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="53"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="52"/>
-      <c r="D13" s="55"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52"/>
-      <c r="D14" s="55"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="52"/>
-      <c r="D15" s="55"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="52"/>
-      <c r="D16" s="55"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52"/>
-      <c r="D17" s="55"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="52"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="52"/>
-      <c r="D19" s="55"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="52"/>
-      <c r="D20" s="55"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="52"/>
-      <c r="D21" s="55"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="53"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="D22" s="55"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="D23" s="55"/>
+      <c r="D23" s="56"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="D24" s="55"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="D25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
     <row r="26" ht="17.25" customHeight="1">
-      <c r="D26" s="55"/>
+      <c r="D26" s="56"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="D27" s="55"/>
+      <c r="D27" s="56"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="D28" s="55"/>
+      <c r="D28" s="56"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="D29" s="55"/>
+      <c r="D29" s="56"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
-      <c r="D30" s="55"/>
+      <c r="D30" s="56"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
-      <c r="D31" s="55"/>
+      <c r="D31" s="56"/>
     </row>
     <row r="32" ht="17.25" customHeight="1">
-      <c r="D32" s="55"/>
+      <c r="D32" s="56"/>
     </row>
     <row r="33" ht="17.25" customHeight="1">
-      <c r="D33" s="55"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" ht="17.25" customHeight="1">
-      <c r="D34" s="55"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" ht="17.25" customHeight="1">
-      <c r="D35" s="55"/>
+      <c r="D35" s="56"/>
     </row>
     <row r="36" ht="17.25" customHeight="1">
-      <c r="D36" s="55"/>
+      <c r="D36" s="56"/>
     </row>
     <row r="37" ht="17.25" customHeight="1">
-      <c r="D37" s="55"/>
+      <c r="D37" s="56"/>
     </row>
     <row r="38" ht="17.25" customHeight="1">
-      <c r="D38" s="55"/>
+      <c r="D38" s="56"/>
     </row>
     <row r="39" ht="17.25" customHeight="1">
-      <c r="D39" s="55"/>
+      <c r="D39" s="56"/>
     </row>
     <row r="40" ht="17.25" customHeight="1">
-      <c r="D40" s="55"/>
+      <c r="D40" s="56"/>
     </row>
     <row r="41" ht="17.25" customHeight="1">
-      <c r="D41" s="55"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" ht="17.25" customHeight="1">
-      <c r="D42" s="55"/>
+      <c r="D42" s="56"/>
     </row>
     <row r="43" ht="17.25" customHeight="1">
-      <c r="D43" s="55"/>
+      <c r="D43" s="56"/>
     </row>
     <row r="44" ht="17.25" customHeight="1">
-      <c r="D44" s="55"/>
+      <c r="D44" s="56"/>
     </row>
     <row r="45" ht="17.25" customHeight="1">
-      <c r="D45" s="55"/>
+      <c r="D45" s="56"/>
     </row>
     <row r="46" ht="17.25" customHeight="1">
-      <c r="D46" s="55"/>
+      <c r="D46" s="56"/>
     </row>
     <row r="47" ht="17.25" customHeight="1">
-      <c r="D47" s="55"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" ht="17.25" customHeight="1">
-      <c r="D48" s="55"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49" ht="17.25" customHeight="1">
-      <c r="D49" s="55"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" ht="17.25" customHeight="1">
-      <c r="D50" s="55"/>
+      <c r="D50" s="56"/>
     </row>
     <row r="51" ht="17.25" customHeight="1">
-      <c r="D51" s="55"/>
+      <c r="D51" s="56"/>
     </row>
     <row r="52" ht="17.25" customHeight="1">
-      <c r="D52" s="55"/>
+      <c r="D52" s="56"/>
     </row>
     <row r="53" ht="17.25" customHeight="1">
-      <c r="D53" s="55"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" ht="17.25" customHeight="1">
-      <c r="D54" s="55"/>
+      <c r="D54" s="56"/>
     </row>
     <row r="55" ht="17.25" customHeight="1">
-      <c r="D55" s="55"/>
+      <c r="D55" s="56"/>
     </row>
     <row r="56" ht="17.25" customHeight="1">
-      <c r="D56" s="55"/>
+      <c r="D56" s="56"/>
     </row>
     <row r="57" ht="17.25" customHeight="1">
-      <c r="D57" s="55"/>
+      <c r="D57" s="56"/>
     </row>
     <row r="58" ht="17.25" customHeight="1">
-      <c r="D58" s="55"/>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" ht="17.25" customHeight="1">
-      <c r="D59" s="55"/>
+      <c r="D59" s="56"/>
     </row>
     <row r="60" ht="17.25" customHeight="1">
-      <c r="D60" s="55"/>
+      <c r="D60" s="56"/>
     </row>
     <row r="61" ht="17.25" customHeight="1">
-      <c r="D61" s="55"/>
+      <c r="D61" s="56"/>
     </row>
     <row r="62" ht="17.25" customHeight="1">
-      <c r="D62" s="55"/>
+      <c r="D62" s="56"/>
     </row>
     <row r="63" ht="17.25" customHeight="1">
-      <c r="D63" s="55"/>
+      <c r="D63" s="56"/>
     </row>
     <row r="64" ht="17.25" customHeight="1">
-      <c r="D64" s="55"/>
+      <c r="D64" s="56"/>
     </row>
     <row r="65" ht="17.25" customHeight="1">
-      <c r="D65" s="55"/>
+      <c r="D65" s="56"/>
     </row>
     <row r="66" ht="17.25" customHeight="1">
-      <c r="D66" s="55"/>
+      <c r="D66" s="56"/>
     </row>
     <row r="67" ht="17.25" customHeight="1">
-      <c r="D67" s="55"/>
+      <c r="D67" s="56"/>
     </row>
     <row r="68" ht="17.25" customHeight="1">
-      <c r="D68" s="55"/>
+      <c r="D68" s="56"/>
     </row>
     <row r="69" ht="17.25" customHeight="1">
-      <c r="D69" s="55"/>
+      <c r="D69" s="56"/>
     </row>
     <row r="70" ht="17.25" customHeight="1">
-      <c r="D70" s="55"/>
+      <c r="D70" s="56"/>
     </row>
     <row r="71" ht="17.25" customHeight="1">
-      <c r="D71" s="55"/>
+      <c r="D71" s="56"/>
     </row>
     <row r="72" ht="17.25" customHeight="1">
-      <c r="D72" s="55"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" ht="17.25" customHeight="1">
-      <c r="D73" s="55"/>
+      <c r="D73" s="56"/>
     </row>
     <row r="74" ht="17.25" customHeight="1">
-      <c r="D74" s="55"/>
+      <c r="D74" s="56"/>
     </row>
     <row r="75" ht="17.25" customHeight="1">
-      <c r="D75" s="55"/>
+      <c r="D75" s="56"/>
     </row>
     <row r="76" ht="17.25" customHeight="1">
-      <c r="D76" s="55"/>
+      <c r="D76" s="56"/>
     </row>
     <row r="77" ht="17.25" customHeight="1">
-      <c r="D77" s="55"/>
+      <c r="D77" s="56"/>
     </row>
     <row r="78" ht="17.25" customHeight="1">
-      <c r="D78" s="55"/>
+      <c r="D78" s="56"/>
     </row>
     <row r="79" ht="17.25" customHeight="1">
-      <c r="D79" s="55"/>
+      <c r="D79" s="56"/>
     </row>
     <row r="80" ht="17.25" customHeight="1">
-      <c r="D80" s="55"/>
+      <c r="D80" s="56"/>
     </row>
     <row r="81" ht="17.25" customHeight="1">
-      <c r="D81" s="55"/>
+      <c r="D81" s="56"/>
     </row>
     <row r="82" ht="17.25" customHeight="1">
-      <c r="D82" s="55"/>
+      <c r="D82" s="56"/>
     </row>
     <row r="83" ht="17.25" customHeight="1">
-      <c r="D83" s="55"/>
+      <c r="D83" s="56"/>
     </row>
     <row r="84" ht="17.25" customHeight="1">
-      <c r="D84" s="55"/>
+      <c r="D84" s="56"/>
     </row>
     <row r="85" ht="17.25" customHeight="1">
-      <c r="D85" s="55"/>
+      <c r="D85" s="56"/>
     </row>
     <row r="86" ht="17.25" customHeight="1">
-      <c r="D86" s="55"/>
+      <c r="D86" s="56"/>
     </row>
     <row r="87" ht="17.25" customHeight="1">
-      <c r="D87" s="55"/>
+      <c r="D87" s="56"/>
     </row>
     <row r="88" ht="17.25" customHeight="1">
-      <c r="D88" s="55"/>
+      <c r="D88" s="56"/>
     </row>
     <row r="89" ht="17.25" customHeight="1">
-      <c r="D89" s="55"/>
+      <c r="D89" s="56"/>
     </row>
     <row r="90" ht="17.25" customHeight="1">
-      <c r="D90" s="55"/>
+      <c r="D90" s="56"/>
     </row>
     <row r="91" ht="17.25" customHeight="1">
-      <c r="D91" s="55"/>
+      <c r="D91" s="56"/>
     </row>
     <row r="92" ht="17.25" customHeight="1">
-      <c r="D92" s="55"/>
+      <c r="D92" s="56"/>
     </row>
     <row r="93" ht="17.25" customHeight="1">
-      <c r="D93" s="55"/>
+      <c r="D93" s="56"/>
     </row>
     <row r="94" ht="17.25" customHeight="1">
-      <c r="D94" s="55"/>
+      <c r="D94" s="56"/>
     </row>
     <row r="95" ht="17.25" customHeight="1">
-      <c r="D95" s="55"/>
+      <c r="D95" s="56"/>
     </row>
     <row r="96" ht="17.25" customHeight="1">
-      <c r="D96" s="55"/>
+      <c r="D96" s="56"/>
     </row>
     <row r="97" ht="17.25" customHeight="1">
-      <c r="D97" s="55"/>
+      <c r="D97" s="56"/>
     </row>
     <row r="98" ht="17.25" customHeight="1">
-      <c r="D98" s="55"/>
+      <c r="D98" s="56"/>
     </row>
     <row r="99" ht="17.25" customHeight="1">
-      <c r="D99" s="55"/>
+      <c r="D99" s="56"/>
     </row>
     <row r="100" ht="17.25" customHeight="1">
-      <c r="D100" s="55"/>
+      <c r="D100" s="56"/>
     </row>
     <row r="101" ht="17.25" customHeight="1">
-      <c r="D101" s="55"/>
+      <c r="D101" s="56"/>
     </row>
     <row r="102" ht="17.25" customHeight="1">
-      <c r="D102" s="55"/>
+      <c r="D102" s="56"/>
     </row>
     <row r="103" ht="17.25" customHeight="1">
-      <c r="D103" s="55"/>
+      <c r="D103" s="56"/>
     </row>
     <row r="104" ht="17.25" customHeight="1">
-      <c r="D104" s="55"/>
+      <c r="D104" s="56"/>
     </row>
     <row r="105" ht="17.25" customHeight="1">
-      <c r="D105" s="55"/>
+      <c r="D105" s="56"/>
     </row>
     <row r="106" ht="17.25" customHeight="1">
-      <c r="D106" s="55"/>
+      <c r="D106" s="56"/>
     </row>
     <row r="107" ht="17.25" customHeight="1">
-      <c r="D107" s="55"/>
+      <c r="D107" s="56"/>
     </row>
     <row r="108" ht="17.25" customHeight="1">
-      <c r="D108" s="55"/>
+      <c r="D108" s="56"/>
     </row>
     <row r="109" ht="17.25" customHeight="1">
-      <c r="D109" s="55"/>
+      <c r="D109" s="56"/>
     </row>
     <row r="110" ht="17.25" customHeight="1">
-      <c r="D110" s="55"/>
+      <c r="D110" s="56"/>
     </row>
     <row r="111" ht="17.25" customHeight="1">
-      <c r="D111" s="55"/>
+      <c r="D111" s="56"/>
     </row>
     <row r="112" ht="17.25" customHeight="1">
-      <c r="D112" s="55"/>
+      <c r="D112" s="56"/>
     </row>
     <row r="113" ht="17.25" customHeight="1">
-      <c r="D113" s="55"/>
+      <c r="D113" s="56"/>
     </row>
     <row r="114" ht="17.25" customHeight="1">
-      <c r="D114" s="55"/>
+      <c r="D114" s="56"/>
     </row>
     <row r="115" ht="17.25" customHeight="1">
-      <c r="D115" s="55"/>
+      <c r="D115" s="56"/>
     </row>
     <row r="116" ht="17.25" customHeight="1">
-      <c r="D116" s="55"/>
+      <c r="D116" s="56"/>
     </row>
     <row r="117" ht="17.25" customHeight="1">
-      <c r="D117" s="55"/>
+      <c r="D117" s="56"/>
     </row>
     <row r="118" ht="17.25" customHeight="1">
-      <c r="D118" s="55"/>
+      <c r="D118" s="56"/>
     </row>
     <row r="119" ht="17.25" customHeight="1">
-      <c r="D119" s="55"/>
+      <c r="D119" s="56"/>
     </row>
     <row r="120" ht="17.25" customHeight="1">
-      <c r="D120" s="55"/>
+      <c r="D120" s="56"/>
     </row>
     <row r="121" ht="17.25" customHeight="1">
-      <c r="D121" s="55"/>
+      <c r="D121" s="56"/>
     </row>
     <row r="122" ht="17.25" customHeight="1">
-      <c r="D122" s="55"/>
+      <c r="D122" s="56"/>
     </row>
     <row r="123" ht="17.25" customHeight="1">
-      <c r="D123" s="55"/>
+      <c r="D123" s="56"/>
     </row>
     <row r="124" ht="17.25" customHeight="1">
-      <c r="D124" s="55"/>
+      <c r="D124" s="56"/>
     </row>
     <row r="125" ht="17.25" customHeight="1">
-      <c r="D125" s="55"/>
+      <c r="D125" s="56"/>
     </row>
     <row r="126" ht="17.25" customHeight="1">
-      <c r="D126" s="55"/>
+      <c r="D126" s="56"/>
     </row>
     <row r="127" ht="17.25" customHeight="1">
-      <c r="D127" s="55"/>
+      <c r="D127" s="56"/>
     </row>
     <row r="128" ht="17.25" customHeight="1">
-      <c r="D128" s="55"/>
+      <c r="D128" s="56"/>
     </row>
     <row r="129" ht="17.25" customHeight="1">
-      <c r="D129" s="55"/>
+      <c r="D129" s="56"/>
     </row>
     <row r="130" ht="17.25" customHeight="1">
-      <c r="D130" s="55"/>
+      <c r="D130" s="56"/>
     </row>
     <row r="131" ht="17.25" customHeight="1">
-      <c r="D131" s="55"/>
+      <c r="D131" s="56"/>
     </row>
     <row r="132" ht="17.25" customHeight="1">
-      <c r="D132" s="55"/>
+      <c r="D132" s="56"/>
     </row>
     <row r="133" ht="17.25" customHeight="1">
-      <c r="D133" s="55"/>
+      <c r="D133" s="56"/>
     </row>
     <row r="134" ht="17.25" customHeight="1">
-      <c r="D134" s="55"/>
+      <c r="D134" s="56"/>
     </row>
     <row r="135" ht="17.25" customHeight="1">
-      <c r="D135" s="55"/>
+      <c r="D135" s="56"/>
     </row>
     <row r="136" ht="17.25" customHeight="1">
-      <c r="D136" s="55"/>
+      <c r="D136" s="56"/>
     </row>
     <row r="137" ht="17.25" customHeight="1">
-      <c r="D137" s="55"/>
+      <c r="D137" s="56"/>
     </row>
     <row r="138" ht="17.25" customHeight="1">
-      <c r="D138" s="55"/>
+      <c r="D138" s="56"/>
     </row>
     <row r="139" ht="17.25" customHeight="1">
-      <c r="D139" s="55"/>
+      <c r="D139" s="56"/>
     </row>
     <row r="140" ht="17.25" customHeight="1">
-      <c r="D140" s="55"/>
+      <c r="D140" s="56"/>
     </row>
     <row r="141" ht="17.25" customHeight="1">
-      <c r="D141" s="55"/>
+      <c r="D141" s="56"/>
     </row>
     <row r="142" ht="17.25" customHeight="1">
-      <c r="D142" s="55"/>
+      <c r="D142" s="56"/>
     </row>
     <row r="143" ht="17.25" customHeight="1">
-      <c r="D143" s="55"/>
+      <c r="D143" s="56"/>
     </row>
     <row r="144" ht="17.25" customHeight="1">
-      <c r="D144" s="55"/>
+      <c r="D144" s="56"/>
     </row>
     <row r="145" ht="17.25" customHeight="1">
-      <c r="D145" s="55"/>
+      <c r="D145" s="56"/>
     </row>
     <row r="146" ht="17.25" customHeight="1">
-      <c r="D146" s="55"/>
+      <c r="D146" s="56"/>
     </row>
     <row r="147" ht="17.25" customHeight="1">
-      <c r="D147" s="55"/>
+      <c r="D147" s="56"/>
     </row>
     <row r="148" ht="17.25" customHeight="1">
-      <c r="D148" s="55"/>
+      <c r="D148" s="56"/>
     </row>
     <row r="149" ht="17.25" customHeight="1">
-      <c r="D149" s="55"/>
+      <c r="D149" s="56"/>
     </row>
     <row r="150" ht="17.25" customHeight="1">
-      <c r="D150" s="55"/>
+      <c r="D150" s="56"/>
     </row>
     <row r="151" ht="17.25" customHeight="1">
-      <c r="D151" s="55"/>
+      <c r="D151" s="56"/>
     </row>
     <row r="152" ht="17.25" customHeight="1">
-      <c r="D152" s="55"/>
+      <c r="D152" s="56"/>
     </row>
     <row r="153" ht="17.25" customHeight="1">
-      <c r="D153" s="55"/>
+      <c r="D153" s="56"/>
     </row>
     <row r="154" ht="17.25" customHeight="1">
-      <c r="D154" s="55"/>
+      <c r="D154" s="56"/>
     </row>
     <row r="155" ht="17.25" customHeight="1">
-      <c r="D155" s="55"/>
+      <c r="D155" s="56"/>
     </row>
     <row r="156" ht="17.25" customHeight="1">
-      <c r="D156" s="55"/>
+      <c r="D156" s="56"/>
     </row>
     <row r="157" ht="17.25" customHeight="1">
-      <c r="D157" s="55"/>
+      <c r="D157" s="56"/>
     </row>
     <row r="158" ht="17.25" customHeight="1">
-      <c r="D158" s="55"/>
+      <c r="D158" s="56"/>
     </row>
     <row r="159" ht="17.25" customHeight="1">
-      <c r="D159" s="55"/>
+      <c r="D159" s="56"/>
     </row>
     <row r="160" ht="17.25" customHeight="1">
-      <c r="D160" s="55"/>
+      <c r="D160" s="56"/>
     </row>
     <row r="161" ht="17.25" customHeight="1">
-      <c r="D161" s="55"/>
+      <c r="D161" s="56"/>
     </row>
     <row r="162" ht="17.25" customHeight="1">
-      <c r="D162" s="55"/>
+      <c r="D162" s="56"/>
     </row>
     <row r="163" ht="17.25" customHeight="1">
-      <c r="D163" s="55"/>
+      <c r="D163" s="56"/>
     </row>
     <row r="164" ht="17.25" customHeight="1">
-      <c r="D164" s="55"/>
+      <c r="D164" s="56"/>
     </row>
     <row r="165" ht="17.25" customHeight="1">
-      <c r="D165" s="55"/>
+      <c r="D165" s="56"/>
     </row>
     <row r="166" ht="17.25" customHeight="1">
-      <c r="D166" s="55"/>
+      <c r="D166" s="56"/>
     </row>
     <row r="167" ht="17.25" customHeight="1">
-      <c r="D167" s="55"/>
+      <c r="D167" s="56"/>
     </row>
     <row r="168" ht="17.25" customHeight="1">
-      <c r="D168" s="55"/>
+      <c r="D168" s="56"/>
     </row>
     <row r="169" ht="17.25" customHeight="1">
-      <c r="D169" s="55"/>
+      <c r="D169" s="56"/>
     </row>
     <row r="170" ht="17.25" customHeight="1">
-      <c r="D170" s="55"/>
+      <c r="D170" s="56"/>
     </row>
     <row r="171" ht="17.25" customHeight="1">
-      <c r="D171" s="55"/>
+      <c r="D171" s="56"/>
     </row>
     <row r="172" ht="17.25" customHeight="1">
-      <c r="D172" s="55"/>
+      <c r="D172" s="56"/>
     </row>
     <row r="173" ht="17.25" customHeight="1">
-      <c r="D173" s="55"/>
+      <c r="D173" s="56"/>
     </row>
     <row r="174" ht="17.25" customHeight="1">
-      <c r="D174" s="55"/>
+      <c r="D174" s="56"/>
     </row>
     <row r="175" ht="17.25" customHeight="1">
-      <c r="D175" s="55"/>
+      <c r="D175" s="56"/>
     </row>
     <row r="176" ht="17.25" customHeight="1">
-      <c r="D176" s="55"/>
+      <c r="D176" s="56"/>
     </row>
     <row r="177" ht="17.25" customHeight="1">
-      <c r="D177" s="55"/>
+      <c r="D177" s="56"/>
     </row>
     <row r="178" ht="17.25" customHeight="1">
-      <c r="D178" s="55"/>
+      <c r="D178" s="56"/>
     </row>
     <row r="179" ht="17.25" customHeight="1">
-      <c r="D179" s="55"/>
+      <c r="D179" s="56"/>
     </row>
     <row r="180" ht="17.25" customHeight="1">
-      <c r="D180" s="55"/>
+      <c r="D180" s="56"/>
     </row>
     <row r="181" ht="17.25" customHeight="1">
-      <c r="D181" s="55"/>
+      <c r="D181" s="56"/>
     </row>
     <row r="182" ht="17.25" customHeight="1">
-      <c r="D182" s="55"/>
+      <c r="D182" s="56"/>
     </row>
     <row r="183" ht="17.25" customHeight="1">
-      <c r="D183" s="55"/>
+      <c r="D183" s="56"/>
     </row>
     <row r="184" ht="17.25" customHeight="1">
-      <c r="D184" s="55"/>
+      <c r="D184" s="56"/>
     </row>
     <row r="185" ht="17.25" customHeight="1">
-      <c r="D185" s="55"/>
+      <c r="D185" s="56"/>
     </row>
     <row r="186" ht="17.25" customHeight="1">
-      <c r="D186" s="55"/>
+      <c r="D186" s="56"/>
     </row>
     <row r="187" ht="17.25" customHeight="1">
-      <c r="D187" s="55"/>
+      <c r="D187" s="56"/>
     </row>
     <row r="188" ht="17.25" customHeight="1">
-      <c r="D188" s="55"/>
+      <c r="D188" s="56"/>
     </row>
     <row r="189" ht="17.25" customHeight="1">
-      <c r="D189" s="55"/>
+      <c r="D189" s="56"/>
     </row>
     <row r="190" ht="17.25" customHeight="1">
-      <c r="D190" s="55"/>
+      <c r="D190" s="56"/>
     </row>
     <row r="191" ht="17.25" customHeight="1">
-      <c r="D191" s="55"/>
+      <c r="D191" s="56"/>
     </row>
     <row r="192" ht="17.25" customHeight="1">
-      <c r="D192" s="55"/>
+      <c r="D192" s="56"/>
     </row>
     <row r="193" ht="17.25" customHeight="1">
-      <c r="D193" s="55"/>
+      <c r="D193" s="56"/>
     </row>
     <row r="194" ht="17.25" customHeight="1">
-      <c r="D194" s="55"/>
+      <c r="D194" s="56"/>
     </row>
     <row r="195" ht="17.25" customHeight="1">
-      <c r="D195" s="55"/>
+      <c r="D195" s="56"/>
     </row>
     <row r="196" ht="17.25" customHeight="1">
-      <c r="D196" s="55"/>
+      <c r="D196" s="56"/>
     </row>
     <row r="197" ht="17.25" customHeight="1">
-      <c r="D197" s="55"/>
+      <c r="D197" s="56"/>
     </row>
     <row r="198" ht="17.25" customHeight="1">
-      <c r="D198" s="55"/>
+      <c r="D198" s="56"/>
     </row>
     <row r="199" ht="17.25" customHeight="1">
-      <c r="D199" s="55"/>
+      <c r="D199" s="56"/>
     </row>
     <row r="200" ht="17.25" customHeight="1">
-      <c r="D200" s="55"/>
+      <c r="D200" s="56"/>
     </row>
     <row r="201" ht="17.25" customHeight="1">
-      <c r="D201" s="55"/>
+      <c r="D201" s="56"/>
     </row>
     <row r="202" ht="17.25" customHeight="1">
-      <c r="D202" s="55"/>
+      <c r="D202" s="56"/>
     </row>
     <row r="203" ht="17.25" customHeight="1">
-      <c r="D203" s="55"/>
+      <c r="D203" s="56"/>
     </row>
     <row r="204" ht="17.25" customHeight="1">
-      <c r="D204" s="55"/>
+      <c r="D204" s="56"/>
     </row>
     <row r="205" ht="17.25" customHeight="1">
-      <c r="D205" s="55"/>
+      <c r="D205" s="56"/>
     </row>
     <row r="206" ht="17.25" customHeight="1">
-      <c r="D206" s="55"/>
+      <c r="D206" s="56"/>
     </row>
     <row r="207" ht="17.25" customHeight="1">
-      <c r="D207" s="55"/>
+      <c r="D207" s="56"/>
     </row>
     <row r="208" ht="17.25" customHeight="1">
-      <c r="D208" s="55"/>
+      <c r="D208" s="56"/>
     </row>
     <row r="209" ht="17.25" customHeight="1">
-      <c r="D209" s="55"/>
+      <c r="D209" s="56"/>
     </row>
     <row r="210" ht="17.25" customHeight="1">
-      <c r="D210" s="55"/>
+      <c r="D210" s="56"/>
     </row>
     <row r="211" ht="17.25" customHeight="1">
-      <c r="D211" s="55"/>
+      <c r="D211" s="56"/>
     </row>
     <row r="212" ht="17.25" customHeight="1">
-      <c r="D212" s="55"/>
+      <c r="D212" s="56"/>
     </row>
     <row r="213" ht="17.25" customHeight="1">
-      <c r="D213" s="55"/>
+      <c r="D213" s="56"/>
     </row>
     <row r="214" ht="17.25" customHeight="1">
-      <c r="D214" s="55"/>
+      <c r="D214" s="56"/>
     </row>
     <row r="215" ht="17.25" customHeight="1">
-      <c r="D215" s="55"/>
+      <c r="D215" s="56"/>
     </row>
     <row r="216" ht="17.25" customHeight="1">
-      <c r="D216" s="55"/>
+      <c r="D216" s="56"/>
     </row>
     <row r="217" ht="17.25" customHeight="1">
-      <c r="D217" s="55"/>
+      <c r="D217" s="56"/>
     </row>
     <row r="218" ht="17.25" customHeight="1">
-      <c r="D218" s="55"/>
+      <c r="D218" s="56"/>
     </row>
     <row r="219" ht="17.25" customHeight="1">
-      <c r="D219" s="55"/>
+      <c r="D219" s="56"/>
     </row>
     <row r="220" ht="17.25" customHeight="1">
-      <c r="D220" s="55"/>
+      <c r="D220" s="56"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="D221" s="55"/>
+      <c r="D221" s="56"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="D222" s="55"/>
+      <c r="D222" s="56"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="D223" s="55"/>
+      <c r="D223" s="56"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="D224" s="55"/>
+      <c r="D224" s="56"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="D225" s="55"/>
+      <c r="D225" s="56"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="D226" s="55"/>
+      <c r="D226" s="56"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="D227" s="55"/>
+      <c r="D227" s="56"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="D228" s="55"/>
+      <c r="D228" s="56"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="D229" s="55"/>
+      <c r="D229" s="56"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="D230" s="55"/>
+      <c r="D230" s="56"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="D231" s="55"/>
+      <c r="D231" s="56"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="D232" s="55"/>
+      <c r="D232" s="56"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="D233" s="55"/>
+      <c r="D233" s="56"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="D234" s="55"/>
+      <c r="D234" s="56"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="D235" s="55"/>
+      <c r="D235" s="56"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="D236" s="55"/>
+      <c r="D236" s="56"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="D237" s="55"/>
+      <c r="D237" s="56"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="D238" s="55"/>
+      <c r="D238" s="56"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="D239" s="55"/>
+      <c r="D239" s="56"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="D240" s="55"/>
+      <c r="D240" s="56"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="D241" s="55"/>
+      <c r="D241" s="56"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="D242" s="55"/>
+      <c r="D242" s="56"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="D243" s="55"/>
+      <c r="D243" s="56"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="D244" s="55"/>
+      <c r="D244" s="56"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="D245" s="55"/>
+      <c r="D245" s="56"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="D246" s="55"/>
+      <c r="D246" s="56"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="D247" s="55"/>
+      <c r="D247" s="56"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="D248" s="55"/>
+      <c r="D248" s="56"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="D249" s="55"/>
+      <c r="D249" s="56"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="D250" s="55"/>
+      <c r="D250" s="56"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="D251" s="55"/>
+      <c r="D251" s="56"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="D252" s="55"/>
+      <c r="D252" s="56"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="D253" s="55"/>
+      <c r="D253" s="56"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="D254" s="55"/>
+      <c r="D254" s="56"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="55"/>
+      <c r="D255" s="56"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="55"/>
+      <c r="D256" s="56"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="55"/>
+      <c r="D257" s="56"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="55"/>
+      <c r="D258" s="56"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="55"/>
+      <c r="D259" s="56"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="55"/>
+      <c r="D260" s="56"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="55"/>
+      <c r="D261" s="56"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="55"/>
+      <c r="D262" s="56"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="55"/>
+      <c r="D263" s="56"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="55"/>
+      <c r="D264" s="56"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="55"/>
+      <c r="D265" s="56"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="55"/>
+      <c r="D266" s="56"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="55"/>
+      <c r="D267" s="56"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="55"/>
+      <c r="D268" s="56"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="55"/>
+      <c r="D269" s="56"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="55"/>
+      <c r="D270" s="56"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="55"/>
+      <c r="D271" s="56"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="55"/>
+      <c r="D272" s="56"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="55"/>
+      <c r="D273" s="56"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="55"/>
+      <c r="D274" s="56"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="55"/>
+      <c r="D275" s="56"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="55"/>
+      <c r="D276" s="56"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="55"/>
+      <c r="D277" s="56"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="55"/>
+      <c r="D278" s="56"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="55"/>
+      <c r="D279" s="56"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="55"/>
+      <c r="D280" s="56"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="55"/>
+      <c r="D281" s="56"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="55"/>
+      <c r="D282" s="56"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="55"/>
+      <c r="D283" s="56"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="55"/>
+      <c r="D284" s="56"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="55"/>
+      <c r="D285" s="56"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="55"/>
+      <c r="D286" s="56"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="55"/>
+      <c r="D287" s="56"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="55"/>
+      <c r="D288" s="56"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="55"/>
+      <c r="D289" s="56"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="55"/>
+      <c r="D290" s="56"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="55"/>
+      <c r="D291" s="56"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="55"/>
+      <c r="D292" s="56"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="55"/>
+      <c r="D293" s="56"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="55"/>
+      <c r="D294" s="56"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="55"/>
+      <c r="D295" s="56"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="55"/>
+      <c r="D296" s="56"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="55"/>
+      <c r="D297" s="56"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="55"/>
+      <c r="D298" s="56"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="55"/>
+      <c r="D299" s="56"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="55"/>
+      <c r="D300" s="56"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="55"/>
+      <c r="D301" s="56"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="55"/>
+      <c r="D302" s="56"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="55"/>
+      <c r="D303" s="56"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="55"/>
+      <c r="D304" s="56"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="55"/>
+      <c r="D305" s="56"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="55"/>
+      <c r="D306" s="56"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="55"/>
+      <c r="D307" s="56"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="55"/>
+      <c r="D308" s="56"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="55"/>
+      <c r="D309" s="56"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="55"/>
+      <c r="D310" s="56"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="55"/>
+      <c r="D311" s="56"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="55"/>
+      <c r="D312" s="56"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="55"/>
+      <c r="D313" s="56"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="55"/>
+      <c r="D314" s="56"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="55"/>
+      <c r="D315" s="56"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="55"/>
+      <c r="D316" s="56"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="55"/>
+      <c r="D317" s="56"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="55"/>
+      <c r="D318" s="56"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="55"/>
+      <c r="D319" s="56"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="55"/>
+      <c r="D320" s="56"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="55"/>
+      <c r="D321" s="56"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="55"/>
+      <c r="D322" s="56"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="55"/>
+      <c r="D323" s="56"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="55"/>
+      <c r="D324" s="56"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="55"/>
+      <c r="D325" s="56"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="55"/>
+      <c r="D326" s="56"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="55"/>
+      <c r="D327" s="56"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="55"/>
+      <c r="D328" s="56"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="55"/>
+      <c r="D329" s="56"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="55"/>
+      <c r="D330" s="56"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="55"/>
+      <c r="D331" s="56"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="55"/>
+      <c r="D332" s="56"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="55"/>
+      <c r="D333" s="56"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="55"/>
+      <c r="D334" s="56"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="55"/>
+      <c r="D335" s="56"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="55"/>
+      <c r="D336" s="56"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="55"/>
+      <c r="D337" s="56"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="55"/>
+      <c r="D338" s="56"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="55"/>
+      <c r="D339" s="56"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="55"/>
+      <c r="D340" s="56"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="55"/>
+      <c r="D341" s="56"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="55"/>
+      <c r="D342" s="56"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="55"/>
+      <c r="D343" s="56"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="55"/>
+      <c r="D344" s="56"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="55"/>
+      <c r="D345" s="56"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="55"/>
+      <c r="D346" s="56"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="55"/>
+      <c r="D347" s="56"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="55"/>
+      <c r="D348" s="56"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="55"/>
+      <c r="D349" s="56"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="55"/>
+      <c r="D350" s="56"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="55"/>
+      <c r="D351" s="56"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="D352" s="55"/>
+      <c r="D352" s="56"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="D353" s="55"/>
+      <c r="D353" s="56"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="D354" s="55"/>
+      <c r="D354" s="56"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="D355" s="55"/>
+      <c r="D355" s="56"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="D356" s="55"/>
+      <c r="D356" s="56"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="D357" s="55"/>
+      <c r="D357" s="56"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="D358" s="55"/>
+      <c r="D358" s="56"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="D359" s="55"/>
+      <c r="D359" s="56"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="D360" s="55"/>
+      <c r="D360" s="56"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="D361" s="55"/>
+      <c r="D361" s="56"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="D362" s="55"/>
+      <c r="D362" s="56"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="D363" s="55"/>
+      <c r="D363" s="56"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="D364" s="55"/>
+      <c r="D364" s="56"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="D365" s="55"/>
+      <c r="D365" s="56"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="D366" s="55"/>
+      <c r="D366" s="56"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="D367" s="55"/>
+      <c r="D367" s="56"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="D368" s="55"/>
+      <c r="D368" s="56"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="D369" s="55"/>
+      <c r="D369" s="56"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="D370" s="55"/>
+      <c r="D370" s="56"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="D371" s="55"/>
+      <c r="D371" s="56"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="D372" s="55"/>
+      <c r="D372" s="56"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="D373" s="55"/>
+      <c r="D373" s="56"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="D374" s="55"/>
+      <c r="D374" s="56"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="D375" s="55"/>
+      <c r="D375" s="56"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="D376" s="55"/>
+      <c r="D376" s="56"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="D377" s="55"/>
+      <c r="D377" s="56"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="D378" s="55"/>
+      <c r="D378" s="56"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="D379" s="55"/>
+      <c r="D379" s="56"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="D380" s="55"/>
+      <c r="D380" s="56"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="D381" s="55"/>
+      <c r="D381" s="56"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="D382" s="55"/>
+      <c r="D382" s="56"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="D383" s="55"/>
+      <c r="D383" s="56"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="D384" s="55"/>
+      <c r="D384" s="56"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="D385" s="55"/>
+      <c r="D385" s="56"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="D386" s="55"/>
+      <c r="D386" s="56"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="D387" s="55"/>
+      <c r="D387" s="56"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="D388" s="55"/>
+      <c r="D388" s="56"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="D389" s="55"/>
+      <c r="D389" s="56"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="D390" s="55"/>
+      <c r="D390" s="56"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="D391" s="55"/>
+      <c r="D391" s="56"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="D392" s="55"/>
+      <c r="D392" s="56"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="D393" s="55"/>
+      <c r="D393" s="56"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="D394" s="55"/>
+      <c r="D394" s="56"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="D395" s="55"/>
+      <c r="D395" s="56"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="D396" s="55"/>
+      <c r="D396" s="56"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="D397" s="55"/>
+      <c r="D397" s="56"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="D398" s="55"/>
+      <c r="D398" s="56"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="D399" s="55"/>
+      <c r="D399" s="56"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="D400" s="55"/>
+      <c r="D400" s="56"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="D401" s="55"/>
+      <c r="D401" s="56"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="D402" s="55"/>
+      <c r="D402" s="56"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="D403" s="55"/>
+      <c r="D403" s="56"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="D404" s="55"/>
+      <c r="D404" s="56"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="D405" s="55"/>
+      <c r="D405" s="56"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="D406" s="55"/>
+      <c r="D406" s="56"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="D407" s="55"/>
+      <c r="D407" s="56"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="D408" s="55"/>
+      <c r="D408" s="56"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="D409" s="55"/>
+      <c r="D409" s="56"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="D410" s="55"/>
+      <c r="D410" s="56"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="D411" s="55"/>
+      <c r="D411" s="56"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="D412" s="55"/>
+      <c r="D412" s="56"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="D413" s="55"/>
+      <c r="D413" s="56"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="D414" s="55"/>
+      <c r="D414" s="56"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="D415" s="55"/>
+      <c r="D415" s="56"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="D416" s="55"/>
+      <c r="D416" s="56"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="D417" s="55"/>
+      <c r="D417" s="56"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="D418" s="55"/>
+      <c r="D418" s="56"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="D419" s="55"/>
+      <c r="D419" s="56"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="D420" s="55"/>
+      <c r="D420" s="56"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="D421" s="55"/>
+      <c r="D421" s="56"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="D422" s="55"/>
+      <c r="D422" s="56"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="D423" s="55"/>
+      <c r="D423" s="56"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="D424" s="55"/>
+      <c r="D424" s="56"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="D425" s="55"/>
+      <c r="D425" s="56"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="D426" s="55"/>
+      <c r="D426" s="56"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="D427" s="55"/>
+      <c r="D427" s="56"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="D428" s="55"/>
+      <c r="D428" s="56"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="D429" s="55"/>
+      <c r="D429" s="56"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="D430" s="55"/>
+      <c r="D430" s="56"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="D431" s="55"/>
+      <c r="D431" s="56"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="D432" s="55"/>
+      <c r="D432" s="56"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="D433" s="55"/>
+      <c r="D433" s="56"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="D434" s="55"/>
+      <c r="D434" s="56"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="D435" s="55"/>
+      <c r="D435" s="56"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="D436" s="55"/>
+      <c r="D436" s="56"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="D437" s="55"/>
+      <c r="D437" s="56"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="D438" s="55"/>
+      <c r="D438" s="56"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="D439" s="55"/>
+      <c r="D439" s="56"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="D440" s="55"/>
+      <c r="D440" s="56"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="D441" s="55"/>
+      <c r="D441" s="56"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="D442" s="55"/>
+      <c r="D442" s="56"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="D443" s="55"/>
+      <c r="D443" s="56"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="D444" s="55"/>
+      <c r="D444" s="56"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="D445" s="55"/>
+      <c r="D445" s="56"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="D446" s="55"/>
+      <c r="D446" s="56"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="D447" s="55"/>
+      <c r="D447" s="56"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="D448" s="55"/>
+      <c r="D448" s="56"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="D449" s="55"/>
+      <c r="D449" s="56"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="D450" s="55"/>
+      <c r="D450" s="56"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="D451" s="55"/>
+      <c r="D451" s="56"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="D452" s="55"/>
+      <c r="D452" s="56"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="D453" s="55"/>
+      <c r="D453" s="56"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="D454" s="55"/>
+      <c r="D454" s="56"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="D455" s="55"/>
+      <c r="D455" s="56"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="D456" s="55"/>
+      <c r="D456" s="56"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="D457" s="55"/>
+      <c r="D457" s="56"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="D458" s="55"/>
+      <c r="D458" s="56"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="D459" s="55"/>
+      <c r="D459" s="56"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="D460" s="55"/>
+      <c r="D460" s="56"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="D461" s="55"/>
+      <c r="D461" s="56"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="D462" s="55"/>
+      <c r="D462" s="56"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="D463" s="55"/>
+      <c r="D463" s="56"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="D464" s="55"/>
+      <c r="D464" s="56"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="D465" s="55"/>
+      <c r="D465" s="56"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="D466" s="55"/>
+      <c r="D466" s="56"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="D467" s="55"/>
+      <c r="D467" s="56"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="D468" s="55"/>
+      <c r="D468" s="56"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="D469" s="55"/>
+      <c r="D469" s="56"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="D470" s="55"/>
+      <c r="D470" s="56"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="D471" s="55"/>
+      <c r="D471" s="56"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="D472" s="55"/>
+      <c r="D472" s="56"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="D473" s="55"/>
+      <c r="D473" s="56"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="D474" s="55"/>
+      <c r="D474" s="56"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="D475" s="55"/>
+      <c r="D475" s="56"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="D476" s="55"/>
+      <c r="D476" s="56"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="D477" s="55"/>
+      <c r="D477" s="56"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="D478" s="55"/>
+      <c r="D478" s="56"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="D479" s="55"/>
+      <c r="D479" s="56"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="D480" s="55"/>
+      <c r="D480" s="56"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="D481" s="55"/>
+      <c r="D481" s="56"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="D482" s="55"/>
+      <c r="D482" s="56"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="D483" s="55"/>
+      <c r="D483" s="56"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="D484" s="55"/>
+      <c r="D484" s="56"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="D485" s="55"/>
+      <c r="D485" s="56"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="D486" s="55"/>
+      <c r="D486" s="56"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="D487" s="55"/>
+      <c r="D487" s="56"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="D488" s="55"/>
+      <c r="D488" s="56"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="D489" s="55"/>
+      <c r="D489" s="56"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="D490" s="55"/>
+      <c r="D490" s="56"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="D491" s="55"/>
+      <c r="D491" s="56"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="D492" s="55"/>
+      <c r="D492" s="56"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="D493" s="55"/>
+      <c r="D493" s="56"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="D494" s="55"/>
+      <c r="D494" s="56"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="D495" s="55"/>
+      <c r="D495" s="56"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="D496" s="55"/>
+      <c r="D496" s="56"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="D497" s="55"/>
+      <c r="D497" s="56"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="D498" s="55"/>
+      <c r="D498" s="56"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="D499" s="55"/>
+      <c r="D499" s="56"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="D500" s="55"/>
+      <c r="D500" s="56"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="D501" s="55"/>
+      <c r="D501" s="56"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="D502" s="55"/>
+      <c r="D502" s="56"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="D503" s="55"/>
+      <c r="D503" s="56"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="D504" s="55"/>
+      <c r="D504" s="56"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="D505" s="55"/>
+      <c r="D505" s="56"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="D506" s="55"/>
+      <c r="D506" s="56"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="D507" s="55"/>
+      <c r="D507" s="56"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="D508" s="55"/>
+      <c r="D508" s="56"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="D509" s="55"/>
+      <c r="D509" s="56"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="D510" s="55"/>
+      <c r="D510" s="56"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="D511" s="55"/>
+      <c r="D511" s="56"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="D512" s="55"/>
+      <c r="D512" s="56"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="D513" s="55"/>
+      <c r="D513" s="56"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="D514" s="55"/>
+      <c r="D514" s="56"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="D515" s="55"/>
+      <c r="D515" s="56"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="D516" s="55"/>
+      <c r="D516" s="56"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="D517" s="55"/>
+      <c r="D517" s="56"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="D518" s="55"/>
+      <c r="D518" s="56"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="D519" s="55"/>
+      <c r="D519" s="56"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="D520" s="55"/>
+      <c r="D520" s="56"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="D521" s="55"/>
+      <c r="D521" s="56"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="D522" s="55"/>
+      <c r="D522" s="56"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="D523" s="55"/>
+      <c r="D523" s="56"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="D524" s="55"/>
+      <c r="D524" s="56"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="D525" s="55"/>
+      <c r="D525" s="56"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="D526" s="55"/>
+      <c r="D526" s="56"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="D527" s="55"/>
+      <c r="D527" s="56"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="D528" s="55"/>
+      <c r="D528" s="56"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="D529" s="55"/>
+      <c r="D529" s="56"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="D530" s="55"/>
+      <c r="D530" s="56"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="D531" s="55"/>
+      <c r="D531" s="56"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="D532" s="55"/>
+      <c r="D532" s="56"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="D533" s="55"/>
+      <c r="D533" s="56"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="D534" s="55"/>
+      <c r="D534" s="56"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="D535" s="55"/>
+      <c r="D535" s="56"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="D536" s="55"/>
+      <c r="D536" s="56"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="D537" s="55"/>
+      <c r="D537" s="56"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="D538" s="55"/>
+      <c r="D538" s="56"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="D539" s="55"/>
+      <c r="D539" s="56"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="D540" s="55"/>
+      <c r="D540" s="56"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="D541" s="55"/>
+      <c r="D541" s="56"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="D542" s="55"/>
+      <c r="D542" s="56"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="D543" s="55"/>
+      <c r="D543" s="56"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="D544" s="55"/>
+      <c r="D544" s="56"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="D545" s="55"/>
+      <c r="D545" s="56"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="D546" s="55"/>
+      <c r="D546" s="56"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="D547" s="55"/>
+      <c r="D547" s="56"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="D548" s="55"/>
+      <c r="D548" s="56"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="D549" s="55"/>
+      <c r="D549" s="56"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="D550" s="55"/>
+      <c r="D550" s="56"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="D551" s="55"/>
+      <c r="D551" s="56"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="D552" s="55"/>
+      <c r="D552" s="56"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="D553" s="55"/>
+      <c r="D553" s="56"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="D554" s="55"/>
+      <c r="D554" s="56"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="D555" s="55"/>
+      <c r="D555" s="56"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="D556" s="55"/>
+      <c r="D556" s="56"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="D557" s="55"/>
+      <c r="D557" s="56"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="D558" s="55"/>
+      <c r="D558" s="56"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="D559" s="55"/>
+      <c r="D559" s="56"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="D560" s="55"/>
+      <c r="D560" s="56"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="D561" s="55"/>
+      <c r="D561" s="56"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="D562" s="55"/>
+      <c r="D562" s="56"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="D563" s="55"/>
+      <c r="D563" s="56"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="D564" s="55"/>
+      <c r="D564" s="56"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="D565" s="55"/>
+      <c r="D565" s="56"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="D566" s="55"/>
+      <c r="D566" s="56"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="D567" s="55"/>
+      <c r="D567" s="56"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="D568" s="55"/>
+      <c r="D568" s="56"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="D569" s="55"/>
+      <c r="D569" s="56"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="D570" s="55"/>
+      <c r="D570" s="56"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="D571" s="55"/>
+      <c r="D571" s="56"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="D572" s="55"/>
+      <c r="D572" s="56"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="D573" s="55"/>
+      <c r="D573" s="56"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="D574" s="55"/>
+      <c r="D574" s="56"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="D575" s="55"/>
+      <c r="D575" s="56"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="D576" s="55"/>
+      <c r="D576" s="56"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="D577" s="55"/>
+      <c r="D577" s="56"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="D578" s="55"/>
+      <c r="D578" s="56"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="D579" s="55"/>
+      <c r="D579" s="56"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="D580" s="55"/>
+      <c r="D580" s="56"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="D581" s="55"/>
+      <c r="D581" s="56"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="D582" s="55"/>
+      <c r="D582" s="56"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="D583" s="55"/>
+      <c r="D583" s="56"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="D584" s="55"/>
+      <c r="D584" s="56"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="D585" s="55"/>
+      <c r="D585" s="56"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="D586" s="55"/>
+      <c r="D586" s="56"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="D587" s="55"/>
+      <c r="D587" s="56"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="D588" s="55"/>
+      <c r="D588" s="56"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="D589" s="55"/>
+      <c r="D589" s="56"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="D590" s="55"/>
+      <c r="D590" s="56"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="D591" s="55"/>
+      <c r="D591" s="56"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="D592" s="55"/>
+      <c r="D592" s="56"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="D593" s="55"/>
+      <c r="D593" s="56"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="D594" s="55"/>
+      <c r="D594" s="56"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="D595" s="55"/>
+      <c r="D595" s="56"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="D596" s="55"/>
+      <c r="D596" s="56"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="D597" s="55"/>
+      <c r="D597" s="56"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="D598" s="55"/>
+      <c r="D598" s="56"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="D599" s="55"/>
+      <c r="D599" s="56"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="D600" s="55"/>
+      <c r="D600" s="56"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="D601" s="55"/>
+      <c r="D601" s="56"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="D602" s="55"/>
+      <c r="D602" s="56"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="D603" s="55"/>
+      <c r="D603" s="56"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="D604" s="55"/>
+      <c r="D604" s="56"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="D605" s="55"/>
+      <c r="D605" s="56"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="D606" s="55"/>
+      <c r="D606" s="56"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="D607" s="55"/>
+      <c r="D607" s="56"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="D608" s="55"/>
+      <c r="D608" s="56"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="D609" s="55"/>
+      <c r="D609" s="56"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="D610" s="55"/>
+      <c r="D610" s="56"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="D611" s="55"/>
+      <c r="D611" s="56"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="D612" s="55"/>
+      <c r="D612" s="56"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="D613" s="55"/>
+      <c r="D613" s="56"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="D614" s="55"/>
+      <c r="D614" s="56"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="D615" s="55"/>
+      <c r="D615" s="56"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="D616" s="55"/>
+      <c r="D616" s="56"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="D617" s="55"/>
+      <c r="D617" s="56"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="D618" s="55"/>
+      <c r="D618" s="56"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="D619" s="55"/>
+      <c r="D619" s="56"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="D620" s="55"/>
+      <c r="D620" s="56"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="D621" s="55"/>
+      <c r="D621" s="56"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="D622" s="55"/>
+      <c r="D622" s="56"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="D623" s="55"/>
+      <c r="D623" s="56"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="D624" s="55"/>
+      <c r="D624" s="56"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="D625" s="55"/>
+      <c r="D625" s="56"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="D626" s="55"/>
+      <c r="D626" s="56"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="D627" s="55"/>
+      <c r="D627" s="56"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="D628" s="55"/>
+      <c r="D628" s="56"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="D629" s="55"/>
+      <c r="D629" s="56"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="D630" s="55"/>
+      <c r="D630" s="56"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="D631" s="55"/>
+      <c r="D631" s="56"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="D632" s="55"/>
+      <c r="D632" s="56"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="D633" s="55"/>
+      <c r="D633" s="56"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="D634" s="55"/>
+      <c r="D634" s="56"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="D635" s="55"/>
+      <c r="D635" s="56"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="D636" s="55"/>
+      <c r="D636" s="56"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="D637" s="55"/>
+      <c r="D637" s="56"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="D638" s="55"/>
+      <c r="D638" s="56"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="D639" s="55"/>
+      <c r="D639" s="56"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="D640" s="55"/>
+      <c r="D640" s="56"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="D641" s="55"/>
+      <c r="D641" s="56"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="D642" s="55"/>
+      <c r="D642" s="56"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="D643" s="55"/>
+      <c r="D643" s="56"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="D644" s="55"/>
+      <c r="D644" s="56"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="D645" s="55"/>
+      <c r="D645" s="56"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="D646" s="55"/>
+      <c r="D646" s="56"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="D647" s="55"/>
+      <c r="D647" s="56"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="D648" s="55"/>
+      <c r="D648" s="56"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="D649" s="55"/>
+      <c r="D649" s="56"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="D650" s="55"/>
+      <c r="D650" s="56"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="D651" s="55"/>
+      <c r="D651" s="56"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="D652" s="55"/>
+      <c r="D652" s="56"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="D653" s="55"/>
+      <c r="D653" s="56"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="D654" s="55"/>
+      <c r="D654" s="56"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="D655" s="55"/>
+      <c r="D655" s="56"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="D656" s="55"/>
+      <c r="D656" s="56"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="D657" s="55"/>
+      <c r="D657" s="56"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="D658" s="55"/>
+      <c r="D658" s="56"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="D659" s="55"/>
+      <c r="D659" s="56"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="D660" s="55"/>
+      <c r="D660" s="56"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="D661" s="55"/>
+      <c r="D661" s="56"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="D662" s="55"/>
+      <c r="D662" s="56"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="D663" s="55"/>
+      <c r="D663" s="56"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="D664" s="55"/>
+      <c r="D664" s="56"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="D665" s="55"/>
+      <c r="D665" s="56"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="D666" s="55"/>
+      <c r="D666" s="56"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="D667" s="55"/>
+      <c r="D667" s="56"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="D668" s="55"/>
+      <c r="D668" s="56"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="D669" s="55"/>
+      <c r="D669" s="56"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="D670" s="55"/>
+      <c r="D670" s="56"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="D671" s="55"/>
+      <c r="D671" s="56"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="D672" s="55"/>
+      <c r="D672" s="56"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="D673" s="55"/>
+      <c r="D673" s="56"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="D674" s="55"/>
+      <c r="D674" s="56"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="D675" s="55"/>
+      <c r="D675" s="56"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="D676" s="55"/>
+      <c r="D676" s="56"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="D677" s="55"/>
+      <c r="D677" s="56"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="D678" s="55"/>
+      <c r="D678" s="56"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="D679" s="55"/>
+      <c r="D679" s="56"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="D680" s="55"/>
+      <c r="D680" s="56"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="D681" s="55"/>
+      <c r="D681" s="56"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="D682" s="55"/>
+      <c r="D682" s="56"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="D683" s="55"/>
+      <c r="D683" s="56"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="D684" s="55"/>
+      <c r="D684" s="56"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="D685" s="55"/>
+      <c r="D685" s="56"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="D686" s="55"/>
+      <c r="D686" s="56"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="D687" s="55"/>
+      <c r="D687" s="56"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="D688" s="55"/>
+      <c r="D688" s="56"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="D689" s="55"/>
+      <c r="D689" s="56"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="D690" s="55"/>
+      <c r="D690" s="56"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="D691" s="55"/>
+      <c r="D691" s="56"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="D692" s="55"/>
+      <c r="D692" s="56"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="D693" s="55"/>
+      <c r="D693" s="56"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="D694" s="55"/>
+      <c r="D694" s="56"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="D695" s="55"/>
+      <c r="D695" s="56"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="D696" s="55"/>
+      <c r="D696" s="56"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="D697" s="55"/>
+      <c r="D697" s="56"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="D698" s="55"/>
+      <c r="D698" s="56"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="D699" s="55"/>
+      <c r="D699" s="56"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="D700" s="55"/>
+      <c r="D700" s="56"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="D701" s="55"/>
+      <c r="D701" s="56"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="D702" s="55"/>
+      <c r="D702" s="56"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="D703" s="55"/>
+      <c r="D703" s="56"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="D704" s="55"/>
+      <c r="D704" s="56"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="D705" s="55"/>
+      <c r="D705" s="56"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="D706" s="55"/>
+      <c r="D706" s="56"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="D707" s="55"/>
+      <c r="D707" s="56"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="D708" s="55"/>
+      <c r="D708" s="56"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="D709" s="55"/>
+      <c r="D709" s="56"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="D710" s="55"/>
+      <c r="D710" s="56"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="D711" s="55"/>
+      <c r="D711" s="56"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="D712" s="55"/>
+      <c r="D712" s="56"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="D713" s="55"/>
+      <c r="D713" s="56"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="D714" s="55"/>
+      <c r="D714" s="56"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="D715" s="55"/>
+      <c r="D715" s="56"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="D716" s="55"/>
+      <c r="D716" s="56"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="D717" s="55"/>
+      <c r="D717" s="56"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="D718" s="55"/>
+      <c r="D718" s="56"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="D719" s="55"/>
+      <c r="D719" s="56"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="D720" s="55"/>
+      <c r="D720" s="56"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="D721" s="55"/>
+      <c r="D721" s="56"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="D722" s="55"/>
+      <c r="D722" s="56"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="D723" s="55"/>
+      <c r="D723" s="56"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="D724" s="55"/>
+      <c r="D724" s="56"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="D725" s="55"/>
+      <c r="D725" s="56"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="D726" s="55"/>
+      <c r="D726" s="56"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="D727" s="55"/>
+      <c r="D727" s="56"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="D728" s="55"/>
+      <c r="D728" s="56"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="D729" s="55"/>
+      <c r="D729" s="56"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="D730" s="55"/>
+      <c r="D730" s="56"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="D731" s="55"/>
+      <c r="D731" s="56"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="D732" s="55"/>
+      <c r="D732" s="56"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="D733" s="55"/>
+      <c r="D733" s="56"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="D734" s="55"/>
+      <c r="D734" s="56"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="D735" s="55"/>
+      <c r="D735" s="56"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="D736" s="55"/>
+      <c r="D736" s="56"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="D737" s="55"/>
+      <c r="D737" s="56"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="D738" s="55"/>
+      <c r="D738" s="56"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="D739" s="55"/>
+      <c r="D739" s="56"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="D740" s="55"/>
+      <c r="D740" s="56"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="D741" s="55"/>
+      <c r="D741" s="56"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="D742" s="55"/>
+      <c r="D742" s="56"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="D743" s="55"/>
+      <c r="D743" s="56"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="D744" s="55"/>
+      <c r="D744" s="56"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="D745" s="55"/>
+      <c r="D745" s="56"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="D746" s="55"/>
+      <c r="D746" s="56"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="D747" s="55"/>
+      <c r="D747" s="56"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="D748" s="55"/>
+      <c r="D748" s="56"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="D749" s="55"/>
+      <c r="D749" s="56"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="D750" s="55"/>
+      <c r="D750" s="56"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="D751" s="55"/>
+      <c r="D751" s="56"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="D752" s="55"/>
+      <c r="D752" s="56"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="D753" s="55"/>
+      <c r="D753" s="56"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="D754" s="55"/>
+      <c r="D754" s="56"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="D755" s="55"/>
+      <c r="D755" s="56"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="D756" s="55"/>
+      <c r="D756" s="56"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="D757" s="55"/>
+      <c r="D757" s="56"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="D758" s="55"/>
+      <c r="D758" s="56"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="D759" s="55"/>
+      <c r="D759" s="56"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="D760" s="55"/>
+      <c r="D760" s="56"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="D761" s="55"/>
+      <c r="D761" s="56"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="D762" s="55"/>
+      <c r="D762" s="56"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="D763" s="55"/>
+      <c r="D763" s="56"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="D764" s="55"/>
+      <c r="D764" s="56"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="D765" s="55"/>
+      <c r="D765" s="56"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="D766" s="55"/>
+      <c r="D766" s="56"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="D767" s="55"/>
+      <c r="D767" s="56"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="D768" s="55"/>
+      <c r="D768" s="56"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="D769" s="55"/>
+      <c r="D769" s="56"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="D770" s="55"/>
+      <c r="D770" s="56"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="D771" s="55"/>
+      <c r="D771" s="56"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="D772" s="55"/>
+      <c r="D772" s="56"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="D773" s="55"/>
+      <c r="D773" s="56"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="D774" s="55"/>
+      <c r="D774" s="56"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="D775" s="55"/>
+      <c r="D775" s="56"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="D776" s="55"/>
+      <c r="D776" s="56"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="D777" s="55"/>
+      <c r="D777" s="56"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="D778" s="55"/>
+      <c r="D778" s="56"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="D779" s="55"/>
+      <c r="D779" s="56"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="D780" s="55"/>
+      <c r="D780" s="56"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="D781" s="55"/>
+      <c r="D781" s="56"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="D782" s="55"/>
+      <c r="D782" s="56"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="D783" s="55"/>
+      <c r="D783" s="56"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="D784" s="55"/>
+      <c r="D784" s="56"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="D785" s="55"/>
+      <c r="D785" s="56"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="D786" s="55"/>
+      <c r="D786" s="56"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="D787" s="55"/>
+      <c r="D787" s="56"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="D788" s="55"/>
+      <c r="D788" s="56"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="D789" s="55"/>
+      <c r="D789" s="56"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="D790" s="55"/>
+      <c r="D790" s="56"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="D791" s="55"/>
+      <c r="D791" s="56"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="D792" s="55"/>
+      <c r="D792" s="56"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="D793" s="55"/>
+      <c r="D793" s="56"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="D794" s="55"/>
+      <c r="D794" s="56"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="D795" s="55"/>
+      <c r="D795" s="56"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="D796" s="55"/>
+      <c r="D796" s="56"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="D797" s="55"/>
+      <c r="D797" s="56"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="D798" s="55"/>
+      <c r="D798" s="56"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="D799" s="55"/>
+      <c r="D799" s="56"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="D800" s="55"/>
+      <c r="D800" s="56"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="D801" s="55"/>
+      <c r="D801" s="56"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="D802" s="55"/>
+      <c r="D802" s="56"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="D803" s="55"/>
+      <c r="D803" s="56"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="D804" s="55"/>
+      <c r="D804" s="56"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="D805" s="55"/>
+      <c r="D805" s="56"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="D806" s="55"/>
+      <c r="D806" s="56"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="D807" s="55"/>
+      <c r="D807" s="56"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="D808" s="55"/>
+      <c r="D808" s="56"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="D809" s="55"/>
+      <c r="D809" s="56"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="D810" s="55"/>
+      <c r="D810" s="56"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="D811" s="55"/>
+      <c r="D811" s="56"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="D812" s="55"/>
+      <c r="D812" s="56"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="D813" s="55"/>
+      <c r="D813" s="56"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="D814" s="55"/>
+      <c r="D814" s="56"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="D815" s="55"/>
+      <c r="D815" s="56"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="D816" s="55"/>
+      <c r="D816" s="56"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="D817" s="55"/>
+      <c r="D817" s="56"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="D818" s="55"/>
+      <c r="D818" s="56"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="D819" s="55"/>
+      <c r="D819" s="56"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="D820" s="55"/>
+      <c r="D820" s="56"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="D821" s="55"/>
+      <c r="D821" s="56"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="D822" s="55"/>
+      <c r="D822" s="56"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="D823" s="55"/>
+      <c r="D823" s="56"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="D824" s="55"/>
+      <c r="D824" s="56"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="D825" s="55"/>
+      <c r="D825" s="56"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="D826" s="55"/>
+      <c r="D826" s="56"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="D827" s="55"/>
+      <c r="D827" s="56"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="D828" s="55"/>
+      <c r="D828" s="56"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="D829" s="55"/>
+      <c r="D829" s="56"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="D830" s="55"/>
+      <c r="D830" s="56"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="D831" s="55"/>
+      <c r="D831" s="56"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="D832" s="55"/>
+      <c r="D832" s="56"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="D833" s="55"/>
+      <c r="D833" s="56"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="D834" s="55"/>
+      <c r="D834" s="56"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="D835" s="55"/>
+      <c r="D835" s="56"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="D836" s="55"/>
+      <c r="D836" s="56"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="D837" s="55"/>
+      <c r="D837" s="56"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="D838" s="55"/>
+      <c r="D838" s="56"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="D839" s="55"/>
+      <c r="D839" s="56"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="D840" s="55"/>
+      <c r="D840" s="56"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="D841" s="55"/>
+      <c r="D841" s="56"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="D842" s="55"/>
+      <c r="D842" s="56"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="D843" s="55"/>
+      <c r="D843" s="56"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="D844" s="55"/>
+      <c r="D844" s="56"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="D845" s="55"/>
+      <c r="D845" s="56"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="D846" s="55"/>
+      <c r="D846" s="56"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="D847" s="55"/>
+      <c r="D847" s="56"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="D848" s="55"/>
+      <c r="D848" s="56"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="D849" s="55"/>
+      <c r="D849" s="56"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="D850" s="55"/>
+      <c r="D850" s="56"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="D851" s="55"/>
+      <c r="D851" s="56"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="D852" s="55"/>
+      <c r="D852" s="56"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="D853" s="55"/>
+      <c r="D853" s="56"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="D854" s="55"/>
+      <c r="D854" s="56"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="D855" s="55"/>
+      <c r="D855" s="56"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="D856" s="55"/>
+      <c r="D856" s="56"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="D857" s="55"/>
+      <c r="D857" s="56"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="D858" s="55"/>
+      <c r="D858" s="56"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="D859" s="55"/>
+      <c r="D859" s="56"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="D860" s="55"/>
+      <c r="D860" s="56"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="D861" s="55"/>
+      <c r="D861" s="56"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="D862" s="55"/>
+      <c r="D862" s="56"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="D863" s="55"/>
+      <c r="D863" s="56"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="D864" s="55"/>
+      <c r="D864" s="56"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="D865" s="55"/>
+      <c r="D865" s="56"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="D866" s="55"/>
+      <c r="D866" s="56"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="D867" s="55"/>
+      <c r="D867" s="56"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="D868" s="55"/>
+      <c r="D868" s="56"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="D869" s="55"/>
+      <c r="D869" s="56"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="D870" s="55"/>
+      <c r="D870" s="56"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="D871" s="55"/>
+      <c r="D871" s="56"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="D872" s="55"/>
+      <c r="D872" s="56"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="D873" s="55"/>
+      <c r="D873" s="56"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="D874" s="55"/>
+      <c r="D874" s="56"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="D875" s="55"/>
+      <c r="D875" s="56"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="D876" s="55"/>
+      <c r="D876" s="56"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="D877" s="55"/>
+      <c r="D877" s="56"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="D878" s="55"/>
+      <c r="D878" s="56"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="D879" s="55"/>
+      <c r="D879" s="56"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="D880" s="55"/>
+      <c r="D880" s="56"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="D881" s="55"/>
+      <c r="D881" s="56"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="D882" s="55"/>
+      <c r="D882" s="56"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="D883" s="55"/>
+      <c r="D883" s="56"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="D884" s="55"/>
+      <c r="D884" s="56"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="D885" s="55"/>
+      <c r="D885" s="56"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="D886" s="55"/>
+      <c r="D886" s="56"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="D887" s="55"/>
+      <c r="D887" s="56"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="D888" s="55"/>
+      <c r="D888" s="56"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="D889" s="55"/>
+      <c r="D889" s="56"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="D890" s="55"/>
+      <c r="D890" s="56"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="D891" s="55"/>
+      <c r="D891" s="56"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="D892" s="55"/>
+      <c r="D892" s="56"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="D893" s="55"/>
+      <c r="D893" s="56"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="D894" s="55"/>
+      <c r="D894" s="56"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="D895" s="55"/>
+      <c r="D895" s="56"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="D896" s="55"/>
+      <c r="D896" s="56"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="D897" s="55"/>
+      <c r="D897" s="56"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="D898" s="55"/>
+      <c r="D898" s="56"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="D899" s="55"/>
+      <c r="D899" s="56"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="D900" s="55"/>
+      <c r="D900" s="56"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="D901" s="55"/>
+      <c r="D901" s="56"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="D902" s="55"/>
+      <c r="D902" s="56"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="D903" s="55"/>
+      <c r="D903" s="56"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="D904" s="55"/>
+      <c r="D904" s="56"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="D905" s="55"/>
+      <c r="D905" s="56"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="D906" s="55"/>
+      <c r="D906" s="56"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="D907" s="55"/>
+      <c r="D907" s="56"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="D908" s="55"/>
+      <c r="D908" s="56"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="D909" s="55"/>
+      <c r="D909" s="56"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="D910" s="55"/>
+      <c r="D910" s="56"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="D911" s="55"/>
+      <c r="D911" s="56"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="D912" s="55"/>
+      <c r="D912" s="56"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="D913" s="55"/>
+      <c r="D913" s="56"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="D914" s="55"/>
+      <c r="D914" s="56"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="D915" s="55"/>
+      <c r="D915" s="56"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="D916" s="55"/>
+      <c r="D916" s="56"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="D917" s="55"/>
+      <c r="D917" s="56"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="D918" s="55"/>
+      <c r="D918" s="56"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="D919" s="55"/>
+      <c r="D919" s="56"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="D920" s="55"/>
+      <c r="D920" s="56"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="D921" s="55"/>
+      <c r="D921" s="56"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="D922" s="55"/>
+      <c r="D922" s="56"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="D923" s="55"/>
+      <c r="D923" s="56"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="D924" s="55"/>
+      <c r="D924" s="56"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="D925" s="55"/>
+      <c r="D925" s="56"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="D926" s="55"/>
+      <c r="D926" s="56"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="D927" s="55"/>
+      <c r="D927" s="56"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="D928" s="55"/>
+      <c r="D928" s="56"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="D929" s="55"/>
+      <c r="D929" s="56"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="D930" s="55"/>
+      <c r="D930" s="56"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="D931" s="55"/>
+      <c r="D931" s="56"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="D932" s="55"/>
+      <c r="D932" s="56"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="D933" s="55"/>
+      <c r="D933" s="56"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="D934" s="55"/>
+      <c r="D934" s="56"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="D935" s="55"/>
+      <c r="D935" s="56"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="D936" s="55"/>
+      <c r="D936" s="56"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="D937" s="55"/>
+      <c r="D937" s="56"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="D938" s="55"/>
+      <c r="D938" s="56"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="D939" s="55"/>
+      <c r="D939" s="56"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="D940" s="55"/>
+      <c r="D940" s="56"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="D941" s="55"/>
+      <c r="D941" s="56"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="D942" s="55"/>
+      <c r="D942" s="56"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="D943" s="55"/>
+      <c r="D943" s="56"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="D944" s="55"/>
+      <c r="D944" s="56"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="D945" s="55"/>
+      <c r="D945" s="56"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="D946" s="55"/>
+      <c r="D946" s="56"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="D947" s="55"/>
+      <c r="D947" s="56"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="D948" s="55"/>
+      <c r="D948" s="56"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="D949" s="55"/>
+      <c r="D949" s="56"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="D950" s="55"/>
+      <c r="D950" s="56"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="D951" s="55"/>
+      <c r="D951" s="56"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="D952" s="55"/>
+      <c r="D952" s="56"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="D953" s="55"/>
+      <c r="D953" s="56"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="D954" s="55"/>
+      <c r="D954" s="56"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="D955" s="55"/>
+      <c r="D955" s="56"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="D956" s="55"/>
+      <c r="D956" s="56"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="D957" s="55"/>
+      <c r="D957" s="56"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="D958" s="55"/>
+      <c r="D958" s="56"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="D959" s="55"/>
+      <c r="D959" s="56"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="D960" s="55"/>
+      <c r="D960" s="56"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="D961" s="55"/>
+      <c r="D961" s="56"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="D962" s="55"/>
+      <c r="D962" s="56"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="D963" s="55"/>
+      <c r="D963" s="56"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="D964" s="55"/>
+      <c r="D964" s="56"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="D965" s="55"/>
+      <c r="D965" s="56"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="D966" s="55"/>
+      <c r="D966" s="56"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="D967" s="55"/>
+      <c r="D967" s="56"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="D968" s="55"/>
+      <c r="D968" s="56"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="D969" s="55"/>
+      <c r="D969" s="56"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="D970" s="55"/>
+      <c r="D970" s="56"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="D971" s="55"/>
+      <c r="D971" s="56"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="D972" s="55"/>
+      <c r="D972" s="56"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="D973" s="55"/>
+      <c r="D973" s="56"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="D974" s="55"/>
+      <c r="D974" s="56"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="D975" s="55"/>
+      <c r="D975" s="56"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="D976" s="55"/>
+      <c r="D976" s="56"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="D977" s="55"/>
+      <c r="D977" s="56"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="D978" s="55"/>
+      <c r="D978" s="56"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="D979" s="55"/>
+      <c r="D979" s="56"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="D980" s="55"/>
+      <c r="D980" s="56"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="D981" s="55"/>
+      <c r="D981" s="56"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="D982" s="55"/>
+      <c r="D982" s="56"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="D983" s="55"/>
+      <c r="D983" s="56"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="D984" s="55"/>
+      <c r="D984" s="56"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="D985" s="55"/>
+      <c r="D985" s="56"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="D986" s="55"/>
+      <c r="D986" s="56"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="D987" s="55"/>
+      <c r="D987" s="56"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="D988" s="55"/>
+      <c r="D988" s="56"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="D989" s="55"/>
+      <c r="D989" s="56"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="D990" s="55"/>
+      <c r="D990" s="56"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="D991" s="55"/>
+      <c r="D991" s="56"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="55"/>
+      <c r="D992" s="56"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="D993" s="55"/>
+      <c r="D993" s="56"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="D994" s="55"/>
+      <c r="D994" s="56"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="D995" s="55"/>
+      <c r="D995" s="56"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="D996" s="55"/>
+      <c r="D996" s="56"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="D997" s="55"/>
+      <c r="D997" s="56"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="D998" s="55"/>
+      <c r="D998" s="56"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="D999" s="55"/>
+      <c r="D999" s="56"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="D1000" s="55"/>
+      <c r="D1000" s="56"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -63142,28 +63244,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -63171,13 +63273,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -63197,13 +63299,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -63223,13 +63325,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -63249,13 +63351,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -63275,13 +63377,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -63301,13 +63403,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F7" s="1">
         <v>400.0</v>
@@ -63327,13 +63429,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1">
         <v>300.0</v>
@@ -63387,16 +63489,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -63404,13 +63506,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -63418,13 +63520,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -63432,13 +63534,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -63449,10 +63551,10 @@
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -63460,13 +63562,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -63474,7 +63576,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
@@ -63482,7 +63584,7 @@
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
@@ -63490,7 +63592,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
@@ -63498,7 +63600,7 @@
         <v>8.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -63506,292 +63608,292 @@
         <v>9.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="56">
+      <c r="A12" s="57">
         <v>10.0</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>177</v>
+      <c r="B12" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="56">
+      <c r="A13" s="57">
         <v>11.0</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>177</v>
+      <c r="B13" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="56">
+      <c r="A14" s="57">
         <v>12.0</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>177</v>
+      <c r="B14" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="56">
+      <c r="A15" s="57">
         <v>13.0</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="56" t="s">
+      <c r="B15" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>177</v>
+      <c r="C15" s="58"/>
+      <c r="D15" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="56">
+      <c r="A16" s="57">
         <v>14.0</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>177</v>
+      <c r="B16" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="56">
+      <c r="A17" s="57">
         <v>15.0</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="56" t="s">
+      <c r="B17" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="58" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="56">
+      <c r="A18" s="57">
         <v>16.0</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>177</v>
+      <c r="B18" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="56">
+      <c r="A19" s="57">
         <v>17.0</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>177</v>
+      <c r="B19" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="56">
+      <c r="A20" s="57">
         <v>18.0</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>177</v>
+      <c r="B20" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="56">
+      <c r="A21" s="57">
         <v>19.0</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>177</v>
+      <c r="B21" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="59">
+      <c r="A22" s="60">
         <v>20.0</v>
       </c>
-      <c r="B22" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>177</v>
+      <c r="B22" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="59">
+      <c r="A23" s="60">
         <v>21.0</v>
       </c>
-      <c r="B23" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>177</v>
+      <c r="B23" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="59">
+      <c r="A24" s="60">
         <v>22.0</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>177</v>
+      <c r="B24" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="59">
+      <c r="A25" s="60">
         <v>23.0</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>177</v>
+      <c r="B25" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="59">
+      <c r="A26" s="60">
         <v>24.0</v>
       </c>
-      <c r="B26" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>177</v>
+      <c r="B26" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="59">
+      <c r="A27" s="60">
         <v>25.0</v>
       </c>
-      <c r="B27" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>177</v>
+      <c r="B27" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="59">
+      <c r="A28" s="60">
         <v>26.0</v>
       </c>
-      <c r="B28" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>177</v>
+      <c r="B28" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="59">
+      <c r="A29" s="60">
         <v>27.0</v>
       </c>
-      <c r="B29" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>177</v>
+      <c r="B29" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="59">
+      <c r="A30" s="60">
         <v>28.0</v>
       </c>
-      <c r="B30" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>177</v>
+      <c r="B30" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31">
@@ -63804,13 +63906,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33">
@@ -63818,13 +63920,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34">
@@ -63832,13 +63934,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35">
@@ -63846,13 +63948,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36">
@@ -63860,13 +63962,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37">
@@ -63874,13 +63976,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38">
@@ -63888,13 +63990,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39">
@@ -63902,13 +64004,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40">
@@ -63916,13 +64018,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="324">
   <si>
     <t>Number</t>
   </si>
@@ -518,149 +518,485 @@
     <t>Item_Name</t>
   </si>
   <si>
-    <t>Item_Pride</t>
+    <t>Item_Type</t>
   </si>
   <si>
     <t>Item_Information</t>
   </si>
   <si>
-    <t>Item_Type</t>
+    <t>Box_Type</t>
   </si>
   <si>
-    <t>Revive_Stone</t>
+    <t>Buy_Flag</t>
   </si>
   <si>
-    <t>부활석</t>
+    <t>Sell_Flag</t>
   </si>
   <si>
-    <t>passive</t>
+    <t>Item_Buy_Pride</t>
   </si>
   <si>
-    <t>Recovery_Stone</t>
+    <t>Itme_Sell_Pride</t>
   </si>
   <si>
-    <t>회복석</t>
+    <t>Supply_Monster</t>
   </si>
   <si>
-    <t>use</t>
+    <t>Defibrillator</t>
   </si>
   <si>
-    <t>Fuel_Can</t>
+    <t>Equipment</t>
   </si>
   <si>
-    <t>연료통</t>
+    <t>용병을 랜덤으로 한 번 부활 할 수 있습니다.</t>
   </si>
   <si>
-    <t>부스터</t>
+    <t>Item</t>
   </si>
   <si>
-    <t>Paralyzation</t>
+    <t>Potion^of^Healing(S)</t>
   </si>
   <si>
-    <t>무력화</t>
+    <t>체력 10%를 회복합니다.</t>
   </si>
   <si>
-    <t>재료템</t>
+    <t>Potion^of^Healing(L)</t>
   </si>
   <si>
-    <t>기차 0 재료템</t>
+    <t>체력 20%를 회복합니다.</t>
   </si>
   <si>
-    <t>material</t>
+    <t>Fuel^Drum(S)</t>
   </si>
   <si>
-    <t>기차 1 재료템</t>
+    <t>연료 10% 채울 수 있습니다.</t>
   </si>
   <si>
-    <t>기차 2 재료템</t>
+    <t>Fuel^Drum(L)</t>
   </si>
   <si>
-    <t>기차 3 재료템</t>
+    <t>연료 20% 채울 수 있습니다.</t>
   </si>
   <si>
-    <t>기차 4재료템</t>
+    <t>Repair^Kit(S)</t>
   </si>
   <si>
-    <t>기차 5 재료템</t>
+    <t>전체 기차 내구도를 10% 수리할 수 있습니다.</t>
   </si>
   <si>
-    <t>기차 6 재료템</t>
+    <t>Repair^Kit(L)</t>
   </si>
   <si>
-    <t>기차 7 재료템</t>
+    <t>전체 기차 내구도를 20% 수리할 수 있습니다.</t>
   </si>
   <si>
-    <t>기차 8 재료템</t>
+    <t>Lever</t>
   </si>
   <si>
-    <t>기차 9 재료템</t>
+    <t>15초동안 기차 속도를 높인다.</t>
   </si>
   <si>
-    <t>용병 0 재료템</t>
+    <t>EnergyDrink</t>
   </si>
   <si>
-    <t>용병 1 재료템</t>
+    <t>20초동안 플레이어의 이동속도 대폭 증가한다.</t>
   </si>
   <si>
-    <t>용병 2 재료템</t>
+    <t>Adrenaline</t>
   </si>
   <si>
-    <t>용병 3 재료템</t>
+    <t>10초동안 플레이어의 이동속도 소폭 증가하고, 0.2% 회복합니다.</t>
   </si>
   <si>
-    <t>용병 4 재료템</t>
+    <t>Fatigue^Reliever</t>
   </si>
   <si>
-    <t>용병 5 재료템</t>
+    <t>30초동안 용병들을 쿨타임 감소하고, 행동 카운트 1회 증가합니다.</t>
   </si>
   <si>
-    <t>용병 6 재료템</t>
+    <t>Potion^of^Strength</t>
   </si>
   <si>
-    <t>용병 7 재료템</t>
+    <t>15초동안 플레이어의 공격력 소폭 증가합니다.</t>
   </si>
   <si>
-    <t>용병 8 재료템</t>
+    <t>Potion^of^Resistance</t>
   </si>
   <si>
-    <t>전용무기</t>
+    <t>즉시 플레이어의 상태이상을 해제합니다.</t>
   </si>
   <si>
-    <t>용병 0 전용 무기</t>
+    <t>Bomb^Ballon</t>
   </si>
   <si>
-    <t>weapon</t>
+    <t>사용 즉시, 폭탄 풍선을 날립니다.</t>
   </si>
   <si>
-    <t>용병 1 전용 무기</t>
+    <t>Wanted^Poster</t>
   </si>
   <si>
-    <t>용병 2 전용 무기</t>
+    <t>30초동안 약탈자 처치시, 골드 2배를 얻습니다.</t>
   </si>
   <si>
-    <t>용병 3 전용 무기</t>
+    <t>Performance^USB</t>
   </si>
   <si>
-    <t>용병 4 전용 무기</t>
+    <t>10초동안 포탑의 모든 속도가 소폭 증가합니다.</t>
   </si>
   <si>
-    <t>용병 5 전용 무기</t>
+    <t>Snack</t>
   </si>
   <si>
-    <t>용병 6 전용 무기</t>
+    <t>모든 용병 체력 10% 회복합니다.</t>
   </si>
   <si>
-    <t>용병 7 전용 무기</t>
+    <t>Predators^Dictionary</t>
   </si>
   <si>
-    <t>용병 8 전용 무기</t>
+    <t>20초동안 약탈자 공격 시,  +5 추가  데미지를 줍니다.</t>
+  </si>
+  <si>
+    <t>Claymore</t>
+  </si>
+  <si>
+    <t>지뢰를 설치하여, 약탈자가 다가오는 순간 터집니다.</t>
+  </si>
+  <si>
+    <t>Wire^Entanglement</t>
+  </si>
+  <si>
+    <t>철조망을 설치하여, 30초동안 유지하고 지속 데미지를 줍니다.</t>
+  </si>
+  <si>
+    <t>Blood^Bullet</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>15초동안 공격 성공 시, 공격력의 0.1%만큼 회복합니다.</t>
+  </si>
+  <si>
+    <t>Bouncing^Bullet</t>
+  </si>
+  <si>
+    <t>10초동안 공격력이 낮아지지만, 최대 3마리까지 튕깁니다.</t>
+  </si>
+  <si>
+    <t>Banned^Bullet</t>
+  </si>
+  <si>
+    <t>10초동안 공격력 2배, 약탈자에게 '화상'을 부여합니다.</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>15초동안 3초마다 단검을 날립니다.</t>
+  </si>
+  <si>
+    <t>Fear^Flag</t>
+  </si>
+  <si>
+    <t>30초 동안 약탈자들의 출현 빈도가 낮아집니다.</t>
+  </si>
+  <si>
+    <t>Greed^Flag</t>
+  </si>
+  <si>
+    <t>30초 동안 약탈자들의 출현 빈도가 증가합니다.</t>
+  </si>
+  <si>
+    <t>Curese^Flag</t>
+  </si>
+  <si>
+    <t>30초 동안 약탈자들을 약화됩니다.(공격력, 공격속도, 이동속도)</t>
+  </si>
+  <si>
+    <t>Giant^Flag</t>
+  </si>
+  <si>
+    <t>30초 동안 약탈자들의 크기는 커지며, 이동속도는 느려진다.</t>
+  </si>
+  <si>
+    <t>Giant^Scarecrow</t>
+  </si>
+  <si>
+    <t>체력 150의 큰 허수아비를 랜덤 위치에서 소환합니다.</t>
+  </si>
+  <si>
+    <t>Mini^Turret</t>
+  </si>
+  <si>
+    <t>10초동안 랜덤 위치에서 미니 자동 포탑을 소환한다.</t>
+  </si>
+  <si>
+    <t>Gun^Performance^Upgrade</t>
+  </si>
+  <si>
+    <t>15초동안 플레이어의 공격력, 공격속도 증가한다.</t>
+  </si>
+  <si>
+    <t>Gun^Giant^Upgrade</t>
+  </si>
+  <si>
+    <t>20초동안 총과 총알을 거대화한다.</t>
+  </si>
+  <si>
+    <t>Mini^Shield</t>
+  </si>
+  <si>
+    <t>100 피해를 막을 수 있는 미니 쉴드를 생성한다.</t>
+  </si>
+  <si>
+    <t>Healing^Sheild</t>
+  </si>
+  <si>
+    <t>50 피해를 막을 수 있으며, 플레이어의 0.1%를 5초동안 회복합니다.</t>
+  </si>
+  <si>
+    <t>Emergency^Kit</t>
+  </si>
+  <si>
+    <t>10% 체력 즉시 회복합니다</t>
+  </si>
+  <si>
+    <t>Gloves^Expertise</t>
+  </si>
+  <si>
+    <t>15초 동안 용병들의 쿨타임이 감소합니다.</t>
+  </si>
+  <si>
+    <t>Mini^Dron</t>
+  </si>
+  <si>
+    <t>미니 드론을 소환하여 왼쪽에서 오른쪽으로 이동하며 비행 몬스터에게 10 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>15초 동안 시야가 넓어집니다.</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20초동안 2번의 행동 카운트가 늘어납니다. </t>
+  </si>
+  <si>
+    <t>Graphics^ Card</t>
+  </si>
+  <si>
+    <t>20초동안 포탑의 모든 속도가 대폭 증가합니다.</t>
+  </si>
+  <si>
+    <t>Robot^Plant</t>
+  </si>
+  <si>
+    <t>30초동안 5초마다 폭탄 지상 로봇을 소환합니다.</t>
+  </si>
+  <si>
+    <t>Banned^Adrenaline</t>
+  </si>
+  <si>
+    <t>30초동안 플레이어 한번에 체력이 5% 깎이지만, 그 대신 공격력, 공격속도, 이동속도 대폭 증가합니다.</t>
+  </si>
+  <si>
+    <t>Raser^Dron</t>
+  </si>
+  <si>
+    <t>레이저 드론을 소환하여 아래에서 위로 올라가며 레이저를 발사합니다.</t>
+  </si>
+  <si>
+    <t>Flash^Bang</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>1발의 섬광탄을 던져 적들을 2초동안 기절시킵니다.</t>
+  </si>
+  <si>
+    <t>Gatling^Gun</t>
+  </si>
+  <si>
+    <t>클릭 5초동안 게틀링건을 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Missile^Gun</t>
+  </si>
+  <si>
+    <t>5발의 유도 미사일을 발사할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Raser^Gun</t>
+  </si>
+  <si>
+    <t>클릭 10초동안 레이저총을 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Fire^Gun</t>
+  </si>
+  <si>
+    <t>클릭 10초동안 화염 방사기를 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Stun^Gun</t>
+  </si>
+  <si>
+    <t>공격력이 약하지만 스턴을 부여할 수 있는 총을 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Mercenary^Enhance^Material</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>용병 강화 재료</t>
+  </si>
+  <si>
+    <t>Common^Train^Enhance^Material</t>
+  </si>
+  <si>
+    <t>일반 기차 강화 재료</t>
+  </si>
+  <si>
+    <t>Weapon^Train^Enhance^Material</t>
+  </si>
+  <si>
+    <t>무기 기차 강화 재료</t>
+  </si>
+  <si>
+    <t>Booster^Train^Enhance^Material</t>
+  </si>
+  <si>
+    <t>부스터 기차 강화 재료</t>
+  </si>
+  <si>
+    <t>Conversion^Material</t>
+  </si>
+  <si>
+    <t>변환 재료</t>
+  </si>
+  <si>
+    <t>Random^Material^Box</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>랜덤 강화 재료 박스</t>
+  </si>
+  <si>
+    <t>Random^Item^Box</t>
+  </si>
+  <si>
+    <t>랜덤 장착 아이템 박스</t>
+  </si>
+  <si>
+    <t>Random^All^Box</t>
+  </si>
+  <si>
+    <t>랜덤 박스</t>
+  </si>
+  <si>
+    <t>Skill^Book</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>플레이어의 숙련도 1포인트 얻습니다.</t>
+  </si>
+  <si>
+    <t>Courier^Box</t>
+  </si>
+  <si>
+    <t>누군가의 잃어버린 택배이다. 상점에 주면 보상금으로 받을 수 있을지도?</t>
+  </si>
+  <si>
+    <t>Gold(S)</t>
+  </si>
+  <si>
+    <t>100골드가 들어있다.</t>
+  </si>
+  <si>
+    <t>Gold(M)</t>
+  </si>
+  <si>
+    <t>1000골드가 들어있다.</t>
+  </si>
+  <si>
+    <t>Gold(L)</t>
+  </si>
+  <si>
+    <t>3000골드가 들어있다.</t>
+  </si>
+  <si>
+    <t>Diamond(S)</t>
+  </si>
+  <si>
+    <t>5000골드로 환급 가능하다.</t>
+  </si>
+  <si>
+    <t>Diamond(M)</t>
+  </si>
+  <si>
+    <t>8000골드로 환급 가능하다.</t>
+  </si>
+  <si>
+    <t>Diamond(L)</t>
+  </si>
+  <si>
+    <t>10000골드로 환급 가능하다.</t>
+  </si>
+  <si>
+    <t>Fish^bone</t>
+  </si>
+  <si>
+    <t>팔 가치도 없는 생선 뼈이다.</t>
+  </si>
+  <si>
+    <t>Old^Shoes</t>
+  </si>
+  <si>
+    <t>팔 가치도 없는 헌 신발이다.</t>
+  </si>
+  <si>
+    <t>Broken^Mirror</t>
+  </si>
+  <si>
+    <t>팔 가치도 없는 깨진 거울이다.</t>
+  </si>
+  <si>
+    <t>Rusty^Iron</t>
+  </si>
+  <si>
+    <t>팔 가치도 없는 녹슨 고철이다.</t>
+  </si>
+  <si>
+    <t>Broken^Clock</t>
+  </si>
+  <si>
+    <t>팔 가치도 없는 고장난 시계이다.</t>
+  </si>
+  <si>
+    <t>Quest^Item</t>
+  </si>
+  <si>
+    <t>Quset</t>
+  </si>
+  <si>
+    <t>퀘스트 아이템입니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -691,13 +1027,21 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF222225"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,8 +1102,38 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -794,11 +1168,93 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -970,20 +1426,338 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf borderId="6" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -63450,21 +64224,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -63480,567 +64239,2765 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.86"/>
-    <col customWidth="1" min="4" max="4" width="41.57"/>
+    <col customWidth="1" min="1" max="1" width="8.14"/>
+    <col customWidth="1" min="2" max="2" width="30.71"/>
+    <col customWidth="1" min="4" max="4" width="93.14"/>
+    <col customWidth="1" min="5" max="5" width="9.29"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="58" t="s">
         <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="F1" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="62">
         <v>0.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="B2" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="69">
+        <v>10.0</v>
+      </c>
+      <c r="I2" s="70">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="72">
         <v>1.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>173</v>
+      <c r="B3" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>179</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F3" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="78">
+        <v>11.0</v>
+      </c>
+      <c r="I3" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="72">
         <v>2.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>176</v>
+      <c r="D4" s="75" t="s">
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F4" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="78">
+        <v>12.0</v>
+      </c>
+      <c r="I4" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="72">
         <v>3.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="F5" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="78">
+        <v>13.0</v>
+      </c>
+      <c r="I5" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="72">
         <v>4.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>179</v>
+      <c r="B6" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>185</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F6" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="78">
+        <v>14.0</v>
+      </c>
+      <c r="I6" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="72">
         <v>5.0</v>
       </c>
+      <c r="B7" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>187</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F7" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="78">
+        <v>15.0</v>
+      </c>
+      <c r="I7" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="59"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="72">
         <v>6.0</v>
       </c>
+      <c r="B8" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>189</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F8" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="78">
+        <v>16.0</v>
+      </c>
+      <c r="I8" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="72">
         <v>7.0</v>
       </c>
+      <c r="B9" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>191</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F9" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="78">
+        <v>17.0</v>
+      </c>
+      <c r="I9" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="72">
         <v>8.0</v>
       </c>
+      <c r="B10" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>193</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F10" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="78">
+        <v>18.0</v>
+      </c>
+      <c r="I10" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="72">
         <v>9.0</v>
       </c>
+      <c r="B11" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>195</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F11" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="78">
+        <v>19.0</v>
+      </c>
+      <c r="I11" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="82"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12">
-      <c r="A12" s="57">
+      <c r="A12" s="72">
         <v>10.0</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B12" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="78">
+        <v>20.0</v>
+      </c>
+      <c r="I12" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J12" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13">
-      <c r="A13" s="57">
+      <c r="A13" s="72">
         <v>11.0</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B13" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="78">
+        <v>21.0</v>
+      </c>
+      <c r="I13" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J13" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="82"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14">
-      <c r="A14" s="57">
+      <c r="A14" s="72">
         <v>12.0</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B14" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="78">
+        <v>22.0</v>
+      </c>
+      <c r="I14" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J14" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="59"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15">
-      <c r="A15" s="57">
+      <c r="A15" s="72">
         <v>13.0</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B15" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="78">
+        <v>23.0</v>
+      </c>
+      <c r="I15" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J15" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16">
-      <c r="A16" s="57">
+      <c r="A16" s="72">
         <v>14.0</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B16" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="78">
+        <v>24.0</v>
+      </c>
+      <c r="I16" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J16" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17">
-      <c r="A17" s="57">
+      <c r="A17" s="72">
         <v>15.0</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B17" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="78">
+        <v>25.0</v>
+      </c>
+      <c r="I17" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="82"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18">
-      <c r="A18" s="57">
+      <c r="A18" s="72">
         <v>16.0</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B18" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="78">
+        <v>26.0</v>
+      </c>
+      <c r="I18" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J18" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
     </row>
     <row r="19">
-      <c r="A19" s="57">
+      <c r="A19" s="72">
         <v>17.0</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B19" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="78">
+        <v>27.0</v>
+      </c>
+      <c r="I19" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J19" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
     </row>
     <row r="20">
-      <c r="A20" s="57">
+      <c r="A20" s="72">
         <v>18.0</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="78">
+        <v>28.0</v>
+      </c>
+      <c r="I20" s="79">
+        <v>2.0</v>
+      </c>
+      <c r="J20" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21">
-      <c r="A21" s="57">
+      <c r="A21" s="83">
         <v>19.0</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B21" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="89">
+        <v>29.0</v>
+      </c>
+      <c r="I21" s="90">
+        <v>2.0</v>
+      </c>
+      <c r="J21" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22">
-      <c r="A22" s="60">
+      <c r="A22" s="92">
         <v>20.0</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B22" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="59"/>
+      <c r="M22" s="81"/>
     </row>
     <row r="23">
-      <c r="A23" s="60">
+      <c r="A23" s="99">
         <v>21.0</v>
       </c>
-      <c r="B23" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B23" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="59"/>
+      <c r="M23" s="81"/>
     </row>
     <row r="24">
-      <c r="A24" s="60">
+      <c r="A24" s="99">
         <v>22.0</v>
       </c>
-      <c r="B24" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B24" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="59"/>
+      <c r="M24" s="81"/>
     </row>
     <row r="25">
-      <c r="A25" s="60">
+      <c r="A25" s="99">
         <v>23.0</v>
       </c>
-      <c r="B25" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B25" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="59"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26">
-      <c r="A26" s="60">
+      <c r="A26" s="99">
         <v>24.0</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B26" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="59"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27">
-      <c r="A27" s="60">
+      <c r="A27" s="99">
         <v>25.0</v>
       </c>
-      <c r="B27" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B27" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="59"/>
+      <c r="M27" s="81"/>
     </row>
     <row r="28">
-      <c r="A28" s="60">
+      <c r="A28" s="99">
         <v>26.0</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B28" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="59"/>
+      <c r="M28" s="81"/>
     </row>
     <row r="29">
-      <c r="A29" s="60">
+      <c r="A29" s="99">
         <v>27.0</v>
       </c>
-      <c r="B29" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B29" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30">
-      <c r="A30" s="60">
+      <c r="A30" s="99">
         <v>28.0</v>
       </c>
-      <c r="B30" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>182</v>
-      </c>
+      <c r="B30" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="99">
         <v>29.0</v>
       </c>
+      <c r="B31" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="99">
         <v>30.0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>202</v>
+      <c r="B32" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="102" t="s">
+        <v>238</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F32" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="99">
         <v>31.0</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>204</v>
+      <c r="B33" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="102" t="s">
+        <v>240</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F33" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="99">
         <v>32.0</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>205</v>
+      <c r="B34" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>242</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F34" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="99">
         <v>33.0</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>206</v>
+      <c r="B35" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>244</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F35" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="99">
         <v>34.0</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>207</v>
+      <c r="B36" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>246</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F36" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="99">
         <v>35.0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>208</v>
+      <c r="B37" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>248</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F37" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="99">
         <v>36.0</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>209</v>
+      <c r="B38" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>250</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F38" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="99">
         <v>37.0</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>210</v>
+      <c r="B39" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="102" t="s">
+        <v>252</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F39" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="99">
         <v>38.0</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>211</v>
+      <c r="B40" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="102" t="s">
+        <v>254</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F40" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="99">
         <v>39.0</v>
       </c>
+      <c r="B41" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="99">
         <v>40.0</v>
       </c>
+      <c r="B42" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="99">
         <v>41.0</v>
       </c>
+      <c r="B43" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="103">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="104" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="109">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="110">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="113" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="114">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="114">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="115" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="116" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="114">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="115" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I48" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J48" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="114">
+        <v>47.0</v>
+      </c>
+      <c r="B49" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I49" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="117">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="118" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="121">
+        <v>0.0</v>
+      </c>
+      <c r="I50" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="122">
+        <v>49.0</v>
+      </c>
+      <c r="B51" s="123" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="125" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="69">
+        <v>59.0</v>
+      </c>
+      <c r="I51" s="126">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="127">
+        <v>50.0</v>
+      </c>
+      <c r="B52" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="129" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="130" t="s">
+        <v>280</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="121">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="127">
+        <v>51.0</v>
+      </c>
+      <c r="B53" s="128" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="129" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>282</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F53" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="121">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="127">
+        <v>52.0</v>
+      </c>
+      <c r="B54" s="128" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="129" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" s="130" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F54" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="121">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="131">
+        <v>53.0</v>
+      </c>
+      <c r="B55" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="133" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55" s="134" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="89">
+        <v>63.0</v>
+      </c>
+      <c r="I55" s="109">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="69">
+        <v>54.0</v>
+      </c>
+      <c r="B56" s="135" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="D56" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="72">
+        <v>64.0</v>
+      </c>
+      <c r="I56" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="78">
+        <v>55.0</v>
+      </c>
+      <c r="B57" s="138" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" s="139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="140" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="72">
+        <v>65.0</v>
+      </c>
+      <c r="I57" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="89">
+        <v>56.0</v>
+      </c>
+      <c r="B58" s="141" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" s="142" t="s">
+        <v>288</v>
+      </c>
+      <c r="D58" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="83">
+        <v>66.0</v>
+      </c>
+      <c r="I58" s="109">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="144">
+        <v>57.0</v>
+      </c>
+      <c r="B59" s="145" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59" s="146" t="s">
+        <v>295</v>
+      </c>
+      <c r="D59" s="147" t="s">
+        <v>296</v>
+      </c>
+      <c r="E59" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I59" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J59" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="148">
+        <v>58.0</v>
+      </c>
+      <c r="B60" s="149" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" s="151" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I60" s="79">
+        <v>2000.0</v>
+      </c>
+      <c r="J60" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="148">
+        <v>59.0</v>
+      </c>
+      <c r="B61" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="C61" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" s="151" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="79">
+        <v>100.0</v>
+      </c>
+      <c r="J61" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="148">
+        <v>60.0</v>
+      </c>
+      <c r="B62" s="149" t="s">
+        <v>301</v>
+      </c>
+      <c r="C62" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="151" t="s">
+        <v>302</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="79">
+        <v>1000.0</v>
+      </c>
+      <c r="J62" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="148">
+        <v>61.0</v>
+      </c>
+      <c r="B63" s="149" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" s="151" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="79">
+        <v>3000.0</v>
+      </c>
+      <c r="J63" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="148">
+        <v>62.0</v>
+      </c>
+      <c r="B64" s="149" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="151" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="79">
+        <v>5000.0</v>
+      </c>
+      <c r="J64" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="148">
+        <v>63.0</v>
+      </c>
+      <c r="B65" s="149" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="151" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="79">
+        <v>8000.0</v>
+      </c>
+      <c r="J65" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="148">
+        <v>64.0</v>
+      </c>
+      <c r="B66" s="149" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="151" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F66" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I66" s="79">
+        <v>10000.0</v>
+      </c>
+      <c r="J66" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="148">
+        <v>65.0</v>
+      </c>
+      <c r="B67" s="149" t="s">
+        <v>311</v>
+      </c>
+      <c r="C67" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="151" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="79">
+        <v>0.0</v>
+      </c>
+      <c r="J67" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="148">
+        <v>66.0</v>
+      </c>
+      <c r="B68" s="149" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" s="151" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="79">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="148">
+        <v>67.0</v>
+      </c>
+      <c r="B69" s="149" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="151" t="s">
+        <v>316</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="79">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="148">
+        <v>68.0</v>
+      </c>
+      <c r="B70" s="149" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="151" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="79">
+        <v>0.0</v>
+      </c>
+      <c r="J70" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="152">
+        <v>69.0</v>
+      </c>
+      <c r="B71" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" s="154" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="155" t="s">
+        <v>320</v>
+      </c>
+      <c r="E71" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="I71" s="90">
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="156">
+        <v>70.0</v>
+      </c>
+      <c r="B72" s="157" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="158" t="s">
+        <v>322</v>
+      </c>
+      <c r="D72" s="159" t="s">
+        <v>323</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="160">
+        <v>71.0</v>
+      </c>
+      <c r="B73" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I73" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J73" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="160">
+        <v>72.0</v>
+      </c>
+      <c r="B74" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I74" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="160">
+        <v>73.0</v>
+      </c>
+      <c r="B75" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D75" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I75" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="160">
+        <v>74.0</v>
+      </c>
+      <c r="B76" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D76" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I76" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="160">
+        <v>75.0</v>
+      </c>
+      <c r="B77" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D77" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I77" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="160">
+        <v>76.0</v>
+      </c>
+      <c r="B78" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D78" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="160">
+        <v>77.0</v>
+      </c>
+      <c r="B79" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="160">
+        <v>78.0</v>
+      </c>
+      <c r="B80" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D80" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="164">
+        <v>79.0</v>
+      </c>
+      <c r="B81" s="165" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="166" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" s="167" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="I81" s="109">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -605,19 +605,19 @@
     <t>Adrenaline</t>
   </si>
   <si>
-    <t>10초동안 플레이어의 이동속도 소폭 증가하고, 0.2% 회복합니다.</t>
+    <t>10초동안 플레이어의 이동속도 소폭 증가하고, 1% 회복합니다.</t>
   </si>
   <si>
     <t>Fatigue^Reliever</t>
   </si>
   <si>
-    <t>30초동안 용병들을 쿨타임 감소하고, 행동 카운트 1회 증가합니다.</t>
+    <t>30초동안 용병들을 쿨타임 10% 감소하고, 행동 카운트 1회 증가합니다.</t>
   </si>
   <si>
     <t>Potion^of^Strength</t>
   </si>
   <si>
-    <t>15초동안 플레이어의 공격력 소폭 증가합니다.</t>
+    <t>20초동안 플레이어의 공격력 +5 증가합니다.</t>
   </si>
   <si>
     <t>Potion^of^Resistance</t>
@@ -635,7 +635,7 @@
     <t>Wanted^Poster</t>
   </si>
   <si>
-    <t>30초동안 약탈자 처치시, 골드 2배를 얻습니다.</t>
+    <t>30초동안 약탈자 처치 시, 골드 2배를 얻습니다.</t>
   </si>
   <si>
     <t>Performance^USB</t>
@@ -653,7 +653,7 @@
     <t>Predators^Dictionary</t>
   </si>
   <si>
-    <t>20초동안 약탈자 공격 시,  +5 추가  데미지를 줍니다.</t>
+    <t>6초동안 약탈자들의 약점을 발견하여 플레이어의 공격력 2배 증가합니다.</t>
   </si>
   <si>
     <t>Claymore</t>
@@ -692,7 +692,7 @@
     <t>Dagger</t>
   </si>
   <si>
-    <t>15초동안 3초마다 단검을 날립니다.</t>
+    <t>10 공격력 단검을 순차적으로 던집니다(최대 5번)</t>
   </si>
   <si>
     <t>Fear^Flag</t>
@@ -722,7 +722,7 @@
     <t>Giant^Scarecrow</t>
   </si>
   <si>
-    <t>체력 150의 큰 허수아비를 랜덤 위치에서 소환합니다.</t>
+    <t>체력 1000의 큰 허수아비를 랜덤 위치에서 소환합니다.</t>
   </si>
   <si>
     <t>Mini^Turret</t>
@@ -740,19 +740,19 @@
     <t>Gun^Giant^Upgrade</t>
   </si>
   <si>
-    <t>20초동안 총과 총알을 거대화한다.</t>
+    <t>20초동안 총알을 거대화한다.</t>
   </si>
   <si>
     <t>Mini^Shield</t>
   </si>
   <si>
-    <t>100 피해를 막을 수 있는 미니 쉴드를 생성한다.</t>
+    <t>1000 피해를 막을 수 있는 미니 쉴드를 생성한다.</t>
   </si>
   <si>
     <t>Healing^Sheild</t>
   </si>
   <si>
-    <t>50 피해를 막을 수 있으며, 플레이어의 0.1%를 5초동안 회복합니다.</t>
+    <t>500 피해를 막을 수 있으며, 플레이어의 5%를 5초동안 회복합니다.</t>
   </si>
   <si>
     <t>Emergency^Kit</t>
@@ -764,13 +764,13 @@
     <t>Gloves^Expertise</t>
   </si>
   <si>
-    <t>15초 동안 용병들의 쿨타임이 감소합니다.</t>
+    <t>15초 동안 용병들의 쿨타임 40% 감소합니다.</t>
   </si>
   <si>
     <t>Mini^Dron</t>
   </si>
   <si>
-    <t>미니 드론을 소환하여 왼쪽에서 오른쪽으로 이동하며 비행 몬스터에게 10 피해를 줍니다.</t>
+    <t>공격력 10인 미니 드론을 소환하여 왼쪽에서 오른쪽으로 이동하며 비행 몬스터에게 피격을 합니다.</t>
   </si>
   <si>
     <t>Map</t>
@@ -782,7 +782,7 @@
     <t>Bear</t>
   </si>
   <si>
-    <t xml:space="preserve">20초동안 2번의 행동 카운트가 늘어납니다. </t>
+    <t xml:space="preserve">30초동안 2번의 행동 카운트가 늘어납니다. </t>
   </si>
   <si>
     <t>Graphics^ Card</t>
@@ -815,37 +815,37 @@
     <t>Weapon</t>
   </si>
   <si>
-    <t>1발의 섬광탄을 던져 적들을 2초동안 기절시킵니다.</t>
+    <t xml:space="preserve">1발의 섬광탄을 던져 적들을 2초동안 기절시킵니다. </t>
   </si>
   <si>
     <t>Gatling^Gun</t>
   </si>
   <si>
-    <t>클릭 5초동안 게틀링건을 사용할 수 있습니다.</t>
+    <t>클릭 5초동안 게틀링건을 사용할 수 있습니다. (공격력 2)</t>
   </si>
   <si>
     <t>Missile^Gun</t>
   </si>
   <si>
-    <t>5발의 유도 미사일을 발사할 수 있습니다.</t>
+    <t>5발의 유도 미사일을 발사할 수 있습니다. (공격력 20)</t>
   </si>
   <si>
     <t>Raser^Gun</t>
   </si>
   <si>
-    <t>클릭 10초동안 레이저총을 사용할 수 있습니다.</t>
+    <t>클릭 10초동안 레이저총을 사용할 수 있습니다. (공격력 2)</t>
   </si>
   <si>
     <t>Fire^Gun</t>
   </si>
   <si>
-    <t>클릭 10초동안 화염 방사기를 사용할 수 있습니다.</t>
+    <t>클릭 10초동안 화염 방사기를 사용할 수 있습니다. (공격력 3)</t>
   </si>
   <si>
-    <t>Stun^Gun</t>
+    <t>Stun^Bullet</t>
   </si>
   <si>
-    <t>공격력이 약하지만 스턴을 부여할 수 있는 총을 사용할 수 있습니다.</t>
+    <t>공격력이 약하지만 스턴을 부여할 수 있는 총을 사용할 수 있습니다. (공격력 1)</t>
   </si>
   <si>
     <t>Mercenary^Enhance^Material</t>
@@ -1041,7 +1041,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,6 +1098,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
@@ -1106,6 +1112,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1444,7 +1456,7 @@
     <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1456,16 +1468,16 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1483,16 +1495,16 @@
     <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1501,8 +1513,14 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1516,31 +1534,28 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1552,28 +1567,37 @@
     <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1585,143 +1609,29 @@
     <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="4" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="10" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="12" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1735,13 +1645,16 @@
     <xf borderId="6" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="8" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="15" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1757,6 +1670,105 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -64241,7 +64253,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.14"/>
     <col customWidth="1" min="2" max="2" width="30.71"/>
-    <col customWidth="1" min="4" max="4" width="93.14"/>
+    <col customWidth="1" min="4" max="4" width="93.29"/>
     <col customWidth="1" min="5" max="5" width="9.29"/>
   </cols>
   <sheetData>
@@ -64595,7 +64607,7 @@
       <c r="C11" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="82" t="s">
         <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -64616,7 +64628,7 @@
       <c r="J11" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="82"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="61"/>
     </row>
     <row r="12">
@@ -64629,7 +64641,7 @@
       <c r="C12" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="82" t="s">
         <v>197</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -64663,7 +64675,7 @@
       <c r="C13" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="82" t="s">
         <v>199</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -64684,14 +64696,14 @@
       <c r="J13" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="L13" s="82"/>
+      <c r="L13" s="83"/>
       <c r="M13" s="61"/>
     </row>
     <row r="14">
       <c r="A14" s="72">
         <v>12.0</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="84" t="s">
         <v>200</v>
       </c>
       <c r="C14" s="74" t="s">
@@ -64765,7 +64777,7 @@
       <c r="C16" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="82" t="s">
         <v>205</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -64820,14 +64832,14 @@
       <c r="J17" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="L17" s="82"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="61"/>
     </row>
     <row r="18">
       <c r="A18" s="72">
         <v>16.0</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="84" t="s">
         <v>208</v>
       </c>
       <c r="C18" s="74" t="s">
@@ -64867,7 +64879,7 @@
       <c r="C19" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="82" t="s">
         <v>211</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -64926,65 +64938,65 @@
       <c r="M20" s="61"/>
     </row>
     <row r="21">
-      <c r="A21" s="83">
+      <c r="A21" s="85">
         <v>19.0</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="86" t="s">
         <v>214</v>
       </c>
       <c r="C21" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="87" t="b">
+      <c r="F21" s="89" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="88" t="b">
+      <c r="G21" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="91">
         <v>29.0</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="92">
         <v>2.0</v>
       </c>
-      <c r="J21" s="91" t="b">
+      <c r="J21" s="93" t="b">
         <v>0</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="61"/>
     </row>
     <row r="22">
-      <c r="A22" s="92">
+      <c r="A22" s="94">
         <v>20.0</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="96" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="96" t="b">
+      <c r="F22" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G22" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="97">
+      <c r="H22" s="98">
         <v>0.0</v>
       </c>
-      <c r="I22" s="98">
+      <c r="I22" s="99">
         <v>0.0</v>
       </c>
       <c r="J22" s="68" t="b">
@@ -64994,10 +65006,10 @@
       <c r="M22" s="81"/>
     </row>
     <row r="23">
-      <c r="A23" s="99">
+      <c r="A23" s="100">
         <v>21.0</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="84" t="s">
         <v>219</v>
       </c>
       <c r="C23" s="101" t="s">
@@ -65009,16 +65021,16 @@
       <c r="E23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="96" t="b">
+      <c r="F23" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G23" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="97">
+      <c r="H23" s="98">
         <v>0.0</v>
       </c>
-      <c r="I23" s="98">
+      <c r="I23" s="99">
         <v>0.0</v>
       </c>
       <c r="J23" s="77" t="b">
@@ -65028,10 +65040,10 @@
       <c r="M23" s="81"/>
     </row>
     <row r="24">
-      <c r="A24" s="99">
+      <c r="A24" s="100">
         <v>22.0</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="84" t="s">
         <v>221</v>
       </c>
       <c r="C24" s="101" t="s">
@@ -65043,16 +65055,16 @@
       <c r="E24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="96" t="b">
+      <c r="F24" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G24" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="97">
+      <c r="H24" s="98">
         <v>0.0</v>
       </c>
-      <c r="I24" s="98">
+      <c r="I24" s="99">
         <v>0.0</v>
       </c>
       <c r="J24" s="77" t="b">
@@ -65062,31 +65074,31 @@
       <c r="M24" s="81"/>
     </row>
     <row r="25">
-      <c r="A25" s="99">
+      <c r="A25" s="100">
         <v>23.0</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="103" t="s">
         <v>223</v>
       </c>
       <c r="C25" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="104" t="s">
         <v>224</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="96" t="b">
+      <c r="F25" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="97">
+      <c r="H25" s="98">
         <v>0.0</v>
       </c>
-      <c r="I25" s="98">
+      <c r="I25" s="99">
         <v>0.0</v>
       </c>
       <c r="J25" s="77" t="b">
@@ -65096,10 +65108,10 @@
       <c r="M25" s="81"/>
     </row>
     <row r="26">
-      <c r="A26" s="99">
+      <c r="A26" s="100">
         <v>24.0</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="105" t="s">
         <v>225</v>
       </c>
       <c r="C26" s="101" t="s">
@@ -65111,16 +65123,16 @@
       <c r="E26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="96" t="b">
+      <c r="F26" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="97">
+      <c r="H26" s="98">
         <v>0.0</v>
       </c>
-      <c r="I26" s="98">
+      <c r="I26" s="99">
         <v>0.0</v>
       </c>
       <c r="J26" s="77" t="b">
@@ -65130,10 +65142,10 @@
       <c r="M26" s="81"/>
     </row>
     <row r="27">
-      <c r="A27" s="99">
+      <c r="A27" s="100">
         <v>25.0</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="103" t="s">
         <v>227</v>
       </c>
       <c r="C27" s="101" t="s">
@@ -65145,16 +65157,16 @@
       <c r="E27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="96" t="b">
+      <c r="F27" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G27" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="97">
+      <c r="H27" s="98">
         <v>0.0</v>
       </c>
-      <c r="I27" s="98">
+      <c r="I27" s="99">
         <v>0.0</v>
       </c>
       <c r="J27" s="77" t="b">
@@ -65164,10 +65176,10 @@
       <c r="M27" s="81"/>
     </row>
     <row r="28">
-      <c r="A28" s="99">
+      <c r="A28" s="100">
         <v>26.0</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="103" t="s">
         <v>229</v>
       </c>
       <c r="C28" s="101" t="s">
@@ -65179,16 +65191,16 @@
       <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="96" t="b">
+      <c r="F28" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G28" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="97">
+      <c r="H28" s="98">
         <v>0.0</v>
       </c>
-      <c r="I28" s="98">
+      <c r="I28" s="99">
         <v>0.0</v>
       </c>
       <c r="J28" s="77" t="b">
@@ -65198,10 +65210,10 @@
       <c r="M28" s="81"/>
     </row>
     <row r="29">
-      <c r="A29" s="99">
+      <c r="A29" s="100">
         <v>27.0</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="103" t="s">
         <v>231</v>
       </c>
       <c r="C29" s="101" t="s">
@@ -65213,16 +65225,16 @@
       <c r="E29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="96" t="b">
+      <c r="F29" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G29" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="97">
+      <c r="H29" s="98">
         <v>0.0</v>
       </c>
-      <c r="I29" s="98">
+      <c r="I29" s="99">
         <v>0.0</v>
       </c>
       <c r="J29" s="77" t="b">
@@ -65232,31 +65244,31 @@
       <c r="M29" s="61"/>
     </row>
     <row r="30">
-      <c r="A30" s="99">
+      <c r="A30" s="100">
         <v>28.0</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="103" t="s">
         <v>233</v>
       </c>
       <c r="C30" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="104" t="s">
         <v>234</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="96" t="b">
+      <c r="F30" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G30" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="97">
+      <c r="H30" s="98">
         <v>0.0</v>
       </c>
-      <c r="I30" s="98">
+      <c r="I30" s="99">
         <v>0.0</v>
       </c>
       <c r="J30" s="77" t="b">
@@ -65266,10 +65278,10 @@
       <c r="M30" s="61"/>
     </row>
     <row r="31">
-      <c r="A31" s="99">
+      <c r="A31" s="100">
         <v>29.0</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="103" t="s">
         <v>235</v>
       </c>
       <c r="C31" s="101" t="s">
@@ -65281,16 +65293,16 @@
       <c r="E31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="96" t="b">
+      <c r="F31" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G31" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="97">
+      <c r="H31" s="98">
         <v>0.0</v>
       </c>
-      <c r="I31" s="98">
+      <c r="I31" s="99">
         <v>0.0</v>
       </c>
       <c r="J31" s="77" t="b">
@@ -65300,10 +65312,10 @@
       <c r="M31" s="61"/>
     </row>
     <row r="32">
-      <c r="A32" s="99">
+      <c r="A32" s="100">
         <v>30.0</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="103" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="101" t="s">
@@ -65315,16 +65327,16 @@
       <c r="E32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="96" t="b">
+      <c r="F32" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G32" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="97">
+      <c r="H32" s="98">
         <v>0.0</v>
       </c>
-      <c r="I32" s="98">
+      <c r="I32" s="99">
         <v>0.0</v>
       </c>
       <c r="J32" s="77" t="b">
@@ -65334,31 +65346,31 @@
       <c r="M32" s="61"/>
     </row>
     <row r="33">
-      <c r="A33" s="99">
+      <c r="A33" s="100">
         <v>31.0</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="103" t="s">
         <v>239</v>
       </c>
       <c r="C33" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="104" t="s">
         <v>240</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="96" t="b">
+      <c r="F33" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="97">
+      <c r="H33" s="98">
         <v>0.0</v>
       </c>
-      <c r="I33" s="98">
+      <c r="I33" s="99">
         <v>0.0</v>
       </c>
       <c r="J33" s="77" t="b">
@@ -65368,31 +65380,31 @@
       <c r="M33" s="61"/>
     </row>
     <row r="34">
-      <c r="A34" s="99">
+      <c r="A34" s="100">
         <v>32.0</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="103" t="s">
         <v>241</v>
       </c>
       <c r="C34" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="104" t="s">
         <v>242</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="96" t="b">
+      <c r="F34" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G34" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="97">
+      <c r="H34" s="98">
         <v>0.0</v>
       </c>
-      <c r="I34" s="98">
+      <c r="I34" s="99">
         <v>0.0</v>
       </c>
       <c r="J34" s="77" t="b">
@@ -65402,31 +65414,31 @@
       <c r="M34" s="61"/>
     </row>
     <row r="35">
-      <c r="A35" s="99">
+      <c r="A35" s="100">
         <v>33.0</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="103" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="104" t="s">
         <v>244</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="96" t="b">
+      <c r="F35" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G35" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="97">
+      <c r="H35" s="98">
         <v>0.0</v>
       </c>
-      <c r="I35" s="98">
+      <c r="I35" s="99">
         <v>0.0</v>
       </c>
       <c r="J35" s="77" t="b">
@@ -65436,10 +65448,10 @@
       <c r="M35" s="61"/>
     </row>
     <row r="36">
-      <c r="A36" s="99">
+      <c r="A36" s="100">
         <v>34.0</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="103" t="s">
         <v>245</v>
       </c>
       <c r="C36" s="101" t="s">
@@ -65451,16 +65463,16 @@
       <c r="E36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="96" t="b">
+      <c r="F36" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G36" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="97">
+      <c r="H36" s="98">
         <v>0.0</v>
       </c>
-      <c r="I36" s="98">
+      <c r="I36" s="99">
         <v>0.0</v>
       </c>
       <c r="J36" s="77" t="b">
@@ -65470,31 +65482,31 @@
       <c r="M36" s="61"/>
     </row>
     <row r="37">
-      <c r="A37" s="99">
+      <c r="A37" s="100">
         <v>35.0</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="103" t="s">
         <v>247</v>
       </c>
       <c r="C37" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="104" t="s">
         <v>248</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="96" t="b">
+      <c r="F37" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G37" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="97">
+      <c r="H37" s="98">
         <v>0.0</v>
       </c>
-      <c r="I37" s="98">
+      <c r="I37" s="99">
         <v>0.0</v>
       </c>
       <c r="J37" s="77" t="b">
@@ -65504,31 +65516,31 @@
       <c r="M37" s="61"/>
     </row>
     <row r="38">
-      <c r="A38" s="99">
+      <c r="A38" s="100">
         <v>36.0</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="103" t="s">
         <v>249</v>
       </c>
       <c r="C38" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D38" s="102" t="s">
+      <c r="D38" s="104" t="s">
         <v>250</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="96" t="b">
+      <c r="F38" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G38" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="97">
+      <c r="H38" s="98">
         <v>0.0</v>
       </c>
-      <c r="I38" s="98">
+      <c r="I38" s="99">
         <v>0.0</v>
       </c>
       <c r="J38" s="77" t="b">
@@ -65538,10 +65550,10 @@
       <c r="M38" s="61"/>
     </row>
     <row r="39">
-      <c r="A39" s="99">
+      <c r="A39" s="100">
         <v>37.0</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="106" t="s">
         <v>251</v>
       </c>
       <c r="C39" s="101" t="s">
@@ -65553,16 +65565,16 @@
       <c r="E39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="96" t="b">
+      <c r="F39" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G39" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="97">
+      <c r="H39" s="98">
         <v>0.0</v>
       </c>
-      <c r="I39" s="98">
+      <c r="I39" s="99">
         <v>0.0</v>
       </c>
       <c r="J39" s="77" t="b">
@@ -65572,31 +65584,31 @@
       <c r="M39" s="61"/>
     </row>
     <row r="40">
-      <c r="A40" s="99">
+      <c r="A40" s="100">
         <v>38.0</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="103" t="s">
         <v>253</v>
       </c>
       <c r="C40" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="104" t="s">
         <v>254</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="96" t="b">
+      <c r="F40" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="97">
+      <c r="H40" s="98">
         <v>0.0</v>
       </c>
-      <c r="I40" s="98">
+      <c r="I40" s="99">
         <v>0.0</v>
       </c>
       <c r="J40" s="77" t="b">
@@ -65606,10 +65618,10 @@
       <c r="M40" s="61"/>
     </row>
     <row r="41">
-      <c r="A41" s="99">
+      <c r="A41" s="100">
         <v>39.0</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="103" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="101" t="s">
@@ -65621,16 +65633,16 @@
       <c r="E41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="96" t="b">
+      <c r="F41" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G41" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="97">
+      <c r="H41" s="98">
         <v>0.0</v>
       </c>
-      <c r="I41" s="98">
+      <c r="I41" s="99">
         <v>0.0</v>
       </c>
       <c r="J41" s="77" t="b">
@@ -65640,10 +65652,10 @@
       <c r="M41" s="61"/>
     </row>
     <row r="42">
-      <c r="A42" s="99">
+      <c r="A42" s="100">
         <v>40.0</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="103" t="s">
         <v>257</v>
       </c>
       <c r="C42" s="101" t="s">
@@ -65655,16 +65667,16 @@
       <c r="E42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="96" t="b">
+      <c r="F42" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G42" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="97">
+      <c r="H42" s="98">
         <v>0.0</v>
       </c>
-      <c r="I42" s="98">
+      <c r="I42" s="99">
         <v>0.0</v>
       </c>
       <c r="J42" s="77" t="b">
@@ -65674,10 +65686,10 @@
       <c r="M42" s="61"/>
     </row>
     <row r="43">
-      <c r="A43" s="99">
+      <c r="A43" s="100">
         <v>41.0</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="103" t="s">
         <v>259</v>
       </c>
       <c r="C43" s="101" t="s">
@@ -65689,16 +65701,16 @@
       <c r="E43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="96" t="b">
+      <c r="F43" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G43" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="97">
+      <c r="H43" s="98">
         <v>0.0</v>
       </c>
-      <c r="I43" s="98">
+      <c r="I43" s="99">
         <v>0.0</v>
       </c>
       <c r="J43" s="77" t="b">
@@ -65708,65 +65720,65 @@
       <c r="M43" s="61"/>
     </row>
     <row r="44">
-      <c r="A44" s="103">
+      <c r="A44" s="107">
         <v>42.0</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="105" t="s">
+      <c r="C44" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="106" t="s">
+      <c r="D44" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="E44" s="86" t="s">
+      <c r="E44" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="107" t="b">
+      <c r="F44" s="111" t="b">
         <v>0</v>
       </c>
-      <c r="G44" s="91" t="b">
+      <c r="G44" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="108">
+      <c r="H44" s="112">
         <v>0.0</v>
       </c>
-      <c r="I44" s="109">
+      <c r="I44" s="113">
         <v>0.0</v>
       </c>
-      <c r="J44" s="88" t="b">
+      <c r="J44" s="90" t="b">
         <v>1</v>
       </c>
       <c r="L44" s="61"/>
       <c r="M44" s="61"/>
     </row>
     <row r="45">
-      <c r="A45" s="110">
+      <c r="A45" s="114">
         <v>43.0</v>
       </c>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="112" t="s">
+      <c r="C45" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="113" t="s">
+      <c r="D45" s="116" t="s">
         <v>265</v>
       </c>
       <c r="E45" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="96" t="b">
+      <c r="F45" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G45" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="97">
+      <c r="H45" s="98">
         <v>0.0</v>
       </c>
-      <c r="I45" s="98">
+      <c r="I45" s="99">
         <v>0.0</v>
       </c>
       <c r="J45" s="68" t="b">
@@ -65776,31 +65788,31 @@
       <c r="M45" s="61"/>
     </row>
     <row r="46">
-      <c r="A46" s="114">
+      <c r="A46" s="117">
         <v>44.0</v>
       </c>
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="112" t="s">
+      <c r="C46" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="D46" s="116" t="s">
+      <c r="D46" s="118" t="s">
         <v>267</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="96" t="b">
+      <c r="F46" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G46" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H46" s="97">
+      <c r="H46" s="98">
         <v>0.0</v>
       </c>
-      <c r="I46" s="98">
+      <c r="I46" s="99">
         <v>0.0</v>
       </c>
       <c r="J46" s="77" t="b">
@@ -65810,31 +65822,31 @@
       <c r="M46" s="61"/>
     </row>
     <row r="47">
-      <c r="A47" s="114">
+      <c r="A47" s="117">
         <v>45.0</v>
       </c>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="112" t="s">
+      <c r="C47" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="D47" s="116" t="s">
+      <c r="D47" s="118" t="s">
         <v>269</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="96" t="b">
+      <c r="F47" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G47" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="97">
+      <c r="H47" s="98">
         <v>0.0</v>
       </c>
-      <c r="I47" s="98">
+      <c r="I47" s="99">
         <v>0.0</v>
       </c>
       <c r="J47" s="77" t="b">
@@ -65844,31 +65856,31 @@
       <c r="M47" s="61"/>
     </row>
     <row r="48">
-      <c r="A48" s="114">
+      <c r="A48" s="117">
         <v>46.0</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="116" t="s">
+      <c r="D48" s="118" t="s">
         <v>271</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="96" t="b">
+      <c r="F48" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G48" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H48" s="97">
+      <c r="H48" s="98">
         <v>0.0</v>
       </c>
-      <c r="I48" s="98">
+      <c r="I48" s="99">
         <v>0.0</v>
       </c>
       <c r="J48" s="77" t="b">
@@ -65878,31 +65890,31 @@
       <c r="M48" s="61"/>
     </row>
     <row r="49">
-      <c r="A49" s="114">
+      <c r="A49" s="117">
         <v>47.0</v>
       </c>
-      <c r="B49" s="115" t="s">
+      <c r="B49" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="112" t="s">
+      <c r="C49" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="D49" s="116" t="s">
+      <c r="D49" s="118" t="s">
         <v>273</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="96" t="b">
+      <c r="F49" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G49" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="97">
+      <c r="H49" s="98">
         <v>0.0</v>
       </c>
-      <c r="I49" s="98">
+      <c r="I49" s="99">
         <v>0.0</v>
       </c>
       <c r="J49" s="77" t="b">
@@ -65912,22 +65924,22 @@
       <c r="M49" s="61"/>
     </row>
     <row r="50">
-      <c r="A50" s="117">
+      <c r="A50" s="107">
         <v>48.0</v>
       </c>
-      <c r="B50" s="118" t="s">
+      <c r="B50" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="119" t="s">
-        <v>264</v>
+      <c r="C50" s="109" t="s">
+        <v>217</v>
       </c>
       <c r="D50" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="E50" s="86" t="s">
+      <c r="E50" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="96" t="b">
+      <c r="F50" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G50" s="80" t="b">
@@ -65936,10 +65948,10 @@
       <c r="H50" s="121">
         <v>0.0</v>
       </c>
-      <c r="I50" s="98">
+      <c r="I50" s="99">
         <v>0.0</v>
       </c>
-      <c r="J50" s="88" t="b">
+      <c r="J50" s="90" t="b">
         <v>1</v>
       </c>
       <c r="L50" s="61"/>
@@ -65995,7 +66007,7 @@
       <c r="E52" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F52" s="96" t="b">
+      <c r="F52" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="80" t="b">
@@ -66004,7 +66016,7 @@
       <c r="H52" s="121">
         <v>0.0</v>
       </c>
-      <c r="I52" s="98">
+      <c r="I52" s="99">
         <v>0.0</v>
       </c>
       <c r="J52" s="80" t="b">
@@ -66029,7 +66041,7 @@
       <c r="E53" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F53" s="96" t="b">
+      <c r="F53" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G53" s="80" t="b">
@@ -66038,7 +66050,7 @@
       <c r="H53" s="121">
         <v>0.0</v>
       </c>
-      <c r="I53" s="98">
+      <c r="I53" s="99">
         <v>0.0</v>
       </c>
       <c r="J53" s="80" t="b">
@@ -66063,7 +66075,7 @@
       <c r="E54" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F54" s="96" t="b">
+      <c r="F54" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G54" s="80" t="b">
@@ -66072,7 +66084,7 @@
       <c r="H54" s="121">
         <v>0.0</v>
       </c>
-      <c r="I54" s="98">
+      <c r="I54" s="99">
         <v>0.0</v>
       </c>
       <c r="J54" s="80" t="b">
@@ -66097,19 +66109,19 @@
       <c r="E55" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="87" t="b">
+      <c r="F55" s="89" t="b">
         <v>1</v>
       </c>
-      <c r="G55" s="91" t="b">
+      <c r="G55" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="H55" s="89">
+      <c r="H55" s="91">
         <v>63.0</v>
       </c>
-      <c r="I55" s="109">
+      <c r="I55" s="113">
         <v>0.0</v>
       </c>
-      <c r="J55" s="91" t="b">
+      <c r="J55" s="93" t="b">
         <v>0</v>
       </c>
       <c r="L55" s="61"/>
@@ -66131,7 +66143,7 @@
       <c r="E56" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="96" t="b">
+      <c r="F56" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G56" s="80" t="b">
@@ -66140,7 +66152,7 @@
       <c r="H56" s="72">
         <v>64.0</v>
       </c>
-      <c r="I56" s="98">
+      <c r="I56" s="99">
         <v>0.0</v>
       </c>
       <c r="J56" s="68" t="b">
@@ -66165,7 +66177,7 @@
       <c r="E57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="96" t="b">
+      <c r="F57" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G57" s="80" t="b">
@@ -66174,7 +66186,7 @@
       <c r="H57" s="72">
         <v>65.0</v>
       </c>
-      <c r="I57" s="98">
+      <c r="I57" s="99">
         <v>0.0</v>
       </c>
       <c r="J57" s="77" t="b">
@@ -66184,7 +66196,7 @@
       <c r="M57" s="61"/>
     </row>
     <row r="58">
-      <c r="A58" s="89">
+      <c r="A58" s="91">
         <v>56.0</v>
       </c>
       <c r="B58" s="141" t="s">
@@ -66196,22 +66208,22 @@
       <c r="D58" s="143" t="s">
         <v>293</v>
       </c>
-      <c r="E58" s="86" t="s">
+      <c r="E58" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="107" t="b">
+      <c r="F58" s="111" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="91" t="b">
+      <c r="G58" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="83">
+      <c r="H58" s="85">
         <v>66.0</v>
       </c>
-      <c r="I58" s="109">
+      <c r="I58" s="113">
         <v>0.0</v>
       </c>
-      <c r="J58" s="88" t="b">
+      <c r="J58" s="90" t="b">
         <v>1</v>
       </c>
       <c r="L58" s="61"/>
@@ -66233,16 +66245,16 @@
       <c r="E59" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="96" t="b">
+      <c r="F59" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G59" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="97">
+      <c r="H59" s="98">
         <v>0.0</v>
       </c>
-      <c r="I59" s="98">
+      <c r="I59" s="99">
         <v>0.0</v>
       </c>
       <c r="J59" s="68" t="b">
@@ -66267,13 +66279,13 @@
       <c r="E60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="96" t="b">
+      <c r="F60" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G60" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H60" s="97">
+      <c r="H60" s="98">
         <v>0.0</v>
       </c>
       <c r="I60" s="79">
@@ -66301,13 +66313,13 @@
       <c r="E61" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="96" t="b">
+      <c r="F61" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G61" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H61" s="97">
+      <c r="H61" s="98">
         <v>0.0</v>
       </c>
       <c r="I61" s="79">
@@ -66335,13 +66347,13 @@
       <c r="E62" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="96" t="b">
+      <c r="F62" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G62" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H62" s="97">
+      <c r="H62" s="98">
         <v>0.0</v>
       </c>
       <c r="I62" s="79">
@@ -66369,13 +66381,13 @@
       <c r="E63" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="96" t="b">
+      <c r="F63" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G63" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H63" s="97">
+      <c r="H63" s="98">
         <v>0.0</v>
       </c>
       <c r="I63" s="79">
@@ -66403,13 +66415,13 @@
       <c r="E64" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="96" t="b">
+      <c r="F64" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G64" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H64" s="97">
+      <c r="H64" s="98">
         <v>0.0</v>
       </c>
       <c r="I64" s="79">
@@ -66437,13 +66449,13 @@
       <c r="E65" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="96" t="b">
+      <c r="F65" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G65" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H65" s="97">
+      <c r="H65" s="98">
         <v>0.0</v>
       </c>
       <c r="I65" s="79">
@@ -66471,13 +66483,13 @@
       <c r="E66" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="96" t="b">
+      <c r="F66" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G66" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="97">
+      <c r="H66" s="98">
         <v>0.0</v>
       </c>
       <c r="I66" s="79">
@@ -66505,13 +66517,13 @@
       <c r="E67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F67" s="96" t="b">
+      <c r="F67" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G67" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H67" s="97">
+      <c r="H67" s="98">
         <v>0.0</v>
       </c>
       <c r="I67" s="79">
@@ -66539,13 +66551,13 @@
       <c r="E68" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="96" t="b">
+      <c r="F68" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G68" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="97">
+      <c r="H68" s="98">
         <v>0.0</v>
       </c>
       <c r="I68" s="79">
@@ -66573,13 +66585,13 @@
       <c r="E69" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F69" s="96" t="b">
+      <c r="F69" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G69" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H69" s="97">
+      <c r="H69" s="98">
         <v>0.0</v>
       </c>
       <c r="I69" s="79">
@@ -66607,13 +66619,13 @@
       <c r="E70" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F70" s="96" t="b">
+      <c r="F70" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G70" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H70" s="97">
+      <c r="H70" s="98">
         <v>0.0</v>
       </c>
       <c r="I70" s="79">
@@ -66638,22 +66650,22 @@
       <c r="D71" s="155" t="s">
         <v>320</v>
       </c>
-      <c r="E71" s="86" t="s">
+      <c r="E71" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="F71" s="107" t="b">
+      <c r="F71" s="111" t="b">
         <v>0</v>
       </c>
-      <c r="G71" s="88" t="b">
+      <c r="G71" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="H71" s="108">
+      <c r="H71" s="112">
         <v>0.0</v>
       </c>
-      <c r="I71" s="90">
+      <c r="I71" s="92">
         <v>0.0</v>
       </c>
-      <c r="J71" s="88" t="b">
+      <c r="J71" s="90" t="b">
         <v>1</v>
       </c>
       <c r="L71" s="61"/>
@@ -66675,16 +66687,16 @@
       <c r="E72" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F72" s="96" t="b">
+      <c r="F72" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G72" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H72" s="97">
+      <c r="H72" s="98">
         <v>0.0</v>
       </c>
-      <c r="I72" s="98">
+      <c r="I72" s="99">
         <v>0.0</v>
       </c>
       <c r="J72" s="71" t="b">
@@ -66709,16 +66721,16 @@
       <c r="E73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="96" t="b">
+      <c r="F73" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G73" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H73" s="97">
+      <c r="H73" s="98">
         <v>0.0</v>
       </c>
-      <c r="I73" s="98">
+      <c r="I73" s="99">
         <v>0.0</v>
       </c>
       <c r="J73" s="80" t="b">
@@ -66743,16 +66755,16 @@
       <c r="E74" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="96" t="b">
+      <c r="F74" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G74" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="97">
+      <c r="H74" s="98">
         <v>0.0</v>
       </c>
-      <c r="I74" s="98">
+      <c r="I74" s="99">
         <v>0.0</v>
       </c>
       <c r="J74" s="80" t="b">
@@ -66777,16 +66789,16 @@
       <c r="E75" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F75" s="96" t="b">
+      <c r="F75" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G75" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H75" s="97">
+      <c r="H75" s="98">
         <v>0.0</v>
       </c>
-      <c r="I75" s="98">
+      <c r="I75" s="99">
         <v>0.0</v>
       </c>
       <c r="J75" s="80" t="b">
@@ -66811,16 +66823,16 @@
       <c r="E76" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F76" s="96" t="b">
+      <c r="F76" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G76" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="97">
+      <c r="H76" s="98">
         <v>0.0</v>
       </c>
-      <c r="I76" s="98">
+      <c r="I76" s="99">
         <v>0.0</v>
       </c>
       <c r="J76" s="80" t="b">
@@ -66845,16 +66857,16 @@
       <c r="E77" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F77" s="96" t="b">
+      <c r="F77" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H77" s="97">
+      <c r="H77" s="98">
         <v>0.0</v>
       </c>
-      <c r="I77" s="98">
+      <c r="I77" s="99">
         <v>0.0</v>
       </c>
       <c r="J77" s="80" t="b">
@@ -66879,16 +66891,16 @@
       <c r="E78" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F78" s="96" t="b">
+      <c r="F78" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G78" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H78" s="97">
+      <c r="H78" s="98">
         <v>0.0</v>
       </c>
-      <c r="I78" s="98">
+      <c r="I78" s="99">
         <v>0.0</v>
       </c>
       <c r="J78" s="80" t="b">
@@ -66913,16 +66925,16 @@
       <c r="E79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="96" t="b">
+      <c r="F79" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H79" s="97">
+      <c r="H79" s="98">
         <v>0.0</v>
       </c>
-      <c r="I79" s="98">
+      <c r="I79" s="99">
         <v>0.0</v>
       </c>
       <c r="J79" s="80" t="b">
@@ -66947,16 +66959,16 @@
       <c r="E80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F80" s="96" t="b">
+      <c r="F80" s="97" t="b">
         <v>0</v>
       </c>
       <c r="G80" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H80" s="97">
+      <c r="H80" s="98">
         <v>0.0</v>
       </c>
-      <c r="I80" s="98">
+      <c r="I80" s="99">
         <v>0.0</v>
       </c>
       <c r="J80" s="80" t="b">
@@ -66978,22 +66990,22 @@
       <c r="D81" s="167" t="s">
         <v>323</v>
       </c>
-      <c r="E81" s="86" t="s">
+      <c r="E81" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="107" t="b">
+      <c r="F81" s="111" t="b">
         <v>0</v>
       </c>
-      <c r="G81" s="91" t="b">
+      <c r="G81" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="H81" s="108">
+      <c r="H81" s="112">
         <v>0.0</v>
       </c>
-      <c r="I81" s="109">
+      <c r="I81" s="113">
         <v>0.0</v>
       </c>
-      <c r="J81" s="91" t="b">
+      <c r="J81" s="93" t="b">
         <v>0</v>
       </c>
       <c r="L81" s="61"/>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -674,19 +674,19 @@
     <t>Immediate</t>
   </si>
   <si>
-    <t>15초동안 공격 성공 시, 공격력의 0.1%만큼 회복합니다.</t>
+    <t>15초동안 공격 성공 시, 플레이어 체력의 0.5%만큼 회복합니다.</t>
   </si>
   <si>
     <t>Bouncing^Bullet</t>
   </si>
   <si>
-    <t>10초동안 공격력이 낮아지지만, 최대 3마리까지 튕깁니다.</t>
+    <t>15초동안 공격력 1/3배로 떨어지지만, 최대 3마리까지 튕깁니다.</t>
   </si>
   <si>
-    <t>Banned^Bullet</t>
+    <t>Fire^Bullet</t>
   </si>
   <si>
-    <t>10초동안 공격력 2배, 약탈자에게 '화상'을 부여합니다.</t>
+    <t>15초동안 공격력 1/2배로 떨어지지만, 약탈자에게 '화상'을 부여합니다.</t>
   </si>
   <si>
     <t>Dagger</t>
@@ -815,7 +815,7 @@
     <t>Weapon</t>
   </si>
   <si>
-    <t xml:space="preserve">1발의 섬광탄을 던져 적들을 2초동안 기절시킵니다. </t>
+    <t xml:space="preserve">1발의 섬광탄을 던져 범위 내의 약탈자들을 7초동안 기절시킵니다. </t>
   </si>
   <si>
     <t>Gatling^Gun</t>
@@ -845,7 +845,7 @@
     <t>Stun^Bullet</t>
   </si>
   <si>
-    <t>공격력이 약하지만 스턴을 부여할 수 있는 총을 사용할 수 있습니다. (공격력 1)</t>
+    <t>15초동안 공격력이 5이지만, 5초 스턴을 부여할 수 있는 총을 사용할 수 있습니다.</t>
   </si>
   <si>
     <t>Mercenary^Enhance^Material</t>
@@ -1266,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1552,11 +1552,14 @@
     <xf borderId="4" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="5" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1570,20 +1573,20 @@
     <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1612,6 +1615,9 @@
     <xf borderId="4" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1621,10 +1627,13 @@
     <xf borderId="8" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="8" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="10" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1672,7 +1681,7 @@
     <xf borderId="12" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1681,16 +1690,13 @@
     <xf borderId="6" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="9" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="14" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1702,9 +1708,6 @@
     <xf borderId="4" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1714,9 +1717,6 @@
     <xf borderId="8" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="9" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1725,9 +1725,6 @@
     </xf>
     <xf borderId="11" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="14" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -64839,7 +64836,7 @@
       <c r="A18" s="72">
         <v>16.0</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="73" t="s">
         <v>208</v>
       </c>
       <c r="C18" s="74" t="s">
@@ -64975,28 +64972,28 @@
       <c r="A22" s="94">
         <v>20.0</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="97" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="97" t="b">
+      <c r="F22" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G22" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="99">
         <v>0.0</v>
       </c>
-      <c r="I22" s="99">
+      <c r="I22" s="100">
         <v>0.0</v>
       </c>
       <c r="J22" s="68" t="b">
@@ -65006,31 +65003,31 @@
       <c r="M22" s="81"/>
     </row>
     <row r="23">
-      <c r="A23" s="100">
+      <c r="A23" s="101">
         <v>21.0</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="104" t="s">
         <v>220</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="97" t="b">
+      <c r="F23" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G23" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="99">
         <v>0.0</v>
       </c>
-      <c r="I23" s="99">
+      <c r="I23" s="100">
         <v>0.0</v>
       </c>
       <c r="J23" s="77" t="b">
@@ -65040,31 +65037,31 @@
       <c r="M23" s="81"/>
     </row>
     <row r="24">
-      <c r="A24" s="100">
+      <c r="A24" s="101">
         <v>22.0</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="104" t="s">
         <v>222</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="97" t="b">
+      <c r="F24" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G24" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="98">
+      <c r="H24" s="99">
         <v>0.0</v>
       </c>
-      <c r="I24" s="99">
+      <c r="I24" s="100">
         <v>0.0</v>
       </c>
       <c r="J24" s="77" t="b">
@@ -65074,13 +65071,13 @@
       <c r="M24" s="81"/>
     </row>
     <row r="25">
-      <c r="A25" s="100">
+      <c r="A25" s="101">
         <v>23.0</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="103" t="s">
         <v>217</v>
       </c>
       <c r="D25" s="104" t="s">
@@ -65089,16 +65086,16 @@
       <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="97" t="b">
+      <c r="F25" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="99">
         <v>0.0</v>
       </c>
-      <c r="I25" s="99">
+      <c r="I25" s="100">
         <v>0.0</v>
       </c>
       <c r="J25" s="77" t="b">
@@ -65108,31 +65105,31 @@
       <c r="M25" s="81"/>
     </row>
     <row r="26">
-      <c r="A26" s="100">
+      <c r="A26" s="101">
         <v>24.0</v>
       </c>
       <c r="B26" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="106" t="s">
         <v>226</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="97" t="b">
+      <c r="F26" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H26" s="99">
         <v>0.0</v>
       </c>
-      <c r="I26" s="99">
+      <c r="I26" s="100">
         <v>0.0</v>
       </c>
       <c r="J26" s="77" t="b">
@@ -65142,31 +65139,31 @@
       <c r="M26" s="81"/>
     </row>
     <row r="27">
-      <c r="A27" s="100">
+      <c r="A27" s="101">
         <v>25.0</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="106" t="s">
         <v>228</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="97" t="b">
+      <c r="F27" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G27" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="99">
         <v>0.0</v>
       </c>
-      <c r="I27" s="99">
+      <c r="I27" s="100">
         <v>0.0</v>
       </c>
       <c r="J27" s="77" t="b">
@@ -65176,31 +65173,31 @@
       <c r="M27" s="81"/>
     </row>
     <row r="28">
-      <c r="A28" s="100">
+      <c r="A28" s="101">
         <v>26.0</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="106" t="s">
         <v>230</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="97" t="b">
+      <c r="F28" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G28" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="98">
+      <c r="H28" s="99">
         <v>0.0</v>
       </c>
-      <c r="I28" s="99">
+      <c r="I28" s="100">
         <v>0.0</v>
       </c>
       <c r="J28" s="77" t="b">
@@ -65210,31 +65207,31 @@
       <c r="M28" s="81"/>
     </row>
     <row r="29">
-      <c r="A29" s="100">
+      <c r="A29" s="101">
         <v>27.0</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="106" t="s">
         <v>232</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="97" t="b">
+      <c r="F29" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G29" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="98">
+      <c r="H29" s="99">
         <v>0.0</v>
       </c>
-      <c r="I29" s="99">
+      <c r="I29" s="100">
         <v>0.0</v>
       </c>
       <c r="J29" s="77" t="b">
@@ -65244,13 +65241,13 @@
       <c r="M29" s="61"/>
     </row>
     <row r="30">
-      <c r="A30" s="100">
+      <c r="A30" s="101">
         <v>28.0</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="103" t="s">
         <v>217</v>
       </c>
       <c r="D30" s="104" t="s">
@@ -65259,16 +65256,16 @@
       <c r="E30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="97" t="b">
+      <c r="F30" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G30" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="98">
+      <c r="H30" s="99">
         <v>0.0</v>
       </c>
-      <c r="I30" s="99">
+      <c r="I30" s="100">
         <v>0.0</v>
       </c>
       <c r="J30" s="77" t="b">
@@ -65278,31 +65275,31 @@
       <c r="M30" s="61"/>
     </row>
     <row r="31">
-      <c r="A31" s="100">
+      <c r="A31" s="101">
         <v>29.0</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="106" t="s">
         <v>236</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="97" t="b">
+      <c r="F31" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G31" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="98">
+      <c r="H31" s="99">
         <v>0.0</v>
       </c>
-      <c r="I31" s="99">
+      <c r="I31" s="100">
         <v>0.0</v>
       </c>
       <c r="J31" s="77" t="b">
@@ -65312,31 +65309,31 @@
       <c r="M31" s="61"/>
     </row>
     <row r="32">
-      <c r="A32" s="100">
+      <c r="A32" s="101">
         <v>30.0</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="106" t="s">
         <v>238</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="97" t="b">
+      <c r="F32" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G32" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="98">
+      <c r="H32" s="99">
         <v>0.0</v>
       </c>
-      <c r="I32" s="99">
+      <c r="I32" s="100">
         <v>0.0</v>
       </c>
       <c r="J32" s="77" t="b">
@@ -65346,13 +65343,13 @@
       <c r="M32" s="61"/>
     </row>
     <row r="33">
-      <c r="A33" s="100">
+      <c r="A33" s="101">
         <v>31.0</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="103" t="s">
         <v>217</v>
       </c>
       <c r="D33" s="104" t="s">
@@ -65361,16 +65358,16 @@
       <c r="E33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="97" t="b">
+      <c r="F33" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="98">
+      <c r="H33" s="99">
         <v>0.0</v>
       </c>
-      <c r="I33" s="99">
+      <c r="I33" s="100">
         <v>0.0</v>
       </c>
       <c r="J33" s="77" t="b">
@@ -65380,13 +65377,13 @@
       <c r="M33" s="61"/>
     </row>
     <row r="34">
-      <c r="A34" s="100">
+      <c r="A34" s="101">
         <v>32.0</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="103" t="s">
         <v>217</v>
       </c>
       <c r="D34" s="104" t="s">
@@ -65395,16 +65392,16 @@
       <c r="E34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="97" t="b">
+      <c r="F34" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G34" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="98">
+      <c r="H34" s="99">
         <v>0.0</v>
       </c>
-      <c r="I34" s="99">
+      <c r="I34" s="100">
         <v>0.0</v>
       </c>
       <c r="J34" s="77" t="b">
@@ -65414,13 +65411,13 @@
       <c r="M34" s="61"/>
     </row>
     <row r="35">
-      <c r="A35" s="100">
+      <c r="A35" s="101">
         <v>33.0</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="103" t="s">
         <v>217</v>
       </c>
       <c r="D35" s="104" t="s">
@@ -65429,16 +65426,16 @@
       <c r="E35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="97" t="b">
+      <c r="F35" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G35" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="98">
+      <c r="H35" s="99">
         <v>0.0</v>
       </c>
-      <c r="I35" s="99">
+      <c r="I35" s="100">
         <v>0.0</v>
       </c>
       <c r="J35" s="77" t="b">
@@ -65448,31 +65445,31 @@
       <c r="M35" s="61"/>
     </row>
     <row r="36">
-      <c r="A36" s="100">
+      <c r="A36" s="101">
         <v>34.0</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="106" t="s">
         <v>246</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="97" t="b">
+      <c r="F36" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G36" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="98">
+      <c r="H36" s="99">
         <v>0.0</v>
       </c>
-      <c r="I36" s="99">
+      <c r="I36" s="100">
         <v>0.0</v>
       </c>
       <c r="J36" s="77" t="b">
@@ -65482,13 +65479,13 @@
       <c r="M36" s="61"/>
     </row>
     <row r="37">
-      <c r="A37" s="100">
+      <c r="A37" s="101">
         <v>35.0</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="103" t="s">
         <v>217</v>
       </c>
       <c r="D37" s="104" t="s">
@@ -65497,16 +65494,16 @@
       <c r="E37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="97" t="b">
+      <c r="F37" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G37" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="98">
+      <c r="H37" s="99">
         <v>0.0</v>
       </c>
-      <c r="I37" s="99">
+      <c r="I37" s="100">
         <v>0.0</v>
       </c>
       <c r="J37" s="77" t="b">
@@ -65516,13 +65513,13 @@
       <c r="M37" s="61"/>
     </row>
     <row r="38">
-      <c r="A38" s="100">
+      <c r="A38" s="101">
         <v>36.0</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="103" t="s">
         <v>217</v>
       </c>
       <c r="D38" s="104" t="s">
@@ -65531,16 +65528,16 @@
       <c r="E38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="97" t="b">
+      <c r="F38" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G38" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="98">
+      <c r="H38" s="99">
         <v>0.0</v>
       </c>
-      <c r="I38" s="99">
+      <c r="I38" s="100">
         <v>0.0</v>
       </c>
       <c r="J38" s="77" t="b">
@@ -65550,31 +65547,31 @@
       <c r="M38" s="61"/>
     </row>
     <row r="39">
-      <c r="A39" s="100">
+      <c r="A39" s="101">
         <v>37.0</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="106" t="s">
         <v>252</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="97" t="b">
+      <c r="F39" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G39" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="98">
+      <c r="H39" s="99">
         <v>0.0</v>
       </c>
-      <c r="I39" s="99">
+      <c r="I39" s="100">
         <v>0.0</v>
       </c>
       <c r="J39" s="77" t="b">
@@ -65584,13 +65581,13 @@
       <c r="M39" s="61"/>
     </row>
     <row r="40">
-      <c r="A40" s="100">
+      <c r="A40" s="101">
         <v>38.0</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="103" t="s">
         <v>217</v>
       </c>
       <c r="D40" s="104" t="s">
@@ -65599,16 +65596,16 @@
       <c r="E40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="97" t="b">
+      <c r="F40" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="98">
+      <c r="H40" s="99">
         <v>0.0</v>
       </c>
-      <c r="I40" s="99">
+      <c r="I40" s="100">
         <v>0.0</v>
       </c>
       <c r="J40" s="77" t="b">
@@ -65618,31 +65615,31 @@
       <c r="M40" s="61"/>
     </row>
     <row r="41">
-      <c r="A41" s="100">
+      <c r="A41" s="101">
         <v>39.0</v>
       </c>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="106" t="s">
         <v>256</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="97" t="b">
+      <c r="F41" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G41" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="98">
+      <c r="H41" s="99">
         <v>0.0</v>
       </c>
-      <c r="I41" s="99">
+      <c r="I41" s="100">
         <v>0.0</v>
       </c>
       <c r="J41" s="77" t="b">
@@ -65652,31 +65649,31 @@
       <c r="M41" s="61"/>
     </row>
     <row r="42">
-      <c r="A42" s="100">
+      <c r="A42" s="101">
         <v>40.0</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="106" t="s">
         <v>258</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="97" t="b">
+      <c r="F42" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G42" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="98">
+      <c r="H42" s="99">
         <v>0.0</v>
       </c>
-      <c r="I42" s="99">
+      <c r="I42" s="100">
         <v>0.0</v>
       </c>
       <c r="J42" s="77" t="b">
@@ -65686,31 +65683,31 @@
       <c r="M42" s="61"/>
     </row>
     <row r="43">
-      <c r="A43" s="100">
+      <c r="A43" s="101">
         <v>41.0</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="102" t="s">
+      <c r="D43" s="106" t="s">
         <v>260</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="97" t="b">
+      <c r="F43" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G43" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="98">
+      <c r="H43" s="99">
         <v>0.0</v>
       </c>
-      <c r="I43" s="99">
+      <c r="I43" s="100">
         <v>0.0</v>
       </c>
       <c r="J43" s="77" t="b">
@@ -65720,31 +65717,31 @@
       <c r="M43" s="61"/>
     </row>
     <row r="44">
-      <c r="A44" s="107">
+      <c r="A44" s="108">
         <v>42.0</v>
       </c>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D44" s="111" t="s">
         <v>262</v>
       </c>
       <c r="E44" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="111" t="b">
+      <c r="F44" s="112" t="b">
         <v>0</v>
       </c>
       <c r="G44" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="112">
+      <c r="H44" s="113">
         <v>0.0</v>
       </c>
-      <c r="I44" s="113">
+      <c r="I44" s="114">
         <v>0.0</v>
       </c>
       <c r="J44" s="90" t="b">
@@ -65754,31 +65751,31 @@
       <c r="M44" s="61"/>
     </row>
     <row r="45">
-      <c r="A45" s="114">
+      <c r="A45" s="115">
         <v>43.0</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="115" t="s">
+      <c r="C45" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="116" t="s">
+      <c r="D45" s="118" t="s">
         <v>265</v>
       </c>
       <c r="E45" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="97" t="b">
+      <c r="F45" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G45" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="98">
+      <c r="H45" s="99">
         <v>0.0</v>
       </c>
-      <c r="I45" s="99">
+      <c r="I45" s="100">
         <v>0.0</v>
       </c>
       <c r="J45" s="68" t="b">
@@ -65788,31 +65785,31 @@
       <c r="M45" s="61"/>
     </row>
     <row r="46">
-      <c r="A46" s="117">
+      <c r="A46" s="119">
         <v>44.0</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="D46" s="118" t="s">
+      <c r="D46" s="121" t="s">
         <v>267</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="97" t="b">
+      <c r="F46" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G46" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H46" s="98">
+      <c r="H46" s="99">
         <v>0.0</v>
       </c>
-      <c r="I46" s="99">
+      <c r="I46" s="100">
         <v>0.0</v>
       </c>
       <c r="J46" s="77" t="b">
@@ -65822,31 +65819,31 @@
       <c r="M46" s="61"/>
     </row>
     <row r="47">
-      <c r="A47" s="117">
+      <c r="A47" s="119">
         <v>45.0</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="120" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="D47" s="118" t="s">
+      <c r="D47" s="121" t="s">
         <v>269</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="97" t="b">
+      <c r="F47" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G47" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="98">
+      <c r="H47" s="99">
         <v>0.0</v>
       </c>
-      <c r="I47" s="99">
+      <c r="I47" s="100">
         <v>0.0</v>
       </c>
       <c r="J47" s="77" t="b">
@@ -65856,31 +65853,31 @@
       <c r="M47" s="61"/>
     </row>
     <row r="48">
-      <c r="A48" s="117">
+      <c r="A48" s="119">
         <v>46.0</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="120" t="s">
         <v>270</v>
       </c>
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="118" t="s">
+      <c r="D48" s="121" t="s">
         <v>271</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="97" t="b">
+      <c r="F48" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G48" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H48" s="98">
+      <c r="H48" s="99">
         <v>0.0</v>
       </c>
-      <c r="I48" s="99">
+      <c r="I48" s="100">
         <v>0.0</v>
       </c>
       <c r="J48" s="77" t="b">
@@ -65890,31 +65887,31 @@
       <c r="M48" s="61"/>
     </row>
     <row r="49">
-      <c r="A49" s="117">
+      <c r="A49" s="119">
         <v>47.0</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="120" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="D49" s="118" t="s">
+      <c r="D49" s="121" t="s">
         <v>273</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="97" t="b">
+      <c r="F49" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G49" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="98">
+      <c r="H49" s="99">
         <v>0.0</v>
       </c>
-      <c r="I49" s="99">
+      <c r="I49" s="100">
         <v>0.0</v>
       </c>
       <c r="J49" s="77" t="b">
@@ -65924,31 +65921,31 @@
       <c r="M49" s="61"/>
     </row>
     <row r="50">
-      <c r="A50" s="107">
+      <c r="A50" s="108">
         <v>48.0</v>
       </c>
-      <c r="B50" s="119" t="s">
+      <c r="B50" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="D50" s="120" t="s">
+      <c r="D50" s="123" t="s">
         <v>275</v>
       </c>
       <c r="E50" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="97" t="b">
+      <c r="F50" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G50" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H50" s="121">
+      <c r="H50" s="124">
         <v>0.0</v>
       </c>
-      <c r="I50" s="99">
+      <c r="I50" s="100">
         <v>0.0</v>
       </c>
       <c r="J50" s="90" t="b">
@@ -65958,16 +65955,16 @@
       <c r="M50" s="61"/>
     </row>
     <row r="51">
-      <c r="A51" s="122">
+      <c r="A51" s="125">
         <v>49.0</v>
       </c>
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="126" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="124" t="s">
+      <c r="C51" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="125" t="s">
+      <c r="D51" s="128" t="s">
         <v>278</v>
       </c>
       <c r="E51" s="66" t="s">
@@ -65982,7 +65979,7 @@
       <c r="H51" s="69">
         <v>59.0</v>
       </c>
-      <c r="I51" s="126">
+      <c r="I51" s="129">
         <v>0.0</v>
       </c>
       <c r="J51" s="71" t="b">
@@ -65992,31 +65989,31 @@
       <c r="M51" s="61"/>
     </row>
     <row r="52">
-      <c r="A52" s="127">
+      <c r="A52" s="130">
         <v>50.0</v>
       </c>
-      <c r="B52" s="128" t="s">
+      <c r="B52" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="129" t="s">
+      <c r="C52" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="D52" s="130" t="s">
+      <c r="D52" s="133" t="s">
         <v>280</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F52" s="97" t="b">
+      <c r="F52" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H52" s="121">
+      <c r="H52" s="124">
         <v>0.0</v>
       </c>
-      <c r="I52" s="99">
+      <c r="I52" s="100">
         <v>0.0</v>
       </c>
       <c r="J52" s="80" t="b">
@@ -66026,31 +66023,31 @@
       <c r="M52" s="61"/>
     </row>
     <row r="53">
-      <c r="A53" s="127">
+      <c r="A53" s="130">
         <v>51.0</v>
       </c>
-      <c r="B53" s="128" t="s">
+      <c r="B53" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="129" t="s">
+      <c r="C53" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="130" t="s">
+      <c r="D53" s="133" t="s">
         <v>282</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F53" s="97" t="b">
+      <c r="F53" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G53" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="121">
+      <c r="H53" s="124">
         <v>0.0</v>
       </c>
-      <c r="I53" s="99">
+      <c r="I53" s="100">
         <v>0.0</v>
       </c>
       <c r="J53" s="80" t="b">
@@ -66060,31 +66057,31 @@
       <c r="M53" s="61"/>
     </row>
     <row r="54">
-      <c r="A54" s="127">
+      <c r="A54" s="130">
         <v>52.0</v>
       </c>
-      <c r="B54" s="128" t="s">
+      <c r="B54" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="C54" s="129" t="s">
+      <c r="C54" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="130" t="s">
+      <c r="D54" s="133" t="s">
         <v>284</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F54" s="97" t="b">
+      <c r="F54" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G54" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="121">
+      <c r="H54" s="124">
         <v>0.0</v>
       </c>
-      <c r="I54" s="99">
+      <c r="I54" s="100">
         <v>0.0</v>
       </c>
       <c r="J54" s="80" t="b">
@@ -66094,16 +66091,16 @@
       <c r="M54" s="61"/>
     </row>
     <row r="55">
-      <c r="A55" s="131">
+      <c r="A55" s="134">
         <v>53.0</v>
       </c>
-      <c r="B55" s="132" t="s">
+      <c r="B55" s="135" t="s">
         <v>285</v>
       </c>
-      <c r="C55" s="133" t="s">
+      <c r="C55" s="136" t="s">
         <v>277</v>
       </c>
-      <c r="D55" s="134" t="s">
+      <c r="D55" s="137" t="s">
         <v>286</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -66118,7 +66115,7 @@
       <c r="H55" s="91">
         <v>63.0</v>
       </c>
-      <c r="I55" s="113">
+      <c r="I55" s="114">
         <v>0.0</v>
       </c>
       <c r="J55" s="93" t="b">
@@ -66131,19 +66128,19 @@
       <c r="A56" s="69">
         <v>54.0</v>
       </c>
-      <c r="B56" s="135" t="s">
+      <c r="B56" s="138" t="s">
         <v>287</v>
       </c>
-      <c r="C56" s="136" t="s">
+      <c r="C56" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="D56" s="137" t="s">
+      <c r="D56" s="140" t="s">
         <v>289</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="97" t="b">
+      <c r="F56" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G56" s="80" t="b">
@@ -66152,7 +66149,7 @@
       <c r="H56" s="72">
         <v>64.0</v>
       </c>
-      <c r="I56" s="99">
+      <c r="I56" s="100">
         <v>0.0</v>
       </c>
       <c r="J56" s="68" t="b">
@@ -66165,19 +66162,19 @@
       <c r="A57" s="78">
         <v>55.0</v>
       </c>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="C57" s="139" t="s">
+      <c r="C57" s="141" t="s">
         <v>288</v>
       </c>
-      <c r="D57" s="140" t="s">
+      <c r="D57" s="142" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="97" t="b">
+      <c r="F57" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G57" s="80" t="b">
@@ -66186,7 +66183,7 @@
       <c r="H57" s="72">
         <v>65.0</v>
       </c>
-      <c r="I57" s="99">
+      <c r="I57" s="100">
         <v>0.0</v>
       </c>
       <c r="J57" s="77" t="b">
@@ -66199,19 +66196,19 @@
       <c r="A58" s="91">
         <v>56.0</v>
       </c>
-      <c r="B58" s="141" t="s">
+      <c r="B58" s="143" t="s">
         <v>292</v>
       </c>
-      <c r="C58" s="142" t="s">
+      <c r="C58" s="144" t="s">
         <v>288</v>
       </c>
-      <c r="D58" s="143" t="s">
+      <c r="D58" s="145" t="s">
         <v>293</v>
       </c>
       <c r="E58" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="111" t="b">
+      <c r="F58" s="112" t="b">
         <v>0</v>
       </c>
       <c r="G58" s="93" t="b">
@@ -66220,7 +66217,7 @@
       <c r="H58" s="85">
         <v>66.0</v>
       </c>
-      <c r="I58" s="113">
+      <c r="I58" s="114">
         <v>0.0</v>
       </c>
       <c r="J58" s="90" t="b">
@@ -66230,31 +66227,31 @@
       <c r="M58" s="61"/>
     </row>
     <row r="59">
-      <c r="A59" s="144">
+      <c r="A59" s="146">
         <v>57.0</v>
       </c>
-      <c r="B59" s="145" t="s">
+      <c r="B59" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="146" t="s">
+      <c r="C59" s="147" t="s">
         <v>295</v>
       </c>
-      <c r="D59" s="147" t="s">
+      <c r="D59" s="148" t="s">
         <v>296</v>
       </c>
       <c r="E59" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="97" t="b">
+      <c r="F59" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G59" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="98">
+      <c r="H59" s="99">
         <v>0.0</v>
       </c>
-      <c r="I59" s="99">
+      <c r="I59" s="100">
         <v>0.0</v>
       </c>
       <c r="J59" s="68" t="b">
@@ -66264,10 +66261,10 @@
       <c r="M59" s="61"/>
     </row>
     <row r="60">
-      <c r="A60" s="148">
+      <c r="A60" s="149">
         <v>58.0</v>
       </c>
-      <c r="B60" s="149" t="s">
+      <c r="B60" s="84" t="s">
         <v>297</v>
       </c>
       <c r="C60" s="150" t="s">
@@ -66279,13 +66276,13 @@
       <c r="E60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="97" t="b">
+      <c r="F60" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G60" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H60" s="98">
+      <c r="H60" s="99">
         <v>0.0</v>
       </c>
       <c r="I60" s="79">
@@ -66298,10 +66295,10 @@
       <c r="M60" s="61"/>
     </row>
     <row r="61">
-      <c r="A61" s="148">
+      <c r="A61" s="149">
         <v>59.0</v>
       </c>
-      <c r="B61" s="149" t="s">
+      <c r="B61" s="84" t="s">
         <v>299</v>
       </c>
       <c r="C61" s="150" t="s">
@@ -66313,13 +66310,13 @@
       <c r="E61" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="97" t="b">
+      <c r="F61" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G61" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H61" s="98">
+      <c r="H61" s="99">
         <v>0.0</v>
       </c>
       <c r="I61" s="79">
@@ -66332,10 +66329,10 @@
       <c r="M61" s="61"/>
     </row>
     <row r="62">
-      <c r="A62" s="148">
+      <c r="A62" s="149">
         <v>60.0</v>
       </c>
-      <c r="B62" s="149" t="s">
+      <c r="B62" s="84" t="s">
         <v>301</v>
       </c>
       <c r="C62" s="150" t="s">
@@ -66347,13 +66344,13 @@
       <c r="E62" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="97" t="b">
+      <c r="F62" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G62" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H62" s="98">
+      <c r="H62" s="99">
         <v>0.0</v>
       </c>
       <c r="I62" s="79">
@@ -66366,10 +66363,10 @@
       <c r="M62" s="61"/>
     </row>
     <row r="63">
-      <c r="A63" s="148">
+      <c r="A63" s="149">
         <v>61.0</v>
       </c>
-      <c r="B63" s="149" t="s">
+      <c r="B63" s="84" t="s">
         <v>303</v>
       </c>
       <c r="C63" s="150" t="s">
@@ -66381,13 +66378,13 @@
       <c r="E63" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="97" t="b">
+      <c r="F63" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G63" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H63" s="98">
+      <c r="H63" s="99">
         <v>0.0</v>
       </c>
       <c r="I63" s="79">
@@ -66400,10 +66397,10 @@
       <c r="M63" s="61"/>
     </row>
     <row r="64">
-      <c r="A64" s="148">
+      <c r="A64" s="149">
         <v>62.0</v>
       </c>
-      <c r="B64" s="149" t="s">
+      <c r="B64" s="84" t="s">
         <v>305</v>
       </c>
       <c r="C64" s="150" t="s">
@@ -66415,13 +66412,13 @@
       <c r="E64" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="97" t="b">
+      <c r="F64" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G64" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H64" s="98">
+      <c r="H64" s="99">
         <v>0.0</v>
       </c>
       <c r="I64" s="79">
@@ -66434,10 +66431,10 @@
       <c r="M64" s="61"/>
     </row>
     <row r="65">
-      <c r="A65" s="148">
+      <c r="A65" s="149">
         <v>63.0</v>
       </c>
-      <c r="B65" s="149" t="s">
+      <c r="B65" s="84" t="s">
         <v>307</v>
       </c>
       <c r="C65" s="150" t="s">
@@ -66449,13 +66446,13 @@
       <c r="E65" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="97" t="b">
+      <c r="F65" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G65" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H65" s="98">
+      <c r="H65" s="99">
         <v>0.0</v>
       </c>
       <c r="I65" s="79">
@@ -66468,10 +66465,10 @@
       <c r="M65" s="61"/>
     </row>
     <row r="66">
-      <c r="A66" s="148">
+      <c r="A66" s="149">
         <v>64.0</v>
       </c>
-      <c r="B66" s="149" t="s">
+      <c r="B66" s="84" t="s">
         <v>309</v>
       </c>
       <c r="C66" s="150" t="s">
@@ -66483,13 +66480,13 @@
       <c r="E66" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="97" t="b">
+      <c r="F66" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G66" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="98">
+      <c r="H66" s="99">
         <v>0.0</v>
       </c>
       <c r="I66" s="79">
@@ -66502,10 +66499,10 @@
       <c r="M66" s="61"/>
     </row>
     <row r="67">
-      <c r="A67" s="148">
+      <c r="A67" s="149">
         <v>65.0</v>
       </c>
-      <c r="B67" s="149" t="s">
+      <c r="B67" s="84" t="s">
         <v>311</v>
       </c>
       <c r="C67" s="150" t="s">
@@ -66517,13 +66514,13 @@
       <c r="E67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F67" s="97" t="b">
+      <c r="F67" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G67" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H67" s="98">
+      <c r="H67" s="99">
         <v>0.0</v>
       </c>
       <c r="I67" s="79">
@@ -66536,10 +66533,10 @@
       <c r="M67" s="61"/>
     </row>
     <row r="68">
-      <c r="A68" s="148">
+      <c r="A68" s="149">
         <v>66.0</v>
       </c>
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="84" t="s">
         <v>313</v>
       </c>
       <c r="C68" s="150" t="s">
@@ -66551,13 +66548,13 @@
       <c r="E68" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="97" t="b">
+      <c r="F68" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G68" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="98">
+      <c r="H68" s="99">
         <v>0.0</v>
       </c>
       <c r="I68" s="79">
@@ -66570,10 +66567,10 @@
       <c r="M68" s="61"/>
     </row>
     <row r="69">
-      <c r="A69" s="148">
+      <c r="A69" s="149">
         <v>67.0</v>
       </c>
-      <c r="B69" s="149" t="s">
+      <c r="B69" s="84" t="s">
         <v>315</v>
       </c>
       <c r="C69" s="150" t="s">
@@ -66585,13 +66582,13 @@
       <c r="E69" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F69" s="97" t="b">
+      <c r="F69" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G69" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H69" s="98">
+      <c r="H69" s="99">
         <v>0.0</v>
       </c>
       <c r="I69" s="79">
@@ -66604,10 +66601,10 @@
       <c r="M69" s="61"/>
     </row>
     <row r="70">
-      <c r="A70" s="148">
+      <c r="A70" s="149">
         <v>68.0</v>
       </c>
-      <c r="B70" s="149" t="s">
+      <c r="B70" s="84" t="s">
         <v>317</v>
       </c>
       <c r="C70" s="150" t="s">
@@ -66619,13 +66616,13 @@
       <c r="E70" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F70" s="97" t="b">
+      <c r="F70" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G70" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="H70" s="98">
+      <c r="H70" s="99">
         <v>0.0</v>
       </c>
       <c r="I70" s="79">
@@ -66641,25 +66638,25 @@
       <c r="A71" s="152">
         <v>69.0</v>
       </c>
-      <c r="B71" s="153" t="s">
+      <c r="B71" s="143" t="s">
         <v>319</v>
       </c>
-      <c r="C71" s="154" t="s">
+      <c r="C71" s="153" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="155" t="s">
+      <c r="D71" s="154" t="s">
         <v>320</v>
       </c>
       <c r="E71" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="F71" s="111" t="b">
+      <c r="F71" s="112" t="b">
         <v>0</v>
       </c>
       <c r="G71" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="H71" s="112">
+      <c r="H71" s="113">
         <v>0.0</v>
       </c>
       <c r="I71" s="92">
@@ -66672,31 +66669,31 @@
       <c r="M71" s="61"/>
     </row>
     <row r="72">
-      <c r="A72" s="156">
+      <c r="A72" s="155">
         <v>70.0</v>
       </c>
-      <c r="B72" s="157" t="s">
+      <c r="B72" s="156" t="s">
         <v>321</v>
       </c>
-      <c r="C72" s="158" t="s">
+      <c r="C72" s="157" t="s">
         <v>322</v>
       </c>
-      <c r="D72" s="159" t="s">
+      <c r="D72" s="158" t="s">
         <v>323</v>
       </c>
       <c r="E72" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F72" s="97" t="b">
+      <c r="F72" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G72" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H72" s="98">
+      <c r="H72" s="99">
         <v>0.0</v>
       </c>
-      <c r="I72" s="99">
+      <c r="I72" s="100">
         <v>0.0</v>
       </c>
       <c r="J72" s="71" t="b">
@@ -66706,31 +66703,31 @@
       <c r="M72" s="61"/>
     </row>
     <row r="73">
-      <c r="A73" s="160">
+      <c r="A73" s="159">
         <v>71.0</v>
       </c>
-      <c r="B73" s="161" t="s">
+      <c r="B73" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C73" s="162" t="s">
+      <c r="C73" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D73" s="163" t="s">
+      <c r="D73" s="162" t="s">
         <v>323</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="97" t="b">
+      <c r="F73" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G73" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H73" s="98">
+      <c r="H73" s="99">
         <v>0.0</v>
       </c>
-      <c r="I73" s="99">
+      <c r="I73" s="100">
         <v>0.0</v>
       </c>
       <c r="J73" s="80" t="b">
@@ -66740,31 +66737,31 @@
       <c r="M73" s="61"/>
     </row>
     <row r="74">
-      <c r="A74" s="160">
+      <c r="A74" s="159">
         <v>72.0</v>
       </c>
-      <c r="B74" s="161" t="s">
+      <c r="B74" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C74" s="162" t="s">
+      <c r="C74" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D74" s="163" t="s">
+      <c r="D74" s="162" t="s">
         <v>323</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="97" t="b">
+      <c r="F74" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G74" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="98">
+      <c r="H74" s="99">
         <v>0.0</v>
       </c>
-      <c r="I74" s="99">
+      <c r="I74" s="100">
         <v>0.0</v>
       </c>
       <c r="J74" s="80" t="b">
@@ -66774,31 +66771,31 @@
       <c r="M74" s="61"/>
     </row>
     <row r="75">
-      <c r="A75" s="160">
+      <c r="A75" s="159">
         <v>73.0</v>
       </c>
-      <c r="B75" s="161" t="s">
+      <c r="B75" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C75" s="162" t="s">
+      <c r="C75" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D75" s="163" t="s">
+      <c r="D75" s="162" t="s">
         <v>323</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F75" s="97" t="b">
+      <c r="F75" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G75" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H75" s="98">
+      <c r="H75" s="99">
         <v>0.0</v>
       </c>
-      <c r="I75" s="99">
+      <c r="I75" s="100">
         <v>0.0</v>
       </c>
       <c r="J75" s="80" t="b">
@@ -66808,31 +66805,31 @@
       <c r="M75" s="61"/>
     </row>
     <row r="76">
-      <c r="A76" s="160">
+      <c r="A76" s="159">
         <v>74.0</v>
       </c>
-      <c r="B76" s="161" t="s">
+      <c r="B76" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C76" s="162" t="s">
+      <c r="C76" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D76" s="163" t="s">
+      <c r="D76" s="162" t="s">
         <v>323</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F76" s="97" t="b">
+      <c r="F76" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G76" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="98">
+      <c r="H76" s="99">
         <v>0.0</v>
       </c>
-      <c r="I76" s="99">
+      <c r="I76" s="100">
         <v>0.0</v>
       </c>
       <c r="J76" s="80" t="b">
@@ -66842,31 +66839,31 @@
       <c r="M76" s="61"/>
     </row>
     <row r="77">
-      <c r="A77" s="160">
+      <c r="A77" s="159">
         <v>75.0</v>
       </c>
-      <c r="B77" s="161" t="s">
+      <c r="B77" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C77" s="162" t="s">
+      <c r="C77" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D77" s="163" t="s">
+      <c r="D77" s="162" t="s">
         <v>323</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F77" s="97" t="b">
+      <c r="F77" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H77" s="98">
+      <c r="H77" s="99">
         <v>0.0</v>
       </c>
-      <c r="I77" s="99">
+      <c r="I77" s="100">
         <v>0.0</v>
       </c>
       <c r="J77" s="80" t="b">
@@ -66876,31 +66873,31 @@
       <c r="M77" s="61"/>
     </row>
     <row r="78">
-      <c r="A78" s="160">
+      <c r="A78" s="159">
         <v>76.0</v>
       </c>
-      <c r="B78" s="161" t="s">
+      <c r="B78" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C78" s="162" t="s">
+      <c r="C78" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D78" s="163" t="s">
+      <c r="D78" s="162" t="s">
         <v>323</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F78" s="97" t="b">
+      <c r="F78" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G78" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H78" s="98">
+      <c r="H78" s="99">
         <v>0.0</v>
       </c>
-      <c r="I78" s="99">
+      <c r="I78" s="100">
         <v>0.0</v>
       </c>
       <c r="J78" s="80" t="b">
@@ -66910,31 +66907,31 @@
       <c r="M78" s="61"/>
     </row>
     <row r="79">
-      <c r="A79" s="160">
+      <c r="A79" s="159">
         <v>77.0</v>
       </c>
-      <c r="B79" s="161" t="s">
+      <c r="B79" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C79" s="162" t="s">
+      <c r="C79" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="163" t="s">
+      <c r="D79" s="162" t="s">
         <v>323</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="97" t="b">
+      <c r="F79" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H79" s="98">
+      <c r="H79" s="99">
         <v>0.0</v>
       </c>
-      <c r="I79" s="99">
+      <c r="I79" s="100">
         <v>0.0</v>
       </c>
       <c r="J79" s="80" t="b">
@@ -66944,31 +66941,31 @@
       <c r="M79" s="61"/>
     </row>
     <row r="80">
-      <c r="A80" s="160">
+      <c r="A80" s="159">
         <v>78.0</v>
       </c>
-      <c r="B80" s="161" t="s">
+      <c r="B80" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C80" s="162" t="s">
+      <c r="C80" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D80" s="163" t="s">
+      <c r="D80" s="162" t="s">
         <v>323</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F80" s="97" t="b">
+      <c r="F80" s="98" t="b">
         <v>0</v>
       </c>
       <c r="G80" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="H80" s="98">
+      <c r="H80" s="99">
         <v>0.0</v>
       </c>
-      <c r="I80" s="99">
+      <c r="I80" s="100">
         <v>0.0</v>
       </c>
       <c r="J80" s="80" t="b">
@@ -66978,31 +66975,31 @@
       <c r="M80" s="61"/>
     </row>
     <row r="81">
-      <c r="A81" s="164">
+      <c r="A81" s="163">
         <v>79.0</v>
       </c>
-      <c r="B81" s="165" t="s">
+      <c r="B81" s="164" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="166" t="s">
+      <c r="C81" s="165" t="s">
         <v>322</v>
       </c>
-      <c r="D81" s="167" t="s">
+      <c r="D81" s="166" t="s">
         <v>323</v>
       </c>
       <c r="E81" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="111" t="b">
+      <c r="F81" s="112" t="b">
         <v>0</v>
       </c>
       <c r="G81" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="H81" s="112">
+      <c r="H81" s="113">
         <v>0.0</v>
       </c>
-      <c r="I81" s="113">
+      <c r="I81" s="114">
         <v>0.0</v>
       </c>
       <c r="J81" s="93" t="b">

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -34195,7 +34195,9 @@
       <c r="M52" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="N52" s="20"/>
+      <c r="N52" s="20">
+        <v>8.0</v>
+      </c>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
@@ -34248,7 +34250,9 @@
       <c r="M53" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N53" s="20"/>
+      <c r="N53" s="20">
+        <v>12.0</v>
+      </c>
       <c r="O53" s="23"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
@@ -34596,7 +34600,9 @@
       <c r="M62" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="20">
+        <v>8.0</v>
+      </c>
       <c r="O62" s="23"/>
       <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
@@ -34647,7 +34653,9 @@
       <c r="M63" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N63" s="20"/>
+      <c r="N63" s="20">
+        <v>12.0</v>
+      </c>
       <c r="O63" s="23"/>
       <c r="P63" s="23"/>
       <c r="Q63" s="23"/>
@@ -34994,7 +35002,9 @@
       <c r="M72" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="N72" s="20"/>
+      <c r="N72" s="20">
+        <v>8.0</v>
+      </c>
       <c r="O72" s="23"/>
       <c r="P72" s="23"/>
       <c r="Q72" s="23"/>
@@ -35045,7 +35055,9 @@
       <c r="M73" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N73" s="20"/>
+      <c r="N73" s="20">
+        <v>12.0</v>
+      </c>
       <c r="O73" s="23"/>
       <c r="P73" s="23"/>
       <c r="Q73" s="23"/>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="405">
   <si>
     <t>Number</t>
   </si>
@@ -161,7 +161,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>병원 기차</t>
+    <t>의무실</t>
   </si>
   <si>
     <t>Medic</t>
@@ -176,7 +176,7 @@
     <t>Quest Train</t>
   </si>
   <si>
-    <t>포탑 전용 평판 기차</t>
+    <t>포탑 전용 평판차</t>
   </si>
   <si>
     <t>Turret</t>
@@ -185,7 +185,7 @@
     <t>포탑만 장착할 수 있는 비어있는 기차칸이다.</t>
   </si>
   <si>
-    <t>부스터 전용 평판 기차</t>
+    <t>부스터 전용 평판차</t>
   </si>
   <si>
     <t>Booster</t>
@@ -206,46 +206,52 @@
     <t>Train_Attack_Delay</t>
   </si>
   <si>
-    <t>자동 포탑 파츠</t>
+    <t>자동 포탑</t>
   </si>
   <si>
     <t>자동 포탑 기차는 몰려오는 사막 약탈자를 공격합니다.\n공격력이 낮지만, 공격 범위는 넓습니다.</t>
   </si>
   <si>
-    <t>미사일 포탑 파츠</t>
+    <t>미사일 포탑</t>
   </si>
   <si>
     <t>미사일 포탑 기차는 타겟이 죽을 때까지, 미사일을 발사합니다.\n공격력이 높지만, 발사 속도는 느립니다.</t>
   </si>
   <si>
-    <t>레이저 포탑 파츠</t>
+    <t>레이저 포탑</t>
   </si>
   <si>
     <t>레이저 포탑 기차는 레이저를 지속적으로 발사합니다. 회전 속도와 발사 속도는 느리지만, 관통할 수 있습니다.</t>
   </si>
   <si>
-    <t>폭탄 풍선 파츠</t>
+    <t>폭탄 풍선 발사대</t>
   </si>
   <si>
     <t>폭탄 풍선 기차는 폭탄을 실은 풍선을 날립니다. 터지는 범위는 넓지만, 날아가는 속도는 느립니다.</t>
   </si>
   <si>
-    <t>화염 방사 파츠</t>
+    <t>화염 방사 포탑</t>
   </si>
   <si>
     <t>화염 방사 기차는 지속 피해를 줄 수 있는 포탑입니다.  하지만 타켓팅이 없으며, 장전하는 속도는 느립니다.</t>
   </si>
   <si>
-    <t>석궁 파츠</t>
+    <t>발리스타</t>
   </si>
   <si>
     <t>석궁 기차는 무겁지만 강력한 석궁입니다. 가끔은 불화살을 발사하기도 합니다.</t>
   </si>
   <si>
-    <t>요격 미사일 포탑 파츠</t>
+    <t>요격 미사일 포탑</t>
   </si>
   <si>
-    <t>플레어 파츠</t>
+    <t>요격 미사일 포탑은, 적의 총알만 요격 시킵니다.</t>
+  </si>
+  <si>
+    <t>플레어 발사대</t>
+  </si>
+  <si>
+    <t>플레어 포탑은 지정된 위치 없이 랜덤으로 발사하지만, 총알을 광범위하게 막을 수 있습니다.</t>
   </si>
   <si>
     <t>Booster_Part_Name</t>
@@ -263,22 +269,34 @@
     <t>Train_BoosterSpeedUP</t>
   </si>
   <si>
-    <t>프로펠러 엔진 파츠</t>
+    <t>프로펠러 엔진</t>
   </si>
   <si>
-    <t>위급 시, 부스터 사용, 기차 속도 증가</t>
+    <t>선풍기를 영감을 받고 만든 부스터다. 나아가는 속도가 느립니다.</t>
   </si>
   <si>
-    <t>1단 미사일 부스터 파츠</t>
+    <t>1단 미사일 부스터</t>
   </si>
   <si>
-    <t>2단 미사일 부스터 파츠</t>
+    <t>불법 개조하여 만든 부스터다. 프로펠러 엔진보다 빠르다.</t>
   </si>
   <si>
-    <t>3단 미사일 부스터 파츠</t>
+    <t>2단 미사일 부스터</t>
   </si>
   <si>
-    <t>제트 엔진 파츠</t>
+    <t>불법 개조하여 만든 부스터다. 속도는 그나마 빠르다.</t>
+  </si>
+  <si>
+    <t>3단 미사일 부스터</t>
+  </si>
+  <si>
+    <t>불법 개조하여 만든 부스터다. 속도는 빠르지만, 연비가 좋지않다.</t>
+  </si>
+  <si>
+    <t>제트 엔진</t>
+  </si>
+  <si>
+    <t>어디선가 가져온 비행기 엔진이다. 속도는 매우 빠른 대신, 연료를 많이 잡아먹는다.</t>
   </si>
   <si>
     <t>Monster_Name</t>
@@ -1266,7 +1284,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1337,12 +1355,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1483,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1844,9 +1856,6 @@
     <xf borderId="9" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -1871,28 +1880,28 @@
     <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1904,43 +1913,43 @@
     <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="15" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="13" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="13" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1979,6 +1988,48 @@
     <xf borderId="11" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -2003,12 +2054,6 @@
     <xf borderId="9" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="10" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -2019,42 +2064,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -34590,7 +34599,9 @@
       <c r="I62" s="20">
         <v>6000.0</v>
       </c>
-      <c r="J62" s="23"/>
+      <c r="J62" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="K62" s="20" t="s">
         <v>46</v>
       </c>
@@ -34643,7 +34654,9 @@
       <c r="I63" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="J63" s="23"/>
+      <c r="J63" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="K63" s="20" t="s">
         <v>46</v>
       </c>
@@ -34969,7 +34982,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" s="20">
         <v>30000.0</v>
@@ -34992,7 +35005,9 @@
       <c r="I72" s="20">
         <v>6000.0</v>
       </c>
-      <c r="J72" s="23"/>
+      <c r="J72" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="K72" s="20" t="s">
         <v>46</v>
       </c>
@@ -35022,7 +35037,7 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="20">
         <v>40000.0</v>
@@ -35045,7 +35060,9 @@
       <c r="I73" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="J73" s="23"/>
+      <c r="J73" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="K73" s="20" t="s">
         <v>46</v>
       </c>
@@ -35075,7 +35092,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -35112,7 +35129,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -35149,7 +35166,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -35186,7 +35203,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -35223,7 +35240,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -35260,7 +35277,7 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -35297,7 +35314,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -35334,7 +35351,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -60252,7 +60269,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>26</v>
@@ -60264,16 +60281,16 @@
         <v>28</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>35</v>
@@ -60302,7 +60319,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="20">
         <v>30000.0</v>
@@ -60332,7 +60349,7 @@
         <v>3000.0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>46</v>
@@ -60352,7 +60369,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="20">
         <v>40000.0</v>
@@ -60382,7 +60399,7 @@
         <v>9.9999999E7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>46</v>
@@ -60402,7 +60419,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P4" s="20">
         <v>4.0</v>
@@ -60413,7 +60430,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P5" s="23"/>
     </row>
@@ -60422,7 +60439,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P6" s="23"/>
     </row>
@@ -60431,7 +60448,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P7" s="23"/>
     </row>
@@ -60440,7 +60457,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P8" s="23"/>
     </row>
@@ -60449,7 +60466,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P9" s="23"/>
     </row>
@@ -60458,7 +60475,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="23"/>
     </row>
@@ -60467,7 +60484,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P11" s="23"/>
     </row>
@@ -60476,7 +60493,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="20">
         <v>30000.0</v>
@@ -60506,7 +60523,7 @@
         <v>3000.0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>46</v>
@@ -60526,7 +60543,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" s="20">
         <v>40000.0</v>
@@ -60556,7 +60573,7 @@
         <v>9.9999999E7</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>46</v>
@@ -60576,7 +60593,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="23"/>
     </row>
@@ -60585,7 +60602,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P15" s="23"/>
     </row>
@@ -60594,7 +60611,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P16" s="23"/>
     </row>
@@ -60603,7 +60620,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P17" s="23"/>
     </row>
@@ -60612,7 +60629,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P18" s="23"/>
     </row>
@@ -60621,7 +60638,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P19" s="23"/>
     </row>
@@ -60630,7 +60647,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P20" s="23"/>
     </row>
@@ -60639,7 +60656,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P21" s="23"/>
     </row>
@@ -60648,7 +60665,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C22" s="20">
         <v>30000.0</v>
@@ -60678,7 +60695,7 @@
         <v>3000.0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>46</v>
@@ -60698,7 +60715,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23" s="20">
         <v>40000.0</v>
@@ -60728,7 +60745,7 @@
         <v>9.9999999E7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>46</v>
@@ -60748,7 +60765,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P24" s="23"/>
     </row>
@@ -60757,7 +60774,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P25" s="23"/>
     </row>
@@ -60766,7 +60783,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P26" s="23"/>
     </row>
@@ -60775,7 +60792,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P27" s="23"/>
     </row>
@@ -60784,7 +60801,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P28" s="23"/>
     </row>
@@ -60793,7 +60810,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P29" s="23"/>
     </row>
@@ -60802,7 +60819,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P30" s="23"/>
     </row>
@@ -60811,7 +60828,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P31" s="23"/>
     </row>
@@ -60820,7 +60837,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C32" s="20">
         <v>30000.0</v>
@@ -60850,7 +60867,7 @@
         <v>3000.0</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>46</v>
@@ -60870,7 +60887,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C33" s="20">
         <v>40000.0</v>
@@ -60900,7 +60917,7 @@
         <v>9.9999999E7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>46</v>
@@ -60920,7 +60937,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P34" s="23"/>
     </row>
@@ -60929,7 +60946,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P35" s="23"/>
     </row>
@@ -60938,7 +60955,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P36" s="23"/>
     </row>
@@ -60947,7 +60964,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P37" s="23"/>
     </row>
@@ -60956,7 +60973,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P38" s="23"/>
     </row>
@@ -60965,7 +60982,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P39" s="23"/>
     </row>
@@ -60974,7 +60991,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P40" s="23"/>
     </row>
@@ -60983,7 +61000,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P41" s="23"/>
     </row>
@@ -60992,7 +61009,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C42" s="20">
         <v>30000.0</v>
@@ -61022,7 +61039,7 @@
         <v>3000.0</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>46</v>
@@ -61042,7 +61059,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C43" s="20">
         <v>40000.0</v>
@@ -61072,7 +61089,7 @@
         <v>9.9999999E7</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>46</v>
@@ -61092,7 +61109,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P44" s="23"/>
     </row>
@@ -61101,7 +61118,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P45" s="23"/>
     </row>
@@ -61110,7 +61127,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P46" s="23"/>
     </row>
@@ -61119,7 +61136,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P47" s="23"/>
     </row>
@@ -61128,7 +61145,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P48" s="23"/>
     </row>
@@ -61137,7 +61154,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P49" s="23"/>
     </row>
@@ -61146,7 +61163,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P50" s="23"/>
     </row>
@@ -61155,7 +61172,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P51" s="23"/>
     </row>
@@ -64036,37 +64053,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -64074,7 +64091,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -64083,7 +64100,7 @@
         <v>100.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
@@ -64092,13 +64109,13 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1">
         <v>100.0</v>
@@ -64112,7 +64129,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1">
         <v>120.0</v>
@@ -64121,7 +64138,7 @@
         <v>500.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1">
         <v>7.0</v>
@@ -64130,13 +64147,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K3" s="1">
         <v>200.0</v>
@@ -64150,7 +64167,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1">
         <v>60.0</v>
@@ -64159,7 +64176,7 @@
         <v>500.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -64168,13 +64185,13 @@
         <v>12.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K4" s="1">
         <v>400.0</v>
@@ -64188,7 +64205,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1">
         <v>250.0</v>
@@ -64197,7 +64214,7 @@
         <v>300.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1">
         <v>2.0</v>
@@ -64206,13 +64223,13 @@
         <v>15.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K5" s="1">
         <v>600.0</v>
@@ -64226,7 +64243,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>999999.0</v>
@@ -64235,7 +64252,7 @@
         <v>999999.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1">
         <v>15.0</v>
@@ -64244,13 +64261,13 @@
         <v>999.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K6" s="1">
         <v>9999999.0</v>
@@ -64313,28 +64330,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -64342,13 +64359,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -64368,13 +64385,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -64394,13 +64411,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -64420,13 +64437,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -64446,13 +64463,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -64472,13 +64489,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1">
         <v>400.0</v>
@@ -64498,13 +64515,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F8" s="1">
         <v>300.0</v>
@@ -64552,37 +64569,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -64590,7 +64607,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C2" s="53">
         <v>9.99999999E8</v>
@@ -64625,13 +64642,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C3" s="53">
         <v>150000.0</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1">
         <v>6.0</v>
@@ -64660,13 +64677,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C4" s="53">
         <v>180000.0</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1">
         <v>7.0</v>
@@ -64695,13 +64712,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1">
         <v>8.0</v>
@@ -64730,13 +64747,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1">
         <v>9.0</v>
@@ -64765,7 +64782,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1">
         <v>250000.0</v>
@@ -67832,46 +67849,46 @@
         <v>58</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N1" s="61" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="O1" s="58" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
@@ -67879,22 +67896,22 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H2" s="68" t="b">
         <v>0</v>
@@ -67924,22 +67941,22 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H3" s="82" t="b">
         <v>0</v>
@@ -67969,22 +67986,22 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C4" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="80" t="s">
+      <c r="G4" s="81" t="s">
         <v>191</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>185</v>
       </c>
       <c r="H4" s="82" t="b">
         <v>0</v>
@@ -68014,22 +68031,22 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H5" s="82" t="b">
         <v>0</v>
@@ -68059,22 +68076,22 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G6" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H6" s="82" t="b">
         <v>0</v>
@@ -68104,22 +68121,22 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G7" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H7" s="82" t="b">
         <v>0</v>
@@ -68149,22 +68166,22 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G8" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H8" s="82" t="b">
         <v>0</v>
@@ -68194,22 +68211,22 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H9" s="82" t="b">
         <v>0</v>
@@ -68239,22 +68256,22 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G10" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H10" s="82" t="b">
         <v>0</v>
@@ -68284,22 +68301,22 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H11" s="82" t="b">
         <v>0</v>
@@ -68329,22 +68346,22 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G12" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H12" s="82" t="b">
         <v>0</v>
@@ -68374,22 +68391,22 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H13" s="82" t="b">
         <v>0</v>
@@ -68419,22 +68436,22 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G14" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H14" s="82" t="b">
         <v>0</v>
@@ -68464,22 +68481,22 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H15" s="82" t="b">
         <v>0</v>
@@ -68509,22 +68526,22 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H16" s="82" t="b">
         <v>0</v>
@@ -68554,22 +68571,22 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G17" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H17" s="82" t="b">
         <v>0</v>
@@ -68599,22 +68616,22 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G18" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H18" s="82" t="b">
         <v>0</v>
@@ -68644,22 +68661,22 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E19" s="90" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H19" s="82" t="b">
         <v>0</v>
@@ -68689,22 +68706,22 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G20" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H20" s="82" t="b">
         <v>0</v>
@@ -68734,22 +68751,22 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E21" s="96" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H21" s="99" t="b">
         <v>0</v>
@@ -68779,22 +68796,22 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E22" s="109" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G22" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H22" s="82" t="b">
         <v>0</v>
@@ -68824,22 +68841,22 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="114" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D23" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E23" s="117" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G23" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H23" s="82" t="b">
         <v>0</v>
@@ -68869,22 +68886,22 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="115" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C24" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="116" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="116" t="s">
-        <v>246</v>
-      </c>
       <c r="E24" s="117" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G24" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H24" s="82" t="b">
         <v>0</v>
@@ -68914,22 +68931,22 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="114" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C25" s="114" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D25" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E25" s="117" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G25" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H25" s="82" t="b">
         <v>0</v>
@@ -68959,22 +68976,22 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="115" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E26" s="119" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G26" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H26" s="82" t="b">
         <v>0</v>
@@ -69004,22 +69021,22 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="114" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D27" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G27" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H27" s="82" t="b">
         <v>0</v>
@@ -69049,22 +69066,22 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="114" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D28" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E28" s="119" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G28" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H28" s="82" t="b">
         <v>0</v>
@@ -69094,22 +69111,22 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="114" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D29" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E29" s="119" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G29" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H29" s="82" t="b">
         <v>0</v>
@@ -69139,22 +69156,22 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="115" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D30" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E30" s="117" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G30" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H30" s="82" t="b">
         <v>0</v>
@@ -69184,22 +69201,22 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="114" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C31" s="114" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D31" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E31" s="119" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G31" s="81" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H31" s="82" t="b">
         <v>0</v>
@@ -69229,22 +69246,22 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C32" s="114" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D32" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E32" s="119" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G32" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H32" s="82" t="b">
         <v>0</v>
@@ -69274,22 +69291,22 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="114" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C33" s="115" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D33" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E33" s="117" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G33" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H33" s="82" t="b">
         <v>0</v>
@@ -69319,22 +69336,22 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="114" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D34" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E34" s="117" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G34" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H34" s="82" t="b">
         <v>0</v>
@@ -69364,22 +69381,22 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="114" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C35" s="115" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D35" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E35" s="117" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G35" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H35" s="82" t="b">
         <v>0</v>
@@ -69409,22 +69426,22 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="114" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C36" s="114" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E36" s="119" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G36" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H36" s="82" t="b">
         <v>0</v>
@@ -69454,22 +69471,22 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="115" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C37" s="118" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D37" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E37" s="117" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G37" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H37" s="82" t="b">
         <v>0</v>
@@ -69499,22 +69516,22 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="114" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C38" s="114" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E38" s="117" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G38" s="81" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H38" s="82" t="b">
         <v>0</v>
@@ -69543,23 +69560,23 @@
       <c r="A39" s="113">
         <v>37.0</v>
       </c>
-      <c r="B39" s="120" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="120" t="s">
-        <v>298</v>
+      <c r="B39" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>304</v>
       </c>
       <c r="D39" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E39" s="119" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G39" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H39" s="82" t="b">
         <v>0</v>
@@ -69589,22 +69606,22 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="114" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C40" s="114" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D40" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E40" s="117" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G40" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H40" s="82" t="b">
         <v>0</v>
@@ -69634,22 +69651,22 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="114" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C41" s="114" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D41" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E41" s="119" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G41" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H41" s="82" t="b">
         <v>0</v>
@@ -69679,22 +69696,22 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="114" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C42" s="115" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E42" s="119" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G42" s="81" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H42" s="82" t="b">
         <v>0</v>
@@ -69724,22 +69741,22 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="114" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C43" s="114" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D43" s="116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E43" s="119" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G43" s="81" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H43" s="82" t="b">
         <v>0</v>
@@ -69765,71 +69782,71 @@
       <c r="O43" s="75"/>
     </row>
     <row r="44">
-      <c r="A44" s="121">
+      <c r="A44" s="120">
         <v>42.0</v>
       </c>
-      <c r="B44" s="122" t="s">
-        <v>312</v>
-      </c>
-      <c r="C44" s="122" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="E44" s="124" t="s">
-        <v>314</v>
+      <c r="B44" s="121" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="121" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="123" t="s">
+        <v>320</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G44" s="98" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H44" s="99" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="125" t="b">
+      <c r="I44" s="124" t="b">
         <v>0</v>
       </c>
       <c r="J44" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="K44" s="126">
+      <c r="K44" s="125">
         <v>0.0</v>
       </c>
-      <c r="L44" s="127">
+      <c r="L44" s="126">
         <v>0.0</v>
       </c>
       <c r="M44" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="N44" s="128">
+      <c r="N44" s="127">
         <v>0.0</v>
       </c>
       <c r="O44" s="75"/>
     </row>
     <row r="45">
-      <c r="A45" s="129">
+      <c r="A45" s="128">
         <v>43.0</v>
       </c>
-      <c r="B45" s="130" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" s="131" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" s="132" t="s">
-        <v>317</v>
-      </c>
-      <c r="E45" s="133" t="s">
-        <v>318</v>
+      <c r="B45" s="129" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="E45" s="132" t="s">
+        <v>324</v>
       </c>
       <c r="F45" s="66" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G45" s="81" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H45" s="82" t="b">
         <v>0</v>
@@ -69855,26 +69872,26 @@
       <c r="O45" s="75"/>
     </row>
     <row r="46">
-      <c r="A46" s="134">
+      <c r="A46" s="133">
         <v>44.0</v>
       </c>
-      <c r="B46" s="131" t="s">
-        <v>320</v>
-      </c>
-      <c r="C46" s="131" t="s">
-        <v>321</v>
-      </c>
-      <c r="D46" s="132" t="s">
-        <v>317</v>
-      </c>
-      <c r="E46" s="135" t="s">
-        <v>322</v>
+      <c r="B46" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="D46" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="134" t="s">
+        <v>328</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G46" s="81" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H46" s="82" t="b">
         <v>0</v>
@@ -69900,26 +69917,26 @@
       <c r="O46" s="75"/>
     </row>
     <row r="47">
-      <c r="A47" s="134">
+      <c r="A47" s="133">
         <v>45.0</v>
       </c>
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" s="130" t="s">
+        <v>330</v>
+      </c>
+      <c r="D47" s="131" t="s">
         <v>323</v>
       </c>
-      <c r="C47" s="131" t="s">
-        <v>324</v>
-      </c>
-      <c r="D47" s="132" t="s">
-        <v>317</v>
-      </c>
-      <c r="E47" s="135" t="s">
+      <c r="E47" s="134" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="81" t="s">
         <v>325</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="81" t="s">
-        <v>319</v>
       </c>
       <c r="H47" s="82" t="b">
         <v>0</v>
@@ -69945,26 +69962,26 @@
       <c r="O47" s="75"/>
     </row>
     <row r="48">
-      <c r="A48" s="134">
+      <c r="A48" s="133">
         <v>46.0</v>
       </c>
-      <c r="B48" s="131" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" s="136" t="s">
-        <v>327</v>
-      </c>
-      <c r="D48" s="132" t="s">
-        <v>317</v>
-      </c>
-      <c r="E48" s="135" t="s">
-        <v>328</v>
+      <c r="B48" s="130" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" s="135" t="s">
+        <v>333</v>
+      </c>
+      <c r="D48" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" s="134" t="s">
+        <v>334</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G48" s="81" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H48" s="82" t="b">
         <v>0</v>
@@ -69990,26 +70007,26 @@
       <c r="O48" s="75"/>
     </row>
     <row r="49">
-      <c r="A49" s="134">
+      <c r="A49" s="133">
         <v>47.0</v>
       </c>
-      <c r="B49" s="131" t="s">
-        <v>329</v>
-      </c>
-      <c r="C49" s="131" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" s="132" t="s">
-        <v>317</v>
-      </c>
-      <c r="E49" s="135" t="s">
-        <v>331</v>
+      <c r="B49" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="130" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="E49" s="134" t="s">
+        <v>337</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G49" s="81" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H49" s="82" t="b">
         <v>0</v>
@@ -70035,26 +70052,26 @@
       <c r="O49" s="75"/>
     </row>
     <row r="50">
-      <c r="A50" s="121">
+      <c r="A50" s="120">
         <v>48.0</v>
       </c>
-      <c r="B50" s="137" t="s">
-        <v>332</v>
-      </c>
-      <c r="C50" s="137" t="s">
-        <v>333</v>
-      </c>
-      <c r="D50" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="E50" s="138" t="s">
-        <v>334</v>
+      <c r="B50" s="136" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="136" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" s="137" t="s">
+        <v>340</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G50" s="98" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H50" s="99" t="b">
         <v>0</v>
@@ -70065,7 +70082,7 @@
       <c r="J50" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="K50" s="139">
+      <c r="K50" s="138">
         <v>0.0</v>
       </c>
       <c r="L50" s="112">
@@ -70074,32 +70091,32 @@
       <c r="M50" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="N50" s="128">
+      <c r="N50" s="127">
         <v>0.0</v>
       </c>
       <c r="O50" s="75"/>
     </row>
     <row r="51">
-      <c r="A51" s="140">
+      <c r="A51" s="139">
         <v>49.0</v>
       </c>
-      <c r="B51" s="141" t="s">
-        <v>335</v>
-      </c>
-      <c r="C51" s="141" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" s="142" t="s">
+      <c r="B51" s="140" t="s">
+        <v>341</v>
+      </c>
+      <c r="C51" s="140" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="143" t="s">
-        <v>336</v>
+      <c r="E51" s="142" t="s">
+        <v>342</v>
       </c>
       <c r="F51" s="66" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H51" s="82" t="b">
         <v>0</v>
@@ -70113,7 +70130,7 @@
       <c r="K51" s="71">
         <v>59.0</v>
       </c>
-      <c r="L51" s="144">
+      <c r="L51" s="143">
         <v>0.0</v>
       </c>
       <c r="M51" s="73" t="b">
@@ -70125,26 +70142,26 @@
       <c r="O51" s="75"/>
     </row>
     <row r="52">
-      <c r="A52" s="145">
+      <c r="A52" s="144">
         <v>50.0</v>
       </c>
-      <c r="B52" s="146" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="146" t="s">
-        <v>338</v>
-      </c>
-      <c r="D52" s="147" t="s">
+      <c r="B52" s="145" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="145" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="148" t="s">
-        <v>338</v>
+      <c r="E52" s="147" t="s">
+        <v>344</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H52" s="82" t="b">
         <v>0</v>
@@ -70155,7 +70172,7 @@
       <c r="J52" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="K52" s="139">
+      <c r="K52" s="138">
         <v>0.0</v>
       </c>
       <c r="L52" s="112">
@@ -70170,26 +70187,26 @@
       <c r="O52" s="75"/>
     </row>
     <row r="53">
-      <c r="A53" s="145">
+      <c r="A53" s="144">
         <v>51.0</v>
       </c>
-      <c r="B53" s="146" t="s">
-        <v>339</v>
-      </c>
-      <c r="C53" s="146" t="s">
-        <v>340</v>
-      </c>
-      <c r="D53" s="147" t="s">
+      <c r="B53" s="145" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="145" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="148" t="s">
-        <v>340</v>
+      <c r="E53" s="147" t="s">
+        <v>346</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H53" s="82" t="b">
         <v>0</v>
@@ -70200,7 +70217,7 @@
       <c r="J53" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="K53" s="139">
+      <c r="K53" s="138">
         <v>0.0</v>
       </c>
       <c r="L53" s="112">
@@ -70215,26 +70232,26 @@
       <c r="O53" s="75"/>
     </row>
     <row r="54">
-      <c r="A54" s="145">
+      <c r="A54" s="144">
         <v>52.0</v>
       </c>
-      <c r="B54" s="146" t="s">
-        <v>341</v>
-      </c>
-      <c r="C54" s="146" t="s">
-        <v>342</v>
-      </c>
-      <c r="D54" s="147" t="s">
+      <c r="B54" s="145" t="s">
+        <v>347</v>
+      </c>
+      <c r="C54" s="145" t="s">
+        <v>348</v>
+      </c>
+      <c r="D54" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="148" t="s">
-        <v>342</v>
+      <c r="E54" s="147" t="s">
+        <v>348</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G54" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H54" s="82" t="b">
         <v>0</v>
@@ -70245,7 +70262,7 @@
       <c r="J54" s="87" t="b">
         <v>0</v>
       </c>
-      <c r="K54" s="139">
+      <c r="K54" s="138">
         <v>0.0</v>
       </c>
       <c r="L54" s="112">
@@ -70260,28 +70277,28 @@
       <c r="O54" s="75"/>
     </row>
     <row r="55">
-      <c r="A55" s="149">
+      <c r="A55" s="148">
         <v>53.0</v>
       </c>
-      <c r="B55" s="150" t="s">
-        <v>343</v>
-      </c>
-      <c r="C55" s="150" t="s">
-        <v>344</v>
-      </c>
-      <c r="D55" s="151" t="s">
+      <c r="B55" s="149" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="149" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="152" t="s">
-        <v>344</v>
+      <c r="E55" s="151" t="s">
+        <v>350</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="H55" s="153" t="b">
+        <v>191</v>
+      </c>
+      <c r="H55" s="152" t="b">
         <v>1</v>
       </c>
       <c r="I55" s="100" t="b">
@@ -70293,13 +70310,13 @@
       <c r="K55" s="102">
         <v>63.0</v>
       </c>
-      <c r="L55" s="127">
+      <c r="L55" s="126">
         <v>0.0</v>
       </c>
       <c r="M55" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="N55" s="128">
+      <c r="N55" s="127">
         <v>0.0</v>
       </c>
       <c r="O55" s="75"/>
@@ -70308,25 +70325,25 @@
       <c r="A56" s="71">
         <v>54.0</v>
       </c>
-      <c r="B56" s="154" t="s">
-        <v>345</v>
-      </c>
-      <c r="C56" s="155" t="s">
-        <v>346</v>
-      </c>
-      <c r="D56" s="156" t="s">
-        <v>347</v>
-      </c>
-      <c r="E56" s="157" t="s">
-        <v>348</v>
+      <c r="B56" s="153" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="154" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="155" t="s">
+        <v>353</v>
+      </c>
+      <c r="E56" s="156" t="s">
+        <v>354</v>
       </c>
       <c r="F56" s="66" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G56" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" s="158" t="b">
+        <v>231</v>
+      </c>
+      <c r="H56" s="157" t="b">
         <v>1</v>
       </c>
       <c r="I56" s="110" t="b">
@@ -70353,25 +70370,25 @@
       <c r="A57" s="85">
         <v>55.0</v>
       </c>
-      <c r="B57" s="159" t="s">
-        <v>349</v>
-      </c>
-      <c r="C57" s="159" t="s">
-        <v>350</v>
-      </c>
-      <c r="D57" s="160" t="s">
-        <v>347</v>
-      </c>
-      <c r="E57" s="161" t="s">
-        <v>351</v>
+      <c r="B57" s="158" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" s="158" t="s">
+        <v>356</v>
+      </c>
+      <c r="D57" s="159" t="s">
+        <v>353</v>
+      </c>
+      <c r="E57" s="160" t="s">
+        <v>357</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G57" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="H57" s="158" t="b">
+        <v>231</v>
+      </c>
+      <c r="H57" s="157" t="b">
         <v>1</v>
       </c>
       <c r="I57" s="110" t="b">
@@ -70398,28 +70415,28 @@
       <c r="A58" s="102">
         <v>56.0</v>
       </c>
-      <c r="B58" s="162" t="s">
-        <v>352</v>
-      </c>
-      <c r="C58" s="162" t="s">
+      <c r="B58" s="161" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="161" t="s">
+        <v>359</v>
+      </c>
+      <c r="D58" s="162" t="s">
         <v>353</v>
       </c>
-      <c r="D58" s="163" t="s">
-        <v>347</v>
-      </c>
-      <c r="E58" s="164" t="s">
-        <v>354</v>
+      <c r="E58" s="163" t="s">
+        <v>360</v>
       </c>
       <c r="F58" s="97" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G58" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="H58" s="153" t="b">
+        <v>231</v>
+      </c>
+      <c r="H58" s="152" t="b">
         <v>1</v>
       </c>
-      <c r="I58" s="125" t="b">
+      <c r="I58" s="124" t="b">
         <v>0</v>
       </c>
       <c r="J58" s="104" t="b">
@@ -70428,40 +70445,40 @@
       <c r="K58" s="94">
         <v>66.0</v>
       </c>
-      <c r="L58" s="127">
+      <c r="L58" s="126">
         <v>0.0</v>
       </c>
       <c r="M58" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="N58" s="128">
+      <c r="N58" s="127">
         <v>0.0</v>
       </c>
       <c r="O58" s="75"/>
     </row>
     <row r="59">
-      <c r="A59" s="165">
+      <c r="A59" s="164">
         <v>57.0</v>
       </c>
-      <c r="B59" s="166" t="s">
-        <v>355</v>
-      </c>
-      <c r="C59" s="166" t="s">
-        <v>356</v>
-      </c>
-      <c r="D59" s="167" t="s">
-        <v>357</v>
-      </c>
-      <c r="E59" s="168" t="s">
-        <v>358</v>
+      <c r="B59" s="165" t="s">
+        <v>361</v>
+      </c>
+      <c r="C59" s="165" t="s">
+        <v>362</v>
+      </c>
+      <c r="D59" s="166" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" s="167" t="s">
+        <v>364</v>
       </c>
       <c r="F59" s="66" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G59" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="H59" s="158" t="b">
+        <v>325</v>
+      </c>
+      <c r="H59" s="157" t="b">
         <v>1</v>
       </c>
       <c r="I59" s="110" t="b">
@@ -70485,26 +70502,26 @@
       <c r="O59" s="75"/>
     </row>
     <row r="60">
-      <c r="A60" s="169">
+      <c r="A60" s="168">
         <v>58.0</v>
       </c>
-      <c r="B60" s="170" t="s">
-        <v>359</v>
-      </c>
-      <c r="C60" s="170" t="s">
-        <v>360</v>
-      </c>
-      <c r="D60" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E60" s="172" t="s">
-        <v>361</v>
+      <c r="B60" s="169" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="169" t="s">
+        <v>366</v>
+      </c>
+      <c r="D60" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="171" t="s">
+        <v>367</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G60" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H60" s="82" t="b">
         <v>0</v>
@@ -70530,26 +70547,26 @@
       <c r="O60" s="75"/>
     </row>
     <row r="61">
-      <c r="A61" s="169">
+      <c r="A61" s="168">
         <v>59.0</v>
       </c>
-      <c r="B61" s="170" t="s">
-        <v>362</v>
-      </c>
-      <c r="C61" s="170" t="s">
+      <c r="B61" s="169" t="s">
+        <v>368</v>
+      </c>
+      <c r="C61" s="169" t="s">
+        <v>369</v>
+      </c>
+      <c r="D61" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="D61" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E61" s="172" t="s">
-        <v>364</v>
+      <c r="E61" s="171" t="s">
+        <v>370</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G61" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H61" s="82" t="b">
         <v>0</v>
@@ -70575,26 +70592,26 @@
       <c r="O61" s="75"/>
     </row>
     <row r="62">
-      <c r="A62" s="169">
+      <c r="A62" s="168">
         <v>60.0</v>
       </c>
-      <c r="B62" s="170" t="s">
-        <v>365</v>
-      </c>
-      <c r="C62" s="170" t="s">
-        <v>366</v>
-      </c>
-      <c r="D62" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E62" s="172" t="s">
-        <v>367</v>
+      <c r="B62" s="169" t="s">
+        <v>371</v>
+      </c>
+      <c r="C62" s="169" t="s">
+        <v>372</v>
+      </c>
+      <c r="D62" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E62" s="171" t="s">
+        <v>373</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G62" s="81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H62" s="82" t="b">
         <v>0</v>
@@ -70620,26 +70637,26 @@
       <c r="O62" s="75"/>
     </row>
     <row r="63">
-      <c r="A63" s="169">
+      <c r="A63" s="168">
         <v>61.0</v>
       </c>
-      <c r="B63" s="170" t="s">
-        <v>368</v>
-      </c>
-      <c r="C63" s="170" t="s">
-        <v>369</v>
-      </c>
-      <c r="D63" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E63" s="172" t="s">
-        <v>370</v>
+      <c r="B63" s="169" t="s">
+        <v>374</v>
+      </c>
+      <c r="C63" s="169" t="s">
+        <v>375</v>
+      </c>
+      <c r="D63" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E63" s="171" t="s">
+        <v>376</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G63" s="81" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H63" s="82" t="b">
         <v>0</v>
@@ -70665,26 +70682,26 @@
       <c r="O63" s="75"/>
     </row>
     <row r="64">
-      <c r="A64" s="169">
+      <c r="A64" s="168">
         <v>62.0</v>
       </c>
-      <c r="B64" s="170" t="s">
-        <v>371</v>
-      </c>
-      <c r="C64" s="170" t="s">
-        <v>372</v>
-      </c>
-      <c r="D64" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E64" s="172" t="s">
-        <v>373</v>
+      <c r="B64" s="169" t="s">
+        <v>377</v>
+      </c>
+      <c r="C64" s="169" t="s">
+        <v>378</v>
+      </c>
+      <c r="D64" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E64" s="171" t="s">
+        <v>379</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G64" s="81" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H64" s="82" t="b">
         <v>0</v>
@@ -70710,26 +70727,26 @@
       <c r="O64" s="75"/>
     </row>
     <row r="65">
-      <c r="A65" s="169">
+      <c r="A65" s="168">
         <v>63.0</v>
       </c>
-      <c r="B65" s="170" t="s">
-        <v>374</v>
-      </c>
-      <c r="C65" s="170" t="s">
-        <v>375</v>
-      </c>
-      <c r="D65" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E65" s="172" t="s">
-        <v>376</v>
+      <c r="B65" s="169" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" s="169" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E65" s="171" t="s">
+        <v>382</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G65" s="81" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H65" s="82" t="b">
         <v>0</v>
@@ -70755,26 +70772,26 @@
       <c r="O65" s="75"/>
     </row>
     <row r="66">
-      <c r="A66" s="169">
+      <c r="A66" s="168">
         <v>64.0</v>
       </c>
-      <c r="B66" s="170" t="s">
-        <v>377</v>
-      </c>
-      <c r="C66" s="170" t="s">
-        <v>378</v>
-      </c>
-      <c r="D66" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E66" s="172" t="s">
-        <v>379</v>
+      <c r="B66" s="169" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" s="169" t="s">
+        <v>384</v>
+      </c>
+      <c r="D66" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E66" s="171" t="s">
+        <v>385</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G66" s="81" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H66" s="82" t="b">
         <v>0</v>
@@ -70800,26 +70817,26 @@
       <c r="O66" s="75"/>
     </row>
     <row r="67">
-      <c r="A67" s="169">
+      <c r="A67" s="168">
         <v>65.0</v>
       </c>
-      <c r="B67" s="173" t="s">
-        <v>380</v>
-      </c>
-      <c r="C67" s="170" t="s">
-        <v>381</v>
-      </c>
-      <c r="D67" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E67" s="174" t="s">
-        <v>382</v>
+      <c r="B67" s="172" t="s">
+        <v>386</v>
+      </c>
+      <c r="C67" s="169" t="s">
+        <v>387</v>
+      </c>
+      <c r="D67" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E67" s="173" t="s">
+        <v>388</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G67" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H67" s="82" t="b">
         <v>0</v>
@@ -70845,26 +70862,26 @@
       <c r="O67" s="75"/>
     </row>
     <row r="68">
-      <c r="A68" s="169">
+      <c r="A68" s="168">
         <v>66.0</v>
       </c>
-      <c r="B68" s="170" t="s">
-        <v>383</v>
-      </c>
-      <c r="C68" s="170" t="s">
-        <v>384</v>
-      </c>
-      <c r="D68" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E68" s="172" t="s">
-        <v>385</v>
+      <c r="B68" s="169" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" s="169" t="s">
+        <v>390</v>
+      </c>
+      <c r="D68" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E68" s="171" t="s">
+        <v>391</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G68" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H68" s="82" t="b">
         <v>0</v>
@@ -70890,26 +70907,26 @@
       <c r="O68" s="75"/>
     </row>
     <row r="69">
-      <c r="A69" s="169">
+      <c r="A69" s="168">
         <v>67.0</v>
       </c>
-      <c r="B69" s="170" t="s">
-        <v>386</v>
-      </c>
-      <c r="C69" s="173" t="s">
-        <v>387</v>
-      </c>
-      <c r="D69" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E69" s="172" t="s">
-        <v>388</v>
+      <c r="B69" s="169" t="s">
+        <v>392</v>
+      </c>
+      <c r="C69" s="172" t="s">
+        <v>393</v>
+      </c>
+      <c r="D69" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E69" s="171" t="s">
+        <v>394</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G69" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H69" s="82" t="b">
         <v>0</v>
@@ -70935,26 +70952,26 @@
       <c r="O69" s="75"/>
     </row>
     <row r="70">
-      <c r="A70" s="169">
+      <c r="A70" s="168">
         <v>68.0</v>
       </c>
-      <c r="B70" s="170" t="s">
-        <v>389</v>
-      </c>
-      <c r="C70" s="170" t="s">
-        <v>390</v>
-      </c>
-      <c r="D70" s="171" t="s">
-        <v>357</v>
-      </c>
-      <c r="E70" s="172" t="s">
-        <v>391</v>
+      <c r="B70" s="169" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" s="169" t="s">
+        <v>396</v>
+      </c>
+      <c r="D70" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="E70" s="171" t="s">
+        <v>397</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G70" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H70" s="82" t="b">
         <v>0</v>
@@ -70980,37 +70997,37 @@
       <c r="O70" s="75"/>
     </row>
     <row r="71">
-      <c r="A71" s="175">
+      <c r="A71" s="174">
         <v>69.0</v>
       </c>
-      <c r="B71" s="176" t="s">
-        <v>392</v>
-      </c>
-      <c r="C71" s="176" t="s">
-        <v>393</v>
-      </c>
-      <c r="D71" s="177" t="s">
-        <v>357</v>
-      </c>
-      <c r="E71" s="178" t="s">
-        <v>394</v>
+      <c r="B71" s="175" t="s">
+        <v>398</v>
+      </c>
+      <c r="C71" s="175" t="s">
+        <v>399</v>
+      </c>
+      <c r="D71" s="176" t="s">
+        <v>363</v>
+      </c>
+      <c r="E71" s="177" t="s">
+        <v>400</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G71" s="98" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H71" s="99" t="b">
         <v>0</v>
       </c>
-      <c r="I71" s="125" t="b">
+      <c r="I71" s="124" t="b">
         <v>0</v>
       </c>
       <c r="J71" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="K71" s="126">
+      <c r="K71" s="125">
         <v>0.0</v>
       </c>
       <c r="L71" s="103">
@@ -71019,32 +71036,32 @@
       <c r="M71" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="N71" s="128">
+      <c r="N71" s="127">
         <v>0.0</v>
       </c>
       <c r="O71" s="75"/>
     </row>
     <row r="72">
-      <c r="A72" s="179">
+      <c r="A72" s="178">
         <v>70.0</v>
       </c>
-      <c r="B72" s="180" t="s">
-        <v>395</v>
-      </c>
-      <c r="C72" s="180" t="s">
-        <v>396</v>
-      </c>
-      <c r="D72" s="181" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="182" t="s">
-        <v>398</v>
+      <c r="B72" s="179" t="s">
+        <v>401</v>
+      </c>
+      <c r="C72" s="179" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" s="180" t="s">
+        <v>403</v>
+      </c>
+      <c r="E72" s="181" t="s">
+        <v>404</v>
       </c>
       <c r="F72" s="66" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G72" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H72" s="82" t="b">
         <v>0</v>
@@ -71070,26 +71087,26 @@
       <c r="O72" s="75"/>
     </row>
     <row r="73">
-      <c r="A73" s="183">
+      <c r="A73" s="182">
         <v>71.0</v>
       </c>
-      <c r="B73" s="184" t="s">
-        <v>395</v>
-      </c>
-      <c r="C73" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="D73" s="185" t="s">
-        <v>397</v>
-      </c>
-      <c r="E73" s="186" t="s">
-        <v>398</v>
+      <c r="B73" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C73" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D73" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E73" s="185" t="s">
+        <v>404</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G73" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H73" s="82" t="b">
         <v>0</v>
@@ -71115,26 +71132,26 @@
       <c r="O73" s="75"/>
     </row>
     <row r="74">
-      <c r="A74" s="183">
+      <c r="A74" s="182">
         <v>72.0</v>
       </c>
-      <c r="B74" s="184" t="s">
-        <v>395</v>
-      </c>
-      <c r="C74" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="D74" s="185" t="s">
-        <v>397</v>
-      </c>
-      <c r="E74" s="186" t="s">
-        <v>398</v>
+      <c r="B74" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C74" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D74" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E74" s="185" t="s">
+        <v>404</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G74" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H74" s="82" t="b">
         <v>0</v>
@@ -71160,26 +71177,26 @@
       <c r="O74" s="75"/>
     </row>
     <row r="75">
-      <c r="A75" s="183">
+      <c r="A75" s="182">
         <v>73.0</v>
       </c>
-      <c r="B75" s="184" t="s">
-        <v>395</v>
-      </c>
-      <c r="C75" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="D75" s="185" t="s">
-        <v>397</v>
-      </c>
-      <c r="E75" s="186" t="s">
-        <v>398</v>
+      <c r="B75" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D75" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E75" s="185" t="s">
+        <v>404</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G75" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H75" s="82" t="b">
         <v>0</v>
@@ -71205,26 +71222,26 @@
       <c r="O75" s="75"/>
     </row>
     <row r="76">
-      <c r="A76" s="183">
+      <c r="A76" s="182">
         <v>74.0</v>
       </c>
-      <c r="B76" s="184" t="s">
-        <v>395</v>
-      </c>
-      <c r="C76" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="D76" s="185" t="s">
-        <v>397</v>
-      </c>
-      <c r="E76" s="186" t="s">
-        <v>398</v>
+      <c r="B76" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C76" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D76" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E76" s="185" t="s">
+        <v>404</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G76" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H76" s="82" t="b">
         <v>0</v>
@@ -71250,26 +71267,26 @@
       <c r="O76" s="75"/>
     </row>
     <row r="77">
-      <c r="A77" s="183">
+      <c r="A77" s="182">
         <v>75.0</v>
       </c>
-      <c r="B77" s="184" t="s">
-        <v>395</v>
-      </c>
-      <c r="C77" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="D77" s="185" t="s">
-        <v>397</v>
-      </c>
-      <c r="E77" s="186" t="s">
-        <v>398</v>
+      <c r="B77" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C77" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D77" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E77" s="185" t="s">
+        <v>404</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G77" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H77" s="82" t="b">
         <v>0</v>
@@ -71295,26 +71312,26 @@
       <c r="O77" s="75"/>
     </row>
     <row r="78">
-      <c r="A78" s="183">
+      <c r="A78" s="182">
         <v>76.0</v>
       </c>
-      <c r="B78" s="184" t="s">
-        <v>395</v>
-      </c>
-      <c r="C78" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="D78" s="185" t="s">
-        <v>397</v>
-      </c>
-      <c r="E78" s="186" t="s">
-        <v>398</v>
+      <c r="B78" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C78" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D78" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E78" s="185" t="s">
+        <v>404</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G78" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H78" s="82" t="b">
         <v>0</v>
@@ -71340,26 +71357,26 @@
       <c r="O78" s="75"/>
     </row>
     <row r="79">
-      <c r="A79" s="183">
+      <c r="A79" s="182">
         <v>77.0</v>
       </c>
-      <c r="B79" s="184" t="s">
-        <v>395</v>
-      </c>
-      <c r="C79" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="D79" s="185" t="s">
-        <v>397</v>
-      </c>
-      <c r="E79" s="186" t="s">
-        <v>398</v>
+      <c r="B79" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C79" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E79" s="185" t="s">
+        <v>404</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G79" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H79" s="82" t="b">
         <v>0</v>
@@ -71385,26 +71402,26 @@
       <c r="O79" s="75"/>
     </row>
     <row r="80">
-      <c r="A80" s="183">
+      <c r="A80" s="182">
         <v>78.0</v>
       </c>
-      <c r="B80" s="184" t="s">
-        <v>395</v>
-      </c>
-      <c r="C80" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="D80" s="185" t="s">
-        <v>397</v>
-      </c>
-      <c r="E80" s="186" t="s">
-        <v>398</v>
+      <c r="B80" s="183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D80" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="E80" s="185" t="s">
+        <v>404</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G80" s="81" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H80" s="82" t="b">
         <v>0</v>
@@ -71430,46 +71447,46 @@
       <c r="O80" s="75"/>
     </row>
     <row r="81">
-      <c r="A81" s="187">
+      <c r="A81" s="186">
         <v>79.0</v>
       </c>
-      <c r="B81" s="188" t="s">
-        <v>395</v>
-      </c>
-      <c r="C81" s="188" t="s">
-        <v>396</v>
-      </c>
-      <c r="D81" s="189" t="s">
-        <v>397</v>
-      </c>
-      <c r="E81" s="190" t="s">
-        <v>398</v>
+      <c r="B81" s="187" t="s">
+        <v>401</v>
+      </c>
+      <c r="C81" s="187" t="s">
+        <v>402</v>
+      </c>
+      <c r="D81" s="188" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="189" t="s">
+        <v>404</v>
       </c>
       <c r="F81" s="97" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G81" s="98" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H81" s="99" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="125" t="b">
+      <c r="I81" s="124" t="b">
         <v>0</v>
       </c>
       <c r="J81" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="K81" s="126">
+      <c r="K81" s="125">
         <v>0.0</v>
       </c>
-      <c r="L81" s="127">
+      <c r="L81" s="126">
         <v>0.0</v>
       </c>
       <c r="M81" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="N81" s="128">
+      <c r="N81" s="127">
         <v>0.0</v>
       </c>
       <c r="O81" s="75"/>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -1088,7 +1088,7 @@
     <t>Random^Item^Box</t>
   </si>
   <si>
-    <t>랜덤 장착 아이템 박스</t>
+    <t>랜덤 아이템 박스</t>
   </si>
   <si>
     <t>랜덤 아이템 박스 ( 장착 아이템, 일반 아이템)</t>
@@ -1495,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1970,6 +1970,9 @@
     <xf borderId="7" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="7" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="8" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -64610,7 +64613,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="53">
-        <v>9.99999999E8</v>
+        <v>5000.0</v>
       </c>
       <c r="D2" s="54">
         <v>0.0</v>
@@ -64645,7 +64648,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="53">
-        <v>150000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>164</v>
@@ -70483,13 +70486,13 @@
       <c r="B57" s="157" t="s">
         <v>355</v>
       </c>
-      <c r="C57" s="157" t="s">
+      <c r="C57" s="158" t="s">
         <v>356</v>
       </c>
-      <c r="D57" s="158" t="s">
+      <c r="D57" s="159" t="s">
         <v>353</v>
       </c>
-      <c r="E57" s="159" t="s">
+      <c r="E57" s="160" t="s">
         <v>357</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -70527,16 +70530,16 @@
       <c r="A58" s="101">
         <v>56.0</v>
       </c>
-      <c r="B58" s="160" t="s">
+      <c r="B58" s="161" t="s">
         <v>358</v>
       </c>
-      <c r="C58" s="160" t="s">
+      <c r="C58" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="D58" s="161" t="s">
+      <c r="D58" s="162" t="s">
         <v>353</v>
       </c>
-      <c r="E58" s="162" t="s">
+      <c r="E58" s="163" t="s">
         <v>360</v>
       </c>
       <c r="F58" s="96" t="s">
@@ -70571,19 +70574,19 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="163">
+      <c r="A59" s="164">
         <v>57.0</v>
       </c>
-      <c r="B59" s="164" t="s">
+      <c r="B59" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="164" t="s">
+      <c r="C59" s="165" t="s">
         <v>362</v>
       </c>
-      <c r="D59" s="165" t="s">
+      <c r="D59" s="166" t="s">
         <v>363</v>
       </c>
-      <c r="E59" s="166" t="s">
+      <c r="E59" s="167" t="s">
         <v>364</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -70618,19 +70621,19 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="167">
+      <c r="A60" s="168">
         <v>58.0</v>
       </c>
-      <c r="B60" s="168" t="s">
+      <c r="B60" s="169" t="s">
         <v>365</v>
       </c>
-      <c r="C60" s="168" t="s">
+      <c r="C60" s="169" t="s">
         <v>366</v>
       </c>
-      <c r="D60" s="169" t="s">
+      <c r="D60" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E60" s="170" t="s">
+      <c r="E60" s="171" t="s">
         <v>367</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -70665,19 +70668,19 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="167">
+      <c r="A61" s="168">
         <v>59.0</v>
       </c>
-      <c r="B61" s="168" t="s">
+      <c r="B61" s="169" t="s">
         <v>368</v>
       </c>
-      <c r="C61" s="168" t="s">
+      <c r="C61" s="169" t="s">
         <v>369</v>
       </c>
-      <c r="D61" s="169" t="s">
+      <c r="D61" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E61" s="170" t="s">
+      <c r="E61" s="171" t="s">
         <v>370</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -70712,19 +70715,19 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="167">
+      <c r="A62" s="168">
         <v>60.0</v>
       </c>
-      <c r="B62" s="168" t="s">
+      <c r="B62" s="169" t="s">
         <v>371</v>
       </c>
-      <c r="C62" s="168" t="s">
+      <c r="C62" s="169" t="s">
         <v>372</v>
       </c>
-      <c r="D62" s="169" t="s">
+      <c r="D62" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E62" s="170" t="s">
+      <c r="E62" s="171" t="s">
         <v>373</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -70759,19 +70762,19 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="167">
+      <c r="A63" s="168">
         <v>61.0</v>
       </c>
-      <c r="B63" s="168" t="s">
+      <c r="B63" s="169" t="s">
         <v>374</v>
       </c>
-      <c r="C63" s="168" t="s">
+      <c r="C63" s="169" t="s">
         <v>375</v>
       </c>
-      <c r="D63" s="169" t="s">
+      <c r="D63" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E63" s="170" t="s">
+      <c r="E63" s="171" t="s">
         <v>376</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -70806,19 +70809,19 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="167">
+      <c r="A64" s="168">
         <v>62.0</v>
       </c>
-      <c r="B64" s="168" t="s">
+      <c r="B64" s="169" t="s">
         <v>377</v>
       </c>
-      <c r="C64" s="168" t="s">
+      <c r="C64" s="169" t="s">
         <v>378</v>
       </c>
-      <c r="D64" s="169" t="s">
+      <c r="D64" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E64" s="170" t="s">
+      <c r="E64" s="171" t="s">
         <v>379</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -70853,19 +70856,19 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="167">
+      <c r="A65" s="168">
         <v>63.0</v>
       </c>
-      <c r="B65" s="168" t="s">
+      <c r="B65" s="169" t="s">
         <v>380</v>
       </c>
-      <c r="C65" s="168" t="s">
+      <c r="C65" s="169" t="s">
         <v>381</v>
       </c>
-      <c r="D65" s="169" t="s">
+      <c r="D65" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E65" s="170" t="s">
+      <c r="E65" s="171" t="s">
         <v>382</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -70900,19 +70903,19 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="167">
+      <c r="A66" s="168">
         <v>64.0</v>
       </c>
-      <c r="B66" s="168" t="s">
+      <c r="B66" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="C66" s="168" t="s">
+      <c r="C66" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="D66" s="169" t="s">
+      <c r="D66" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E66" s="170" t="s">
+      <c r="E66" s="171" t="s">
         <v>385</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -70947,19 +70950,19 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="167">
+      <c r="A67" s="168">
         <v>65.0</v>
       </c>
-      <c r="B67" s="171" t="s">
+      <c r="B67" s="172" t="s">
         <v>386</v>
       </c>
-      <c r="C67" s="168" t="s">
+      <c r="C67" s="169" t="s">
         <v>387</v>
       </c>
-      <c r="D67" s="169" t="s">
+      <c r="D67" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E67" s="172" t="s">
+      <c r="E67" s="173" t="s">
         <v>388</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -70994,19 +70997,19 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="167">
+      <c r="A68" s="168">
         <v>66.0</v>
       </c>
-      <c r="B68" s="168" t="s">
+      <c r="B68" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="C68" s="168" t="s">
+      <c r="C68" s="169" t="s">
         <v>390</v>
       </c>
-      <c r="D68" s="169" t="s">
+      <c r="D68" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E68" s="170" t="s">
+      <c r="E68" s="171" t="s">
         <v>391</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -71041,19 +71044,19 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="167">
+      <c r="A69" s="168">
         <v>67.0</v>
       </c>
-      <c r="B69" s="168" t="s">
+      <c r="B69" s="169" t="s">
         <v>392</v>
       </c>
-      <c r="C69" s="171" t="s">
+      <c r="C69" s="172" t="s">
         <v>393</v>
       </c>
-      <c r="D69" s="169" t="s">
+      <c r="D69" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E69" s="170" t="s">
+      <c r="E69" s="171" t="s">
         <v>394</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -71088,19 +71091,19 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="167">
+      <c r="A70" s="168">
         <v>68.0</v>
       </c>
-      <c r="B70" s="168" t="s">
+      <c r="B70" s="169" t="s">
         <v>395</v>
       </c>
-      <c r="C70" s="168" t="s">
+      <c r="C70" s="169" t="s">
         <v>396</v>
       </c>
-      <c r="D70" s="169" t="s">
+      <c r="D70" s="170" t="s">
         <v>363</v>
       </c>
-      <c r="E70" s="170" t="s">
+      <c r="E70" s="171" t="s">
         <v>397</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -71135,19 +71138,19 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="173">
+      <c r="A71" s="174">
         <v>69.0</v>
       </c>
-      <c r="B71" s="174" t="s">
+      <c r="B71" s="175" t="s">
         <v>398</v>
       </c>
-      <c r="C71" s="174" t="s">
+      <c r="C71" s="175" t="s">
         <v>399</v>
       </c>
-      <c r="D71" s="175" t="s">
+      <c r="D71" s="176" t="s">
         <v>363</v>
       </c>
-      <c r="E71" s="176" t="s">
+      <c r="E71" s="177" t="s">
         <v>400</v>
       </c>
       <c r="F71" s="96" t="s">
@@ -71182,19 +71185,19 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="177">
+      <c r="A72" s="178">
         <v>70.0</v>
       </c>
-      <c r="B72" s="178" t="s">
+      <c r="B72" s="179" t="s">
         <v>401</v>
       </c>
-      <c r="C72" s="178" t="s">
+      <c r="C72" s="179" t="s">
         <v>402</v>
       </c>
-      <c r="D72" s="179" t="s">
+      <c r="D72" s="180" t="s">
         <v>403</v>
       </c>
-      <c r="E72" s="180" t="s">
+      <c r="E72" s="181" t="s">
         <v>404</v>
       </c>
       <c r="F72" s="66" t="s">
@@ -71229,19 +71232,19 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="181">
+      <c r="A73" s="182">
         <v>71.0</v>
       </c>
-      <c r="B73" s="182" t="s">
+      <c r="B73" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C73" s="182" t="s">
+      <c r="C73" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="D73" s="183" t="s">
+      <c r="D73" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="E73" s="184" t="s">
+      <c r="E73" s="185" t="s">
         <v>404</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -71276,19 +71279,19 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="181">
+      <c r="A74" s="182">
         <v>72.0</v>
       </c>
-      <c r="B74" s="182" t="s">
+      <c r="B74" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C74" s="182" t="s">
+      <c r="C74" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="D74" s="183" t="s">
+      <c r="D74" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="E74" s="184" t="s">
+      <c r="E74" s="185" t="s">
         <v>404</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -71323,19 +71326,19 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="181">
+      <c r="A75" s="182">
         <v>73.0</v>
       </c>
-      <c r="B75" s="182" t="s">
+      <c r="B75" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C75" s="182" t="s">
+      <c r="C75" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="D75" s="183" t="s">
+      <c r="D75" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="E75" s="184" t="s">
+      <c r="E75" s="185" t="s">
         <v>404</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -71370,19 +71373,19 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="181">
+      <c r="A76" s="182">
         <v>74.0</v>
       </c>
-      <c r="B76" s="182" t="s">
+      <c r="B76" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C76" s="182" t="s">
+      <c r="C76" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="D76" s="183" t="s">
+      <c r="D76" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="E76" s="184" t="s">
+      <c r="E76" s="185" t="s">
         <v>404</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -71417,19 +71420,19 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="181">
+      <c r="A77" s="182">
         <v>75.0</v>
       </c>
-      <c r="B77" s="182" t="s">
+      <c r="B77" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C77" s="182" t="s">
+      <c r="C77" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="D77" s="183" t="s">
+      <c r="D77" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="E77" s="184" t="s">
+      <c r="E77" s="185" t="s">
         <v>404</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -71464,19 +71467,19 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="181">
+      <c r="A78" s="182">
         <v>76.0</v>
       </c>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C78" s="182" t="s">
+      <c r="C78" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="D78" s="183" t="s">
+      <c r="D78" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="E78" s="184" t="s">
+      <c r="E78" s="185" t="s">
         <v>404</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -71511,19 +71514,19 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="181">
+      <c r="A79" s="182">
         <v>77.0</v>
       </c>
-      <c r="B79" s="182" t="s">
+      <c r="B79" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C79" s="182" t="s">
+      <c r="C79" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="D79" s="183" t="s">
+      <c r="D79" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="E79" s="184" t="s">
+      <c r="E79" s="185" t="s">
         <v>404</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -71558,19 +71561,19 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="181">
+      <c r="A80" s="182">
         <v>78.0</v>
       </c>
-      <c r="B80" s="182" t="s">
+      <c r="B80" s="183" t="s">
         <v>401</v>
       </c>
-      <c r="C80" s="182" t="s">
+      <c r="C80" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="D80" s="183" t="s">
+      <c r="D80" s="184" t="s">
         <v>403</v>
       </c>
-      <c r="E80" s="184" t="s">
+      <c r="E80" s="185" t="s">
         <v>404</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -71605,19 +71608,19 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="185">
+      <c r="A81" s="186">
         <v>79.0</v>
       </c>
-      <c r="B81" s="186" t="s">
+      <c r="B81" s="187" t="s">
         <v>401</v>
       </c>
-      <c r="C81" s="186" t="s">
+      <c r="C81" s="187" t="s">
         <v>402</v>
       </c>
-      <c r="D81" s="187" t="s">
+      <c r="D81" s="188" t="s">
         <v>403</v>
       </c>
-      <c r="E81" s="188" t="s">
+      <c r="E81" s="189" t="s">
         <v>404</v>
       </c>
       <c r="F81" s="96" t="s">
@@ -71652,3680 +71655,3680 @@
       </c>
     </row>
     <row r="82">
-      <c r="G82" s="189"/>
-      <c r="O82" s="189"/>
+      <c r="G82" s="190"/>
+      <c r="O82" s="190"/>
     </row>
     <row r="83">
-      <c r="G83" s="189"/>
-      <c r="O83" s="189"/>
+      <c r="G83" s="190"/>
+      <c r="O83" s="190"/>
     </row>
     <row r="84">
-      <c r="G84" s="189"/>
-      <c r="O84" s="189"/>
+      <c r="G84" s="190"/>
+      <c r="O84" s="190"/>
     </row>
     <row r="85">
-      <c r="G85" s="189"/>
-      <c r="O85" s="189"/>
+      <c r="G85" s="190"/>
+      <c r="O85" s="190"/>
     </row>
     <row r="86">
-      <c r="G86" s="189"/>
-      <c r="O86" s="189"/>
+      <c r="G86" s="190"/>
+      <c r="O86" s="190"/>
     </row>
     <row r="87">
-      <c r="G87" s="189"/>
-      <c r="O87" s="189"/>
+      <c r="G87" s="190"/>
+      <c r="O87" s="190"/>
     </row>
     <row r="88">
-      <c r="G88" s="189"/>
-      <c r="O88" s="189"/>
+      <c r="G88" s="190"/>
+      <c r="O88" s="190"/>
     </row>
     <row r="89">
-      <c r="G89" s="189"/>
-      <c r="O89" s="189"/>
+      <c r="G89" s="190"/>
+      <c r="O89" s="190"/>
     </row>
     <row r="90">
-      <c r="G90" s="189"/>
-      <c r="O90" s="189"/>
+      <c r="G90" s="190"/>
+      <c r="O90" s="190"/>
     </row>
     <row r="91">
-      <c r="G91" s="189"/>
-      <c r="O91" s="189"/>
+      <c r="G91" s="190"/>
+      <c r="O91" s="190"/>
     </row>
     <row r="92">
-      <c r="G92" s="189"/>
-      <c r="O92" s="189"/>
+      <c r="G92" s="190"/>
+      <c r="O92" s="190"/>
     </row>
     <row r="93">
-      <c r="G93" s="189"/>
-      <c r="O93" s="189"/>
+      <c r="G93" s="190"/>
+      <c r="O93" s="190"/>
     </row>
     <row r="94">
-      <c r="G94" s="189"/>
-      <c r="O94" s="189"/>
+      <c r="G94" s="190"/>
+      <c r="O94" s="190"/>
     </row>
     <row r="95">
-      <c r="G95" s="189"/>
-      <c r="O95" s="189"/>
+      <c r="G95" s="190"/>
+      <c r="O95" s="190"/>
     </row>
     <row r="96">
-      <c r="G96" s="189"/>
-      <c r="O96" s="189"/>
+      <c r="G96" s="190"/>
+      <c r="O96" s="190"/>
     </row>
     <row r="97">
-      <c r="G97" s="189"/>
-      <c r="O97" s="189"/>
+      <c r="G97" s="190"/>
+      <c r="O97" s="190"/>
     </row>
     <row r="98">
-      <c r="G98" s="189"/>
-      <c r="O98" s="189"/>
+      <c r="G98" s="190"/>
+      <c r="O98" s="190"/>
     </row>
     <row r="99">
-      <c r="G99" s="189"/>
-      <c r="O99" s="189"/>
+      <c r="G99" s="190"/>
+      <c r="O99" s="190"/>
     </row>
     <row r="100">
-      <c r="G100" s="189"/>
-      <c r="O100" s="189"/>
+      <c r="G100" s="190"/>
+      <c r="O100" s="190"/>
     </row>
     <row r="101">
-      <c r="G101" s="189"/>
-      <c r="O101" s="189"/>
+      <c r="G101" s="190"/>
+      <c r="O101" s="190"/>
     </row>
     <row r="102">
-      <c r="G102" s="189"/>
-      <c r="O102" s="189"/>
+      <c r="G102" s="190"/>
+      <c r="O102" s="190"/>
     </row>
     <row r="103">
-      <c r="G103" s="189"/>
-      <c r="O103" s="189"/>
+      <c r="G103" s="190"/>
+      <c r="O103" s="190"/>
     </row>
     <row r="104">
-      <c r="G104" s="189"/>
-      <c r="O104" s="189"/>
+      <c r="G104" s="190"/>
+      <c r="O104" s="190"/>
     </row>
     <row r="105">
-      <c r="G105" s="189"/>
-      <c r="O105" s="189"/>
+      <c r="G105" s="190"/>
+      <c r="O105" s="190"/>
     </row>
     <row r="106">
-      <c r="G106" s="189"/>
-      <c r="O106" s="189"/>
+      <c r="G106" s="190"/>
+      <c r="O106" s="190"/>
     </row>
     <row r="107">
-      <c r="G107" s="189"/>
-      <c r="O107" s="189"/>
+      <c r="G107" s="190"/>
+      <c r="O107" s="190"/>
     </row>
     <row r="108">
-      <c r="G108" s="189"/>
-      <c r="O108" s="189"/>
+      <c r="G108" s="190"/>
+      <c r="O108" s="190"/>
     </row>
     <row r="109">
-      <c r="G109" s="189"/>
-      <c r="O109" s="189"/>
+      <c r="G109" s="190"/>
+      <c r="O109" s="190"/>
     </row>
     <row r="110">
-      <c r="G110" s="189"/>
-      <c r="O110" s="189"/>
+      <c r="G110" s="190"/>
+      <c r="O110" s="190"/>
     </row>
     <row r="111">
-      <c r="G111" s="189"/>
-      <c r="O111" s="189"/>
+      <c r="G111" s="190"/>
+      <c r="O111" s="190"/>
     </row>
     <row r="112">
-      <c r="G112" s="189"/>
-      <c r="O112" s="189"/>
+      <c r="G112" s="190"/>
+      <c r="O112" s="190"/>
     </row>
     <row r="113">
-      <c r="G113" s="189"/>
-      <c r="O113" s="189"/>
+      <c r="G113" s="190"/>
+      <c r="O113" s="190"/>
     </row>
     <row r="114">
-      <c r="G114" s="189"/>
-      <c r="O114" s="189"/>
+      <c r="G114" s="190"/>
+      <c r="O114" s="190"/>
     </row>
     <row r="115">
-      <c r="G115" s="189"/>
-      <c r="O115" s="189"/>
+      <c r="G115" s="190"/>
+      <c r="O115" s="190"/>
     </row>
     <row r="116">
-      <c r="G116" s="189"/>
-      <c r="O116" s="189"/>
+      <c r="G116" s="190"/>
+      <c r="O116" s="190"/>
     </row>
     <row r="117">
-      <c r="G117" s="189"/>
-      <c r="O117" s="189"/>
+      <c r="G117" s="190"/>
+      <c r="O117" s="190"/>
     </row>
     <row r="118">
-      <c r="G118" s="189"/>
-      <c r="O118" s="189"/>
+      <c r="G118" s="190"/>
+      <c r="O118" s="190"/>
     </row>
     <row r="119">
-      <c r="G119" s="189"/>
-      <c r="O119" s="189"/>
+      <c r="G119" s="190"/>
+      <c r="O119" s="190"/>
     </row>
     <row r="120">
-      <c r="G120" s="189"/>
-      <c r="O120" s="189"/>
+      <c r="G120" s="190"/>
+      <c r="O120" s="190"/>
     </row>
     <row r="121">
-      <c r="G121" s="189"/>
-      <c r="O121" s="189"/>
+      <c r="G121" s="190"/>
+      <c r="O121" s="190"/>
     </row>
     <row r="122">
-      <c r="G122" s="189"/>
-      <c r="O122" s="189"/>
+      <c r="G122" s="190"/>
+      <c r="O122" s="190"/>
     </row>
     <row r="123">
-      <c r="G123" s="189"/>
-      <c r="O123" s="189"/>
+      <c r="G123" s="190"/>
+      <c r="O123" s="190"/>
     </row>
     <row r="124">
-      <c r="G124" s="189"/>
-      <c r="O124" s="189"/>
+      <c r="G124" s="190"/>
+      <c r="O124" s="190"/>
     </row>
     <row r="125">
-      <c r="G125" s="189"/>
-      <c r="O125" s="189"/>
+      <c r="G125" s="190"/>
+      <c r="O125" s="190"/>
     </row>
     <row r="126">
-      <c r="G126" s="189"/>
-      <c r="O126" s="189"/>
+      <c r="G126" s="190"/>
+      <c r="O126" s="190"/>
     </row>
     <row r="127">
-      <c r="G127" s="189"/>
-      <c r="O127" s="189"/>
+      <c r="G127" s="190"/>
+      <c r="O127" s="190"/>
     </row>
     <row r="128">
-      <c r="G128" s="189"/>
-      <c r="O128" s="189"/>
+      <c r="G128" s="190"/>
+      <c r="O128" s="190"/>
     </row>
     <row r="129">
-      <c r="G129" s="189"/>
-      <c r="O129" s="189"/>
+      <c r="G129" s="190"/>
+      <c r="O129" s="190"/>
     </row>
     <row r="130">
-      <c r="G130" s="189"/>
-      <c r="O130" s="189"/>
+      <c r="G130" s="190"/>
+      <c r="O130" s="190"/>
     </row>
     <row r="131">
-      <c r="G131" s="189"/>
-      <c r="O131" s="189"/>
+      <c r="G131" s="190"/>
+      <c r="O131" s="190"/>
     </row>
     <row r="132">
-      <c r="G132" s="189"/>
-      <c r="O132" s="189"/>
+      <c r="G132" s="190"/>
+      <c r="O132" s="190"/>
     </row>
     <row r="133">
-      <c r="G133" s="189"/>
-      <c r="O133" s="189"/>
+      <c r="G133" s="190"/>
+      <c r="O133" s="190"/>
     </row>
     <row r="134">
-      <c r="G134" s="189"/>
-      <c r="O134" s="189"/>
+      <c r="G134" s="190"/>
+      <c r="O134" s="190"/>
     </row>
     <row r="135">
-      <c r="G135" s="189"/>
-      <c r="O135" s="189"/>
+      <c r="G135" s="190"/>
+      <c r="O135" s="190"/>
     </row>
     <row r="136">
-      <c r="G136" s="189"/>
-      <c r="O136" s="189"/>
+      <c r="G136" s="190"/>
+      <c r="O136" s="190"/>
     </row>
     <row r="137">
-      <c r="G137" s="189"/>
-      <c r="O137" s="189"/>
+      <c r="G137" s="190"/>
+      <c r="O137" s="190"/>
     </row>
     <row r="138">
-      <c r="G138" s="189"/>
-      <c r="O138" s="189"/>
+      <c r="G138" s="190"/>
+      <c r="O138" s="190"/>
     </row>
     <row r="139">
-      <c r="G139" s="189"/>
-      <c r="O139" s="189"/>
+      <c r="G139" s="190"/>
+      <c r="O139" s="190"/>
     </row>
     <row r="140">
-      <c r="G140" s="189"/>
-      <c r="O140" s="189"/>
+      <c r="G140" s="190"/>
+      <c r="O140" s="190"/>
     </row>
     <row r="141">
-      <c r="G141" s="189"/>
-      <c r="O141" s="189"/>
+      <c r="G141" s="190"/>
+      <c r="O141" s="190"/>
     </row>
     <row r="142">
-      <c r="G142" s="189"/>
-      <c r="O142" s="189"/>
+      <c r="G142" s="190"/>
+      <c r="O142" s="190"/>
     </row>
     <row r="143">
-      <c r="G143" s="189"/>
-      <c r="O143" s="189"/>
+      <c r="G143" s="190"/>
+      <c r="O143" s="190"/>
     </row>
     <row r="144">
-      <c r="G144" s="189"/>
-      <c r="O144" s="189"/>
+      <c r="G144" s="190"/>
+      <c r="O144" s="190"/>
     </row>
     <row r="145">
-      <c r="G145" s="189"/>
-      <c r="O145" s="189"/>
+      <c r="G145" s="190"/>
+      <c r="O145" s="190"/>
     </row>
     <row r="146">
-      <c r="G146" s="189"/>
-      <c r="O146" s="189"/>
+      <c r="G146" s="190"/>
+      <c r="O146" s="190"/>
     </row>
     <row r="147">
-      <c r="G147" s="189"/>
-      <c r="O147" s="189"/>
+      <c r="G147" s="190"/>
+      <c r="O147" s="190"/>
     </row>
     <row r="148">
-      <c r="G148" s="189"/>
-      <c r="O148" s="189"/>
+      <c r="G148" s="190"/>
+      <c r="O148" s="190"/>
     </row>
     <row r="149">
-      <c r="G149" s="189"/>
-      <c r="O149" s="189"/>
+      <c r="G149" s="190"/>
+      <c r="O149" s="190"/>
     </row>
     <row r="150">
-      <c r="G150" s="189"/>
-      <c r="O150" s="189"/>
+      <c r="G150" s="190"/>
+      <c r="O150" s="190"/>
     </row>
     <row r="151">
-      <c r="G151" s="189"/>
-      <c r="O151" s="189"/>
+      <c r="G151" s="190"/>
+      <c r="O151" s="190"/>
     </row>
     <row r="152">
-      <c r="G152" s="189"/>
-      <c r="O152" s="189"/>
+      <c r="G152" s="190"/>
+      <c r="O152" s="190"/>
     </row>
     <row r="153">
-      <c r="G153" s="189"/>
-      <c r="O153" s="189"/>
+      <c r="G153" s="190"/>
+      <c r="O153" s="190"/>
     </row>
     <row r="154">
-      <c r="G154" s="189"/>
-      <c r="O154" s="189"/>
+      <c r="G154" s="190"/>
+      <c r="O154" s="190"/>
     </row>
     <row r="155">
-      <c r="G155" s="189"/>
-      <c r="O155" s="189"/>
+      <c r="G155" s="190"/>
+      <c r="O155" s="190"/>
     </row>
     <row r="156">
-      <c r="G156" s="189"/>
-      <c r="O156" s="189"/>
+      <c r="G156" s="190"/>
+      <c r="O156" s="190"/>
     </row>
     <row r="157">
-      <c r="G157" s="189"/>
-      <c r="O157" s="189"/>
+      <c r="G157" s="190"/>
+      <c r="O157" s="190"/>
     </row>
     <row r="158">
-      <c r="G158" s="189"/>
-      <c r="O158" s="189"/>
+      <c r="G158" s="190"/>
+      <c r="O158" s="190"/>
     </row>
     <row r="159">
-      <c r="G159" s="189"/>
-      <c r="O159" s="189"/>
+      <c r="G159" s="190"/>
+      <c r="O159" s="190"/>
     </row>
     <row r="160">
-      <c r="G160" s="189"/>
-      <c r="O160" s="189"/>
+      <c r="G160" s="190"/>
+      <c r="O160" s="190"/>
     </row>
     <row r="161">
-      <c r="G161" s="189"/>
-      <c r="O161" s="189"/>
+      <c r="G161" s="190"/>
+      <c r="O161" s="190"/>
     </row>
     <row r="162">
-      <c r="G162" s="189"/>
-      <c r="O162" s="189"/>
+      <c r="G162" s="190"/>
+      <c r="O162" s="190"/>
     </row>
     <row r="163">
-      <c r="G163" s="189"/>
-      <c r="O163" s="189"/>
+      <c r="G163" s="190"/>
+      <c r="O163" s="190"/>
     </row>
     <row r="164">
-      <c r="G164" s="189"/>
-      <c r="O164" s="189"/>
+      <c r="G164" s="190"/>
+      <c r="O164" s="190"/>
     </row>
     <row r="165">
-      <c r="G165" s="189"/>
-      <c r="O165" s="189"/>
+      <c r="G165" s="190"/>
+      <c r="O165" s="190"/>
     </row>
     <row r="166">
-      <c r="G166" s="189"/>
-      <c r="O166" s="189"/>
+      <c r="G166" s="190"/>
+      <c r="O166" s="190"/>
     </row>
     <row r="167">
-      <c r="G167" s="189"/>
-      <c r="O167" s="189"/>
+      <c r="G167" s="190"/>
+      <c r="O167" s="190"/>
     </row>
     <row r="168">
-      <c r="G168" s="189"/>
-      <c r="O168" s="189"/>
+      <c r="G168" s="190"/>
+      <c r="O168" s="190"/>
     </row>
     <row r="169">
-      <c r="G169" s="189"/>
-      <c r="O169" s="189"/>
+      <c r="G169" s="190"/>
+      <c r="O169" s="190"/>
     </row>
     <row r="170">
-      <c r="G170" s="189"/>
-      <c r="O170" s="189"/>
+      <c r="G170" s="190"/>
+      <c r="O170" s="190"/>
     </row>
     <row r="171">
-      <c r="G171" s="189"/>
-      <c r="O171" s="189"/>
+      <c r="G171" s="190"/>
+      <c r="O171" s="190"/>
     </row>
     <row r="172">
-      <c r="G172" s="189"/>
-      <c r="O172" s="189"/>
+      <c r="G172" s="190"/>
+      <c r="O172" s="190"/>
     </row>
     <row r="173">
-      <c r="G173" s="189"/>
-      <c r="O173" s="189"/>
+      <c r="G173" s="190"/>
+      <c r="O173" s="190"/>
     </row>
     <row r="174">
-      <c r="G174" s="189"/>
-      <c r="O174" s="189"/>
+      <c r="G174" s="190"/>
+      <c r="O174" s="190"/>
     </row>
     <row r="175">
-      <c r="G175" s="189"/>
-      <c r="O175" s="189"/>
+      <c r="G175" s="190"/>
+      <c r="O175" s="190"/>
     </row>
     <row r="176">
-      <c r="G176" s="189"/>
-      <c r="O176" s="189"/>
+      <c r="G176" s="190"/>
+      <c r="O176" s="190"/>
     </row>
     <row r="177">
-      <c r="G177" s="189"/>
-      <c r="O177" s="189"/>
+      <c r="G177" s="190"/>
+      <c r="O177" s="190"/>
     </row>
     <row r="178">
-      <c r="G178" s="189"/>
-      <c r="O178" s="189"/>
+      <c r="G178" s="190"/>
+      <c r="O178" s="190"/>
     </row>
     <row r="179">
-      <c r="G179" s="189"/>
-      <c r="O179" s="189"/>
+      <c r="G179" s="190"/>
+      <c r="O179" s="190"/>
     </row>
     <row r="180">
-      <c r="G180" s="189"/>
-      <c r="O180" s="189"/>
+      <c r="G180" s="190"/>
+      <c r="O180" s="190"/>
     </row>
     <row r="181">
-      <c r="G181" s="189"/>
-      <c r="O181" s="189"/>
+      <c r="G181" s="190"/>
+      <c r="O181" s="190"/>
     </row>
     <row r="182">
-      <c r="G182" s="189"/>
-      <c r="O182" s="189"/>
+      <c r="G182" s="190"/>
+      <c r="O182" s="190"/>
     </row>
     <row r="183">
-      <c r="G183" s="189"/>
-      <c r="O183" s="189"/>
+      <c r="G183" s="190"/>
+      <c r="O183" s="190"/>
     </row>
     <row r="184">
-      <c r="G184" s="189"/>
-      <c r="O184" s="189"/>
+      <c r="G184" s="190"/>
+      <c r="O184" s="190"/>
     </row>
     <row r="185">
-      <c r="G185" s="189"/>
-      <c r="O185" s="189"/>
+      <c r="G185" s="190"/>
+      <c r="O185" s="190"/>
     </row>
     <row r="186">
-      <c r="G186" s="189"/>
-      <c r="O186" s="189"/>
+      <c r="G186" s="190"/>
+      <c r="O186" s="190"/>
     </row>
     <row r="187">
-      <c r="G187" s="189"/>
-      <c r="O187" s="189"/>
+      <c r="G187" s="190"/>
+      <c r="O187" s="190"/>
     </row>
     <row r="188">
-      <c r="G188" s="189"/>
-      <c r="O188" s="189"/>
+      <c r="G188" s="190"/>
+      <c r="O188" s="190"/>
     </row>
     <row r="189">
-      <c r="G189" s="189"/>
-      <c r="O189" s="189"/>
+      <c r="G189" s="190"/>
+      <c r="O189" s="190"/>
     </row>
     <row r="190">
-      <c r="G190" s="189"/>
-      <c r="O190" s="189"/>
+      <c r="G190" s="190"/>
+      <c r="O190" s="190"/>
     </row>
     <row r="191">
-      <c r="G191" s="189"/>
-      <c r="O191" s="189"/>
+      <c r="G191" s="190"/>
+      <c r="O191" s="190"/>
     </row>
     <row r="192">
-      <c r="G192" s="189"/>
-      <c r="O192" s="189"/>
+      <c r="G192" s="190"/>
+      <c r="O192" s="190"/>
     </row>
     <row r="193">
-      <c r="G193" s="189"/>
-      <c r="O193" s="189"/>
+      <c r="G193" s="190"/>
+      <c r="O193" s="190"/>
     </row>
     <row r="194">
-      <c r="G194" s="189"/>
-      <c r="O194" s="189"/>
+      <c r="G194" s="190"/>
+      <c r="O194" s="190"/>
     </row>
     <row r="195">
-      <c r="G195" s="189"/>
-      <c r="O195" s="189"/>
+      <c r="G195" s="190"/>
+      <c r="O195" s="190"/>
     </row>
     <row r="196">
-      <c r="G196" s="189"/>
-      <c r="O196" s="189"/>
+      <c r="G196" s="190"/>
+      <c r="O196" s="190"/>
     </row>
     <row r="197">
-      <c r="G197" s="189"/>
-      <c r="O197" s="189"/>
+      <c r="G197" s="190"/>
+      <c r="O197" s="190"/>
     </row>
     <row r="198">
-      <c r="G198" s="189"/>
-      <c r="O198" s="189"/>
+      <c r="G198" s="190"/>
+      <c r="O198" s="190"/>
     </row>
     <row r="199">
-      <c r="G199" s="189"/>
-      <c r="O199" s="189"/>
+      <c r="G199" s="190"/>
+      <c r="O199" s="190"/>
     </row>
     <row r="200">
-      <c r="G200" s="189"/>
-      <c r="O200" s="189"/>
+      <c r="G200" s="190"/>
+      <c r="O200" s="190"/>
     </row>
     <row r="201">
-      <c r="G201" s="189"/>
-      <c r="O201" s="189"/>
+      <c r="G201" s="190"/>
+      <c r="O201" s="190"/>
     </row>
     <row r="202">
-      <c r="G202" s="189"/>
-      <c r="O202" s="189"/>
+      <c r="G202" s="190"/>
+      <c r="O202" s="190"/>
     </row>
     <row r="203">
-      <c r="G203" s="189"/>
-      <c r="O203" s="189"/>
+      <c r="G203" s="190"/>
+      <c r="O203" s="190"/>
     </row>
     <row r="204">
-      <c r="G204" s="189"/>
-      <c r="O204" s="189"/>
+      <c r="G204" s="190"/>
+      <c r="O204" s="190"/>
     </row>
     <row r="205">
-      <c r="G205" s="189"/>
-      <c r="O205" s="189"/>
+      <c r="G205" s="190"/>
+      <c r="O205" s="190"/>
     </row>
     <row r="206">
-      <c r="G206" s="189"/>
-      <c r="O206" s="189"/>
+      <c r="G206" s="190"/>
+      <c r="O206" s="190"/>
     </row>
     <row r="207">
-      <c r="G207" s="189"/>
-      <c r="O207" s="189"/>
+      <c r="G207" s="190"/>
+      <c r="O207" s="190"/>
     </row>
     <row r="208">
-      <c r="G208" s="189"/>
-      <c r="O208" s="189"/>
+      <c r="G208" s="190"/>
+      <c r="O208" s="190"/>
     </row>
     <row r="209">
-      <c r="G209" s="189"/>
-      <c r="O209" s="189"/>
+      <c r="G209" s="190"/>
+      <c r="O209" s="190"/>
     </row>
     <row r="210">
-      <c r="G210" s="189"/>
-      <c r="O210" s="189"/>
+      <c r="G210" s="190"/>
+      <c r="O210" s="190"/>
     </row>
     <row r="211">
-      <c r="G211" s="189"/>
-      <c r="O211" s="189"/>
+      <c r="G211" s="190"/>
+      <c r="O211" s="190"/>
     </row>
     <row r="212">
-      <c r="G212" s="189"/>
-      <c r="O212" s="189"/>
+      <c r="G212" s="190"/>
+      <c r="O212" s="190"/>
     </row>
     <row r="213">
-      <c r="G213" s="189"/>
-      <c r="O213" s="189"/>
+      <c r="G213" s="190"/>
+      <c r="O213" s="190"/>
     </row>
     <row r="214">
-      <c r="G214" s="189"/>
-      <c r="O214" s="189"/>
+      <c r="G214" s="190"/>
+      <c r="O214" s="190"/>
     </row>
     <row r="215">
-      <c r="G215" s="189"/>
-      <c r="O215" s="189"/>
+      <c r="G215" s="190"/>
+      <c r="O215" s="190"/>
     </row>
     <row r="216">
-      <c r="G216" s="189"/>
-      <c r="O216" s="189"/>
+      <c r="G216" s="190"/>
+      <c r="O216" s="190"/>
     </row>
     <row r="217">
-      <c r="G217" s="189"/>
-      <c r="O217" s="189"/>
+      <c r="G217" s="190"/>
+      <c r="O217" s="190"/>
     </row>
     <row r="218">
-      <c r="G218" s="189"/>
-      <c r="O218" s="189"/>
+      <c r="G218" s="190"/>
+      <c r="O218" s="190"/>
     </row>
     <row r="219">
-      <c r="G219" s="189"/>
-      <c r="O219" s="189"/>
+      <c r="G219" s="190"/>
+      <c r="O219" s="190"/>
     </row>
     <row r="220">
-      <c r="G220" s="189"/>
-      <c r="O220" s="189"/>
+      <c r="G220" s="190"/>
+      <c r="O220" s="190"/>
     </row>
     <row r="221">
-      <c r="G221" s="189"/>
-      <c r="O221" s="189"/>
+      <c r="G221" s="190"/>
+      <c r="O221" s="190"/>
     </row>
     <row r="222">
-      <c r="G222" s="189"/>
-      <c r="O222" s="189"/>
+      <c r="G222" s="190"/>
+      <c r="O222" s="190"/>
     </row>
     <row r="223">
-      <c r="G223" s="189"/>
-      <c r="O223" s="189"/>
+      <c r="G223" s="190"/>
+      <c r="O223" s="190"/>
     </row>
     <row r="224">
-      <c r="G224" s="189"/>
-      <c r="O224" s="189"/>
+      <c r="G224" s="190"/>
+      <c r="O224" s="190"/>
     </row>
     <row r="225">
-      <c r="G225" s="189"/>
-      <c r="O225" s="189"/>
+      <c r="G225" s="190"/>
+      <c r="O225" s="190"/>
     </row>
     <row r="226">
-      <c r="G226" s="189"/>
-      <c r="O226" s="189"/>
+      <c r="G226" s="190"/>
+      <c r="O226" s="190"/>
     </row>
     <row r="227">
-      <c r="G227" s="189"/>
-      <c r="O227" s="189"/>
+      <c r="G227" s="190"/>
+      <c r="O227" s="190"/>
     </row>
     <row r="228">
-      <c r="G228" s="189"/>
-      <c r="O228" s="189"/>
+      <c r="G228" s="190"/>
+      <c r="O228" s="190"/>
     </row>
     <row r="229">
-      <c r="G229" s="189"/>
-      <c r="O229" s="189"/>
+      <c r="G229" s="190"/>
+      <c r="O229" s="190"/>
     </row>
     <row r="230">
-      <c r="G230" s="189"/>
-      <c r="O230" s="189"/>
+      <c r="G230" s="190"/>
+      <c r="O230" s="190"/>
     </row>
     <row r="231">
-      <c r="G231" s="189"/>
-      <c r="O231" s="189"/>
+      <c r="G231" s="190"/>
+      <c r="O231" s="190"/>
     </row>
     <row r="232">
-      <c r="G232" s="189"/>
-      <c r="O232" s="189"/>
+      <c r="G232" s="190"/>
+      <c r="O232" s="190"/>
     </row>
     <row r="233">
-      <c r="G233" s="189"/>
-      <c r="O233" s="189"/>
+      <c r="G233" s="190"/>
+      <c r="O233" s="190"/>
     </row>
     <row r="234">
-      <c r="G234" s="189"/>
-      <c r="O234" s="189"/>
+      <c r="G234" s="190"/>
+      <c r="O234" s="190"/>
     </row>
     <row r="235">
-      <c r="G235" s="189"/>
-      <c r="O235" s="189"/>
+      <c r="G235" s="190"/>
+      <c r="O235" s="190"/>
     </row>
     <row r="236">
-      <c r="G236" s="189"/>
-      <c r="O236" s="189"/>
+      <c r="G236" s="190"/>
+      <c r="O236" s="190"/>
     </row>
     <row r="237">
-      <c r="G237" s="189"/>
-      <c r="O237" s="189"/>
+      <c r="G237" s="190"/>
+      <c r="O237" s="190"/>
     </row>
     <row r="238">
-      <c r="G238" s="189"/>
-      <c r="O238" s="189"/>
+      <c r="G238" s="190"/>
+      <c r="O238" s="190"/>
     </row>
     <row r="239">
-      <c r="G239" s="189"/>
-      <c r="O239" s="189"/>
+      <c r="G239" s="190"/>
+      <c r="O239" s="190"/>
     </row>
     <row r="240">
-      <c r="G240" s="189"/>
-      <c r="O240" s="189"/>
+      <c r="G240" s="190"/>
+      <c r="O240" s="190"/>
     </row>
     <row r="241">
-      <c r="G241" s="189"/>
-      <c r="O241" s="189"/>
+      <c r="G241" s="190"/>
+      <c r="O241" s="190"/>
     </row>
     <row r="242">
-      <c r="G242" s="189"/>
-      <c r="O242" s="189"/>
+      <c r="G242" s="190"/>
+      <c r="O242" s="190"/>
     </row>
     <row r="243">
-      <c r="G243" s="189"/>
-      <c r="O243" s="189"/>
+      <c r="G243" s="190"/>
+      <c r="O243" s="190"/>
     </row>
     <row r="244">
-      <c r="G244" s="189"/>
-      <c r="O244" s="189"/>
+      <c r="G244" s="190"/>
+      <c r="O244" s="190"/>
     </row>
     <row r="245">
-      <c r="G245" s="189"/>
-      <c r="O245" s="189"/>
+      <c r="G245" s="190"/>
+      <c r="O245" s="190"/>
     </row>
     <row r="246">
-      <c r="G246" s="189"/>
-      <c r="O246" s="189"/>
+      <c r="G246" s="190"/>
+      <c r="O246" s="190"/>
     </row>
     <row r="247">
-      <c r="G247" s="189"/>
-      <c r="O247" s="189"/>
+      <c r="G247" s="190"/>
+      <c r="O247" s="190"/>
     </row>
     <row r="248">
-      <c r="G248" s="189"/>
-      <c r="O248" s="189"/>
+      <c r="G248" s="190"/>
+      <c r="O248" s="190"/>
     </row>
     <row r="249">
-      <c r="G249" s="189"/>
-      <c r="O249" s="189"/>
+      <c r="G249" s="190"/>
+      <c r="O249" s="190"/>
     </row>
     <row r="250">
-      <c r="G250" s="189"/>
-      <c r="O250" s="189"/>
+      <c r="G250" s="190"/>
+      <c r="O250" s="190"/>
     </row>
     <row r="251">
-      <c r="G251" s="189"/>
-      <c r="O251" s="189"/>
+      <c r="G251" s="190"/>
+      <c r="O251" s="190"/>
     </row>
     <row r="252">
-      <c r="G252" s="189"/>
-      <c r="O252" s="189"/>
+      <c r="G252" s="190"/>
+      <c r="O252" s="190"/>
     </row>
     <row r="253">
-      <c r="G253" s="189"/>
-      <c r="O253" s="189"/>
+      <c r="G253" s="190"/>
+      <c r="O253" s="190"/>
     </row>
     <row r="254">
-      <c r="G254" s="189"/>
-      <c r="O254" s="189"/>
+      <c r="G254" s="190"/>
+      <c r="O254" s="190"/>
     </row>
     <row r="255">
-      <c r="G255" s="189"/>
-      <c r="O255" s="189"/>
+      <c r="G255" s="190"/>
+      <c r="O255" s="190"/>
     </row>
     <row r="256">
-      <c r="G256" s="189"/>
-      <c r="O256" s="189"/>
+      <c r="G256" s="190"/>
+      <c r="O256" s="190"/>
     </row>
     <row r="257">
-      <c r="G257" s="189"/>
-      <c r="O257" s="189"/>
+      <c r="G257" s="190"/>
+      <c r="O257" s="190"/>
     </row>
     <row r="258">
-      <c r="G258" s="189"/>
-      <c r="O258" s="189"/>
+      <c r="G258" s="190"/>
+      <c r="O258" s="190"/>
     </row>
     <row r="259">
-      <c r="G259" s="189"/>
-      <c r="O259" s="189"/>
+      <c r="G259" s="190"/>
+      <c r="O259" s="190"/>
     </row>
     <row r="260">
-      <c r="G260" s="189"/>
-      <c r="O260" s="189"/>
+      <c r="G260" s="190"/>
+      <c r="O260" s="190"/>
     </row>
     <row r="261">
-      <c r="G261" s="189"/>
-      <c r="O261" s="189"/>
+      <c r="G261" s="190"/>
+      <c r="O261" s="190"/>
     </row>
     <row r="262">
-      <c r="G262" s="189"/>
-      <c r="O262" s="189"/>
+      <c r="G262" s="190"/>
+      <c r="O262" s="190"/>
     </row>
     <row r="263">
-      <c r="G263" s="189"/>
-      <c r="O263" s="189"/>
+      <c r="G263" s="190"/>
+      <c r="O263" s="190"/>
     </row>
     <row r="264">
-      <c r="G264" s="189"/>
-      <c r="O264" s="189"/>
+      <c r="G264" s="190"/>
+      <c r="O264" s="190"/>
     </row>
     <row r="265">
-      <c r="G265" s="189"/>
-      <c r="O265" s="189"/>
+      <c r="G265" s="190"/>
+      <c r="O265" s="190"/>
     </row>
     <row r="266">
-      <c r="G266" s="189"/>
-      <c r="O266" s="189"/>
+      <c r="G266" s="190"/>
+      <c r="O266" s="190"/>
     </row>
     <row r="267">
-      <c r="G267" s="189"/>
-      <c r="O267" s="189"/>
+      <c r="G267" s="190"/>
+      <c r="O267" s="190"/>
     </row>
     <row r="268">
-      <c r="G268" s="189"/>
-      <c r="O268" s="189"/>
+      <c r="G268" s="190"/>
+      <c r="O268" s="190"/>
     </row>
     <row r="269">
-      <c r="G269" s="189"/>
-      <c r="O269" s="189"/>
+      <c r="G269" s="190"/>
+      <c r="O269" s="190"/>
     </row>
     <row r="270">
-      <c r="G270" s="189"/>
-      <c r="O270" s="189"/>
+      <c r="G270" s="190"/>
+      <c r="O270" s="190"/>
     </row>
     <row r="271">
-      <c r="G271" s="189"/>
-      <c r="O271" s="189"/>
+      <c r="G271" s="190"/>
+      <c r="O271" s="190"/>
     </row>
     <row r="272">
-      <c r="G272" s="189"/>
-      <c r="O272" s="189"/>
+      <c r="G272" s="190"/>
+      <c r="O272" s="190"/>
     </row>
     <row r="273">
-      <c r="G273" s="189"/>
-      <c r="O273" s="189"/>
+      <c r="G273" s="190"/>
+      <c r="O273" s="190"/>
     </row>
     <row r="274">
-      <c r="G274" s="189"/>
-      <c r="O274" s="189"/>
+      <c r="G274" s="190"/>
+      <c r="O274" s="190"/>
     </row>
     <row r="275">
-      <c r="G275" s="189"/>
-      <c r="O275" s="189"/>
+      <c r="G275" s="190"/>
+      <c r="O275" s="190"/>
     </row>
     <row r="276">
-      <c r="G276" s="189"/>
-      <c r="O276" s="189"/>
+      <c r="G276" s="190"/>
+      <c r="O276" s="190"/>
     </row>
     <row r="277">
-      <c r="G277" s="189"/>
-      <c r="O277" s="189"/>
+      <c r="G277" s="190"/>
+      <c r="O277" s="190"/>
     </row>
     <row r="278">
-      <c r="G278" s="189"/>
-      <c r="O278" s="189"/>
+      <c r="G278" s="190"/>
+      <c r="O278" s="190"/>
     </row>
     <row r="279">
-      <c r="G279" s="189"/>
-      <c r="O279" s="189"/>
+      <c r="G279" s="190"/>
+      <c r="O279" s="190"/>
     </row>
     <row r="280">
-      <c r="G280" s="189"/>
-      <c r="O280" s="189"/>
+      <c r="G280" s="190"/>
+      <c r="O280" s="190"/>
     </row>
     <row r="281">
-      <c r="G281" s="189"/>
-      <c r="O281" s="189"/>
+      <c r="G281" s="190"/>
+      <c r="O281" s="190"/>
     </row>
     <row r="282">
-      <c r="G282" s="189"/>
-      <c r="O282" s="189"/>
+      <c r="G282" s="190"/>
+      <c r="O282" s="190"/>
     </row>
     <row r="283">
-      <c r="G283" s="189"/>
-      <c r="O283" s="189"/>
+      <c r="G283" s="190"/>
+      <c r="O283" s="190"/>
     </row>
     <row r="284">
-      <c r="G284" s="189"/>
-      <c r="O284" s="189"/>
+      <c r="G284" s="190"/>
+      <c r="O284" s="190"/>
     </row>
     <row r="285">
-      <c r="G285" s="189"/>
-      <c r="O285" s="189"/>
+      <c r="G285" s="190"/>
+      <c r="O285" s="190"/>
     </row>
     <row r="286">
-      <c r="G286" s="189"/>
-      <c r="O286" s="189"/>
+      <c r="G286" s="190"/>
+      <c r="O286" s="190"/>
     </row>
     <row r="287">
-      <c r="G287" s="189"/>
-      <c r="O287" s="189"/>
+      <c r="G287" s="190"/>
+      <c r="O287" s="190"/>
     </row>
     <row r="288">
-      <c r="G288" s="189"/>
-      <c r="O288" s="189"/>
+      <c r="G288" s="190"/>
+      <c r="O288" s="190"/>
     </row>
     <row r="289">
-      <c r="G289" s="189"/>
-      <c r="O289" s="189"/>
+      <c r="G289" s="190"/>
+      <c r="O289" s="190"/>
     </row>
     <row r="290">
-      <c r="G290" s="189"/>
-      <c r="O290" s="189"/>
+      <c r="G290" s="190"/>
+      <c r="O290" s="190"/>
     </row>
     <row r="291">
-      <c r="G291" s="189"/>
-      <c r="O291" s="189"/>
+      <c r="G291" s="190"/>
+      <c r="O291" s="190"/>
     </row>
     <row r="292">
-      <c r="G292" s="189"/>
-      <c r="O292" s="189"/>
+      <c r="G292" s="190"/>
+      <c r="O292" s="190"/>
     </row>
     <row r="293">
-      <c r="G293" s="189"/>
-      <c r="O293" s="189"/>
+      <c r="G293" s="190"/>
+      <c r="O293" s="190"/>
     </row>
     <row r="294">
-      <c r="G294" s="189"/>
-      <c r="O294" s="189"/>
+      <c r="G294" s="190"/>
+      <c r="O294" s="190"/>
     </row>
     <row r="295">
-      <c r="G295" s="189"/>
-      <c r="O295" s="189"/>
+      <c r="G295" s="190"/>
+      <c r="O295" s="190"/>
     </row>
     <row r="296">
-      <c r="G296" s="189"/>
-      <c r="O296" s="189"/>
+      <c r="G296" s="190"/>
+      <c r="O296" s="190"/>
     </row>
     <row r="297">
-      <c r="G297" s="189"/>
-      <c r="O297" s="189"/>
+      <c r="G297" s="190"/>
+      <c r="O297" s="190"/>
     </row>
     <row r="298">
-      <c r="G298" s="189"/>
-      <c r="O298" s="189"/>
+      <c r="G298" s="190"/>
+      <c r="O298" s="190"/>
     </row>
     <row r="299">
-      <c r="G299" s="189"/>
-      <c r="O299" s="189"/>
+      <c r="G299" s="190"/>
+      <c r="O299" s="190"/>
     </row>
     <row r="300">
-      <c r="G300" s="189"/>
-      <c r="O300" s="189"/>
+      <c r="G300" s="190"/>
+      <c r="O300" s="190"/>
     </row>
     <row r="301">
-      <c r="G301" s="189"/>
-      <c r="O301" s="189"/>
+      <c r="G301" s="190"/>
+      <c r="O301" s="190"/>
     </row>
     <row r="302">
-      <c r="G302" s="189"/>
-      <c r="O302" s="189"/>
+      <c r="G302" s="190"/>
+      <c r="O302" s="190"/>
     </row>
     <row r="303">
-      <c r="G303" s="189"/>
-      <c r="O303" s="189"/>
+      <c r="G303" s="190"/>
+      <c r="O303" s="190"/>
     </row>
     <row r="304">
-      <c r="G304" s="189"/>
-      <c r="O304" s="189"/>
+      <c r="G304" s="190"/>
+      <c r="O304" s="190"/>
     </row>
     <row r="305">
-      <c r="G305" s="189"/>
-      <c r="O305" s="189"/>
+      <c r="G305" s="190"/>
+      <c r="O305" s="190"/>
     </row>
     <row r="306">
-      <c r="G306" s="189"/>
-      <c r="O306" s="189"/>
+      <c r="G306" s="190"/>
+      <c r="O306" s="190"/>
     </row>
     <row r="307">
-      <c r="G307" s="189"/>
-      <c r="O307" s="189"/>
+      <c r="G307" s="190"/>
+      <c r="O307" s="190"/>
     </row>
     <row r="308">
-      <c r="G308" s="189"/>
-      <c r="O308" s="189"/>
+      <c r="G308" s="190"/>
+      <c r="O308" s="190"/>
     </row>
     <row r="309">
-      <c r="G309" s="189"/>
-      <c r="O309" s="189"/>
+      <c r="G309" s="190"/>
+      <c r="O309" s="190"/>
     </row>
     <row r="310">
-      <c r="G310" s="189"/>
-      <c r="O310" s="189"/>
+      <c r="G310" s="190"/>
+      <c r="O310" s="190"/>
     </row>
     <row r="311">
-      <c r="G311" s="189"/>
-      <c r="O311" s="189"/>
+      <c r="G311" s="190"/>
+      <c r="O311" s="190"/>
     </row>
     <row r="312">
-      <c r="G312" s="189"/>
-      <c r="O312" s="189"/>
+      <c r="G312" s="190"/>
+      <c r="O312" s="190"/>
     </row>
     <row r="313">
-      <c r="G313" s="189"/>
-      <c r="O313" s="189"/>
+      <c r="G313" s="190"/>
+      <c r="O313" s="190"/>
     </row>
     <row r="314">
-      <c r="G314" s="189"/>
-      <c r="O314" s="189"/>
+      <c r="G314" s="190"/>
+      <c r="O314" s="190"/>
     </row>
     <row r="315">
-      <c r="G315" s="189"/>
-      <c r="O315" s="189"/>
+      <c r="G315" s="190"/>
+      <c r="O315" s="190"/>
     </row>
     <row r="316">
-      <c r="G316" s="189"/>
-      <c r="O316" s="189"/>
+      <c r="G316" s="190"/>
+      <c r="O316" s="190"/>
     </row>
     <row r="317">
-      <c r="G317" s="189"/>
-      <c r="O317" s="189"/>
+      <c r="G317" s="190"/>
+      <c r="O317" s="190"/>
     </row>
     <row r="318">
-      <c r="G318" s="189"/>
-      <c r="O318" s="189"/>
+      <c r="G318" s="190"/>
+      <c r="O318" s="190"/>
     </row>
     <row r="319">
-      <c r="G319" s="189"/>
-      <c r="O319" s="189"/>
+      <c r="G319" s="190"/>
+      <c r="O319" s="190"/>
     </row>
     <row r="320">
-      <c r="G320" s="189"/>
-      <c r="O320" s="189"/>
+      <c r="G320" s="190"/>
+      <c r="O320" s="190"/>
     </row>
     <row r="321">
-      <c r="G321" s="189"/>
-      <c r="O321" s="189"/>
+      <c r="G321" s="190"/>
+      <c r="O321" s="190"/>
     </row>
     <row r="322">
-      <c r="G322" s="189"/>
-      <c r="O322" s="189"/>
+      <c r="G322" s="190"/>
+      <c r="O322" s="190"/>
     </row>
     <row r="323">
-      <c r="G323" s="189"/>
-      <c r="O323" s="189"/>
+      <c r="G323" s="190"/>
+      <c r="O323" s="190"/>
     </row>
     <row r="324">
-      <c r="G324" s="189"/>
-      <c r="O324" s="189"/>
+      <c r="G324" s="190"/>
+      <c r="O324" s="190"/>
     </row>
     <row r="325">
-      <c r="G325" s="189"/>
-      <c r="O325" s="189"/>
+      <c r="G325" s="190"/>
+      <c r="O325" s="190"/>
     </row>
     <row r="326">
-      <c r="G326" s="189"/>
-      <c r="O326" s="189"/>
+      <c r="G326" s="190"/>
+      <c r="O326" s="190"/>
     </row>
     <row r="327">
-      <c r="G327" s="189"/>
-      <c r="O327" s="189"/>
+      <c r="G327" s="190"/>
+      <c r="O327" s="190"/>
     </row>
     <row r="328">
-      <c r="G328" s="189"/>
-      <c r="O328" s="189"/>
+      <c r="G328" s="190"/>
+      <c r="O328" s="190"/>
     </row>
     <row r="329">
-      <c r="G329" s="189"/>
-      <c r="O329" s="189"/>
+      <c r="G329" s="190"/>
+      <c r="O329" s="190"/>
     </row>
     <row r="330">
-      <c r="G330" s="189"/>
-      <c r="O330" s="189"/>
+      <c r="G330" s="190"/>
+      <c r="O330" s="190"/>
     </row>
     <row r="331">
-      <c r="G331" s="189"/>
-      <c r="O331" s="189"/>
+      <c r="G331" s="190"/>
+      <c r="O331" s="190"/>
     </row>
     <row r="332">
-      <c r="G332" s="189"/>
-      <c r="O332" s="189"/>
+      <c r="G332" s="190"/>
+      <c r="O332" s="190"/>
     </row>
     <row r="333">
-      <c r="G333" s="189"/>
-      <c r="O333" s="189"/>
+      <c r="G333" s="190"/>
+      <c r="O333" s="190"/>
     </row>
     <row r="334">
-      <c r="G334" s="189"/>
-      <c r="O334" s="189"/>
+      <c r="G334" s="190"/>
+      <c r="O334" s="190"/>
     </row>
     <row r="335">
-      <c r="G335" s="189"/>
-      <c r="O335" s="189"/>
+      <c r="G335" s="190"/>
+      <c r="O335" s="190"/>
     </row>
     <row r="336">
-      <c r="G336" s="189"/>
-      <c r="O336" s="189"/>
+      <c r="G336" s="190"/>
+      <c r="O336" s="190"/>
     </row>
     <row r="337">
-      <c r="G337" s="189"/>
-      <c r="O337" s="189"/>
+      <c r="G337" s="190"/>
+      <c r="O337" s="190"/>
     </row>
     <row r="338">
-      <c r="G338" s="189"/>
-      <c r="O338" s="189"/>
+      <c r="G338" s="190"/>
+      <c r="O338" s="190"/>
     </row>
     <row r="339">
-      <c r="G339" s="189"/>
-      <c r="O339" s="189"/>
+      <c r="G339" s="190"/>
+      <c r="O339" s="190"/>
     </row>
     <row r="340">
-      <c r="G340" s="189"/>
-      <c r="O340" s="189"/>
+      <c r="G340" s="190"/>
+      <c r="O340" s="190"/>
     </row>
     <row r="341">
-      <c r="G341" s="189"/>
-      <c r="O341" s="189"/>
+      <c r="G341" s="190"/>
+      <c r="O341" s="190"/>
     </row>
     <row r="342">
-      <c r="G342" s="189"/>
-      <c r="O342" s="189"/>
+      <c r="G342" s="190"/>
+      <c r="O342" s="190"/>
     </row>
     <row r="343">
-      <c r="G343" s="189"/>
-      <c r="O343" s="189"/>
+      <c r="G343" s="190"/>
+      <c r="O343" s="190"/>
     </row>
     <row r="344">
-      <c r="G344" s="189"/>
-      <c r="O344" s="189"/>
+      <c r="G344" s="190"/>
+      <c r="O344" s="190"/>
     </row>
     <row r="345">
-      <c r="G345" s="189"/>
-      <c r="O345" s="189"/>
+      <c r="G345" s="190"/>
+      <c r="O345" s="190"/>
     </row>
     <row r="346">
-      <c r="G346" s="189"/>
-      <c r="O346" s="189"/>
+      <c r="G346" s="190"/>
+      <c r="O346" s="190"/>
     </row>
     <row r="347">
-      <c r="G347" s="189"/>
-      <c r="O347" s="189"/>
+      <c r="G347" s="190"/>
+      <c r="O347" s="190"/>
     </row>
     <row r="348">
-      <c r="G348" s="189"/>
-      <c r="O348" s="189"/>
+      <c r="G348" s="190"/>
+      <c r="O348" s="190"/>
     </row>
     <row r="349">
-      <c r="G349" s="189"/>
-      <c r="O349" s="189"/>
+      <c r="G349" s="190"/>
+      <c r="O349" s="190"/>
     </row>
     <row r="350">
-      <c r="G350" s="189"/>
-      <c r="O350" s="189"/>
+      <c r="G350" s="190"/>
+      <c r="O350" s="190"/>
     </row>
     <row r="351">
-      <c r="G351" s="189"/>
-      <c r="O351" s="189"/>
+      <c r="G351" s="190"/>
+      <c r="O351" s="190"/>
     </row>
     <row r="352">
-      <c r="G352" s="189"/>
-      <c r="O352" s="189"/>
+      <c r="G352" s="190"/>
+      <c r="O352" s="190"/>
     </row>
     <row r="353">
-      <c r="G353" s="189"/>
-      <c r="O353" s="189"/>
+      <c r="G353" s="190"/>
+      <c r="O353" s="190"/>
     </row>
     <row r="354">
-      <c r="G354" s="189"/>
-      <c r="O354" s="189"/>
+      <c r="G354" s="190"/>
+      <c r="O354" s="190"/>
     </row>
     <row r="355">
-      <c r="G355" s="189"/>
-      <c r="O355" s="189"/>
+      <c r="G355" s="190"/>
+      <c r="O355" s="190"/>
     </row>
     <row r="356">
-      <c r="G356" s="189"/>
-      <c r="O356" s="189"/>
+      <c r="G356" s="190"/>
+      <c r="O356" s="190"/>
     </row>
     <row r="357">
-      <c r="G357" s="189"/>
-      <c r="O357" s="189"/>
+      <c r="G357" s="190"/>
+      <c r="O357" s="190"/>
     </row>
     <row r="358">
-      <c r="G358" s="189"/>
-      <c r="O358" s="189"/>
+      <c r="G358" s="190"/>
+      <c r="O358" s="190"/>
     </row>
     <row r="359">
-      <c r="G359" s="189"/>
-      <c r="O359" s="189"/>
+      <c r="G359" s="190"/>
+      <c r="O359" s="190"/>
     </row>
     <row r="360">
-      <c r="G360" s="189"/>
-      <c r="O360" s="189"/>
+      <c r="G360" s="190"/>
+      <c r="O360" s="190"/>
     </row>
     <row r="361">
-      <c r="G361" s="189"/>
-      <c r="O361" s="189"/>
+      <c r="G361" s="190"/>
+      <c r="O361" s="190"/>
     </row>
     <row r="362">
-      <c r="G362" s="189"/>
-      <c r="O362" s="189"/>
+      <c r="G362" s="190"/>
+      <c r="O362" s="190"/>
     </row>
     <row r="363">
-      <c r="G363" s="189"/>
-      <c r="O363" s="189"/>
+      <c r="G363" s="190"/>
+      <c r="O363" s="190"/>
     </row>
     <row r="364">
-      <c r="G364" s="189"/>
-      <c r="O364" s="189"/>
+      <c r="G364" s="190"/>
+      <c r="O364" s="190"/>
     </row>
     <row r="365">
-      <c r="G365" s="189"/>
-      <c r="O365" s="189"/>
+      <c r="G365" s="190"/>
+      <c r="O365" s="190"/>
     </row>
     <row r="366">
-      <c r="G366" s="189"/>
-      <c r="O366" s="189"/>
+      <c r="G366" s="190"/>
+      <c r="O366" s="190"/>
     </row>
     <row r="367">
-      <c r="G367" s="189"/>
-      <c r="O367" s="189"/>
+      <c r="G367" s="190"/>
+      <c r="O367" s="190"/>
     </row>
     <row r="368">
-      <c r="G368" s="189"/>
-      <c r="O368" s="189"/>
+      <c r="G368" s="190"/>
+      <c r="O368" s="190"/>
     </row>
     <row r="369">
-      <c r="G369" s="189"/>
-      <c r="O369" s="189"/>
+      <c r="G369" s="190"/>
+      <c r="O369" s="190"/>
     </row>
     <row r="370">
-      <c r="G370" s="189"/>
-      <c r="O370" s="189"/>
+      <c r="G370" s="190"/>
+      <c r="O370" s="190"/>
     </row>
     <row r="371">
-      <c r="G371" s="189"/>
-      <c r="O371" s="189"/>
+      <c r="G371" s="190"/>
+      <c r="O371" s="190"/>
     </row>
     <row r="372">
-      <c r="G372" s="189"/>
-      <c r="O372" s="189"/>
+      <c r="G372" s="190"/>
+      <c r="O372" s="190"/>
     </row>
     <row r="373">
-      <c r="G373" s="189"/>
-      <c r="O373" s="189"/>
+      <c r="G373" s="190"/>
+      <c r="O373" s="190"/>
     </row>
     <row r="374">
-      <c r="G374" s="189"/>
-      <c r="O374" s="189"/>
+      <c r="G374" s="190"/>
+      <c r="O374" s="190"/>
     </row>
     <row r="375">
-      <c r="G375" s="189"/>
-      <c r="O375" s="189"/>
+      <c r="G375" s="190"/>
+      <c r="O375" s="190"/>
     </row>
     <row r="376">
-      <c r="G376" s="189"/>
-      <c r="O376" s="189"/>
+      <c r="G376" s="190"/>
+      <c r="O376" s="190"/>
     </row>
     <row r="377">
-      <c r="G377" s="189"/>
-      <c r="O377" s="189"/>
+      <c r="G377" s="190"/>
+      <c r="O377" s="190"/>
     </row>
     <row r="378">
-      <c r="G378" s="189"/>
-      <c r="O378" s="189"/>
+      <c r="G378" s="190"/>
+      <c r="O378" s="190"/>
     </row>
     <row r="379">
-      <c r="G379" s="189"/>
-      <c r="O379" s="189"/>
+      <c r="G379" s="190"/>
+      <c r="O379" s="190"/>
     </row>
     <row r="380">
-      <c r="G380" s="189"/>
-      <c r="O380" s="189"/>
+      <c r="G380" s="190"/>
+      <c r="O380" s="190"/>
     </row>
     <row r="381">
-      <c r="G381" s="189"/>
-      <c r="O381" s="189"/>
+      <c r="G381" s="190"/>
+      <c r="O381" s="190"/>
     </row>
     <row r="382">
-      <c r="G382" s="189"/>
-      <c r="O382" s="189"/>
+      <c r="G382" s="190"/>
+      <c r="O382" s="190"/>
     </row>
     <row r="383">
-      <c r="G383" s="189"/>
-      <c r="O383" s="189"/>
+      <c r="G383" s="190"/>
+      <c r="O383" s="190"/>
     </row>
     <row r="384">
-      <c r="G384" s="189"/>
-      <c r="O384" s="189"/>
+      <c r="G384" s="190"/>
+      <c r="O384" s="190"/>
     </row>
     <row r="385">
-      <c r="G385" s="189"/>
-      <c r="O385" s="189"/>
+      <c r="G385" s="190"/>
+      <c r="O385" s="190"/>
     </row>
     <row r="386">
-      <c r="G386" s="189"/>
-      <c r="O386" s="189"/>
+      <c r="G386" s="190"/>
+      <c r="O386" s="190"/>
     </row>
     <row r="387">
-      <c r="G387" s="189"/>
-      <c r="O387" s="189"/>
+      <c r="G387" s="190"/>
+      <c r="O387" s="190"/>
     </row>
     <row r="388">
-      <c r="G388" s="189"/>
-      <c r="O388" s="189"/>
+      <c r="G388" s="190"/>
+      <c r="O388" s="190"/>
     </row>
     <row r="389">
-      <c r="G389" s="189"/>
-      <c r="O389" s="189"/>
+      <c r="G389" s="190"/>
+      <c r="O389" s="190"/>
     </row>
     <row r="390">
-      <c r="G390" s="189"/>
-      <c r="O390" s="189"/>
+      <c r="G390" s="190"/>
+      <c r="O390" s="190"/>
     </row>
     <row r="391">
-      <c r="G391" s="189"/>
-      <c r="O391" s="189"/>
+      <c r="G391" s="190"/>
+      <c r="O391" s="190"/>
     </row>
     <row r="392">
-      <c r="G392" s="189"/>
-      <c r="O392" s="189"/>
+      <c r="G392" s="190"/>
+      <c r="O392" s="190"/>
     </row>
     <row r="393">
-      <c r="G393" s="189"/>
-      <c r="O393" s="189"/>
+      <c r="G393" s="190"/>
+      <c r="O393" s="190"/>
     </row>
     <row r="394">
-      <c r="G394" s="189"/>
-      <c r="O394" s="189"/>
+      <c r="G394" s="190"/>
+      <c r="O394" s="190"/>
     </row>
     <row r="395">
-      <c r="G395" s="189"/>
-      <c r="O395" s="189"/>
+      <c r="G395" s="190"/>
+      <c r="O395" s="190"/>
     </row>
     <row r="396">
-      <c r="G396" s="189"/>
-      <c r="O396" s="189"/>
+      <c r="G396" s="190"/>
+      <c r="O396" s="190"/>
     </row>
     <row r="397">
-      <c r="G397" s="189"/>
-      <c r="O397" s="189"/>
+      <c r="G397" s="190"/>
+      <c r="O397" s="190"/>
     </row>
     <row r="398">
-      <c r="G398" s="189"/>
-      <c r="O398" s="189"/>
+      <c r="G398" s="190"/>
+      <c r="O398" s="190"/>
     </row>
     <row r="399">
-      <c r="G399" s="189"/>
-      <c r="O399" s="189"/>
+      <c r="G399" s="190"/>
+      <c r="O399" s="190"/>
     </row>
     <row r="400">
-      <c r="G400" s="189"/>
-      <c r="O400" s="189"/>
+      <c r="G400" s="190"/>
+      <c r="O400" s="190"/>
     </row>
     <row r="401">
-      <c r="G401" s="189"/>
-      <c r="O401" s="189"/>
+      <c r="G401" s="190"/>
+      <c r="O401" s="190"/>
     </row>
     <row r="402">
-      <c r="G402" s="189"/>
-      <c r="O402" s="189"/>
+      <c r="G402" s="190"/>
+      <c r="O402" s="190"/>
     </row>
     <row r="403">
-      <c r="G403" s="189"/>
-      <c r="O403" s="189"/>
+      <c r="G403" s="190"/>
+      <c r="O403" s="190"/>
     </row>
     <row r="404">
-      <c r="G404" s="189"/>
-      <c r="O404" s="189"/>
+      <c r="G404" s="190"/>
+      <c r="O404" s="190"/>
     </row>
     <row r="405">
-      <c r="G405" s="189"/>
-      <c r="O405" s="189"/>
+      <c r="G405" s="190"/>
+      <c r="O405" s="190"/>
     </row>
     <row r="406">
-      <c r="G406" s="189"/>
-      <c r="O406" s="189"/>
+      <c r="G406" s="190"/>
+      <c r="O406" s="190"/>
     </row>
     <row r="407">
-      <c r="G407" s="189"/>
-      <c r="O407" s="189"/>
+      <c r="G407" s="190"/>
+      <c r="O407" s="190"/>
     </row>
     <row r="408">
-      <c r="G408" s="189"/>
-      <c r="O408" s="189"/>
+      <c r="G408" s="190"/>
+      <c r="O408" s="190"/>
     </row>
     <row r="409">
-      <c r="G409" s="189"/>
-      <c r="O409" s="189"/>
+      <c r="G409" s="190"/>
+      <c r="O409" s="190"/>
     </row>
     <row r="410">
-      <c r="G410" s="189"/>
-      <c r="O410" s="189"/>
+      <c r="G410" s="190"/>
+      <c r="O410" s="190"/>
     </row>
     <row r="411">
-      <c r="G411" s="189"/>
-      <c r="O411" s="189"/>
+      <c r="G411" s="190"/>
+      <c r="O411" s="190"/>
     </row>
     <row r="412">
-      <c r="G412" s="189"/>
-      <c r="O412" s="189"/>
+      <c r="G412" s="190"/>
+      <c r="O412" s="190"/>
     </row>
     <row r="413">
-      <c r="G413" s="189"/>
-      <c r="O413" s="189"/>
+      <c r="G413" s="190"/>
+      <c r="O413" s="190"/>
     </row>
     <row r="414">
-      <c r="G414" s="189"/>
-      <c r="O414" s="189"/>
+      <c r="G414" s="190"/>
+      <c r="O414" s="190"/>
     </row>
     <row r="415">
-      <c r="G415" s="189"/>
-      <c r="O415" s="189"/>
+      <c r="G415" s="190"/>
+      <c r="O415" s="190"/>
     </row>
     <row r="416">
-      <c r="G416" s="189"/>
-      <c r="O416" s="189"/>
+      <c r="G416" s="190"/>
+      <c r="O416" s="190"/>
     </row>
     <row r="417">
-      <c r="G417" s="189"/>
-      <c r="O417" s="189"/>
+      <c r="G417" s="190"/>
+      <c r="O417" s="190"/>
     </row>
     <row r="418">
-      <c r="G418" s="189"/>
-      <c r="O418" s="189"/>
+      <c r="G418" s="190"/>
+      <c r="O418" s="190"/>
     </row>
     <row r="419">
-      <c r="G419" s="189"/>
-      <c r="O419" s="189"/>
+      <c r="G419" s="190"/>
+      <c r="O419" s="190"/>
     </row>
     <row r="420">
-      <c r="G420" s="189"/>
-      <c r="O420" s="189"/>
+      <c r="G420" s="190"/>
+      <c r="O420" s="190"/>
     </row>
     <row r="421">
-      <c r="G421" s="189"/>
-      <c r="O421" s="189"/>
+      <c r="G421" s="190"/>
+      <c r="O421" s="190"/>
     </row>
     <row r="422">
-      <c r="G422" s="189"/>
-      <c r="O422" s="189"/>
+      <c r="G422" s="190"/>
+      <c r="O422" s="190"/>
     </row>
     <row r="423">
-      <c r="G423" s="189"/>
-      <c r="O423" s="189"/>
+      <c r="G423" s="190"/>
+      <c r="O423" s="190"/>
     </row>
     <row r="424">
-      <c r="G424" s="189"/>
-      <c r="O424" s="189"/>
+      <c r="G424" s="190"/>
+      <c r="O424" s="190"/>
     </row>
     <row r="425">
-      <c r="G425" s="189"/>
-      <c r="O425" s="189"/>
+      <c r="G425" s="190"/>
+      <c r="O425" s="190"/>
     </row>
     <row r="426">
-      <c r="G426" s="189"/>
-      <c r="O426" s="189"/>
+      <c r="G426" s="190"/>
+      <c r="O426" s="190"/>
     </row>
     <row r="427">
-      <c r="G427" s="189"/>
-      <c r="O427" s="189"/>
+      <c r="G427" s="190"/>
+      <c r="O427" s="190"/>
     </row>
     <row r="428">
-      <c r="G428" s="189"/>
-      <c r="O428" s="189"/>
+      <c r="G428" s="190"/>
+      <c r="O428" s="190"/>
     </row>
     <row r="429">
-      <c r="G429" s="189"/>
-      <c r="O429" s="189"/>
+      <c r="G429" s="190"/>
+      <c r="O429" s="190"/>
     </row>
     <row r="430">
-      <c r="G430" s="189"/>
-      <c r="O430" s="189"/>
+      <c r="G430" s="190"/>
+      <c r="O430" s="190"/>
     </row>
     <row r="431">
-      <c r="G431" s="189"/>
-      <c r="O431" s="189"/>
+      <c r="G431" s="190"/>
+      <c r="O431" s="190"/>
     </row>
     <row r="432">
-      <c r="G432" s="189"/>
-      <c r="O432" s="189"/>
+      <c r="G432" s="190"/>
+      <c r="O432" s="190"/>
     </row>
     <row r="433">
-      <c r="G433" s="189"/>
-      <c r="O433" s="189"/>
+      <c r="G433" s="190"/>
+      <c r="O433" s="190"/>
     </row>
     <row r="434">
-      <c r="G434" s="189"/>
-      <c r="O434" s="189"/>
+      <c r="G434" s="190"/>
+      <c r="O434" s="190"/>
     </row>
     <row r="435">
-      <c r="G435" s="189"/>
-      <c r="O435" s="189"/>
+      <c r="G435" s="190"/>
+      <c r="O435" s="190"/>
     </row>
     <row r="436">
-      <c r="G436" s="189"/>
-      <c r="O436" s="189"/>
+      <c r="G436" s="190"/>
+      <c r="O436" s="190"/>
     </row>
     <row r="437">
-      <c r="G437" s="189"/>
-      <c r="O437" s="189"/>
+      <c r="G437" s="190"/>
+      <c r="O437" s="190"/>
     </row>
     <row r="438">
-      <c r="G438" s="189"/>
-      <c r="O438" s="189"/>
+      <c r="G438" s="190"/>
+      <c r="O438" s="190"/>
     </row>
     <row r="439">
-      <c r="G439" s="189"/>
-      <c r="O439" s="189"/>
+      <c r="G439" s="190"/>
+      <c r="O439" s="190"/>
     </row>
     <row r="440">
-      <c r="G440" s="189"/>
-      <c r="O440" s="189"/>
+      <c r="G440" s="190"/>
+      <c r="O440" s="190"/>
     </row>
     <row r="441">
-      <c r="G441" s="189"/>
-      <c r="O441" s="189"/>
+      <c r="G441" s="190"/>
+      <c r="O441" s="190"/>
     </row>
     <row r="442">
-      <c r="G442" s="189"/>
-      <c r="O442" s="189"/>
+      <c r="G442" s="190"/>
+      <c r="O442" s="190"/>
     </row>
     <row r="443">
-      <c r="G443" s="189"/>
-      <c r="O443" s="189"/>
+      <c r="G443" s="190"/>
+      <c r="O443" s="190"/>
     </row>
     <row r="444">
-      <c r="G444" s="189"/>
-      <c r="O444" s="189"/>
+      <c r="G444" s="190"/>
+      <c r="O444" s="190"/>
     </row>
     <row r="445">
-      <c r="G445" s="189"/>
-      <c r="O445" s="189"/>
+      <c r="G445" s="190"/>
+      <c r="O445" s="190"/>
     </row>
     <row r="446">
-      <c r="G446" s="189"/>
-      <c r="O446" s="189"/>
+      <c r="G446" s="190"/>
+      <c r="O446" s="190"/>
     </row>
     <row r="447">
-      <c r="G447" s="189"/>
-      <c r="O447" s="189"/>
+      <c r="G447" s="190"/>
+      <c r="O447" s="190"/>
     </row>
     <row r="448">
-      <c r="G448" s="189"/>
-      <c r="O448" s="189"/>
+      <c r="G448" s="190"/>
+      <c r="O448" s="190"/>
     </row>
     <row r="449">
-      <c r="G449" s="189"/>
-      <c r="O449" s="189"/>
+      <c r="G449" s="190"/>
+      <c r="O449" s="190"/>
     </row>
     <row r="450">
-      <c r="G450" s="189"/>
-      <c r="O450" s="189"/>
+      <c r="G450" s="190"/>
+      <c r="O450" s="190"/>
     </row>
     <row r="451">
-      <c r="G451" s="189"/>
-      <c r="O451" s="189"/>
+      <c r="G451" s="190"/>
+      <c r="O451" s="190"/>
     </row>
     <row r="452">
-      <c r="G452" s="189"/>
-      <c r="O452" s="189"/>
+      <c r="G452" s="190"/>
+      <c r="O452" s="190"/>
     </row>
     <row r="453">
-      <c r="G453" s="189"/>
-      <c r="O453" s="189"/>
+      <c r="G453" s="190"/>
+      <c r="O453" s="190"/>
     </row>
     <row r="454">
-      <c r="G454" s="189"/>
-      <c r="O454" s="189"/>
+      <c r="G454" s="190"/>
+      <c r="O454" s="190"/>
     </row>
     <row r="455">
-      <c r="G455" s="189"/>
-      <c r="O455" s="189"/>
+      <c r="G455" s="190"/>
+      <c r="O455" s="190"/>
     </row>
     <row r="456">
-      <c r="G456" s="189"/>
-      <c r="O456" s="189"/>
+      <c r="G456" s="190"/>
+      <c r="O456" s="190"/>
     </row>
     <row r="457">
-      <c r="G457" s="189"/>
-      <c r="O457" s="189"/>
+      <c r="G457" s="190"/>
+      <c r="O457" s="190"/>
     </row>
     <row r="458">
-      <c r="G458" s="189"/>
-      <c r="O458" s="189"/>
+      <c r="G458" s="190"/>
+      <c r="O458" s="190"/>
     </row>
     <row r="459">
-      <c r="G459" s="189"/>
-      <c r="O459" s="189"/>
+      <c r="G459" s="190"/>
+      <c r="O459" s="190"/>
     </row>
     <row r="460">
-      <c r="G460" s="189"/>
-      <c r="O460" s="189"/>
+      <c r="G460" s="190"/>
+      <c r="O460" s="190"/>
     </row>
     <row r="461">
-      <c r="G461" s="189"/>
-      <c r="O461" s="189"/>
+      <c r="G461" s="190"/>
+      <c r="O461" s="190"/>
     </row>
     <row r="462">
-      <c r="G462" s="189"/>
-      <c r="O462" s="189"/>
+      <c r="G462" s="190"/>
+      <c r="O462" s="190"/>
     </row>
     <row r="463">
-      <c r="G463" s="189"/>
-      <c r="O463" s="189"/>
+      <c r="G463" s="190"/>
+      <c r="O463" s="190"/>
     </row>
     <row r="464">
-      <c r="G464" s="189"/>
-      <c r="O464" s="189"/>
+      <c r="G464" s="190"/>
+      <c r="O464" s="190"/>
     </row>
     <row r="465">
-      <c r="G465" s="189"/>
-      <c r="O465" s="189"/>
+      <c r="G465" s="190"/>
+      <c r="O465" s="190"/>
     </row>
     <row r="466">
-      <c r="G466" s="189"/>
-      <c r="O466" s="189"/>
+      <c r="G466" s="190"/>
+      <c r="O466" s="190"/>
     </row>
     <row r="467">
-      <c r="G467" s="189"/>
-      <c r="O467" s="189"/>
+      <c r="G467" s="190"/>
+      <c r="O467" s="190"/>
     </row>
     <row r="468">
-      <c r="G468" s="189"/>
-      <c r="O468" s="189"/>
+      <c r="G468" s="190"/>
+      <c r="O468" s="190"/>
     </row>
     <row r="469">
-      <c r="G469" s="189"/>
-      <c r="O469" s="189"/>
+      <c r="G469" s="190"/>
+      <c r="O469" s="190"/>
     </row>
     <row r="470">
-      <c r="G470" s="189"/>
-      <c r="O470" s="189"/>
+      <c r="G470" s="190"/>
+      <c r="O470" s="190"/>
     </row>
     <row r="471">
-      <c r="G471" s="189"/>
-      <c r="O471" s="189"/>
+      <c r="G471" s="190"/>
+      <c r="O471" s="190"/>
     </row>
     <row r="472">
-      <c r="G472" s="189"/>
-      <c r="O472" s="189"/>
+      <c r="G472" s="190"/>
+      <c r="O472" s="190"/>
     </row>
     <row r="473">
-      <c r="G473" s="189"/>
-      <c r="O473" s="189"/>
+      <c r="G473" s="190"/>
+      <c r="O473" s="190"/>
     </row>
     <row r="474">
-      <c r="G474" s="189"/>
-      <c r="O474" s="189"/>
+      <c r="G474" s="190"/>
+      <c r="O474" s="190"/>
     </row>
     <row r="475">
-      <c r="G475" s="189"/>
-      <c r="O475" s="189"/>
+      <c r="G475" s="190"/>
+      <c r="O475" s="190"/>
     </row>
     <row r="476">
-      <c r="G476" s="189"/>
-      <c r="O476" s="189"/>
+      <c r="G476" s="190"/>
+      <c r="O476" s="190"/>
     </row>
     <row r="477">
-      <c r="G477" s="189"/>
-      <c r="O477" s="189"/>
+      <c r="G477" s="190"/>
+      <c r="O477" s="190"/>
     </row>
     <row r="478">
-      <c r="G478" s="189"/>
-      <c r="O478" s="189"/>
+      <c r="G478" s="190"/>
+      <c r="O478" s="190"/>
     </row>
     <row r="479">
-      <c r="G479" s="189"/>
-      <c r="O479" s="189"/>
+      <c r="G479" s="190"/>
+      <c r="O479" s="190"/>
     </row>
     <row r="480">
-      <c r="G480" s="189"/>
-      <c r="O480" s="189"/>
+      <c r="G480" s="190"/>
+      <c r="O480" s="190"/>
     </row>
     <row r="481">
-      <c r="G481" s="189"/>
-      <c r="O481" s="189"/>
+      <c r="G481" s="190"/>
+      <c r="O481" s="190"/>
     </row>
     <row r="482">
-      <c r="G482" s="189"/>
-      <c r="O482" s="189"/>
+      <c r="G482" s="190"/>
+      <c r="O482" s="190"/>
     </row>
     <row r="483">
-      <c r="G483" s="189"/>
-      <c r="O483" s="189"/>
+      <c r="G483" s="190"/>
+      <c r="O483" s="190"/>
     </row>
     <row r="484">
-      <c r="G484" s="189"/>
-      <c r="O484" s="189"/>
+      <c r="G484" s="190"/>
+      <c r="O484" s="190"/>
     </row>
     <row r="485">
-      <c r="G485" s="189"/>
-      <c r="O485" s="189"/>
+      <c r="G485" s="190"/>
+      <c r="O485" s="190"/>
     </row>
     <row r="486">
-      <c r="G486" s="189"/>
-      <c r="O486" s="189"/>
+      <c r="G486" s="190"/>
+      <c r="O486" s="190"/>
     </row>
     <row r="487">
-      <c r="G487" s="189"/>
-      <c r="O487" s="189"/>
+      <c r="G487" s="190"/>
+      <c r="O487" s="190"/>
     </row>
     <row r="488">
-      <c r="G488" s="189"/>
-      <c r="O488" s="189"/>
+      <c r="G488" s="190"/>
+      <c r="O488" s="190"/>
     </row>
     <row r="489">
-      <c r="G489" s="189"/>
-      <c r="O489" s="189"/>
+      <c r="G489" s="190"/>
+      <c r="O489" s="190"/>
     </row>
     <row r="490">
-      <c r="G490" s="189"/>
-      <c r="O490" s="189"/>
+      <c r="G490" s="190"/>
+      <c r="O490" s="190"/>
     </row>
     <row r="491">
-      <c r="G491" s="189"/>
-      <c r="O491" s="189"/>
+      <c r="G491" s="190"/>
+      <c r="O491" s="190"/>
     </row>
     <row r="492">
-      <c r="G492" s="189"/>
-      <c r="O492" s="189"/>
+      <c r="G492" s="190"/>
+      <c r="O492" s="190"/>
     </row>
     <row r="493">
-      <c r="G493" s="189"/>
-      <c r="O493" s="189"/>
+      <c r="G493" s="190"/>
+      <c r="O493" s="190"/>
     </row>
     <row r="494">
-      <c r="G494" s="189"/>
-      <c r="O494" s="189"/>
+      <c r="G494" s="190"/>
+      <c r="O494" s="190"/>
     </row>
     <row r="495">
-      <c r="G495" s="189"/>
-      <c r="O495" s="189"/>
+      <c r="G495" s="190"/>
+      <c r="O495" s="190"/>
     </row>
     <row r="496">
-      <c r="G496" s="189"/>
-      <c r="O496" s="189"/>
+      <c r="G496" s="190"/>
+      <c r="O496" s="190"/>
     </row>
     <row r="497">
-      <c r="G497" s="189"/>
-      <c r="O497" s="189"/>
+      <c r="G497" s="190"/>
+      <c r="O497" s="190"/>
     </row>
     <row r="498">
-      <c r="G498" s="189"/>
-      <c r="O498" s="189"/>
+      <c r="G498" s="190"/>
+      <c r="O498" s="190"/>
     </row>
     <row r="499">
-      <c r="G499" s="189"/>
-      <c r="O499" s="189"/>
+      <c r="G499" s="190"/>
+      <c r="O499" s="190"/>
     </row>
     <row r="500">
-      <c r="G500" s="189"/>
-      <c r="O500" s="189"/>
+      <c r="G500" s="190"/>
+      <c r="O500" s="190"/>
     </row>
     <row r="501">
-      <c r="G501" s="189"/>
-      <c r="O501" s="189"/>
+      <c r="G501" s="190"/>
+      <c r="O501" s="190"/>
     </row>
     <row r="502">
-      <c r="G502" s="189"/>
-      <c r="O502" s="189"/>
+      <c r="G502" s="190"/>
+      <c r="O502" s="190"/>
     </row>
     <row r="503">
-      <c r="G503" s="189"/>
-      <c r="O503" s="189"/>
+      <c r="G503" s="190"/>
+      <c r="O503" s="190"/>
     </row>
     <row r="504">
-      <c r="G504" s="189"/>
-      <c r="O504" s="189"/>
+      <c r="G504" s="190"/>
+      <c r="O504" s="190"/>
     </row>
     <row r="505">
-      <c r="G505" s="189"/>
-      <c r="O505" s="189"/>
+      <c r="G505" s="190"/>
+      <c r="O505" s="190"/>
     </row>
     <row r="506">
-      <c r="G506" s="189"/>
-      <c r="O506" s="189"/>
+      <c r="G506" s="190"/>
+      <c r="O506" s="190"/>
     </row>
     <row r="507">
-      <c r="G507" s="189"/>
-      <c r="O507" s="189"/>
+      <c r="G507" s="190"/>
+      <c r="O507" s="190"/>
     </row>
     <row r="508">
-      <c r="G508" s="189"/>
-      <c r="O508" s="189"/>
+      <c r="G508" s="190"/>
+      <c r="O508" s="190"/>
     </row>
     <row r="509">
-      <c r="G509" s="189"/>
-      <c r="O509" s="189"/>
+      <c r="G509" s="190"/>
+      <c r="O509" s="190"/>
     </row>
     <row r="510">
-      <c r="G510" s="189"/>
-      <c r="O510" s="189"/>
+      <c r="G510" s="190"/>
+      <c r="O510" s="190"/>
     </row>
     <row r="511">
-      <c r="G511" s="189"/>
-      <c r="O511" s="189"/>
+      <c r="G511" s="190"/>
+      <c r="O511" s="190"/>
     </row>
     <row r="512">
-      <c r="G512" s="189"/>
-      <c r="O512" s="189"/>
+      <c r="G512" s="190"/>
+      <c r="O512" s="190"/>
     </row>
     <row r="513">
-      <c r="G513" s="189"/>
-      <c r="O513" s="189"/>
+      <c r="G513" s="190"/>
+      <c r="O513" s="190"/>
     </row>
     <row r="514">
-      <c r="G514" s="189"/>
-      <c r="O514" s="189"/>
+      <c r="G514" s="190"/>
+      <c r="O514" s="190"/>
     </row>
     <row r="515">
-      <c r="G515" s="189"/>
-      <c r="O515" s="189"/>
+      <c r="G515" s="190"/>
+      <c r="O515" s="190"/>
     </row>
     <row r="516">
-      <c r="G516" s="189"/>
-      <c r="O516" s="189"/>
+      <c r="G516" s="190"/>
+      <c r="O516" s="190"/>
     </row>
     <row r="517">
-      <c r="G517" s="189"/>
-      <c r="O517" s="189"/>
+      <c r="G517" s="190"/>
+      <c r="O517" s="190"/>
     </row>
     <row r="518">
-      <c r="G518" s="189"/>
-      <c r="O518" s="189"/>
+      <c r="G518" s="190"/>
+      <c r="O518" s="190"/>
     </row>
     <row r="519">
-      <c r="G519" s="189"/>
-      <c r="O519" s="189"/>
+      <c r="G519" s="190"/>
+      <c r="O519" s="190"/>
     </row>
     <row r="520">
-      <c r="G520" s="189"/>
-      <c r="O520" s="189"/>
+      <c r="G520" s="190"/>
+      <c r="O520" s="190"/>
     </row>
     <row r="521">
-      <c r="G521" s="189"/>
-      <c r="O521" s="189"/>
+      <c r="G521" s="190"/>
+      <c r="O521" s="190"/>
     </row>
     <row r="522">
-      <c r="G522" s="189"/>
-      <c r="O522" s="189"/>
+      <c r="G522" s="190"/>
+      <c r="O522" s="190"/>
     </row>
     <row r="523">
-      <c r="G523" s="189"/>
-      <c r="O523" s="189"/>
+      <c r="G523" s="190"/>
+      <c r="O523" s="190"/>
     </row>
     <row r="524">
-      <c r="G524" s="189"/>
-      <c r="O524" s="189"/>
+      <c r="G524" s="190"/>
+      <c r="O524" s="190"/>
     </row>
     <row r="525">
-      <c r="G525" s="189"/>
-      <c r="O525" s="189"/>
+      <c r="G525" s="190"/>
+      <c r="O525" s="190"/>
     </row>
     <row r="526">
-      <c r="G526" s="189"/>
-      <c r="O526" s="189"/>
+      <c r="G526" s="190"/>
+      <c r="O526" s="190"/>
     </row>
     <row r="527">
-      <c r="G527" s="189"/>
-      <c r="O527" s="189"/>
+      <c r="G527" s="190"/>
+      <c r="O527" s="190"/>
     </row>
     <row r="528">
-      <c r="G528" s="189"/>
-      <c r="O528" s="189"/>
+      <c r="G528" s="190"/>
+      <c r="O528" s="190"/>
     </row>
     <row r="529">
-      <c r="G529" s="189"/>
-      <c r="O529" s="189"/>
+      <c r="G529" s="190"/>
+      <c r="O529" s="190"/>
     </row>
     <row r="530">
-      <c r="G530" s="189"/>
-      <c r="O530" s="189"/>
+      <c r="G530" s="190"/>
+      <c r="O530" s="190"/>
     </row>
     <row r="531">
-      <c r="G531" s="189"/>
-      <c r="O531" s="189"/>
+      <c r="G531" s="190"/>
+      <c r="O531" s="190"/>
     </row>
     <row r="532">
-      <c r="G532" s="189"/>
-      <c r="O532" s="189"/>
+      <c r="G532" s="190"/>
+      <c r="O532" s="190"/>
     </row>
     <row r="533">
-      <c r="G533" s="189"/>
-      <c r="O533" s="189"/>
+      <c r="G533" s="190"/>
+      <c r="O533" s="190"/>
     </row>
     <row r="534">
-      <c r="G534" s="189"/>
-      <c r="O534" s="189"/>
+      <c r="G534" s="190"/>
+      <c r="O534" s="190"/>
     </row>
     <row r="535">
-      <c r="G535" s="189"/>
-      <c r="O535" s="189"/>
+      <c r="G535" s="190"/>
+      <c r="O535" s="190"/>
     </row>
     <row r="536">
-      <c r="G536" s="189"/>
-      <c r="O536" s="189"/>
+      <c r="G536" s="190"/>
+      <c r="O536" s="190"/>
     </row>
     <row r="537">
-      <c r="G537" s="189"/>
-      <c r="O537" s="189"/>
+      <c r="G537" s="190"/>
+      <c r="O537" s="190"/>
     </row>
     <row r="538">
-      <c r="G538" s="189"/>
-      <c r="O538" s="189"/>
+      <c r="G538" s="190"/>
+      <c r="O538" s="190"/>
     </row>
     <row r="539">
-      <c r="G539" s="189"/>
-      <c r="O539" s="189"/>
+      <c r="G539" s="190"/>
+      <c r="O539" s="190"/>
     </row>
     <row r="540">
-      <c r="G540" s="189"/>
-      <c r="O540" s="189"/>
+      <c r="G540" s="190"/>
+      <c r="O540" s="190"/>
     </row>
     <row r="541">
-      <c r="G541" s="189"/>
-      <c r="O541" s="189"/>
+      <c r="G541" s="190"/>
+      <c r="O541" s="190"/>
     </row>
     <row r="542">
-      <c r="G542" s="189"/>
-      <c r="O542" s="189"/>
+      <c r="G542" s="190"/>
+      <c r="O542" s="190"/>
     </row>
     <row r="543">
-      <c r="G543" s="189"/>
-      <c r="O543" s="189"/>
+      <c r="G543" s="190"/>
+      <c r="O543" s="190"/>
     </row>
     <row r="544">
-      <c r="G544" s="189"/>
-      <c r="O544" s="189"/>
+      <c r="G544" s="190"/>
+      <c r="O544" s="190"/>
     </row>
     <row r="545">
-      <c r="G545" s="189"/>
-      <c r="O545" s="189"/>
+      <c r="G545" s="190"/>
+      <c r="O545" s="190"/>
     </row>
     <row r="546">
-      <c r="G546" s="189"/>
-      <c r="O546" s="189"/>
+      <c r="G546" s="190"/>
+      <c r="O546" s="190"/>
     </row>
     <row r="547">
-      <c r="G547" s="189"/>
-      <c r="O547" s="189"/>
+      <c r="G547" s="190"/>
+      <c r="O547" s="190"/>
     </row>
     <row r="548">
-      <c r="G548" s="189"/>
-      <c r="O548" s="189"/>
+      <c r="G548" s="190"/>
+      <c r="O548" s="190"/>
     </row>
     <row r="549">
-      <c r="G549" s="189"/>
-      <c r="O549" s="189"/>
+      <c r="G549" s="190"/>
+      <c r="O549" s="190"/>
     </row>
     <row r="550">
-      <c r="G550" s="189"/>
-      <c r="O550" s="189"/>
+      <c r="G550" s="190"/>
+      <c r="O550" s="190"/>
     </row>
     <row r="551">
-      <c r="G551" s="189"/>
-      <c r="O551" s="189"/>
+      <c r="G551" s="190"/>
+      <c r="O551" s="190"/>
     </row>
     <row r="552">
-      <c r="G552" s="189"/>
-      <c r="O552" s="189"/>
+      <c r="G552" s="190"/>
+      <c r="O552" s="190"/>
     </row>
     <row r="553">
-      <c r="G553" s="189"/>
-      <c r="O553" s="189"/>
+      <c r="G553" s="190"/>
+      <c r="O553" s="190"/>
     </row>
     <row r="554">
-      <c r="G554" s="189"/>
-      <c r="O554" s="189"/>
+      <c r="G554" s="190"/>
+      <c r="O554" s="190"/>
     </row>
     <row r="555">
-      <c r="G555" s="189"/>
-      <c r="O555" s="189"/>
+      <c r="G555" s="190"/>
+      <c r="O555" s="190"/>
     </row>
     <row r="556">
-      <c r="G556" s="189"/>
-      <c r="O556" s="189"/>
+      <c r="G556" s="190"/>
+      <c r="O556" s="190"/>
     </row>
     <row r="557">
-      <c r="G557" s="189"/>
-      <c r="O557" s="189"/>
+      <c r="G557" s="190"/>
+      <c r="O557" s="190"/>
     </row>
     <row r="558">
-      <c r="G558" s="189"/>
-      <c r="O558" s="189"/>
+      <c r="G558" s="190"/>
+      <c r="O558" s="190"/>
     </row>
     <row r="559">
-      <c r="G559" s="189"/>
-      <c r="O559" s="189"/>
+      <c r="G559" s="190"/>
+      <c r="O559" s="190"/>
     </row>
     <row r="560">
-      <c r="G560" s="189"/>
-      <c r="O560" s="189"/>
+      <c r="G560" s="190"/>
+      <c r="O560" s="190"/>
     </row>
     <row r="561">
-      <c r="G561" s="189"/>
-      <c r="O561" s="189"/>
+      <c r="G561" s="190"/>
+      <c r="O561" s="190"/>
     </row>
     <row r="562">
-      <c r="G562" s="189"/>
-      <c r="O562" s="189"/>
+      <c r="G562" s="190"/>
+      <c r="O562" s="190"/>
     </row>
     <row r="563">
-      <c r="G563" s="189"/>
-      <c r="O563" s="189"/>
+      <c r="G563" s="190"/>
+      <c r="O563" s="190"/>
     </row>
     <row r="564">
-      <c r="G564" s="189"/>
-      <c r="O564" s="189"/>
+      <c r="G564" s="190"/>
+      <c r="O564" s="190"/>
     </row>
     <row r="565">
-      <c r="G565" s="189"/>
-      <c r="O565" s="189"/>
+      <c r="G565" s="190"/>
+      <c r="O565" s="190"/>
     </row>
     <row r="566">
-      <c r="G566" s="189"/>
-      <c r="O566" s="189"/>
+      <c r="G566" s="190"/>
+      <c r="O566" s="190"/>
     </row>
     <row r="567">
-      <c r="G567" s="189"/>
-      <c r="O567" s="189"/>
+      <c r="G567" s="190"/>
+      <c r="O567" s="190"/>
     </row>
     <row r="568">
-      <c r="G568" s="189"/>
-      <c r="O568" s="189"/>
+      <c r="G568" s="190"/>
+      <c r="O568" s="190"/>
     </row>
     <row r="569">
-      <c r="G569" s="189"/>
-      <c r="O569" s="189"/>
+      <c r="G569" s="190"/>
+      <c r="O569" s="190"/>
     </row>
     <row r="570">
-      <c r="G570" s="189"/>
-      <c r="O570" s="189"/>
+      <c r="G570" s="190"/>
+      <c r="O570" s="190"/>
     </row>
     <row r="571">
-      <c r="G571" s="189"/>
-      <c r="O571" s="189"/>
+      <c r="G571" s="190"/>
+      <c r="O571" s="190"/>
     </row>
     <row r="572">
-      <c r="G572" s="189"/>
-      <c r="O572" s="189"/>
+      <c r="G572" s="190"/>
+      <c r="O572" s="190"/>
     </row>
     <row r="573">
-      <c r="G573" s="189"/>
-      <c r="O573" s="189"/>
+      <c r="G573" s="190"/>
+      <c r="O573" s="190"/>
     </row>
     <row r="574">
-      <c r="G574" s="189"/>
-      <c r="O574" s="189"/>
+      <c r="G574" s="190"/>
+      <c r="O574" s="190"/>
     </row>
     <row r="575">
-      <c r="G575" s="189"/>
-      <c r="O575" s="189"/>
+      <c r="G575" s="190"/>
+      <c r="O575" s="190"/>
     </row>
     <row r="576">
-      <c r="G576" s="189"/>
-      <c r="O576" s="189"/>
+      <c r="G576" s="190"/>
+      <c r="O576" s="190"/>
     </row>
     <row r="577">
-      <c r="G577" s="189"/>
-      <c r="O577" s="189"/>
+      <c r="G577" s="190"/>
+      <c r="O577" s="190"/>
     </row>
     <row r="578">
-      <c r="G578" s="189"/>
-      <c r="O578" s="189"/>
+      <c r="G578" s="190"/>
+      <c r="O578" s="190"/>
     </row>
     <row r="579">
-      <c r="G579" s="189"/>
-      <c r="O579" s="189"/>
+      <c r="G579" s="190"/>
+      <c r="O579" s="190"/>
     </row>
     <row r="580">
-      <c r="G580" s="189"/>
-      <c r="O580" s="189"/>
+      <c r="G580" s="190"/>
+      <c r="O580" s="190"/>
     </row>
     <row r="581">
-      <c r="G581" s="189"/>
-      <c r="O581" s="189"/>
+      <c r="G581" s="190"/>
+      <c r="O581" s="190"/>
     </row>
     <row r="582">
-      <c r="G582" s="189"/>
-      <c r="O582" s="189"/>
+      <c r="G582" s="190"/>
+      <c r="O582" s="190"/>
     </row>
     <row r="583">
-      <c r="G583" s="189"/>
-      <c r="O583" s="189"/>
+      <c r="G583" s="190"/>
+      <c r="O583" s="190"/>
     </row>
     <row r="584">
-      <c r="G584" s="189"/>
-      <c r="O584" s="189"/>
+      <c r="G584" s="190"/>
+      <c r="O584" s="190"/>
     </row>
     <row r="585">
-      <c r="G585" s="189"/>
-      <c r="O585" s="189"/>
+      <c r="G585" s="190"/>
+      <c r="O585" s="190"/>
     </row>
     <row r="586">
-      <c r="G586" s="189"/>
-      <c r="O586" s="189"/>
+      <c r="G586" s="190"/>
+      <c r="O586" s="190"/>
     </row>
     <row r="587">
-      <c r="G587" s="189"/>
-      <c r="O587" s="189"/>
+      <c r="G587" s="190"/>
+      <c r="O587" s="190"/>
     </row>
     <row r="588">
-      <c r="G588" s="189"/>
-      <c r="O588" s="189"/>
+      <c r="G588" s="190"/>
+      <c r="O588" s="190"/>
     </row>
     <row r="589">
-      <c r="G589" s="189"/>
-      <c r="O589" s="189"/>
+      <c r="G589" s="190"/>
+      <c r="O589" s="190"/>
     </row>
     <row r="590">
-      <c r="G590" s="189"/>
-      <c r="O590" s="189"/>
+      <c r="G590" s="190"/>
+      <c r="O590" s="190"/>
     </row>
     <row r="591">
-      <c r="G591" s="189"/>
-      <c r="O591" s="189"/>
+      <c r="G591" s="190"/>
+      <c r="O591" s="190"/>
     </row>
     <row r="592">
-      <c r="G592" s="189"/>
-      <c r="O592" s="189"/>
+      <c r="G592" s="190"/>
+      <c r="O592" s="190"/>
     </row>
     <row r="593">
-      <c r="G593" s="189"/>
-      <c r="O593" s="189"/>
+      <c r="G593" s="190"/>
+      <c r="O593" s="190"/>
     </row>
     <row r="594">
-      <c r="G594" s="189"/>
-      <c r="O594" s="189"/>
+      <c r="G594" s="190"/>
+      <c r="O594" s="190"/>
     </row>
     <row r="595">
-      <c r="G595" s="189"/>
-      <c r="O595" s="189"/>
+      <c r="G595" s="190"/>
+      <c r="O595" s="190"/>
     </row>
     <row r="596">
-      <c r="G596" s="189"/>
-      <c r="O596" s="189"/>
+      <c r="G596" s="190"/>
+      <c r="O596" s="190"/>
     </row>
     <row r="597">
-      <c r="G597" s="189"/>
-      <c r="O597" s="189"/>
+      <c r="G597" s="190"/>
+      <c r="O597" s="190"/>
     </row>
     <row r="598">
-      <c r="G598" s="189"/>
-      <c r="O598" s="189"/>
+      <c r="G598" s="190"/>
+      <c r="O598" s="190"/>
     </row>
     <row r="599">
-      <c r="G599" s="189"/>
-      <c r="O599" s="189"/>
+      <c r="G599" s="190"/>
+      <c r="O599" s="190"/>
     </row>
     <row r="600">
-      <c r="G600" s="189"/>
-      <c r="O600" s="189"/>
+      <c r="G600" s="190"/>
+      <c r="O600" s="190"/>
     </row>
     <row r="601">
-      <c r="G601" s="189"/>
-      <c r="O601" s="189"/>
+      <c r="G601" s="190"/>
+      <c r="O601" s="190"/>
     </row>
     <row r="602">
-      <c r="G602" s="189"/>
-      <c r="O602" s="189"/>
+      <c r="G602" s="190"/>
+      <c r="O602" s="190"/>
     </row>
     <row r="603">
-      <c r="G603" s="189"/>
-      <c r="O603" s="189"/>
+      <c r="G603" s="190"/>
+      <c r="O603" s="190"/>
     </row>
     <row r="604">
-      <c r="G604" s="189"/>
-      <c r="O604" s="189"/>
+      <c r="G604" s="190"/>
+      <c r="O604" s="190"/>
     </row>
     <row r="605">
-      <c r="G605" s="189"/>
-      <c r="O605" s="189"/>
+      <c r="G605" s="190"/>
+      <c r="O605" s="190"/>
     </row>
     <row r="606">
-      <c r="G606" s="189"/>
-      <c r="O606" s="189"/>
+      <c r="G606" s="190"/>
+      <c r="O606" s="190"/>
     </row>
     <row r="607">
-      <c r="G607" s="189"/>
-      <c r="O607" s="189"/>
+      <c r="G607" s="190"/>
+      <c r="O607" s="190"/>
     </row>
     <row r="608">
-      <c r="G608" s="189"/>
-      <c r="O608" s="189"/>
+      <c r="G608" s="190"/>
+      <c r="O608" s="190"/>
     </row>
     <row r="609">
-      <c r="G609" s="189"/>
-      <c r="O609" s="189"/>
+      <c r="G609" s="190"/>
+      <c r="O609" s="190"/>
     </row>
     <row r="610">
-      <c r="G610" s="189"/>
-      <c r="O610" s="189"/>
+      <c r="G610" s="190"/>
+      <c r="O610" s="190"/>
     </row>
     <row r="611">
-      <c r="G611" s="189"/>
-      <c r="O611" s="189"/>
+      <c r="G611" s="190"/>
+      <c r="O611" s="190"/>
     </row>
     <row r="612">
-      <c r="G612" s="189"/>
-      <c r="O612" s="189"/>
+      <c r="G612" s="190"/>
+      <c r="O612" s="190"/>
     </row>
     <row r="613">
-      <c r="G613" s="189"/>
-      <c r="O613" s="189"/>
+      <c r="G613" s="190"/>
+      <c r="O613" s="190"/>
     </row>
     <row r="614">
-      <c r="G614" s="189"/>
-      <c r="O614" s="189"/>
+      <c r="G614" s="190"/>
+      <c r="O614" s="190"/>
     </row>
     <row r="615">
-      <c r="G615" s="189"/>
-      <c r="O615" s="189"/>
+      <c r="G615" s="190"/>
+      <c r="O615" s="190"/>
     </row>
     <row r="616">
-      <c r="G616" s="189"/>
-      <c r="O616" s="189"/>
+      <c r="G616" s="190"/>
+      <c r="O616" s="190"/>
     </row>
     <row r="617">
-      <c r="G617" s="189"/>
-      <c r="O617" s="189"/>
+      <c r="G617" s="190"/>
+      <c r="O617" s="190"/>
     </row>
     <row r="618">
-      <c r="G618" s="189"/>
-      <c r="O618" s="189"/>
+      <c r="G618" s="190"/>
+      <c r="O618" s="190"/>
     </row>
     <row r="619">
-      <c r="G619" s="189"/>
-      <c r="O619" s="189"/>
+      <c r="G619" s="190"/>
+      <c r="O619" s="190"/>
     </row>
     <row r="620">
-      <c r="G620" s="189"/>
-      <c r="O620" s="189"/>
+      <c r="G620" s="190"/>
+      <c r="O620" s="190"/>
     </row>
     <row r="621">
-      <c r="G621" s="189"/>
-      <c r="O621" s="189"/>
+      <c r="G621" s="190"/>
+      <c r="O621" s="190"/>
     </row>
     <row r="622">
-      <c r="G622" s="189"/>
-      <c r="O622" s="189"/>
+      <c r="G622" s="190"/>
+      <c r="O622" s="190"/>
     </row>
     <row r="623">
-      <c r="G623" s="189"/>
-      <c r="O623" s="189"/>
+      <c r="G623" s="190"/>
+      <c r="O623" s="190"/>
     </row>
     <row r="624">
-      <c r="G624" s="189"/>
-      <c r="O624" s="189"/>
+      <c r="G624" s="190"/>
+      <c r="O624" s="190"/>
     </row>
     <row r="625">
-      <c r="G625" s="189"/>
-      <c r="O625" s="189"/>
+      <c r="G625" s="190"/>
+      <c r="O625" s="190"/>
     </row>
     <row r="626">
-      <c r="G626" s="189"/>
-      <c r="O626" s="189"/>
+      <c r="G626" s="190"/>
+      <c r="O626" s="190"/>
     </row>
     <row r="627">
-      <c r="G627" s="189"/>
-      <c r="O627" s="189"/>
+      <c r="G627" s="190"/>
+      <c r="O627" s="190"/>
     </row>
     <row r="628">
-      <c r="G628" s="189"/>
-      <c r="O628" s="189"/>
+      <c r="G628" s="190"/>
+      <c r="O628" s="190"/>
     </row>
     <row r="629">
-      <c r="G629" s="189"/>
-      <c r="O629" s="189"/>
+      <c r="G629" s="190"/>
+      <c r="O629" s="190"/>
     </row>
     <row r="630">
-      <c r="G630" s="189"/>
-      <c r="O630" s="189"/>
+      <c r="G630" s="190"/>
+      <c r="O630" s="190"/>
     </row>
     <row r="631">
-      <c r="G631" s="189"/>
-      <c r="O631" s="189"/>
+      <c r="G631" s="190"/>
+      <c r="O631" s="190"/>
     </row>
     <row r="632">
-      <c r="G632" s="189"/>
-      <c r="O632" s="189"/>
+      <c r="G632" s="190"/>
+      <c r="O632" s="190"/>
     </row>
     <row r="633">
-      <c r="G633" s="189"/>
-      <c r="O633" s="189"/>
+      <c r="G633" s="190"/>
+      <c r="O633" s="190"/>
     </row>
     <row r="634">
-      <c r="G634" s="189"/>
-      <c r="O634" s="189"/>
+      <c r="G634" s="190"/>
+      <c r="O634" s="190"/>
     </row>
     <row r="635">
-      <c r="G635" s="189"/>
-      <c r="O635" s="189"/>
+      <c r="G635" s="190"/>
+      <c r="O635" s="190"/>
     </row>
     <row r="636">
-      <c r="G636" s="189"/>
-      <c r="O636" s="189"/>
+      <c r="G636" s="190"/>
+      <c r="O636" s="190"/>
     </row>
     <row r="637">
-      <c r="G637" s="189"/>
-      <c r="O637" s="189"/>
+      <c r="G637" s="190"/>
+      <c r="O637" s="190"/>
     </row>
     <row r="638">
-      <c r="G638" s="189"/>
-      <c r="O638" s="189"/>
+      <c r="G638" s="190"/>
+      <c r="O638" s="190"/>
     </row>
     <row r="639">
-      <c r="G639" s="189"/>
-      <c r="O639" s="189"/>
+      <c r="G639" s="190"/>
+      <c r="O639" s="190"/>
     </row>
     <row r="640">
-      <c r="G640" s="189"/>
-      <c r="O640" s="189"/>
+      <c r="G640" s="190"/>
+      <c r="O640" s="190"/>
     </row>
     <row r="641">
-      <c r="G641" s="189"/>
-      <c r="O641" s="189"/>
+      <c r="G641" s="190"/>
+      <c r="O641" s="190"/>
     </row>
     <row r="642">
-      <c r="G642" s="189"/>
-      <c r="O642" s="189"/>
+      <c r="G642" s="190"/>
+      <c r="O642" s="190"/>
     </row>
     <row r="643">
-      <c r="G643" s="189"/>
-      <c r="O643" s="189"/>
+      <c r="G643" s="190"/>
+      <c r="O643" s="190"/>
     </row>
     <row r="644">
-      <c r="G644" s="189"/>
-      <c r="O644" s="189"/>
+      <c r="G644" s="190"/>
+      <c r="O644" s="190"/>
     </row>
     <row r="645">
-      <c r="G645" s="189"/>
-      <c r="O645" s="189"/>
+      <c r="G645" s="190"/>
+      <c r="O645" s="190"/>
     </row>
     <row r="646">
-      <c r="G646" s="189"/>
-      <c r="O646" s="189"/>
+      <c r="G646" s="190"/>
+      <c r="O646" s="190"/>
     </row>
     <row r="647">
-      <c r="G647" s="189"/>
-      <c r="O647" s="189"/>
+      <c r="G647" s="190"/>
+      <c r="O647" s="190"/>
     </row>
     <row r="648">
-      <c r="G648" s="189"/>
-      <c r="O648" s="189"/>
+      <c r="G648" s="190"/>
+      <c r="O648" s="190"/>
     </row>
     <row r="649">
-      <c r="G649" s="189"/>
-      <c r="O649" s="189"/>
+      <c r="G649" s="190"/>
+      <c r="O649" s="190"/>
     </row>
     <row r="650">
-      <c r="G650" s="189"/>
-      <c r="O650" s="189"/>
+      <c r="G650" s="190"/>
+      <c r="O650" s="190"/>
     </row>
     <row r="651">
-      <c r="G651" s="189"/>
-      <c r="O651" s="189"/>
+      <c r="G651" s="190"/>
+      <c r="O651" s="190"/>
     </row>
     <row r="652">
-      <c r="G652" s="189"/>
-      <c r="O652" s="189"/>
+      <c r="G652" s="190"/>
+      <c r="O652" s="190"/>
     </row>
     <row r="653">
-      <c r="G653" s="189"/>
-      <c r="O653" s="189"/>
+      <c r="G653" s="190"/>
+      <c r="O653" s="190"/>
     </row>
     <row r="654">
-      <c r="G654" s="189"/>
-      <c r="O654" s="189"/>
+      <c r="G654" s="190"/>
+      <c r="O654" s="190"/>
     </row>
     <row r="655">
-      <c r="G655" s="189"/>
-      <c r="O655" s="189"/>
+      <c r="G655" s="190"/>
+      <c r="O655" s="190"/>
     </row>
     <row r="656">
-      <c r="G656" s="189"/>
-      <c r="O656" s="189"/>
+      <c r="G656" s="190"/>
+      <c r="O656" s="190"/>
     </row>
     <row r="657">
-      <c r="G657" s="189"/>
-      <c r="O657" s="189"/>
+      <c r="G657" s="190"/>
+      <c r="O657" s="190"/>
     </row>
     <row r="658">
-      <c r="G658" s="189"/>
-      <c r="O658" s="189"/>
+      <c r="G658" s="190"/>
+      <c r="O658" s="190"/>
     </row>
     <row r="659">
-      <c r="G659" s="189"/>
-      <c r="O659" s="189"/>
+      <c r="G659" s="190"/>
+      <c r="O659" s="190"/>
     </row>
     <row r="660">
-      <c r="G660" s="189"/>
-      <c r="O660" s="189"/>
+      <c r="G660" s="190"/>
+      <c r="O660" s="190"/>
     </row>
     <row r="661">
-      <c r="G661" s="189"/>
-      <c r="O661" s="189"/>
+      <c r="G661" s="190"/>
+      <c r="O661" s="190"/>
     </row>
     <row r="662">
-      <c r="G662" s="189"/>
-      <c r="O662" s="189"/>
+      <c r="G662" s="190"/>
+      <c r="O662" s="190"/>
     </row>
     <row r="663">
-      <c r="G663" s="189"/>
-      <c r="O663" s="189"/>
+      <c r="G663" s="190"/>
+      <c r="O663" s="190"/>
     </row>
     <row r="664">
-      <c r="G664" s="189"/>
-      <c r="O664" s="189"/>
+      <c r="G664" s="190"/>
+      <c r="O664" s="190"/>
     </row>
     <row r="665">
-      <c r="G665" s="189"/>
-      <c r="O665" s="189"/>
+      <c r="G665" s="190"/>
+      <c r="O665" s="190"/>
     </row>
     <row r="666">
-      <c r="G666" s="189"/>
-      <c r="O666" s="189"/>
+      <c r="G666" s="190"/>
+      <c r="O666" s="190"/>
     </row>
     <row r="667">
-      <c r="G667" s="189"/>
-      <c r="O667" s="189"/>
+      <c r="G667" s="190"/>
+      <c r="O667" s="190"/>
     </row>
     <row r="668">
-      <c r="G668" s="189"/>
-      <c r="O668" s="189"/>
+      <c r="G668" s="190"/>
+      <c r="O668" s="190"/>
     </row>
     <row r="669">
-      <c r="G669" s="189"/>
-      <c r="O669" s="189"/>
+      <c r="G669" s="190"/>
+      <c r="O669" s="190"/>
     </row>
     <row r="670">
-      <c r="G670" s="189"/>
-      <c r="O670" s="189"/>
+      <c r="G670" s="190"/>
+      <c r="O670" s="190"/>
     </row>
     <row r="671">
-      <c r="G671" s="189"/>
-      <c r="O671" s="189"/>
+      <c r="G671" s="190"/>
+      <c r="O671" s="190"/>
     </row>
     <row r="672">
-      <c r="G672" s="189"/>
-      <c r="O672" s="189"/>
+      <c r="G672" s="190"/>
+      <c r="O672" s="190"/>
     </row>
     <row r="673">
-      <c r="G673" s="189"/>
-      <c r="O673" s="189"/>
+      <c r="G673" s="190"/>
+      <c r="O673" s="190"/>
     </row>
     <row r="674">
-      <c r="G674" s="189"/>
-      <c r="O674" s="189"/>
+      <c r="G674" s="190"/>
+      <c r="O674" s="190"/>
     </row>
     <row r="675">
-      <c r="G675" s="189"/>
-      <c r="O675" s="189"/>
+      <c r="G675" s="190"/>
+      <c r="O675" s="190"/>
     </row>
     <row r="676">
-      <c r="G676" s="189"/>
-      <c r="O676" s="189"/>
+      <c r="G676" s="190"/>
+      <c r="O676" s="190"/>
     </row>
     <row r="677">
-      <c r="G677" s="189"/>
-      <c r="O677" s="189"/>
+      <c r="G677" s="190"/>
+      <c r="O677" s="190"/>
     </row>
     <row r="678">
-      <c r="G678" s="189"/>
-      <c r="O678" s="189"/>
+      <c r="G678" s="190"/>
+      <c r="O678" s="190"/>
     </row>
     <row r="679">
-      <c r="G679" s="189"/>
-      <c r="O679" s="189"/>
+      <c r="G679" s="190"/>
+      <c r="O679" s="190"/>
     </row>
     <row r="680">
-      <c r="G680" s="189"/>
-      <c r="O680" s="189"/>
+      <c r="G680" s="190"/>
+      <c r="O680" s="190"/>
     </row>
     <row r="681">
-      <c r="G681" s="189"/>
-      <c r="O681" s="189"/>
+      <c r="G681" s="190"/>
+      <c r="O681" s="190"/>
     </row>
     <row r="682">
-      <c r="G682" s="189"/>
-      <c r="O682" s="189"/>
+      <c r="G682" s="190"/>
+      <c r="O682" s="190"/>
     </row>
     <row r="683">
-      <c r="G683" s="189"/>
-      <c r="O683" s="189"/>
+      <c r="G683" s="190"/>
+      <c r="O683" s="190"/>
     </row>
     <row r="684">
-      <c r="G684" s="189"/>
-      <c r="O684" s="189"/>
+      <c r="G684" s="190"/>
+      <c r="O684" s="190"/>
     </row>
     <row r="685">
-      <c r="G685" s="189"/>
-      <c r="O685" s="189"/>
+      <c r="G685" s="190"/>
+      <c r="O685" s="190"/>
     </row>
     <row r="686">
-      <c r="G686" s="189"/>
-      <c r="O686" s="189"/>
+      <c r="G686" s="190"/>
+      <c r="O686" s="190"/>
     </row>
     <row r="687">
-      <c r="G687" s="189"/>
-      <c r="O687" s="189"/>
+      <c r="G687" s="190"/>
+      <c r="O687" s="190"/>
     </row>
     <row r="688">
-      <c r="G688" s="189"/>
-      <c r="O688" s="189"/>
+      <c r="G688" s="190"/>
+      <c r="O688" s="190"/>
     </row>
     <row r="689">
-      <c r="G689" s="189"/>
-      <c r="O689" s="189"/>
+      <c r="G689" s="190"/>
+      <c r="O689" s="190"/>
     </row>
     <row r="690">
-      <c r="G690" s="189"/>
-      <c r="O690" s="189"/>
+      <c r="G690" s="190"/>
+      <c r="O690" s="190"/>
     </row>
     <row r="691">
-      <c r="G691" s="189"/>
-      <c r="O691" s="189"/>
+      <c r="G691" s="190"/>
+      <c r="O691" s="190"/>
     </row>
     <row r="692">
-      <c r="G692" s="189"/>
-      <c r="O692" s="189"/>
+      <c r="G692" s="190"/>
+      <c r="O692" s="190"/>
     </row>
     <row r="693">
-      <c r="G693" s="189"/>
-      <c r="O693" s="189"/>
+      <c r="G693" s="190"/>
+      <c r="O693" s="190"/>
     </row>
     <row r="694">
-      <c r="G694" s="189"/>
-      <c r="O694" s="189"/>
+      <c r="G694" s="190"/>
+      <c r="O694" s="190"/>
     </row>
     <row r="695">
-      <c r="G695" s="189"/>
-      <c r="O695" s="189"/>
+      <c r="G695" s="190"/>
+      <c r="O695" s="190"/>
     </row>
     <row r="696">
-      <c r="G696" s="189"/>
-      <c r="O696" s="189"/>
+      <c r="G696" s="190"/>
+      <c r="O696" s="190"/>
     </row>
     <row r="697">
-      <c r="G697" s="189"/>
-      <c r="O697" s="189"/>
+      <c r="G697" s="190"/>
+      <c r="O697" s="190"/>
     </row>
     <row r="698">
-      <c r="G698" s="189"/>
-      <c r="O698" s="189"/>
+      <c r="G698" s="190"/>
+      <c r="O698" s="190"/>
     </row>
     <row r="699">
-      <c r="G699" s="189"/>
-      <c r="O699" s="189"/>
+      <c r="G699" s="190"/>
+      <c r="O699" s="190"/>
     </row>
     <row r="700">
-      <c r="G700" s="189"/>
-      <c r="O700" s="189"/>
+      <c r="G700" s="190"/>
+      <c r="O700" s="190"/>
     </row>
     <row r="701">
-      <c r="G701" s="189"/>
-      <c r="O701" s="189"/>
+      <c r="G701" s="190"/>
+      <c r="O701" s="190"/>
     </row>
     <row r="702">
-      <c r="G702" s="189"/>
-      <c r="O702" s="189"/>
+      <c r="G702" s="190"/>
+      <c r="O702" s="190"/>
     </row>
     <row r="703">
-      <c r="G703" s="189"/>
-      <c r="O703" s="189"/>
+      <c r="G703" s="190"/>
+      <c r="O703" s="190"/>
     </row>
     <row r="704">
-      <c r="G704" s="189"/>
-      <c r="O704" s="189"/>
+      <c r="G704" s="190"/>
+      <c r="O704" s="190"/>
     </row>
     <row r="705">
-      <c r="G705" s="189"/>
-      <c r="O705" s="189"/>
+      <c r="G705" s="190"/>
+      <c r="O705" s="190"/>
     </row>
     <row r="706">
-      <c r="G706" s="189"/>
-      <c r="O706" s="189"/>
+      <c r="G706" s="190"/>
+      <c r="O706" s="190"/>
     </row>
     <row r="707">
-      <c r="G707" s="189"/>
-      <c r="O707" s="189"/>
+      <c r="G707" s="190"/>
+      <c r="O707" s="190"/>
     </row>
     <row r="708">
-      <c r="G708" s="189"/>
-      <c r="O708" s="189"/>
+      <c r="G708" s="190"/>
+      <c r="O708" s="190"/>
     </row>
     <row r="709">
-      <c r="G709" s="189"/>
-      <c r="O709" s="189"/>
+      <c r="G709" s="190"/>
+      <c r="O709" s="190"/>
     </row>
     <row r="710">
-      <c r="G710" s="189"/>
-      <c r="O710" s="189"/>
+      <c r="G710" s="190"/>
+      <c r="O710" s="190"/>
     </row>
     <row r="711">
-      <c r="G711" s="189"/>
-      <c r="O711" s="189"/>
+      <c r="G711" s="190"/>
+      <c r="O711" s="190"/>
     </row>
     <row r="712">
-      <c r="G712" s="189"/>
-      <c r="O712" s="189"/>
+      <c r="G712" s="190"/>
+      <c r="O712" s="190"/>
     </row>
     <row r="713">
-      <c r="G713" s="189"/>
-      <c r="O713" s="189"/>
+      <c r="G713" s="190"/>
+      <c r="O713" s="190"/>
     </row>
     <row r="714">
-      <c r="G714" s="189"/>
-      <c r="O714" s="189"/>
+      <c r="G714" s="190"/>
+      <c r="O714" s="190"/>
     </row>
     <row r="715">
-      <c r="G715" s="189"/>
-      <c r="O715" s="189"/>
+      <c r="G715" s="190"/>
+      <c r="O715" s="190"/>
     </row>
     <row r="716">
-      <c r="G716" s="189"/>
-      <c r="O716" s="189"/>
+      <c r="G716" s="190"/>
+      <c r="O716" s="190"/>
     </row>
     <row r="717">
-      <c r="G717" s="189"/>
-      <c r="O717" s="189"/>
+      <c r="G717" s="190"/>
+      <c r="O717" s="190"/>
     </row>
     <row r="718">
-      <c r="G718" s="189"/>
-      <c r="O718" s="189"/>
+      <c r="G718" s="190"/>
+      <c r="O718" s="190"/>
     </row>
     <row r="719">
-      <c r="G719" s="189"/>
-      <c r="O719" s="189"/>
+      <c r="G719" s="190"/>
+      <c r="O719" s="190"/>
     </row>
     <row r="720">
-      <c r="G720" s="189"/>
-      <c r="O720" s="189"/>
+      <c r="G720" s="190"/>
+      <c r="O720" s="190"/>
     </row>
     <row r="721">
-      <c r="G721" s="189"/>
-      <c r="O721" s="189"/>
+      <c r="G721" s="190"/>
+      <c r="O721" s="190"/>
     </row>
     <row r="722">
-      <c r="G722" s="189"/>
-      <c r="O722" s="189"/>
+      <c r="G722" s="190"/>
+      <c r="O722" s="190"/>
     </row>
     <row r="723">
-      <c r="G723" s="189"/>
-      <c r="O723" s="189"/>
+      <c r="G723" s="190"/>
+      <c r="O723" s="190"/>
     </row>
     <row r="724">
-      <c r="G724" s="189"/>
-      <c r="O724" s="189"/>
+      <c r="G724" s="190"/>
+      <c r="O724" s="190"/>
     </row>
     <row r="725">
-      <c r="G725" s="189"/>
-      <c r="O725" s="189"/>
+      <c r="G725" s="190"/>
+      <c r="O725" s="190"/>
     </row>
     <row r="726">
-      <c r="G726" s="189"/>
-      <c r="O726" s="189"/>
+      <c r="G726" s="190"/>
+      <c r="O726" s="190"/>
     </row>
     <row r="727">
-      <c r="G727" s="189"/>
-      <c r="O727" s="189"/>
+      <c r="G727" s="190"/>
+      <c r="O727" s="190"/>
     </row>
     <row r="728">
-      <c r="G728" s="189"/>
-      <c r="O728" s="189"/>
+      <c r="G728" s="190"/>
+      <c r="O728" s="190"/>
     </row>
     <row r="729">
-      <c r="G729" s="189"/>
-      <c r="O729" s="189"/>
+      <c r="G729" s="190"/>
+      <c r="O729" s="190"/>
     </row>
     <row r="730">
-      <c r="G730" s="189"/>
-      <c r="O730" s="189"/>
+      <c r="G730" s="190"/>
+      <c r="O730" s="190"/>
     </row>
     <row r="731">
-      <c r="G731" s="189"/>
-      <c r="O731" s="189"/>
+      <c r="G731" s="190"/>
+      <c r="O731" s="190"/>
     </row>
     <row r="732">
-      <c r="G732" s="189"/>
-      <c r="O732" s="189"/>
+      <c r="G732" s="190"/>
+      <c r="O732" s="190"/>
     </row>
     <row r="733">
-      <c r="G733" s="189"/>
-      <c r="O733" s="189"/>
+      <c r="G733" s="190"/>
+      <c r="O733" s="190"/>
     </row>
     <row r="734">
-      <c r="G734" s="189"/>
-      <c r="O734" s="189"/>
+      <c r="G734" s="190"/>
+      <c r="O734" s="190"/>
     </row>
     <row r="735">
-      <c r="G735" s="189"/>
-      <c r="O735" s="189"/>
+      <c r="G735" s="190"/>
+      <c r="O735" s="190"/>
     </row>
     <row r="736">
-      <c r="G736" s="189"/>
-      <c r="O736" s="189"/>
+      <c r="G736" s="190"/>
+      <c r="O736" s="190"/>
     </row>
     <row r="737">
-      <c r="G737" s="189"/>
-      <c r="O737" s="189"/>
+      <c r="G737" s="190"/>
+      <c r="O737" s="190"/>
     </row>
     <row r="738">
-      <c r="G738" s="189"/>
-      <c r="O738" s="189"/>
+      <c r="G738" s="190"/>
+      <c r="O738" s="190"/>
     </row>
     <row r="739">
-      <c r="G739" s="189"/>
-      <c r="O739" s="189"/>
+      <c r="G739" s="190"/>
+      <c r="O739" s="190"/>
     </row>
     <row r="740">
-      <c r="G740" s="189"/>
-      <c r="O740" s="189"/>
+      <c r="G740" s="190"/>
+      <c r="O740" s="190"/>
     </row>
     <row r="741">
-      <c r="G741" s="189"/>
-      <c r="O741" s="189"/>
+      <c r="G741" s="190"/>
+      <c r="O741" s="190"/>
     </row>
     <row r="742">
-      <c r="G742" s="189"/>
-      <c r="O742" s="189"/>
+      <c r="G742" s="190"/>
+      <c r="O742" s="190"/>
     </row>
     <row r="743">
-      <c r="G743" s="189"/>
-      <c r="O743" s="189"/>
+      <c r="G743" s="190"/>
+      <c r="O743" s="190"/>
     </row>
     <row r="744">
-      <c r="G744" s="189"/>
-      <c r="O744" s="189"/>
+      <c r="G744" s="190"/>
+      <c r="O744" s="190"/>
     </row>
     <row r="745">
-      <c r="G745" s="189"/>
-      <c r="O745" s="189"/>
+      <c r="G745" s="190"/>
+      <c r="O745" s="190"/>
     </row>
     <row r="746">
-      <c r="G746" s="189"/>
-      <c r="O746" s="189"/>
+      <c r="G746" s="190"/>
+      <c r="O746" s="190"/>
     </row>
     <row r="747">
-      <c r="G747" s="189"/>
-      <c r="O747" s="189"/>
+      <c r="G747" s="190"/>
+      <c r="O747" s="190"/>
     </row>
     <row r="748">
-      <c r="G748" s="189"/>
-      <c r="O748" s="189"/>
+      <c r="G748" s="190"/>
+      <c r="O748" s="190"/>
     </row>
     <row r="749">
-      <c r="G749" s="189"/>
-      <c r="O749" s="189"/>
+      <c r="G749" s="190"/>
+      <c r="O749" s="190"/>
     </row>
     <row r="750">
-      <c r="G750" s="189"/>
-      <c r="O750" s="189"/>
+      <c r="G750" s="190"/>
+      <c r="O750" s="190"/>
     </row>
     <row r="751">
-      <c r="G751" s="189"/>
-      <c r="O751" s="189"/>
+      <c r="G751" s="190"/>
+      <c r="O751" s="190"/>
     </row>
     <row r="752">
-      <c r="G752" s="189"/>
-      <c r="O752" s="189"/>
+      <c r="G752" s="190"/>
+      <c r="O752" s="190"/>
     </row>
     <row r="753">
-      <c r="G753" s="189"/>
-      <c r="O753" s="189"/>
+      <c r="G753" s="190"/>
+      <c r="O753" s="190"/>
     </row>
     <row r="754">
-      <c r="G754" s="189"/>
-      <c r="O754" s="189"/>
+      <c r="G754" s="190"/>
+      <c r="O754" s="190"/>
     </row>
     <row r="755">
-      <c r="G755" s="189"/>
-      <c r="O755" s="189"/>
+      <c r="G755" s="190"/>
+      <c r="O755" s="190"/>
     </row>
     <row r="756">
-      <c r="G756" s="189"/>
-      <c r="O756" s="189"/>
+      <c r="G756" s="190"/>
+      <c r="O756" s="190"/>
     </row>
     <row r="757">
-      <c r="G757" s="189"/>
-      <c r="O757" s="189"/>
+      <c r="G757" s="190"/>
+      <c r="O757" s="190"/>
     </row>
     <row r="758">
-      <c r="G758" s="189"/>
-      <c r="O758" s="189"/>
+      <c r="G758" s="190"/>
+      <c r="O758" s="190"/>
     </row>
     <row r="759">
-      <c r="G759" s="189"/>
-      <c r="O759" s="189"/>
+      <c r="G759" s="190"/>
+      <c r="O759" s="190"/>
     </row>
     <row r="760">
-      <c r="G760" s="189"/>
-      <c r="O760" s="189"/>
+      <c r="G760" s="190"/>
+      <c r="O760" s="190"/>
     </row>
     <row r="761">
-      <c r="G761" s="189"/>
-      <c r="O761" s="189"/>
+      <c r="G761" s="190"/>
+      <c r="O761" s="190"/>
     </row>
     <row r="762">
-      <c r="G762" s="189"/>
-      <c r="O762" s="189"/>
+      <c r="G762" s="190"/>
+      <c r="O762" s="190"/>
     </row>
     <row r="763">
-      <c r="G763" s="189"/>
-      <c r="O763" s="189"/>
+      <c r="G763" s="190"/>
+      <c r="O763" s="190"/>
     </row>
     <row r="764">
-      <c r="G764" s="189"/>
-      <c r="O764" s="189"/>
+      <c r="G764" s="190"/>
+      <c r="O764" s="190"/>
     </row>
     <row r="765">
-      <c r="G765" s="189"/>
-      <c r="O765" s="189"/>
+      <c r="G765" s="190"/>
+      <c r="O765" s="190"/>
     </row>
     <row r="766">
-      <c r="G766" s="189"/>
-      <c r="O766" s="189"/>
+      <c r="G766" s="190"/>
+      <c r="O766" s="190"/>
     </row>
     <row r="767">
-      <c r="G767" s="189"/>
-      <c r="O767" s="189"/>
+      <c r="G767" s="190"/>
+      <c r="O767" s="190"/>
     </row>
     <row r="768">
-      <c r="G768" s="189"/>
-      <c r="O768" s="189"/>
+      <c r="G768" s="190"/>
+      <c r="O768" s="190"/>
     </row>
     <row r="769">
-      <c r="G769" s="189"/>
-      <c r="O769" s="189"/>
+      <c r="G769" s="190"/>
+      <c r="O769" s="190"/>
     </row>
     <row r="770">
-      <c r="G770" s="189"/>
-      <c r="O770" s="189"/>
+      <c r="G770" s="190"/>
+      <c r="O770" s="190"/>
     </row>
     <row r="771">
-      <c r="G771" s="189"/>
-      <c r="O771" s="189"/>
+      <c r="G771" s="190"/>
+      <c r="O771" s="190"/>
     </row>
     <row r="772">
-      <c r="G772" s="189"/>
-      <c r="O772" s="189"/>
+      <c r="G772" s="190"/>
+      <c r="O772" s="190"/>
     </row>
     <row r="773">
-      <c r="G773" s="189"/>
-      <c r="O773" s="189"/>
+      <c r="G773" s="190"/>
+      <c r="O773" s="190"/>
     </row>
     <row r="774">
-      <c r="G774" s="189"/>
-      <c r="O774" s="189"/>
+      <c r="G774" s="190"/>
+      <c r="O774" s="190"/>
     </row>
     <row r="775">
-      <c r="G775" s="189"/>
-      <c r="O775" s="189"/>
+      <c r="G775" s="190"/>
+      <c r="O775" s="190"/>
     </row>
     <row r="776">
-      <c r="G776" s="189"/>
-      <c r="O776" s="189"/>
+      <c r="G776" s="190"/>
+      <c r="O776" s="190"/>
     </row>
     <row r="777">
-      <c r="G777" s="189"/>
-      <c r="O777" s="189"/>
+      <c r="G777" s="190"/>
+      <c r="O777" s="190"/>
     </row>
     <row r="778">
-      <c r="G778" s="189"/>
-      <c r="O778" s="189"/>
+      <c r="G778" s="190"/>
+      <c r="O778" s="190"/>
     </row>
     <row r="779">
-      <c r="G779" s="189"/>
-      <c r="O779" s="189"/>
+      <c r="G779" s="190"/>
+      <c r="O779" s="190"/>
     </row>
     <row r="780">
-      <c r="G780" s="189"/>
-      <c r="O780" s="189"/>
+      <c r="G780" s="190"/>
+      <c r="O780" s="190"/>
     </row>
     <row r="781">
-      <c r="G781" s="189"/>
-      <c r="O781" s="189"/>
+      <c r="G781" s="190"/>
+      <c r="O781" s="190"/>
     </row>
     <row r="782">
-      <c r="G782" s="189"/>
-      <c r="O782" s="189"/>
+      <c r="G782" s="190"/>
+      <c r="O782" s="190"/>
     </row>
     <row r="783">
-      <c r="G783" s="189"/>
-      <c r="O783" s="189"/>
+      <c r="G783" s="190"/>
+      <c r="O783" s="190"/>
     </row>
     <row r="784">
-      <c r="G784" s="189"/>
-      <c r="O784" s="189"/>
+      <c r="G784" s="190"/>
+      <c r="O784" s="190"/>
     </row>
     <row r="785">
-      <c r="G785" s="189"/>
-      <c r="O785" s="189"/>
+      <c r="G785" s="190"/>
+      <c r="O785" s="190"/>
     </row>
     <row r="786">
-      <c r="G786" s="189"/>
-      <c r="O786" s="189"/>
+      <c r="G786" s="190"/>
+      <c r="O786" s="190"/>
     </row>
     <row r="787">
-      <c r="G787" s="189"/>
-      <c r="O787" s="189"/>
+      <c r="G787" s="190"/>
+      <c r="O787" s="190"/>
     </row>
     <row r="788">
-      <c r="G788" s="189"/>
-      <c r="O788" s="189"/>
+      <c r="G788" s="190"/>
+      <c r="O788" s="190"/>
     </row>
     <row r="789">
-      <c r="G789" s="189"/>
-      <c r="O789" s="189"/>
+      <c r="G789" s="190"/>
+      <c r="O789" s="190"/>
     </row>
     <row r="790">
-      <c r="G790" s="189"/>
-      <c r="O790" s="189"/>
+      <c r="G790" s="190"/>
+      <c r="O790" s="190"/>
     </row>
     <row r="791">
-      <c r="G791" s="189"/>
-      <c r="O791" s="189"/>
+      <c r="G791" s="190"/>
+      <c r="O791" s="190"/>
     </row>
     <row r="792">
-      <c r="G792" s="189"/>
-      <c r="O792" s="189"/>
+      <c r="G792" s="190"/>
+      <c r="O792" s="190"/>
     </row>
     <row r="793">
-      <c r="G793" s="189"/>
-      <c r="O793" s="189"/>
+      <c r="G793" s="190"/>
+      <c r="O793" s="190"/>
     </row>
     <row r="794">
-      <c r="G794" s="189"/>
-      <c r="O794" s="189"/>
+      <c r="G794" s="190"/>
+      <c r="O794" s="190"/>
     </row>
     <row r="795">
-      <c r="G795" s="189"/>
-      <c r="O795" s="189"/>
+      <c r="G795" s="190"/>
+      <c r="O795" s="190"/>
     </row>
     <row r="796">
-      <c r="G796" s="189"/>
-      <c r="O796" s="189"/>
+      <c r="G796" s="190"/>
+      <c r="O796" s="190"/>
     </row>
     <row r="797">
-      <c r="G797" s="189"/>
-      <c r="O797" s="189"/>
+      <c r="G797" s="190"/>
+      <c r="O797" s="190"/>
     </row>
     <row r="798">
-      <c r="G798" s="189"/>
-      <c r="O798" s="189"/>
+      <c r="G798" s="190"/>
+      <c r="O798" s="190"/>
     </row>
     <row r="799">
-      <c r="G799" s="189"/>
-      <c r="O799" s="189"/>
+      <c r="G799" s="190"/>
+      <c r="O799" s="190"/>
     </row>
     <row r="800">
-      <c r="G800" s="189"/>
-      <c r="O800" s="189"/>
+      <c r="G800" s="190"/>
+      <c r="O800" s="190"/>
     </row>
     <row r="801">
-      <c r="G801" s="189"/>
-      <c r="O801" s="189"/>
+      <c r="G801" s="190"/>
+      <c r="O801" s="190"/>
     </row>
     <row r="802">
-      <c r="G802" s="189"/>
-      <c r="O802" s="189"/>
+      <c r="G802" s="190"/>
+      <c r="O802" s="190"/>
     </row>
     <row r="803">
-      <c r="G803" s="189"/>
-      <c r="O803" s="189"/>
+      <c r="G803" s="190"/>
+      <c r="O803" s="190"/>
     </row>
     <row r="804">
-      <c r="G804" s="189"/>
-      <c r="O804" s="189"/>
+      <c r="G804" s="190"/>
+      <c r="O804" s="190"/>
     </row>
     <row r="805">
-      <c r="G805" s="189"/>
-      <c r="O805" s="189"/>
+      <c r="G805" s="190"/>
+      <c r="O805" s="190"/>
     </row>
     <row r="806">
-      <c r="G806" s="189"/>
-      <c r="O806" s="189"/>
+      <c r="G806" s="190"/>
+      <c r="O806" s="190"/>
     </row>
     <row r="807">
-      <c r="G807" s="189"/>
-      <c r="O807" s="189"/>
+      <c r="G807" s="190"/>
+      <c r="O807" s="190"/>
     </row>
     <row r="808">
-      <c r="G808" s="189"/>
-      <c r="O808" s="189"/>
+      <c r="G808" s="190"/>
+      <c r="O808" s="190"/>
     </row>
     <row r="809">
-      <c r="G809" s="189"/>
-      <c r="O809" s="189"/>
+      <c r="G809" s="190"/>
+      <c r="O809" s="190"/>
     </row>
     <row r="810">
-      <c r="G810" s="189"/>
-      <c r="O810" s="189"/>
+      <c r="G810" s="190"/>
+      <c r="O810" s="190"/>
     </row>
     <row r="811">
-      <c r="G811" s="189"/>
-      <c r="O811" s="189"/>
+      <c r="G811" s="190"/>
+      <c r="O811" s="190"/>
     </row>
     <row r="812">
-      <c r="G812" s="189"/>
-      <c r="O812" s="189"/>
+      <c r="G812" s="190"/>
+      <c r="O812" s="190"/>
     </row>
     <row r="813">
-      <c r="G813" s="189"/>
-      <c r="O813" s="189"/>
+      <c r="G813" s="190"/>
+      <c r="O813" s="190"/>
     </row>
     <row r="814">
-      <c r="G814" s="189"/>
-      <c r="O814" s="189"/>
+      <c r="G814" s="190"/>
+      <c r="O814" s="190"/>
     </row>
     <row r="815">
-      <c r="G815" s="189"/>
-      <c r="O815" s="189"/>
+      <c r="G815" s="190"/>
+      <c r="O815" s="190"/>
     </row>
     <row r="816">
-      <c r="G816" s="189"/>
-      <c r="O816" s="189"/>
+      <c r="G816" s="190"/>
+      <c r="O816" s="190"/>
     </row>
     <row r="817">
-      <c r="G817" s="189"/>
-      <c r="O817" s="189"/>
+      <c r="G817" s="190"/>
+      <c r="O817" s="190"/>
     </row>
     <row r="818">
-      <c r="G818" s="189"/>
-      <c r="O818" s="189"/>
+      <c r="G818" s="190"/>
+      <c r="O818" s="190"/>
     </row>
     <row r="819">
-      <c r="G819" s="189"/>
-      <c r="O819" s="189"/>
+      <c r="G819" s="190"/>
+      <c r="O819" s="190"/>
     </row>
     <row r="820">
-      <c r="G820" s="189"/>
-      <c r="O820" s="189"/>
+      <c r="G820" s="190"/>
+      <c r="O820" s="190"/>
     </row>
     <row r="821">
-      <c r="G821" s="189"/>
-      <c r="O821" s="189"/>
+      <c r="G821" s="190"/>
+      <c r="O821" s="190"/>
     </row>
     <row r="822">
-      <c r="G822" s="189"/>
-      <c r="O822" s="189"/>
+      <c r="G822" s="190"/>
+      <c r="O822" s="190"/>
     </row>
     <row r="823">
-      <c r="G823" s="189"/>
-      <c r="O823" s="189"/>
+      <c r="G823" s="190"/>
+      <c r="O823" s="190"/>
     </row>
     <row r="824">
-      <c r="G824" s="189"/>
-      <c r="O824" s="189"/>
+      <c r="G824" s="190"/>
+      <c r="O824" s="190"/>
     </row>
     <row r="825">
-      <c r="G825" s="189"/>
-      <c r="O825" s="189"/>
+      <c r="G825" s="190"/>
+      <c r="O825" s="190"/>
     </row>
     <row r="826">
-      <c r="G826" s="189"/>
-      <c r="O826" s="189"/>
+      <c r="G826" s="190"/>
+      <c r="O826" s="190"/>
     </row>
     <row r="827">
-      <c r="G827" s="189"/>
-      <c r="O827" s="189"/>
+      <c r="G827" s="190"/>
+      <c r="O827" s="190"/>
     </row>
     <row r="828">
-      <c r="G828" s="189"/>
-      <c r="O828" s="189"/>
+      <c r="G828" s="190"/>
+      <c r="O828" s="190"/>
     </row>
     <row r="829">
-      <c r="G829" s="189"/>
-      <c r="O829" s="189"/>
+      <c r="G829" s="190"/>
+      <c r="O829" s="190"/>
     </row>
     <row r="830">
-      <c r="G830" s="189"/>
-      <c r="O830" s="189"/>
+      <c r="G830" s="190"/>
+      <c r="O830" s="190"/>
     </row>
     <row r="831">
-      <c r="G831" s="189"/>
-      <c r="O831" s="189"/>
+      <c r="G831" s="190"/>
+      <c r="O831" s="190"/>
     </row>
     <row r="832">
-      <c r="G832" s="189"/>
-      <c r="O832" s="189"/>
+      <c r="G832" s="190"/>
+      <c r="O832" s="190"/>
     </row>
     <row r="833">
-      <c r="G833" s="189"/>
-      <c r="O833" s="189"/>
+      <c r="G833" s="190"/>
+      <c r="O833" s="190"/>
     </row>
     <row r="834">
-      <c r="G834" s="189"/>
-      <c r="O834" s="189"/>
+      <c r="G834" s="190"/>
+      <c r="O834" s="190"/>
     </row>
     <row r="835">
-      <c r="G835" s="189"/>
-      <c r="O835" s="189"/>
+      <c r="G835" s="190"/>
+      <c r="O835" s="190"/>
     </row>
     <row r="836">
-      <c r="G836" s="189"/>
-      <c r="O836" s="189"/>
+      <c r="G836" s="190"/>
+      <c r="O836" s="190"/>
     </row>
     <row r="837">
-      <c r="G837" s="189"/>
-      <c r="O837" s="189"/>
+      <c r="G837" s="190"/>
+      <c r="O837" s="190"/>
     </row>
     <row r="838">
-      <c r="G838" s="189"/>
-      <c r="O838" s="189"/>
+      <c r="G838" s="190"/>
+      <c r="O838" s="190"/>
     </row>
     <row r="839">
-      <c r="G839" s="189"/>
-      <c r="O839" s="189"/>
+      <c r="G839" s="190"/>
+      <c r="O839" s="190"/>
     </row>
     <row r="840">
-      <c r="G840" s="189"/>
-      <c r="O840" s="189"/>
+      <c r="G840" s="190"/>
+      <c r="O840" s="190"/>
     </row>
     <row r="841">
-      <c r="G841" s="189"/>
-      <c r="O841" s="189"/>
+      <c r="G841" s="190"/>
+      <c r="O841" s="190"/>
     </row>
     <row r="842">
-      <c r="G842" s="189"/>
-      <c r="O842" s="189"/>
+      <c r="G842" s="190"/>
+      <c r="O842" s="190"/>
     </row>
     <row r="843">
-      <c r="G843" s="189"/>
-      <c r="O843" s="189"/>
+      <c r="G843" s="190"/>
+      <c r="O843" s="190"/>
     </row>
     <row r="844">
-      <c r="G844" s="189"/>
-      <c r="O844" s="189"/>
+      <c r="G844" s="190"/>
+      <c r="O844" s="190"/>
     </row>
     <row r="845">
-      <c r="G845" s="189"/>
-      <c r="O845" s="189"/>
+      <c r="G845" s="190"/>
+      <c r="O845" s="190"/>
     </row>
     <row r="846">
-      <c r="G846" s="189"/>
-      <c r="O846" s="189"/>
+      <c r="G846" s="190"/>
+      <c r="O846" s="190"/>
     </row>
     <row r="847">
-      <c r="G847" s="189"/>
-      <c r="O847" s="189"/>
+      <c r="G847" s="190"/>
+      <c r="O847" s="190"/>
     </row>
     <row r="848">
-      <c r="G848" s="189"/>
-      <c r="O848" s="189"/>
+      <c r="G848" s="190"/>
+      <c r="O848" s="190"/>
     </row>
     <row r="849">
-      <c r="G849" s="189"/>
-      <c r="O849" s="189"/>
+      <c r="G849" s="190"/>
+      <c r="O849" s="190"/>
     </row>
     <row r="850">
-      <c r="G850" s="189"/>
-      <c r="O850" s="189"/>
+      <c r="G850" s="190"/>
+      <c r="O850" s="190"/>
     </row>
     <row r="851">
-      <c r="G851" s="189"/>
-      <c r="O851" s="189"/>
+      <c r="G851" s="190"/>
+      <c r="O851" s="190"/>
     </row>
     <row r="852">
-      <c r="G852" s="189"/>
-      <c r="O852" s="189"/>
+      <c r="G852" s="190"/>
+      <c r="O852" s="190"/>
     </row>
     <row r="853">
-      <c r="G853" s="189"/>
-      <c r="O853" s="189"/>
+      <c r="G853" s="190"/>
+      <c r="O853" s="190"/>
     </row>
     <row r="854">
-      <c r="G854" s="189"/>
-      <c r="O854" s="189"/>
+      <c r="G854" s="190"/>
+      <c r="O854" s="190"/>
     </row>
     <row r="855">
-      <c r="G855" s="189"/>
-      <c r="O855" s="189"/>
+      <c r="G855" s="190"/>
+      <c r="O855" s="190"/>
     </row>
     <row r="856">
-      <c r="G856" s="189"/>
-      <c r="O856" s="189"/>
+      <c r="G856" s="190"/>
+      <c r="O856" s="190"/>
     </row>
     <row r="857">
-      <c r="G857" s="189"/>
-      <c r="O857" s="189"/>
+      <c r="G857" s="190"/>
+      <c r="O857" s="190"/>
     </row>
     <row r="858">
-      <c r="G858" s="189"/>
-      <c r="O858" s="189"/>
+      <c r="G858" s="190"/>
+      <c r="O858" s="190"/>
     </row>
     <row r="859">
-      <c r="G859" s="189"/>
-      <c r="O859" s="189"/>
+      <c r="G859" s="190"/>
+      <c r="O859" s="190"/>
     </row>
     <row r="860">
-      <c r="G860" s="189"/>
-      <c r="O860" s="189"/>
+      <c r="G860" s="190"/>
+      <c r="O860" s="190"/>
     </row>
     <row r="861">
-      <c r="G861" s="189"/>
-      <c r="O861" s="189"/>
+      <c r="G861" s="190"/>
+      <c r="O861" s="190"/>
     </row>
     <row r="862">
-      <c r="G862" s="189"/>
-      <c r="O862" s="189"/>
+      <c r="G862" s="190"/>
+      <c r="O862" s="190"/>
     </row>
     <row r="863">
-      <c r="G863" s="189"/>
-      <c r="O863" s="189"/>
+      <c r="G863" s="190"/>
+      <c r="O863" s="190"/>
     </row>
     <row r="864">
-      <c r="G864" s="189"/>
-      <c r="O864" s="189"/>
+      <c r="G864" s="190"/>
+      <c r="O864" s="190"/>
     </row>
     <row r="865">
-      <c r="G865" s="189"/>
-      <c r="O865" s="189"/>
+      <c r="G865" s="190"/>
+      <c r="O865" s="190"/>
     </row>
     <row r="866">
-      <c r="G866" s="189"/>
-      <c r="O866" s="189"/>
+      <c r="G866" s="190"/>
+      <c r="O866" s="190"/>
     </row>
     <row r="867">
-      <c r="G867" s="189"/>
-      <c r="O867" s="189"/>
+      <c r="G867" s="190"/>
+      <c r="O867" s="190"/>
     </row>
     <row r="868">
-      <c r="G868" s="189"/>
-      <c r="O868" s="189"/>
+      <c r="G868" s="190"/>
+      <c r="O868" s="190"/>
     </row>
     <row r="869">
-      <c r="G869" s="189"/>
-      <c r="O869" s="189"/>
+      <c r="G869" s="190"/>
+      <c r="O869" s="190"/>
     </row>
     <row r="870">
-      <c r="G870" s="189"/>
-      <c r="O870" s="189"/>
+      <c r="G870" s="190"/>
+      <c r="O870" s="190"/>
     </row>
     <row r="871">
-      <c r="G871" s="189"/>
-      <c r="O871" s="189"/>
+      <c r="G871" s="190"/>
+      <c r="O871" s="190"/>
     </row>
     <row r="872">
-      <c r="G872" s="189"/>
-      <c r="O872" s="189"/>
+      <c r="G872" s="190"/>
+      <c r="O872" s="190"/>
     </row>
     <row r="873">
-      <c r="G873" s="189"/>
-      <c r="O873" s="189"/>
+      <c r="G873" s="190"/>
+      <c r="O873" s="190"/>
     </row>
     <row r="874">
-      <c r="G874" s="189"/>
-      <c r="O874" s="189"/>
+      <c r="G874" s="190"/>
+      <c r="O874" s="190"/>
     </row>
     <row r="875">
-      <c r="G875" s="189"/>
-      <c r="O875" s="189"/>
+      <c r="G875" s="190"/>
+      <c r="O875" s="190"/>
     </row>
     <row r="876">
-      <c r="G876" s="189"/>
-      <c r="O876" s="189"/>
+      <c r="G876" s="190"/>
+      <c r="O876" s="190"/>
     </row>
     <row r="877">
-      <c r="G877" s="189"/>
-      <c r="O877" s="189"/>
+      <c r="G877" s="190"/>
+      <c r="O877" s="190"/>
     </row>
     <row r="878">
-      <c r="G878" s="189"/>
-      <c r="O878" s="189"/>
+      <c r="G878" s="190"/>
+      <c r="O878" s="190"/>
     </row>
     <row r="879">
-      <c r="G879" s="189"/>
-      <c r="O879" s="189"/>
+      <c r="G879" s="190"/>
+      <c r="O879" s="190"/>
     </row>
     <row r="880">
-      <c r="G880" s="189"/>
-      <c r="O880" s="189"/>
+      <c r="G880" s="190"/>
+      <c r="O880" s="190"/>
     </row>
     <row r="881">
-      <c r="G881" s="189"/>
-      <c r="O881" s="189"/>
+      <c r="G881" s="190"/>
+      <c r="O881" s="190"/>
     </row>
     <row r="882">
-      <c r="G882" s="189"/>
-      <c r="O882" s="189"/>
+      <c r="G882" s="190"/>
+      <c r="O882" s="190"/>
     </row>
     <row r="883">
-      <c r="G883" s="189"/>
-      <c r="O883" s="189"/>
+      <c r="G883" s="190"/>
+      <c r="O883" s="190"/>
     </row>
     <row r="884">
-      <c r="G884" s="189"/>
-      <c r="O884" s="189"/>
+      <c r="G884" s="190"/>
+      <c r="O884" s="190"/>
     </row>
     <row r="885">
-      <c r="G885" s="189"/>
-      <c r="O885" s="189"/>
+      <c r="G885" s="190"/>
+      <c r="O885" s="190"/>
     </row>
     <row r="886">
-      <c r="G886" s="189"/>
-      <c r="O886" s="189"/>
+      <c r="G886" s="190"/>
+      <c r="O886" s="190"/>
     </row>
     <row r="887">
-      <c r="G887" s="189"/>
-      <c r="O887" s="189"/>
+      <c r="G887" s="190"/>
+      <c r="O887" s="190"/>
     </row>
     <row r="888">
-      <c r="G888" s="189"/>
-      <c r="O888" s="189"/>
+      <c r="G888" s="190"/>
+      <c r="O888" s="190"/>
     </row>
     <row r="889">
-      <c r="G889" s="189"/>
-      <c r="O889" s="189"/>
+      <c r="G889" s="190"/>
+      <c r="O889" s="190"/>
     </row>
     <row r="890">
-      <c r="G890" s="189"/>
-      <c r="O890" s="189"/>
+      <c r="G890" s="190"/>
+      <c r="O890" s="190"/>
     </row>
     <row r="891">
-      <c r="G891" s="189"/>
-      <c r="O891" s="189"/>
+      <c r="G891" s="190"/>
+      <c r="O891" s="190"/>
     </row>
     <row r="892">
-      <c r="G892" s="189"/>
-      <c r="O892" s="189"/>
+      <c r="G892" s="190"/>
+      <c r="O892" s="190"/>
     </row>
     <row r="893">
-      <c r="G893" s="189"/>
-      <c r="O893" s="189"/>
+      <c r="G893" s="190"/>
+      <c r="O893" s="190"/>
     </row>
     <row r="894">
-      <c r="G894" s="189"/>
-      <c r="O894" s="189"/>
+      <c r="G894" s="190"/>
+      <c r="O894" s="190"/>
     </row>
     <row r="895">
-      <c r="G895" s="189"/>
-      <c r="O895" s="189"/>
+      <c r="G895" s="190"/>
+      <c r="O895" s="190"/>
     </row>
     <row r="896">
-      <c r="G896" s="189"/>
-      <c r="O896" s="189"/>
+      <c r="G896" s="190"/>
+      <c r="O896" s="190"/>
     </row>
     <row r="897">
-      <c r="G897" s="189"/>
-      <c r="O897" s="189"/>
+      <c r="G897" s="190"/>
+      <c r="O897" s="190"/>
     </row>
     <row r="898">
-      <c r="G898" s="189"/>
-      <c r="O898" s="189"/>
+      <c r="G898" s="190"/>
+      <c r="O898" s="190"/>
     </row>
     <row r="899">
-      <c r="G899" s="189"/>
-      <c r="O899" s="189"/>
+      <c r="G899" s="190"/>
+      <c r="O899" s="190"/>
     </row>
     <row r="900">
-      <c r="G900" s="189"/>
-      <c r="O900" s="189"/>
+      <c r="G900" s="190"/>
+      <c r="O900" s="190"/>
     </row>
     <row r="901">
-      <c r="G901" s="189"/>
-      <c r="O901" s="189"/>
+      <c r="G901" s="190"/>
+      <c r="O901" s="190"/>
     </row>
     <row r="902">
-      <c r="G902" s="189"/>
-      <c r="O902" s="189"/>
+      <c r="G902" s="190"/>
+      <c r="O902" s="190"/>
     </row>
     <row r="903">
-      <c r="G903" s="189"/>
-      <c r="O903" s="189"/>
+      <c r="G903" s="190"/>
+      <c r="O903" s="190"/>
     </row>
     <row r="904">
-      <c r="G904" s="189"/>
-      <c r="O904" s="189"/>
+      <c r="G904" s="190"/>
+      <c r="O904" s="190"/>
     </row>
     <row r="905">
-      <c r="G905" s="189"/>
-      <c r="O905" s="189"/>
+      <c r="G905" s="190"/>
+      <c r="O905" s="190"/>
     </row>
     <row r="906">
-      <c r="G906" s="189"/>
-      <c r="O906" s="189"/>
+      <c r="G906" s="190"/>
+      <c r="O906" s="190"/>
     </row>
     <row r="907">
-      <c r="G907" s="189"/>
-      <c r="O907" s="189"/>
+      <c r="G907" s="190"/>
+      <c r="O907" s="190"/>
     </row>
     <row r="908">
-      <c r="G908" s="189"/>
-      <c r="O908" s="189"/>
+      <c r="G908" s="190"/>
+      <c r="O908" s="190"/>
     </row>
     <row r="909">
-      <c r="G909" s="189"/>
-      <c r="O909" s="189"/>
+      <c r="G909" s="190"/>
+      <c r="O909" s="190"/>
     </row>
     <row r="910">
-      <c r="G910" s="189"/>
-      <c r="O910" s="189"/>
+      <c r="G910" s="190"/>
+      <c r="O910" s="190"/>
     </row>
     <row r="911">
-      <c r="G911" s="189"/>
-      <c r="O911" s="189"/>
+      <c r="G911" s="190"/>
+      <c r="O911" s="190"/>
     </row>
     <row r="912">
-      <c r="G912" s="189"/>
-      <c r="O912" s="189"/>
+      <c r="G912" s="190"/>
+      <c r="O912" s="190"/>
     </row>
     <row r="913">
-      <c r="G913" s="189"/>
-      <c r="O913" s="189"/>
+      <c r="G913" s="190"/>
+      <c r="O913" s="190"/>
     </row>
     <row r="914">
-      <c r="G914" s="189"/>
-      <c r="O914" s="189"/>
+      <c r="G914" s="190"/>
+      <c r="O914" s="190"/>
     </row>
     <row r="915">
-      <c r="G915" s="189"/>
-      <c r="O915" s="189"/>
+      <c r="G915" s="190"/>
+      <c r="O915" s="190"/>
     </row>
     <row r="916">
-      <c r="G916" s="189"/>
-      <c r="O916" s="189"/>
+      <c r="G916" s="190"/>
+      <c r="O916" s="190"/>
     </row>
     <row r="917">
-      <c r="G917" s="189"/>
-      <c r="O917" s="189"/>
+      <c r="G917" s="190"/>
+      <c r="O917" s="190"/>
     </row>
     <row r="918">
-      <c r="G918" s="189"/>
-      <c r="O918" s="189"/>
+      <c r="G918" s="190"/>
+      <c r="O918" s="190"/>
     </row>
     <row r="919">
-      <c r="G919" s="189"/>
-      <c r="O919" s="189"/>
+      <c r="G919" s="190"/>
+      <c r="O919" s="190"/>
     </row>
     <row r="920">
-      <c r="G920" s="189"/>
-      <c r="O920" s="189"/>
+      <c r="G920" s="190"/>
+      <c r="O920" s="190"/>
     </row>
     <row r="921">
-      <c r="G921" s="189"/>
-      <c r="O921" s="189"/>
+      <c r="G921" s="190"/>
+      <c r="O921" s="190"/>
     </row>
     <row r="922">
-      <c r="G922" s="189"/>
-      <c r="O922" s="189"/>
+      <c r="G922" s="190"/>
+      <c r="O922" s="190"/>
     </row>
     <row r="923">
-      <c r="G923" s="189"/>
-      <c r="O923" s="189"/>
+      <c r="G923" s="190"/>
+      <c r="O923" s="190"/>
     </row>
     <row r="924">
-      <c r="G924" s="189"/>
-      <c r="O924" s="189"/>
+      <c r="G924" s="190"/>
+      <c r="O924" s="190"/>
     </row>
     <row r="925">
-      <c r="G925" s="189"/>
-      <c r="O925" s="189"/>
+      <c r="G925" s="190"/>
+      <c r="O925" s="190"/>
     </row>
     <row r="926">
-      <c r="G926" s="189"/>
-      <c r="O926" s="189"/>
+      <c r="G926" s="190"/>
+      <c r="O926" s="190"/>
     </row>
     <row r="927">
-      <c r="G927" s="189"/>
-      <c r="O927" s="189"/>
+      <c r="G927" s="190"/>
+      <c r="O927" s="190"/>
     </row>
     <row r="928">
-      <c r="G928" s="189"/>
-      <c r="O928" s="189"/>
+      <c r="G928" s="190"/>
+      <c r="O928" s="190"/>
     </row>
     <row r="929">
-      <c r="G929" s="189"/>
-      <c r="O929" s="189"/>
+      <c r="G929" s="190"/>
+      <c r="O929" s="190"/>
     </row>
     <row r="930">
-      <c r="G930" s="189"/>
-      <c r="O930" s="189"/>
+      <c r="G930" s="190"/>
+      <c r="O930" s="190"/>
     </row>
     <row r="931">
-      <c r="G931" s="189"/>
-      <c r="O931" s="189"/>
+      <c r="G931" s="190"/>
+      <c r="O931" s="190"/>
     </row>
     <row r="932">
-      <c r="G932" s="189"/>
-      <c r="O932" s="189"/>
+      <c r="G932" s="190"/>
+      <c r="O932" s="190"/>
     </row>
     <row r="933">
-      <c r="G933" s="189"/>
-      <c r="O933" s="189"/>
+      <c r="G933" s="190"/>
+      <c r="O933" s="190"/>
     </row>
     <row r="934">
-      <c r="G934" s="189"/>
-      <c r="O934" s="189"/>
+      <c r="G934" s="190"/>
+      <c r="O934" s="190"/>
     </row>
     <row r="935">
-      <c r="G935" s="189"/>
-      <c r="O935" s="189"/>
+      <c r="G935" s="190"/>
+      <c r="O935" s="190"/>
     </row>
     <row r="936">
-      <c r="G936" s="189"/>
-      <c r="O936" s="189"/>
+      <c r="G936" s="190"/>
+      <c r="O936" s="190"/>
     </row>
     <row r="937">
-      <c r="G937" s="189"/>
-      <c r="O937" s="189"/>
+      <c r="G937" s="190"/>
+      <c r="O937" s="190"/>
     </row>
     <row r="938">
-      <c r="G938" s="189"/>
-      <c r="O938" s="189"/>
+      <c r="G938" s="190"/>
+      <c r="O938" s="190"/>
     </row>
     <row r="939">
-      <c r="G939" s="189"/>
-      <c r="O939" s="189"/>
+      <c r="G939" s="190"/>
+      <c r="O939" s="190"/>
     </row>
     <row r="940">
-      <c r="G940" s="189"/>
-      <c r="O940" s="189"/>
+      <c r="G940" s="190"/>
+      <c r="O940" s="190"/>
     </row>
     <row r="941">
-      <c r="G941" s="189"/>
-      <c r="O941" s="189"/>
+      <c r="G941" s="190"/>
+      <c r="O941" s="190"/>
     </row>
     <row r="942">
-      <c r="G942" s="189"/>
-      <c r="O942" s="189"/>
+      <c r="G942" s="190"/>
+      <c r="O942" s="190"/>
     </row>
     <row r="943">
-      <c r="G943" s="189"/>
-      <c r="O943" s="189"/>
+      <c r="G943" s="190"/>
+      <c r="O943" s="190"/>
     </row>
     <row r="944">
-      <c r="G944" s="189"/>
-      <c r="O944" s="189"/>
+      <c r="G944" s="190"/>
+      <c r="O944" s="190"/>
     </row>
     <row r="945">
-      <c r="G945" s="189"/>
-      <c r="O945" s="189"/>
+      <c r="G945" s="190"/>
+      <c r="O945" s="190"/>
     </row>
     <row r="946">
-      <c r="G946" s="189"/>
-      <c r="O946" s="189"/>
+      <c r="G946" s="190"/>
+      <c r="O946" s="190"/>
     </row>
     <row r="947">
-      <c r="G947" s="189"/>
-      <c r="O947" s="189"/>
+      <c r="G947" s="190"/>
+      <c r="O947" s="190"/>
     </row>
     <row r="948">
-      <c r="G948" s="189"/>
-      <c r="O948" s="189"/>
+      <c r="G948" s="190"/>
+      <c r="O948" s="190"/>
     </row>
     <row r="949">
-      <c r="G949" s="189"/>
-      <c r="O949" s="189"/>
+      <c r="G949" s="190"/>
+      <c r="O949" s="190"/>
     </row>
     <row r="950">
-      <c r="G950" s="189"/>
-      <c r="O950" s="189"/>
+      <c r="G950" s="190"/>
+      <c r="O950" s="190"/>
     </row>
     <row r="951">
-      <c r="G951" s="189"/>
-      <c r="O951" s="189"/>
+      <c r="G951" s="190"/>
+      <c r="O951" s="190"/>
     </row>
     <row r="952">
-      <c r="G952" s="189"/>
-      <c r="O952" s="189"/>
+      <c r="G952" s="190"/>
+      <c r="O952" s="190"/>
     </row>
     <row r="953">
-      <c r="G953" s="189"/>
-      <c r="O953" s="189"/>
+      <c r="G953" s="190"/>
+      <c r="O953" s="190"/>
     </row>
     <row r="954">
-      <c r="G954" s="189"/>
-      <c r="O954" s="189"/>
+      <c r="G954" s="190"/>
+      <c r="O954" s="190"/>
     </row>
     <row r="955">
-      <c r="G955" s="189"/>
-      <c r="O955" s="189"/>
+      <c r="G955" s="190"/>
+      <c r="O955" s="190"/>
     </row>
     <row r="956">
-      <c r="G956" s="189"/>
-      <c r="O956" s="189"/>
+      <c r="G956" s="190"/>
+      <c r="O956" s="190"/>
     </row>
     <row r="957">
-      <c r="G957" s="189"/>
-      <c r="O957" s="189"/>
+      <c r="G957" s="190"/>
+      <c r="O957" s="190"/>
     </row>
     <row r="958">
-      <c r="G958" s="189"/>
-      <c r="O958" s="189"/>
+      <c r="G958" s="190"/>
+      <c r="O958" s="190"/>
     </row>
     <row r="959">
-      <c r="G959" s="189"/>
-      <c r="O959" s="189"/>
+      <c r="G959" s="190"/>
+      <c r="O959" s="190"/>
     </row>
     <row r="960">
-      <c r="G960" s="189"/>
-      <c r="O960" s="189"/>
+      <c r="G960" s="190"/>
+      <c r="O960" s="190"/>
     </row>
     <row r="961">
-      <c r="G961" s="189"/>
-      <c r="O961" s="189"/>
+      <c r="G961" s="190"/>
+      <c r="O961" s="190"/>
     </row>
     <row r="962">
-      <c r="G962" s="189"/>
-      <c r="O962" s="189"/>
+      <c r="G962" s="190"/>
+      <c r="O962" s="190"/>
     </row>
     <row r="963">
-      <c r="G963" s="189"/>
-      <c r="O963" s="189"/>
+      <c r="G963" s="190"/>
+      <c r="O963" s="190"/>
     </row>
     <row r="964">
-      <c r="G964" s="189"/>
-      <c r="O964" s="189"/>
+      <c r="G964" s="190"/>
+      <c r="O964" s="190"/>
     </row>
     <row r="965">
-      <c r="G965" s="189"/>
-      <c r="O965" s="189"/>
+      <c r="G965" s="190"/>
+      <c r="O965" s="190"/>
     </row>
     <row r="966">
-      <c r="G966" s="189"/>
-      <c r="O966" s="189"/>
+      <c r="G966" s="190"/>
+      <c r="O966" s="190"/>
     </row>
     <row r="967">
-      <c r="G967" s="189"/>
-      <c r="O967" s="189"/>
+      <c r="G967" s="190"/>
+      <c r="O967" s="190"/>
     </row>
     <row r="968">
-      <c r="G968" s="189"/>
-      <c r="O968" s="189"/>
+      <c r="G968" s="190"/>
+      <c r="O968" s="190"/>
     </row>
     <row r="969">
-      <c r="G969" s="189"/>
-      <c r="O969" s="189"/>
+      <c r="G969" s="190"/>
+      <c r="O969" s="190"/>
     </row>
     <row r="970">
-      <c r="G970" s="189"/>
-      <c r="O970" s="189"/>
+      <c r="G970" s="190"/>
+      <c r="O970" s="190"/>
     </row>
     <row r="971">
-      <c r="G971" s="189"/>
-      <c r="O971" s="189"/>
+      <c r="G971" s="190"/>
+      <c r="O971" s="190"/>
     </row>
     <row r="972">
-      <c r="G972" s="189"/>
-      <c r="O972" s="189"/>
+      <c r="G972" s="190"/>
+      <c r="O972" s="190"/>
     </row>
     <row r="973">
-      <c r="G973" s="189"/>
-      <c r="O973" s="189"/>
+      <c r="G973" s="190"/>
+      <c r="O973" s="190"/>
     </row>
     <row r="974">
-      <c r="G974" s="189"/>
-      <c r="O974" s="189"/>
+      <c r="G974" s="190"/>
+      <c r="O974" s="190"/>
     </row>
     <row r="975">
-      <c r="G975" s="189"/>
-      <c r="O975" s="189"/>
+      <c r="G975" s="190"/>
+      <c r="O975" s="190"/>
     </row>
     <row r="976">
-      <c r="G976" s="189"/>
-      <c r="O976" s="189"/>
+      <c r="G976" s="190"/>
+      <c r="O976" s="190"/>
     </row>
     <row r="977">
-      <c r="G977" s="189"/>
-      <c r="O977" s="189"/>
+      <c r="G977" s="190"/>
+      <c r="O977" s="190"/>
     </row>
     <row r="978">
-      <c r="G978" s="189"/>
-      <c r="O978" s="189"/>
+      <c r="G978" s="190"/>
+      <c r="O978" s="190"/>
     </row>
     <row r="979">
-      <c r="G979" s="189"/>
-      <c r="O979" s="189"/>
+      <c r="G979" s="190"/>
+      <c r="O979" s="190"/>
     </row>
     <row r="980">
-      <c r="G980" s="189"/>
-      <c r="O980" s="189"/>
+      <c r="G980" s="190"/>
+      <c r="O980" s="190"/>
     </row>
     <row r="981">
-      <c r="G981" s="189"/>
-      <c r="O981" s="189"/>
+      <c r="G981" s="190"/>
+      <c r="O981" s="190"/>
     </row>
     <row r="982">
-      <c r="G982" s="189"/>
-      <c r="O982" s="189"/>
+      <c r="G982" s="190"/>
+      <c r="O982" s="190"/>
     </row>
     <row r="983">
-      <c r="G983" s="189"/>
-      <c r="O983" s="189"/>
+      <c r="G983" s="190"/>
+      <c r="O983" s="190"/>
     </row>
     <row r="984">
-      <c r="G984" s="189"/>
-      <c r="O984" s="189"/>
+      <c r="G984" s="190"/>
+      <c r="O984" s="190"/>
     </row>
     <row r="985">
-      <c r="G985" s="189"/>
-      <c r="O985" s="189"/>
+      <c r="G985" s="190"/>
+      <c r="O985" s="190"/>
     </row>
     <row r="986">
-      <c r="G986" s="189"/>
-      <c r="O986" s="189"/>
+      <c r="G986" s="190"/>
+      <c r="O986" s="190"/>
     </row>
     <row r="987">
-      <c r="G987" s="189"/>
-      <c r="O987" s="189"/>
+      <c r="G987" s="190"/>
+      <c r="O987" s="190"/>
     </row>
     <row r="988">
-      <c r="G988" s="189"/>
-      <c r="O988" s="189"/>
+      <c r="G988" s="190"/>
+      <c r="O988" s="190"/>
     </row>
     <row r="989">
-      <c r="G989" s="189"/>
-      <c r="O989" s="189"/>
+      <c r="G989" s="190"/>
+      <c r="O989" s="190"/>
     </row>
     <row r="990">
-      <c r="G990" s="189"/>
-      <c r="O990" s="189"/>
+      <c r="G990" s="190"/>
+      <c r="O990" s="190"/>
     </row>
     <row r="991">
-      <c r="G991" s="189"/>
-      <c r="O991" s="189"/>
+      <c r="G991" s="190"/>
+      <c r="O991" s="190"/>
     </row>
     <row r="992">
-      <c r="G992" s="189"/>
-      <c r="O992" s="189"/>
+      <c r="G992" s="190"/>
+      <c r="O992" s="190"/>
     </row>
     <row r="993">
-      <c r="G993" s="189"/>
-      <c r="O993" s="189"/>
+      <c r="G993" s="190"/>
+      <c r="O993" s="190"/>
     </row>
     <row r="994">
-      <c r="G994" s="189"/>
-      <c r="O994" s="189"/>
+      <c r="G994" s="190"/>
+      <c r="O994" s="190"/>
     </row>
     <row r="995">
-      <c r="G995" s="189"/>
-      <c r="O995" s="189"/>
+      <c r="G995" s="190"/>
+      <c r="O995" s="190"/>
     </row>
     <row r="996">
-      <c r="G996" s="189"/>
-      <c r="O996" s="189"/>
+      <c r="G996" s="190"/>
+      <c r="O996" s="190"/>
     </row>
     <row r="997">
-      <c r="G997" s="189"/>
-      <c r="O997" s="189"/>
+      <c r="G997" s="190"/>
+      <c r="O997" s="190"/>
     </row>
     <row r="998">
-      <c r="G998" s="189"/>
-      <c r="O998" s="189"/>
+      <c r="G998" s="190"/>
+      <c r="O998" s="190"/>
     </row>
     <row r="999">
-      <c r="G999" s="189"/>
-      <c r="O999" s="189"/>
+      <c r="G999" s="190"/>
+      <c r="O999" s="190"/>
     </row>
     <row r="1000">
-      <c r="G1000" s="189"/>
-      <c r="O1000" s="189"/>
+      <c r="G1000" s="190"/>
+      <c r="O1000" s="190"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -8,9 +8,10 @@
     <sheet state="visible" name="Information_Train_Turret_Part" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Information_Train_Booster_Part" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Information_Monster" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Information_Mercenary" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Information_Stage" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Information_Item" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Information_Boss" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Information_Mercenary" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Information_Stage" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Information_Item" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="405">
   <si>
     <t>Number</t>
   </si>
@@ -317,9 +318,6 @@
     <t>Monster_Atk</t>
   </si>
   <si>
-    <t>Monster_Bullet</t>
-  </si>
-  <si>
     <t>Monster_Bullet_Delay</t>
   </si>
   <si>
@@ -332,19 +330,13 @@
     <t>Monster_Target</t>
   </si>
   <si>
-    <t>Monster_Sprite</t>
-  </si>
-  <si>
     <t>Monster_Score</t>
   </si>
   <si>
     <t>Monster_Coin</t>
   </si>
   <si>
-    <t>monster_0</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/0</t>
+    <t>일반 약탈자</t>
   </si>
   <si>
     <t>Sky</t>
@@ -353,13 +345,16 @@
     <t>None</t>
   </si>
   <si>
-    <t>MonsterSprite/0</t>
+    <t>보급 약탈자</t>
   </si>
   <si>
-    <t>monster_1</t>
+    <t>정예 약탈자</t>
   </si>
   <si>
-    <t>Bullet/Monster/1</t>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>장미</t>
   </si>
   <si>
     <t>Ground</t>
@@ -368,34 +363,19 @@
     <t>Straight</t>
   </si>
   <si>
-    <t>MonsterSprite/1</t>
-  </si>
-  <si>
-    <t>monster_2</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/2</t>
-  </si>
-  <si>
-    <t>MonsterSprite/2</t>
-  </si>
-  <si>
-    <t>monster_3</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/3</t>
-  </si>
-  <si>
-    <t>Player</t>
+    <t>까마귀</t>
   </si>
   <si>
     <t>Boss</t>
   </si>
   <si>
-    <t>Bullet/Monster/Boss0</t>
+    <t>Monster_Bullet</t>
   </si>
   <si>
-    <t>Train</t>
+    <t>Monster_Sprite</t>
+  </si>
+  <si>
+    <t>Bullet/Monster/Boss0</t>
   </si>
   <si>
     <t>MonsterSprite/Boss</t>
@@ -2164,6 +2144,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -64381,19 +64365,13 @@
       <c r="J1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -64401,28 +64379,22 @@
       <c r="D2" s="1">
         <v>100.0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>108</v>
+      <c r="E2" s="1">
+        <v>3.0</v>
       </c>
       <c r="F2" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G2" s="1">
         <v>10.0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="1">
+        <v>107</v>
+      </c>
+      <c r="I2" s="1">
         <v>100.0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="J2" s="1">
         <v>300.0</v>
       </c>
     </row>
@@ -64431,37 +64403,31 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1">
-        <v>120.0</v>
+        <v>80.0</v>
       </c>
       <c r="D3" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>100.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.0</v>
       </c>
       <c r="F3" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>400.0</v>
+        <v>107</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
@@ -64469,37 +64435,31 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1">
-        <v>60.0</v>
+        <v>250.0</v>
       </c>
       <c r="D4" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="J4" s="1">
         <v>500.0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1000.0</v>
       </c>
     </row>
     <row r="5">
@@ -64507,37 +64467,31 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
-        <v>250.0</v>
+        <v>120.0</v>
       </c>
       <c r="D5" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>500.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.0</v>
       </c>
       <c r="F5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>15.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>500.0</v>
+        <v>113</v>
+      </c>
+      <c r="I5" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>400.0</v>
       </c>
     </row>
     <row r="6">
@@ -64545,42 +64499,63 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1">
-        <v>999999.0</v>
+        <v>60.0</v>
       </c>
       <c r="D6" s="1">
-        <v>999999.0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>500.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
       </c>
       <c r="F6" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>999.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="1">
-        <v>9999999.0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>9999999.0</v>
+        <v>113</v>
+      </c>
+      <c r="I6" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>5.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1">
+        <v>999999.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9999999.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9999999.0</v>
       </c>
     </row>
     <row r="8">
@@ -64612,6 +64587,155 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.14"/>
+    <col customWidth="1" min="3" max="3" width="11.86"/>
+    <col customWidth="1" min="5" max="5" width="20.0"/>
+    <col customWidth="1" min="6" max="6" width="20.14"/>
+    <col customWidth="1" min="7" max="7" width="19.43"/>
+    <col customWidth="1" min="8" max="8" width="14.71"/>
+    <col customWidth="1" min="9" max="10" width="16.29"/>
+    <col customWidth="1" min="11" max="11" width="15.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1">
+        <v>999999.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9999999.0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9999999.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -64632,28 +64756,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -64661,13 +64785,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -64687,13 +64811,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -64713,13 +64837,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -64739,13 +64863,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -64765,13 +64889,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -64791,13 +64915,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1">
         <v>400.0</v>
@@ -64817,13 +64941,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F8" s="1">
         <v>300.0</v>
@@ -64843,7 +64967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -64871,37 +64995,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="J1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="K1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -64909,7 +65033,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C2" s="57">
         <v>9999999.0</v>
@@ -64944,13 +65068,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C3" s="57">
         <v>10000.0</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1">
         <v>6.0</v>
@@ -64979,13 +65103,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C4" s="57">
         <v>180000.0</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1">
         <v>7.0</v>
@@ -65014,13 +65138,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1">
         <v>8.0</v>
@@ -65049,13 +65173,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1">
         <v>9.0</v>
@@ -65084,7 +65208,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1">
         <v>250000.0</v>
@@ -68129,7 +68253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -68151,46 +68275,46 @@
         <v>61</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="J1" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="K1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="L1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="N1" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="O1" s="62" t="s">
         <v>181</v>
-      </c>
-      <c r="I1" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" s="62" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -68198,22 +68322,22 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H2" s="71" t="b">
         <v>0</v>
@@ -68245,22 +68369,22 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G3" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H3" s="83" t="b">
         <v>0</v>
@@ -68292,22 +68416,22 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H4" s="83" t="b">
         <v>0</v>
@@ -68339,22 +68463,22 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H5" s="83" t="b">
         <v>0</v>
@@ -68386,22 +68510,22 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H6" s="83" t="b">
         <v>0</v>
@@ -68433,22 +68557,22 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H7" s="83" t="b">
         <v>0</v>
@@ -68480,22 +68604,22 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H8" s="83" t="b">
         <v>0</v>
@@ -68527,22 +68651,22 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H9" s="83" t="b">
         <v>0</v>
@@ -68574,22 +68698,22 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H10" s="83" t="b">
         <v>0</v>
@@ -68621,22 +68745,22 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H11" s="83" t="b">
         <v>0</v>
@@ -68668,22 +68792,22 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H12" s="83" t="b">
         <v>0</v>
@@ -68715,22 +68839,22 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H13" s="83" t="b">
         <v>0</v>
@@ -68762,22 +68886,22 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H14" s="83" t="b">
         <v>0</v>
@@ -68809,22 +68933,22 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H15" s="83" t="b">
         <v>0</v>
@@ -68856,22 +68980,22 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H16" s="83" t="b">
         <v>0</v>
@@ -68903,22 +69027,22 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H17" s="83" t="b">
         <v>0</v>
@@ -68950,22 +69074,22 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H18" s="83" t="b">
         <v>0</v>
@@ -68997,22 +69121,22 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H19" s="83" t="b">
         <v>0</v>
@@ -69044,22 +69168,22 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H20" s="83" t="b">
         <v>0</v>
@@ -69091,22 +69215,22 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E21" s="100" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H21" s="103" t="b">
         <v>0</v>
@@ -69138,22 +69262,22 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E22" s="113" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H22" s="83" t="b">
         <v>0</v>
@@ -69185,22 +69309,22 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C23" s="120" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E23" s="122" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H23" s="83" t="b">
         <v>0</v>
@@ -69232,22 +69356,22 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C24" s="123" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D24" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="122" t="s">
-        <v>261</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H24" s="83" t="b">
         <v>0</v>
@@ -69279,22 +69403,22 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="119" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E25" s="122" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H25" s="83" t="b">
         <v>0</v>
@@ -69326,22 +69450,22 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C26" s="120" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H26" s="83" t="b">
         <v>0</v>
@@ -69373,22 +69497,22 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="119" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C27" s="120" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D27" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H27" s="83" t="b">
         <v>0</v>
@@ -69420,22 +69544,22 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H28" s="83" t="b">
         <v>0</v>
@@ -69467,22 +69591,22 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D29" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E29" s="124" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H29" s="83" t="b">
         <v>0</v>
@@ -69514,22 +69638,22 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D30" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E30" s="122" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H30" s="83" t="b">
         <v>0</v>
@@ -69561,22 +69685,22 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D31" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E31" s="124" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H31" s="83" t="b">
         <v>0</v>
@@ -69608,22 +69732,22 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="120" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C32" s="120" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D32" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H32" s="83" t="b">
         <v>0</v>
@@ -69655,22 +69779,22 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C33" s="120" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D33" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E33" s="122" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H33" s="83" t="b">
         <v>0</v>
@@ -69702,22 +69826,22 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C34" s="120" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D34" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E34" s="122" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G34" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H34" s="83" t="b">
         <v>0</v>
@@ -69749,22 +69873,22 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="119" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C35" s="120" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D35" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E35" s="122" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H35" s="83" t="b">
         <v>0</v>
@@ -69796,22 +69920,22 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D36" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E36" s="124" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H36" s="83" t="b">
         <v>0</v>
@@ -69843,22 +69967,22 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="120" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C37" s="123" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D37" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E37" s="122" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H37" s="83" t="b">
         <v>0</v>
@@ -69890,22 +70014,22 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="119" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E38" s="122" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G38" s="82" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H38" s="83" t="b">
         <v>0</v>
@@ -69937,22 +70061,22 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="94" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D39" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E39" s="124" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G39" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H39" s="83" t="b">
         <v>0</v>
@@ -69984,22 +70108,22 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="119" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D40" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E40" s="122" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H40" s="83" t="b">
         <v>0</v>
@@ -70031,22 +70155,22 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="119" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C41" s="119" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D41" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E41" s="124" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H41" s="83" t="b">
         <v>0</v>
@@ -70078,22 +70202,22 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C42" s="120" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D42" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E42" s="124" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G42" s="82" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H42" s="83" t="b">
         <v>0</v>
@@ -70125,22 +70249,22 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="119" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D43" s="121" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E43" s="124" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G43" s="82" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H43" s="83" t="b">
         <v>0</v>
@@ -70172,22 +70296,22 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="126" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D44" s="127" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E44" s="128" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F44" s="101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G44" s="102" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H44" s="103" t="b">
         <v>0</v>
@@ -70219,22 +70343,22 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="134" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C45" s="135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D45" s="136" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E45" s="137" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G45" s="82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H45" s="83" t="b">
         <v>0</v>
@@ -70266,22 +70390,22 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="135" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C46" s="135" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D46" s="136" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E46" s="139" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G46" s="82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H46" s="83" t="b">
         <v>0</v>
@@ -70313,22 +70437,22 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="135" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C47" s="135" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E47" s="140" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G47" s="82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H47" s="83" t="b">
         <v>0</v>
@@ -70360,22 +70484,22 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="135" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C48" s="141" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D48" s="136" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E48" s="139" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G48" s="82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H48" s="83" t="b">
         <v>0</v>
@@ -70407,22 +70531,22 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="135" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C49" s="135" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D49" s="136" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E49" s="139" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G49" s="82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H49" s="83" t="b">
         <v>0</v>
@@ -70454,22 +70578,22 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="142" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C50" s="142" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D50" s="127" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E50" s="143" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F50" s="101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G50" s="102" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H50" s="103" t="b">
         <v>0</v>
@@ -70501,22 +70625,22 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="146" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C51" s="146" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D51" s="147" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="148" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F51" s="69" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H51" s="83" t="b">
         <v>0</v>
@@ -70548,22 +70672,22 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="152" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C52" s="152" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D52" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="154" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H52" s="83" t="b">
         <v>0</v>
@@ -70595,22 +70719,22 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="152" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C53" s="152" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D53" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="154" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H53" s="83" t="b">
         <v>0</v>
@@ -70642,22 +70766,22 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="152" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C54" s="152" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D54" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="154" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G54" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H54" s="83" t="b">
         <v>0</v>
@@ -70689,22 +70813,22 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="156" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C55" s="156" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D55" s="157" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="158" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H55" s="159" t="b">
         <v>1</v>
@@ -70736,22 +70860,22 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="160" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C56" s="161" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D56" s="162" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E56" s="163" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H56" s="164" t="b">
         <v>1</v>
@@ -70783,22 +70907,22 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="165" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C57" s="166" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D57" s="167" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E57" s="168" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G57" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H57" s="164" t="b">
         <v>1</v>
@@ -70830,22 +70954,22 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="169" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C58" s="169" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D58" s="170" t="s">
+        <v>353</v>
+      </c>
+      <c r="E58" s="171" t="s">
         <v>360</v>
       </c>
-      <c r="E58" s="171" t="s">
-        <v>367</v>
-      </c>
       <c r="F58" s="101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G58" s="102" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H58" s="159" t="b">
         <v>1</v>
@@ -70877,22 +71001,22 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="173" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C59" s="173" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E59" s="175" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G59" s="82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H59" s="164" t="b">
         <v>1</v>
@@ -70924,22 +71048,22 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="177" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C60" s="177" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D60" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E60" s="179" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G60" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H60" s="83" t="b">
         <v>0</v>
@@ -70971,22 +71095,22 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="180" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C61" s="180" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D61" s="178" t="s">
+        <v>363</v>
+      </c>
+      <c r="E61" s="179" t="s">
         <v>370</v>
       </c>
-      <c r="E61" s="179" t="s">
-        <v>377</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G61" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H61" s="83" t="b">
         <v>0</v>
@@ -71018,22 +71142,22 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="180" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C62" s="180" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D62" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E62" s="179" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G62" s="82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H62" s="83" t="b">
         <v>0</v>
@@ -71065,22 +71189,22 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="180" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C63" s="180" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D63" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E63" s="179" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G63" s="82" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H63" s="83" t="b">
         <v>0</v>
@@ -71112,22 +71236,22 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="180" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C64" s="180" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D64" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E64" s="179" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G64" s="82" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H64" s="83" t="b">
         <v>0</v>
@@ -71159,22 +71283,22 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="180" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C65" s="180" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D65" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E65" s="179" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G65" s="82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H65" s="83" t="b">
         <v>0</v>
@@ -71206,22 +71330,22 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="180" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C66" s="180" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D66" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E66" s="179" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G66" s="82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H66" s="83" t="b">
         <v>0</v>
@@ -71253,22 +71377,22 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="180" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C67" s="177" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D67" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E67" s="181" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G67" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H67" s="83" t="b">
         <v>0</v>
@@ -71300,22 +71424,22 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="177" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C68" s="177" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D68" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E68" s="179" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H68" s="83" t="b">
         <v>0</v>
@@ -71347,22 +71471,22 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="180" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C69" s="180" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D69" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E69" s="179" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G69" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H69" s="83" t="b">
         <v>0</v>
@@ -71394,22 +71518,22 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="177" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C70" s="177" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D70" s="178" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E70" s="179" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G70" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H70" s="83" t="b">
         <v>0</v>
@@ -71441,22 +71565,22 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="183" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C71" s="183" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D71" s="184" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E71" s="185" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F71" s="101" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G71" s="102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H71" s="103" t="b">
         <v>0</v>
@@ -71488,22 +71612,22 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="187" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C72" s="187" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D72" s="188" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E72" s="189" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G72" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H72" s="83" t="b">
         <v>0</v>
@@ -71535,22 +71659,22 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C73" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D73" s="192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E73" s="193" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G73" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H73" s="83" t="b">
         <v>0</v>
@@ -71582,22 +71706,22 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C74" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D74" s="192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E74" s="193" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G74" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H74" s="83" t="b">
         <v>0</v>
@@ -71629,22 +71753,22 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C75" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D75" s="192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E75" s="193" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G75" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H75" s="83" t="b">
         <v>0</v>
@@ -71676,22 +71800,22 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C76" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D76" s="192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E76" s="193" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G76" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H76" s="83" t="b">
         <v>0</v>
@@ -71723,22 +71847,22 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C77" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D77" s="192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E77" s="193" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G77" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H77" s="83" t="b">
         <v>0</v>
@@ -71770,22 +71894,22 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C78" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D78" s="192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E78" s="193" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G78" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H78" s="83" t="b">
         <v>0</v>
@@ -71817,22 +71941,22 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C79" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D79" s="192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E79" s="193" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G79" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H79" s="83" t="b">
         <v>0</v>
@@ -71864,22 +71988,22 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C80" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D80" s="192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E80" s="193" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H80" s="83" t="b">
         <v>0</v>
@@ -71911,22 +72035,22 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="195" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C81" s="195" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D81" s="196" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E81" s="197" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F81" s="101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G81" s="102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H81" s="103" t="b">
         <v>0</v>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="407">
   <si>
     <t>Number</t>
   </si>
@@ -318,6 +318,9 @@
     <t>Monster_Atk</t>
   </si>
   <si>
+    <t>Monster_Bullet_Speed</t>
+  </si>
+  <si>
     <t>Monster_Bullet_Delay</t>
   </si>
   <si>
@@ -325,9 +328,6 @@
   </si>
   <si>
     <t>Monster_Type</t>
-  </si>
-  <si>
-    <t>Monster_Target</t>
   </si>
   <si>
     <t>Monster_Score</t>
@@ -342,16 +342,10 @@
     <t>Sky</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>보급 약탈자</t>
   </si>
   <si>
     <t>정예 약탈자</t>
-  </si>
-  <si>
-    <t>Player</t>
   </si>
   <si>
     <t>장미</t>
@@ -360,25 +354,16 @@
     <t>Ground</t>
   </si>
   <si>
-    <t>Straight</t>
-  </si>
-  <si>
     <t>까마귀</t>
   </si>
   <si>
-    <t>Boss</t>
+    <t>거미알</t>
   </si>
   <si>
-    <t>Monster_Bullet</t>
+    <t>아기 거미</t>
   </si>
   <si>
-    <t>Monster_Sprite</t>
-  </si>
-  <si>
-    <t>Bullet/Monster/Boss0</t>
-  </si>
-  <si>
-    <t>MonsterSprite/Boss</t>
+    <t>여왕 거미</t>
   </si>
   <si>
     <t>Name</t>
@@ -480,6 +465,9 @@
     <t>Reward_Item</t>
   </si>
   <si>
+    <t>Reward_ItemCount</t>
+  </si>
+  <si>
     <t>D_Grade</t>
   </si>
   <si>
@@ -493,6 +481,18 @@
   </si>
   <si>
     <t>S_Grade</t>
+  </si>
+  <si>
+    <t>Boss_Flag</t>
+  </si>
+  <si>
+    <t>Emerging_Boss</t>
+  </si>
+  <si>
+    <t>Boss_Monster_Count</t>
+  </si>
+  <si>
+    <t>Boss_Distance</t>
   </si>
   <si>
     <t>의뢰 수주</t>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>주행</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4</t>
   </si>
   <si>
     <t>Item_Id</t>
@@ -766,6 +769,9 @@
   </si>
   <si>
     <t>15초 동안 적을 공격할 경우 체력의 0.5%를 회복합니다.</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>Bouncing^Bullet</t>
@@ -64380,16 +64386,16 @@
         <v>100.0</v>
       </c>
       <c r="E2" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>3.0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>10.0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="I2" s="1">
         <v>100.0</v>
@@ -64403,7 +64409,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1">
         <v>80.0</v>
@@ -64412,16 +64418,16 @@
         <v>100.0</v>
       </c>
       <c r="E3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F3" s="1">
         <v>4.0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>10.0</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="I3" s="1">
         <v>100.0</v>
@@ -64435,25 +64441,25 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1">
-        <v>250.0</v>
+        <v>100.0</v>
       </c>
       <c r="D4" s="1">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="E4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F4" s="1">
         <v>2.0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>10.0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="I4" s="1">
         <v>600.0</v>
@@ -64467,25 +64473,25 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1">
         <v>120.0</v>
       </c>
       <c r="D5" s="1">
-        <v>500.0</v>
+        <v>150.0</v>
       </c>
       <c r="E5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F5" s="1">
         <v>7.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I5" s="1">
         <v>200.0</v>
@@ -64499,7 +64505,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1">
         <v>60.0</v>
@@ -64508,16 +64514,16 @@
         <v>500.0</v>
       </c>
       <c r="E6" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F6" s="1">
         <v>1.0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>10.0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="I6" s="1">
         <v>400.0</v>
@@ -64531,55 +64537,64 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1">
-        <v>999999.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" s="1">
         <v>0.0</v>
       </c>
       <c r="E7" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="1">
         <v>0.0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>112</v>
+      <c r="G7" s="1">
+        <v>0.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I7" s="1">
-        <v>9999999.0</v>
+        <v>200.0</v>
       </c>
       <c r="J7" s="1">
-        <v>9999999.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -64620,27 +64635,21 @@
         <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -64649,82 +64658,31 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1">
-        <v>999999.0</v>
+        <v>50.0</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>150.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10.0</v>
       </c>
       <c r="F2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G2" s="1">
         <v>5.0</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="1">
+        <v>110</v>
+      </c>
+      <c r="I2" s="1">
         <v>9999999.0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="J2" s="1">
         <v>9999999.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -64756,28 +64714,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
@@ -64785,13 +64743,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -64811,13 +64769,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -64837,13 +64795,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -64863,13 +64821,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -64889,13 +64847,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -64915,13 +64873,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1">
         <v>400.0</v>
@@ -64941,13 +64899,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1">
         <v>300.0</v>
@@ -64982,12 +64940,12 @@
     <col customWidth="1" min="3" max="3" width="18.86"/>
     <col customWidth="1" min="4" max="4" width="20.71"/>
     <col customWidth="1" min="5" max="5" width="14.57"/>
-    <col customWidth="1" min="6" max="6" width="18.71"/>
+    <col customWidth="1" min="6" max="6" width="13.0"/>
     <col customWidth="1" min="7" max="7" width="12.57"/>
-    <col customWidth="1" min="8" max="8" width="8.57"/>
+    <col customWidth="1" min="8" max="8" width="17.57"/>
     <col customWidth="1" min="9" max="10" width="8.43"/>
     <col customWidth="1" min="11" max="11" width="8.57"/>
-    <col customWidth="1" min="12" max="12" width="8.29"/>
+    <col customWidth="1" min="12" max="13" width="8.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -64995,36 +64953,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="H1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="I1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -65042,25 +65015,37 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" s="1">
         <v>3.0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>100.0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>200.0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>400.0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>800.0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1200.0</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -65077,25 +65062,37 @@
         <v>160</v>
       </c>
       <c r="E3" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" s="1">
         <v>3.0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>100.0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>300.0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>600.0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>900.0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1500.0</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
@@ -65117,20 +65114,32 @@
       <c r="F4" s="1">
         <v>4.0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>100.0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>300.0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>600.0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>900.0</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>1500.0</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
@@ -65147,25 +65156,37 @@
         <v>164</v>
       </c>
       <c r="E5" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F5" s="1">
         <v>4.0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>100.0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>500.0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>900.0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1200.0</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>2000.0</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
@@ -65187,20 +65208,32 @@
       <c r="F6" s="1">
         <v>4.0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>100.0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>500.0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1000.0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1500.0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>2200.0</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
@@ -65211,31 +65244,43 @@
         <v>167</v>
       </c>
       <c r="C7" s="1">
-        <v>250000.0</v>
-      </c>
-      <c r="D7" s="58">
-        <v>4.0</v>
+        <v>10000.0</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>168</v>
       </c>
       <c r="E7" s="1">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" s="1">
         <v>4.0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>100.0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>200.0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>300.0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>400.0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>500.0</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>90.0</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
@@ -68275,46 +68320,46 @@
         <v>61</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O1" s="62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
@@ -68322,22 +68367,22 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H2" s="71" t="b">
         <v>0</v>
@@ -68369,22 +68414,22 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>187</v>
       </c>
       <c r="H3" s="83" t="b">
         <v>0</v>
@@ -68416,22 +68461,22 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H4" s="83" t="b">
         <v>0</v>
@@ -68463,22 +68508,22 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" s="83" t="b">
         <v>0</v>
@@ -68510,22 +68555,22 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H6" s="83" t="b">
         <v>0</v>
@@ -68557,22 +68602,22 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H7" s="83" t="b">
         <v>0</v>
@@ -68604,22 +68649,22 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="83" t="b">
         <v>0</v>
@@ -68651,22 +68696,22 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H9" s="83" t="b">
         <v>0</v>
@@ -68698,22 +68743,22 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H10" s="83" t="b">
         <v>0</v>
@@ -68745,22 +68790,22 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H11" s="83" t="b">
         <v>0</v>
@@ -68792,22 +68837,22 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H12" s="83" t="b">
         <v>0</v>
@@ -68839,22 +68884,22 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H13" s="83" t="b">
         <v>0</v>
@@ -68886,22 +68931,22 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H14" s="83" t="b">
         <v>0</v>
@@ -68933,22 +68978,22 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H15" s="83" t="b">
         <v>0</v>
@@ -68980,22 +69025,22 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H16" s="83" t="b">
         <v>0</v>
@@ -69027,22 +69072,22 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H17" s="83" t="b">
         <v>0</v>
@@ -69074,22 +69119,22 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H18" s="83" t="b">
         <v>0</v>
@@ -69121,22 +69166,22 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H19" s="83" t="b">
         <v>0</v>
@@ -69168,22 +69213,22 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H20" s="83" t="b">
         <v>0</v>
@@ -69215,22 +69260,22 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21" s="100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H21" s="103" t="b">
         <v>0</v>
@@ -69262,22 +69307,22 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E22" s="113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H22" s="83" t="b">
         <v>0</v>
@@ -69309,22 +69354,22 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C23" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D23" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="E23" s="122" t="s">
-        <v>251</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G23" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H23" s="83" t="b">
         <v>0</v>
@@ -69356,22 +69401,22 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C24" s="123" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E24" s="122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H24" s="83" t="b">
         <v>0</v>
@@ -69403,22 +69448,22 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E25" s="122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H25" s="83" t="b">
         <v>0</v>
@@ -69450,22 +69495,22 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C26" s="120" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H26" s="83" t="b">
         <v>0</v>
@@ -69497,22 +69542,22 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C27" s="120" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D27" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H27" s="83" t="b">
         <v>0</v>
@@ -69544,22 +69589,22 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H28" s="83" t="b">
         <v>0</v>
@@ -69591,22 +69636,22 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D29" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E29" s="124" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H29" s="83" t="b">
         <v>0</v>
@@ -69638,22 +69683,22 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D30" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E30" s="122" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H30" s="83" t="b">
         <v>0</v>
@@ -69685,22 +69730,22 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D31" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E31" s="124" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H31" s="83" t="b">
         <v>0</v>
@@ -69732,22 +69777,22 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="120" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C32" s="120" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D32" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H32" s="83" t="b">
         <v>0</v>
@@ -69779,22 +69824,22 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C33" s="120" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D33" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E33" s="122" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H33" s="83" t="b">
         <v>0</v>
@@ -69826,22 +69871,22 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C34" s="120" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D34" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E34" s="122" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G34" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="83" t="b">
         <v>0</v>
@@ -69873,22 +69918,22 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="119" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C35" s="120" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D35" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E35" s="122" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H35" s="83" t="b">
         <v>0</v>
@@ -69920,22 +69965,22 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D36" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E36" s="124" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H36" s="83" t="b">
         <v>0</v>
@@ -69967,22 +70012,22 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="120" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C37" s="123" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D37" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E37" s="122" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H37" s="83" t="b">
         <v>0</v>
@@ -70014,22 +70059,22 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="119" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E38" s="122" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G38" s="82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H38" s="83" t="b">
         <v>0</v>
@@ -70061,22 +70106,22 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="94" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D39" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E39" s="124" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G39" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H39" s="83" t="b">
         <v>0</v>
@@ -70108,22 +70153,22 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="119" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D40" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E40" s="122" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H40" s="83" t="b">
         <v>0</v>
@@ -70155,22 +70200,22 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="119" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C41" s="119" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D41" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E41" s="124" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H41" s="83" t="b">
         <v>0</v>
@@ -70202,22 +70247,22 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C42" s="120" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D42" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E42" s="124" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G42" s="82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H42" s="83" t="b">
         <v>0</v>
@@ -70249,22 +70294,22 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="119" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D43" s="121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E43" s="124" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G43" s="82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H43" s="83" t="b">
         <v>0</v>
@@ -70296,22 +70341,22 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="126" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D44" s="127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E44" s="128" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F44" s="101" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G44" s="102" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H44" s="103" t="b">
         <v>0</v>
@@ -70343,22 +70388,22 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="134" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C45" s="135" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D45" s="136" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E45" s="137" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G45" s="82" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H45" s="83" t="b">
         <v>0</v>
@@ -70390,22 +70435,22 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="135" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C46" s="135" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="136" t="s">
+        <v>320</v>
+      </c>
+      <c r="E46" s="139" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" s="82" t="s">
         <v>322</v>
-      </c>
-      <c r="D46" s="136" t="s">
-        <v>318</v>
-      </c>
-      <c r="E46" s="139" t="s">
-        <v>323</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="82" t="s">
-        <v>320</v>
       </c>
       <c r="H46" s="83" t="b">
         <v>0</v>
@@ -70437,22 +70482,22 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="135" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C47" s="135" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E47" s="140" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G47" s="82" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H47" s="83" t="b">
         <v>0</v>
@@ -70484,22 +70529,22 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="135" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C48" s="141" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D48" s="136" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E48" s="139" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G48" s="82" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H48" s="83" t="b">
         <v>0</v>
@@ -70531,22 +70576,22 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="135" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C49" s="135" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D49" s="136" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E49" s="139" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G49" s="82" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H49" s="83" t="b">
         <v>0</v>
@@ -70578,22 +70623,22 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="142" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C50" s="142" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D50" s="127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E50" s="143" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F50" s="101" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G50" s="102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H50" s="103" t="b">
         <v>0</v>
@@ -70625,22 +70670,22 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="146" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C51" s="146" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D51" s="147" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="148" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F51" s="69" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H51" s="83" t="b">
         <v>0</v>
@@ -70672,22 +70717,22 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="152" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C52" s="152" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D52" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="154" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H52" s="83" t="b">
         <v>0</v>
@@ -70719,22 +70764,22 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="152" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C53" s="152" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D53" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="154" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H53" s="83" t="b">
         <v>0</v>
@@ -70766,22 +70811,22 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="152" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C54" s="152" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D54" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="154" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G54" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H54" s="83" t="b">
         <v>0</v>
@@ -70813,22 +70858,22 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="156" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C55" s="156" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D55" s="157" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="158" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H55" s="159" t="b">
         <v>1</v>
@@ -70860,22 +70905,22 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="160" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C56" s="161" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D56" s="162" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E56" s="163" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H56" s="164" t="b">
         <v>1</v>
@@ -70907,22 +70952,22 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="165" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" s="166" t="s">
+        <v>358</v>
+      </c>
+      <c r="D57" s="167" t="s">
         <v>355</v>
       </c>
-      <c r="C57" s="166" t="s">
-        <v>356</v>
-      </c>
-      <c r="D57" s="167" t="s">
-        <v>353</v>
-      </c>
       <c r="E57" s="168" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G57" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H57" s="164" t="b">
         <v>1</v>
@@ -70954,22 +70999,22 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="169" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C58" s="169" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D58" s="170" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E58" s="171" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F58" s="101" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G58" s="102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H58" s="159" t="b">
         <v>1</v>
@@ -71001,22 +71046,22 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="173" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C59" s="173" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E59" s="175" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G59" s="82" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H59" s="164" t="b">
         <v>1</v>
@@ -71048,22 +71093,22 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="177" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" s="177" t="s">
+        <v>368</v>
+      </c>
+      <c r="D60" s="178" t="s">
         <v>365</v>
       </c>
-      <c r="C60" s="177" t="s">
-        <v>366</v>
-      </c>
-      <c r="D60" s="178" t="s">
-        <v>363</v>
-      </c>
       <c r="E60" s="179" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G60" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H60" s="83" t="b">
         <v>0</v>
@@ -71095,22 +71140,22 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="180" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C61" s="180" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D61" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E61" s="179" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G61" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H61" s="83" t="b">
         <v>0</v>
@@ -71142,22 +71187,22 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="180" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C62" s="180" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D62" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E62" s="179" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G62" s="82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H62" s="83" t="b">
         <v>0</v>
@@ -71189,22 +71234,22 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="180" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C63" s="180" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D63" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E63" s="179" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G63" s="82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H63" s="83" t="b">
         <v>0</v>
@@ -71236,22 +71281,22 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="180" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C64" s="180" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D64" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E64" s="179" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G64" s="82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H64" s="83" t="b">
         <v>0</v>
@@ -71283,22 +71328,22 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="180" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C65" s="180" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D65" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E65" s="179" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G65" s="82" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H65" s="83" t="b">
         <v>0</v>
@@ -71330,22 +71375,22 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="180" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C66" s="180" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D66" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E66" s="179" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G66" s="82" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H66" s="83" t="b">
         <v>0</v>
@@ -71377,22 +71422,22 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="180" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C67" s="177" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D67" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E67" s="181" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G67" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H67" s="83" t="b">
         <v>0</v>
@@ -71424,22 +71469,22 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="177" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C68" s="177" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D68" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E68" s="179" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H68" s="83" t="b">
         <v>0</v>
@@ -71471,22 +71516,22 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="180" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C69" s="180" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D69" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E69" s="179" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G69" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H69" s="83" t="b">
         <v>0</v>
@@ -71518,22 +71563,22 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="177" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C70" s="177" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D70" s="178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E70" s="179" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G70" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H70" s="83" t="b">
         <v>0</v>
@@ -71565,22 +71610,22 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="183" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C71" s="183" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D71" s="184" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E71" s="185" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F71" s="101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G71" s="102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H71" s="103" t="b">
         <v>0</v>
@@ -71612,22 +71657,22 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="187" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C72" s="187" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D72" s="188" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E72" s="189" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G72" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H72" s="83" t="b">
         <v>0</v>
@@ -71659,22 +71704,22 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C73" s="191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D73" s="192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E73" s="193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G73" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H73" s="83" t="b">
         <v>0</v>
@@ -71706,22 +71751,22 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C74" s="191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D74" s="192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E74" s="193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G74" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H74" s="83" t="b">
         <v>0</v>
@@ -71753,22 +71798,22 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C75" s="191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D75" s="192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E75" s="193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G75" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H75" s="83" t="b">
         <v>0</v>
@@ -71800,22 +71845,22 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C76" s="191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D76" s="192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E76" s="193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G76" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H76" s="83" t="b">
         <v>0</v>
@@ -71847,22 +71892,22 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C77" s="191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D77" s="192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E77" s="193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G77" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H77" s="83" t="b">
         <v>0</v>
@@ -71894,22 +71939,22 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C78" s="191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D78" s="192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E78" s="193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G78" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H78" s="83" t="b">
         <v>0</v>
@@ -71941,22 +71986,22 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C79" s="191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D79" s="192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E79" s="193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G79" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H79" s="83" t="b">
         <v>0</v>
@@ -71988,22 +72033,22 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C80" s="191" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D80" s="192" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E80" s="193" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H80" s="83" t="b">
         <v>0</v>
@@ -72035,22 +72080,22 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="195" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C81" s="195" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D81" s="196" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E81" s="197" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F81" s="101" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G81" s="102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H81" s="103" t="b">
         <v>0</v>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="409">
   <si>
     <t>Number</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>의뢰 수주</t>
+  </si>
+  <si>
+    <t>54,55</t>
+  </si>
+  <si>
+    <t>2,1</t>
   </si>
   <si>
     <t>습격</t>
@@ -64661,7 +64667,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="1">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="D2" s="1">
         <v>150.0</v>
@@ -64941,7 +64947,7 @@
     <col customWidth="1" min="4" max="4" width="20.71"/>
     <col customWidth="1" min="5" max="5" width="14.57"/>
     <col customWidth="1" min="6" max="6" width="13.0"/>
-    <col customWidth="1" min="7" max="7" width="12.57"/>
+    <col customWidth="1" min="7" max="7" width="18.0"/>
     <col customWidth="1" min="8" max="8" width="17.57"/>
     <col customWidth="1" min="9" max="10" width="8.43"/>
     <col customWidth="1" min="11" max="11" width="8.57"/>
@@ -65020,6 +65026,12 @@
       <c r="F2" s="1">
         <v>3.0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="I2" s="1">
         <v>100.0</v>
       </c>
@@ -65053,13 +65065,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="57">
         <v>10000.0</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E3" s="1">
         <v>7.0</v>
@@ -65100,13 +65112,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="57">
         <v>180000.0</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1">
         <v>7.0</v>
@@ -65147,13 +65159,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1">
         <v>7.0</v>
@@ -65194,13 +65206,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1">
         <v>9.0</v>
@@ -65241,13 +65253,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1">
         <v>10000.0</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1">
         <v>9.0</v>
@@ -68320,46 +68332,46 @@
         <v>61</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O1" s="62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -68367,22 +68379,22 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H2" s="71" t="b">
         <v>0</v>
@@ -68414,22 +68426,22 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="G3" s="82" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>188</v>
       </c>
       <c r="H3" s="83" t="b">
         <v>0</v>
@@ -68461,22 +68473,22 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H4" s="83" t="b">
         <v>0</v>
@@ -68508,22 +68520,22 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H5" s="83" t="b">
         <v>0</v>
@@ -68555,22 +68567,22 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H6" s="83" t="b">
         <v>0</v>
@@ -68602,22 +68614,22 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H7" s="83" t="b">
         <v>0</v>
@@ -68649,22 +68661,22 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H8" s="83" t="b">
         <v>0</v>
@@ -68696,22 +68708,22 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H9" s="83" t="b">
         <v>0</v>
@@ -68743,22 +68755,22 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H10" s="83" t="b">
         <v>0</v>
@@ -68790,22 +68802,22 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H11" s="83" t="b">
         <v>0</v>
@@ -68837,22 +68849,22 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H12" s="83" t="b">
         <v>0</v>
@@ -68884,22 +68896,22 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H13" s="83" t="b">
         <v>0</v>
@@ -68931,22 +68943,22 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="83" t="b">
         <v>0</v>
@@ -68978,22 +68990,22 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H15" s="83" t="b">
         <v>0</v>
@@ -69025,22 +69037,22 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H16" s="83" t="b">
         <v>0</v>
@@ -69072,22 +69084,22 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H17" s="83" t="b">
         <v>0</v>
@@ -69119,22 +69131,22 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H18" s="83" t="b">
         <v>0</v>
@@ -69166,22 +69178,22 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H19" s="83" t="b">
         <v>0</v>
@@ -69213,22 +69225,22 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H20" s="83" t="b">
         <v>0</v>
@@ -69260,22 +69272,22 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E21" s="100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H21" s="103" t="b">
         <v>0</v>
@@ -69307,22 +69319,22 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E22" s="113" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H22" s="83" t="b">
         <v>0</v>
@@ -69354,22 +69366,22 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C23" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="121" t="s">
-        <v>248</v>
-      </c>
-      <c r="E23" s="122" t="s">
-        <v>253</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G23" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H23" s="83" t="b">
         <v>0</v>
@@ -69401,22 +69413,22 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C24" s="123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E24" s="122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H24" s="83" t="b">
         <v>0</v>
@@ -69448,22 +69460,22 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="119" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E25" s="122" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H25" s="83" t="b">
         <v>0</v>
@@ -69495,22 +69507,22 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C26" s="120" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H26" s="83" t="b">
         <v>0</v>
@@ -69542,22 +69554,22 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="119" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C27" s="120" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D27" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H27" s="83" t="b">
         <v>0</v>
@@ -69589,22 +69601,22 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H28" s="83" t="b">
         <v>0</v>
@@ -69636,22 +69648,22 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="119" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D29" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E29" s="124" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H29" s="83" t="b">
         <v>0</v>
@@ -69683,22 +69695,22 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D30" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E30" s="122" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H30" s="83" t="b">
         <v>0</v>
@@ -69730,22 +69742,22 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D31" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E31" s="124" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H31" s="83" t="b">
         <v>0</v>
@@ -69777,22 +69789,22 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="120" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C32" s="120" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D32" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H32" s="83" t="b">
         <v>0</v>
@@ -69824,22 +69836,22 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C33" s="120" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D33" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E33" s="122" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H33" s="83" t="b">
         <v>0</v>
@@ -69871,22 +69883,22 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C34" s="120" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D34" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E34" s="122" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G34" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H34" s="83" t="b">
         <v>0</v>
@@ -69918,22 +69930,22 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="119" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C35" s="120" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D35" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E35" s="122" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H35" s="83" t="b">
         <v>0</v>
@@ -69965,22 +69977,22 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D36" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E36" s="124" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H36" s="83" t="b">
         <v>0</v>
@@ -70012,22 +70024,22 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="120" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C37" s="123" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D37" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E37" s="122" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H37" s="83" t="b">
         <v>0</v>
@@ -70059,22 +70071,22 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="119" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E38" s="122" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G38" s="82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H38" s="83" t="b">
         <v>0</v>
@@ -70106,22 +70118,22 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="94" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D39" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E39" s="124" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G39" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H39" s="83" t="b">
         <v>0</v>
@@ -70153,22 +70165,22 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="119" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D40" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E40" s="122" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H40" s="83" t="b">
         <v>0</v>
@@ -70200,22 +70212,22 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="119" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C41" s="119" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D41" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E41" s="124" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H41" s="83" t="b">
         <v>0</v>
@@ -70247,22 +70259,22 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C42" s="120" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D42" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E42" s="124" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G42" s="82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H42" s="83" t="b">
         <v>0</v>
@@ -70294,22 +70306,22 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="119" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D43" s="121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E43" s="124" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G43" s="82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H43" s="83" t="b">
         <v>0</v>
@@ -70341,22 +70353,22 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="126" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D44" s="127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E44" s="128" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F44" s="101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G44" s="102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H44" s="103" t="b">
         <v>0</v>
@@ -70388,22 +70400,22 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="134" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C45" s="135" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D45" s="136" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E45" s="137" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F45" s="69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G45" s="82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H45" s="83" t="b">
         <v>0</v>
@@ -70435,22 +70447,22 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="135" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C46" s="135" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="136" t="s">
+        <v>322</v>
+      </c>
+      <c r="E46" s="139" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="82" t="s">
         <v>324</v>
-      </c>
-      <c r="D46" s="136" t="s">
-        <v>320</v>
-      </c>
-      <c r="E46" s="139" t="s">
-        <v>325</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G46" s="82" t="s">
-        <v>322</v>
       </c>
       <c r="H46" s="83" t="b">
         <v>0</v>
@@ -70482,22 +70494,22 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="135" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C47" s="135" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E47" s="140" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G47" s="82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H47" s="83" t="b">
         <v>0</v>
@@ -70529,22 +70541,22 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="135" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C48" s="141" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D48" s="136" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E48" s="139" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G48" s="82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H48" s="83" t="b">
         <v>0</v>
@@ -70576,22 +70588,22 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="135" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C49" s="135" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D49" s="136" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E49" s="139" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G49" s="82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H49" s="83" t="b">
         <v>0</v>
@@ -70623,22 +70635,22 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="142" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C50" s="142" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D50" s="127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E50" s="143" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F50" s="101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G50" s="102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H50" s="103" t="b">
         <v>0</v>
@@ -70670,22 +70682,22 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="146" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C51" s="146" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D51" s="147" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="148" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F51" s="69" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H51" s="83" t="b">
         <v>0</v>
@@ -70717,22 +70729,22 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="152" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C52" s="152" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D52" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="154" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H52" s="83" t="b">
         <v>0</v>
@@ -70764,22 +70776,22 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="152" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C53" s="152" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D53" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="154" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H53" s="83" t="b">
         <v>0</v>
@@ -70811,22 +70823,22 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="152" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C54" s="152" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D54" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="154" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G54" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H54" s="83" t="b">
         <v>0</v>
@@ -70858,22 +70870,22 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="156" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C55" s="156" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D55" s="157" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="158" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="102" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H55" s="159" t="b">
         <v>1</v>
@@ -70905,22 +70917,22 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="160" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C56" s="161" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D56" s="162" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E56" s="163" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H56" s="164" t="b">
         <v>1</v>
@@ -70952,22 +70964,22 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="165" t="s">
+        <v>359</v>
+      </c>
+      <c r="C57" s="166" t="s">
+        <v>360</v>
+      </c>
+      <c r="D57" s="167" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="166" t="s">
-        <v>358</v>
-      </c>
-      <c r="D57" s="167" t="s">
-        <v>355</v>
-      </c>
       <c r="E57" s="168" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G57" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H57" s="164" t="b">
         <v>1</v>
@@ -70999,22 +71011,22 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="169" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C58" s="169" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D58" s="170" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E58" s="171" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F58" s="101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G58" s="102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H58" s="159" t="b">
         <v>1</v>
@@ -71046,22 +71058,22 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="173" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C59" s="173" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E59" s="175" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G59" s="82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H59" s="164" t="b">
         <v>1</v>
@@ -71093,22 +71105,22 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="177" t="s">
+        <v>369</v>
+      </c>
+      <c r="C60" s="177" t="s">
+        <v>370</v>
+      </c>
+      <c r="D60" s="178" t="s">
         <v>367</v>
       </c>
-      <c r="C60" s="177" t="s">
-        <v>368</v>
-      </c>
-      <c r="D60" s="178" t="s">
-        <v>365</v>
-      </c>
       <c r="E60" s="179" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G60" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H60" s="83" t="b">
         <v>0</v>
@@ -71140,22 +71152,22 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="180" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C61" s="180" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D61" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E61" s="179" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G61" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H61" s="83" t="b">
         <v>0</v>
@@ -71187,22 +71199,22 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="180" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C62" s="180" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D62" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E62" s="179" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G62" s="82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H62" s="83" t="b">
         <v>0</v>
@@ -71234,22 +71246,22 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="180" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C63" s="180" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D63" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E63" s="179" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G63" s="82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H63" s="83" t="b">
         <v>0</v>
@@ -71281,22 +71293,22 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="180" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C64" s="180" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D64" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E64" s="179" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G64" s="82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H64" s="83" t="b">
         <v>0</v>
@@ -71328,22 +71340,22 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="180" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C65" s="180" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D65" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E65" s="179" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G65" s="82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H65" s="83" t="b">
         <v>0</v>
@@ -71375,22 +71387,22 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="180" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C66" s="180" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D66" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E66" s="179" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G66" s="82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H66" s="83" t="b">
         <v>0</v>
@@ -71422,22 +71434,22 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="180" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C67" s="177" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D67" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E67" s="181" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G67" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H67" s="83" t="b">
         <v>0</v>
@@ -71469,22 +71481,22 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="177" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C68" s="177" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D68" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E68" s="179" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H68" s="83" t="b">
         <v>0</v>
@@ -71516,22 +71528,22 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="180" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C69" s="180" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D69" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E69" s="179" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G69" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H69" s="83" t="b">
         <v>0</v>
@@ -71563,22 +71575,22 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="177" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C70" s="177" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D70" s="178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E70" s="179" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G70" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H70" s="83" t="b">
         <v>0</v>
@@ -71610,22 +71622,22 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="183" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C71" s="183" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D71" s="184" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E71" s="185" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F71" s="101" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G71" s="102" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H71" s="103" t="b">
         <v>0</v>
@@ -71657,22 +71669,22 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="187" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C72" s="187" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D72" s="188" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E72" s="189" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G72" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H72" s="83" t="b">
         <v>0</v>
@@ -71704,22 +71716,22 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C73" s="191" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D73" s="192" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E73" s="193" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G73" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H73" s="83" t="b">
         <v>0</v>
@@ -71751,22 +71763,22 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C74" s="191" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D74" s="192" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E74" s="193" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G74" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H74" s="83" t="b">
         <v>0</v>
@@ -71798,22 +71810,22 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C75" s="191" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D75" s="192" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E75" s="193" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G75" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H75" s="83" t="b">
         <v>0</v>
@@ -71845,22 +71857,22 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C76" s="191" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D76" s="192" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E76" s="193" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G76" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H76" s="83" t="b">
         <v>0</v>
@@ -71892,22 +71904,22 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C77" s="191" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D77" s="192" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E77" s="193" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G77" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H77" s="83" t="b">
         <v>0</v>
@@ -71939,22 +71951,22 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C78" s="191" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D78" s="192" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E78" s="193" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G78" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H78" s="83" t="b">
         <v>0</v>
@@ -71986,22 +71998,22 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C79" s="191" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D79" s="192" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E79" s="193" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G79" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H79" s="83" t="b">
         <v>0</v>
@@ -72033,22 +72045,22 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C80" s="191" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D80" s="192" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E80" s="193" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H80" s="83" t="b">
         <v>0</v>
@@ -72080,22 +72092,22 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="195" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C81" s="195" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D81" s="196" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E81" s="197" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F81" s="101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G81" s="102" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H81" s="103" t="b">
         <v>0</v>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="416">
   <si>
     <t>Number</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>DropDown</t>
+  </si>
+  <si>
+    <t>Max_Mercenary</t>
   </si>
   <si>
     <t>기관사</t>
@@ -64749,6 +64752,7 @@
     <col customWidth="1" min="5" max="5" width="64.0"/>
     <col customWidth="1" min="6" max="6" width="17.71"/>
     <col customWidth="1" min="7" max="7" width="15.86"/>
+    <col customWidth="1" min="10" max="10" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -64779,19 +64783,22 @@
       <c r="I1" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1">
         <v>1000.0</v>
@@ -64804,6 +64811,9 @@
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -64811,13 +64821,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1">
         <v>700.0</v>
@@ -64830,6 +64840,9 @@
       </c>
       <c r="I3" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="4">
@@ -64837,13 +64850,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F4" s="1">
         <v>1500.0</v>
@@ -64856,6 +64869,9 @@
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -64863,13 +64879,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1">
         <v>2000.0</v>
@@ -64882,6 +64898,9 @@
       </c>
       <c r="I5" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -64889,13 +64908,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" s="1">
         <v>1500.0</v>
@@ -64908,6 +64927,9 @@
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -64915,13 +64937,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F7" s="1">
         <v>400.0</v>
@@ -64934,6 +64956,9 @@
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -64941,13 +64966,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" s="1">
         <v>300.0</v>
@@ -64960,6 +64985,9 @@
       </c>
       <c r="I8" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -64995,52 +65023,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -65048,7 +65076,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="58">
         <v>9999999.0</v>
@@ -65063,10 +65091,10 @@
         <v>3.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I2" s="1">
         <v>100.0</v>
@@ -65101,19 +65129,25 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="58">
         <v>10000.0</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1">
         <v>7.0</v>
       </c>
       <c r="F3" s="1">
         <v>3.0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I3" s="1">
         <v>100.0</v>
@@ -65148,19 +65182,25 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" s="58">
         <v>180000.0</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E4" s="1">
         <v>7.0</v>
       </c>
       <c r="F4" s="1">
         <v>4.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I4" s="1">
         <v>100.0</v>
@@ -65195,19 +65235,25 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1">
         <v>210000.0</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1">
         <v>7.0</v>
       </c>
       <c r="F5" s="1">
         <v>4.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I5" s="1">
         <v>100.0</v>
@@ -65242,19 +65288,25 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1">
         <v>230000.0</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E6" s="1">
         <v>9.0</v>
       </c>
       <c r="F6" s="1">
         <v>4.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I6" s="1">
         <v>100.0</v>
@@ -65289,19 +65341,25 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1">
         <v>10000.0</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E7" s="1">
         <v>9.0</v>
       </c>
       <c r="F7" s="1">
         <v>4.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I7" s="1">
         <v>100.0</v>
@@ -68368,46 +68426,46 @@
         <v>61</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O1" s="63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
@@ -68415,22 +68473,22 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H2" s="72" t="b">
         <v>0</v>
@@ -68462,22 +68520,22 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="83" t="s">
         <v>197</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>196</v>
       </c>
       <c r="H3" s="84" t="b">
         <v>0</v>
@@ -68509,22 +68567,22 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G4" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H4" s="84" t="b">
         <v>0</v>
@@ -68556,22 +68614,22 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H5" s="84" t="b">
         <v>0</v>
@@ -68603,22 +68661,22 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H6" s="84" t="b">
         <v>0</v>
@@ -68650,22 +68708,22 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E7" s="92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H7" s="84" t="b">
         <v>0</v>
@@ -68697,22 +68755,22 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E8" s="92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H8" s="84" t="b">
         <v>0</v>
@@ -68744,22 +68802,22 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H9" s="84" t="b">
         <v>0</v>
@@ -68791,22 +68849,22 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E10" s="92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H10" s="84" t="b">
         <v>0</v>
@@ -68838,22 +68896,22 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H11" s="84" t="b">
         <v>0</v>
@@ -68885,22 +68943,22 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H12" s="84" t="b">
         <v>0</v>
@@ -68932,22 +68990,22 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H13" s="84" t="b">
         <v>0</v>
@@ -68979,22 +69037,22 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H14" s="84" t="b">
         <v>0</v>
@@ -69026,22 +69084,22 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H15" s="84" t="b">
         <v>0</v>
@@ -69073,22 +69131,22 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G16" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H16" s="84" t="b">
         <v>0</v>
@@ -69120,22 +69178,22 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H17" s="84" t="b">
         <v>0</v>
@@ -69167,22 +69225,22 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H18" s="84" t="b">
         <v>0</v>
@@ -69214,22 +69272,22 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H19" s="84" t="b">
         <v>0</v>
@@ -69261,22 +69319,22 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E20" s="92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H20" s="84" t="b">
         <v>0</v>
@@ -69308,22 +69366,22 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E21" s="101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" s="103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H21" s="104" t="b">
         <v>0</v>
@@ -69355,22 +69413,22 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C22" s="112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E22" s="114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H22" s="84" t="b">
         <v>0</v>
@@ -69402,22 +69460,22 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" s="123" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="122" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" s="123" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="G23" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H23" s="84" t="b">
         <v>0</v>
@@ -69449,22 +69507,22 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C24" s="124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D24" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E24" s="123" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H24" s="84" t="b">
         <v>0</v>
@@ -69496,22 +69554,22 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D25" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E25" s="123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H25" s="84" t="b">
         <v>0</v>
@@ -69543,22 +69601,22 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D26" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E26" s="125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H26" s="84" t="b">
         <v>0</v>
@@ -69590,22 +69648,22 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C27" s="121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D27" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E27" s="125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G27" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H27" s="84" t="b">
         <v>0</v>
@@ -69637,22 +69695,22 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D28" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E28" s="125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G28" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H28" s="84" t="b">
         <v>0</v>
@@ -69684,22 +69742,22 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C29" s="121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D29" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E29" s="125" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G29" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H29" s="84" t="b">
         <v>0</v>
@@ -69731,22 +69789,22 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="121" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D30" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E30" s="123" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G30" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H30" s="84" t="b">
         <v>0</v>
@@ -69778,22 +69836,22 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="120" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="120" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D31" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E31" s="125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G31" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H31" s="84" t="b">
         <v>0</v>
@@ -69825,22 +69883,22 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="121" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="121" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D32" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E32" s="125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G32" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H32" s="84" t="b">
         <v>0</v>
@@ -69872,22 +69930,22 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C33" s="121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D33" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E33" s="123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G33" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H33" s="84" t="b">
         <v>0</v>
@@ -69919,22 +69977,22 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D34" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E34" s="123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G34" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="84" t="b">
         <v>0</v>
@@ -69966,22 +70024,22 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="120" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C35" s="121" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D35" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E35" s="123" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G35" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H35" s="84" t="b">
         <v>0</v>
@@ -70013,22 +70071,22 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C36" s="120" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D36" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E36" s="125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G36" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H36" s="84" t="b">
         <v>0</v>
@@ -70060,22 +70118,22 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="121" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C37" s="124" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D37" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E37" s="123" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G37" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H37" s="84" t="b">
         <v>0</v>
@@ -70107,22 +70165,22 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="120" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C38" s="120" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D38" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E38" s="123" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H38" s="84" t="b">
         <v>0</v>
@@ -70154,22 +70212,22 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="95" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C39" s="95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D39" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E39" s="125" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G39" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H39" s="84" t="b">
         <v>0</v>
@@ -70201,22 +70259,22 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="120" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C40" s="120" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D40" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E40" s="123" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G40" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H40" s="84" t="b">
         <v>0</v>
@@ -70248,22 +70306,22 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="120" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C41" s="120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D41" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E41" s="125" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G41" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H41" s="84" t="b">
         <v>0</v>
@@ -70295,22 +70353,22 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="120" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C42" s="121" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D42" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E42" s="125" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H42" s="84" t="b">
         <v>0</v>
@@ -70342,22 +70400,22 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="120" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D43" s="122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E43" s="125" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G43" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H43" s="84" t="b">
         <v>0</v>
@@ -70389,22 +70447,22 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="127" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C44" s="127" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D44" s="128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E44" s="129" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F44" s="102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G44" s="103" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H44" s="104" t="b">
         <v>0</v>
@@ -70436,22 +70494,22 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="135" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C45" s="136" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D45" s="137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E45" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G45" s="83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H45" s="84" t="b">
         <v>0</v>
@@ -70483,22 +70541,22 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="136" t="s">
+        <v>333</v>
+      </c>
+      <c r="D46" s="137" t="s">
+        <v>329</v>
+      </c>
+      <c r="E46" s="140" t="s">
+        <v>334</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="83" t="s">
         <v>331</v>
-      </c>
-      <c r="C46" s="136" t="s">
-        <v>332</v>
-      </c>
-      <c r="D46" s="137" t="s">
-        <v>328</v>
-      </c>
-      <c r="E46" s="140" t="s">
-        <v>333</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G46" s="83" t="s">
-        <v>330</v>
       </c>
       <c r="H46" s="84" t="b">
         <v>0</v>
@@ -70530,22 +70588,22 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C47" s="136" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D47" s="137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E47" s="141" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G47" s="83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H47" s="84" t="b">
         <v>0</v>
@@ -70577,22 +70635,22 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="136" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C48" s="142" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D48" s="137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E48" s="140" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G48" s="83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H48" s="84" t="b">
         <v>0</v>
@@ -70624,22 +70682,22 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="136" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D49" s="137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E49" s="140" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G49" s="83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H49" s="84" t="b">
         <v>0</v>
@@ -70671,22 +70729,22 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="143" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C50" s="143" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D50" s="128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E50" s="144" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F50" s="102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G50" s="103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H50" s="104" t="b">
         <v>0</v>
@@ -70718,22 +70776,22 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="147" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C51" s="147" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D51" s="148" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="149" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F51" s="70" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H51" s="84" t="b">
         <v>0</v>
@@ -70765,22 +70823,22 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="153" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C52" s="153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D52" s="154" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="155" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H52" s="84" t="b">
         <v>0</v>
@@ -70812,22 +70870,22 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="153" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C53" s="153" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D53" s="154" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="155" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H53" s="84" t="b">
         <v>0</v>
@@ -70859,22 +70917,22 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="153" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C54" s="153" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D54" s="154" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="155" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H54" s="84" t="b">
         <v>0</v>
@@ -70906,22 +70964,22 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="157" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C55" s="157" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D55" s="158" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="159" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H55" s="160" t="b">
         <v>1</v>
@@ -70953,22 +71011,22 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="161" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C56" s="162" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D56" s="163" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E56" s="164" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F56" s="70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G56" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H56" s="165" t="b">
         <v>1</v>
@@ -71000,22 +71058,22 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="166" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C57" s="167" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D57" s="168" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E57" s="169" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G57" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H57" s="165" t="b">
         <v>1</v>
@@ -71047,22 +71105,22 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="170" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C58" s="170" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D58" s="171" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E58" s="172" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F58" s="102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G58" s="103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H58" s="160" t="b">
         <v>1</v>
@@ -71094,22 +71152,22 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="174" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C59" s="174" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D59" s="175" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E59" s="176" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G59" s="83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H59" s="165" t="b">
         <v>1</v>
@@ -71141,22 +71199,22 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="178" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C60" s="178" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D60" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E60" s="180" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G60" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H60" s="84" t="b">
         <v>0</v>
@@ -71188,22 +71246,22 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="181" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C61" s="181" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D61" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E61" s="180" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G61" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H61" s="84" t="b">
         <v>0</v>
@@ -71235,22 +71293,22 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="181" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C62" s="181" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D62" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E62" s="180" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G62" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H62" s="84" t="b">
         <v>0</v>
@@ -71282,22 +71340,22 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="181" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C63" s="181" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D63" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E63" s="180" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G63" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H63" s="84" t="b">
         <v>0</v>
@@ -71329,22 +71387,22 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="181" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C64" s="181" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D64" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E64" s="180" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G64" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H64" s="84" t="b">
         <v>0</v>
@@ -71376,22 +71434,22 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="181" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C65" s="181" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D65" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E65" s="180" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G65" s="83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H65" s="84" t="b">
         <v>0</v>
@@ -71423,22 +71481,22 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="181" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C66" s="181" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D66" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E66" s="180" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G66" s="83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H66" s="84" t="b">
         <v>0</v>
@@ -71470,22 +71528,22 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="181" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C67" s="178" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D67" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E67" s="182" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G67" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H67" s="84" t="b">
         <v>0</v>
@@ -71517,22 +71575,22 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="178" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C68" s="178" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D68" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E68" s="180" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G68" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H68" s="84" t="b">
         <v>0</v>
@@ -71564,22 +71622,22 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="181" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C69" s="181" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D69" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E69" s="180" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G69" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H69" s="84" t="b">
         <v>0</v>
@@ -71611,22 +71669,22 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="178" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C70" s="178" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D70" s="179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E70" s="180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G70" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H70" s="84" t="b">
         <v>0</v>
@@ -71658,22 +71716,22 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="184" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C71" s="184" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D71" s="185" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E71" s="186" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F71" s="102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G71" s="103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H71" s="104" t="b">
         <v>0</v>
@@ -71705,22 +71763,22 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="188" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C72" s="188" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D72" s="189" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E72" s="190" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G72" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H72" s="84" t="b">
         <v>0</v>
@@ -71752,22 +71810,22 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C73" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D73" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E73" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G73" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H73" s="84" t="b">
         <v>0</v>
@@ -71799,22 +71857,22 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C74" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D74" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E74" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G74" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H74" s="84" t="b">
         <v>0</v>
@@ -71846,22 +71904,22 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C75" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D75" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E75" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G75" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H75" s="84" t="b">
         <v>0</v>
@@ -71893,22 +71951,22 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C76" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D76" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E76" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G76" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H76" s="84" t="b">
         <v>0</v>
@@ -71940,22 +71998,22 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C77" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D77" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E77" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G77" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H77" s="84" t="b">
         <v>0</v>
@@ -71987,22 +72045,22 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C78" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D78" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E78" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G78" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H78" s="84" t="b">
         <v>0</v>
@@ -72034,22 +72092,22 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C79" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D79" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E79" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G79" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H79" s="84" t="b">
         <v>0</v>
@@ -72081,22 +72139,22 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C80" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D80" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E80" s="194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G80" s="83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H80" s="84" t="b">
         <v>0</v>
@@ -72128,22 +72186,22 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="196" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C81" s="196" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D81" s="197" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E81" s="198" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F81" s="102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G81" s="103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H81" s="104" t="b">
         <v>0</v>

--- a/Train/Assets/Data_Game/Game_DataTable.xlsx
+++ b/Train/Assets/Data_Game/Game_DataTable.xlsx
@@ -65386,7 +65386,7 @@
         <v>5.0</v>
       </c>
       <c r="Q7" s="1">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
